--- a/backend/static/report.xlsx
+++ b/backend/static/report.xlsx
@@ -525,9 +525,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -540,16 +541,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -775,7 +779,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="146">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1320,8 +1324,20 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1334,6 +1350,10 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1427,9 +1447,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>56520</xdr:colOff>
+      <xdr:colOff>56160</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1443,7 +1463,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="177840" y="68040"/>
-          <a:ext cx="1212840" cy="550080"/>
+          <a:ext cx="1212480" cy="549720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1469,9 +1489,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19440</xdr:colOff>
+      <xdr:colOff>19080</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1485,7 +1505,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="500040" y="75960"/>
-          <a:ext cx="1212840" cy="550080"/>
+          <a:ext cx="1212480" cy="549720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1511,9 +1531,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>101520</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>134640</xdr:rowOff>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1527,7 +1547,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5842440" y="10004040"/>
-          <a:ext cx="624960" cy="281160"/>
+          <a:ext cx="624600" cy="280800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1655,7 +1675,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AF44" activeCellId="0" sqref="AF44"/>
     </sheetView>
   </sheetViews>
@@ -3305,8 +3325,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE10" activeCellId="0" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3642,218 +3662,218 @@
       <c r="AM8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="130" t="str">
+      <c r="C9" s="137" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "Таблица 4. Перечень предоставленной технической документации", "")</f>
         <v/>
       </c>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="130"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="130"/>
-      <c r="P9" s="130"/>
-      <c r="Q9" s="130"/>
-      <c r="R9" s="130"/>
-      <c r="S9" s="130"/>
-      <c r="T9" s="130"/>
-      <c r="U9" s="130"/>
-      <c r="V9" s="130"/>
-      <c r="W9" s="130"/>
-      <c r="X9" s="130"/>
-      <c r="Y9" s="130"/>
-      <c r="Z9" s="130"/>
-      <c r="AA9" s="130"/>
-      <c r="AB9" s="130"/>
-      <c r="AC9" s="130"/>
-      <c r="AD9" s="130"/>
-      <c r="AE9" s="130"/>
-      <c r="AF9" s="130"/>
-      <c r="AG9" s="130"/>
-      <c r="AH9" s="130"/>
-      <c r="AI9" s="130"/>
-      <c r="AJ9" s="130"/>
-      <c r="AK9" s="130"/>
-      <c r="AL9" s="130"/>
-      <c r="AM9" s="130"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="138"/>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="138"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="138"/>
+      <c r="U9" s="138"/>
+      <c r="V9" s="138"/>
+      <c r="W9" s="138"/>
+      <c r="X9" s="138"/>
+      <c r="Y9" s="138"/>
+      <c r="Z9" s="138"/>
+      <c r="AA9" s="138"/>
+      <c r="AB9" s="138"/>
+      <c r="AC9" s="138"/>
+      <c r="AD9" s="138"/>
+      <c r="AE9" s="138"/>
+      <c r="AF9" s="138"/>
+      <c r="AG9" s="138"/>
+      <c r="AH9" s="138"/>
+      <c r="AI9" s="138"/>
+      <c r="AJ9" s="138"/>
+      <c r="AK9" s="138"/>
+      <c r="AL9" s="138"/>
+      <c r="AM9" s="139"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="130"/>
-      <c r="N10" s="130"/>
-      <c r="O10" s="130"/>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="130"/>
-      <c r="S10" s="130"/>
-      <c r="T10" s="130"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="130"/>
-      <c r="X10" s="130"/>
-      <c r="Y10" s="130"/>
-      <c r="Z10" s="130"/>
-      <c r="AA10" s="130"/>
-      <c r="AB10" s="130"/>
-      <c r="AC10" s="130"/>
-      <c r="AD10" s="130"/>
-      <c r="AE10" s="130"/>
-      <c r="AF10" s="130"/>
-      <c r="AG10" s="130"/>
-      <c r="AH10" s="130"/>
-      <c r="AI10" s="130"/>
-      <c r="AJ10" s="130"/>
-      <c r="AK10" s="130"/>
-      <c r="AL10" s="130"/>
-      <c r="AM10" s="130"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="138"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="138"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="138"/>
+      <c r="W10" s="138"/>
+      <c r="X10" s="138"/>
+      <c r="Y10" s="138"/>
+      <c r="Z10" s="138"/>
+      <c r="AA10" s="138"/>
+      <c r="AB10" s="138"/>
+      <c r="AC10" s="138"/>
+      <c r="AD10" s="138"/>
+      <c r="AE10" s="138"/>
+      <c r="AF10" s="138"/>
+      <c r="AG10" s="138"/>
+      <c r="AH10" s="138"/>
+      <c r="AI10" s="138"/>
+      <c r="AJ10" s="138"/>
+      <c r="AK10" s="138"/>
+      <c r="AL10" s="138"/>
+      <c r="AM10" s="139"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="137" t="str">
+      <c r="C11" s="140" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "№ п/п", "")</f>
         <v/>
       </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="138" t="str">
+      <c r="D11" s="105"/>
+      <c r="E11" s="141" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "Наименование документации", "")</f>
         <v/>
       </c>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="138"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="138"/>
-      <c r="P11" s="138"/>
-      <c r="Q11" s="138"/>
-      <c r="R11" s="138"/>
-      <c r="S11" s="138"/>
-      <c r="T11" s="138"/>
-      <c r="U11" s="138"/>
-      <c r="V11" s="138"/>
-      <c r="W11" s="138" t="str">
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="141"/>
+      <c r="O11" s="141"/>
+      <c r="P11" s="141"/>
+      <c r="Q11" s="141"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="141"/>
+      <c r="T11" s="141"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="141"/>
+      <c r="W11" s="141" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "Год выпуска", "")</f>
         <v/>
       </c>
-      <c r="X11" s="138"/>
-      <c r="Y11" s="138"/>
-      <c r="Z11" s="138"/>
-      <c r="AA11" s="138"/>
-      <c r="AB11" s="139" t="str">
+      <c r="X11" s="141"/>
+      <c r="Y11" s="141"/>
+      <c r="Z11" s="141"/>
+      <c r="AA11" s="141"/>
+      <c r="AB11" s="141" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "Разработчик", "")</f>
         <v/>
       </c>
-      <c r="AC11" s="139"/>
-      <c r="AD11" s="139"/>
-      <c r="AE11" s="139"/>
-      <c r="AF11" s="139"/>
-      <c r="AG11" s="139"/>
-      <c r="AH11" s="139"/>
-      <c r="AI11" s="139"/>
-      <c r="AJ11" s="139"/>
-      <c r="AK11" s="139"/>
-      <c r="AL11" s="139"/>
-      <c r="AM11" s="139"/>
+      <c r="AC11" s="141"/>
+      <c r="AD11" s="141"/>
+      <c r="AE11" s="141"/>
+      <c r="AF11" s="141"/>
+      <c r="AG11" s="141"/>
+      <c r="AH11" s="141"/>
+      <c r="AI11" s="141"/>
+      <c r="AJ11" s="141"/>
+      <c r="AK11" s="141"/>
+      <c r="AL11" s="141"/>
+      <c r="AM11" s="142"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="138"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="138"/>
-      <c r="Q12" s="138"/>
-      <c r="R12" s="138"/>
-      <c r="S12" s="138"/>
-      <c r="T12" s="138"/>
-      <c r="U12" s="138"/>
-      <c r="V12" s="138"/>
-      <c r="W12" s="138"/>
-      <c r="X12" s="138"/>
-      <c r="Y12" s="138"/>
-      <c r="Z12" s="138"/>
-      <c r="AA12" s="138"/>
-      <c r="AB12" s="139"/>
-      <c r="AC12" s="139"/>
-      <c r="AD12" s="139"/>
-      <c r="AE12" s="139"/>
-      <c r="AF12" s="139"/>
-      <c r="AG12" s="139"/>
-      <c r="AH12" s="139"/>
-      <c r="AI12" s="139"/>
-      <c r="AJ12" s="139"/>
-      <c r="AK12" s="139"/>
-      <c r="AL12" s="139"/>
-      <c r="AM12" s="139"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="141"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="141"/>
+      <c r="N12" s="141"/>
+      <c r="O12" s="141"/>
+      <c r="P12" s="141"/>
+      <c r="Q12" s="141"/>
+      <c r="R12" s="141"/>
+      <c r="S12" s="141"/>
+      <c r="T12" s="141"/>
+      <c r="U12" s="141"/>
+      <c r="V12" s="141"/>
+      <c r="W12" s="141"/>
+      <c r="X12" s="141"/>
+      <c r="Y12" s="141"/>
+      <c r="Z12" s="141"/>
+      <c r="AA12" s="141"/>
+      <c r="AB12" s="141"/>
+      <c r="AC12" s="141"/>
+      <c r="AD12" s="141"/>
+      <c r="AE12" s="141"/>
+      <c r="AF12" s="141"/>
+      <c r="AG12" s="141"/>
+      <c r="AH12" s="141"/>
+      <c r="AI12" s="141"/>
+      <c r="AJ12" s="141"/>
+      <c r="AK12" s="141"/>
+      <c r="AL12" s="141"/>
+      <c r="AM12" s="142"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="138"/>
-      <c r="N13" s="138"/>
-      <c r="O13" s="138"/>
-      <c r="P13" s="138"/>
-      <c r="Q13" s="138"/>
-      <c r="R13" s="138"/>
-      <c r="S13" s="138"/>
-      <c r="T13" s="138"/>
-      <c r="U13" s="138"/>
-      <c r="V13" s="138"/>
-      <c r="W13" s="138"/>
-      <c r="X13" s="138"/>
-      <c r="Y13" s="138"/>
-      <c r="Z13" s="138"/>
-      <c r="AA13" s="138"/>
-      <c r="AB13" s="139"/>
-      <c r="AC13" s="139"/>
-      <c r="AD13" s="139"/>
-      <c r="AE13" s="139"/>
-      <c r="AF13" s="139"/>
-      <c r="AG13" s="139"/>
-      <c r="AH13" s="139"/>
-      <c r="AI13" s="139"/>
-      <c r="AJ13" s="139"/>
-      <c r="AK13" s="139"/>
-      <c r="AL13" s="139"/>
-      <c r="AM13" s="139"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="141"/>
+      <c r="M13" s="141"/>
+      <c r="N13" s="141"/>
+      <c r="O13" s="141"/>
+      <c r="P13" s="141"/>
+      <c r="Q13" s="141"/>
+      <c r="R13" s="141"/>
+      <c r="S13" s="141"/>
+      <c r="T13" s="141"/>
+      <c r="U13" s="141"/>
+      <c r="V13" s="141"/>
+      <c r="W13" s="141"/>
+      <c r="X13" s="141"/>
+      <c r="Y13" s="141"/>
+      <c r="Z13" s="141"/>
+      <c r="AA13" s="141"/>
+      <c r="AB13" s="141"/>
+      <c r="AC13" s="141"/>
+      <c r="AD13" s="141"/>
+      <c r="AE13" s="141"/>
+      <c r="AF13" s="141"/>
+      <c r="AG13" s="141"/>
+      <c r="AH13" s="141"/>
+      <c r="AI13" s="141"/>
+      <c r="AJ13" s="141"/>
+      <c r="AK13" s="141"/>
+      <c r="AL13" s="141"/>
+      <c r="AM13" s="142"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="84"/>
       <c r="F14" s="84"/>
       <c r="G14" s="84"/>
@@ -3877,22 +3897,22 @@
       <c r="Y14" s="32"/>
       <c r="Z14" s="32"/>
       <c r="AA14" s="32"/>
-      <c r="AB14" s="140"/>
-      <c r="AC14" s="140"/>
-      <c r="AD14" s="140"/>
-      <c r="AE14" s="140"/>
-      <c r="AF14" s="140"/>
-      <c r="AG14" s="140"/>
-      <c r="AH14" s="140"/>
-      <c r="AI14" s="140"/>
-      <c r="AJ14" s="140"/>
-      <c r="AK14" s="140"/>
-      <c r="AL14" s="140"/>
-      <c r="AM14" s="140"/>
+      <c r="AB14" s="143"/>
+      <c r="AC14" s="143"/>
+      <c r="AD14" s="143"/>
+      <c r="AE14" s="143"/>
+      <c r="AF14" s="143"/>
+      <c r="AG14" s="143"/>
+      <c r="AH14" s="143"/>
+      <c r="AI14" s="143"/>
+      <c r="AJ14" s="143"/>
+      <c r="AK14" s="143"/>
+      <c r="AL14" s="143"/>
+      <c r="AM14" s="144"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="84"/>
       <c r="F15" s="84"/>
       <c r="G15" s="84"/>
@@ -3916,22 +3936,22 @@
       <c r="Y15" s="32"/>
       <c r="Z15" s="32"/>
       <c r="AA15" s="32"/>
-      <c r="AB15" s="140"/>
-      <c r="AC15" s="140"/>
-      <c r="AD15" s="140"/>
-      <c r="AE15" s="140"/>
-      <c r="AF15" s="140"/>
-      <c r="AG15" s="140"/>
-      <c r="AH15" s="140"/>
-      <c r="AI15" s="140"/>
-      <c r="AJ15" s="140"/>
-      <c r="AK15" s="140"/>
-      <c r="AL15" s="140"/>
-      <c r="AM15" s="140"/>
+      <c r="AB15" s="143"/>
+      <c r="AC15" s="143"/>
+      <c r="AD15" s="143"/>
+      <c r="AE15" s="143"/>
+      <c r="AF15" s="143"/>
+      <c r="AG15" s="143"/>
+      <c r="AH15" s="143"/>
+      <c r="AI15" s="143"/>
+      <c r="AJ15" s="143"/>
+      <c r="AK15" s="143"/>
+      <c r="AL15" s="143"/>
+      <c r="AM15" s="144"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="84"/>
       <c r="F16" s="84"/>
       <c r="G16" s="84"/>
@@ -3955,22 +3975,22 @@
       <c r="Y16" s="32"/>
       <c r="Z16" s="32"/>
       <c r="AA16" s="32"/>
-      <c r="AB16" s="140"/>
-      <c r="AC16" s="140"/>
-      <c r="AD16" s="140"/>
-      <c r="AE16" s="140"/>
-      <c r="AF16" s="140"/>
-      <c r="AG16" s="140"/>
-      <c r="AH16" s="140"/>
-      <c r="AI16" s="140"/>
-      <c r="AJ16" s="140"/>
-      <c r="AK16" s="140"/>
-      <c r="AL16" s="140"/>
-      <c r="AM16" s="140"/>
+      <c r="AB16" s="143"/>
+      <c r="AC16" s="143"/>
+      <c r="AD16" s="143"/>
+      <c r="AE16" s="143"/>
+      <c r="AF16" s="143"/>
+      <c r="AG16" s="143"/>
+      <c r="AH16" s="143"/>
+      <c r="AI16" s="143"/>
+      <c r="AJ16" s="143"/>
+      <c r="AK16" s="143"/>
+      <c r="AL16" s="143"/>
+      <c r="AM16" s="144"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="84"/>
       <c r="F17" s="84"/>
       <c r="G17" s="84"/>
@@ -3994,22 +4014,22 @@
       <c r="Y17" s="32"/>
       <c r="Z17" s="32"/>
       <c r="AA17" s="32"/>
-      <c r="AB17" s="140"/>
-      <c r="AC17" s="140"/>
-      <c r="AD17" s="140"/>
-      <c r="AE17" s="140"/>
-      <c r="AF17" s="140"/>
-      <c r="AG17" s="140"/>
-      <c r="AH17" s="140"/>
-      <c r="AI17" s="140"/>
-      <c r="AJ17" s="140"/>
-      <c r="AK17" s="140"/>
-      <c r="AL17" s="140"/>
-      <c r="AM17" s="140"/>
+      <c r="AB17" s="143"/>
+      <c r="AC17" s="143"/>
+      <c r="AD17" s="143"/>
+      <c r="AE17" s="143"/>
+      <c r="AF17" s="143"/>
+      <c r="AG17" s="143"/>
+      <c r="AH17" s="143"/>
+      <c r="AI17" s="143"/>
+      <c r="AJ17" s="143"/>
+      <c r="AK17" s="143"/>
+      <c r="AL17" s="143"/>
+      <c r="AM17" s="144"/>
     </row>
     <row r="18" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="84"/>
       <c r="F18" s="84"/>
       <c r="G18" s="84"/>
@@ -4033,22 +4053,22 @@
       <c r="Y18" s="32"/>
       <c r="Z18" s="32"/>
       <c r="AA18" s="32"/>
-      <c r="AB18" s="140"/>
-      <c r="AC18" s="140"/>
-      <c r="AD18" s="140"/>
-      <c r="AE18" s="140"/>
-      <c r="AF18" s="140"/>
-      <c r="AG18" s="140"/>
-      <c r="AH18" s="140"/>
-      <c r="AI18" s="140"/>
-      <c r="AJ18" s="140"/>
-      <c r="AK18" s="140"/>
-      <c r="AL18" s="140"/>
-      <c r="AM18" s="140"/>
+      <c r="AB18" s="143"/>
+      <c r="AC18" s="143"/>
+      <c r="AD18" s="143"/>
+      <c r="AE18" s="143"/>
+      <c r="AF18" s="143"/>
+      <c r="AG18" s="143"/>
+      <c r="AH18" s="143"/>
+      <c r="AI18" s="143"/>
+      <c r="AJ18" s="143"/>
+      <c r="AK18" s="143"/>
+      <c r="AL18" s="143"/>
+      <c r="AM18" s="144"/>
     </row>
     <row r="19" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
       <c r="G19" s="84"/>
@@ -4072,22 +4092,22 @@
       <c r="Y19" s="32"/>
       <c r="Z19" s="32"/>
       <c r="AA19" s="32"/>
-      <c r="AB19" s="140"/>
-      <c r="AC19" s="140"/>
-      <c r="AD19" s="140"/>
-      <c r="AE19" s="140"/>
-      <c r="AF19" s="140"/>
-      <c r="AG19" s="140"/>
-      <c r="AH19" s="140"/>
-      <c r="AI19" s="140"/>
-      <c r="AJ19" s="140"/>
-      <c r="AK19" s="140"/>
-      <c r="AL19" s="140"/>
-      <c r="AM19" s="140"/>
+      <c r="AB19" s="143"/>
+      <c r="AC19" s="143"/>
+      <c r="AD19" s="143"/>
+      <c r="AE19" s="143"/>
+      <c r="AF19" s="143"/>
+      <c r="AG19" s="143"/>
+      <c r="AH19" s="143"/>
+      <c r="AI19" s="143"/>
+      <c r="AJ19" s="143"/>
+      <c r="AK19" s="143"/>
+      <c r="AL19" s="143"/>
+      <c r="AM19" s="144"/>
     </row>
     <row r="20" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="84"/>
       <c r="F20" s="84"/>
       <c r="G20" s="84"/>
@@ -4111,22 +4131,22 @@
       <c r="Y20" s="32"/>
       <c r="Z20" s="32"/>
       <c r="AA20" s="32"/>
-      <c r="AB20" s="140"/>
-      <c r="AC20" s="140"/>
-      <c r="AD20" s="140"/>
-      <c r="AE20" s="140"/>
-      <c r="AF20" s="140"/>
-      <c r="AG20" s="140"/>
-      <c r="AH20" s="140"/>
-      <c r="AI20" s="140"/>
-      <c r="AJ20" s="140"/>
-      <c r="AK20" s="140"/>
-      <c r="AL20" s="140"/>
-      <c r="AM20" s="140"/>
+      <c r="AB20" s="143"/>
+      <c r="AC20" s="143"/>
+      <c r="AD20" s="143"/>
+      <c r="AE20" s="143"/>
+      <c r="AF20" s="143"/>
+      <c r="AG20" s="143"/>
+      <c r="AH20" s="143"/>
+      <c r="AI20" s="143"/>
+      <c r="AJ20" s="143"/>
+      <c r="AK20" s="143"/>
+      <c r="AL20" s="143"/>
+      <c r="AM20" s="144"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="84"/>
       <c r="F21" s="84"/>
       <c r="G21" s="84"/>
@@ -4150,22 +4170,22 @@
       <c r="Y21" s="32"/>
       <c r="Z21" s="32"/>
       <c r="AA21" s="32"/>
-      <c r="AB21" s="140"/>
-      <c r="AC21" s="140"/>
-      <c r="AD21" s="140"/>
-      <c r="AE21" s="140"/>
-      <c r="AF21" s="140"/>
-      <c r="AG21" s="140"/>
-      <c r="AH21" s="140"/>
-      <c r="AI21" s="140"/>
-      <c r="AJ21" s="140"/>
-      <c r="AK21" s="140"/>
-      <c r="AL21" s="140"/>
-      <c r="AM21" s="140"/>
+      <c r="AB21" s="143"/>
+      <c r="AC21" s="143"/>
+      <c r="AD21" s="143"/>
+      <c r="AE21" s="143"/>
+      <c r="AF21" s="143"/>
+      <c r="AG21" s="143"/>
+      <c r="AH21" s="143"/>
+      <c r="AI21" s="143"/>
+      <c r="AJ21" s="143"/>
+      <c r="AK21" s="143"/>
+      <c r="AL21" s="143"/>
+      <c r="AM21" s="144"/>
     </row>
     <row r="22" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="84"/>
       <c r="F22" s="84"/>
       <c r="G22" s="84"/>
@@ -4189,22 +4209,22 @@
       <c r="Y22" s="32"/>
       <c r="Z22" s="32"/>
       <c r="AA22" s="32"/>
-      <c r="AB22" s="140"/>
-      <c r="AC22" s="140"/>
-      <c r="AD22" s="140"/>
-      <c r="AE22" s="140"/>
-      <c r="AF22" s="140"/>
-      <c r="AG22" s="140"/>
-      <c r="AH22" s="140"/>
-      <c r="AI22" s="140"/>
-      <c r="AJ22" s="140"/>
-      <c r="AK22" s="140"/>
-      <c r="AL22" s="140"/>
-      <c r="AM22" s="140"/>
+      <c r="AB22" s="143"/>
+      <c r="AC22" s="143"/>
+      <c r="AD22" s="143"/>
+      <c r="AE22" s="143"/>
+      <c r="AF22" s="143"/>
+      <c r="AG22" s="143"/>
+      <c r="AH22" s="143"/>
+      <c r="AI22" s="143"/>
+      <c r="AJ22" s="143"/>
+      <c r="AK22" s="143"/>
+      <c r="AL22" s="143"/>
+      <c r="AM22" s="144"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="84"/>
       <c r="F23" s="84"/>
       <c r="G23" s="84"/>
@@ -4228,22 +4248,22 @@
       <c r="Y23" s="32"/>
       <c r="Z23" s="32"/>
       <c r="AA23" s="32"/>
-      <c r="AB23" s="140"/>
-      <c r="AC23" s="140"/>
-      <c r="AD23" s="140"/>
-      <c r="AE23" s="140"/>
-      <c r="AF23" s="140"/>
-      <c r="AG23" s="140"/>
-      <c r="AH23" s="140"/>
-      <c r="AI23" s="140"/>
-      <c r="AJ23" s="140"/>
-      <c r="AK23" s="140"/>
-      <c r="AL23" s="140"/>
-      <c r="AM23" s="140"/>
+      <c r="AB23" s="143"/>
+      <c r="AC23" s="143"/>
+      <c r="AD23" s="143"/>
+      <c r="AE23" s="143"/>
+      <c r="AF23" s="143"/>
+      <c r="AG23" s="143"/>
+      <c r="AH23" s="143"/>
+      <c r="AI23" s="143"/>
+      <c r="AJ23" s="143"/>
+      <c r="AK23" s="143"/>
+      <c r="AL23" s="143"/>
+      <c r="AM23" s="144"/>
     </row>
     <row r="24" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="84"/>
       <c r="F24" s="84"/>
       <c r="G24" s="84"/>
@@ -4267,22 +4287,22 @@
       <c r="Y24" s="32"/>
       <c r="Z24" s="32"/>
       <c r="AA24" s="32"/>
-      <c r="AB24" s="140"/>
-      <c r="AC24" s="140"/>
-      <c r="AD24" s="140"/>
-      <c r="AE24" s="140"/>
-      <c r="AF24" s="140"/>
-      <c r="AG24" s="140"/>
-      <c r="AH24" s="140"/>
-      <c r="AI24" s="140"/>
-      <c r="AJ24" s="140"/>
-      <c r="AK24" s="140"/>
-      <c r="AL24" s="140"/>
-      <c r="AM24" s="140"/>
+      <c r="AB24" s="143"/>
+      <c r="AC24" s="143"/>
+      <c r="AD24" s="143"/>
+      <c r="AE24" s="143"/>
+      <c r="AF24" s="143"/>
+      <c r="AG24" s="143"/>
+      <c r="AH24" s="143"/>
+      <c r="AI24" s="143"/>
+      <c r="AJ24" s="143"/>
+      <c r="AK24" s="143"/>
+      <c r="AL24" s="143"/>
+      <c r="AM24" s="144"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="84"/>
       <c r="F25" s="84"/>
       <c r="G25" s="84"/>
@@ -4306,22 +4326,22 @@
       <c r="Y25" s="32"/>
       <c r="Z25" s="32"/>
       <c r="AA25" s="32"/>
-      <c r="AB25" s="140"/>
-      <c r="AC25" s="140"/>
-      <c r="AD25" s="140"/>
-      <c r="AE25" s="140"/>
-      <c r="AF25" s="140"/>
-      <c r="AG25" s="140"/>
-      <c r="AH25" s="140"/>
-      <c r="AI25" s="140"/>
-      <c r="AJ25" s="140"/>
-      <c r="AK25" s="140"/>
-      <c r="AL25" s="140"/>
-      <c r="AM25" s="140"/>
+      <c r="AB25" s="143"/>
+      <c r="AC25" s="143"/>
+      <c r="AD25" s="143"/>
+      <c r="AE25" s="143"/>
+      <c r="AF25" s="143"/>
+      <c r="AG25" s="143"/>
+      <c r="AH25" s="143"/>
+      <c r="AI25" s="143"/>
+      <c r="AJ25" s="143"/>
+      <c r="AK25" s="143"/>
+      <c r="AL25" s="143"/>
+      <c r="AM25" s="144"/>
     </row>
     <row r="26" s="1" customFormat="true" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="84"/>
       <c r="F26" s="84"/>
       <c r="G26" s="84"/>
@@ -4345,22 +4365,22 @@
       <c r="Y26" s="32"/>
       <c r="Z26" s="32"/>
       <c r="AA26" s="32"/>
-      <c r="AB26" s="140"/>
-      <c r="AC26" s="140"/>
-      <c r="AD26" s="140"/>
-      <c r="AE26" s="140"/>
-      <c r="AF26" s="140"/>
-      <c r="AG26" s="140"/>
-      <c r="AH26" s="140"/>
-      <c r="AI26" s="140"/>
-      <c r="AJ26" s="140"/>
-      <c r="AK26" s="140"/>
-      <c r="AL26" s="140"/>
-      <c r="AM26" s="140"/>
+      <c r="AB26" s="143"/>
+      <c r="AC26" s="143"/>
+      <c r="AD26" s="143"/>
+      <c r="AE26" s="143"/>
+      <c r="AF26" s="143"/>
+      <c r="AG26" s="143"/>
+      <c r="AH26" s="143"/>
+      <c r="AI26" s="143"/>
+      <c r="AJ26" s="143"/>
+      <c r="AK26" s="143"/>
+      <c r="AL26" s="143"/>
+      <c r="AM26" s="144"/>
     </row>
     <row r="27" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="84"/>
       <c r="F27" s="84"/>
       <c r="G27" s="84"/>
@@ -4384,22 +4404,22 @@
       <c r="Y27" s="32"/>
       <c r="Z27" s="32"/>
       <c r="AA27" s="32"/>
-      <c r="AB27" s="140"/>
-      <c r="AC27" s="140"/>
-      <c r="AD27" s="140"/>
-      <c r="AE27" s="140"/>
-      <c r="AF27" s="140"/>
-      <c r="AG27" s="140"/>
-      <c r="AH27" s="140"/>
-      <c r="AI27" s="140"/>
-      <c r="AJ27" s="140"/>
-      <c r="AK27" s="140"/>
-      <c r="AL27" s="140"/>
-      <c r="AM27" s="140"/>
+      <c r="AB27" s="143"/>
+      <c r="AC27" s="143"/>
+      <c r="AD27" s="143"/>
+      <c r="AE27" s="143"/>
+      <c r="AF27" s="143"/>
+      <c r="AG27" s="143"/>
+      <c r="AH27" s="143"/>
+      <c r="AI27" s="143"/>
+      <c r="AJ27" s="143"/>
+      <c r="AK27" s="143"/>
+      <c r="AL27" s="143"/>
+      <c r="AM27" s="144"/>
     </row>
     <row r="28" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="134"/>
-      <c r="D28" s="134"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="84"/>
       <c r="F28" s="84"/>
       <c r="G28" s="84"/>
@@ -4423,26 +4443,26 @@
       <c r="Y28" s="32"/>
       <c r="Z28" s="32"/>
       <c r="AA28" s="32"/>
-      <c r="AB28" s="140"/>
-      <c r="AC28" s="140"/>
-      <c r="AD28" s="140"/>
-      <c r="AE28" s="140"/>
-      <c r="AF28" s="140"/>
-      <c r="AG28" s="140"/>
-      <c r="AH28" s="140"/>
-      <c r="AI28" s="140"/>
-      <c r="AJ28" s="140"/>
-      <c r="AK28" s="140"/>
-      <c r="AL28" s="140"/>
-      <c r="AM28" s="140"/>
+      <c r="AB28" s="143"/>
+      <c r="AC28" s="143"/>
+      <c r="AD28" s="143"/>
+      <c r="AE28" s="143"/>
+      <c r="AF28" s="143"/>
+      <c r="AG28" s="143"/>
+      <c r="AH28" s="143"/>
+      <c r="AI28" s="143"/>
+      <c r="AJ28" s="143"/>
+      <c r="AK28" s="143"/>
+      <c r="AL28" s="143"/>
+      <c r="AM28" s="144"/>
     </row>
     <row r="29" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="50"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="134"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="84"/>
       <c r="F29" s="84"/>
       <c r="G29" s="84"/>
@@ -4466,24 +4486,24 @@
       <c r="Y29" s="32"/>
       <c r="Z29" s="32"/>
       <c r="AA29" s="32"/>
-      <c r="AB29" s="140"/>
-      <c r="AC29" s="140"/>
-      <c r="AD29" s="140"/>
-      <c r="AE29" s="140"/>
-      <c r="AF29" s="140"/>
-      <c r="AG29" s="140"/>
-      <c r="AH29" s="140"/>
-      <c r="AI29" s="140"/>
-      <c r="AJ29" s="140"/>
-      <c r="AK29" s="140"/>
-      <c r="AL29" s="140"/>
-      <c r="AM29" s="140"/>
+      <c r="AB29" s="143"/>
+      <c r="AC29" s="143"/>
+      <c r="AD29" s="143"/>
+      <c r="AE29" s="143"/>
+      <c r="AF29" s="143"/>
+      <c r="AG29" s="143"/>
+      <c r="AH29" s="143"/>
+      <c r="AI29" s="143"/>
+      <c r="AJ29" s="143"/>
+      <c r="AK29" s="143"/>
+      <c r="AL29" s="143"/>
+      <c r="AM29" s="144"/>
     </row>
     <row r="30" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="84"/>
       <c r="F30" s="84"/>
       <c r="G30" s="84"/>
@@ -4507,24 +4527,24 @@
       <c r="Y30" s="32"/>
       <c r="Z30" s="32"/>
       <c r="AA30" s="32"/>
-      <c r="AB30" s="140"/>
-      <c r="AC30" s="140"/>
-      <c r="AD30" s="140"/>
-      <c r="AE30" s="140"/>
-      <c r="AF30" s="140"/>
-      <c r="AG30" s="140"/>
-      <c r="AH30" s="140"/>
-      <c r="AI30" s="140"/>
-      <c r="AJ30" s="140"/>
-      <c r="AK30" s="140"/>
-      <c r="AL30" s="140"/>
-      <c r="AM30" s="140"/>
+      <c r="AB30" s="143"/>
+      <c r="AC30" s="143"/>
+      <c r="AD30" s="143"/>
+      <c r="AE30" s="143"/>
+      <c r="AF30" s="143"/>
+      <c r="AG30" s="143"/>
+      <c r="AH30" s="143"/>
+      <c r="AI30" s="143"/>
+      <c r="AJ30" s="143"/>
+      <c r="AK30" s="143"/>
+      <c r="AL30" s="143"/>
+      <c r="AM30" s="144"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="84"/>
       <c r="F31" s="84"/>
       <c r="G31" s="84"/>
@@ -4548,24 +4568,24 @@
       <c r="Y31" s="32"/>
       <c r="Z31" s="32"/>
       <c r="AA31" s="32"/>
-      <c r="AB31" s="140"/>
-      <c r="AC31" s="140"/>
-      <c r="AD31" s="140"/>
-      <c r="AE31" s="140"/>
-      <c r="AF31" s="140"/>
-      <c r="AG31" s="140"/>
-      <c r="AH31" s="140"/>
-      <c r="AI31" s="140"/>
-      <c r="AJ31" s="140"/>
-      <c r="AK31" s="140"/>
-      <c r="AL31" s="140"/>
-      <c r="AM31" s="140"/>
+      <c r="AB31" s="143"/>
+      <c r="AC31" s="143"/>
+      <c r="AD31" s="143"/>
+      <c r="AE31" s="143"/>
+      <c r="AF31" s="143"/>
+      <c r="AG31" s="143"/>
+      <c r="AH31" s="143"/>
+      <c r="AI31" s="143"/>
+      <c r="AJ31" s="143"/>
+      <c r="AK31" s="143"/>
+      <c r="AL31" s="143"/>
+      <c r="AM31" s="144"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="84"/>
       <c r="F32" s="84"/>
       <c r="G32" s="84"/>
@@ -4589,24 +4609,24 @@
       <c r="Y32" s="32"/>
       <c r="Z32" s="32"/>
       <c r="AA32" s="32"/>
-      <c r="AB32" s="140"/>
-      <c r="AC32" s="140"/>
-      <c r="AD32" s="140"/>
-      <c r="AE32" s="140"/>
-      <c r="AF32" s="140"/>
-      <c r="AG32" s="140"/>
-      <c r="AH32" s="140"/>
-      <c r="AI32" s="140"/>
-      <c r="AJ32" s="140"/>
-      <c r="AK32" s="140"/>
-      <c r="AL32" s="140"/>
-      <c r="AM32" s="140"/>
+      <c r="AB32" s="143"/>
+      <c r="AC32" s="143"/>
+      <c r="AD32" s="143"/>
+      <c r="AE32" s="143"/>
+      <c r="AF32" s="143"/>
+      <c r="AG32" s="143"/>
+      <c r="AH32" s="143"/>
+      <c r="AI32" s="143"/>
+      <c r="AJ32" s="143"/>
+      <c r="AK32" s="143"/>
+      <c r="AL32" s="143"/>
+      <c r="AM32" s="144"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="134"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="84"/>
       <c r="F33" s="84"/>
       <c r="G33" s="84"/>
@@ -4630,24 +4650,24 @@
       <c r="Y33" s="32"/>
       <c r="Z33" s="32"/>
       <c r="AA33" s="32"/>
-      <c r="AB33" s="140"/>
-      <c r="AC33" s="140"/>
-      <c r="AD33" s="140"/>
-      <c r="AE33" s="140"/>
-      <c r="AF33" s="140"/>
-      <c r="AG33" s="140"/>
-      <c r="AH33" s="140"/>
-      <c r="AI33" s="140"/>
-      <c r="AJ33" s="140"/>
-      <c r="AK33" s="140"/>
-      <c r="AL33" s="140"/>
-      <c r="AM33" s="140"/>
+      <c r="AB33" s="143"/>
+      <c r="AC33" s="143"/>
+      <c r="AD33" s="143"/>
+      <c r="AE33" s="143"/>
+      <c r="AF33" s="143"/>
+      <c r="AG33" s="143"/>
+      <c r="AH33" s="143"/>
+      <c r="AI33" s="143"/>
+      <c r="AJ33" s="143"/>
+      <c r="AK33" s="143"/>
+      <c r="AL33" s="143"/>
+      <c r="AM33" s="144"/>
     </row>
     <row r="34" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="84"/>
       <c r="F34" s="84"/>
       <c r="G34" s="84"/>
@@ -4671,24 +4691,24 @@
       <c r="Y34" s="32"/>
       <c r="Z34" s="32"/>
       <c r="AA34" s="32"/>
-      <c r="AB34" s="140"/>
-      <c r="AC34" s="140"/>
-      <c r="AD34" s="140"/>
-      <c r="AE34" s="140"/>
-      <c r="AF34" s="140"/>
-      <c r="AG34" s="140"/>
-      <c r="AH34" s="140"/>
-      <c r="AI34" s="140"/>
-      <c r="AJ34" s="140"/>
-      <c r="AK34" s="140"/>
-      <c r="AL34" s="140"/>
-      <c r="AM34" s="140"/>
+      <c r="AB34" s="143"/>
+      <c r="AC34" s="143"/>
+      <c r="AD34" s="143"/>
+      <c r="AE34" s="143"/>
+      <c r="AF34" s="143"/>
+      <c r="AG34" s="143"/>
+      <c r="AH34" s="143"/>
+      <c r="AI34" s="143"/>
+      <c r="AJ34" s="143"/>
+      <c r="AK34" s="143"/>
+      <c r="AL34" s="143"/>
+      <c r="AM34" s="144"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="134"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="84"/>
       <c r="F35" s="84"/>
       <c r="G35" s="84"/>
@@ -4712,26 +4732,26 @@
       <c r="Y35" s="32"/>
       <c r="Z35" s="32"/>
       <c r="AA35" s="32"/>
-      <c r="AB35" s="140"/>
-      <c r="AC35" s="140"/>
-      <c r="AD35" s="140"/>
-      <c r="AE35" s="140"/>
-      <c r="AF35" s="140"/>
-      <c r="AG35" s="140"/>
-      <c r="AH35" s="140"/>
-      <c r="AI35" s="140"/>
-      <c r="AJ35" s="140"/>
-      <c r="AK35" s="140"/>
-      <c r="AL35" s="140"/>
-      <c r="AM35" s="140"/>
+      <c r="AB35" s="143"/>
+      <c r="AC35" s="143"/>
+      <c r="AD35" s="143"/>
+      <c r="AE35" s="143"/>
+      <c r="AF35" s="143"/>
+      <c r="AG35" s="143"/>
+      <c r="AH35" s="143"/>
+      <c r="AI35" s="143"/>
+      <c r="AJ35" s="143"/>
+      <c r="AK35" s="143"/>
+      <c r="AL35" s="143"/>
+      <c r="AM35" s="144"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="50"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="84"/>
       <c r="F36" s="84"/>
       <c r="G36" s="84"/>
@@ -4755,24 +4775,24 @@
       <c r="Y36" s="32"/>
       <c r="Z36" s="32"/>
       <c r="AA36" s="32"/>
-      <c r="AB36" s="140"/>
-      <c r="AC36" s="140"/>
-      <c r="AD36" s="140"/>
-      <c r="AE36" s="140"/>
-      <c r="AF36" s="140"/>
-      <c r="AG36" s="140"/>
-      <c r="AH36" s="140"/>
-      <c r="AI36" s="140"/>
-      <c r="AJ36" s="140"/>
-      <c r="AK36" s="140"/>
-      <c r="AL36" s="140"/>
-      <c r="AM36" s="140"/>
+      <c r="AB36" s="143"/>
+      <c r="AC36" s="143"/>
+      <c r="AD36" s="143"/>
+      <c r="AE36" s="143"/>
+      <c r="AF36" s="143"/>
+      <c r="AG36" s="143"/>
+      <c r="AH36" s="143"/>
+      <c r="AI36" s="143"/>
+      <c r="AJ36" s="143"/>
+      <c r="AK36" s="143"/>
+      <c r="AL36" s="143"/>
+      <c r="AM36" s="144"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
-      <c r="C37" s="134"/>
-      <c r="D37" s="134"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="84"/>
       <c r="F37" s="84"/>
       <c r="G37" s="84"/>
@@ -4796,24 +4816,24 @@
       <c r="Y37" s="32"/>
       <c r="Z37" s="32"/>
       <c r="AA37" s="32"/>
-      <c r="AB37" s="140"/>
-      <c r="AC37" s="140"/>
-      <c r="AD37" s="140"/>
-      <c r="AE37" s="140"/>
-      <c r="AF37" s="140"/>
-      <c r="AG37" s="140"/>
-      <c r="AH37" s="140"/>
-      <c r="AI37" s="140"/>
-      <c r="AJ37" s="140"/>
-      <c r="AK37" s="140"/>
-      <c r="AL37" s="140"/>
-      <c r="AM37" s="140"/>
+      <c r="AB37" s="143"/>
+      <c r="AC37" s="143"/>
+      <c r="AD37" s="143"/>
+      <c r="AE37" s="143"/>
+      <c r="AF37" s="143"/>
+      <c r="AG37" s="143"/>
+      <c r="AH37" s="143"/>
+      <c r="AI37" s="143"/>
+      <c r="AJ37" s="143"/>
+      <c r="AK37" s="143"/>
+      <c r="AL37" s="143"/>
+      <c r="AM37" s="144"/>
     </row>
     <row r="38" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="134"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="84"/>
       <c r="F38" s="84"/>
       <c r="G38" s="84"/>
@@ -4837,24 +4857,24 @@
       <c r="Y38" s="32"/>
       <c r="Z38" s="32"/>
       <c r="AA38" s="32"/>
-      <c r="AB38" s="140"/>
-      <c r="AC38" s="140"/>
-      <c r="AD38" s="140"/>
-      <c r="AE38" s="140"/>
-      <c r="AF38" s="140"/>
-      <c r="AG38" s="140"/>
-      <c r="AH38" s="140"/>
-      <c r="AI38" s="140"/>
-      <c r="AJ38" s="140"/>
-      <c r="AK38" s="140"/>
-      <c r="AL38" s="140"/>
-      <c r="AM38" s="140"/>
+      <c r="AB38" s="143"/>
+      <c r="AC38" s="143"/>
+      <c r="AD38" s="143"/>
+      <c r="AE38" s="143"/>
+      <c r="AF38" s="143"/>
+      <c r="AG38" s="143"/>
+      <c r="AH38" s="143"/>
+      <c r="AI38" s="143"/>
+      <c r="AJ38" s="143"/>
+      <c r="AK38" s="143"/>
+      <c r="AL38" s="143"/>
+      <c r="AM38" s="144"/>
     </row>
     <row r="39" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="84"/>
       <c r="F39" s="84"/>
       <c r="G39" s="84"/>
@@ -4878,24 +4898,24 @@
       <c r="Y39" s="32"/>
       <c r="Z39" s="32"/>
       <c r="AA39" s="32"/>
-      <c r="AB39" s="140"/>
-      <c r="AC39" s="140"/>
-      <c r="AD39" s="140"/>
-      <c r="AE39" s="140"/>
-      <c r="AF39" s="140"/>
-      <c r="AG39" s="140"/>
-      <c r="AH39" s="140"/>
-      <c r="AI39" s="140"/>
-      <c r="AJ39" s="140"/>
-      <c r="AK39" s="140"/>
-      <c r="AL39" s="140"/>
-      <c r="AM39" s="140"/>
+      <c r="AB39" s="143"/>
+      <c r="AC39" s="143"/>
+      <c r="AD39" s="143"/>
+      <c r="AE39" s="143"/>
+      <c r="AF39" s="143"/>
+      <c r="AG39" s="143"/>
+      <c r="AH39" s="143"/>
+      <c r="AI39" s="143"/>
+      <c r="AJ39" s="143"/>
+      <c r="AK39" s="143"/>
+      <c r="AL39" s="143"/>
+      <c r="AM39" s="144"/>
     </row>
     <row r="40" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
       <c r="B40" s="50"/>
-      <c r="C40" s="134"/>
-      <c r="D40" s="134"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="84"/>
       <c r="F40" s="84"/>
       <c r="G40" s="84"/>
@@ -4919,26 +4939,26 @@
       <c r="Y40" s="32"/>
       <c r="Z40" s="32"/>
       <c r="AA40" s="32"/>
-      <c r="AB40" s="140"/>
-      <c r="AC40" s="140"/>
-      <c r="AD40" s="140"/>
-      <c r="AE40" s="140"/>
-      <c r="AF40" s="140"/>
-      <c r="AG40" s="140"/>
-      <c r="AH40" s="140"/>
-      <c r="AI40" s="140"/>
-      <c r="AJ40" s="140"/>
-      <c r="AK40" s="140"/>
-      <c r="AL40" s="140"/>
-      <c r="AM40" s="140"/>
+      <c r="AB40" s="143"/>
+      <c r="AC40" s="143"/>
+      <c r="AD40" s="143"/>
+      <c r="AE40" s="143"/>
+      <c r="AF40" s="143"/>
+      <c r="AG40" s="143"/>
+      <c r="AH40" s="143"/>
+      <c r="AI40" s="143"/>
+      <c r="AJ40" s="143"/>
+      <c r="AK40" s="143"/>
+      <c r="AL40" s="143"/>
+      <c r="AM40" s="144"/>
     </row>
     <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="50"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="134"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
       <c r="E41" s="84"/>
       <c r="F41" s="84"/>
       <c r="G41" s="84"/>
@@ -4962,24 +4982,24 @@
       <c r="Y41" s="32"/>
       <c r="Z41" s="32"/>
       <c r="AA41" s="32"/>
-      <c r="AB41" s="140"/>
-      <c r="AC41" s="140"/>
-      <c r="AD41" s="140"/>
-      <c r="AE41" s="140"/>
-      <c r="AF41" s="140"/>
-      <c r="AG41" s="140"/>
-      <c r="AH41" s="140"/>
-      <c r="AI41" s="140"/>
-      <c r="AJ41" s="140"/>
-      <c r="AK41" s="140"/>
-      <c r="AL41" s="140"/>
-      <c r="AM41" s="140"/>
+      <c r="AB41" s="143"/>
+      <c r="AC41" s="143"/>
+      <c r="AD41" s="143"/>
+      <c r="AE41" s="143"/>
+      <c r="AF41" s="143"/>
+      <c r="AG41" s="143"/>
+      <c r="AH41" s="143"/>
+      <c r="AI41" s="143"/>
+      <c r="AJ41" s="143"/>
+      <c r="AK41" s="143"/>
+      <c r="AL41" s="143"/>
+      <c r="AM41" s="144"/>
     </row>
     <row r="42" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49"/>
       <c r="B42" s="50"/>
-      <c r="C42" s="134"/>
-      <c r="D42" s="134"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="84"/>
       <c r="F42" s="84"/>
       <c r="G42" s="84"/>
@@ -5003,24 +5023,24 @@
       <c r="Y42" s="32"/>
       <c r="Z42" s="32"/>
       <c r="AA42" s="32"/>
-      <c r="AB42" s="140"/>
-      <c r="AC42" s="140"/>
-      <c r="AD42" s="140"/>
-      <c r="AE42" s="140"/>
-      <c r="AF42" s="140"/>
-      <c r="AG42" s="140"/>
-      <c r="AH42" s="140"/>
-      <c r="AI42" s="140"/>
-      <c r="AJ42" s="140"/>
-      <c r="AK42" s="140"/>
-      <c r="AL42" s="140"/>
-      <c r="AM42" s="140"/>
+      <c r="AB42" s="143"/>
+      <c r="AC42" s="143"/>
+      <c r="AD42" s="143"/>
+      <c r="AE42" s="143"/>
+      <c r="AF42" s="143"/>
+      <c r="AG42" s="143"/>
+      <c r="AH42" s="143"/>
+      <c r="AI42" s="143"/>
+      <c r="AJ42" s="143"/>
+      <c r="AK42" s="143"/>
+      <c r="AL42" s="143"/>
+      <c r="AM42" s="144"/>
     </row>
     <row r="43" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="49"/>
       <c r="B43" s="50"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="84"/>
       <c r="F43" s="84"/>
       <c r="G43" s="84"/>
@@ -5044,24 +5064,24 @@
       <c r="Y43" s="32"/>
       <c r="Z43" s="32"/>
       <c r="AA43" s="32"/>
-      <c r="AB43" s="140"/>
-      <c r="AC43" s="140"/>
-      <c r="AD43" s="140"/>
-      <c r="AE43" s="140"/>
-      <c r="AF43" s="140"/>
-      <c r="AG43" s="140"/>
-      <c r="AH43" s="140"/>
-      <c r="AI43" s="140"/>
-      <c r="AJ43" s="140"/>
-      <c r="AK43" s="140"/>
-      <c r="AL43" s="140"/>
-      <c r="AM43" s="140"/>
+      <c r="AB43" s="143"/>
+      <c r="AC43" s="143"/>
+      <c r="AD43" s="143"/>
+      <c r="AE43" s="143"/>
+      <c r="AF43" s="143"/>
+      <c r="AG43" s="143"/>
+      <c r="AH43" s="143"/>
+      <c r="AI43" s="143"/>
+      <c r="AJ43" s="143"/>
+      <c r="AK43" s="143"/>
+      <c r="AL43" s="143"/>
+      <c r="AM43" s="144"/>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="49"/>
       <c r="B44" s="50"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
       <c r="E44" s="84"/>
       <c r="F44" s="84"/>
       <c r="G44" s="84"/>
@@ -5085,24 +5105,24 @@
       <c r="Y44" s="32"/>
       <c r="Z44" s="32"/>
       <c r="AA44" s="32"/>
-      <c r="AB44" s="140"/>
-      <c r="AC44" s="140"/>
-      <c r="AD44" s="140"/>
-      <c r="AE44" s="140"/>
-      <c r="AF44" s="140"/>
-      <c r="AG44" s="140"/>
-      <c r="AH44" s="140"/>
-      <c r="AI44" s="140"/>
-      <c r="AJ44" s="140"/>
-      <c r="AK44" s="140"/>
-      <c r="AL44" s="140"/>
-      <c r="AM44" s="140"/>
+      <c r="AB44" s="143"/>
+      <c r="AC44" s="143"/>
+      <c r="AD44" s="143"/>
+      <c r="AE44" s="143"/>
+      <c r="AF44" s="143"/>
+      <c r="AG44" s="143"/>
+      <c r="AH44" s="143"/>
+      <c r="AI44" s="143"/>
+      <c r="AJ44" s="143"/>
+      <c r="AK44" s="143"/>
+      <c r="AL44" s="143"/>
+      <c r="AM44" s="144"/>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="49"/>
       <c r="B45" s="50"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
       <c r="E45" s="84"/>
       <c r="F45" s="84"/>
       <c r="G45" s="84"/>
@@ -5126,26 +5146,26 @@
       <c r="Y45" s="32"/>
       <c r="Z45" s="32"/>
       <c r="AA45" s="32"/>
-      <c r="AB45" s="140"/>
-      <c r="AC45" s="140"/>
-      <c r="AD45" s="140"/>
-      <c r="AE45" s="140"/>
-      <c r="AF45" s="140"/>
-      <c r="AG45" s="140"/>
-      <c r="AH45" s="140"/>
-      <c r="AI45" s="140"/>
-      <c r="AJ45" s="140"/>
-      <c r="AK45" s="140"/>
-      <c r="AL45" s="140"/>
-      <c r="AM45" s="140"/>
+      <c r="AB45" s="143"/>
+      <c r="AC45" s="143"/>
+      <c r="AD45" s="143"/>
+      <c r="AE45" s="143"/>
+      <c r="AF45" s="143"/>
+      <c r="AG45" s="143"/>
+      <c r="AH45" s="143"/>
+      <c r="AI45" s="143"/>
+      <c r="AJ45" s="143"/>
+      <c r="AK45" s="143"/>
+      <c r="AL45" s="143"/>
+      <c r="AM45" s="144"/>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="50"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
       <c r="E46" s="84"/>
       <c r="F46" s="84"/>
       <c r="G46" s="84"/>
@@ -5169,24 +5189,24 @@
       <c r="Y46" s="32"/>
       <c r="Z46" s="32"/>
       <c r="AA46" s="32"/>
-      <c r="AB46" s="140"/>
-      <c r="AC46" s="140"/>
-      <c r="AD46" s="140"/>
-      <c r="AE46" s="140"/>
-      <c r="AF46" s="140"/>
-      <c r="AG46" s="140"/>
-      <c r="AH46" s="140"/>
-      <c r="AI46" s="140"/>
-      <c r="AJ46" s="140"/>
-      <c r="AK46" s="140"/>
-      <c r="AL46" s="140"/>
-      <c r="AM46" s="140"/>
+      <c r="AB46" s="143"/>
+      <c r="AC46" s="143"/>
+      <c r="AD46" s="143"/>
+      <c r="AE46" s="143"/>
+      <c r="AF46" s="143"/>
+      <c r="AG46" s="143"/>
+      <c r="AH46" s="143"/>
+      <c r="AI46" s="143"/>
+      <c r="AJ46" s="143"/>
+      <c r="AK46" s="143"/>
+      <c r="AL46" s="143"/>
+      <c r="AM46" s="144"/>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="49"/>
       <c r="B47" s="50"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
       <c r="E47" s="84"/>
       <c r="F47" s="84"/>
       <c r="G47" s="84"/>
@@ -5210,24 +5230,24 @@
       <c r="Y47" s="32"/>
       <c r="Z47" s="32"/>
       <c r="AA47" s="32"/>
-      <c r="AB47" s="140"/>
-      <c r="AC47" s="140"/>
-      <c r="AD47" s="140"/>
-      <c r="AE47" s="140"/>
-      <c r="AF47" s="140"/>
-      <c r="AG47" s="140"/>
-      <c r="AH47" s="140"/>
-      <c r="AI47" s="140"/>
-      <c r="AJ47" s="140"/>
-      <c r="AK47" s="140"/>
-      <c r="AL47" s="140"/>
-      <c r="AM47" s="140"/>
+      <c r="AB47" s="143"/>
+      <c r="AC47" s="143"/>
+      <c r="AD47" s="143"/>
+      <c r="AE47" s="143"/>
+      <c r="AF47" s="143"/>
+      <c r="AG47" s="143"/>
+      <c r="AH47" s="143"/>
+      <c r="AI47" s="143"/>
+      <c r="AJ47" s="143"/>
+      <c r="AK47" s="143"/>
+      <c r="AL47" s="143"/>
+      <c r="AM47" s="144"/>
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="49"/>
       <c r="B48" s="50"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="134"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="84"/>
       <c r="F48" s="84"/>
       <c r="G48" s="84"/>
@@ -5251,24 +5271,24 @@
       <c r="Y48" s="32"/>
       <c r="Z48" s="32"/>
       <c r="AA48" s="32"/>
-      <c r="AB48" s="140"/>
-      <c r="AC48" s="140"/>
-      <c r="AD48" s="140"/>
-      <c r="AE48" s="140"/>
-      <c r="AF48" s="140"/>
-      <c r="AG48" s="140"/>
-      <c r="AH48" s="140"/>
-      <c r="AI48" s="140"/>
-      <c r="AJ48" s="140"/>
-      <c r="AK48" s="140"/>
-      <c r="AL48" s="140"/>
-      <c r="AM48" s="140"/>
+      <c r="AB48" s="143"/>
+      <c r="AC48" s="143"/>
+      <c r="AD48" s="143"/>
+      <c r="AE48" s="143"/>
+      <c r="AF48" s="143"/>
+      <c r="AG48" s="143"/>
+      <c r="AH48" s="143"/>
+      <c r="AI48" s="143"/>
+      <c r="AJ48" s="143"/>
+      <c r="AK48" s="143"/>
+      <c r="AL48" s="143"/>
+      <c r="AM48" s="144"/>
     </row>
     <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="49"/>
       <c r="B49" s="50"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="134"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="84"/>
       <c r="F49" s="84"/>
       <c r="G49" s="84"/>
@@ -5292,24 +5312,24 @@
       <c r="Y49" s="32"/>
       <c r="Z49" s="32"/>
       <c r="AA49" s="32"/>
-      <c r="AB49" s="140"/>
-      <c r="AC49" s="140"/>
-      <c r="AD49" s="140"/>
-      <c r="AE49" s="140"/>
-      <c r="AF49" s="140"/>
-      <c r="AG49" s="140"/>
-      <c r="AH49" s="140"/>
-      <c r="AI49" s="140"/>
-      <c r="AJ49" s="140"/>
-      <c r="AK49" s="140"/>
-      <c r="AL49" s="140"/>
-      <c r="AM49" s="140"/>
+      <c r="AB49" s="143"/>
+      <c r="AC49" s="143"/>
+      <c r="AD49" s="143"/>
+      <c r="AE49" s="143"/>
+      <c r="AF49" s="143"/>
+      <c r="AG49" s="143"/>
+      <c r="AH49" s="143"/>
+      <c r="AI49" s="143"/>
+      <c r="AJ49" s="143"/>
+      <c r="AK49" s="143"/>
+      <c r="AL49" s="143"/>
+      <c r="AM49" s="144"/>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="49"/>
       <c r="B50" s="50"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="84"/>
       <c r="F50" s="84"/>
       <c r="G50" s="84"/>
@@ -5333,24 +5353,24 @@
       <c r="Y50" s="32"/>
       <c r="Z50" s="32"/>
       <c r="AA50" s="32"/>
-      <c r="AB50" s="140"/>
-      <c r="AC50" s="140"/>
-      <c r="AD50" s="140"/>
-      <c r="AE50" s="140"/>
-      <c r="AF50" s="140"/>
-      <c r="AG50" s="140"/>
-      <c r="AH50" s="140"/>
-      <c r="AI50" s="140"/>
-      <c r="AJ50" s="140"/>
-      <c r="AK50" s="140"/>
-      <c r="AL50" s="140"/>
-      <c r="AM50" s="140"/>
+      <c r="AB50" s="143"/>
+      <c r="AC50" s="143"/>
+      <c r="AD50" s="143"/>
+      <c r="AE50" s="143"/>
+      <c r="AF50" s="143"/>
+      <c r="AG50" s="143"/>
+      <c r="AH50" s="143"/>
+      <c r="AI50" s="143"/>
+      <c r="AJ50" s="143"/>
+      <c r="AK50" s="143"/>
+      <c r="AL50" s="143"/>
+      <c r="AM50" s="144"/>
     </row>
     <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="49"/>
       <c r="B51" s="50"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="134"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
       <c r="E51" s="84"/>
       <c r="F51" s="84"/>
       <c r="G51" s="84"/>
@@ -5374,24 +5394,24 @@
       <c r="Y51" s="32"/>
       <c r="Z51" s="32"/>
       <c r="AA51" s="32"/>
-      <c r="AB51" s="140"/>
-      <c r="AC51" s="140"/>
-      <c r="AD51" s="140"/>
-      <c r="AE51" s="140"/>
-      <c r="AF51" s="140"/>
-      <c r="AG51" s="140"/>
-      <c r="AH51" s="140"/>
-      <c r="AI51" s="140"/>
-      <c r="AJ51" s="140"/>
-      <c r="AK51" s="140"/>
-      <c r="AL51" s="140"/>
-      <c r="AM51" s="140"/>
+      <c r="AB51" s="143"/>
+      <c r="AC51" s="143"/>
+      <c r="AD51" s="143"/>
+      <c r="AE51" s="143"/>
+      <c r="AF51" s="143"/>
+      <c r="AG51" s="143"/>
+      <c r="AH51" s="143"/>
+      <c r="AI51" s="143"/>
+      <c r="AJ51" s="143"/>
+      <c r="AK51" s="143"/>
+      <c r="AL51" s="143"/>
+      <c r="AM51" s="144"/>
     </row>
     <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="49"/>
       <c r="B52" s="50"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="134"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="84"/>
       <c r="F52" s="84"/>
       <c r="G52" s="84"/>
@@ -5415,18 +5435,18 @@
       <c r="Y52" s="32"/>
       <c r="Z52" s="32"/>
       <c r="AA52" s="32"/>
-      <c r="AB52" s="140"/>
-      <c r="AC52" s="140"/>
-      <c r="AD52" s="140"/>
-      <c r="AE52" s="140"/>
-      <c r="AF52" s="140"/>
-      <c r="AG52" s="140"/>
-      <c r="AH52" s="140"/>
-      <c r="AI52" s="140"/>
-      <c r="AJ52" s="140"/>
-      <c r="AK52" s="140"/>
-      <c r="AL52" s="140"/>
-      <c r="AM52" s="140"/>
+      <c r="AB52" s="143"/>
+      <c r="AC52" s="143"/>
+      <c r="AD52" s="143"/>
+      <c r="AE52" s="143"/>
+      <c r="AF52" s="143"/>
+      <c r="AG52" s="143"/>
+      <c r="AH52" s="143"/>
+      <c r="AI52" s="143"/>
+      <c r="AJ52" s="143"/>
+      <c r="AK52" s="143"/>
+      <c r="AL52" s="143"/>
+      <c r="AM52" s="144"/>
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
@@ -5657,74 +5677,17 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="90">
+  <mergeCells count="33">
     <mergeCell ref="D2:AL3"/>
     <mergeCell ref="D5:AL7"/>
-    <mergeCell ref="C9:AM10"/>
-    <mergeCell ref="C11:D13"/>
-    <mergeCell ref="E11:V13"/>
-    <mergeCell ref="W11:AA13"/>
-    <mergeCell ref="AB11:AM13"/>
-    <mergeCell ref="C14:D16"/>
-    <mergeCell ref="E14:V16"/>
-    <mergeCell ref="W14:AA16"/>
-    <mergeCell ref="AB14:AM16"/>
-    <mergeCell ref="C17:D19"/>
-    <mergeCell ref="E17:V19"/>
-    <mergeCell ref="W17:AA19"/>
-    <mergeCell ref="AB17:AM19"/>
-    <mergeCell ref="C20:D22"/>
-    <mergeCell ref="E20:V22"/>
-    <mergeCell ref="W20:AA22"/>
-    <mergeCell ref="AB20:AM22"/>
-    <mergeCell ref="C23:D25"/>
-    <mergeCell ref="E23:V25"/>
-    <mergeCell ref="W23:AA25"/>
-    <mergeCell ref="AB23:AM25"/>
-    <mergeCell ref="C26:D28"/>
-    <mergeCell ref="E26:V28"/>
-    <mergeCell ref="W26:AA28"/>
-    <mergeCell ref="AB26:AM28"/>
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="B29:B35"/>
-    <mergeCell ref="C29:D31"/>
-    <mergeCell ref="E29:V31"/>
-    <mergeCell ref="W29:AA31"/>
-    <mergeCell ref="AB29:AM31"/>
-    <mergeCell ref="C32:D34"/>
-    <mergeCell ref="E32:V34"/>
-    <mergeCell ref="W32:AA34"/>
-    <mergeCell ref="AB32:AM34"/>
-    <mergeCell ref="C35:D37"/>
-    <mergeCell ref="E35:V37"/>
-    <mergeCell ref="W35:AA37"/>
-    <mergeCell ref="AB35:AM37"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C38:D40"/>
-    <mergeCell ref="E38:V40"/>
-    <mergeCell ref="W38:AA40"/>
-    <mergeCell ref="AB38:AM40"/>
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C41:D43"/>
-    <mergeCell ref="E41:V43"/>
-    <mergeCell ref="W41:AA43"/>
-    <mergeCell ref="AB41:AM43"/>
-    <mergeCell ref="C44:D46"/>
-    <mergeCell ref="E44:V46"/>
-    <mergeCell ref="W44:AA46"/>
-    <mergeCell ref="AB44:AM46"/>
     <mergeCell ref="A46:A52"/>
     <mergeCell ref="B46:B52"/>
-    <mergeCell ref="C47:D49"/>
-    <mergeCell ref="E47:V49"/>
-    <mergeCell ref="W47:AA49"/>
-    <mergeCell ref="AB47:AM49"/>
-    <mergeCell ref="C50:D52"/>
-    <mergeCell ref="E50:V52"/>
-    <mergeCell ref="W50:AA52"/>
-    <mergeCell ref="AB50:AM52"/>
     <mergeCell ref="A53:A57"/>
     <mergeCell ref="B53:B57"/>
     <mergeCell ref="C55:D55"/>
@@ -5766,7 +5729,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P55" activeCellId="0" sqref="P55"/>
     </sheetView>
   </sheetViews>
@@ -7215,8 +7178,8 @@
       <c r="M56" s="117"/>
       <c r="N56" s="117"/>
       <c r="O56" s="117"/>
-      <c r="P56" s="141"/>
-      <c r="Q56" s="141"/>
+      <c r="P56" s="145"/>
+      <c r="Q56" s="145"/>
       <c r="R56" s="91"/>
       <c r="S56" s="91"/>
       <c r="T56" s="91"/>
@@ -7348,7 +7311,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AF44" activeCellId="0" sqref="AF44"/>
     </sheetView>
   </sheetViews>
@@ -8996,7 +8959,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P53" activeCellId="0" sqref="P53"/>
     </sheetView>
   </sheetViews>
@@ -10711,7 +10674,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
     </sheetView>
   </sheetViews>
@@ -12383,7 +12346,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
     </sheetView>
   </sheetViews>
@@ -14834,7 +14797,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
@@ -17305,7 +17268,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
@@ -19725,7 +19688,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
@@ -22215,7 +22178,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>

--- a/backend/static/report.xlsx
+++ b/backend/static/report.xlsx
@@ -525,10 +525,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
-    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -541,19 +540,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -779,7 +775,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="142">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1324,20 +1320,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1350,10 +1334,6 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1447,9 +1427,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>56160</xdr:colOff>
+      <xdr:colOff>56520</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1463,7 +1443,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="177840" y="68040"/>
-          <a:ext cx="1212480" cy="549720"/>
+          <a:ext cx="1212840" cy="550080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1489,9 +1469,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:colOff>19440</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1505,7 +1485,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="500040" y="75960"/>
-          <a:ext cx="1212480" cy="549720"/>
+          <a:ext cx="1212840" cy="550080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1531,9 +1511,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1547,7 +1527,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5842440" y="10004040"/>
-          <a:ext cx="624600" cy="280800"/>
+          <a:ext cx="624960" cy="281160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1675,7 +1655,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AF44" activeCellId="0" sqref="AF44"/>
     </sheetView>
   </sheetViews>
@@ -3325,8 +3305,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE10" activeCellId="0" sqref="AE10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3662,218 +3642,218 @@
       <c r="AM8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="137" t="str">
+      <c r="C9" s="130" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "Таблица 4. Перечень предоставленной технической документации", "")</f>
         <v/>
       </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
-      <c r="N9" s="138"/>
-      <c r="O9" s="138"/>
-      <c r="P9" s="138"/>
-      <c r="Q9" s="138"/>
-      <c r="R9" s="138"/>
-      <c r="S9" s="138"/>
-      <c r="T9" s="138"/>
-      <c r="U9" s="138"/>
-      <c r="V9" s="138"/>
-      <c r="W9" s="138"/>
-      <c r="X9" s="138"/>
-      <c r="Y9" s="138"/>
-      <c r="Z9" s="138"/>
-      <c r="AA9" s="138"/>
-      <c r="AB9" s="138"/>
-      <c r="AC9" s="138"/>
-      <c r="AD9" s="138"/>
-      <c r="AE9" s="138"/>
-      <c r="AF9" s="138"/>
-      <c r="AG9" s="138"/>
-      <c r="AH9" s="138"/>
-      <c r="AI9" s="138"/>
-      <c r="AJ9" s="138"/>
-      <c r="AK9" s="138"/>
-      <c r="AL9" s="138"/>
-      <c r="AM9" s="139"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="130"/>
+      <c r="M9" s="130"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="130"/>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="130"/>
+      <c r="S9" s="130"/>
+      <c r="T9" s="130"/>
+      <c r="U9" s="130"/>
+      <c r="V9" s="130"/>
+      <c r="W9" s="130"/>
+      <c r="X9" s="130"/>
+      <c r="Y9" s="130"/>
+      <c r="Z9" s="130"/>
+      <c r="AA9" s="130"/>
+      <c r="AB9" s="130"/>
+      <c r="AC9" s="130"/>
+      <c r="AD9" s="130"/>
+      <c r="AE9" s="130"/>
+      <c r="AF9" s="130"/>
+      <c r="AG9" s="130"/>
+      <c r="AH9" s="130"/>
+      <c r="AI9" s="130"/>
+      <c r="AJ9" s="130"/>
+      <c r="AK9" s="130"/>
+      <c r="AL9" s="130"/>
+      <c r="AM9" s="130"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="137"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="138"/>
-      <c r="P10" s="138"/>
-      <c r="Q10" s="138"/>
-      <c r="R10" s="138"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="138"/>
-      <c r="U10" s="138"/>
-      <c r="V10" s="138"/>
-      <c r="W10" s="138"/>
-      <c r="X10" s="138"/>
-      <c r="Y10" s="138"/>
-      <c r="Z10" s="138"/>
-      <c r="AA10" s="138"/>
-      <c r="AB10" s="138"/>
-      <c r="AC10" s="138"/>
-      <c r="AD10" s="138"/>
-      <c r="AE10" s="138"/>
-      <c r="AF10" s="138"/>
-      <c r="AG10" s="138"/>
-      <c r="AH10" s="138"/>
-      <c r="AI10" s="138"/>
-      <c r="AJ10" s="138"/>
-      <c r="AK10" s="138"/>
-      <c r="AL10" s="138"/>
-      <c r="AM10" s="139"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="130"/>
+      <c r="O10" s="130"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="130"/>
+      <c r="S10" s="130"/>
+      <c r="T10" s="130"/>
+      <c r="U10" s="130"/>
+      <c r="V10" s="130"/>
+      <c r="W10" s="130"/>
+      <c r="X10" s="130"/>
+      <c r="Y10" s="130"/>
+      <c r="Z10" s="130"/>
+      <c r="AA10" s="130"/>
+      <c r="AB10" s="130"/>
+      <c r="AC10" s="130"/>
+      <c r="AD10" s="130"/>
+      <c r="AE10" s="130"/>
+      <c r="AF10" s="130"/>
+      <c r="AG10" s="130"/>
+      <c r="AH10" s="130"/>
+      <c r="AI10" s="130"/>
+      <c r="AJ10" s="130"/>
+      <c r="AK10" s="130"/>
+      <c r="AL10" s="130"/>
+      <c r="AM10" s="130"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="140" t="str">
+      <c r="C11" s="137" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "№ п/п", "")</f>
         <v/>
       </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="141" t="str">
+      <c r="D11" s="137"/>
+      <c r="E11" s="138" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "Наименование документации", "")</f>
         <v/>
       </c>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="141"/>
-      <c r="O11" s="141"/>
-      <c r="P11" s="141"/>
-      <c r="Q11" s="141"/>
-      <c r="R11" s="141"/>
-      <c r="S11" s="141"/>
-      <c r="T11" s="141"/>
-      <c r="U11" s="141"/>
-      <c r="V11" s="141"/>
-      <c r="W11" s="141" t="str">
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="138"/>
+      <c r="P11" s="138"/>
+      <c r="Q11" s="138"/>
+      <c r="R11" s="138"/>
+      <c r="S11" s="138"/>
+      <c r="T11" s="138"/>
+      <c r="U11" s="138"/>
+      <c r="V11" s="138"/>
+      <c r="W11" s="138" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "Год выпуска", "")</f>
         <v/>
       </c>
-      <c r="X11" s="141"/>
-      <c r="Y11" s="141"/>
-      <c r="Z11" s="141"/>
-      <c r="AA11" s="141"/>
-      <c r="AB11" s="141" t="str">
+      <c r="X11" s="138"/>
+      <c r="Y11" s="138"/>
+      <c r="Z11" s="138"/>
+      <c r="AA11" s="138"/>
+      <c r="AB11" s="139" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "Разработчик", "")</f>
         <v/>
       </c>
-      <c r="AC11" s="141"/>
-      <c r="AD11" s="141"/>
-      <c r="AE11" s="141"/>
-      <c r="AF11" s="141"/>
-      <c r="AG11" s="141"/>
-      <c r="AH11" s="141"/>
-      <c r="AI11" s="141"/>
-      <c r="AJ11" s="141"/>
-      <c r="AK11" s="141"/>
-      <c r="AL11" s="141"/>
-      <c r="AM11" s="142"/>
+      <c r="AC11" s="139"/>
+      <c r="AD11" s="139"/>
+      <c r="AE11" s="139"/>
+      <c r="AF11" s="139"/>
+      <c r="AG11" s="139"/>
+      <c r="AH11" s="139"/>
+      <c r="AI11" s="139"/>
+      <c r="AJ11" s="139"/>
+      <c r="AK11" s="139"/>
+      <c r="AL11" s="139"/>
+      <c r="AM11" s="139"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="140"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="141"/>
-      <c r="O12" s="141"/>
-      <c r="P12" s="141"/>
-      <c r="Q12" s="141"/>
-      <c r="R12" s="141"/>
-      <c r="S12" s="141"/>
-      <c r="T12" s="141"/>
-      <c r="U12" s="141"/>
-      <c r="V12" s="141"/>
-      <c r="W12" s="141"/>
-      <c r="X12" s="141"/>
-      <c r="Y12" s="141"/>
-      <c r="Z12" s="141"/>
-      <c r="AA12" s="141"/>
-      <c r="AB12" s="141"/>
-      <c r="AC12" s="141"/>
-      <c r="AD12" s="141"/>
-      <c r="AE12" s="141"/>
-      <c r="AF12" s="141"/>
-      <c r="AG12" s="141"/>
-      <c r="AH12" s="141"/>
-      <c r="AI12" s="141"/>
-      <c r="AJ12" s="141"/>
-      <c r="AK12" s="141"/>
-      <c r="AL12" s="141"/>
-      <c r="AM12" s="142"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="138"/>
+      <c r="Q12" s="138"/>
+      <c r="R12" s="138"/>
+      <c r="S12" s="138"/>
+      <c r="T12" s="138"/>
+      <c r="U12" s="138"/>
+      <c r="V12" s="138"/>
+      <c r="W12" s="138"/>
+      <c r="X12" s="138"/>
+      <c r="Y12" s="138"/>
+      <c r="Z12" s="138"/>
+      <c r="AA12" s="138"/>
+      <c r="AB12" s="139"/>
+      <c r="AC12" s="139"/>
+      <c r="AD12" s="139"/>
+      <c r="AE12" s="139"/>
+      <c r="AF12" s="139"/>
+      <c r="AG12" s="139"/>
+      <c r="AH12" s="139"/>
+      <c r="AI12" s="139"/>
+      <c r="AJ12" s="139"/>
+      <c r="AK12" s="139"/>
+      <c r="AL12" s="139"/>
+      <c r="AM12" s="139"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="140"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="141"/>
-      <c r="N13" s="141"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="141"/>
-      <c r="Q13" s="141"/>
-      <c r="R13" s="141"/>
-      <c r="S13" s="141"/>
-      <c r="T13" s="141"/>
-      <c r="U13" s="141"/>
-      <c r="V13" s="141"/>
-      <c r="W13" s="141"/>
-      <c r="X13" s="141"/>
-      <c r="Y13" s="141"/>
-      <c r="Z13" s="141"/>
-      <c r="AA13" s="141"/>
-      <c r="AB13" s="141"/>
-      <c r="AC13" s="141"/>
-      <c r="AD13" s="141"/>
-      <c r="AE13" s="141"/>
-      <c r="AF13" s="141"/>
-      <c r="AG13" s="141"/>
-      <c r="AH13" s="141"/>
-      <c r="AI13" s="141"/>
-      <c r="AJ13" s="141"/>
-      <c r="AK13" s="141"/>
-      <c r="AL13" s="141"/>
-      <c r="AM13" s="142"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="138"/>
+      <c r="Q13" s="138"/>
+      <c r="R13" s="138"/>
+      <c r="S13" s="138"/>
+      <c r="T13" s="138"/>
+      <c r="U13" s="138"/>
+      <c r="V13" s="138"/>
+      <c r="W13" s="138"/>
+      <c r="X13" s="138"/>
+      <c r="Y13" s="138"/>
+      <c r="Z13" s="138"/>
+      <c r="AA13" s="138"/>
+      <c r="AB13" s="139"/>
+      <c r="AC13" s="139"/>
+      <c r="AD13" s="139"/>
+      <c r="AE13" s="139"/>
+      <c r="AF13" s="139"/>
+      <c r="AG13" s="139"/>
+      <c r="AH13" s="139"/>
+      <c r="AI13" s="139"/>
+      <c r="AJ13" s="139"/>
+      <c r="AK13" s="139"/>
+      <c r="AL13" s="139"/>
+      <c r="AM13" s="139"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C14" s="134"/>
-      <c r="D14" s="32"/>
+      <c r="D14" s="134"/>
       <c r="E14" s="84"/>
       <c r="F14" s="84"/>
       <c r="G14" s="84"/>
@@ -3897,22 +3877,22 @@
       <c r="Y14" s="32"/>
       <c r="Z14" s="32"/>
       <c r="AA14" s="32"/>
-      <c r="AB14" s="143"/>
-      <c r="AC14" s="143"/>
-      <c r="AD14" s="143"/>
-      <c r="AE14" s="143"/>
-      <c r="AF14" s="143"/>
-      <c r="AG14" s="143"/>
-      <c r="AH14" s="143"/>
-      <c r="AI14" s="143"/>
-      <c r="AJ14" s="143"/>
-      <c r="AK14" s="143"/>
-      <c r="AL14" s="143"/>
-      <c r="AM14" s="144"/>
+      <c r="AB14" s="140"/>
+      <c r="AC14" s="140"/>
+      <c r="AD14" s="140"/>
+      <c r="AE14" s="140"/>
+      <c r="AF14" s="140"/>
+      <c r="AG14" s="140"/>
+      <c r="AH14" s="140"/>
+      <c r="AI14" s="140"/>
+      <c r="AJ14" s="140"/>
+      <c r="AK14" s="140"/>
+      <c r="AL14" s="140"/>
+      <c r="AM14" s="140"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C15" s="134"/>
-      <c r="D15" s="32"/>
+      <c r="D15" s="134"/>
       <c r="E15" s="84"/>
       <c r="F15" s="84"/>
       <c r="G15" s="84"/>
@@ -3936,22 +3916,22 @@
       <c r="Y15" s="32"/>
       <c r="Z15" s="32"/>
       <c r="AA15" s="32"/>
-      <c r="AB15" s="143"/>
-      <c r="AC15" s="143"/>
-      <c r="AD15" s="143"/>
-      <c r="AE15" s="143"/>
-      <c r="AF15" s="143"/>
-      <c r="AG15" s="143"/>
-      <c r="AH15" s="143"/>
-      <c r="AI15" s="143"/>
-      <c r="AJ15" s="143"/>
-      <c r="AK15" s="143"/>
-      <c r="AL15" s="143"/>
-      <c r="AM15" s="144"/>
+      <c r="AB15" s="140"/>
+      <c r="AC15" s="140"/>
+      <c r="AD15" s="140"/>
+      <c r="AE15" s="140"/>
+      <c r="AF15" s="140"/>
+      <c r="AG15" s="140"/>
+      <c r="AH15" s="140"/>
+      <c r="AI15" s="140"/>
+      <c r="AJ15" s="140"/>
+      <c r="AK15" s="140"/>
+      <c r="AL15" s="140"/>
+      <c r="AM15" s="140"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="134"/>
-      <c r="D16" s="32"/>
+      <c r="D16" s="134"/>
       <c r="E16" s="84"/>
       <c r="F16" s="84"/>
       <c r="G16" s="84"/>
@@ -3975,22 +3955,22 @@
       <c r="Y16" s="32"/>
       <c r="Z16" s="32"/>
       <c r="AA16" s="32"/>
-      <c r="AB16" s="143"/>
-      <c r="AC16" s="143"/>
-      <c r="AD16" s="143"/>
-      <c r="AE16" s="143"/>
-      <c r="AF16" s="143"/>
-      <c r="AG16" s="143"/>
-      <c r="AH16" s="143"/>
-      <c r="AI16" s="143"/>
-      <c r="AJ16" s="143"/>
-      <c r="AK16" s="143"/>
-      <c r="AL16" s="143"/>
-      <c r="AM16" s="144"/>
+      <c r="AB16" s="140"/>
+      <c r="AC16" s="140"/>
+      <c r="AD16" s="140"/>
+      <c r="AE16" s="140"/>
+      <c r="AF16" s="140"/>
+      <c r="AG16" s="140"/>
+      <c r="AH16" s="140"/>
+      <c r="AI16" s="140"/>
+      <c r="AJ16" s="140"/>
+      <c r="AK16" s="140"/>
+      <c r="AL16" s="140"/>
+      <c r="AM16" s="140"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="134"/>
-      <c r="D17" s="32"/>
+      <c r="D17" s="134"/>
       <c r="E17" s="84"/>
       <c r="F17" s="84"/>
       <c r="G17" s="84"/>
@@ -4014,22 +3994,22 @@
       <c r="Y17" s="32"/>
       <c r="Z17" s="32"/>
       <c r="AA17" s="32"/>
-      <c r="AB17" s="143"/>
-      <c r="AC17" s="143"/>
-      <c r="AD17" s="143"/>
-      <c r="AE17" s="143"/>
-      <c r="AF17" s="143"/>
-      <c r="AG17" s="143"/>
-      <c r="AH17" s="143"/>
-      <c r="AI17" s="143"/>
-      <c r="AJ17" s="143"/>
-      <c r="AK17" s="143"/>
-      <c r="AL17" s="143"/>
-      <c r="AM17" s="144"/>
+      <c r="AB17" s="140"/>
+      <c r="AC17" s="140"/>
+      <c r="AD17" s="140"/>
+      <c r="AE17" s="140"/>
+      <c r="AF17" s="140"/>
+      <c r="AG17" s="140"/>
+      <c r="AH17" s="140"/>
+      <c r="AI17" s="140"/>
+      <c r="AJ17" s="140"/>
+      <c r="AK17" s="140"/>
+      <c r="AL17" s="140"/>
+      <c r="AM17" s="140"/>
     </row>
     <row r="18" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C18" s="134"/>
-      <c r="D18" s="32"/>
+      <c r="D18" s="134"/>
       <c r="E18" s="84"/>
       <c r="F18" s="84"/>
       <c r="G18" s="84"/>
@@ -4053,22 +4033,22 @@
       <c r="Y18" s="32"/>
       <c r="Z18" s="32"/>
       <c r="AA18" s="32"/>
-      <c r="AB18" s="143"/>
-      <c r="AC18" s="143"/>
-      <c r="AD18" s="143"/>
-      <c r="AE18" s="143"/>
-      <c r="AF18" s="143"/>
-      <c r="AG18" s="143"/>
-      <c r="AH18" s="143"/>
-      <c r="AI18" s="143"/>
-      <c r="AJ18" s="143"/>
-      <c r="AK18" s="143"/>
-      <c r="AL18" s="143"/>
-      <c r="AM18" s="144"/>
+      <c r="AB18" s="140"/>
+      <c r="AC18" s="140"/>
+      <c r="AD18" s="140"/>
+      <c r="AE18" s="140"/>
+      <c r="AF18" s="140"/>
+      <c r="AG18" s="140"/>
+      <c r="AH18" s="140"/>
+      <c r="AI18" s="140"/>
+      <c r="AJ18" s="140"/>
+      <c r="AK18" s="140"/>
+      <c r="AL18" s="140"/>
+      <c r="AM18" s="140"/>
     </row>
     <row r="19" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C19" s="134"/>
-      <c r="D19" s="32"/>
+      <c r="D19" s="134"/>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
       <c r="G19" s="84"/>
@@ -4092,22 +4072,22 @@
       <c r="Y19" s="32"/>
       <c r="Z19" s="32"/>
       <c r="AA19" s="32"/>
-      <c r="AB19" s="143"/>
-      <c r="AC19" s="143"/>
-      <c r="AD19" s="143"/>
-      <c r="AE19" s="143"/>
-      <c r="AF19" s="143"/>
-      <c r="AG19" s="143"/>
-      <c r="AH19" s="143"/>
-      <c r="AI19" s="143"/>
-      <c r="AJ19" s="143"/>
-      <c r="AK19" s="143"/>
-      <c r="AL19" s="143"/>
-      <c r="AM19" s="144"/>
+      <c r="AB19" s="140"/>
+      <c r="AC19" s="140"/>
+      <c r="AD19" s="140"/>
+      <c r="AE19" s="140"/>
+      <c r="AF19" s="140"/>
+      <c r="AG19" s="140"/>
+      <c r="AH19" s="140"/>
+      <c r="AI19" s="140"/>
+      <c r="AJ19" s="140"/>
+      <c r="AK19" s="140"/>
+      <c r="AL19" s="140"/>
+      <c r="AM19" s="140"/>
     </row>
     <row r="20" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C20" s="134"/>
-      <c r="D20" s="32"/>
+      <c r="D20" s="134"/>
       <c r="E20" s="84"/>
       <c r="F20" s="84"/>
       <c r="G20" s="84"/>
@@ -4131,22 +4111,22 @@
       <c r="Y20" s="32"/>
       <c r="Z20" s="32"/>
       <c r="AA20" s="32"/>
-      <c r="AB20" s="143"/>
-      <c r="AC20" s="143"/>
-      <c r="AD20" s="143"/>
-      <c r="AE20" s="143"/>
-      <c r="AF20" s="143"/>
-      <c r="AG20" s="143"/>
-      <c r="AH20" s="143"/>
-      <c r="AI20" s="143"/>
-      <c r="AJ20" s="143"/>
-      <c r="AK20" s="143"/>
-      <c r="AL20" s="143"/>
-      <c r="AM20" s="144"/>
+      <c r="AB20" s="140"/>
+      <c r="AC20" s="140"/>
+      <c r="AD20" s="140"/>
+      <c r="AE20" s="140"/>
+      <c r="AF20" s="140"/>
+      <c r="AG20" s="140"/>
+      <c r="AH20" s="140"/>
+      <c r="AI20" s="140"/>
+      <c r="AJ20" s="140"/>
+      <c r="AK20" s="140"/>
+      <c r="AL20" s="140"/>
+      <c r="AM20" s="140"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C21" s="134"/>
-      <c r="D21" s="32"/>
+      <c r="D21" s="134"/>
       <c r="E21" s="84"/>
       <c r="F21" s="84"/>
       <c r="G21" s="84"/>
@@ -4170,22 +4150,22 @@
       <c r="Y21" s="32"/>
       <c r="Z21" s="32"/>
       <c r="AA21" s="32"/>
-      <c r="AB21" s="143"/>
-      <c r="AC21" s="143"/>
-      <c r="AD21" s="143"/>
-      <c r="AE21" s="143"/>
-      <c r="AF21" s="143"/>
-      <c r="AG21" s="143"/>
-      <c r="AH21" s="143"/>
-      <c r="AI21" s="143"/>
-      <c r="AJ21" s="143"/>
-      <c r="AK21" s="143"/>
-      <c r="AL21" s="143"/>
-      <c r="AM21" s="144"/>
+      <c r="AB21" s="140"/>
+      <c r="AC21" s="140"/>
+      <c r="AD21" s="140"/>
+      <c r="AE21" s="140"/>
+      <c r="AF21" s="140"/>
+      <c r="AG21" s="140"/>
+      <c r="AH21" s="140"/>
+      <c r="AI21" s="140"/>
+      <c r="AJ21" s="140"/>
+      <c r="AK21" s="140"/>
+      <c r="AL21" s="140"/>
+      <c r="AM21" s="140"/>
     </row>
     <row r="22" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C22" s="134"/>
-      <c r="D22" s="32"/>
+      <c r="D22" s="134"/>
       <c r="E22" s="84"/>
       <c r="F22" s="84"/>
       <c r="G22" s="84"/>
@@ -4209,22 +4189,22 @@
       <c r="Y22" s="32"/>
       <c r="Z22" s="32"/>
       <c r="AA22" s="32"/>
-      <c r="AB22" s="143"/>
-      <c r="AC22" s="143"/>
-      <c r="AD22" s="143"/>
-      <c r="AE22" s="143"/>
-      <c r="AF22" s="143"/>
-      <c r="AG22" s="143"/>
-      <c r="AH22" s="143"/>
-      <c r="AI22" s="143"/>
-      <c r="AJ22" s="143"/>
-      <c r="AK22" s="143"/>
-      <c r="AL22" s="143"/>
-      <c r="AM22" s="144"/>
+      <c r="AB22" s="140"/>
+      <c r="AC22" s="140"/>
+      <c r="AD22" s="140"/>
+      <c r="AE22" s="140"/>
+      <c r="AF22" s="140"/>
+      <c r="AG22" s="140"/>
+      <c r="AH22" s="140"/>
+      <c r="AI22" s="140"/>
+      <c r="AJ22" s="140"/>
+      <c r="AK22" s="140"/>
+      <c r="AL22" s="140"/>
+      <c r="AM22" s="140"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="134"/>
-      <c r="D23" s="32"/>
+      <c r="D23" s="134"/>
       <c r="E23" s="84"/>
       <c r="F23" s="84"/>
       <c r="G23" s="84"/>
@@ -4248,22 +4228,22 @@
       <c r="Y23" s="32"/>
       <c r="Z23" s="32"/>
       <c r="AA23" s="32"/>
-      <c r="AB23" s="143"/>
-      <c r="AC23" s="143"/>
-      <c r="AD23" s="143"/>
-      <c r="AE23" s="143"/>
-      <c r="AF23" s="143"/>
-      <c r="AG23" s="143"/>
-      <c r="AH23" s="143"/>
-      <c r="AI23" s="143"/>
-      <c r="AJ23" s="143"/>
-      <c r="AK23" s="143"/>
-      <c r="AL23" s="143"/>
-      <c r="AM23" s="144"/>
+      <c r="AB23" s="140"/>
+      <c r="AC23" s="140"/>
+      <c r="AD23" s="140"/>
+      <c r="AE23" s="140"/>
+      <c r="AF23" s="140"/>
+      <c r="AG23" s="140"/>
+      <c r="AH23" s="140"/>
+      <c r="AI23" s="140"/>
+      <c r="AJ23" s="140"/>
+      <c r="AK23" s="140"/>
+      <c r="AL23" s="140"/>
+      <c r="AM23" s="140"/>
     </row>
     <row r="24" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="134"/>
-      <c r="D24" s="32"/>
+      <c r="D24" s="134"/>
       <c r="E24" s="84"/>
       <c r="F24" s="84"/>
       <c r="G24" s="84"/>
@@ -4287,22 +4267,22 @@
       <c r="Y24" s="32"/>
       <c r="Z24" s="32"/>
       <c r="AA24" s="32"/>
-      <c r="AB24" s="143"/>
-      <c r="AC24" s="143"/>
-      <c r="AD24" s="143"/>
-      <c r="AE24" s="143"/>
-      <c r="AF24" s="143"/>
-      <c r="AG24" s="143"/>
-      <c r="AH24" s="143"/>
-      <c r="AI24" s="143"/>
-      <c r="AJ24" s="143"/>
-      <c r="AK24" s="143"/>
-      <c r="AL24" s="143"/>
-      <c r="AM24" s="144"/>
+      <c r="AB24" s="140"/>
+      <c r="AC24" s="140"/>
+      <c r="AD24" s="140"/>
+      <c r="AE24" s="140"/>
+      <c r="AF24" s="140"/>
+      <c r="AG24" s="140"/>
+      <c r="AH24" s="140"/>
+      <c r="AI24" s="140"/>
+      <c r="AJ24" s="140"/>
+      <c r="AK24" s="140"/>
+      <c r="AL24" s="140"/>
+      <c r="AM24" s="140"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="134"/>
-      <c r="D25" s="32"/>
+      <c r="D25" s="134"/>
       <c r="E25" s="84"/>
       <c r="F25" s="84"/>
       <c r="G25" s="84"/>
@@ -4326,22 +4306,22 @@
       <c r="Y25" s="32"/>
       <c r="Z25" s="32"/>
       <c r="AA25" s="32"/>
-      <c r="AB25" s="143"/>
-      <c r="AC25" s="143"/>
-      <c r="AD25" s="143"/>
-      <c r="AE25" s="143"/>
-      <c r="AF25" s="143"/>
-      <c r="AG25" s="143"/>
-      <c r="AH25" s="143"/>
-      <c r="AI25" s="143"/>
-      <c r="AJ25" s="143"/>
-      <c r="AK25" s="143"/>
-      <c r="AL25" s="143"/>
-      <c r="AM25" s="144"/>
+      <c r="AB25" s="140"/>
+      <c r="AC25" s="140"/>
+      <c r="AD25" s="140"/>
+      <c r="AE25" s="140"/>
+      <c r="AF25" s="140"/>
+      <c r="AG25" s="140"/>
+      <c r="AH25" s="140"/>
+      <c r="AI25" s="140"/>
+      <c r="AJ25" s="140"/>
+      <c r="AK25" s="140"/>
+      <c r="AL25" s="140"/>
+      <c r="AM25" s="140"/>
     </row>
     <row r="26" s="1" customFormat="true" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="134"/>
-      <c r="D26" s="32"/>
+      <c r="D26" s="134"/>
       <c r="E26" s="84"/>
       <c r="F26" s="84"/>
       <c r="G26" s="84"/>
@@ -4365,22 +4345,22 @@
       <c r="Y26" s="32"/>
       <c r="Z26" s="32"/>
       <c r="AA26" s="32"/>
-      <c r="AB26" s="143"/>
-      <c r="AC26" s="143"/>
-      <c r="AD26" s="143"/>
-      <c r="AE26" s="143"/>
-      <c r="AF26" s="143"/>
-      <c r="AG26" s="143"/>
-      <c r="AH26" s="143"/>
-      <c r="AI26" s="143"/>
-      <c r="AJ26" s="143"/>
-      <c r="AK26" s="143"/>
-      <c r="AL26" s="143"/>
-      <c r="AM26" s="144"/>
+      <c r="AB26" s="140"/>
+      <c r="AC26" s="140"/>
+      <c r="AD26" s="140"/>
+      <c r="AE26" s="140"/>
+      <c r="AF26" s="140"/>
+      <c r="AG26" s="140"/>
+      <c r="AH26" s="140"/>
+      <c r="AI26" s="140"/>
+      <c r="AJ26" s="140"/>
+      <c r="AK26" s="140"/>
+      <c r="AL26" s="140"/>
+      <c r="AM26" s="140"/>
     </row>
     <row r="27" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="134"/>
-      <c r="D27" s="32"/>
+      <c r="D27" s="134"/>
       <c r="E27" s="84"/>
       <c r="F27" s="84"/>
       <c r="G27" s="84"/>
@@ -4404,22 +4384,22 @@
       <c r="Y27" s="32"/>
       <c r="Z27" s="32"/>
       <c r="AA27" s="32"/>
-      <c r="AB27" s="143"/>
-      <c r="AC27" s="143"/>
-      <c r="AD27" s="143"/>
-      <c r="AE27" s="143"/>
-      <c r="AF27" s="143"/>
-      <c r="AG27" s="143"/>
-      <c r="AH27" s="143"/>
-      <c r="AI27" s="143"/>
-      <c r="AJ27" s="143"/>
-      <c r="AK27" s="143"/>
-      <c r="AL27" s="143"/>
-      <c r="AM27" s="144"/>
+      <c r="AB27" s="140"/>
+      <c r="AC27" s="140"/>
+      <c r="AD27" s="140"/>
+      <c r="AE27" s="140"/>
+      <c r="AF27" s="140"/>
+      <c r="AG27" s="140"/>
+      <c r="AH27" s="140"/>
+      <c r="AI27" s="140"/>
+      <c r="AJ27" s="140"/>
+      <c r="AK27" s="140"/>
+      <c r="AL27" s="140"/>
+      <c r="AM27" s="140"/>
     </row>
     <row r="28" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="134"/>
-      <c r="D28" s="32"/>
+      <c r="D28" s="134"/>
       <c r="E28" s="84"/>
       <c r="F28" s="84"/>
       <c r="G28" s="84"/>
@@ -4443,26 +4423,26 @@
       <c r="Y28" s="32"/>
       <c r="Z28" s="32"/>
       <c r="AA28" s="32"/>
-      <c r="AB28" s="143"/>
-      <c r="AC28" s="143"/>
-      <c r="AD28" s="143"/>
-      <c r="AE28" s="143"/>
-      <c r="AF28" s="143"/>
-      <c r="AG28" s="143"/>
-      <c r="AH28" s="143"/>
-      <c r="AI28" s="143"/>
-      <c r="AJ28" s="143"/>
-      <c r="AK28" s="143"/>
-      <c r="AL28" s="143"/>
-      <c r="AM28" s="144"/>
+      <c r="AB28" s="140"/>
+      <c r="AC28" s="140"/>
+      <c r="AD28" s="140"/>
+      <c r="AE28" s="140"/>
+      <c r="AF28" s="140"/>
+      <c r="AG28" s="140"/>
+      <c r="AH28" s="140"/>
+      <c r="AI28" s="140"/>
+      <c r="AJ28" s="140"/>
+      <c r="AK28" s="140"/>
+      <c r="AL28" s="140"/>
+      <c r="AM28" s="140"/>
     </row>
     <row r="29" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="50"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
       <c r="E29" s="84"/>
       <c r="F29" s="84"/>
       <c r="G29" s="84"/>
@@ -4486,24 +4466,24 @@
       <c r="Y29" s="32"/>
       <c r="Z29" s="32"/>
       <c r="AA29" s="32"/>
-      <c r="AB29" s="143"/>
-      <c r="AC29" s="143"/>
-      <c r="AD29" s="143"/>
-      <c r="AE29" s="143"/>
-      <c r="AF29" s="143"/>
-      <c r="AG29" s="143"/>
-      <c r="AH29" s="143"/>
-      <c r="AI29" s="143"/>
-      <c r="AJ29" s="143"/>
-      <c r="AK29" s="143"/>
-      <c r="AL29" s="143"/>
-      <c r="AM29" s="144"/>
+      <c r="AB29" s="140"/>
+      <c r="AC29" s="140"/>
+      <c r="AD29" s="140"/>
+      <c r="AE29" s="140"/>
+      <c r="AF29" s="140"/>
+      <c r="AG29" s="140"/>
+      <c r="AH29" s="140"/>
+      <c r="AI29" s="140"/>
+      <c r="AJ29" s="140"/>
+      <c r="AK29" s="140"/>
+      <c r="AL29" s="140"/>
+      <c r="AM29" s="140"/>
     </row>
     <row r="30" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
       <c r="E30" s="84"/>
       <c r="F30" s="84"/>
       <c r="G30" s="84"/>
@@ -4527,24 +4507,24 @@
       <c r="Y30" s="32"/>
       <c r="Z30" s="32"/>
       <c r="AA30" s="32"/>
-      <c r="AB30" s="143"/>
-      <c r="AC30" s="143"/>
-      <c r="AD30" s="143"/>
-      <c r="AE30" s="143"/>
-      <c r="AF30" s="143"/>
-      <c r="AG30" s="143"/>
-      <c r="AH30" s="143"/>
-      <c r="AI30" s="143"/>
-      <c r="AJ30" s="143"/>
-      <c r="AK30" s="143"/>
-      <c r="AL30" s="143"/>
-      <c r="AM30" s="144"/>
+      <c r="AB30" s="140"/>
+      <c r="AC30" s="140"/>
+      <c r="AD30" s="140"/>
+      <c r="AE30" s="140"/>
+      <c r="AF30" s="140"/>
+      <c r="AG30" s="140"/>
+      <c r="AH30" s="140"/>
+      <c r="AI30" s="140"/>
+      <c r="AJ30" s="140"/>
+      <c r="AK30" s="140"/>
+      <c r="AL30" s="140"/>
+      <c r="AM30" s="140"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
       <c r="E31" s="84"/>
       <c r="F31" s="84"/>
       <c r="G31" s="84"/>
@@ -4568,24 +4548,24 @@
       <c r="Y31" s="32"/>
       <c r="Z31" s="32"/>
       <c r="AA31" s="32"/>
-      <c r="AB31" s="143"/>
-      <c r="AC31" s="143"/>
-      <c r="AD31" s="143"/>
-      <c r="AE31" s="143"/>
-      <c r="AF31" s="143"/>
-      <c r="AG31" s="143"/>
-      <c r="AH31" s="143"/>
-      <c r="AI31" s="143"/>
-      <c r="AJ31" s="143"/>
-      <c r="AK31" s="143"/>
-      <c r="AL31" s="143"/>
-      <c r="AM31" s="144"/>
+      <c r="AB31" s="140"/>
+      <c r="AC31" s="140"/>
+      <c r="AD31" s="140"/>
+      <c r="AE31" s="140"/>
+      <c r="AF31" s="140"/>
+      <c r="AG31" s="140"/>
+      <c r="AH31" s="140"/>
+      <c r="AI31" s="140"/>
+      <c r="AJ31" s="140"/>
+      <c r="AK31" s="140"/>
+      <c r="AL31" s="140"/>
+      <c r="AM31" s="140"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
       <c r="E32" s="84"/>
       <c r="F32" s="84"/>
       <c r="G32" s="84"/>
@@ -4609,24 +4589,24 @@
       <c r="Y32" s="32"/>
       <c r="Z32" s="32"/>
       <c r="AA32" s="32"/>
-      <c r="AB32" s="143"/>
-      <c r="AC32" s="143"/>
-      <c r="AD32" s="143"/>
-      <c r="AE32" s="143"/>
-      <c r="AF32" s="143"/>
-      <c r="AG32" s="143"/>
-      <c r="AH32" s="143"/>
-      <c r="AI32" s="143"/>
-      <c r="AJ32" s="143"/>
-      <c r="AK32" s="143"/>
-      <c r="AL32" s="143"/>
-      <c r="AM32" s="144"/>
+      <c r="AB32" s="140"/>
+      <c r="AC32" s="140"/>
+      <c r="AD32" s="140"/>
+      <c r="AE32" s="140"/>
+      <c r="AF32" s="140"/>
+      <c r="AG32" s="140"/>
+      <c r="AH32" s="140"/>
+      <c r="AI32" s="140"/>
+      <c r="AJ32" s="140"/>
+      <c r="AK32" s="140"/>
+      <c r="AL32" s="140"/>
+      <c r="AM32" s="140"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
       <c r="E33" s="84"/>
       <c r="F33" s="84"/>
       <c r="G33" s="84"/>
@@ -4650,24 +4630,24 @@
       <c r="Y33" s="32"/>
       <c r="Z33" s="32"/>
       <c r="AA33" s="32"/>
-      <c r="AB33" s="143"/>
-      <c r="AC33" s="143"/>
-      <c r="AD33" s="143"/>
-      <c r="AE33" s="143"/>
-      <c r="AF33" s="143"/>
-      <c r="AG33" s="143"/>
-      <c r="AH33" s="143"/>
-      <c r="AI33" s="143"/>
-      <c r="AJ33" s="143"/>
-      <c r="AK33" s="143"/>
-      <c r="AL33" s="143"/>
-      <c r="AM33" s="144"/>
+      <c r="AB33" s="140"/>
+      <c r="AC33" s="140"/>
+      <c r="AD33" s="140"/>
+      <c r="AE33" s="140"/>
+      <c r="AF33" s="140"/>
+      <c r="AG33" s="140"/>
+      <c r="AH33" s="140"/>
+      <c r="AI33" s="140"/>
+      <c r="AJ33" s="140"/>
+      <c r="AK33" s="140"/>
+      <c r="AL33" s="140"/>
+      <c r="AM33" s="140"/>
     </row>
     <row r="34" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
       <c r="E34" s="84"/>
       <c r="F34" s="84"/>
       <c r="G34" s="84"/>
@@ -4691,24 +4671,24 @@
       <c r="Y34" s="32"/>
       <c r="Z34" s="32"/>
       <c r="AA34" s="32"/>
-      <c r="AB34" s="143"/>
-      <c r="AC34" s="143"/>
-      <c r="AD34" s="143"/>
-      <c r="AE34" s="143"/>
-      <c r="AF34" s="143"/>
-      <c r="AG34" s="143"/>
-      <c r="AH34" s="143"/>
-      <c r="AI34" s="143"/>
-      <c r="AJ34" s="143"/>
-      <c r="AK34" s="143"/>
-      <c r="AL34" s="143"/>
-      <c r="AM34" s="144"/>
+      <c r="AB34" s="140"/>
+      <c r="AC34" s="140"/>
+      <c r="AD34" s="140"/>
+      <c r="AE34" s="140"/>
+      <c r="AF34" s="140"/>
+      <c r="AG34" s="140"/>
+      <c r="AH34" s="140"/>
+      <c r="AI34" s="140"/>
+      <c r="AJ34" s="140"/>
+      <c r="AK34" s="140"/>
+      <c r="AL34" s="140"/>
+      <c r="AM34" s="140"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
       <c r="E35" s="84"/>
       <c r="F35" s="84"/>
       <c r="G35" s="84"/>
@@ -4732,26 +4712,26 @@
       <c r="Y35" s="32"/>
       <c r="Z35" s="32"/>
       <c r="AA35" s="32"/>
-      <c r="AB35" s="143"/>
-      <c r="AC35" s="143"/>
-      <c r="AD35" s="143"/>
-      <c r="AE35" s="143"/>
-      <c r="AF35" s="143"/>
-      <c r="AG35" s="143"/>
-      <c r="AH35" s="143"/>
-      <c r="AI35" s="143"/>
-      <c r="AJ35" s="143"/>
-      <c r="AK35" s="143"/>
-      <c r="AL35" s="143"/>
-      <c r="AM35" s="144"/>
+      <c r="AB35" s="140"/>
+      <c r="AC35" s="140"/>
+      <c r="AD35" s="140"/>
+      <c r="AE35" s="140"/>
+      <c r="AF35" s="140"/>
+      <c r="AG35" s="140"/>
+      <c r="AH35" s="140"/>
+      <c r="AI35" s="140"/>
+      <c r="AJ35" s="140"/>
+      <c r="AK35" s="140"/>
+      <c r="AL35" s="140"/>
+      <c r="AM35" s="140"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="50"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
       <c r="E36" s="84"/>
       <c r="F36" s="84"/>
       <c r="G36" s="84"/>
@@ -4775,24 +4755,24 @@
       <c r="Y36" s="32"/>
       <c r="Z36" s="32"/>
       <c r="AA36" s="32"/>
-      <c r="AB36" s="143"/>
-      <c r="AC36" s="143"/>
-      <c r="AD36" s="143"/>
-      <c r="AE36" s="143"/>
-      <c r="AF36" s="143"/>
-      <c r="AG36" s="143"/>
-      <c r="AH36" s="143"/>
-      <c r="AI36" s="143"/>
-      <c r="AJ36" s="143"/>
-      <c r="AK36" s="143"/>
-      <c r="AL36" s="143"/>
-      <c r="AM36" s="144"/>
+      <c r="AB36" s="140"/>
+      <c r="AC36" s="140"/>
+      <c r="AD36" s="140"/>
+      <c r="AE36" s="140"/>
+      <c r="AF36" s="140"/>
+      <c r="AG36" s="140"/>
+      <c r="AH36" s="140"/>
+      <c r="AI36" s="140"/>
+      <c r="AJ36" s="140"/>
+      <c r="AK36" s="140"/>
+      <c r="AL36" s="140"/>
+      <c r="AM36" s="140"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
       <c r="E37" s="84"/>
       <c r="F37" s="84"/>
       <c r="G37" s="84"/>
@@ -4816,24 +4796,24 @@
       <c r="Y37" s="32"/>
       <c r="Z37" s="32"/>
       <c r="AA37" s="32"/>
-      <c r="AB37" s="143"/>
-      <c r="AC37" s="143"/>
-      <c r="AD37" s="143"/>
-      <c r="AE37" s="143"/>
-      <c r="AF37" s="143"/>
-      <c r="AG37" s="143"/>
-      <c r="AH37" s="143"/>
-      <c r="AI37" s="143"/>
-      <c r="AJ37" s="143"/>
-      <c r="AK37" s="143"/>
-      <c r="AL37" s="143"/>
-      <c r="AM37" s="144"/>
+      <c r="AB37" s="140"/>
+      <c r="AC37" s="140"/>
+      <c r="AD37" s="140"/>
+      <c r="AE37" s="140"/>
+      <c r="AF37" s="140"/>
+      <c r="AG37" s="140"/>
+      <c r="AH37" s="140"/>
+      <c r="AI37" s="140"/>
+      <c r="AJ37" s="140"/>
+      <c r="AK37" s="140"/>
+      <c r="AL37" s="140"/>
+      <c r="AM37" s="140"/>
     </row>
     <row r="38" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
       <c r="E38" s="84"/>
       <c r="F38" s="84"/>
       <c r="G38" s="84"/>
@@ -4857,24 +4837,24 @@
       <c r="Y38" s="32"/>
       <c r="Z38" s="32"/>
       <c r="AA38" s="32"/>
-      <c r="AB38" s="143"/>
-      <c r="AC38" s="143"/>
-      <c r="AD38" s="143"/>
-      <c r="AE38" s="143"/>
-      <c r="AF38" s="143"/>
-      <c r="AG38" s="143"/>
-      <c r="AH38" s="143"/>
-      <c r="AI38" s="143"/>
-      <c r="AJ38" s="143"/>
-      <c r="AK38" s="143"/>
-      <c r="AL38" s="143"/>
-      <c r="AM38" s="144"/>
+      <c r="AB38" s="140"/>
+      <c r="AC38" s="140"/>
+      <c r="AD38" s="140"/>
+      <c r="AE38" s="140"/>
+      <c r="AF38" s="140"/>
+      <c r="AG38" s="140"/>
+      <c r="AH38" s="140"/>
+      <c r="AI38" s="140"/>
+      <c r="AJ38" s="140"/>
+      <c r="AK38" s="140"/>
+      <c r="AL38" s="140"/>
+      <c r="AM38" s="140"/>
     </row>
     <row r="39" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="134"/>
       <c r="E39" s="84"/>
       <c r="F39" s="84"/>
       <c r="G39" s="84"/>
@@ -4898,24 +4878,24 @@
       <c r="Y39" s="32"/>
       <c r="Z39" s="32"/>
       <c r="AA39" s="32"/>
-      <c r="AB39" s="143"/>
-      <c r="AC39" s="143"/>
-      <c r="AD39" s="143"/>
-      <c r="AE39" s="143"/>
-      <c r="AF39" s="143"/>
-      <c r="AG39" s="143"/>
-      <c r="AH39" s="143"/>
-      <c r="AI39" s="143"/>
-      <c r="AJ39" s="143"/>
-      <c r="AK39" s="143"/>
-      <c r="AL39" s="143"/>
-      <c r="AM39" s="144"/>
+      <c r="AB39" s="140"/>
+      <c r="AC39" s="140"/>
+      <c r="AD39" s="140"/>
+      <c r="AE39" s="140"/>
+      <c r="AF39" s="140"/>
+      <c r="AG39" s="140"/>
+      <c r="AH39" s="140"/>
+      <c r="AI39" s="140"/>
+      <c r="AJ39" s="140"/>
+      <c r="AK39" s="140"/>
+      <c r="AL39" s="140"/>
+      <c r="AM39" s="140"/>
     </row>
     <row r="40" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
       <c r="B40" s="50"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="134"/>
       <c r="E40" s="84"/>
       <c r="F40" s="84"/>
       <c r="G40" s="84"/>
@@ -4939,26 +4919,26 @@
       <c r="Y40" s="32"/>
       <c r="Z40" s="32"/>
       <c r="AA40" s="32"/>
-      <c r="AB40" s="143"/>
-      <c r="AC40" s="143"/>
-      <c r="AD40" s="143"/>
-      <c r="AE40" s="143"/>
-      <c r="AF40" s="143"/>
-      <c r="AG40" s="143"/>
-      <c r="AH40" s="143"/>
-      <c r="AI40" s="143"/>
-      <c r="AJ40" s="143"/>
-      <c r="AK40" s="143"/>
-      <c r="AL40" s="143"/>
-      <c r="AM40" s="144"/>
+      <c r="AB40" s="140"/>
+      <c r="AC40" s="140"/>
+      <c r="AD40" s="140"/>
+      <c r="AE40" s="140"/>
+      <c r="AF40" s="140"/>
+      <c r="AG40" s="140"/>
+      <c r="AH40" s="140"/>
+      <c r="AI40" s="140"/>
+      <c r="AJ40" s="140"/>
+      <c r="AK40" s="140"/>
+      <c r="AL40" s="140"/>
+      <c r="AM40" s="140"/>
     </row>
     <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="50"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="134"/>
       <c r="E41" s="84"/>
       <c r="F41" s="84"/>
       <c r="G41" s="84"/>
@@ -4982,24 +4962,24 @@
       <c r="Y41" s="32"/>
       <c r="Z41" s="32"/>
       <c r="AA41" s="32"/>
-      <c r="AB41" s="143"/>
-      <c r="AC41" s="143"/>
-      <c r="AD41" s="143"/>
-      <c r="AE41" s="143"/>
-      <c r="AF41" s="143"/>
-      <c r="AG41" s="143"/>
-      <c r="AH41" s="143"/>
-      <c r="AI41" s="143"/>
-      <c r="AJ41" s="143"/>
-      <c r="AK41" s="143"/>
-      <c r="AL41" s="143"/>
-      <c r="AM41" s="144"/>
+      <c r="AB41" s="140"/>
+      <c r="AC41" s="140"/>
+      <c r="AD41" s="140"/>
+      <c r="AE41" s="140"/>
+      <c r="AF41" s="140"/>
+      <c r="AG41" s="140"/>
+      <c r="AH41" s="140"/>
+      <c r="AI41" s="140"/>
+      <c r="AJ41" s="140"/>
+      <c r="AK41" s="140"/>
+      <c r="AL41" s="140"/>
+      <c r="AM41" s="140"/>
     </row>
     <row r="42" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49"/>
       <c r="B42" s="50"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
       <c r="E42" s="84"/>
       <c r="F42" s="84"/>
       <c r="G42" s="84"/>
@@ -5023,24 +5003,24 @@
       <c r="Y42" s="32"/>
       <c r="Z42" s="32"/>
       <c r="AA42" s="32"/>
-      <c r="AB42" s="143"/>
-      <c r="AC42" s="143"/>
-      <c r="AD42" s="143"/>
-      <c r="AE42" s="143"/>
-      <c r="AF42" s="143"/>
-      <c r="AG42" s="143"/>
-      <c r="AH42" s="143"/>
-      <c r="AI42" s="143"/>
-      <c r="AJ42" s="143"/>
-      <c r="AK42" s="143"/>
-      <c r="AL42" s="143"/>
-      <c r="AM42" s="144"/>
+      <c r="AB42" s="140"/>
+      <c r="AC42" s="140"/>
+      <c r="AD42" s="140"/>
+      <c r="AE42" s="140"/>
+      <c r="AF42" s="140"/>
+      <c r="AG42" s="140"/>
+      <c r="AH42" s="140"/>
+      <c r="AI42" s="140"/>
+      <c r="AJ42" s="140"/>
+      <c r="AK42" s="140"/>
+      <c r="AL42" s="140"/>
+      <c r="AM42" s="140"/>
     </row>
     <row r="43" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="49"/>
       <c r="B43" s="50"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
       <c r="E43" s="84"/>
       <c r="F43" s="84"/>
       <c r="G43" s="84"/>
@@ -5064,24 +5044,24 @@
       <c r="Y43" s="32"/>
       <c r="Z43" s="32"/>
       <c r="AA43" s="32"/>
-      <c r="AB43" s="143"/>
-      <c r="AC43" s="143"/>
-      <c r="AD43" s="143"/>
-      <c r="AE43" s="143"/>
-      <c r="AF43" s="143"/>
-      <c r="AG43" s="143"/>
-      <c r="AH43" s="143"/>
-      <c r="AI43" s="143"/>
-      <c r="AJ43" s="143"/>
-      <c r="AK43" s="143"/>
-      <c r="AL43" s="143"/>
-      <c r="AM43" s="144"/>
+      <c r="AB43" s="140"/>
+      <c r="AC43" s="140"/>
+      <c r="AD43" s="140"/>
+      <c r="AE43" s="140"/>
+      <c r="AF43" s="140"/>
+      <c r="AG43" s="140"/>
+      <c r="AH43" s="140"/>
+      <c r="AI43" s="140"/>
+      <c r="AJ43" s="140"/>
+      <c r="AK43" s="140"/>
+      <c r="AL43" s="140"/>
+      <c r="AM43" s="140"/>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="49"/>
       <c r="B44" s="50"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="134"/>
       <c r="E44" s="84"/>
       <c r="F44" s="84"/>
       <c r="G44" s="84"/>
@@ -5105,24 +5085,24 @@
       <c r="Y44" s="32"/>
       <c r="Z44" s="32"/>
       <c r="AA44" s="32"/>
-      <c r="AB44" s="143"/>
-      <c r="AC44" s="143"/>
-      <c r="AD44" s="143"/>
-      <c r="AE44" s="143"/>
-      <c r="AF44" s="143"/>
-      <c r="AG44" s="143"/>
-      <c r="AH44" s="143"/>
-      <c r="AI44" s="143"/>
-      <c r="AJ44" s="143"/>
-      <c r="AK44" s="143"/>
-      <c r="AL44" s="143"/>
-      <c r="AM44" s="144"/>
+      <c r="AB44" s="140"/>
+      <c r="AC44" s="140"/>
+      <c r="AD44" s="140"/>
+      <c r="AE44" s="140"/>
+      <c r="AF44" s="140"/>
+      <c r="AG44" s="140"/>
+      <c r="AH44" s="140"/>
+      <c r="AI44" s="140"/>
+      <c r="AJ44" s="140"/>
+      <c r="AK44" s="140"/>
+      <c r="AL44" s="140"/>
+      <c r="AM44" s="140"/>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="49"/>
       <c r="B45" s="50"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
       <c r="E45" s="84"/>
       <c r="F45" s="84"/>
       <c r="G45" s="84"/>
@@ -5146,26 +5126,26 @@
       <c r="Y45" s="32"/>
       <c r="Z45" s="32"/>
       <c r="AA45" s="32"/>
-      <c r="AB45" s="143"/>
-      <c r="AC45" s="143"/>
-      <c r="AD45" s="143"/>
-      <c r="AE45" s="143"/>
-      <c r="AF45" s="143"/>
-      <c r="AG45" s="143"/>
-      <c r="AH45" s="143"/>
-      <c r="AI45" s="143"/>
-      <c r="AJ45" s="143"/>
-      <c r="AK45" s="143"/>
-      <c r="AL45" s="143"/>
-      <c r="AM45" s="144"/>
+      <c r="AB45" s="140"/>
+      <c r="AC45" s="140"/>
+      <c r="AD45" s="140"/>
+      <c r="AE45" s="140"/>
+      <c r="AF45" s="140"/>
+      <c r="AG45" s="140"/>
+      <c r="AH45" s="140"/>
+      <c r="AI45" s="140"/>
+      <c r="AJ45" s="140"/>
+      <c r="AK45" s="140"/>
+      <c r="AL45" s="140"/>
+      <c r="AM45" s="140"/>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="50"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
       <c r="E46" s="84"/>
       <c r="F46" s="84"/>
       <c r="G46" s="84"/>
@@ -5189,24 +5169,24 @@
       <c r="Y46" s="32"/>
       <c r="Z46" s="32"/>
       <c r="AA46" s="32"/>
-      <c r="AB46" s="143"/>
-      <c r="AC46" s="143"/>
-      <c r="AD46" s="143"/>
-      <c r="AE46" s="143"/>
-      <c r="AF46" s="143"/>
-      <c r="AG46" s="143"/>
-      <c r="AH46" s="143"/>
-      <c r="AI46" s="143"/>
-      <c r="AJ46" s="143"/>
-      <c r="AK46" s="143"/>
-      <c r="AL46" s="143"/>
-      <c r="AM46" s="144"/>
+      <c r="AB46" s="140"/>
+      <c r="AC46" s="140"/>
+      <c r="AD46" s="140"/>
+      <c r="AE46" s="140"/>
+      <c r="AF46" s="140"/>
+      <c r="AG46" s="140"/>
+      <c r="AH46" s="140"/>
+      <c r="AI46" s="140"/>
+      <c r="AJ46" s="140"/>
+      <c r="AK46" s="140"/>
+      <c r="AL46" s="140"/>
+      <c r="AM46" s="140"/>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="49"/>
       <c r="B47" s="50"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
       <c r="E47" s="84"/>
       <c r="F47" s="84"/>
       <c r="G47" s="84"/>
@@ -5230,24 +5210,24 @@
       <c r="Y47" s="32"/>
       <c r="Z47" s="32"/>
       <c r="AA47" s="32"/>
-      <c r="AB47" s="143"/>
-      <c r="AC47" s="143"/>
-      <c r="AD47" s="143"/>
-      <c r="AE47" s="143"/>
-      <c r="AF47" s="143"/>
-      <c r="AG47" s="143"/>
-      <c r="AH47" s="143"/>
-      <c r="AI47" s="143"/>
-      <c r="AJ47" s="143"/>
-      <c r="AK47" s="143"/>
-      <c r="AL47" s="143"/>
-      <c r="AM47" s="144"/>
+      <c r="AB47" s="140"/>
+      <c r="AC47" s="140"/>
+      <c r="AD47" s="140"/>
+      <c r="AE47" s="140"/>
+      <c r="AF47" s="140"/>
+      <c r="AG47" s="140"/>
+      <c r="AH47" s="140"/>
+      <c r="AI47" s="140"/>
+      <c r="AJ47" s="140"/>
+      <c r="AK47" s="140"/>
+      <c r="AL47" s="140"/>
+      <c r="AM47" s="140"/>
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="49"/>
       <c r="B48" s="50"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
       <c r="E48" s="84"/>
       <c r="F48" s="84"/>
       <c r="G48" s="84"/>
@@ -5271,24 +5251,24 @@
       <c r="Y48" s="32"/>
       <c r="Z48" s="32"/>
       <c r="AA48" s="32"/>
-      <c r="AB48" s="143"/>
-      <c r="AC48" s="143"/>
-      <c r="AD48" s="143"/>
-      <c r="AE48" s="143"/>
-      <c r="AF48" s="143"/>
-      <c r="AG48" s="143"/>
-      <c r="AH48" s="143"/>
-      <c r="AI48" s="143"/>
-      <c r="AJ48" s="143"/>
-      <c r="AK48" s="143"/>
-      <c r="AL48" s="143"/>
-      <c r="AM48" s="144"/>
+      <c r="AB48" s="140"/>
+      <c r="AC48" s="140"/>
+      <c r="AD48" s="140"/>
+      <c r="AE48" s="140"/>
+      <c r="AF48" s="140"/>
+      <c r="AG48" s="140"/>
+      <c r="AH48" s="140"/>
+      <c r="AI48" s="140"/>
+      <c r="AJ48" s="140"/>
+      <c r="AK48" s="140"/>
+      <c r="AL48" s="140"/>
+      <c r="AM48" s="140"/>
     </row>
     <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="49"/>
       <c r="B49" s="50"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="134"/>
       <c r="E49" s="84"/>
       <c r="F49" s="84"/>
       <c r="G49" s="84"/>
@@ -5312,24 +5292,24 @@
       <c r="Y49" s="32"/>
       <c r="Z49" s="32"/>
       <c r="AA49" s="32"/>
-      <c r="AB49" s="143"/>
-      <c r="AC49" s="143"/>
-      <c r="AD49" s="143"/>
-      <c r="AE49" s="143"/>
-      <c r="AF49" s="143"/>
-      <c r="AG49" s="143"/>
-      <c r="AH49" s="143"/>
-      <c r="AI49" s="143"/>
-      <c r="AJ49" s="143"/>
-      <c r="AK49" s="143"/>
-      <c r="AL49" s="143"/>
-      <c r="AM49" s="144"/>
+      <c r="AB49" s="140"/>
+      <c r="AC49" s="140"/>
+      <c r="AD49" s="140"/>
+      <c r="AE49" s="140"/>
+      <c r="AF49" s="140"/>
+      <c r="AG49" s="140"/>
+      <c r="AH49" s="140"/>
+      <c r="AI49" s="140"/>
+      <c r="AJ49" s="140"/>
+      <c r="AK49" s="140"/>
+      <c r="AL49" s="140"/>
+      <c r="AM49" s="140"/>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="49"/>
       <c r="B50" s="50"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
       <c r="E50" s="84"/>
       <c r="F50" s="84"/>
       <c r="G50" s="84"/>
@@ -5353,24 +5333,24 @@
       <c r="Y50" s="32"/>
       <c r="Z50" s="32"/>
       <c r="AA50" s="32"/>
-      <c r="AB50" s="143"/>
-      <c r="AC50" s="143"/>
-      <c r="AD50" s="143"/>
-      <c r="AE50" s="143"/>
-      <c r="AF50" s="143"/>
-      <c r="AG50" s="143"/>
-      <c r="AH50" s="143"/>
-      <c r="AI50" s="143"/>
-      <c r="AJ50" s="143"/>
-      <c r="AK50" s="143"/>
-      <c r="AL50" s="143"/>
-      <c r="AM50" s="144"/>
+      <c r="AB50" s="140"/>
+      <c r="AC50" s="140"/>
+      <c r="AD50" s="140"/>
+      <c r="AE50" s="140"/>
+      <c r="AF50" s="140"/>
+      <c r="AG50" s="140"/>
+      <c r="AH50" s="140"/>
+      <c r="AI50" s="140"/>
+      <c r="AJ50" s="140"/>
+      <c r="AK50" s="140"/>
+      <c r="AL50" s="140"/>
+      <c r="AM50" s="140"/>
     </row>
     <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="49"/>
       <c r="B51" s="50"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="134"/>
       <c r="E51" s="84"/>
       <c r="F51" s="84"/>
       <c r="G51" s="84"/>
@@ -5394,24 +5374,24 @@
       <c r="Y51" s="32"/>
       <c r="Z51" s="32"/>
       <c r="AA51" s="32"/>
-      <c r="AB51" s="143"/>
-      <c r="AC51" s="143"/>
-      <c r="AD51" s="143"/>
-      <c r="AE51" s="143"/>
-      <c r="AF51" s="143"/>
-      <c r="AG51" s="143"/>
-      <c r="AH51" s="143"/>
-      <c r="AI51" s="143"/>
-      <c r="AJ51" s="143"/>
-      <c r="AK51" s="143"/>
-      <c r="AL51" s="143"/>
-      <c r="AM51" s="144"/>
+      <c r="AB51" s="140"/>
+      <c r="AC51" s="140"/>
+      <c r="AD51" s="140"/>
+      <c r="AE51" s="140"/>
+      <c r="AF51" s="140"/>
+      <c r="AG51" s="140"/>
+      <c r="AH51" s="140"/>
+      <c r="AI51" s="140"/>
+      <c r="AJ51" s="140"/>
+      <c r="AK51" s="140"/>
+      <c r="AL51" s="140"/>
+      <c r="AM51" s="140"/>
     </row>
     <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="49"/>
       <c r="B52" s="50"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="134"/>
       <c r="E52" s="84"/>
       <c r="F52" s="84"/>
       <c r="G52" s="84"/>
@@ -5435,18 +5415,18 @@
       <c r="Y52" s="32"/>
       <c r="Z52" s="32"/>
       <c r="AA52" s="32"/>
-      <c r="AB52" s="143"/>
-      <c r="AC52" s="143"/>
-      <c r="AD52" s="143"/>
-      <c r="AE52" s="143"/>
-      <c r="AF52" s="143"/>
-      <c r="AG52" s="143"/>
-      <c r="AH52" s="143"/>
-      <c r="AI52" s="143"/>
-      <c r="AJ52" s="143"/>
-      <c r="AK52" s="143"/>
-      <c r="AL52" s="143"/>
-      <c r="AM52" s="144"/>
+      <c r="AB52" s="140"/>
+      <c r="AC52" s="140"/>
+      <c r="AD52" s="140"/>
+      <c r="AE52" s="140"/>
+      <c r="AF52" s="140"/>
+      <c r="AG52" s="140"/>
+      <c r="AH52" s="140"/>
+      <c r="AI52" s="140"/>
+      <c r="AJ52" s="140"/>
+      <c r="AK52" s="140"/>
+      <c r="AL52" s="140"/>
+      <c r="AM52" s="140"/>
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
@@ -5677,17 +5657,74 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="90">
     <mergeCell ref="D2:AL3"/>
     <mergeCell ref="D5:AL7"/>
+    <mergeCell ref="C9:AM10"/>
+    <mergeCell ref="C11:D13"/>
+    <mergeCell ref="E11:V13"/>
+    <mergeCell ref="W11:AA13"/>
+    <mergeCell ref="AB11:AM13"/>
+    <mergeCell ref="C14:D16"/>
+    <mergeCell ref="E14:V16"/>
+    <mergeCell ref="W14:AA16"/>
+    <mergeCell ref="AB14:AM16"/>
+    <mergeCell ref="C17:D19"/>
+    <mergeCell ref="E17:V19"/>
+    <mergeCell ref="W17:AA19"/>
+    <mergeCell ref="AB17:AM19"/>
+    <mergeCell ref="C20:D22"/>
+    <mergeCell ref="E20:V22"/>
+    <mergeCell ref="W20:AA22"/>
+    <mergeCell ref="AB20:AM22"/>
+    <mergeCell ref="C23:D25"/>
+    <mergeCell ref="E23:V25"/>
+    <mergeCell ref="W23:AA25"/>
+    <mergeCell ref="AB23:AM25"/>
+    <mergeCell ref="C26:D28"/>
+    <mergeCell ref="E26:V28"/>
+    <mergeCell ref="W26:AA28"/>
+    <mergeCell ref="AB26:AM28"/>
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="B29:B35"/>
+    <mergeCell ref="C29:D31"/>
+    <mergeCell ref="E29:V31"/>
+    <mergeCell ref="W29:AA31"/>
+    <mergeCell ref="AB29:AM31"/>
+    <mergeCell ref="C32:D34"/>
+    <mergeCell ref="E32:V34"/>
+    <mergeCell ref="W32:AA34"/>
+    <mergeCell ref="AB32:AM34"/>
+    <mergeCell ref="C35:D37"/>
+    <mergeCell ref="E35:V37"/>
+    <mergeCell ref="W35:AA37"/>
+    <mergeCell ref="AB35:AM37"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C38:D40"/>
+    <mergeCell ref="E38:V40"/>
+    <mergeCell ref="W38:AA40"/>
+    <mergeCell ref="AB38:AM40"/>
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C41:D43"/>
+    <mergeCell ref="E41:V43"/>
+    <mergeCell ref="W41:AA43"/>
+    <mergeCell ref="AB41:AM43"/>
+    <mergeCell ref="C44:D46"/>
+    <mergeCell ref="E44:V46"/>
+    <mergeCell ref="W44:AA46"/>
+    <mergeCell ref="AB44:AM46"/>
     <mergeCell ref="A46:A52"/>
     <mergeCell ref="B46:B52"/>
+    <mergeCell ref="C47:D49"/>
+    <mergeCell ref="E47:V49"/>
+    <mergeCell ref="W47:AA49"/>
+    <mergeCell ref="AB47:AM49"/>
+    <mergeCell ref="C50:D52"/>
+    <mergeCell ref="E50:V52"/>
+    <mergeCell ref="W50:AA52"/>
+    <mergeCell ref="AB50:AM52"/>
     <mergeCell ref="A53:A57"/>
     <mergeCell ref="B53:B57"/>
     <mergeCell ref="C55:D55"/>
@@ -5729,7 +5766,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P55" activeCellId="0" sqref="P55"/>
     </sheetView>
   </sheetViews>
@@ -7178,8 +7215,8 @@
       <c r="M56" s="117"/>
       <c r="N56" s="117"/>
       <c r="O56" s="117"/>
-      <c r="P56" s="145"/>
-      <c r="Q56" s="145"/>
+      <c r="P56" s="141"/>
+      <c r="Q56" s="141"/>
       <c r="R56" s="91"/>
       <c r="S56" s="91"/>
       <c r="T56" s="91"/>
@@ -7311,7 +7348,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AF44" activeCellId="0" sqref="AF44"/>
     </sheetView>
   </sheetViews>
@@ -8959,7 +8996,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P53" activeCellId="0" sqref="P53"/>
     </sheetView>
   </sheetViews>
@@ -10674,7 +10711,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
     </sheetView>
   </sheetViews>
@@ -12346,7 +12383,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
     </sheetView>
   </sheetViews>
@@ -14797,7 +14834,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
@@ -17268,7 +17305,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
@@ -19688,7 +19725,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
@@ -22178,7 +22215,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>

--- a/backend/static/report.xlsx
+++ b/backend/static/report.xlsx
@@ -525,11 +525,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -631,6 +632,19 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -775,7 +789,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="162">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1320,23 +1334,103 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1427,9 +1521,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>56520</xdr:colOff>
+      <xdr:colOff>56160</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1443,7 +1537,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="177840" y="68040"/>
-          <a:ext cx="1212840" cy="550080"/>
+          <a:ext cx="1212480" cy="549720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1469,9 +1563,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19440</xdr:colOff>
+      <xdr:colOff>19080</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1485,7 +1579,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="500040" y="75960"/>
-          <a:ext cx="1212840" cy="550080"/>
+          <a:ext cx="1212480" cy="549720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1511,9 +1605,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>101520</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>134640</xdr:rowOff>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1527,7 +1621,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5842440" y="10004040"/>
-          <a:ext cx="624960" cy="281160"/>
+          <a:ext cx="624600" cy="280800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3305,8 +3399,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA25" activeCellId="0" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3642,1874 +3736,1875 @@
       <c r="AM8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="130" t="str">
+      <c r="C9" s="137" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "Таблица 4. Перечень предоставленной технической документации", "")</f>
         <v/>
       </c>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="130"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="130"/>
-      <c r="P9" s="130"/>
-      <c r="Q9" s="130"/>
-      <c r="R9" s="130"/>
-      <c r="S9" s="130"/>
-      <c r="T9" s="130"/>
-      <c r="U9" s="130"/>
-      <c r="V9" s="130"/>
-      <c r="W9" s="130"/>
-      <c r="X9" s="130"/>
-      <c r="Y9" s="130"/>
-      <c r="Z9" s="130"/>
-      <c r="AA9" s="130"/>
-      <c r="AB9" s="130"/>
-      <c r="AC9" s="130"/>
-      <c r="AD9" s="130"/>
-      <c r="AE9" s="130"/>
-      <c r="AF9" s="130"/>
-      <c r="AG9" s="130"/>
-      <c r="AH9" s="130"/>
-      <c r="AI9" s="130"/>
-      <c r="AJ9" s="130"/>
-      <c r="AK9" s="130"/>
-      <c r="AL9" s="130"/>
-      <c r="AM9" s="130"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="138"/>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="138"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="138"/>
+      <c r="U9" s="138"/>
+      <c r="V9" s="138"/>
+      <c r="W9" s="138"/>
+      <c r="X9" s="138"/>
+      <c r="Y9" s="138"/>
+      <c r="Z9" s="138"/>
+      <c r="AA9" s="138"/>
+      <c r="AB9" s="138"/>
+      <c r="AC9" s="138"/>
+      <c r="AD9" s="138"/>
+      <c r="AE9" s="138"/>
+      <c r="AF9" s="138"/>
+      <c r="AG9" s="138"/>
+      <c r="AH9" s="138"/>
+      <c r="AI9" s="138"/>
+      <c r="AJ9" s="138"/>
+      <c r="AK9" s="138"/>
+      <c r="AL9" s="138"/>
+      <c r="AM9" s="139"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="130"/>
-      <c r="N10" s="130"/>
-      <c r="O10" s="130"/>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="130"/>
-      <c r="S10" s="130"/>
-      <c r="T10" s="130"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="130"/>
-      <c r="X10" s="130"/>
-      <c r="Y10" s="130"/>
-      <c r="Z10" s="130"/>
-      <c r="AA10" s="130"/>
-      <c r="AB10" s="130"/>
-      <c r="AC10" s="130"/>
-      <c r="AD10" s="130"/>
-      <c r="AE10" s="130"/>
-      <c r="AF10" s="130"/>
-      <c r="AG10" s="130"/>
-      <c r="AH10" s="130"/>
-      <c r="AI10" s="130"/>
-      <c r="AJ10" s="130"/>
-      <c r="AK10" s="130"/>
-      <c r="AL10" s="130"/>
-      <c r="AM10" s="130"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="138"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="138"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="138"/>
+      <c r="W10" s="138"/>
+      <c r="X10" s="138"/>
+      <c r="Y10" s="138"/>
+      <c r="Z10" s="138"/>
+      <c r="AA10" s="138"/>
+      <c r="AB10" s="138"/>
+      <c r="AC10" s="138"/>
+      <c r="AD10" s="138"/>
+      <c r="AE10" s="138"/>
+      <c r="AF10" s="138"/>
+      <c r="AG10" s="138"/>
+      <c r="AH10" s="138"/>
+      <c r="AI10" s="138"/>
+      <c r="AJ10" s="138"/>
+      <c r="AK10" s="138"/>
+      <c r="AL10" s="138"/>
+      <c r="AM10" s="139"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="137" t="str">
+      <c r="C11" s="140" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "№ п/п", "")</f>
         <v/>
       </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="138" t="str">
+      <c r="D11" s="141"/>
+      <c r="E11" s="141" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "Наименование документации", "")</f>
         <v/>
       </c>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="138"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="138"/>
-      <c r="P11" s="138"/>
-      <c r="Q11" s="138"/>
-      <c r="R11" s="138"/>
-      <c r="S11" s="138"/>
-      <c r="T11" s="138"/>
-      <c r="U11" s="138"/>
-      <c r="V11" s="138"/>
-      <c r="W11" s="138" t="str">
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="141"/>
+      <c r="O11" s="141"/>
+      <c r="P11" s="141"/>
+      <c r="Q11" s="141"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="141"/>
+      <c r="T11" s="141"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="141"/>
+      <c r="W11" s="141" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "Год выпуска", "")</f>
         <v/>
       </c>
-      <c r="X11" s="138"/>
-      <c r="Y11" s="138"/>
-      <c r="Z11" s="138"/>
-      <c r="AA11" s="138"/>
-      <c r="AB11" s="139" t="str">
+      <c r="X11" s="141"/>
+      <c r="Y11" s="141"/>
+      <c r="Z11" s="141"/>
+      <c r="AA11" s="141"/>
+      <c r="AB11" s="141" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "Разработчик", "")</f>
         <v/>
       </c>
-      <c r="AC11" s="139"/>
-      <c r="AD11" s="139"/>
-      <c r="AE11" s="139"/>
-      <c r="AF11" s="139"/>
-      <c r="AG11" s="139"/>
-      <c r="AH11" s="139"/>
-      <c r="AI11" s="139"/>
-      <c r="AJ11" s="139"/>
-      <c r="AK11" s="139"/>
-      <c r="AL11" s="139"/>
-      <c r="AM11" s="139"/>
+      <c r="AC11" s="141"/>
+      <c r="AD11" s="141"/>
+      <c r="AE11" s="141"/>
+      <c r="AF11" s="141"/>
+      <c r="AG11" s="141"/>
+      <c r="AH11" s="141"/>
+      <c r="AI11" s="141"/>
+      <c r="AJ11" s="141"/>
+      <c r="AK11" s="141"/>
+      <c r="AL11" s="141"/>
+      <c r="AM11" s="142"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="138"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="138"/>
-      <c r="Q12" s="138"/>
-      <c r="R12" s="138"/>
-      <c r="S12" s="138"/>
-      <c r="T12" s="138"/>
-      <c r="U12" s="138"/>
-      <c r="V12" s="138"/>
-      <c r="W12" s="138"/>
-      <c r="X12" s="138"/>
-      <c r="Y12" s="138"/>
-      <c r="Z12" s="138"/>
-      <c r="AA12" s="138"/>
-      <c r="AB12" s="139"/>
-      <c r="AC12" s="139"/>
-      <c r="AD12" s="139"/>
-      <c r="AE12" s="139"/>
-      <c r="AF12" s="139"/>
-      <c r="AG12" s="139"/>
-      <c r="AH12" s="139"/>
-      <c r="AI12" s="139"/>
-      <c r="AJ12" s="139"/>
-      <c r="AK12" s="139"/>
-      <c r="AL12" s="139"/>
-      <c r="AM12" s="139"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="144"/>
+      <c r="P12" s="144"/>
+      <c r="Q12" s="144"/>
+      <c r="R12" s="144"/>
+      <c r="S12" s="144"/>
+      <c r="T12" s="144"/>
+      <c r="U12" s="144"/>
+      <c r="V12" s="144"/>
+      <c r="W12" s="144"/>
+      <c r="X12" s="144"/>
+      <c r="Y12" s="144"/>
+      <c r="Z12" s="144"/>
+      <c r="AA12" s="144"/>
+      <c r="AB12" s="144"/>
+      <c r="AC12" s="144"/>
+      <c r="AD12" s="144"/>
+      <c r="AE12" s="144"/>
+      <c r="AF12" s="144"/>
+      <c r="AG12" s="144"/>
+      <c r="AH12" s="144"/>
+      <c r="AI12" s="144"/>
+      <c r="AJ12" s="144"/>
+      <c r="AK12" s="144"/>
+      <c r="AL12" s="144"/>
+      <c r="AM12" s="145"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="138"/>
-      <c r="N13" s="138"/>
-      <c r="O13" s="138"/>
-      <c r="P13" s="138"/>
-      <c r="Q13" s="138"/>
-      <c r="R13" s="138"/>
-      <c r="S13" s="138"/>
-      <c r="T13" s="138"/>
-      <c r="U13" s="138"/>
-      <c r="V13" s="138"/>
-      <c r="W13" s="138"/>
-      <c r="X13" s="138"/>
-      <c r="Y13" s="138"/>
-      <c r="Z13" s="138"/>
-      <c r="AA13" s="138"/>
-      <c r="AB13" s="139"/>
-      <c r="AC13" s="139"/>
-      <c r="AD13" s="139"/>
-      <c r="AE13" s="139"/>
-      <c r="AF13" s="139"/>
-      <c r="AG13" s="139"/>
-      <c r="AH13" s="139"/>
-      <c r="AI13" s="139"/>
-      <c r="AJ13" s="139"/>
-      <c r="AK13" s="139"/>
-      <c r="AL13" s="139"/>
-      <c r="AM13" s="139"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="144"/>
+      <c r="O13" s="144"/>
+      <c r="P13" s="144"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="144"/>
+      <c r="S13" s="144"/>
+      <c r="T13" s="144"/>
+      <c r="U13" s="144"/>
+      <c r="V13" s="144"/>
+      <c r="W13" s="144"/>
+      <c r="X13" s="144"/>
+      <c r="Y13" s="144"/>
+      <c r="Z13" s="144"/>
+      <c r="AA13" s="144"/>
+      <c r="AB13" s="144"/>
+      <c r="AC13" s="144"/>
+      <c r="AD13" s="144"/>
+      <c r="AE13" s="144"/>
+      <c r="AF13" s="144"/>
+      <c r="AG13" s="144"/>
+      <c r="AH13" s="144"/>
+      <c r="AI13" s="144"/>
+      <c r="AJ13" s="144"/>
+      <c r="AK13" s="144"/>
+      <c r="AL13" s="144"/>
+      <c r="AM13" s="145"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="140"/>
-      <c r="AC14" s="140"/>
-      <c r="AD14" s="140"/>
-      <c r="AE14" s="140"/>
-      <c r="AF14" s="140"/>
-      <c r="AG14" s="140"/>
-      <c r="AH14" s="140"/>
-      <c r="AI14" s="140"/>
-      <c r="AJ14" s="140"/>
-      <c r="AK14" s="140"/>
-      <c r="AL14" s="140"/>
-      <c r="AM14" s="140"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="147"/>
+      <c r="O14" s="147"/>
+      <c r="P14" s="147"/>
+      <c r="Q14" s="147"/>
+      <c r="R14" s="147"/>
+      <c r="S14" s="147"/>
+      <c r="T14" s="147"/>
+      <c r="U14" s="147"/>
+      <c r="V14" s="147"/>
+      <c r="W14" s="147"/>
+      <c r="X14" s="147"/>
+      <c r="Y14" s="147"/>
+      <c r="Z14" s="147"/>
+      <c r="AA14" s="147"/>
+      <c r="AB14" s="147"/>
+      <c r="AC14" s="147"/>
+      <c r="AD14" s="147"/>
+      <c r="AE14" s="147"/>
+      <c r="AF14" s="147"/>
+      <c r="AG14" s="147"/>
+      <c r="AH14" s="147"/>
+      <c r="AI14" s="147"/>
+      <c r="AJ14" s="147"/>
+      <c r="AK14" s="147"/>
+      <c r="AL14" s="147"/>
+      <c r="AM14" s="148"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="140"/>
-      <c r="AC15" s="140"/>
-      <c r="AD15" s="140"/>
-      <c r="AE15" s="140"/>
-      <c r="AF15" s="140"/>
-      <c r="AG15" s="140"/>
-      <c r="AH15" s="140"/>
-      <c r="AI15" s="140"/>
-      <c r="AJ15" s="140"/>
-      <c r="AK15" s="140"/>
-      <c r="AL15" s="140"/>
-      <c r="AM15" s="140"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="147"/>
+      <c r="O15" s="147"/>
+      <c r="P15" s="147"/>
+      <c r="Q15" s="147"/>
+      <c r="R15" s="147"/>
+      <c r="S15" s="147"/>
+      <c r="T15" s="147"/>
+      <c r="U15" s="147"/>
+      <c r="V15" s="147"/>
+      <c r="W15" s="147"/>
+      <c r="X15" s="147"/>
+      <c r="Y15" s="147"/>
+      <c r="Z15" s="147"/>
+      <c r="AA15" s="147"/>
+      <c r="AB15" s="147"/>
+      <c r="AC15" s="147"/>
+      <c r="AD15" s="147"/>
+      <c r="AE15" s="147"/>
+      <c r="AF15" s="147"/>
+      <c r="AG15" s="147"/>
+      <c r="AH15" s="147"/>
+      <c r="AI15" s="147"/>
+      <c r="AJ15" s="147"/>
+      <c r="AK15" s="147"/>
+      <c r="AL15" s="147"/>
+      <c r="AM15" s="148"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="140"/>
-      <c r="AC16" s="140"/>
-      <c r="AD16" s="140"/>
-      <c r="AE16" s="140"/>
-      <c r="AF16" s="140"/>
-      <c r="AG16" s="140"/>
-      <c r="AH16" s="140"/>
-      <c r="AI16" s="140"/>
-      <c r="AJ16" s="140"/>
-      <c r="AK16" s="140"/>
-      <c r="AL16" s="140"/>
-      <c r="AM16" s="140"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="147"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="O16" s="147"/>
+      <c r="P16" s="147"/>
+      <c r="Q16" s="147"/>
+      <c r="R16" s="147"/>
+      <c r="S16" s="147"/>
+      <c r="T16" s="147"/>
+      <c r="U16" s="147"/>
+      <c r="V16" s="147"/>
+      <c r="W16" s="147"/>
+      <c r="X16" s="147"/>
+      <c r="Y16" s="147"/>
+      <c r="Z16" s="147"/>
+      <c r="AA16" s="147"/>
+      <c r="AB16" s="147"/>
+      <c r="AC16" s="147"/>
+      <c r="AD16" s="147"/>
+      <c r="AE16" s="147"/>
+      <c r="AF16" s="147"/>
+      <c r="AG16" s="147"/>
+      <c r="AH16" s="147"/>
+      <c r="AI16" s="147"/>
+      <c r="AJ16" s="147"/>
+      <c r="AK16" s="147"/>
+      <c r="AL16" s="147"/>
+      <c r="AM16" s="148"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="84"/>
-      <c r="U17" s="84"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="140"/>
-      <c r="AC17" s="140"/>
-      <c r="AD17" s="140"/>
-      <c r="AE17" s="140"/>
-      <c r="AF17" s="140"/>
-      <c r="AG17" s="140"/>
-      <c r="AH17" s="140"/>
-      <c r="AI17" s="140"/>
-      <c r="AJ17" s="140"/>
-      <c r="AK17" s="140"/>
-      <c r="AL17" s="140"/>
-      <c r="AM17" s="140"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="147"/>
+      <c r="P17" s="147"/>
+      <c r="Q17" s="147"/>
+      <c r="R17" s="147"/>
+      <c r="S17" s="147"/>
+      <c r="T17" s="147"/>
+      <c r="U17" s="147"/>
+      <c r="V17" s="147"/>
+      <c r="W17" s="147"/>
+      <c r="X17" s="147"/>
+      <c r="Y17" s="147"/>
+      <c r="Z17" s="147"/>
+      <c r="AA17" s="147"/>
+      <c r="AB17" s="147"/>
+      <c r="AC17" s="147"/>
+      <c r="AD17" s="147"/>
+      <c r="AE17" s="147"/>
+      <c r="AF17" s="147"/>
+      <c r="AG17" s="147"/>
+      <c r="AH17" s="147"/>
+      <c r="AI17" s="147"/>
+      <c r="AJ17" s="147"/>
+      <c r="AK17" s="147"/>
+      <c r="AL17" s="147"/>
+      <c r="AM17" s="148"/>
     </row>
     <row r="18" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="140"/>
-      <c r="AC18" s="140"/>
-      <c r="AD18" s="140"/>
-      <c r="AE18" s="140"/>
-      <c r="AF18" s="140"/>
-      <c r="AG18" s="140"/>
-      <c r="AH18" s="140"/>
-      <c r="AI18" s="140"/>
-      <c r="AJ18" s="140"/>
-      <c r="AK18" s="140"/>
-      <c r="AL18" s="140"/>
-      <c r="AM18" s="140"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="147"/>
+      <c r="P18" s="147"/>
+      <c r="Q18" s="147"/>
+      <c r="R18" s="147"/>
+      <c r="S18" s="147"/>
+      <c r="T18" s="147"/>
+      <c r="U18" s="147"/>
+      <c r="V18" s="147"/>
+      <c r="W18" s="147"/>
+      <c r="X18" s="147"/>
+      <c r="Y18" s="147"/>
+      <c r="Z18" s="147"/>
+      <c r="AA18" s="147"/>
+      <c r="AB18" s="147"/>
+      <c r="AC18" s="147"/>
+      <c r="AD18" s="147"/>
+      <c r="AE18" s="147"/>
+      <c r="AF18" s="147"/>
+      <c r="AG18" s="147"/>
+      <c r="AH18" s="147"/>
+      <c r="AI18" s="147"/>
+      <c r="AJ18" s="147"/>
+      <c r="AK18" s="147"/>
+      <c r="AL18" s="147"/>
+      <c r="AM18" s="148"/>
     </row>
     <row r="19" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="84"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="140"/>
-      <c r="AC19" s="140"/>
-      <c r="AD19" s="140"/>
-      <c r="AE19" s="140"/>
-      <c r="AF19" s="140"/>
-      <c r="AG19" s="140"/>
-      <c r="AH19" s="140"/>
-      <c r="AI19" s="140"/>
-      <c r="AJ19" s="140"/>
-      <c r="AK19" s="140"/>
-      <c r="AL19" s="140"/>
-      <c r="AM19" s="140"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="147"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="O19" s="147"/>
+      <c r="P19" s="147"/>
+      <c r="Q19" s="147"/>
+      <c r="R19" s="147"/>
+      <c r="S19" s="147"/>
+      <c r="T19" s="147"/>
+      <c r="U19" s="147"/>
+      <c r="V19" s="147"/>
+      <c r="W19" s="147"/>
+      <c r="X19" s="147"/>
+      <c r="Y19" s="147"/>
+      <c r="Z19" s="147"/>
+      <c r="AA19" s="147"/>
+      <c r="AB19" s="147"/>
+      <c r="AC19" s="147"/>
+      <c r="AD19" s="147"/>
+      <c r="AE19" s="147"/>
+      <c r="AF19" s="147"/>
+      <c r="AG19" s="147"/>
+      <c r="AH19" s="147"/>
+      <c r="AI19" s="147"/>
+      <c r="AJ19" s="147"/>
+      <c r="AK19" s="147"/>
+      <c r="AL19" s="147"/>
+      <c r="AM19" s="148"/>
     </row>
     <row r="20" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="140"/>
-      <c r="AC20" s="140"/>
-      <c r="AD20" s="140"/>
-      <c r="AE20" s="140"/>
-      <c r="AF20" s="140"/>
-      <c r="AG20" s="140"/>
-      <c r="AH20" s="140"/>
-      <c r="AI20" s="140"/>
-      <c r="AJ20" s="140"/>
-      <c r="AK20" s="140"/>
-      <c r="AL20" s="140"/>
-      <c r="AM20" s="140"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="147"/>
+      <c r="Q20" s="147"/>
+      <c r="R20" s="147"/>
+      <c r="S20" s="147"/>
+      <c r="T20" s="147"/>
+      <c r="U20" s="147"/>
+      <c r="V20" s="147"/>
+      <c r="W20" s="147"/>
+      <c r="X20" s="147"/>
+      <c r="Y20" s="147"/>
+      <c r="Z20" s="147"/>
+      <c r="AA20" s="147"/>
+      <c r="AB20" s="147"/>
+      <c r="AC20" s="147"/>
+      <c r="AD20" s="147"/>
+      <c r="AE20" s="147"/>
+      <c r="AF20" s="147"/>
+      <c r="AG20" s="147"/>
+      <c r="AH20" s="147"/>
+      <c r="AI20" s="147"/>
+      <c r="AJ20" s="147"/>
+      <c r="AK20" s="147"/>
+      <c r="AL20" s="147"/>
+      <c r="AM20" s="148"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="140"/>
-      <c r="AC21" s="140"/>
-      <c r="AD21" s="140"/>
-      <c r="AE21" s="140"/>
-      <c r="AF21" s="140"/>
-      <c r="AG21" s="140"/>
-      <c r="AH21" s="140"/>
-      <c r="AI21" s="140"/>
-      <c r="AJ21" s="140"/>
-      <c r="AK21" s="140"/>
-      <c r="AL21" s="140"/>
-      <c r="AM21" s="140"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="147"/>
+      <c r="L21" s="147"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="147"/>
+      <c r="O21" s="147"/>
+      <c r="P21" s="147"/>
+      <c r="Q21" s="147"/>
+      <c r="R21" s="147"/>
+      <c r="S21" s="147"/>
+      <c r="T21" s="147"/>
+      <c r="U21" s="147"/>
+      <c r="V21" s="147"/>
+      <c r="W21" s="147"/>
+      <c r="X21" s="147"/>
+      <c r="Y21" s="147"/>
+      <c r="Z21" s="147"/>
+      <c r="AA21" s="147"/>
+      <c r="AB21" s="147"/>
+      <c r="AC21" s="147"/>
+      <c r="AD21" s="147"/>
+      <c r="AE21" s="147"/>
+      <c r="AF21" s="147"/>
+      <c r="AG21" s="147"/>
+      <c r="AH21" s="147"/>
+      <c r="AI21" s="147"/>
+      <c r="AJ21" s="147"/>
+      <c r="AK21" s="147"/>
+      <c r="AL21" s="147"/>
+      <c r="AM21" s="148"/>
     </row>
     <row r="22" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="140"/>
-      <c r="AC22" s="140"/>
-      <c r="AD22" s="140"/>
-      <c r="AE22" s="140"/>
-      <c r="AF22" s="140"/>
-      <c r="AG22" s="140"/>
-      <c r="AH22" s="140"/>
-      <c r="AI22" s="140"/>
-      <c r="AJ22" s="140"/>
-      <c r="AK22" s="140"/>
-      <c r="AL22" s="140"/>
-      <c r="AM22" s="140"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="147"/>
+      <c r="M22" s="147"/>
+      <c r="N22" s="147"/>
+      <c r="O22" s="147"/>
+      <c r="P22" s="147"/>
+      <c r="Q22" s="147"/>
+      <c r="R22" s="147"/>
+      <c r="S22" s="147"/>
+      <c r="T22" s="147"/>
+      <c r="U22" s="147"/>
+      <c r="V22" s="147"/>
+      <c r="W22" s="147"/>
+      <c r="X22" s="147"/>
+      <c r="Y22" s="147"/>
+      <c r="Z22" s="147"/>
+      <c r="AA22" s="147"/>
+      <c r="AB22" s="147"/>
+      <c r="AC22" s="147"/>
+      <c r="AD22" s="147"/>
+      <c r="AE22" s="147"/>
+      <c r="AF22" s="147"/>
+      <c r="AG22" s="147"/>
+      <c r="AH22" s="147"/>
+      <c r="AI22" s="147"/>
+      <c r="AJ22" s="147"/>
+      <c r="AK22" s="147"/>
+      <c r="AL22" s="147"/>
+      <c r="AM22" s="148"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="84"/>
-      <c r="V23" s="84"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="140"/>
-      <c r="AC23" s="140"/>
-      <c r="AD23" s="140"/>
-      <c r="AE23" s="140"/>
-      <c r="AF23" s="140"/>
-      <c r="AG23" s="140"/>
-      <c r="AH23" s="140"/>
-      <c r="AI23" s="140"/>
-      <c r="AJ23" s="140"/>
-      <c r="AK23" s="140"/>
-      <c r="AL23" s="140"/>
-      <c r="AM23" s="140"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="147"/>
+      <c r="M23" s="147"/>
+      <c r="N23" s="147"/>
+      <c r="O23" s="147"/>
+      <c r="P23" s="147"/>
+      <c r="Q23" s="147"/>
+      <c r="R23" s="147"/>
+      <c r="S23" s="147"/>
+      <c r="T23" s="147"/>
+      <c r="U23" s="147"/>
+      <c r="V23" s="147"/>
+      <c r="W23" s="147"/>
+      <c r="X23" s="147"/>
+      <c r="Y23" s="147"/>
+      <c r="Z23" s="147"/>
+      <c r="AA23" s="147"/>
+      <c r="AB23" s="147"/>
+      <c r="AC23" s="147"/>
+      <c r="AD23" s="147"/>
+      <c r="AE23" s="147"/>
+      <c r="AF23" s="147"/>
+      <c r="AG23" s="147"/>
+      <c r="AH23" s="147"/>
+      <c r="AI23" s="147"/>
+      <c r="AJ23" s="147"/>
+      <c r="AK23" s="147"/>
+      <c r="AL23" s="147"/>
+      <c r="AM23" s="148"/>
     </row>
     <row r="24" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="84"/>
-      <c r="U24" s="84"/>
-      <c r="V24" s="84"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="140"/>
-      <c r="AC24" s="140"/>
-      <c r="AD24" s="140"/>
-      <c r="AE24" s="140"/>
-      <c r="AF24" s="140"/>
-      <c r="AG24" s="140"/>
-      <c r="AH24" s="140"/>
-      <c r="AI24" s="140"/>
-      <c r="AJ24" s="140"/>
-      <c r="AK24" s="140"/>
-      <c r="AL24" s="140"/>
-      <c r="AM24" s="140"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="147"/>
+      <c r="M24" s="147"/>
+      <c r="N24" s="147"/>
+      <c r="O24" s="147"/>
+      <c r="P24" s="147"/>
+      <c r="Q24" s="147"/>
+      <c r="R24" s="147"/>
+      <c r="S24" s="147"/>
+      <c r="T24" s="147"/>
+      <c r="U24" s="147"/>
+      <c r="V24" s="147"/>
+      <c r="W24" s="147"/>
+      <c r="X24" s="147"/>
+      <c r="Y24" s="147"/>
+      <c r="Z24" s="147"/>
+      <c r="AA24" s="147"/>
+      <c r="AB24" s="147"/>
+      <c r="AC24" s="147"/>
+      <c r="AD24" s="147"/>
+      <c r="AE24" s="147"/>
+      <c r="AF24" s="147"/>
+      <c r="AG24" s="147"/>
+      <c r="AH24" s="147"/>
+      <c r="AI24" s="147"/>
+      <c r="AJ24" s="147"/>
+      <c r="AK24" s="147"/>
+      <c r="AL24" s="147"/>
+      <c r="AM24" s="148"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="84"/>
-      <c r="V25" s="84"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="140"/>
-      <c r="AC25" s="140"/>
-      <c r="AD25" s="140"/>
-      <c r="AE25" s="140"/>
-      <c r="AF25" s="140"/>
-      <c r="AG25" s="140"/>
-      <c r="AH25" s="140"/>
-      <c r="AI25" s="140"/>
-      <c r="AJ25" s="140"/>
-      <c r="AK25" s="140"/>
-      <c r="AL25" s="140"/>
-      <c r="AM25" s="140"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
+      <c r="N25" s="147"/>
+      <c r="O25" s="147"/>
+      <c r="P25" s="147"/>
+      <c r="Q25" s="147"/>
+      <c r="R25" s="147"/>
+      <c r="S25" s="147"/>
+      <c r="T25" s="147"/>
+      <c r="U25" s="147"/>
+      <c r="V25" s="147"/>
+      <c r="W25" s="147"/>
+      <c r="X25" s="147"/>
+      <c r="Y25" s="147"/>
+      <c r="Z25" s="147"/>
+      <c r="AA25" s="147"/>
+      <c r="AB25" s="147"/>
+      <c r="AC25" s="147"/>
+      <c r="AD25" s="147"/>
+      <c r="AE25" s="147"/>
+      <c r="AF25" s="147"/>
+      <c r="AG25" s="147"/>
+      <c r="AH25" s="147"/>
+      <c r="AI25" s="147"/>
+      <c r="AJ25" s="147"/>
+      <c r="AK25" s="147"/>
+      <c r="AL25" s="147"/>
+      <c r="AM25" s="148"/>
     </row>
     <row r="26" s="1" customFormat="true" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="84"/>
-      <c r="U26" s="84"/>
-      <c r="V26" s="84"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="140"/>
-      <c r="AC26" s="140"/>
-      <c r="AD26" s="140"/>
-      <c r="AE26" s="140"/>
-      <c r="AF26" s="140"/>
-      <c r="AG26" s="140"/>
-      <c r="AH26" s="140"/>
-      <c r="AI26" s="140"/>
-      <c r="AJ26" s="140"/>
-      <c r="AK26" s="140"/>
-      <c r="AL26" s="140"/>
-      <c r="AM26" s="140"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="147"/>
+      <c r="M26" s="147"/>
+      <c r="N26" s="147"/>
+      <c r="O26" s="147"/>
+      <c r="P26" s="147"/>
+      <c r="Q26" s="147"/>
+      <c r="R26" s="147"/>
+      <c r="S26" s="147"/>
+      <c r="T26" s="147"/>
+      <c r="U26" s="147"/>
+      <c r="V26" s="147"/>
+      <c r="W26" s="147"/>
+      <c r="X26" s="147"/>
+      <c r="Y26" s="147"/>
+      <c r="Z26" s="147"/>
+      <c r="AA26" s="147"/>
+      <c r="AB26" s="147"/>
+      <c r="AC26" s="147"/>
+      <c r="AD26" s="147"/>
+      <c r="AE26" s="147"/>
+      <c r="AF26" s="147"/>
+      <c r="AG26" s="147"/>
+      <c r="AH26" s="147"/>
+      <c r="AI26" s="147"/>
+      <c r="AJ26" s="147"/>
+      <c r="AK26" s="147"/>
+      <c r="AL26" s="147"/>
+      <c r="AM26" s="148"/>
     </row>
     <row r="27" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="84"/>
-      <c r="S27" s="84"/>
-      <c r="T27" s="84"/>
-      <c r="U27" s="84"/>
-      <c r="V27" s="84"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="140"/>
-      <c r="AC27" s="140"/>
-      <c r="AD27" s="140"/>
-      <c r="AE27" s="140"/>
-      <c r="AF27" s="140"/>
-      <c r="AG27" s="140"/>
-      <c r="AH27" s="140"/>
-      <c r="AI27" s="140"/>
-      <c r="AJ27" s="140"/>
-      <c r="AK27" s="140"/>
-      <c r="AL27" s="140"/>
-      <c r="AM27" s="140"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="147"/>
+      <c r="M27" s="147"/>
+      <c r="N27" s="147"/>
+      <c r="O27" s="147"/>
+      <c r="P27" s="147"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="147"/>
+      <c r="S27" s="147"/>
+      <c r="T27" s="147"/>
+      <c r="U27" s="147"/>
+      <c r="V27" s="147"/>
+      <c r="W27" s="147"/>
+      <c r="X27" s="147"/>
+      <c r="Y27" s="147"/>
+      <c r="Z27" s="147"/>
+      <c r="AA27" s="147"/>
+      <c r="AB27" s="147"/>
+      <c r="AC27" s="147"/>
+      <c r="AD27" s="147"/>
+      <c r="AE27" s="147"/>
+      <c r="AF27" s="147"/>
+      <c r="AG27" s="147"/>
+      <c r="AH27" s="147"/>
+      <c r="AI27" s="147"/>
+      <c r="AJ27" s="147"/>
+      <c r="AK27" s="147"/>
+      <c r="AL27" s="147"/>
+      <c r="AM27" s="148"/>
     </row>
     <row r="28" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C28" s="134"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="84"/>
-      <c r="V28" s="84"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="140"/>
-      <c r="AC28" s="140"/>
-      <c r="AD28" s="140"/>
-      <c r="AE28" s="140"/>
-      <c r="AF28" s="140"/>
-      <c r="AG28" s="140"/>
-      <c r="AH28" s="140"/>
-      <c r="AI28" s="140"/>
-      <c r="AJ28" s="140"/>
-      <c r="AK28" s="140"/>
-      <c r="AL28" s="140"/>
-      <c r="AM28" s="140"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="147"/>
+      <c r="M28" s="147"/>
+      <c r="N28" s="147"/>
+      <c r="O28" s="147"/>
+      <c r="P28" s="147"/>
+      <c r="Q28" s="147"/>
+      <c r="R28" s="147"/>
+      <c r="S28" s="147"/>
+      <c r="T28" s="147"/>
+      <c r="U28" s="147"/>
+      <c r="V28" s="147"/>
+      <c r="W28" s="147"/>
+      <c r="X28" s="147"/>
+      <c r="Y28" s="147"/>
+      <c r="Z28" s="147"/>
+      <c r="AA28" s="147"/>
+      <c r="AB28" s="147"/>
+      <c r="AC28" s="147"/>
+      <c r="AD28" s="147"/>
+      <c r="AE28" s="147"/>
+      <c r="AF28" s="147"/>
+      <c r="AG28" s="147"/>
+      <c r="AH28" s="147"/>
+      <c r="AI28" s="147"/>
+      <c r="AJ28" s="147"/>
+      <c r="AK28" s="147"/>
+      <c r="AL28" s="147"/>
+      <c r="AM28" s="148"/>
     </row>
     <row r="29" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="50"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="84"/>
-      <c r="V29" s="84"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="140"/>
-      <c r="AC29" s="140"/>
-      <c r="AD29" s="140"/>
-      <c r="AE29" s="140"/>
-      <c r="AF29" s="140"/>
-      <c r="AG29" s="140"/>
-      <c r="AH29" s="140"/>
-      <c r="AI29" s="140"/>
-      <c r="AJ29" s="140"/>
-      <c r="AK29" s="140"/>
-      <c r="AL29" s="140"/>
-      <c r="AM29" s="140"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="147"/>
+      <c r="M29" s="147"/>
+      <c r="N29" s="147"/>
+      <c r="O29" s="147"/>
+      <c r="P29" s="147"/>
+      <c r="Q29" s="147"/>
+      <c r="R29" s="147"/>
+      <c r="S29" s="147"/>
+      <c r="T29" s="147"/>
+      <c r="U29" s="147"/>
+      <c r="V29" s="147"/>
+      <c r="W29" s="147"/>
+      <c r="X29" s="147"/>
+      <c r="Y29" s="147"/>
+      <c r="Z29" s="147"/>
+      <c r="AA29" s="147"/>
+      <c r="AB29" s="147"/>
+      <c r="AC29" s="147"/>
+      <c r="AD29" s="147"/>
+      <c r="AE29" s="147"/>
+      <c r="AF29" s="147"/>
+      <c r="AG29" s="147"/>
+      <c r="AH29" s="147"/>
+      <c r="AI29" s="147"/>
+      <c r="AJ29" s="147"/>
+      <c r="AK29" s="147"/>
+      <c r="AL29" s="147"/>
+      <c r="AM29" s="148"/>
     </row>
     <row r="30" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="84"/>
-      <c r="V30" s="84"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="140"/>
-      <c r="AC30" s="140"/>
-      <c r="AD30" s="140"/>
-      <c r="AE30" s="140"/>
-      <c r="AF30" s="140"/>
-      <c r="AG30" s="140"/>
-      <c r="AH30" s="140"/>
-      <c r="AI30" s="140"/>
-      <c r="AJ30" s="140"/>
-      <c r="AK30" s="140"/>
-      <c r="AL30" s="140"/>
-      <c r="AM30" s="140"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="147"/>
+      <c r="M30" s="147"/>
+      <c r="N30" s="147"/>
+      <c r="O30" s="147"/>
+      <c r="P30" s="147"/>
+      <c r="Q30" s="147"/>
+      <c r="R30" s="147"/>
+      <c r="S30" s="147"/>
+      <c r="T30" s="147"/>
+      <c r="U30" s="147"/>
+      <c r="V30" s="147"/>
+      <c r="W30" s="147"/>
+      <c r="X30" s="147"/>
+      <c r="Y30" s="147"/>
+      <c r="Z30" s="147"/>
+      <c r="AA30" s="147"/>
+      <c r="AB30" s="147"/>
+      <c r="AC30" s="147"/>
+      <c r="AD30" s="147"/>
+      <c r="AE30" s="147"/>
+      <c r="AF30" s="147"/>
+      <c r="AG30" s="147"/>
+      <c r="AH30" s="147"/>
+      <c r="AI30" s="147"/>
+      <c r="AJ30" s="147"/>
+      <c r="AK30" s="147"/>
+      <c r="AL30" s="147"/>
+      <c r="AM30" s="148"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="84"/>
-      <c r="V31" s="84"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="140"/>
-      <c r="AC31" s="140"/>
-      <c r="AD31" s="140"/>
-      <c r="AE31" s="140"/>
-      <c r="AF31" s="140"/>
-      <c r="AG31" s="140"/>
-      <c r="AH31" s="140"/>
-      <c r="AI31" s="140"/>
-      <c r="AJ31" s="140"/>
-      <c r="AK31" s="140"/>
-      <c r="AL31" s="140"/>
-      <c r="AM31" s="140"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="147"/>
+      <c r="M31" s="147"/>
+      <c r="N31" s="147"/>
+      <c r="O31" s="147"/>
+      <c r="P31" s="147"/>
+      <c r="Q31" s="147"/>
+      <c r="R31" s="147"/>
+      <c r="S31" s="147"/>
+      <c r="T31" s="147"/>
+      <c r="U31" s="147"/>
+      <c r="V31" s="147"/>
+      <c r="W31" s="147"/>
+      <c r="X31" s="147"/>
+      <c r="Y31" s="147"/>
+      <c r="Z31" s="147"/>
+      <c r="AA31" s="147"/>
+      <c r="AB31" s="147"/>
+      <c r="AC31" s="147"/>
+      <c r="AD31" s="147"/>
+      <c r="AE31" s="147"/>
+      <c r="AF31" s="147"/>
+      <c r="AG31" s="147"/>
+      <c r="AH31" s="147"/>
+      <c r="AI31" s="147"/>
+      <c r="AJ31" s="147"/>
+      <c r="AK31" s="147"/>
+      <c r="AL31" s="147"/>
+      <c r="AM31" s="148"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="84"/>
-      <c r="S32" s="84"/>
-      <c r="T32" s="84"/>
-      <c r="U32" s="84"/>
-      <c r="V32" s="84"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="140"/>
-      <c r="AC32" s="140"/>
-      <c r="AD32" s="140"/>
-      <c r="AE32" s="140"/>
-      <c r="AF32" s="140"/>
-      <c r="AG32" s="140"/>
-      <c r="AH32" s="140"/>
-      <c r="AI32" s="140"/>
-      <c r="AJ32" s="140"/>
-      <c r="AK32" s="140"/>
-      <c r="AL32" s="140"/>
-      <c r="AM32" s="140"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="147"/>
+      <c r="M32" s="147"/>
+      <c r="N32" s="147"/>
+      <c r="O32" s="147"/>
+      <c r="P32" s="147"/>
+      <c r="Q32" s="147"/>
+      <c r="R32" s="147"/>
+      <c r="S32" s="147"/>
+      <c r="T32" s="147"/>
+      <c r="U32" s="147"/>
+      <c r="V32" s="147"/>
+      <c r="W32" s="147"/>
+      <c r="X32" s="147"/>
+      <c r="Y32" s="147"/>
+      <c r="Z32" s="147"/>
+      <c r="AA32" s="147"/>
+      <c r="AB32" s="147"/>
+      <c r="AC32" s="147"/>
+      <c r="AD32" s="147"/>
+      <c r="AE32" s="147"/>
+      <c r="AF32" s="147"/>
+      <c r="AG32" s="147"/>
+      <c r="AH32" s="147"/>
+      <c r="AI32" s="147"/>
+      <c r="AJ32" s="147"/>
+      <c r="AK32" s="147"/>
+      <c r="AL32" s="147"/>
+      <c r="AM32" s="148"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="84"/>
-      <c r="S33" s="84"/>
-      <c r="T33" s="84"/>
-      <c r="U33" s="84"/>
-      <c r="V33" s="84"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="140"/>
-      <c r="AC33" s="140"/>
-      <c r="AD33" s="140"/>
-      <c r="AE33" s="140"/>
-      <c r="AF33" s="140"/>
-      <c r="AG33" s="140"/>
-      <c r="AH33" s="140"/>
-      <c r="AI33" s="140"/>
-      <c r="AJ33" s="140"/>
-      <c r="AK33" s="140"/>
-      <c r="AL33" s="140"/>
-      <c r="AM33" s="140"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="147"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="147"/>
+      <c r="P33" s="147"/>
+      <c r="Q33" s="147"/>
+      <c r="R33" s="147"/>
+      <c r="S33" s="147"/>
+      <c r="T33" s="147"/>
+      <c r="U33" s="147"/>
+      <c r="V33" s="147"/>
+      <c r="W33" s="147"/>
+      <c r="X33" s="147"/>
+      <c r="Y33" s="147"/>
+      <c r="Z33" s="147"/>
+      <c r="AA33" s="147"/>
+      <c r="AB33" s="147"/>
+      <c r="AC33" s="147"/>
+      <c r="AD33" s="147"/>
+      <c r="AE33" s="147"/>
+      <c r="AF33" s="147"/>
+      <c r="AG33" s="147"/>
+      <c r="AH33" s="147"/>
+      <c r="AI33" s="147"/>
+      <c r="AJ33" s="147"/>
+      <c r="AK33" s="147"/>
+      <c r="AL33" s="147"/>
+      <c r="AM33" s="148"/>
     </row>
     <row r="34" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="84"/>
-      <c r="S34" s="84"/>
-      <c r="T34" s="84"/>
-      <c r="U34" s="84"/>
-      <c r="V34" s="84"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="140"/>
-      <c r="AC34" s="140"/>
-      <c r="AD34" s="140"/>
-      <c r="AE34" s="140"/>
-      <c r="AF34" s="140"/>
-      <c r="AG34" s="140"/>
-      <c r="AH34" s="140"/>
-      <c r="AI34" s="140"/>
-      <c r="AJ34" s="140"/>
-      <c r="AK34" s="140"/>
-      <c r="AL34" s="140"/>
-      <c r="AM34" s="140"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="147"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="147"/>
+      <c r="M34" s="147"/>
+      <c r="N34" s="147"/>
+      <c r="O34" s="147"/>
+      <c r="P34" s="147"/>
+      <c r="Q34" s="147"/>
+      <c r="R34" s="147"/>
+      <c r="S34" s="147"/>
+      <c r="T34" s="147"/>
+      <c r="U34" s="147"/>
+      <c r="V34" s="147"/>
+      <c r="W34" s="147"/>
+      <c r="X34" s="147"/>
+      <c r="Y34" s="147"/>
+      <c r="Z34" s="147"/>
+      <c r="AA34" s="147"/>
+      <c r="AB34" s="147"/>
+      <c r="AC34" s="147"/>
+      <c r="AD34" s="147"/>
+      <c r="AE34" s="147"/>
+      <c r="AF34" s="147"/>
+      <c r="AG34" s="147"/>
+      <c r="AH34" s="147"/>
+      <c r="AI34" s="147"/>
+      <c r="AJ34" s="147"/>
+      <c r="AK34" s="147"/>
+      <c r="AL34" s="147"/>
+      <c r="AM34" s="148"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="84"/>
-      <c r="R35" s="84"/>
-      <c r="S35" s="84"/>
-      <c r="T35" s="84"/>
-      <c r="U35" s="84"/>
-      <c r="V35" s="84"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="140"/>
-      <c r="AC35" s="140"/>
-      <c r="AD35" s="140"/>
-      <c r="AE35" s="140"/>
-      <c r="AF35" s="140"/>
-      <c r="AG35" s="140"/>
-      <c r="AH35" s="140"/>
-      <c r="AI35" s="140"/>
-      <c r="AJ35" s="140"/>
-      <c r="AK35" s="140"/>
-      <c r="AL35" s="140"/>
-      <c r="AM35" s="140"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="147"/>
+      <c r="K35" s="147"/>
+      <c r="L35" s="147"/>
+      <c r="M35" s="147"/>
+      <c r="N35" s="147"/>
+      <c r="O35" s="147"/>
+      <c r="P35" s="147"/>
+      <c r="Q35" s="147"/>
+      <c r="R35" s="147"/>
+      <c r="S35" s="147"/>
+      <c r="T35" s="147"/>
+      <c r="U35" s="147"/>
+      <c r="V35" s="147"/>
+      <c r="W35" s="147"/>
+      <c r="X35" s="147"/>
+      <c r="Y35" s="147"/>
+      <c r="Z35" s="147"/>
+      <c r="AA35" s="147"/>
+      <c r="AB35" s="147"/>
+      <c r="AC35" s="147"/>
+      <c r="AD35" s="147"/>
+      <c r="AE35" s="147"/>
+      <c r="AF35" s="147"/>
+      <c r="AG35" s="147"/>
+      <c r="AH35" s="147"/>
+      <c r="AI35" s="147"/>
+      <c r="AJ35" s="147"/>
+      <c r="AK35" s="147"/>
+      <c r="AL35" s="147"/>
+      <c r="AM35" s="148"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="50"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="84"/>
-      <c r="R36" s="84"/>
-      <c r="S36" s="84"/>
-      <c r="T36" s="84"/>
-      <c r="U36" s="84"/>
-      <c r="V36" s="84"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="140"/>
-      <c r="AC36" s="140"/>
-      <c r="AD36" s="140"/>
-      <c r="AE36" s="140"/>
-      <c r="AF36" s="140"/>
-      <c r="AG36" s="140"/>
-      <c r="AH36" s="140"/>
-      <c r="AI36" s="140"/>
-      <c r="AJ36" s="140"/>
-      <c r="AK36" s="140"/>
-      <c r="AL36" s="140"/>
-      <c r="AM36" s="140"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="147"/>
+      <c r="K36" s="147"/>
+      <c r="L36" s="147"/>
+      <c r="M36" s="147"/>
+      <c r="N36" s="147"/>
+      <c r="O36" s="147"/>
+      <c r="P36" s="147"/>
+      <c r="Q36" s="147"/>
+      <c r="R36" s="147"/>
+      <c r="S36" s="147"/>
+      <c r="T36" s="147"/>
+      <c r="U36" s="147"/>
+      <c r="V36" s="147"/>
+      <c r="W36" s="147"/>
+      <c r="X36" s="147"/>
+      <c r="Y36" s="147"/>
+      <c r="Z36" s="147"/>
+      <c r="AA36" s="147"/>
+      <c r="AB36" s="147"/>
+      <c r="AC36" s="147"/>
+      <c r="AD36" s="147"/>
+      <c r="AE36" s="147"/>
+      <c r="AF36" s="147"/>
+      <c r="AG36" s="147"/>
+      <c r="AH36" s="147"/>
+      <c r="AI36" s="147"/>
+      <c r="AJ36" s="147"/>
+      <c r="AK36" s="147"/>
+      <c r="AL36" s="147"/>
+      <c r="AM36" s="148"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
-      <c r="C37" s="134"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="84"/>
-      <c r="O37" s="84"/>
-      <c r="P37" s="84"/>
-      <c r="Q37" s="84"/>
-      <c r="R37" s="84"/>
-      <c r="S37" s="84"/>
-      <c r="T37" s="84"/>
-      <c r="U37" s="84"/>
-      <c r="V37" s="84"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="140"/>
-      <c r="AC37" s="140"/>
-      <c r="AD37" s="140"/>
-      <c r="AE37" s="140"/>
-      <c r="AF37" s="140"/>
-      <c r="AG37" s="140"/>
-      <c r="AH37" s="140"/>
-      <c r="AI37" s="140"/>
-      <c r="AJ37" s="140"/>
-      <c r="AK37" s="140"/>
-      <c r="AL37" s="140"/>
-      <c r="AM37" s="140"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="147"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="147"/>
+      <c r="H37" s="147"/>
+      <c r="I37" s="147"/>
+      <c r="J37" s="147"/>
+      <c r="K37" s="147"/>
+      <c r="L37" s="147"/>
+      <c r="M37" s="147"/>
+      <c r="N37" s="147"/>
+      <c r="O37" s="147"/>
+      <c r="P37" s="147"/>
+      <c r="Q37" s="147"/>
+      <c r="R37" s="147"/>
+      <c r="S37" s="147"/>
+      <c r="T37" s="147"/>
+      <c r="U37" s="147"/>
+      <c r="V37" s="147"/>
+      <c r="W37" s="147"/>
+      <c r="X37" s="147"/>
+      <c r="Y37" s="147"/>
+      <c r="Z37" s="147"/>
+      <c r="AA37" s="147"/>
+      <c r="AB37" s="147"/>
+      <c r="AC37" s="147"/>
+      <c r="AD37" s="147"/>
+      <c r="AE37" s="147"/>
+      <c r="AF37" s="147"/>
+      <c r="AG37" s="147"/>
+      <c r="AH37" s="147"/>
+      <c r="AI37" s="147"/>
+      <c r="AJ37" s="147"/>
+      <c r="AK37" s="147"/>
+      <c r="AL37" s="147"/>
+      <c r="AM37" s="148"/>
     </row>
     <row r="38" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="134"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="84"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="84"/>
-      <c r="O38" s="84"/>
-      <c r="P38" s="84"/>
-      <c r="Q38" s="84"/>
-      <c r="R38" s="84"/>
-      <c r="S38" s="84"/>
-      <c r="T38" s="84"/>
-      <c r="U38" s="84"/>
-      <c r="V38" s="84"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32"/>
-      <c r="AB38" s="140"/>
-      <c r="AC38" s="140"/>
-      <c r="AD38" s="140"/>
-      <c r="AE38" s="140"/>
-      <c r="AF38" s="140"/>
-      <c r="AG38" s="140"/>
-      <c r="AH38" s="140"/>
-      <c r="AI38" s="140"/>
-      <c r="AJ38" s="140"/>
-      <c r="AK38" s="140"/>
-      <c r="AL38" s="140"/>
-      <c r="AM38" s="140"/>
+      <c r="C38" s="147"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="147"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="147"/>
+      <c r="K38" s="147"/>
+      <c r="L38" s="147"/>
+      <c r="M38" s="147"/>
+      <c r="N38" s="147"/>
+      <c r="O38" s="147"/>
+      <c r="P38" s="147"/>
+      <c r="Q38" s="147"/>
+      <c r="R38" s="147"/>
+      <c r="S38" s="147"/>
+      <c r="T38" s="147"/>
+      <c r="U38" s="147"/>
+      <c r="V38" s="147"/>
+      <c r="W38" s="147"/>
+      <c r="X38" s="147"/>
+      <c r="Y38" s="147"/>
+      <c r="Z38" s="147"/>
+      <c r="AA38" s="147"/>
+      <c r="AB38" s="147"/>
+      <c r="AC38" s="147"/>
+      <c r="AD38" s="147"/>
+      <c r="AE38" s="147"/>
+      <c r="AF38" s="147"/>
+      <c r="AG38" s="147"/>
+      <c r="AH38" s="147"/>
+      <c r="AI38" s="147"/>
+      <c r="AJ38" s="147"/>
+      <c r="AK38" s="147"/>
+      <c r="AL38" s="147"/>
+      <c r="AM38" s="148"/>
     </row>
     <row r="39" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="84"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="84"/>
-      <c r="O39" s="84"/>
-      <c r="P39" s="84"/>
-      <c r="Q39" s="84"/>
-      <c r="R39" s="84"/>
-      <c r="S39" s="84"/>
-      <c r="T39" s="84"/>
-      <c r="U39" s="84"/>
-      <c r="V39" s="84"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="32"/>
-      <c r="AA39" s="32"/>
-      <c r="AB39" s="140"/>
-      <c r="AC39" s="140"/>
-      <c r="AD39" s="140"/>
-      <c r="AE39" s="140"/>
-      <c r="AF39" s="140"/>
-      <c r="AG39" s="140"/>
-      <c r="AH39" s="140"/>
-      <c r="AI39" s="140"/>
-      <c r="AJ39" s="140"/>
-      <c r="AK39" s="140"/>
-      <c r="AL39" s="140"/>
-      <c r="AM39" s="140"/>
+      <c r="C39" s="147"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="147"/>
+      <c r="K39" s="147"/>
+      <c r="L39" s="147"/>
+      <c r="M39" s="147"/>
+      <c r="N39" s="147"/>
+      <c r="O39" s="147"/>
+      <c r="P39" s="147"/>
+      <c r="Q39" s="147"/>
+      <c r="R39" s="147"/>
+      <c r="S39" s="147"/>
+      <c r="T39" s="147"/>
+      <c r="U39" s="147"/>
+      <c r="V39" s="147"/>
+      <c r="W39" s="147"/>
+      <c r="X39" s="147"/>
+      <c r="Y39" s="147"/>
+      <c r="Z39" s="147"/>
+      <c r="AA39" s="147"/>
+      <c r="AB39" s="147"/>
+      <c r="AC39" s="147"/>
+      <c r="AD39" s="147"/>
+      <c r="AE39" s="147"/>
+      <c r="AF39" s="147"/>
+      <c r="AG39" s="147"/>
+      <c r="AH39" s="147"/>
+      <c r="AI39" s="147"/>
+      <c r="AJ39" s="147"/>
+      <c r="AK39" s="147"/>
+      <c r="AL39" s="147"/>
+      <c r="AM39" s="148"/>
     </row>
     <row r="40" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
       <c r="B40" s="50"/>
-      <c r="C40" s="134"/>
-      <c r="D40" s="134"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="84"/>
-      <c r="N40" s="84"/>
-      <c r="O40" s="84"/>
-      <c r="P40" s="84"/>
-      <c r="Q40" s="84"/>
-      <c r="R40" s="84"/>
-      <c r="S40" s="84"/>
-      <c r="T40" s="84"/>
-      <c r="U40" s="84"/>
-      <c r="V40" s="84"/>
-      <c r="W40" s="32"/>
-      <c r="X40" s="32"/>
-      <c r="Y40" s="32"/>
-      <c r="Z40" s="32"/>
-      <c r="AA40" s="32"/>
-      <c r="AB40" s="140"/>
-      <c r="AC40" s="140"/>
-      <c r="AD40" s="140"/>
-      <c r="AE40" s="140"/>
-      <c r="AF40" s="140"/>
-      <c r="AG40" s="140"/>
-      <c r="AH40" s="140"/>
-      <c r="AI40" s="140"/>
-      <c r="AJ40" s="140"/>
-      <c r="AK40" s="140"/>
-      <c r="AL40" s="140"/>
-      <c r="AM40" s="140"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="147"/>
+      <c r="K40" s="147"/>
+      <c r="L40" s="147"/>
+      <c r="M40" s="147"/>
+      <c r="N40" s="147"/>
+      <c r="O40" s="147"/>
+      <c r="P40" s="147"/>
+      <c r="Q40" s="147"/>
+      <c r="R40" s="147"/>
+      <c r="S40" s="147"/>
+      <c r="T40" s="147"/>
+      <c r="U40" s="147"/>
+      <c r="V40" s="147"/>
+      <c r="W40" s="147"/>
+      <c r="X40" s="147"/>
+      <c r="Y40" s="147"/>
+      <c r="Z40" s="147"/>
+      <c r="AA40" s="147"/>
+      <c r="AB40" s="147"/>
+      <c r="AC40" s="147"/>
+      <c r="AD40" s="147"/>
+      <c r="AE40" s="147"/>
+      <c r="AF40" s="147"/>
+      <c r="AG40" s="147"/>
+      <c r="AH40" s="147"/>
+      <c r="AI40" s="147"/>
+      <c r="AJ40" s="147"/>
+      <c r="AK40" s="147"/>
+      <c r="AL40" s="147"/>
+      <c r="AM40" s="148"/>
     </row>
     <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="50"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="134"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
-      <c r="O41" s="84"/>
-      <c r="P41" s="84"/>
-      <c r="Q41" s="84"/>
-      <c r="R41" s="84"/>
-      <c r="S41" s="84"/>
-      <c r="T41" s="84"/>
-      <c r="U41" s="84"/>
-      <c r="V41" s="84"/>
-      <c r="W41" s="32"/>
-      <c r="X41" s="32"/>
-      <c r="Y41" s="32"/>
-      <c r="Z41" s="32"/>
-      <c r="AA41" s="32"/>
-      <c r="AB41" s="140"/>
-      <c r="AC41" s="140"/>
-      <c r="AD41" s="140"/>
-      <c r="AE41" s="140"/>
-      <c r="AF41" s="140"/>
-      <c r="AG41" s="140"/>
-      <c r="AH41" s="140"/>
-      <c r="AI41" s="140"/>
-      <c r="AJ41" s="140"/>
-      <c r="AK41" s="140"/>
-      <c r="AL41" s="140"/>
-      <c r="AM41" s="140"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="147"/>
+      <c r="J41" s="147"/>
+      <c r="K41" s="147"/>
+      <c r="L41" s="147"/>
+      <c r="M41" s="147"/>
+      <c r="N41" s="147"/>
+      <c r="O41" s="147"/>
+      <c r="P41" s="147"/>
+      <c r="Q41" s="147"/>
+      <c r="R41" s="147"/>
+      <c r="S41" s="147"/>
+      <c r="T41" s="147"/>
+      <c r="U41" s="147"/>
+      <c r="V41" s="147"/>
+      <c r="W41" s="147"/>
+      <c r="X41" s="147"/>
+      <c r="Y41" s="147"/>
+      <c r="Z41" s="147"/>
+      <c r="AA41" s="147"/>
+      <c r="AB41" s="147"/>
+      <c r="AC41" s="147"/>
+      <c r="AD41" s="147"/>
+      <c r="AE41" s="147"/>
+      <c r="AF41" s="147"/>
+      <c r="AG41" s="147"/>
+      <c r="AH41" s="147"/>
+      <c r="AI41" s="147"/>
+      <c r="AJ41" s="147"/>
+      <c r="AK41" s="147"/>
+      <c r="AL41" s="147"/>
+      <c r="AM41" s="148"/>
     </row>
     <row r="42" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49"/>
       <c r="B42" s="50"/>
-      <c r="C42" s="134"/>
-      <c r="D42" s="134"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="84"/>
-      <c r="O42" s="84"/>
-      <c r="P42" s="84"/>
-      <c r="Q42" s="84"/>
-      <c r="R42" s="84"/>
-      <c r="S42" s="84"/>
-      <c r="T42" s="84"/>
-      <c r="U42" s="84"/>
-      <c r="V42" s="84"/>
-      <c r="W42" s="32"/>
-      <c r="X42" s="32"/>
-      <c r="Y42" s="32"/>
-      <c r="Z42" s="32"/>
-      <c r="AA42" s="32"/>
-      <c r="AB42" s="140"/>
-      <c r="AC42" s="140"/>
-      <c r="AD42" s="140"/>
-      <c r="AE42" s="140"/>
-      <c r="AF42" s="140"/>
-      <c r="AG42" s="140"/>
-      <c r="AH42" s="140"/>
-      <c r="AI42" s="140"/>
-      <c r="AJ42" s="140"/>
-      <c r="AK42" s="140"/>
-      <c r="AL42" s="140"/>
-      <c r="AM42" s="140"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="147"/>
+      <c r="K42" s="147"/>
+      <c r="L42" s="147"/>
+      <c r="M42" s="147"/>
+      <c r="N42" s="147"/>
+      <c r="O42" s="147"/>
+      <c r="P42" s="147"/>
+      <c r="Q42" s="147"/>
+      <c r="R42" s="147"/>
+      <c r="S42" s="147"/>
+      <c r="T42" s="147"/>
+      <c r="U42" s="147"/>
+      <c r="V42" s="147"/>
+      <c r="W42" s="147"/>
+      <c r="X42" s="147"/>
+      <c r="Y42" s="147"/>
+      <c r="Z42" s="147"/>
+      <c r="AA42" s="147"/>
+      <c r="AB42" s="147"/>
+      <c r="AC42" s="147"/>
+      <c r="AD42" s="147"/>
+      <c r="AE42" s="147"/>
+      <c r="AF42" s="147"/>
+      <c r="AG42" s="147"/>
+      <c r="AH42" s="147"/>
+      <c r="AI42" s="147"/>
+      <c r="AJ42" s="147"/>
+      <c r="AK42" s="147"/>
+      <c r="AL42" s="147"/>
+      <c r="AM42" s="148"/>
     </row>
     <row r="43" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="49"/>
       <c r="B43" s="50"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="84"/>
-      <c r="L43" s="84"/>
-      <c r="M43" s="84"/>
-      <c r="N43" s="84"/>
-      <c r="O43" s="84"/>
-      <c r="P43" s="84"/>
-      <c r="Q43" s="84"/>
-      <c r="R43" s="84"/>
-      <c r="S43" s="84"/>
-      <c r="T43" s="84"/>
-      <c r="U43" s="84"/>
-      <c r="V43" s="84"/>
-      <c r="W43" s="32"/>
-      <c r="X43" s="32"/>
-      <c r="Y43" s="32"/>
-      <c r="Z43" s="32"/>
-      <c r="AA43" s="32"/>
-      <c r="AB43" s="140"/>
-      <c r="AC43" s="140"/>
-      <c r="AD43" s="140"/>
-      <c r="AE43" s="140"/>
-      <c r="AF43" s="140"/>
-      <c r="AG43" s="140"/>
-      <c r="AH43" s="140"/>
-      <c r="AI43" s="140"/>
-      <c r="AJ43" s="140"/>
-      <c r="AK43" s="140"/>
-      <c r="AL43" s="140"/>
-      <c r="AM43" s="140"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="147"/>
+      <c r="K43" s="147"/>
+      <c r="L43" s="147"/>
+      <c r="M43" s="147"/>
+      <c r="N43" s="147"/>
+      <c r="O43" s="147"/>
+      <c r="P43" s="147"/>
+      <c r="Q43" s="147"/>
+      <c r="R43" s="147"/>
+      <c r="S43" s="147"/>
+      <c r="T43" s="147"/>
+      <c r="U43" s="147"/>
+      <c r="V43" s="147"/>
+      <c r="W43" s="147"/>
+      <c r="X43" s="147"/>
+      <c r="Y43" s="147"/>
+      <c r="Z43" s="147"/>
+      <c r="AA43" s="147"/>
+      <c r="AB43" s="147"/>
+      <c r="AC43" s="147"/>
+      <c r="AD43" s="147"/>
+      <c r="AE43" s="147"/>
+      <c r="AF43" s="147"/>
+      <c r="AG43" s="147"/>
+      <c r="AH43" s="147"/>
+      <c r="AI43" s="147"/>
+      <c r="AJ43" s="147"/>
+      <c r="AK43" s="147"/>
+      <c r="AL43" s="147"/>
+      <c r="AM43" s="148"/>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="49"/>
       <c r="B44" s="50"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="84"/>
-      <c r="L44" s="84"/>
-      <c r="M44" s="84"/>
-      <c r="N44" s="84"/>
-      <c r="O44" s="84"/>
-      <c r="P44" s="84"/>
-      <c r="Q44" s="84"/>
-      <c r="R44" s="84"/>
-      <c r="S44" s="84"/>
-      <c r="T44" s="84"/>
-      <c r="U44" s="84"/>
-      <c r="V44" s="84"/>
-      <c r="W44" s="32"/>
-      <c r="X44" s="32"/>
-      <c r="Y44" s="32"/>
-      <c r="Z44" s="32"/>
-      <c r="AA44" s="32"/>
-      <c r="AB44" s="140"/>
-      <c r="AC44" s="140"/>
-      <c r="AD44" s="140"/>
-      <c r="AE44" s="140"/>
-      <c r="AF44" s="140"/>
-      <c r="AG44" s="140"/>
-      <c r="AH44" s="140"/>
-      <c r="AI44" s="140"/>
-      <c r="AJ44" s="140"/>
-      <c r="AK44" s="140"/>
-      <c r="AL44" s="140"/>
-      <c r="AM44" s="140"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="147"/>
+      <c r="G44" s="147"/>
+      <c r="H44" s="147"/>
+      <c r="I44" s="147"/>
+      <c r="J44" s="147"/>
+      <c r="K44" s="147"/>
+      <c r="L44" s="147"/>
+      <c r="M44" s="147"/>
+      <c r="N44" s="147"/>
+      <c r="O44" s="147"/>
+      <c r="P44" s="147"/>
+      <c r="Q44" s="147"/>
+      <c r="R44" s="147"/>
+      <c r="S44" s="147"/>
+      <c r="T44" s="147"/>
+      <c r="U44" s="147"/>
+      <c r="V44" s="147"/>
+      <c r="W44" s="147"/>
+      <c r="X44" s="147"/>
+      <c r="Y44" s="147"/>
+      <c r="Z44" s="147"/>
+      <c r="AA44" s="147"/>
+      <c r="AB44" s="147"/>
+      <c r="AC44" s="147"/>
+      <c r="AD44" s="147"/>
+      <c r="AE44" s="147"/>
+      <c r="AF44" s="147"/>
+      <c r="AG44" s="147"/>
+      <c r="AH44" s="147"/>
+      <c r="AI44" s="147"/>
+      <c r="AJ44" s="147"/>
+      <c r="AK44" s="147"/>
+      <c r="AL44" s="147"/>
+      <c r="AM44" s="148"/>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="49"/>
       <c r="B45" s="50"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="84"/>
-      <c r="M45" s="84"/>
-      <c r="N45" s="84"/>
-      <c r="O45" s="84"/>
-      <c r="P45" s="84"/>
-      <c r="Q45" s="84"/>
-      <c r="R45" s="84"/>
-      <c r="S45" s="84"/>
-      <c r="T45" s="84"/>
-      <c r="U45" s="84"/>
-      <c r="V45" s="84"/>
-      <c r="W45" s="32"/>
-      <c r="X45" s="32"/>
-      <c r="Y45" s="32"/>
-      <c r="Z45" s="32"/>
-      <c r="AA45" s="32"/>
-      <c r="AB45" s="140"/>
-      <c r="AC45" s="140"/>
-      <c r="AD45" s="140"/>
-      <c r="AE45" s="140"/>
-      <c r="AF45" s="140"/>
-      <c r="AG45" s="140"/>
-      <c r="AH45" s="140"/>
-      <c r="AI45" s="140"/>
-      <c r="AJ45" s="140"/>
-      <c r="AK45" s="140"/>
-      <c r="AL45" s="140"/>
-      <c r="AM45" s="140"/>
+      <c r="C45" s="147"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="147"/>
+      <c r="H45" s="147"/>
+      <c r="I45" s="147"/>
+      <c r="J45" s="147"/>
+      <c r="K45" s="147"/>
+      <c r="L45" s="147"/>
+      <c r="M45" s="147"/>
+      <c r="N45" s="147"/>
+      <c r="O45" s="147"/>
+      <c r="P45" s="147"/>
+      <c r="Q45" s="147"/>
+      <c r="R45" s="147"/>
+      <c r="S45" s="147"/>
+      <c r="T45" s="147"/>
+      <c r="U45" s="147"/>
+      <c r="V45" s="147"/>
+      <c r="W45" s="147"/>
+      <c r="X45" s="147"/>
+      <c r="Y45" s="147"/>
+      <c r="Z45" s="147"/>
+      <c r="AA45" s="147"/>
+      <c r="AB45" s="147"/>
+      <c r="AC45" s="147"/>
+      <c r="AD45" s="147"/>
+      <c r="AE45" s="147"/>
+      <c r="AF45" s="147"/>
+      <c r="AG45" s="147"/>
+      <c r="AH45" s="147"/>
+      <c r="AI45" s="147"/>
+      <c r="AJ45" s="147"/>
+      <c r="AK45" s="147"/>
+      <c r="AL45" s="147"/>
+      <c r="AM45" s="148"/>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="50"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="84"/>
-      <c r="O46" s="84"/>
-      <c r="P46" s="84"/>
-      <c r="Q46" s="84"/>
-      <c r="R46" s="84"/>
-      <c r="S46" s="84"/>
-      <c r="T46" s="84"/>
-      <c r="U46" s="84"/>
-      <c r="V46" s="84"/>
-      <c r="W46" s="32"/>
-      <c r="X46" s="32"/>
-      <c r="Y46" s="32"/>
-      <c r="Z46" s="32"/>
-      <c r="AA46" s="32"/>
-      <c r="AB46" s="140"/>
-      <c r="AC46" s="140"/>
-      <c r="AD46" s="140"/>
-      <c r="AE46" s="140"/>
-      <c r="AF46" s="140"/>
-      <c r="AG46" s="140"/>
-      <c r="AH46" s="140"/>
-      <c r="AI46" s="140"/>
-      <c r="AJ46" s="140"/>
-      <c r="AK46" s="140"/>
-      <c r="AL46" s="140"/>
-      <c r="AM46" s="140"/>
+      <c r="C46" s="147"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="147"/>
+      <c r="I46" s="147"/>
+      <c r="J46" s="147"/>
+      <c r="K46" s="147"/>
+      <c r="L46" s="147"/>
+      <c r="M46" s="147"/>
+      <c r="N46" s="147"/>
+      <c r="O46" s="147"/>
+      <c r="P46" s="147"/>
+      <c r="Q46" s="147"/>
+      <c r="R46" s="147"/>
+      <c r="S46" s="147"/>
+      <c r="T46" s="147"/>
+      <c r="U46" s="147"/>
+      <c r="V46" s="147"/>
+      <c r="W46" s="147"/>
+      <c r="X46" s="147"/>
+      <c r="Y46" s="147"/>
+      <c r="Z46" s="147"/>
+      <c r="AA46" s="147"/>
+      <c r="AB46" s="147"/>
+      <c r="AC46" s="147"/>
+      <c r="AD46" s="147"/>
+      <c r="AE46" s="147"/>
+      <c r="AF46" s="147"/>
+      <c r="AG46" s="147"/>
+      <c r="AH46" s="147"/>
+      <c r="AI46" s="147"/>
+      <c r="AJ46" s="147"/>
+      <c r="AK46" s="147"/>
+      <c r="AL46" s="147"/>
+      <c r="AM46" s="148"/>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="49"/>
       <c r="B47" s="50"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="84"/>
-      <c r="L47" s="84"/>
-      <c r="M47" s="84"/>
-      <c r="N47" s="84"/>
-      <c r="O47" s="84"/>
-      <c r="P47" s="84"/>
-      <c r="Q47" s="84"/>
-      <c r="R47" s="84"/>
-      <c r="S47" s="84"/>
-      <c r="T47" s="84"/>
-      <c r="U47" s="84"/>
-      <c r="V47" s="84"/>
-      <c r="W47" s="32"/>
-      <c r="X47" s="32"/>
-      <c r="Y47" s="32"/>
-      <c r="Z47" s="32"/>
-      <c r="AA47" s="32"/>
-      <c r="AB47" s="140"/>
-      <c r="AC47" s="140"/>
-      <c r="AD47" s="140"/>
-      <c r="AE47" s="140"/>
-      <c r="AF47" s="140"/>
-      <c r="AG47" s="140"/>
-      <c r="AH47" s="140"/>
-      <c r="AI47" s="140"/>
-      <c r="AJ47" s="140"/>
-      <c r="AK47" s="140"/>
-      <c r="AL47" s="140"/>
-      <c r="AM47" s="140"/>
+      <c r="C47" s="147"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="147"/>
+      <c r="J47" s="147"/>
+      <c r="K47" s="147"/>
+      <c r="L47" s="147"/>
+      <c r="M47" s="147"/>
+      <c r="N47" s="147"/>
+      <c r="O47" s="147"/>
+      <c r="P47" s="147"/>
+      <c r="Q47" s="147"/>
+      <c r="R47" s="147"/>
+      <c r="S47" s="147"/>
+      <c r="T47" s="147"/>
+      <c r="U47" s="147"/>
+      <c r="V47" s="147"/>
+      <c r="W47" s="147"/>
+      <c r="X47" s="147"/>
+      <c r="Y47" s="147"/>
+      <c r="Z47" s="147"/>
+      <c r="AA47" s="147"/>
+      <c r="AB47" s="147"/>
+      <c r="AC47" s="147"/>
+      <c r="AD47" s="147"/>
+      <c r="AE47" s="147"/>
+      <c r="AF47" s="147"/>
+      <c r="AG47" s="147"/>
+      <c r="AH47" s="147"/>
+      <c r="AI47" s="147"/>
+      <c r="AJ47" s="147"/>
+      <c r="AK47" s="147"/>
+      <c r="AL47" s="147"/>
+      <c r="AM47" s="148"/>
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="49"/>
       <c r="B48" s="50"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="134"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="84"/>
-      <c r="K48" s="84"/>
-      <c r="L48" s="84"/>
-      <c r="M48" s="84"/>
-      <c r="N48" s="84"/>
-      <c r="O48" s="84"/>
-      <c r="P48" s="84"/>
-      <c r="Q48" s="84"/>
-      <c r="R48" s="84"/>
-      <c r="S48" s="84"/>
-      <c r="T48" s="84"/>
-      <c r="U48" s="84"/>
-      <c r="V48" s="84"/>
-      <c r="W48" s="32"/>
-      <c r="X48" s="32"/>
-      <c r="Y48" s="32"/>
-      <c r="Z48" s="32"/>
-      <c r="AA48" s="32"/>
-      <c r="AB48" s="140"/>
-      <c r="AC48" s="140"/>
-      <c r="AD48" s="140"/>
-      <c r="AE48" s="140"/>
-      <c r="AF48" s="140"/>
-      <c r="AG48" s="140"/>
-      <c r="AH48" s="140"/>
-      <c r="AI48" s="140"/>
-      <c r="AJ48" s="140"/>
-      <c r="AK48" s="140"/>
-      <c r="AL48" s="140"/>
-      <c r="AM48" s="140"/>
+      <c r="C48" s="147"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="147"/>
+      <c r="F48" s="147"/>
+      <c r="G48" s="147"/>
+      <c r="H48" s="147"/>
+      <c r="I48" s="147"/>
+      <c r="J48" s="147"/>
+      <c r="K48" s="147"/>
+      <c r="L48" s="147"/>
+      <c r="M48" s="147"/>
+      <c r="N48" s="147"/>
+      <c r="O48" s="147"/>
+      <c r="P48" s="147"/>
+      <c r="Q48" s="147"/>
+      <c r="R48" s="147"/>
+      <c r="S48" s="147"/>
+      <c r="T48" s="147"/>
+      <c r="U48" s="147"/>
+      <c r="V48" s="147"/>
+      <c r="W48" s="147"/>
+      <c r="X48" s="147"/>
+      <c r="Y48" s="147"/>
+      <c r="Z48" s="147"/>
+      <c r="AA48" s="147"/>
+      <c r="AB48" s="147"/>
+      <c r="AC48" s="147"/>
+      <c r="AD48" s="147"/>
+      <c r="AE48" s="147"/>
+      <c r="AF48" s="147"/>
+      <c r="AG48" s="147"/>
+      <c r="AH48" s="147"/>
+      <c r="AI48" s="147"/>
+      <c r="AJ48" s="147"/>
+      <c r="AK48" s="147"/>
+      <c r="AL48" s="147"/>
+      <c r="AM48" s="148"/>
     </row>
     <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="49"/>
       <c r="B49" s="50"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="134"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="84"/>
-      <c r="O49" s="84"/>
-      <c r="P49" s="84"/>
-      <c r="Q49" s="84"/>
-      <c r="R49" s="84"/>
-      <c r="S49" s="84"/>
-      <c r="T49" s="84"/>
-      <c r="U49" s="84"/>
-      <c r="V49" s="84"/>
-      <c r="W49" s="32"/>
-      <c r="X49" s="32"/>
-      <c r="Y49" s="32"/>
-      <c r="Z49" s="32"/>
-      <c r="AA49" s="32"/>
-      <c r="AB49" s="140"/>
-      <c r="AC49" s="140"/>
-      <c r="AD49" s="140"/>
-      <c r="AE49" s="140"/>
-      <c r="AF49" s="140"/>
-      <c r="AG49" s="140"/>
-      <c r="AH49" s="140"/>
-      <c r="AI49" s="140"/>
-      <c r="AJ49" s="140"/>
-      <c r="AK49" s="140"/>
-      <c r="AL49" s="140"/>
-      <c r="AM49" s="140"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="147"/>
+      <c r="F49" s="147"/>
+      <c r="G49" s="147"/>
+      <c r="H49" s="147"/>
+      <c r="I49" s="147"/>
+      <c r="J49" s="147"/>
+      <c r="K49" s="147"/>
+      <c r="L49" s="147"/>
+      <c r="M49" s="147"/>
+      <c r="N49" s="147"/>
+      <c r="O49" s="147"/>
+      <c r="P49" s="147"/>
+      <c r="Q49" s="147"/>
+      <c r="R49" s="147"/>
+      <c r="S49" s="147"/>
+      <c r="T49" s="147"/>
+      <c r="U49" s="147"/>
+      <c r="V49" s="147"/>
+      <c r="W49" s="147"/>
+      <c r="X49" s="147"/>
+      <c r="Y49" s="147"/>
+      <c r="Z49" s="147"/>
+      <c r="AA49" s="147"/>
+      <c r="AB49" s="147"/>
+      <c r="AC49" s="147"/>
+      <c r="AD49" s="147"/>
+      <c r="AE49" s="147"/>
+      <c r="AF49" s="147"/>
+      <c r="AG49" s="147"/>
+      <c r="AH49" s="147"/>
+      <c r="AI49" s="147"/>
+      <c r="AJ49" s="147"/>
+      <c r="AK49" s="147"/>
+      <c r="AL49" s="147"/>
+      <c r="AM49" s="148"/>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="49"/>
       <c r="B50" s="50"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="84"/>
-      <c r="P50" s="84"/>
-      <c r="Q50" s="84"/>
-      <c r="R50" s="84"/>
-      <c r="S50" s="84"/>
-      <c r="T50" s="84"/>
-      <c r="U50" s="84"/>
-      <c r="V50" s="84"/>
-      <c r="W50" s="32"/>
-      <c r="X50" s="32"/>
-      <c r="Y50" s="32"/>
-      <c r="Z50" s="32"/>
-      <c r="AA50" s="32"/>
-      <c r="AB50" s="140"/>
-      <c r="AC50" s="140"/>
-      <c r="AD50" s="140"/>
-      <c r="AE50" s="140"/>
-      <c r="AF50" s="140"/>
-      <c r="AG50" s="140"/>
-      <c r="AH50" s="140"/>
-      <c r="AI50" s="140"/>
-      <c r="AJ50" s="140"/>
-      <c r="AK50" s="140"/>
-      <c r="AL50" s="140"/>
-      <c r="AM50" s="140"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="147"/>
+      <c r="F50" s="147"/>
+      <c r="G50" s="147"/>
+      <c r="H50" s="147"/>
+      <c r="I50" s="147"/>
+      <c r="J50" s="147"/>
+      <c r="K50" s="147"/>
+      <c r="L50" s="147"/>
+      <c r="M50" s="147"/>
+      <c r="N50" s="147"/>
+      <c r="O50" s="147"/>
+      <c r="P50" s="147"/>
+      <c r="Q50" s="147"/>
+      <c r="R50" s="147"/>
+      <c r="S50" s="147"/>
+      <c r="T50" s="147"/>
+      <c r="U50" s="147"/>
+      <c r="V50" s="147"/>
+      <c r="W50" s="147"/>
+      <c r="X50" s="147"/>
+      <c r="Y50" s="147"/>
+      <c r="Z50" s="147"/>
+      <c r="AA50" s="147"/>
+      <c r="AB50" s="147"/>
+      <c r="AC50" s="147"/>
+      <c r="AD50" s="147"/>
+      <c r="AE50" s="147"/>
+      <c r="AF50" s="147"/>
+      <c r="AG50" s="147"/>
+      <c r="AH50" s="147"/>
+      <c r="AI50" s="147"/>
+      <c r="AJ50" s="147"/>
+      <c r="AK50" s="147"/>
+      <c r="AL50" s="147"/>
+      <c r="AM50" s="148"/>
     </row>
     <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="49"/>
       <c r="B51" s="50"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="134"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="84"/>
-      <c r="S51" s="84"/>
-      <c r="T51" s="84"/>
-      <c r="U51" s="84"/>
-      <c r="V51" s="84"/>
-      <c r="W51" s="32"/>
-      <c r="X51" s="32"/>
-      <c r="Y51" s="32"/>
-      <c r="Z51" s="32"/>
-      <c r="AA51" s="32"/>
-      <c r="AB51" s="140"/>
-      <c r="AC51" s="140"/>
-      <c r="AD51" s="140"/>
-      <c r="AE51" s="140"/>
-      <c r="AF51" s="140"/>
-      <c r="AG51" s="140"/>
-      <c r="AH51" s="140"/>
-      <c r="AI51" s="140"/>
-      <c r="AJ51" s="140"/>
-      <c r="AK51" s="140"/>
-      <c r="AL51" s="140"/>
-      <c r="AM51" s="140"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="147"/>
+      <c r="F51" s="147"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="147"/>
+      <c r="I51" s="147"/>
+      <c r="J51" s="147"/>
+      <c r="K51" s="147"/>
+      <c r="L51" s="147"/>
+      <c r="M51" s="147"/>
+      <c r="N51" s="147"/>
+      <c r="O51" s="147"/>
+      <c r="P51" s="147"/>
+      <c r="Q51" s="147"/>
+      <c r="R51" s="147"/>
+      <c r="S51" s="147"/>
+      <c r="T51" s="147"/>
+      <c r="U51" s="147"/>
+      <c r="V51" s="147"/>
+      <c r="W51" s="147"/>
+      <c r="X51" s="147"/>
+      <c r="Y51" s="147"/>
+      <c r="Z51" s="147"/>
+      <c r="AA51" s="147"/>
+      <c r="AB51" s="147"/>
+      <c r="AC51" s="147"/>
+      <c r="AD51" s="147"/>
+      <c r="AE51" s="147"/>
+      <c r="AF51" s="147"/>
+      <c r="AG51" s="147"/>
+      <c r="AH51" s="147"/>
+      <c r="AI51" s="147"/>
+      <c r="AJ51" s="147"/>
+      <c r="AK51" s="147"/>
+      <c r="AL51" s="147"/>
+      <c r="AM51" s="148"/>
     </row>
     <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="49"/>
       <c r="B52" s="50"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="134"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="84"/>
-      <c r="Q52" s="84"/>
-      <c r="R52" s="84"/>
-      <c r="S52" s="84"/>
-      <c r="T52" s="84"/>
-      <c r="U52" s="84"/>
-      <c r="V52" s="84"/>
-      <c r="W52" s="32"/>
-      <c r="X52" s="32"/>
-      <c r="Y52" s="32"/>
-      <c r="Z52" s="32"/>
-      <c r="AA52" s="32"/>
-      <c r="AB52" s="140"/>
-      <c r="AC52" s="140"/>
-      <c r="AD52" s="140"/>
-      <c r="AE52" s="140"/>
-      <c r="AF52" s="140"/>
-      <c r="AG52" s="140"/>
-      <c r="AH52" s="140"/>
-      <c r="AI52" s="140"/>
-      <c r="AJ52" s="140"/>
-      <c r="AK52" s="140"/>
-      <c r="AL52" s="140"/>
-      <c r="AM52" s="140"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="147"/>
+      <c r="F52" s="147"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="147"/>
+      <c r="I52" s="147"/>
+      <c r="J52" s="147"/>
+      <c r="K52" s="147"/>
+      <c r="L52" s="147"/>
+      <c r="M52" s="147"/>
+      <c r="N52" s="147"/>
+      <c r="O52" s="147"/>
+      <c r="P52" s="147"/>
+      <c r="Q52" s="147"/>
+      <c r="R52" s="147"/>
+      <c r="S52" s="147"/>
+      <c r="T52" s="147"/>
+      <c r="U52" s="147"/>
+      <c r="V52" s="147"/>
+      <c r="W52" s="147"/>
+      <c r="X52" s="147"/>
+      <c r="Y52" s="147"/>
+      <c r="Z52" s="147"/>
+      <c r="AA52" s="147"/>
+      <c r="AB52" s="147"/>
+      <c r="AC52" s="147"/>
+      <c r="AD52" s="147"/>
+      <c r="AE52" s="147"/>
+      <c r="AF52" s="147"/>
+      <c r="AG52" s="147"/>
+      <c r="AH52" s="147"/>
+      <c r="AI52" s="147"/>
+      <c r="AJ52" s="147"/>
+      <c r="AK52" s="147"/>
+      <c r="AL52" s="147"/>
+      <c r="AM52" s="148"/>
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="55"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="11"/>
-      <c r="AD53" s="11"/>
-      <c r="AE53" s="11"/>
-      <c r="AF53" s="11"/>
-      <c r="AG53" s="11"/>
-      <c r="AH53" s="11"/>
-      <c r="AI53" s="11"/>
-      <c r="AJ53" s="11"/>
-      <c r="AK53" s="8"/>
-      <c r="AM53" s="43"/>
+      <c r="C53" s="149"/>
+      <c r="D53" s="150"/>
+      <c r="E53" s="150"/>
+      <c r="F53" s="150"/>
+      <c r="G53" s="150"/>
+      <c r="H53" s="150"/>
+      <c r="I53" s="150"/>
+      <c r="J53" s="150"/>
+      <c r="K53" s="150"/>
+      <c r="L53" s="150"/>
+      <c r="M53" s="150"/>
+      <c r="N53" s="150"/>
+      <c r="O53" s="150"/>
+      <c r="P53" s="151"/>
+      <c r="Q53" s="151"/>
+      <c r="R53" s="151"/>
+      <c r="S53" s="151"/>
+      <c r="T53" s="151"/>
+      <c r="U53" s="151"/>
+      <c r="V53" s="151"/>
+      <c r="W53" s="151"/>
+      <c r="X53" s="151"/>
+      <c r="Y53" s="151"/>
+      <c r="Z53" s="151"/>
+      <c r="AA53" s="151"/>
+      <c r="AB53" s="151"/>
+      <c r="AC53" s="151"/>
+      <c r="AD53" s="151"/>
+      <c r="AE53" s="151"/>
+      <c r="AF53" s="151"/>
+      <c r="AG53" s="151"/>
+      <c r="AH53" s="151"/>
+      <c r="AI53" s="151"/>
+      <c r="AJ53" s="151"/>
+      <c r="AK53" s="152"/>
+      <c r="AL53" s="153"/>
+      <c r="AM53" s="154"/>
     </row>
     <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="49"/>
       <c r="B54" s="55"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="88"/>
-      <c r="L54" s="88"/>
-      <c r="M54" s="88"/>
-      <c r="N54" s="88"/>
-      <c r="O54" s="88"/>
-      <c r="P54" s="89"/>
-      <c r="Q54" s="89"/>
-      <c r="R54" s="89"/>
-      <c r="S54" s="89"/>
-      <c r="T54" s="89"/>
-      <c r="U54" s="89"/>
-      <c r="V54" s="89"/>
-      <c r="W54" s="89"/>
-      <c r="X54" s="89"/>
-      <c r="Y54" s="89"/>
-      <c r="Z54" s="89"/>
-      <c r="AA54" s="89"/>
-      <c r="AB54" s="89"/>
-      <c r="AC54" s="89"/>
-      <c r="AD54" s="89"/>
-      <c r="AE54" s="89"/>
-      <c r="AF54" s="89"/>
-      <c r="AG54" s="89"/>
-      <c r="AH54" s="89"/>
-      <c r="AI54" s="89"/>
-      <c r="AJ54" s="89"/>
-      <c r="AK54" s="24"/>
-      <c r="AL54" s="25"/>
-      <c r="AM54" s="90"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="156"/>
+      <c r="E54" s="156"/>
+      <c r="F54" s="156"/>
+      <c r="G54" s="156"/>
+      <c r="H54" s="156"/>
+      <c r="I54" s="156"/>
+      <c r="J54" s="156"/>
+      <c r="K54" s="156"/>
+      <c r="L54" s="156"/>
+      <c r="M54" s="156"/>
+      <c r="N54" s="156"/>
+      <c r="O54" s="156"/>
+      <c r="P54" s="157"/>
+      <c r="Q54" s="157"/>
+      <c r="R54" s="157"/>
+      <c r="S54" s="157"/>
+      <c r="T54" s="157"/>
+      <c r="U54" s="157"/>
+      <c r="V54" s="157"/>
+      <c r="W54" s="157"/>
+      <c r="X54" s="157"/>
+      <c r="Y54" s="157"/>
+      <c r="Z54" s="157"/>
+      <c r="AA54" s="157"/>
+      <c r="AB54" s="157"/>
+      <c r="AC54" s="157"/>
+      <c r="AD54" s="157"/>
+      <c r="AE54" s="157"/>
+      <c r="AF54" s="157"/>
+      <c r="AG54" s="157"/>
+      <c r="AH54" s="157"/>
+      <c r="AI54" s="157"/>
+      <c r="AJ54" s="157"/>
+      <c r="AK54" s="158"/>
+      <c r="AL54" s="159"/>
+      <c r="AM54" s="160"/>
     </row>
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="49"/>
@@ -5657,74 +5752,17 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="90">
+  <mergeCells count="33">
     <mergeCell ref="D2:AL3"/>
     <mergeCell ref="D5:AL7"/>
-    <mergeCell ref="C9:AM10"/>
-    <mergeCell ref="C11:D13"/>
-    <mergeCell ref="E11:V13"/>
-    <mergeCell ref="W11:AA13"/>
-    <mergeCell ref="AB11:AM13"/>
-    <mergeCell ref="C14:D16"/>
-    <mergeCell ref="E14:V16"/>
-    <mergeCell ref="W14:AA16"/>
-    <mergeCell ref="AB14:AM16"/>
-    <mergeCell ref="C17:D19"/>
-    <mergeCell ref="E17:V19"/>
-    <mergeCell ref="W17:AA19"/>
-    <mergeCell ref="AB17:AM19"/>
-    <mergeCell ref="C20:D22"/>
-    <mergeCell ref="E20:V22"/>
-    <mergeCell ref="W20:AA22"/>
-    <mergeCell ref="AB20:AM22"/>
-    <mergeCell ref="C23:D25"/>
-    <mergeCell ref="E23:V25"/>
-    <mergeCell ref="W23:AA25"/>
-    <mergeCell ref="AB23:AM25"/>
-    <mergeCell ref="C26:D28"/>
-    <mergeCell ref="E26:V28"/>
-    <mergeCell ref="W26:AA28"/>
-    <mergeCell ref="AB26:AM28"/>
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="B29:B35"/>
-    <mergeCell ref="C29:D31"/>
-    <mergeCell ref="E29:V31"/>
-    <mergeCell ref="W29:AA31"/>
-    <mergeCell ref="AB29:AM31"/>
-    <mergeCell ref="C32:D34"/>
-    <mergeCell ref="E32:V34"/>
-    <mergeCell ref="W32:AA34"/>
-    <mergeCell ref="AB32:AM34"/>
-    <mergeCell ref="C35:D37"/>
-    <mergeCell ref="E35:V37"/>
-    <mergeCell ref="W35:AA37"/>
-    <mergeCell ref="AB35:AM37"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C38:D40"/>
-    <mergeCell ref="E38:V40"/>
-    <mergeCell ref="W38:AA40"/>
-    <mergeCell ref="AB38:AM40"/>
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C41:D43"/>
-    <mergeCell ref="E41:V43"/>
-    <mergeCell ref="W41:AA43"/>
-    <mergeCell ref="AB41:AM43"/>
-    <mergeCell ref="C44:D46"/>
-    <mergeCell ref="E44:V46"/>
-    <mergeCell ref="W44:AA46"/>
-    <mergeCell ref="AB44:AM46"/>
     <mergeCell ref="A46:A52"/>
     <mergeCell ref="B46:B52"/>
-    <mergeCell ref="C47:D49"/>
-    <mergeCell ref="E47:V49"/>
-    <mergeCell ref="W47:AA49"/>
-    <mergeCell ref="AB47:AM49"/>
-    <mergeCell ref="C50:D52"/>
-    <mergeCell ref="E50:V52"/>
-    <mergeCell ref="W50:AA52"/>
-    <mergeCell ref="AB50:AM52"/>
     <mergeCell ref="A53:A57"/>
     <mergeCell ref="B53:B57"/>
     <mergeCell ref="C55:D55"/>
@@ -7215,8 +7253,8 @@
       <c r="M56" s="117"/>
       <c r="N56" s="117"/>
       <c r="O56" s="117"/>
-      <c r="P56" s="141"/>
-      <c r="Q56" s="141"/>
+      <c r="P56" s="161"/>
+      <c r="Q56" s="161"/>
       <c r="R56" s="91"/>
       <c r="S56" s="91"/>
       <c r="T56" s="91"/>

--- a/backend/static/report.xlsx
+++ b/backend/static/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -528,7 +528,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -789,7 +789,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="169">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1114,15 +1114,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1290,6 +1290,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1358,7 +1362,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1458,7 +1462,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1545,9 +1549,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>119520</xdr:colOff>
+      <xdr:colOff>119160</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1561,11 +1565,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="281160" y="66240"/>
-          <a:ext cx="1352160" cy="572760"/>
+          <a:ext cx="1351800" cy="572400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln w="0">
           <a:noFill/>
         </a:ln>
@@ -1587,9 +1592,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>168840</xdr:colOff>
+      <xdr:colOff>168480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1603,11 +1608,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="510120" y="39240"/>
-          <a:ext cx="1352160" cy="572760"/>
+          <a:ext cx="1351800" cy="572400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln w="0">
           <a:noFill/>
         </a:ln>
@@ -1629,9 +1635,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>119160</xdr:colOff>
+      <xdr:colOff>118800</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1645,11 +1651,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5803920" y="10002240"/>
-          <a:ext cx="681120" cy="288360"/>
+          <a:ext cx="680760" cy="288000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln w="0">
           <a:noFill/>
         </a:ln>
@@ -1773,7 +1780,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -3304,7 +3311,7 @@
       <c r="A56" s="20"/>
       <c r="B56" s="32" t="n">
         <f aca="true">YEAR(TODAY())</f>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C56" s="32"/>
       <c r="D56" s="32"/>
@@ -3423,8 +3430,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3517,82 +3524,82 @@
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="51"/>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
-      <c r="AA2" s="125"/>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="125"/>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="125"/>
-      <c r="AG2" s="125"/>
-      <c r="AH2" s="125"/>
-      <c r="AI2" s="125"/>
-      <c r="AJ2" s="125"/>
-      <c r="AK2" s="125"/>
-      <c r="AL2" s="125"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="126"/>
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="126"/>
+      <c r="AH2" s="126"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="126"/>
+      <c r="AL2" s="126"/>
       <c r="AM2" s="52"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="51"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="125"/>
-      <c r="AE3" s="125"/>
-      <c r="AF3" s="125"/>
-      <c r="AG3" s="125"/>
-      <c r="AH3" s="125"/>
-      <c r="AI3" s="125"/>
-      <c r="AJ3" s="125"/>
-      <c r="AK3" s="125"/>
-      <c r="AL3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="126"/>
+      <c r="AH3" s="126"/>
+      <c r="AI3" s="126"/>
+      <c r="AJ3" s="126"/>
+      <c r="AK3" s="126"/>
+      <c r="AL3" s="126"/>
       <c r="AM3" s="52"/>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3635,123 +3642,123 @@
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="40"/>
-      <c r="D5" s="142" t="str">
+      <c r="D5" s="143" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "Перечень технической документации, рассмотренной в процессе выполнения работ по обследованию строительных конструкций объекта, представлен в Таблице 4.", "Техническая документация отсутствует")</f>
         <v>Техническая документация отсутствует</v>
       </c>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="142"/>
-      <c r="S5" s="142"/>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="142"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="142"/>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="142"/>
-      <c r="AA5" s="142"/>
-      <c r="AB5" s="142"/>
-      <c r="AC5" s="142"/>
-      <c r="AD5" s="142"/>
-      <c r="AE5" s="142"/>
-      <c r="AF5" s="142"/>
-      <c r="AG5" s="142"/>
-      <c r="AH5" s="142"/>
-      <c r="AI5" s="142"/>
-      <c r="AJ5" s="142"/>
-      <c r="AK5" s="142"/>
-      <c r="AL5" s="142"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="143"/>
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="143"/>
+      <c r="W5" s="143"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="143"/>
+      <c r="AD5" s="143"/>
+      <c r="AE5" s="143"/>
+      <c r="AF5" s="143"/>
+      <c r="AG5" s="143"/>
+      <c r="AH5" s="143"/>
+      <c r="AI5" s="143"/>
+      <c r="AJ5" s="143"/>
+      <c r="AK5" s="143"/>
+      <c r="AL5" s="143"/>
       <c r="AM5" s="41"/>
       <c r="AQ5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="42"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="142"/>
-      <c r="N6" s="142"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="142"/>
-      <c r="Q6" s="142"/>
-      <c r="R6" s="142"/>
-      <c r="S6" s="142"/>
-      <c r="T6" s="142"/>
-      <c r="U6" s="142"/>
-      <c r="V6" s="142"/>
-      <c r="W6" s="142"/>
-      <c r="X6" s="142"/>
-      <c r="Y6" s="142"/>
-      <c r="Z6" s="142"/>
-      <c r="AA6" s="142"/>
-      <c r="AB6" s="142"/>
-      <c r="AC6" s="142"/>
-      <c r="AD6" s="142"/>
-      <c r="AE6" s="142"/>
-      <c r="AF6" s="142"/>
-      <c r="AG6" s="142"/>
-      <c r="AH6" s="142"/>
-      <c r="AI6" s="142"/>
-      <c r="AJ6" s="142"/>
-      <c r="AK6" s="142"/>
-      <c r="AL6" s="142"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="143"/>
+      <c r="V6" s="143"/>
+      <c r="W6" s="143"/>
+      <c r="X6" s="143"/>
+      <c r="Y6" s="143"/>
+      <c r="Z6" s="143"/>
+      <c r="AA6" s="143"/>
+      <c r="AB6" s="143"/>
+      <c r="AC6" s="143"/>
+      <c r="AD6" s="143"/>
+      <c r="AE6" s="143"/>
+      <c r="AF6" s="143"/>
+      <c r="AG6" s="143"/>
+      <c r="AH6" s="143"/>
+      <c r="AI6" s="143"/>
+      <c r="AJ6" s="143"/>
+      <c r="AK6" s="143"/>
+      <c r="AL6" s="143"/>
       <c r="AM6" s="43"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="44"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="142"/>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="142"/>
-      <c r="R7" s="142"/>
-      <c r="S7" s="142"/>
-      <c r="T7" s="142"/>
-      <c r="U7" s="142"/>
-      <c r="V7" s="142"/>
-      <c r="W7" s="142"/>
-      <c r="X7" s="142"/>
-      <c r="Y7" s="142"/>
-      <c r="Z7" s="142"/>
-      <c r="AA7" s="142"/>
-      <c r="AB7" s="142"/>
-      <c r="AC7" s="142"/>
-      <c r="AD7" s="142"/>
-      <c r="AE7" s="142"/>
-      <c r="AF7" s="142"/>
-      <c r="AG7" s="142"/>
-      <c r="AH7" s="142"/>
-      <c r="AI7" s="142"/>
-      <c r="AJ7" s="142"/>
-      <c r="AK7" s="142"/>
-      <c r="AL7" s="142"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="143"/>
+      <c r="R7" s="143"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="143"/>
+      <c r="W7" s="143"/>
+      <c r="X7" s="143"/>
+      <c r="Y7" s="143"/>
+      <c r="Z7" s="143"/>
+      <c r="AA7" s="143"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="143"/>
+      <c r="AD7" s="143"/>
+      <c r="AE7" s="143"/>
+      <c r="AF7" s="143"/>
+      <c r="AG7" s="143"/>
+      <c r="AH7" s="143"/>
+      <c r="AI7" s="143"/>
+      <c r="AJ7" s="143"/>
+      <c r="AK7" s="143"/>
+      <c r="AL7" s="143"/>
       <c r="AM7" s="43"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3760,1875 +3767,1875 @@
       <c r="AM8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="143" t="str">
+      <c r="C9" s="144" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "Таблица 4. Перечень предоставленной технической документации", "")</f>
         <v/>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="144"/>
-      <c r="R9" s="144"/>
-      <c r="S9" s="144"/>
-      <c r="T9" s="144"/>
-      <c r="U9" s="144"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="144"/>
-      <c r="X9" s="144"/>
-      <c r="Y9" s="144"/>
-      <c r="Z9" s="144"/>
-      <c r="AA9" s="144"/>
-      <c r="AB9" s="144"/>
-      <c r="AC9" s="144"/>
-      <c r="AD9" s="144"/>
-      <c r="AE9" s="144"/>
-      <c r="AF9" s="144"/>
-      <c r="AG9" s="144"/>
-      <c r="AH9" s="144"/>
-      <c r="AI9" s="144"/>
-      <c r="AJ9" s="144"/>
-      <c r="AK9" s="144"/>
-      <c r="AL9" s="144"/>
-      <c r="AM9" s="145"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="145"/>
+      <c r="L9" s="145"/>
+      <c r="M9" s="145"/>
+      <c r="N9" s="145"/>
+      <c r="O9" s="145"/>
+      <c r="P9" s="145"/>
+      <c r="Q9" s="145"/>
+      <c r="R9" s="145"/>
+      <c r="S9" s="145"/>
+      <c r="T9" s="145"/>
+      <c r="U9" s="145"/>
+      <c r="V9" s="145"/>
+      <c r="W9" s="145"/>
+      <c r="X9" s="145"/>
+      <c r="Y9" s="145"/>
+      <c r="Z9" s="145"/>
+      <c r="AA9" s="145"/>
+      <c r="AB9" s="145"/>
+      <c r="AC9" s="145"/>
+      <c r="AD9" s="145"/>
+      <c r="AE9" s="145"/>
+      <c r="AF9" s="145"/>
+      <c r="AG9" s="145"/>
+      <c r="AH9" s="145"/>
+      <c r="AI9" s="145"/>
+      <c r="AJ9" s="145"/>
+      <c r="AK9" s="145"/>
+      <c r="AL9" s="145"/>
+      <c r="AM9" s="146"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="143"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="144"/>
-      <c r="U10" s="144"/>
-      <c r="V10" s="144"/>
-      <c r="W10" s="144"/>
-      <c r="X10" s="144"/>
-      <c r="Y10" s="144"/>
-      <c r="Z10" s="144"/>
-      <c r="AA10" s="144"/>
-      <c r="AB10" s="144"/>
-      <c r="AC10" s="144"/>
-      <c r="AD10" s="144"/>
-      <c r="AE10" s="144"/>
-      <c r="AF10" s="144"/>
-      <c r="AG10" s="144"/>
-      <c r="AH10" s="144"/>
-      <c r="AI10" s="144"/>
-      <c r="AJ10" s="144"/>
-      <c r="AK10" s="144"/>
-      <c r="AL10" s="144"/>
-      <c r="AM10" s="145"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="145"/>
+      <c r="N10" s="145"/>
+      <c r="O10" s="145"/>
+      <c r="P10" s="145"/>
+      <c r="Q10" s="145"/>
+      <c r="R10" s="145"/>
+      <c r="S10" s="145"/>
+      <c r="T10" s="145"/>
+      <c r="U10" s="145"/>
+      <c r="V10" s="145"/>
+      <c r="W10" s="145"/>
+      <c r="X10" s="145"/>
+      <c r="Y10" s="145"/>
+      <c r="Z10" s="145"/>
+      <c r="AA10" s="145"/>
+      <c r="AB10" s="145"/>
+      <c r="AC10" s="145"/>
+      <c r="AD10" s="145"/>
+      <c r="AE10" s="145"/>
+      <c r="AF10" s="145"/>
+      <c r="AG10" s="145"/>
+      <c r="AH10" s="145"/>
+      <c r="AI10" s="145"/>
+      <c r="AJ10" s="145"/>
+      <c r="AK10" s="145"/>
+      <c r="AL10" s="145"/>
+      <c r="AM10" s="146"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="146" t="str">
+      <c r="C11" s="147" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "№ п/п", "")</f>
         <v/>
       </c>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147" t="str">
+      <c r="D11" s="148"/>
+      <c r="E11" s="148" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "Наименование документации", "")</f>
         <v/>
       </c>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="147"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="147" t="str">
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="148"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="148"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="148"/>
+      <c r="U11" s="148"/>
+      <c r="V11" s="148"/>
+      <c r="W11" s="148" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "Год выпуска", "")</f>
         <v/>
       </c>
-      <c r="X11" s="147"/>
-      <c r="Y11" s="147"/>
-      <c r="Z11" s="147"/>
-      <c r="AA11" s="147"/>
-      <c r="AB11" s="147" t="str">
+      <c r="X11" s="148"/>
+      <c r="Y11" s="148"/>
+      <c r="Z11" s="148"/>
+      <c r="AA11" s="148"/>
+      <c r="AB11" s="148" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "Разработчик", "")</f>
         <v/>
       </c>
-      <c r="AC11" s="147"/>
-      <c r="AD11" s="147"/>
-      <c r="AE11" s="147"/>
-      <c r="AF11" s="147"/>
-      <c r="AG11" s="147"/>
-      <c r="AH11" s="147"/>
-      <c r="AI11" s="147"/>
-      <c r="AJ11" s="147"/>
-      <c r="AK11" s="147"/>
-      <c r="AL11" s="147"/>
-      <c r="AM11" s="148"/>
+      <c r="AC11" s="148"/>
+      <c r="AD11" s="148"/>
+      <c r="AE11" s="148"/>
+      <c r="AF11" s="148"/>
+      <c r="AG11" s="148"/>
+      <c r="AH11" s="148"/>
+      <c r="AI11" s="148"/>
+      <c r="AJ11" s="148"/>
+      <c r="AK11" s="148"/>
+      <c r="AL11" s="148"/>
+      <c r="AM11" s="149"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="149"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="150"/>
-      <c r="M12" s="150"/>
-      <c r="N12" s="150"/>
-      <c r="O12" s="150"/>
-      <c r="P12" s="150"/>
-      <c r="Q12" s="150"/>
-      <c r="R12" s="150"/>
-      <c r="S12" s="150"/>
-      <c r="T12" s="150"/>
-      <c r="U12" s="150"/>
-      <c r="V12" s="150"/>
-      <c r="W12" s="150"/>
-      <c r="X12" s="150"/>
-      <c r="Y12" s="150"/>
-      <c r="Z12" s="150"/>
-      <c r="AA12" s="150"/>
-      <c r="AB12" s="150"/>
-      <c r="AC12" s="150"/>
-      <c r="AD12" s="150"/>
-      <c r="AE12" s="150"/>
-      <c r="AF12" s="150"/>
-      <c r="AG12" s="150"/>
-      <c r="AH12" s="150"/>
-      <c r="AI12" s="150"/>
-      <c r="AJ12" s="150"/>
-      <c r="AK12" s="150"/>
-      <c r="AL12" s="150"/>
-      <c r="AM12" s="151"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="151"/>
+      <c r="S12" s="151"/>
+      <c r="T12" s="151"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="151"/>
+      <c r="W12" s="151"/>
+      <c r="X12" s="151"/>
+      <c r="Y12" s="151"/>
+      <c r="Z12" s="151"/>
+      <c r="AA12" s="151"/>
+      <c r="AB12" s="151"/>
+      <c r="AC12" s="151"/>
+      <c r="AD12" s="151"/>
+      <c r="AE12" s="151"/>
+      <c r="AF12" s="151"/>
+      <c r="AG12" s="151"/>
+      <c r="AH12" s="151"/>
+      <c r="AI12" s="151"/>
+      <c r="AJ12" s="151"/>
+      <c r="AK12" s="151"/>
+      <c r="AL12" s="151"/>
+      <c r="AM12" s="152"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="149"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="150"/>
-      <c r="L13" s="150"/>
-      <c r="M13" s="150"/>
-      <c r="N13" s="150"/>
-      <c r="O13" s="150"/>
-      <c r="P13" s="150"/>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="150"/>
-      <c r="S13" s="150"/>
-      <c r="T13" s="150"/>
-      <c r="U13" s="150"/>
-      <c r="V13" s="150"/>
-      <c r="W13" s="150"/>
-      <c r="X13" s="150"/>
-      <c r="Y13" s="150"/>
-      <c r="Z13" s="150"/>
-      <c r="AA13" s="150"/>
-      <c r="AB13" s="150"/>
-      <c r="AC13" s="150"/>
-      <c r="AD13" s="150"/>
-      <c r="AE13" s="150"/>
-      <c r="AF13" s="150"/>
-      <c r="AG13" s="150"/>
-      <c r="AH13" s="150"/>
-      <c r="AI13" s="150"/>
-      <c r="AJ13" s="150"/>
-      <c r="AK13" s="150"/>
-      <c r="AL13" s="150"/>
-      <c r="AM13" s="151"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="151"/>
+      <c r="S13" s="151"/>
+      <c r="T13" s="151"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="151"/>
+      <c r="W13" s="151"/>
+      <c r="X13" s="151"/>
+      <c r="Y13" s="151"/>
+      <c r="Z13" s="151"/>
+      <c r="AA13" s="151"/>
+      <c r="AB13" s="151"/>
+      <c r="AC13" s="151"/>
+      <c r="AD13" s="151"/>
+      <c r="AE13" s="151"/>
+      <c r="AF13" s="151"/>
+      <c r="AG13" s="151"/>
+      <c r="AH13" s="151"/>
+      <c r="AI13" s="151"/>
+      <c r="AJ13" s="151"/>
+      <c r="AK13" s="151"/>
+      <c r="AL13" s="151"/>
+      <c r="AM13" s="152"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="152"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="153"/>
-      <c r="R14" s="153"/>
-      <c r="S14" s="153"/>
-      <c r="T14" s="153"/>
-      <c r="U14" s="153"/>
-      <c r="V14" s="153"/>
-      <c r="W14" s="153"/>
-      <c r="X14" s="153"/>
-      <c r="Y14" s="153"/>
-      <c r="Z14" s="153"/>
-      <c r="AA14" s="153"/>
-      <c r="AB14" s="153"/>
-      <c r="AC14" s="153"/>
-      <c r="AD14" s="153"/>
-      <c r="AE14" s="153"/>
-      <c r="AF14" s="153"/>
-      <c r="AG14" s="153"/>
-      <c r="AH14" s="153"/>
-      <c r="AI14" s="153"/>
-      <c r="AJ14" s="153"/>
-      <c r="AK14" s="153"/>
-      <c r="AL14" s="153"/>
-      <c r="AM14" s="154"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="154"/>
+      <c r="N14" s="154"/>
+      <c r="O14" s="154"/>
+      <c r="P14" s="154"/>
+      <c r="Q14" s="154"/>
+      <c r="R14" s="154"/>
+      <c r="S14" s="154"/>
+      <c r="T14" s="154"/>
+      <c r="U14" s="154"/>
+      <c r="V14" s="154"/>
+      <c r="W14" s="154"/>
+      <c r="X14" s="154"/>
+      <c r="Y14" s="154"/>
+      <c r="Z14" s="154"/>
+      <c r="AA14" s="154"/>
+      <c r="AB14" s="154"/>
+      <c r="AC14" s="154"/>
+      <c r="AD14" s="154"/>
+      <c r="AE14" s="154"/>
+      <c r="AF14" s="154"/>
+      <c r="AG14" s="154"/>
+      <c r="AH14" s="154"/>
+      <c r="AI14" s="154"/>
+      <c r="AJ14" s="154"/>
+      <c r="AK14" s="154"/>
+      <c r="AL14" s="154"/>
+      <c r="AM14" s="155"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="152"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
-      <c r="N15" s="153"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="153"/>
-      <c r="R15" s="153"/>
-      <c r="S15" s="153"/>
-      <c r="T15" s="153"/>
-      <c r="U15" s="153"/>
-      <c r="V15" s="153"/>
-      <c r="W15" s="153"/>
-      <c r="X15" s="153"/>
-      <c r="Y15" s="153"/>
-      <c r="Z15" s="153"/>
-      <c r="AA15" s="153"/>
-      <c r="AB15" s="153"/>
-      <c r="AC15" s="153"/>
-      <c r="AD15" s="153"/>
-      <c r="AE15" s="153"/>
-      <c r="AF15" s="153"/>
-      <c r="AG15" s="153"/>
-      <c r="AH15" s="153"/>
-      <c r="AI15" s="153"/>
-      <c r="AJ15" s="153"/>
-      <c r="AK15" s="153"/>
-      <c r="AL15" s="153"/>
-      <c r="AM15" s="154"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="154"/>
+      <c r="P15" s="154"/>
+      <c r="Q15" s="154"/>
+      <c r="R15" s="154"/>
+      <c r="S15" s="154"/>
+      <c r="T15" s="154"/>
+      <c r="U15" s="154"/>
+      <c r="V15" s="154"/>
+      <c r="W15" s="154"/>
+      <c r="X15" s="154"/>
+      <c r="Y15" s="154"/>
+      <c r="Z15" s="154"/>
+      <c r="AA15" s="154"/>
+      <c r="AB15" s="154"/>
+      <c r="AC15" s="154"/>
+      <c r="AD15" s="154"/>
+      <c r="AE15" s="154"/>
+      <c r="AF15" s="154"/>
+      <c r="AG15" s="154"/>
+      <c r="AH15" s="154"/>
+      <c r="AI15" s="154"/>
+      <c r="AJ15" s="154"/>
+      <c r="AK15" s="154"/>
+      <c r="AL15" s="154"/>
+      <c r="AM15" s="155"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="152"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="153"/>
-      <c r="S16" s="153"/>
-      <c r="T16" s="153"/>
-      <c r="U16" s="153"/>
-      <c r="V16" s="153"/>
-      <c r="W16" s="153"/>
-      <c r="X16" s="153"/>
-      <c r="Y16" s="153"/>
-      <c r="Z16" s="153"/>
-      <c r="AA16" s="153"/>
-      <c r="AB16" s="153"/>
-      <c r="AC16" s="153"/>
-      <c r="AD16" s="153"/>
-      <c r="AE16" s="153"/>
-      <c r="AF16" s="153"/>
-      <c r="AG16" s="153"/>
-      <c r="AH16" s="153"/>
-      <c r="AI16" s="153"/>
-      <c r="AJ16" s="153"/>
-      <c r="AK16" s="153"/>
-      <c r="AL16" s="153"/>
-      <c r="AM16" s="154"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="154"/>
+      <c r="O16" s="154"/>
+      <c r="P16" s="154"/>
+      <c r="Q16" s="154"/>
+      <c r="R16" s="154"/>
+      <c r="S16" s="154"/>
+      <c r="T16" s="154"/>
+      <c r="U16" s="154"/>
+      <c r="V16" s="154"/>
+      <c r="W16" s="154"/>
+      <c r="X16" s="154"/>
+      <c r="Y16" s="154"/>
+      <c r="Z16" s="154"/>
+      <c r="AA16" s="154"/>
+      <c r="AB16" s="154"/>
+      <c r="AC16" s="154"/>
+      <c r="AD16" s="154"/>
+      <c r="AE16" s="154"/>
+      <c r="AF16" s="154"/>
+      <c r="AG16" s="154"/>
+      <c r="AH16" s="154"/>
+      <c r="AI16" s="154"/>
+      <c r="AJ16" s="154"/>
+      <c r="AK16" s="154"/>
+      <c r="AL16" s="154"/>
+      <c r="AM16" s="155"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C17" s="152"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="153"/>
-      <c r="Q17" s="153"/>
-      <c r="R17" s="153"/>
-      <c r="S17" s="153"/>
-      <c r="T17" s="153"/>
-      <c r="U17" s="153"/>
-      <c r="V17" s="153"/>
-      <c r="W17" s="153"/>
-      <c r="X17" s="153"/>
-      <c r="Y17" s="153"/>
-      <c r="Z17" s="153"/>
-      <c r="AA17" s="153"/>
-      <c r="AB17" s="153"/>
-      <c r="AC17" s="153"/>
-      <c r="AD17" s="153"/>
-      <c r="AE17" s="153"/>
-      <c r="AF17" s="153"/>
-      <c r="AG17" s="153"/>
-      <c r="AH17" s="153"/>
-      <c r="AI17" s="153"/>
-      <c r="AJ17" s="153"/>
-      <c r="AK17" s="153"/>
-      <c r="AL17" s="153"/>
-      <c r="AM17" s="154"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="154"/>
+      <c r="O17" s="154"/>
+      <c r="P17" s="154"/>
+      <c r="Q17" s="154"/>
+      <c r="R17" s="154"/>
+      <c r="S17" s="154"/>
+      <c r="T17" s="154"/>
+      <c r="U17" s="154"/>
+      <c r="V17" s="154"/>
+      <c r="W17" s="154"/>
+      <c r="X17" s="154"/>
+      <c r="Y17" s="154"/>
+      <c r="Z17" s="154"/>
+      <c r="AA17" s="154"/>
+      <c r="AB17" s="154"/>
+      <c r="AC17" s="154"/>
+      <c r="AD17" s="154"/>
+      <c r="AE17" s="154"/>
+      <c r="AF17" s="154"/>
+      <c r="AG17" s="154"/>
+      <c r="AH17" s="154"/>
+      <c r="AI17" s="154"/>
+      <c r="AJ17" s="154"/>
+      <c r="AK17" s="154"/>
+      <c r="AL17" s="154"/>
+      <c r="AM17" s="155"/>
     </row>
     <row r="18" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C18" s="152"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="153"/>
-      <c r="R18" s="153"/>
-      <c r="S18" s="153"/>
-      <c r="T18" s="153"/>
-      <c r="U18" s="153"/>
-      <c r="V18" s="153"/>
-      <c r="W18" s="153"/>
-      <c r="X18" s="153"/>
-      <c r="Y18" s="153"/>
-      <c r="Z18" s="153"/>
-      <c r="AA18" s="153"/>
-      <c r="AB18" s="153"/>
-      <c r="AC18" s="153"/>
-      <c r="AD18" s="153"/>
-      <c r="AE18" s="153"/>
-      <c r="AF18" s="153"/>
-      <c r="AG18" s="153"/>
-      <c r="AH18" s="153"/>
-      <c r="AI18" s="153"/>
-      <c r="AJ18" s="153"/>
-      <c r="AK18" s="153"/>
-      <c r="AL18" s="153"/>
-      <c r="AM18" s="154"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="154"/>
+      <c r="S18" s="154"/>
+      <c r="T18" s="154"/>
+      <c r="U18" s="154"/>
+      <c r="V18" s="154"/>
+      <c r="W18" s="154"/>
+      <c r="X18" s="154"/>
+      <c r="Y18" s="154"/>
+      <c r="Z18" s="154"/>
+      <c r="AA18" s="154"/>
+      <c r="AB18" s="154"/>
+      <c r="AC18" s="154"/>
+      <c r="AD18" s="154"/>
+      <c r="AE18" s="154"/>
+      <c r="AF18" s="154"/>
+      <c r="AG18" s="154"/>
+      <c r="AH18" s="154"/>
+      <c r="AI18" s="154"/>
+      <c r="AJ18" s="154"/>
+      <c r="AK18" s="154"/>
+      <c r="AL18" s="154"/>
+      <c r="AM18" s="155"/>
     </row>
     <row r="19" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C19" s="152"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="153"/>
-      <c r="S19" s="153"/>
-      <c r="T19" s="153"/>
-      <c r="U19" s="153"/>
-      <c r="V19" s="153"/>
-      <c r="W19" s="153"/>
-      <c r="X19" s="153"/>
-      <c r="Y19" s="153"/>
-      <c r="Z19" s="153"/>
-      <c r="AA19" s="153"/>
-      <c r="AB19" s="153"/>
-      <c r="AC19" s="153"/>
-      <c r="AD19" s="153"/>
-      <c r="AE19" s="153"/>
-      <c r="AF19" s="153"/>
-      <c r="AG19" s="153"/>
-      <c r="AH19" s="153"/>
-      <c r="AI19" s="153"/>
-      <c r="AJ19" s="153"/>
-      <c r="AK19" s="153"/>
-      <c r="AL19" s="153"/>
-      <c r="AM19" s="154"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="154"/>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="154"/>
+      <c r="S19" s="154"/>
+      <c r="T19" s="154"/>
+      <c r="U19" s="154"/>
+      <c r="V19" s="154"/>
+      <c r="W19" s="154"/>
+      <c r="X19" s="154"/>
+      <c r="Y19" s="154"/>
+      <c r="Z19" s="154"/>
+      <c r="AA19" s="154"/>
+      <c r="AB19" s="154"/>
+      <c r="AC19" s="154"/>
+      <c r="AD19" s="154"/>
+      <c r="AE19" s="154"/>
+      <c r="AF19" s="154"/>
+      <c r="AG19" s="154"/>
+      <c r="AH19" s="154"/>
+      <c r="AI19" s="154"/>
+      <c r="AJ19" s="154"/>
+      <c r="AK19" s="154"/>
+      <c r="AL19" s="154"/>
+      <c r="AM19" s="155"/>
     </row>
     <row r="20" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="152"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
-      <c r="N20" s="153"/>
-      <c r="O20" s="153"/>
-      <c r="P20" s="153"/>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="153"/>
-      <c r="S20" s="153"/>
-      <c r="T20" s="153"/>
-      <c r="U20" s="153"/>
-      <c r="V20" s="153"/>
-      <c r="W20" s="153"/>
-      <c r="X20" s="153"/>
-      <c r="Y20" s="153"/>
-      <c r="Z20" s="153"/>
-      <c r="AA20" s="153"/>
-      <c r="AB20" s="153"/>
-      <c r="AC20" s="153"/>
-      <c r="AD20" s="153"/>
-      <c r="AE20" s="153"/>
-      <c r="AF20" s="153"/>
-      <c r="AG20" s="153"/>
-      <c r="AH20" s="153"/>
-      <c r="AI20" s="153"/>
-      <c r="AJ20" s="153"/>
-      <c r="AK20" s="153"/>
-      <c r="AL20" s="153"/>
-      <c r="AM20" s="154"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="154"/>
+      <c r="O20" s="154"/>
+      <c r="P20" s="154"/>
+      <c r="Q20" s="154"/>
+      <c r="R20" s="154"/>
+      <c r="S20" s="154"/>
+      <c r="T20" s="154"/>
+      <c r="U20" s="154"/>
+      <c r="V20" s="154"/>
+      <c r="W20" s="154"/>
+      <c r="X20" s="154"/>
+      <c r="Y20" s="154"/>
+      <c r="Z20" s="154"/>
+      <c r="AA20" s="154"/>
+      <c r="AB20" s="154"/>
+      <c r="AC20" s="154"/>
+      <c r="AD20" s="154"/>
+      <c r="AE20" s="154"/>
+      <c r="AF20" s="154"/>
+      <c r="AG20" s="154"/>
+      <c r="AH20" s="154"/>
+      <c r="AI20" s="154"/>
+      <c r="AJ20" s="154"/>
+      <c r="AK20" s="154"/>
+      <c r="AL20" s="154"/>
+      <c r="AM20" s="155"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="152"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="153"/>
-      <c r="K21" s="153"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="153"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="153"/>
-      <c r="S21" s="153"/>
-      <c r="T21" s="153"/>
-      <c r="U21" s="153"/>
-      <c r="V21" s="153"/>
-      <c r="W21" s="153"/>
-      <c r="X21" s="153"/>
-      <c r="Y21" s="153"/>
-      <c r="Z21" s="153"/>
-      <c r="AA21" s="153"/>
-      <c r="AB21" s="153"/>
-      <c r="AC21" s="153"/>
-      <c r="AD21" s="153"/>
-      <c r="AE21" s="153"/>
-      <c r="AF21" s="153"/>
-      <c r="AG21" s="153"/>
-      <c r="AH21" s="153"/>
-      <c r="AI21" s="153"/>
-      <c r="AJ21" s="153"/>
-      <c r="AK21" s="153"/>
-      <c r="AL21" s="153"/>
-      <c r="AM21" s="154"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="154"/>
+      <c r="R21" s="154"/>
+      <c r="S21" s="154"/>
+      <c r="T21" s="154"/>
+      <c r="U21" s="154"/>
+      <c r="V21" s="154"/>
+      <c r="W21" s="154"/>
+      <c r="X21" s="154"/>
+      <c r="Y21" s="154"/>
+      <c r="Z21" s="154"/>
+      <c r="AA21" s="154"/>
+      <c r="AB21" s="154"/>
+      <c r="AC21" s="154"/>
+      <c r="AD21" s="154"/>
+      <c r="AE21" s="154"/>
+      <c r="AF21" s="154"/>
+      <c r="AG21" s="154"/>
+      <c r="AH21" s="154"/>
+      <c r="AI21" s="154"/>
+      <c r="AJ21" s="154"/>
+      <c r="AK21" s="154"/>
+      <c r="AL21" s="154"/>
+      <c r="AM21" s="155"/>
     </row>
     <row r="22" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="152"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="153"/>
-      <c r="S22" s="153"/>
-      <c r="T22" s="153"/>
-      <c r="U22" s="153"/>
-      <c r="V22" s="153"/>
-      <c r="W22" s="153"/>
-      <c r="X22" s="153"/>
-      <c r="Y22" s="153"/>
-      <c r="Z22" s="153"/>
-      <c r="AA22" s="153"/>
-      <c r="AB22" s="153"/>
-      <c r="AC22" s="153"/>
-      <c r="AD22" s="153"/>
-      <c r="AE22" s="153"/>
-      <c r="AF22" s="153"/>
-      <c r="AG22" s="153"/>
-      <c r="AH22" s="153"/>
-      <c r="AI22" s="153"/>
-      <c r="AJ22" s="153"/>
-      <c r="AK22" s="153"/>
-      <c r="AL22" s="153"/>
-      <c r="AM22" s="154"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="154"/>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="154"/>
+      <c r="S22" s="154"/>
+      <c r="T22" s="154"/>
+      <c r="U22" s="154"/>
+      <c r="V22" s="154"/>
+      <c r="W22" s="154"/>
+      <c r="X22" s="154"/>
+      <c r="Y22" s="154"/>
+      <c r="Z22" s="154"/>
+      <c r="AA22" s="154"/>
+      <c r="AB22" s="154"/>
+      <c r="AC22" s="154"/>
+      <c r="AD22" s="154"/>
+      <c r="AE22" s="154"/>
+      <c r="AF22" s="154"/>
+      <c r="AG22" s="154"/>
+      <c r="AH22" s="154"/>
+      <c r="AI22" s="154"/>
+      <c r="AJ22" s="154"/>
+      <c r="AK22" s="154"/>
+      <c r="AL22" s="154"/>
+      <c r="AM22" s="155"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="152"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="153"/>
-      <c r="S23" s="153"/>
-      <c r="T23" s="153"/>
-      <c r="U23" s="153"/>
-      <c r="V23" s="153"/>
-      <c r="W23" s="153"/>
-      <c r="X23" s="153"/>
-      <c r="Y23" s="153"/>
-      <c r="Z23" s="153"/>
-      <c r="AA23" s="153"/>
-      <c r="AB23" s="153"/>
-      <c r="AC23" s="153"/>
-      <c r="AD23" s="153"/>
-      <c r="AE23" s="153"/>
-      <c r="AF23" s="153"/>
-      <c r="AG23" s="153"/>
-      <c r="AH23" s="153"/>
-      <c r="AI23" s="153"/>
-      <c r="AJ23" s="153"/>
-      <c r="AK23" s="153"/>
-      <c r="AL23" s="153"/>
-      <c r="AM23" s="154"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="154"/>
+      <c r="O23" s="154"/>
+      <c r="P23" s="154"/>
+      <c r="Q23" s="154"/>
+      <c r="R23" s="154"/>
+      <c r="S23" s="154"/>
+      <c r="T23" s="154"/>
+      <c r="U23" s="154"/>
+      <c r="V23" s="154"/>
+      <c r="W23" s="154"/>
+      <c r="X23" s="154"/>
+      <c r="Y23" s="154"/>
+      <c r="Z23" s="154"/>
+      <c r="AA23" s="154"/>
+      <c r="AB23" s="154"/>
+      <c r="AC23" s="154"/>
+      <c r="AD23" s="154"/>
+      <c r="AE23" s="154"/>
+      <c r="AF23" s="154"/>
+      <c r="AG23" s="154"/>
+      <c r="AH23" s="154"/>
+      <c r="AI23" s="154"/>
+      <c r="AJ23" s="154"/>
+      <c r="AK23" s="154"/>
+      <c r="AL23" s="154"/>
+      <c r="AM23" s="155"/>
     </row>
     <row r="24" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="152"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
-      <c r="N24" s="153"/>
-      <c r="O24" s="153"/>
-      <c r="P24" s="153"/>
-      <c r="Q24" s="153"/>
-      <c r="R24" s="153"/>
-      <c r="S24" s="153"/>
-      <c r="T24" s="153"/>
-      <c r="U24" s="153"/>
-      <c r="V24" s="153"/>
-      <c r="W24" s="153"/>
-      <c r="X24" s="153"/>
-      <c r="Y24" s="153"/>
-      <c r="Z24" s="153"/>
-      <c r="AA24" s="153"/>
-      <c r="AB24" s="153"/>
-      <c r="AC24" s="153"/>
-      <c r="AD24" s="153"/>
-      <c r="AE24" s="153"/>
-      <c r="AF24" s="153"/>
-      <c r="AG24" s="153"/>
-      <c r="AH24" s="153"/>
-      <c r="AI24" s="153"/>
-      <c r="AJ24" s="153"/>
-      <c r="AK24" s="153"/>
-      <c r="AL24" s="153"/>
-      <c r="AM24" s="154"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="154"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="154"/>
+      <c r="K24" s="154"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="154"/>
+      <c r="O24" s="154"/>
+      <c r="P24" s="154"/>
+      <c r="Q24" s="154"/>
+      <c r="R24" s="154"/>
+      <c r="S24" s="154"/>
+      <c r="T24" s="154"/>
+      <c r="U24" s="154"/>
+      <c r="V24" s="154"/>
+      <c r="W24" s="154"/>
+      <c r="X24" s="154"/>
+      <c r="Y24" s="154"/>
+      <c r="Z24" s="154"/>
+      <c r="AA24" s="154"/>
+      <c r="AB24" s="154"/>
+      <c r="AC24" s="154"/>
+      <c r="AD24" s="154"/>
+      <c r="AE24" s="154"/>
+      <c r="AF24" s="154"/>
+      <c r="AG24" s="154"/>
+      <c r="AH24" s="154"/>
+      <c r="AI24" s="154"/>
+      <c r="AJ24" s="154"/>
+      <c r="AK24" s="154"/>
+      <c r="AL24" s="154"/>
+      <c r="AM24" s="155"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="152"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
-      <c r="N25" s="153"/>
-      <c r="O25" s="153"/>
-      <c r="P25" s="153"/>
-      <c r="Q25" s="153"/>
-      <c r="R25" s="153"/>
-      <c r="S25" s="153"/>
-      <c r="T25" s="153"/>
-      <c r="U25" s="153"/>
-      <c r="V25" s="153"/>
-      <c r="W25" s="153"/>
-      <c r="X25" s="153"/>
-      <c r="Y25" s="153"/>
-      <c r="Z25" s="153"/>
-      <c r="AA25" s="153"/>
-      <c r="AB25" s="153"/>
-      <c r="AC25" s="153"/>
-      <c r="AD25" s="153"/>
-      <c r="AE25" s="153"/>
-      <c r="AF25" s="153"/>
-      <c r="AG25" s="153"/>
-      <c r="AH25" s="153"/>
-      <c r="AI25" s="153"/>
-      <c r="AJ25" s="153"/>
-      <c r="AK25" s="153"/>
-      <c r="AL25" s="153"/>
-      <c r="AM25" s="154"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="154"/>
+      <c r="K25" s="154"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="154"/>
+      <c r="N25" s="154"/>
+      <c r="O25" s="154"/>
+      <c r="P25" s="154"/>
+      <c r="Q25" s="154"/>
+      <c r="R25" s="154"/>
+      <c r="S25" s="154"/>
+      <c r="T25" s="154"/>
+      <c r="U25" s="154"/>
+      <c r="V25" s="154"/>
+      <c r="W25" s="154"/>
+      <c r="X25" s="154"/>
+      <c r="Y25" s="154"/>
+      <c r="Z25" s="154"/>
+      <c r="AA25" s="154"/>
+      <c r="AB25" s="154"/>
+      <c r="AC25" s="154"/>
+      <c r="AD25" s="154"/>
+      <c r="AE25" s="154"/>
+      <c r="AF25" s="154"/>
+      <c r="AG25" s="154"/>
+      <c r="AH25" s="154"/>
+      <c r="AI25" s="154"/>
+      <c r="AJ25" s="154"/>
+      <c r="AK25" s="154"/>
+      <c r="AL25" s="154"/>
+      <c r="AM25" s="155"/>
     </row>
     <row r="26" s="1" customFormat="true" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="152"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
-      <c r="N26" s="153"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="153"/>
-      <c r="R26" s="153"/>
-      <c r="S26" s="153"/>
-      <c r="T26" s="153"/>
-      <c r="U26" s="153"/>
-      <c r="V26" s="153"/>
-      <c r="W26" s="153"/>
-      <c r="X26" s="153"/>
-      <c r="Y26" s="153"/>
-      <c r="Z26" s="153"/>
-      <c r="AA26" s="153"/>
-      <c r="AB26" s="153"/>
-      <c r="AC26" s="153"/>
-      <c r="AD26" s="153"/>
-      <c r="AE26" s="153"/>
-      <c r="AF26" s="153"/>
-      <c r="AG26" s="153"/>
-      <c r="AH26" s="153"/>
-      <c r="AI26" s="153"/>
-      <c r="AJ26" s="153"/>
-      <c r="AK26" s="153"/>
-      <c r="AL26" s="153"/>
-      <c r="AM26" s="154"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="154"/>
+      <c r="P26" s="154"/>
+      <c r="Q26" s="154"/>
+      <c r="R26" s="154"/>
+      <c r="S26" s="154"/>
+      <c r="T26" s="154"/>
+      <c r="U26" s="154"/>
+      <c r="V26" s="154"/>
+      <c r="W26" s="154"/>
+      <c r="X26" s="154"/>
+      <c r="Y26" s="154"/>
+      <c r="Z26" s="154"/>
+      <c r="AA26" s="154"/>
+      <c r="AB26" s="154"/>
+      <c r="AC26" s="154"/>
+      <c r="AD26" s="154"/>
+      <c r="AE26" s="154"/>
+      <c r="AF26" s="154"/>
+      <c r="AG26" s="154"/>
+      <c r="AH26" s="154"/>
+      <c r="AI26" s="154"/>
+      <c r="AJ26" s="154"/>
+      <c r="AK26" s="154"/>
+      <c r="AL26" s="154"/>
+      <c r="AM26" s="155"/>
     </row>
     <row r="27" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C27" s="152"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="153"/>
-      <c r="K27" s="153"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="153"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="153"/>
-      <c r="R27" s="153"/>
-      <c r="S27" s="153"/>
-      <c r="T27" s="153"/>
-      <c r="U27" s="153"/>
-      <c r="V27" s="153"/>
-      <c r="W27" s="153"/>
-      <c r="X27" s="153"/>
-      <c r="Y27" s="153"/>
-      <c r="Z27" s="153"/>
-      <c r="AA27" s="153"/>
-      <c r="AB27" s="153"/>
-      <c r="AC27" s="153"/>
-      <c r="AD27" s="153"/>
-      <c r="AE27" s="153"/>
-      <c r="AF27" s="153"/>
-      <c r="AG27" s="153"/>
-      <c r="AH27" s="153"/>
-      <c r="AI27" s="153"/>
-      <c r="AJ27" s="153"/>
-      <c r="AK27" s="153"/>
-      <c r="AL27" s="153"/>
-      <c r="AM27" s="154"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="154"/>
+      <c r="O27" s="154"/>
+      <c r="P27" s="154"/>
+      <c r="Q27" s="154"/>
+      <c r="R27" s="154"/>
+      <c r="S27" s="154"/>
+      <c r="T27" s="154"/>
+      <c r="U27" s="154"/>
+      <c r="V27" s="154"/>
+      <c r="W27" s="154"/>
+      <c r="X27" s="154"/>
+      <c r="Y27" s="154"/>
+      <c r="Z27" s="154"/>
+      <c r="AA27" s="154"/>
+      <c r="AB27" s="154"/>
+      <c r="AC27" s="154"/>
+      <c r="AD27" s="154"/>
+      <c r="AE27" s="154"/>
+      <c r="AF27" s="154"/>
+      <c r="AG27" s="154"/>
+      <c r="AH27" s="154"/>
+      <c r="AI27" s="154"/>
+      <c r="AJ27" s="154"/>
+      <c r="AK27" s="154"/>
+      <c r="AL27" s="154"/>
+      <c r="AM27" s="155"/>
     </row>
     <row r="28" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C28" s="152"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="153"/>
-      <c r="N28" s="153"/>
-      <c r="O28" s="153"/>
-      <c r="P28" s="153"/>
-      <c r="Q28" s="153"/>
-      <c r="R28" s="153"/>
-      <c r="S28" s="153"/>
-      <c r="T28" s="153"/>
-      <c r="U28" s="153"/>
-      <c r="V28" s="153"/>
-      <c r="W28" s="153"/>
-      <c r="X28" s="153"/>
-      <c r="Y28" s="153"/>
-      <c r="Z28" s="153"/>
-      <c r="AA28" s="153"/>
-      <c r="AB28" s="153"/>
-      <c r="AC28" s="153"/>
-      <c r="AD28" s="153"/>
-      <c r="AE28" s="153"/>
-      <c r="AF28" s="153"/>
-      <c r="AG28" s="153"/>
-      <c r="AH28" s="153"/>
-      <c r="AI28" s="153"/>
-      <c r="AJ28" s="153"/>
-      <c r="AK28" s="153"/>
-      <c r="AL28" s="153"/>
-      <c r="AM28" s="154"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="154"/>
+      <c r="N28" s="154"/>
+      <c r="O28" s="154"/>
+      <c r="P28" s="154"/>
+      <c r="Q28" s="154"/>
+      <c r="R28" s="154"/>
+      <c r="S28" s="154"/>
+      <c r="T28" s="154"/>
+      <c r="U28" s="154"/>
+      <c r="V28" s="154"/>
+      <c r="W28" s="154"/>
+      <c r="X28" s="154"/>
+      <c r="Y28" s="154"/>
+      <c r="Z28" s="154"/>
+      <c r="AA28" s="154"/>
+      <c r="AB28" s="154"/>
+      <c r="AC28" s="154"/>
+      <c r="AD28" s="154"/>
+      <c r="AE28" s="154"/>
+      <c r="AF28" s="154"/>
+      <c r="AG28" s="154"/>
+      <c r="AH28" s="154"/>
+      <c r="AI28" s="154"/>
+      <c r="AJ28" s="154"/>
+      <c r="AK28" s="154"/>
+      <c r="AL28" s="154"/>
+      <c r="AM28" s="155"/>
     </row>
     <row r="29" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="50"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
-      <c r="N29" s="153"/>
-      <c r="O29" s="153"/>
-      <c r="P29" s="153"/>
-      <c r="Q29" s="153"/>
-      <c r="R29" s="153"/>
-      <c r="S29" s="153"/>
-      <c r="T29" s="153"/>
-      <c r="U29" s="153"/>
-      <c r="V29" s="153"/>
-      <c r="W29" s="153"/>
-      <c r="X29" s="153"/>
-      <c r="Y29" s="153"/>
-      <c r="Z29" s="153"/>
-      <c r="AA29" s="153"/>
-      <c r="AB29" s="153"/>
-      <c r="AC29" s="153"/>
-      <c r="AD29" s="153"/>
-      <c r="AE29" s="153"/>
-      <c r="AF29" s="153"/>
-      <c r="AG29" s="153"/>
-      <c r="AH29" s="153"/>
-      <c r="AI29" s="153"/>
-      <c r="AJ29" s="153"/>
-      <c r="AK29" s="153"/>
-      <c r="AL29" s="153"/>
-      <c r="AM29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="154"/>
+      <c r="P29" s="154"/>
+      <c r="Q29" s="154"/>
+      <c r="R29" s="154"/>
+      <c r="S29" s="154"/>
+      <c r="T29" s="154"/>
+      <c r="U29" s="154"/>
+      <c r="V29" s="154"/>
+      <c r="W29" s="154"/>
+      <c r="X29" s="154"/>
+      <c r="Y29" s="154"/>
+      <c r="Z29" s="154"/>
+      <c r="AA29" s="154"/>
+      <c r="AB29" s="154"/>
+      <c r="AC29" s="154"/>
+      <c r="AD29" s="154"/>
+      <c r="AE29" s="154"/>
+      <c r="AF29" s="154"/>
+      <c r="AG29" s="154"/>
+      <c r="AH29" s="154"/>
+      <c r="AI29" s="154"/>
+      <c r="AJ29" s="154"/>
+      <c r="AK29" s="154"/>
+      <c r="AL29" s="154"/>
+      <c r="AM29" s="155"/>
     </row>
     <row r="30" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="153"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="153"/>
-      <c r="K30" s="153"/>
-      <c r="L30" s="153"/>
-      <c r="M30" s="153"/>
-      <c r="N30" s="153"/>
-      <c r="O30" s="153"/>
-      <c r="P30" s="153"/>
-      <c r="Q30" s="153"/>
-      <c r="R30" s="153"/>
-      <c r="S30" s="153"/>
-      <c r="T30" s="153"/>
-      <c r="U30" s="153"/>
-      <c r="V30" s="153"/>
-      <c r="W30" s="153"/>
-      <c r="X30" s="153"/>
-      <c r="Y30" s="153"/>
-      <c r="Z30" s="153"/>
-      <c r="AA30" s="153"/>
-      <c r="AB30" s="153"/>
-      <c r="AC30" s="153"/>
-      <c r="AD30" s="153"/>
-      <c r="AE30" s="153"/>
-      <c r="AF30" s="153"/>
-      <c r="AG30" s="153"/>
-      <c r="AH30" s="153"/>
-      <c r="AI30" s="153"/>
-      <c r="AJ30" s="153"/>
-      <c r="AK30" s="153"/>
-      <c r="AL30" s="153"/>
-      <c r="AM30" s="154"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="154"/>
+      <c r="N30" s="154"/>
+      <c r="O30" s="154"/>
+      <c r="P30" s="154"/>
+      <c r="Q30" s="154"/>
+      <c r="R30" s="154"/>
+      <c r="S30" s="154"/>
+      <c r="T30" s="154"/>
+      <c r="U30" s="154"/>
+      <c r="V30" s="154"/>
+      <c r="W30" s="154"/>
+      <c r="X30" s="154"/>
+      <c r="Y30" s="154"/>
+      <c r="Z30" s="154"/>
+      <c r="AA30" s="154"/>
+      <c r="AB30" s="154"/>
+      <c r="AC30" s="154"/>
+      <c r="AD30" s="154"/>
+      <c r="AE30" s="154"/>
+      <c r="AF30" s="154"/>
+      <c r="AG30" s="154"/>
+      <c r="AH30" s="154"/>
+      <c r="AI30" s="154"/>
+      <c r="AJ30" s="154"/>
+      <c r="AK30" s="154"/>
+      <c r="AL30" s="154"/>
+      <c r="AM30" s="155"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="153"/>
-      <c r="K31" s="153"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="153"/>
-      <c r="N31" s="153"/>
-      <c r="O31" s="153"/>
-      <c r="P31" s="153"/>
-      <c r="Q31" s="153"/>
-      <c r="R31" s="153"/>
-      <c r="S31" s="153"/>
-      <c r="T31" s="153"/>
-      <c r="U31" s="153"/>
-      <c r="V31" s="153"/>
-      <c r="W31" s="153"/>
-      <c r="X31" s="153"/>
-      <c r="Y31" s="153"/>
-      <c r="Z31" s="153"/>
-      <c r="AA31" s="153"/>
-      <c r="AB31" s="153"/>
-      <c r="AC31" s="153"/>
-      <c r="AD31" s="153"/>
-      <c r="AE31" s="153"/>
-      <c r="AF31" s="153"/>
-      <c r="AG31" s="153"/>
-      <c r="AH31" s="153"/>
-      <c r="AI31" s="153"/>
-      <c r="AJ31" s="153"/>
-      <c r="AK31" s="153"/>
-      <c r="AL31" s="153"/>
-      <c r="AM31" s="154"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="154"/>
+      <c r="K31" s="154"/>
+      <c r="L31" s="154"/>
+      <c r="M31" s="154"/>
+      <c r="N31" s="154"/>
+      <c r="O31" s="154"/>
+      <c r="P31" s="154"/>
+      <c r="Q31" s="154"/>
+      <c r="R31" s="154"/>
+      <c r="S31" s="154"/>
+      <c r="T31" s="154"/>
+      <c r="U31" s="154"/>
+      <c r="V31" s="154"/>
+      <c r="W31" s="154"/>
+      <c r="X31" s="154"/>
+      <c r="Y31" s="154"/>
+      <c r="Z31" s="154"/>
+      <c r="AA31" s="154"/>
+      <c r="AB31" s="154"/>
+      <c r="AC31" s="154"/>
+      <c r="AD31" s="154"/>
+      <c r="AE31" s="154"/>
+      <c r="AF31" s="154"/>
+      <c r="AG31" s="154"/>
+      <c r="AH31" s="154"/>
+      <c r="AI31" s="154"/>
+      <c r="AJ31" s="154"/>
+      <c r="AK31" s="154"/>
+      <c r="AL31" s="154"/>
+      <c r="AM31" s="155"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="153"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
-      <c r="N32" s="153"/>
-      <c r="O32" s="153"/>
-      <c r="P32" s="153"/>
-      <c r="Q32" s="153"/>
-      <c r="R32" s="153"/>
-      <c r="S32" s="153"/>
-      <c r="T32" s="153"/>
-      <c r="U32" s="153"/>
-      <c r="V32" s="153"/>
-      <c r="W32" s="153"/>
-      <c r="X32" s="153"/>
-      <c r="Y32" s="153"/>
-      <c r="Z32" s="153"/>
-      <c r="AA32" s="153"/>
-      <c r="AB32" s="153"/>
-      <c r="AC32" s="153"/>
-      <c r="AD32" s="153"/>
-      <c r="AE32" s="153"/>
-      <c r="AF32" s="153"/>
-      <c r="AG32" s="153"/>
-      <c r="AH32" s="153"/>
-      <c r="AI32" s="153"/>
-      <c r="AJ32" s="153"/>
-      <c r="AK32" s="153"/>
-      <c r="AL32" s="153"/>
-      <c r="AM32" s="154"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="154"/>
+      <c r="K32" s="154"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="154"/>
+      <c r="N32" s="154"/>
+      <c r="O32" s="154"/>
+      <c r="P32" s="154"/>
+      <c r="Q32" s="154"/>
+      <c r="R32" s="154"/>
+      <c r="S32" s="154"/>
+      <c r="T32" s="154"/>
+      <c r="U32" s="154"/>
+      <c r="V32" s="154"/>
+      <c r="W32" s="154"/>
+      <c r="X32" s="154"/>
+      <c r="Y32" s="154"/>
+      <c r="Z32" s="154"/>
+      <c r="AA32" s="154"/>
+      <c r="AB32" s="154"/>
+      <c r="AC32" s="154"/>
+      <c r="AD32" s="154"/>
+      <c r="AE32" s="154"/>
+      <c r="AF32" s="154"/>
+      <c r="AG32" s="154"/>
+      <c r="AH32" s="154"/>
+      <c r="AI32" s="154"/>
+      <c r="AJ32" s="154"/>
+      <c r="AK32" s="154"/>
+      <c r="AL32" s="154"/>
+      <c r="AM32" s="155"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="153"/>
-      <c r="K33" s="153"/>
-      <c r="L33" s="153"/>
-      <c r="M33" s="153"/>
-      <c r="N33" s="153"/>
-      <c r="O33" s="153"/>
-      <c r="P33" s="153"/>
-      <c r="Q33" s="153"/>
-      <c r="R33" s="153"/>
-      <c r="S33" s="153"/>
-      <c r="T33" s="153"/>
-      <c r="U33" s="153"/>
-      <c r="V33" s="153"/>
-      <c r="W33" s="153"/>
-      <c r="X33" s="153"/>
-      <c r="Y33" s="153"/>
-      <c r="Z33" s="153"/>
-      <c r="AA33" s="153"/>
-      <c r="AB33" s="153"/>
-      <c r="AC33" s="153"/>
-      <c r="AD33" s="153"/>
-      <c r="AE33" s="153"/>
-      <c r="AF33" s="153"/>
-      <c r="AG33" s="153"/>
-      <c r="AH33" s="153"/>
-      <c r="AI33" s="153"/>
-      <c r="AJ33" s="153"/>
-      <c r="AK33" s="153"/>
-      <c r="AL33" s="153"/>
-      <c r="AM33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="154"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="154"/>
+      <c r="N33" s="154"/>
+      <c r="O33" s="154"/>
+      <c r="P33" s="154"/>
+      <c r="Q33" s="154"/>
+      <c r="R33" s="154"/>
+      <c r="S33" s="154"/>
+      <c r="T33" s="154"/>
+      <c r="U33" s="154"/>
+      <c r="V33" s="154"/>
+      <c r="W33" s="154"/>
+      <c r="X33" s="154"/>
+      <c r="Y33" s="154"/>
+      <c r="Z33" s="154"/>
+      <c r="AA33" s="154"/>
+      <c r="AB33" s="154"/>
+      <c r="AC33" s="154"/>
+      <c r="AD33" s="154"/>
+      <c r="AE33" s="154"/>
+      <c r="AF33" s="154"/>
+      <c r="AG33" s="154"/>
+      <c r="AH33" s="154"/>
+      <c r="AI33" s="154"/>
+      <c r="AJ33" s="154"/>
+      <c r="AK33" s="154"/>
+      <c r="AL33" s="154"/>
+      <c r="AM33" s="155"/>
     </row>
     <row r="34" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="153"/>
-      <c r="K34" s="153"/>
-      <c r="L34" s="153"/>
-      <c r="M34" s="153"/>
-      <c r="N34" s="153"/>
-      <c r="O34" s="153"/>
-      <c r="P34" s="153"/>
-      <c r="Q34" s="153"/>
-      <c r="R34" s="153"/>
-      <c r="S34" s="153"/>
-      <c r="T34" s="153"/>
-      <c r="U34" s="153"/>
-      <c r="V34" s="153"/>
-      <c r="W34" s="153"/>
-      <c r="X34" s="153"/>
-      <c r="Y34" s="153"/>
-      <c r="Z34" s="153"/>
-      <c r="AA34" s="153"/>
-      <c r="AB34" s="153"/>
-      <c r="AC34" s="153"/>
-      <c r="AD34" s="153"/>
-      <c r="AE34" s="153"/>
-      <c r="AF34" s="153"/>
-      <c r="AG34" s="153"/>
-      <c r="AH34" s="153"/>
-      <c r="AI34" s="153"/>
-      <c r="AJ34" s="153"/>
-      <c r="AK34" s="153"/>
-      <c r="AL34" s="153"/>
-      <c r="AM34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="154"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="154"/>
+      <c r="N34" s="154"/>
+      <c r="O34" s="154"/>
+      <c r="P34" s="154"/>
+      <c r="Q34" s="154"/>
+      <c r="R34" s="154"/>
+      <c r="S34" s="154"/>
+      <c r="T34" s="154"/>
+      <c r="U34" s="154"/>
+      <c r="V34" s="154"/>
+      <c r="W34" s="154"/>
+      <c r="X34" s="154"/>
+      <c r="Y34" s="154"/>
+      <c r="Z34" s="154"/>
+      <c r="AA34" s="154"/>
+      <c r="AB34" s="154"/>
+      <c r="AC34" s="154"/>
+      <c r="AD34" s="154"/>
+      <c r="AE34" s="154"/>
+      <c r="AF34" s="154"/>
+      <c r="AG34" s="154"/>
+      <c r="AH34" s="154"/>
+      <c r="AI34" s="154"/>
+      <c r="AJ34" s="154"/>
+      <c r="AK34" s="154"/>
+      <c r="AL34" s="154"/>
+      <c r="AM34" s="155"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="153"/>
-      <c r="K35" s="153"/>
-      <c r="L35" s="153"/>
-      <c r="M35" s="153"/>
-      <c r="N35" s="153"/>
-      <c r="O35" s="153"/>
-      <c r="P35" s="153"/>
-      <c r="Q35" s="153"/>
-      <c r="R35" s="153"/>
-      <c r="S35" s="153"/>
-      <c r="T35" s="153"/>
-      <c r="U35" s="153"/>
-      <c r="V35" s="153"/>
-      <c r="W35" s="153"/>
-      <c r="X35" s="153"/>
-      <c r="Y35" s="153"/>
-      <c r="Z35" s="153"/>
-      <c r="AA35" s="153"/>
-      <c r="AB35" s="153"/>
-      <c r="AC35" s="153"/>
-      <c r="AD35" s="153"/>
-      <c r="AE35" s="153"/>
-      <c r="AF35" s="153"/>
-      <c r="AG35" s="153"/>
-      <c r="AH35" s="153"/>
-      <c r="AI35" s="153"/>
-      <c r="AJ35" s="153"/>
-      <c r="AK35" s="153"/>
-      <c r="AL35" s="153"/>
-      <c r="AM35" s="154"/>
+      <c r="C35" s="154"/>
+      <c r="D35" s="154"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="154"/>
+      <c r="K35" s="154"/>
+      <c r="L35" s="154"/>
+      <c r="M35" s="154"/>
+      <c r="N35" s="154"/>
+      <c r="O35" s="154"/>
+      <c r="P35" s="154"/>
+      <c r="Q35" s="154"/>
+      <c r="R35" s="154"/>
+      <c r="S35" s="154"/>
+      <c r="T35" s="154"/>
+      <c r="U35" s="154"/>
+      <c r="V35" s="154"/>
+      <c r="W35" s="154"/>
+      <c r="X35" s="154"/>
+      <c r="Y35" s="154"/>
+      <c r="Z35" s="154"/>
+      <c r="AA35" s="154"/>
+      <c r="AB35" s="154"/>
+      <c r="AC35" s="154"/>
+      <c r="AD35" s="154"/>
+      <c r="AE35" s="154"/>
+      <c r="AF35" s="154"/>
+      <c r="AG35" s="154"/>
+      <c r="AH35" s="154"/>
+      <c r="AI35" s="154"/>
+      <c r="AJ35" s="154"/>
+      <c r="AK35" s="154"/>
+      <c r="AL35" s="154"/>
+      <c r="AM35" s="155"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="50"/>
-      <c r="C36" s="153"/>
-      <c r="D36" s="153"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="153"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
-      <c r="N36" s="153"/>
-      <c r="O36" s="153"/>
-      <c r="P36" s="153"/>
-      <c r="Q36" s="153"/>
-      <c r="R36" s="153"/>
-      <c r="S36" s="153"/>
-      <c r="T36" s="153"/>
-      <c r="U36" s="153"/>
-      <c r="V36" s="153"/>
-      <c r="W36" s="153"/>
-      <c r="X36" s="153"/>
-      <c r="Y36" s="153"/>
-      <c r="Z36" s="153"/>
-      <c r="AA36" s="153"/>
-      <c r="AB36" s="153"/>
-      <c r="AC36" s="153"/>
-      <c r="AD36" s="153"/>
-      <c r="AE36" s="153"/>
-      <c r="AF36" s="153"/>
-      <c r="AG36" s="153"/>
-      <c r="AH36" s="153"/>
-      <c r="AI36" s="153"/>
-      <c r="AJ36" s="153"/>
-      <c r="AK36" s="153"/>
-      <c r="AL36" s="153"/>
-      <c r="AM36" s="154"/>
+      <c r="C36" s="154"/>
+      <c r="D36" s="154"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="154"/>
+      <c r="K36" s="154"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="154"/>
+      <c r="N36" s="154"/>
+      <c r="O36" s="154"/>
+      <c r="P36" s="154"/>
+      <c r="Q36" s="154"/>
+      <c r="R36" s="154"/>
+      <c r="S36" s="154"/>
+      <c r="T36" s="154"/>
+      <c r="U36" s="154"/>
+      <c r="V36" s="154"/>
+      <c r="W36" s="154"/>
+      <c r="X36" s="154"/>
+      <c r="Y36" s="154"/>
+      <c r="Z36" s="154"/>
+      <c r="AA36" s="154"/>
+      <c r="AB36" s="154"/>
+      <c r="AC36" s="154"/>
+      <c r="AD36" s="154"/>
+      <c r="AE36" s="154"/>
+      <c r="AF36" s="154"/>
+      <c r="AG36" s="154"/>
+      <c r="AH36" s="154"/>
+      <c r="AI36" s="154"/>
+      <c r="AJ36" s="154"/>
+      <c r="AK36" s="154"/>
+      <c r="AL36" s="154"/>
+      <c r="AM36" s="155"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
-      <c r="C37" s="153"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="153"/>
-      <c r="K37" s="153"/>
-      <c r="L37" s="153"/>
-      <c r="M37" s="153"/>
-      <c r="N37" s="153"/>
-      <c r="O37" s="153"/>
-      <c r="P37" s="153"/>
-      <c r="Q37" s="153"/>
-      <c r="R37" s="153"/>
-      <c r="S37" s="153"/>
-      <c r="T37" s="153"/>
-      <c r="U37" s="153"/>
-      <c r="V37" s="153"/>
-      <c r="W37" s="153"/>
-      <c r="X37" s="153"/>
-      <c r="Y37" s="153"/>
-      <c r="Z37" s="153"/>
-      <c r="AA37" s="153"/>
-      <c r="AB37" s="153"/>
-      <c r="AC37" s="153"/>
-      <c r="AD37" s="153"/>
-      <c r="AE37" s="153"/>
-      <c r="AF37" s="153"/>
-      <c r="AG37" s="153"/>
-      <c r="AH37" s="153"/>
-      <c r="AI37" s="153"/>
-      <c r="AJ37" s="153"/>
-      <c r="AK37" s="153"/>
-      <c r="AL37" s="153"/>
-      <c r="AM37" s="154"/>
+      <c r="C37" s="154"/>
+      <c r="D37" s="154"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="154"/>
+      <c r="K37" s="154"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="154"/>
+      <c r="N37" s="154"/>
+      <c r="O37" s="154"/>
+      <c r="P37" s="154"/>
+      <c r="Q37" s="154"/>
+      <c r="R37" s="154"/>
+      <c r="S37" s="154"/>
+      <c r="T37" s="154"/>
+      <c r="U37" s="154"/>
+      <c r="V37" s="154"/>
+      <c r="W37" s="154"/>
+      <c r="X37" s="154"/>
+      <c r="Y37" s="154"/>
+      <c r="Z37" s="154"/>
+      <c r="AA37" s="154"/>
+      <c r="AB37" s="154"/>
+      <c r="AC37" s="154"/>
+      <c r="AD37" s="154"/>
+      <c r="AE37" s="154"/>
+      <c r="AF37" s="154"/>
+      <c r="AG37" s="154"/>
+      <c r="AH37" s="154"/>
+      <c r="AI37" s="154"/>
+      <c r="AJ37" s="154"/>
+      <c r="AK37" s="154"/>
+      <c r="AL37" s="154"/>
+      <c r="AM37" s="155"/>
     </row>
     <row r="38" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
-      <c r="C38" s="153"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="153"/>
-      <c r="H38" s="153"/>
-      <c r="I38" s="153"/>
-      <c r="J38" s="153"/>
-      <c r="K38" s="153"/>
-      <c r="L38" s="153"/>
-      <c r="M38" s="153"/>
-      <c r="N38" s="153"/>
-      <c r="O38" s="153"/>
-      <c r="P38" s="153"/>
-      <c r="Q38" s="153"/>
-      <c r="R38" s="153"/>
-      <c r="S38" s="153"/>
-      <c r="T38" s="153"/>
-      <c r="U38" s="153"/>
-      <c r="V38" s="153"/>
-      <c r="W38" s="153"/>
-      <c r="X38" s="153"/>
-      <c r="Y38" s="153"/>
-      <c r="Z38" s="153"/>
-      <c r="AA38" s="153"/>
-      <c r="AB38" s="153"/>
-      <c r="AC38" s="153"/>
-      <c r="AD38" s="153"/>
-      <c r="AE38" s="153"/>
-      <c r="AF38" s="153"/>
-      <c r="AG38" s="153"/>
-      <c r="AH38" s="153"/>
-      <c r="AI38" s="153"/>
-      <c r="AJ38" s="153"/>
-      <c r="AK38" s="153"/>
-      <c r="AL38" s="153"/>
-      <c r="AM38" s="154"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="154"/>
+      <c r="H38" s="154"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="154"/>
+      <c r="K38" s="154"/>
+      <c r="L38" s="154"/>
+      <c r="M38" s="154"/>
+      <c r="N38" s="154"/>
+      <c r="O38" s="154"/>
+      <c r="P38" s="154"/>
+      <c r="Q38" s="154"/>
+      <c r="R38" s="154"/>
+      <c r="S38" s="154"/>
+      <c r="T38" s="154"/>
+      <c r="U38" s="154"/>
+      <c r="V38" s="154"/>
+      <c r="W38" s="154"/>
+      <c r="X38" s="154"/>
+      <c r="Y38" s="154"/>
+      <c r="Z38" s="154"/>
+      <c r="AA38" s="154"/>
+      <c r="AB38" s="154"/>
+      <c r="AC38" s="154"/>
+      <c r="AD38" s="154"/>
+      <c r="AE38" s="154"/>
+      <c r="AF38" s="154"/>
+      <c r="AG38" s="154"/>
+      <c r="AH38" s="154"/>
+      <c r="AI38" s="154"/>
+      <c r="AJ38" s="154"/>
+      <c r="AK38" s="154"/>
+      <c r="AL38" s="154"/>
+      <c r="AM38" s="155"/>
     </row>
     <row r="39" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
-      <c r="C39" s="153"/>
-      <c r="D39" s="153"/>
-      <c r="E39" s="153"/>
-      <c r="F39" s="153"/>
-      <c r="G39" s="153"/>
-      <c r="H39" s="153"/>
-      <c r="I39" s="153"/>
-      <c r="J39" s="153"/>
-      <c r="K39" s="153"/>
-      <c r="L39" s="153"/>
-      <c r="M39" s="153"/>
-      <c r="N39" s="153"/>
-      <c r="O39" s="153"/>
-      <c r="P39" s="153"/>
-      <c r="Q39" s="153"/>
-      <c r="R39" s="153"/>
-      <c r="S39" s="153"/>
-      <c r="T39" s="153"/>
-      <c r="U39" s="153"/>
-      <c r="V39" s="153"/>
-      <c r="W39" s="153"/>
-      <c r="X39" s="153"/>
-      <c r="Y39" s="153"/>
-      <c r="Z39" s="153"/>
-      <c r="AA39" s="153"/>
-      <c r="AB39" s="153"/>
-      <c r="AC39" s="153"/>
-      <c r="AD39" s="153"/>
-      <c r="AE39" s="153"/>
-      <c r="AF39" s="153"/>
-      <c r="AG39" s="153"/>
-      <c r="AH39" s="153"/>
-      <c r="AI39" s="153"/>
-      <c r="AJ39" s="153"/>
-      <c r="AK39" s="153"/>
-      <c r="AL39" s="153"/>
-      <c r="AM39" s="154"/>
+      <c r="C39" s="154"/>
+      <c r="D39" s="154"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="154"/>
+      <c r="K39" s="154"/>
+      <c r="L39" s="154"/>
+      <c r="M39" s="154"/>
+      <c r="N39" s="154"/>
+      <c r="O39" s="154"/>
+      <c r="P39" s="154"/>
+      <c r="Q39" s="154"/>
+      <c r="R39" s="154"/>
+      <c r="S39" s="154"/>
+      <c r="T39" s="154"/>
+      <c r="U39" s="154"/>
+      <c r="V39" s="154"/>
+      <c r="W39" s="154"/>
+      <c r="X39" s="154"/>
+      <c r="Y39" s="154"/>
+      <c r="Z39" s="154"/>
+      <c r="AA39" s="154"/>
+      <c r="AB39" s="154"/>
+      <c r="AC39" s="154"/>
+      <c r="AD39" s="154"/>
+      <c r="AE39" s="154"/>
+      <c r="AF39" s="154"/>
+      <c r="AG39" s="154"/>
+      <c r="AH39" s="154"/>
+      <c r="AI39" s="154"/>
+      <c r="AJ39" s="154"/>
+      <c r="AK39" s="154"/>
+      <c r="AL39" s="154"/>
+      <c r="AM39" s="155"/>
     </row>
     <row r="40" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
       <c r="B40" s="50"/>
-      <c r="C40" s="153"/>
-      <c r="D40" s="153"/>
-      <c r="E40" s="153"/>
-      <c r="F40" s="153"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="153"/>
-      <c r="I40" s="153"/>
-      <c r="J40" s="153"/>
-      <c r="K40" s="153"/>
-      <c r="L40" s="153"/>
-      <c r="M40" s="153"/>
-      <c r="N40" s="153"/>
-      <c r="O40" s="153"/>
-      <c r="P40" s="153"/>
-      <c r="Q40" s="153"/>
-      <c r="R40" s="153"/>
-      <c r="S40" s="153"/>
-      <c r="T40" s="153"/>
-      <c r="U40" s="153"/>
-      <c r="V40" s="153"/>
-      <c r="W40" s="153"/>
-      <c r="X40" s="153"/>
-      <c r="Y40" s="153"/>
-      <c r="Z40" s="153"/>
-      <c r="AA40" s="153"/>
-      <c r="AB40" s="153"/>
-      <c r="AC40" s="153"/>
-      <c r="AD40" s="153"/>
-      <c r="AE40" s="153"/>
-      <c r="AF40" s="153"/>
-      <c r="AG40" s="153"/>
-      <c r="AH40" s="153"/>
-      <c r="AI40" s="153"/>
-      <c r="AJ40" s="153"/>
-      <c r="AK40" s="153"/>
-      <c r="AL40" s="153"/>
-      <c r="AM40" s="154"/>
+      <c r="C40" s="154"/>
+      <c r="D40" s="154"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="154"/>
+      <c r="K40" s="154"/>
+      <c r="L40" s="154"/>
+      <c r="M40" s="154"/>
+      <c r="N40" s="154"/>
+      <c r="O40" s="154"/>
+      <c r="P40" s="154"/>
+      <c r="Q40" s="154"/>
+      <c r="R40" s="154"/>
+      <c r="S40" s="154"/>
+      <c r="T40" s="154"/>
+      <c r="U40" s="154"/>
+      <c r="V40" s="154"/>
+      <c r="W40" s="154"/>
+      <c r="X40" s="154"/>
+      <c r="Y40" s="154"/>
+      <c r="Z40" s="154"/>
+      <c r="AA40" s="154"/>
+      <c r="AB40" s="154"/>
+      <c r="AC40" s="154"/>
+      <c r="AD40" s="154"/>
+      <c r="AE40" s="154"/>
+      <c r="AF40" s="154"/>
+      <c r="AG40" s="154"/>
+      <c r="AH40" s="154"/>
+      <c r="AI40" s="154"/>
+      <c r="AJ40" s="154"/>
+      <c r="AK40" s="154"/>
+      <c r="AL40" s="154"/>
+      <c r="AM40" s="155"/>
     </row>
     <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="50"/>
-      <c r="C41" s="153"/>
-      <c r="D41" s="153"/>
-      <c r="E41" s="153"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="153"/>
-      <c r="H41" s="153"/>
-      <c r="I41" s="153"/>
-      <c r="J41" s="153"/>
-      <c r="K41" s="153"/>
-      <c r="L41" s="153"/>
-      <c r="M41" s="153"/>
-      <c r="N41" s="153"/>
-      <c r="O41" s="153"/>
-      <c r="P41" s="153"/>
-      <c r="Q41" s="153"/>
-      <c r="R41" s="153"/>
-      <c r="S41" s="153"/>
-      <c r="T41" s="153"/>
-      <c r="U41" s="153"/>
-      <c r="V41" s="153"/>
-      <c r="W41" s="153"/>
-      <c r="X41" s="153"/>
-      <c r="Y41" s="153"/>
-      <c r="Z41" s="153"/>
-      <c r="AA41" s="153"/>
-      <c r="AB41" s="153"/>
-      <c r="AC41" s="153"/>
-      <c r="AD41" s="153"/>
-      <c r="AE41" s="153"/>
-      <c r="AF41" s="153"/>
-      <c r="AG41" s="153"/>
-      <c r="AH41" s="153"/>
-      <c r="AI41" s="153"/>
-      <c r="AJ41" s="153"/>
-      <c r="AK41" s="153"/>
-      <c r="AL41" s="153"/>
-      <c r="AM41" s="154"/>
+      <c r="C41" s="154"/>
+      <c r="D41" s="154"/>
+      <c r="E41" s="154"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="154"/>
+      <c r="K41" s="154"/>
+      <c r="L41" s="154"/>
+      <c r="M41" s="154"/>
+      <c r="N41" s="154"/>
+      <c r="O41" s="154"/>
+      <c r="P41" s="154"/>
+      <c r="Q41" s="154"/>
+      <c r="R41" s="154"/>
+      <c r="S41" s="154"/>
+      <c r="T41" s="154"/>
+      <c r="U41" s="154"/>
+      <c r="V41" s="154"/>
+      <c r="W41" s="154"/>
+      <c r="X41" s="154"/>
+      <c r="Y41" s="154"/>
+      <c r="Z41" s="154"/>
+      <c r="AA41" s="154"/>
+      <c r="AB41" s="154"/>
+      <c r="AC41" s="154"/>
+      <c r="AD41" s="154"/>
+      <c r="AE41" s="154"/>
+      <c r="AF41" s="154"/>
+      <c r="AG41" s="154"/>
+      <c r="AH41" s="154"/>
+      <c r="AI41" s="154"/>
+      <c r="AJ41" s="154"/>
+      <c r="AK41" s="154"/>
+      <c r="AL41" s="154"/>
+      <c r="AM41" s="155"/>
     </row>
     <row r="42" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49"/>
       <c r="B42" s="50"/>
-      <c r="C42" s="153"/>
-      <c r="D42" s="153"/>
-      <c r="E42" s="153"/>
-      <c r="F42" s="153"/>
-      <c r="G42" s="153"/>
-      <c r="H42" s="153"/>
-      <c r="I42" s="153"/>
-      <c r="J42" s="153"/>
-      <c r="K42" s="153"/>
-      <c r="L42" s="153"/>
-      <c r="M42" s="153"/>
-      <c r="N42" s="153"/>
-      <c r="O42" s="153"/>
-      <c r="P42" s="153"/>
-      <c r="Q42" s="153"/>
-      <c r="R42" s="153"/>
-      <c r="S42" s="153"/>
-      <c r="T42" s="153"/>
-      <c r="U42" s="153"/>
-      <c r="V42" s="153"/>
-      <c r="W42" s="153"/>
-      <c r="X42" s="153"/>
-      <c r="Y42" s="153"/>
-      <c r="Z42" s="153"/>
-      <c r="AA42" s="153"/>
-      <c r="AB42" s="153"/>
-      <c r="AC42" s="153"/>
-      <c r="AD42" s="153"/>
-      <c r="AE42" s="153"/>
-      <c r="AF42" s="153"/>
-      <c r="AG42" s="153"/>
-      <c r="AH42" s="153"/>
-      <c r="AI42" s="153"/>
-      <c r="AJ42" s="153"/>
-      <c r="AK42" s="153"/>
-      <c r="AL42" s="153"/>
-      <c r="AM42" s="154"/>
+      <c r="C42" s="154"/>
+      <c r="D42" s="154"/>
+      <c r="E42" s="154"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="154"/>
+      <c r="H42" s="154"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="154"/>
+      <c r="K42" s="154"/>
+      <c r="L42" s="154"/>
+      <c r="M42" s="154"/>
+      <c r="N42" s="154"/>
+      <c r="O42" s="154"/>
+      <c r="P42" s="154"/>
+      <c r="Q42" s="154"/>
+      <c r="R42" s="154"/>
+      <c r="S42" s="154"/>
+      <c r="T42" s="154"/>
+      <c r="U42" s="154"/>
+      <c r="V42" s="154"/>
+      <c r="W42" s="154"/>
+      <c r="X42" s="154"/>
+      <c r="Y42" s="154"/>
+      <c r="Z42" s="154"/>
+      <c r="AA42" s="154"/>
+      <c r="AB42" s="154"/>
+      <c r="AC42" s="154"/>
+      <c r="AD42" s="154"/>
+      <c r="AE42" s="154"/>
+      <c r="AF42" s="154"/>
+      <c r="AG42" s="154"/>
+      <c r="AH42" s="154"/>
+      <c r="AI42" s="154"/>
+      <c r="AJ42" s="154"/>
+      <c r="AK42" s="154"/>
+      <c r="AL42" s="154"/>
+      <c r="AM42" s="155"/>
     </row>
     <row r="43" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="49"/>
       <c r="B43" s="50"/>
-      <c r="C43" s="153"/>
-      <c r="D43" s="153"/>
-      <c r="E43" s="153"/>
-      <c r="F43" s="153"/>
-      <c r="G43" s="153"/>
-      <c r="H43" s="153"/>
-      <c r="I43" s="153"/>
-      <c r="J43" s="153"/>
-      <c r="K43" s="153"/>
-      <c r="L43" s="153"/>
-      <c r="M43" s="153"/>
-      <c r="N43" s="153"/>
-      <c r="O43" s="153"/>
-      <c r="P43" s="153"/>
-      <c r="Q43" s="153"/>
-      <c r="R43" s="153"/>
-      <c r="S43" s="153"/>
-      <c r="T43" s="153"/>
-      <c r="U43" s="153"/>
-      <c r="V43" s="153"/>
-      <c r="W43" s="153"/>
-      <c r="X43" s="153"/>
-      <c r="Y43" s="153"/>
-      <c r="Z43" s="153"/>
-      <c r="AA43" s="153"/>
-      <c r="AB43" s="153"/>
-      <c r="AC43" s="153"/>
-      <c r="AD43" s="153"/>
-      <c r="AE43" s="153"/>
-      <c r="AF43" s="153"/>
-      <c r="AG43" s="153"/>
-      <c r="AH43" s="153"/>
-      <c r="AI43" s="153"/>
-      <c r="AJ43" s="153"/>
-      <c r="AK43" s="153"/>
-      <c r="AL43" s="153"/>
-      <c r="AM43" s="154"/>
+      <c r="C43" s="154"/>
+      <c r="D43" s="154"/>
+      <c r="E43" s="154"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="154"/>
+      <c r="J43" s="154"/>
+      <c r="K43" s="154"/>
+      <c r="L43" s="154"/>
+      <c r="M43" s="154"/>
+      <c r="N43" s="154"/>
+      <c r="O43" s="154"/>
+      <c r="P43" s="154"/>
+      <c r="Q43" s="154"/>
+      <c r="R43" s="154"/>
+      <c r="S43" s="154"/>
+      <c r="T43" s="154"/>
+      <c r="U43" s="154"/>
+      <c r="V43" s="154"/>
+      <c r="W43" s="154"/>
+      <c r="X43" s="154"/>
+      <c r="Y43" s="154"/>
+      <c r="Z43" s="154"/>
+      <c r="AA43" s="154"/>
+      <c r="AB43" s="154"/>
+      <c r="AC43" s="154"/>
+      <c r="AD43" s="154"/>
+      <c r="AE43" s="154"/>
+      <c r="AF43" s="154"/>
+      <c r="AG43" s="154"/>
+      <c r="AH43" s="154"/>
+      <c r="AI43" s="154"/>
+      <c r="AJ43" s="154"/>
+      <c r="AK43" s="154"/>
+      <c r="AL43" s="154"/>
+      <c r="AM43" s="155"/>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="49"/>
       <c r="B44" s="50"/>
-      <c r="C44" s="153"/>
-      <c r="D44" s="153"/>
-      <c r="E44" s="153"/>
-      <c r="F44" s="153"/>
-      <c r="G44" s="153"/>
-      <c r="H44" s="153"/>
-      <c r="I44" s="153"/>
-      <c r="J44" s="153"/>
-      <c r="K44" s="153"/>
-      <c r="L44" s="153"/>
-      <c r="M44" s="153"/>
-      <c r="N44" s="153"/>
-      <c r="O44" s="153"/>
-      <c r="P44" s="153"/>
-      <c r="Q44" s="153"/>
-      <c r="R44" s="153"/>
-      <c r="S44" s="153"/>
-      <c r="T44" s="153"/>
-      <c r="U44" s="153"/>
-      <c r="V44" s="153"/>
-      <c r="W44" s="153"/>
-      <c r="X44" s="153"/>
-      <c r="Y44" s="153"/>
-      <c r="Z44" s="153"/>
-      <c r="AA44" s="153"/>
-      <c r="AB44" s="153"/>
-      <c r="AC44" s="153"/>
-      <c r="AD44" s="153"/>
-      <c r="AE44" s="153"/>
-      <c r="AF44" s="153"/>
-      <c r="AG44" s="153"/>
-      <c r="AH44" s="153"/>
-      <c r="AI44" s="153"/>
-      <c r="AJ44" s="153"/>
-      <c r="AK44" s="153"/>
-      <c r="AL44" s="153"/>
-      <c r="AM44" s="154"/>
+      <c r="C44" s="154"/>
+      <c r="D44" s="154"/>
+      <c r="E44" s="154"/>
+      <c r="F44" s="154"/>
+      <c r="G44" s="154"/>
+      <c r="H44" s="154"/>
+      <c r="I44" s="154"/>
+      <c r="J44" s="154"/>
+      <c r="K44" s="154"/>
+      <c r="L44" s="154"/>
+      <c r="M44" s="154"/>
+      <c r="N44" s="154"/>
+      <c r="O44" s="154"/>
+      <c r="P44" s="154"/>
+      <c r="Q44" s="154"/>
+      <c r="R44" s="154"/>
+      <c r="S44" s="154"/>
+      <c r="T44" s="154"/>
+      <c r="U44" s="154"/>
+      <c r="V44" s="154"/>
+      <c r="W44" s="154"/>
+      <c r="X44" s="154"/>
+      <c r="Y44" s="154"/>
+      <c r="Z44" s="154"/>
+      <c r="AA44" s="154"/>
+      <c r="AB44" s="154"/>
+      <c r="AC44" s="154"/>
+      <c r="AD44" s="154"/>
+      <c r="AE44" s="154"/>
+      <c r="AF44" s="154"/>
+      <c r="AG44" s="154"/>
+      <c r="AH44" s="154"/>
+      <c r="AI44" s="154"/>
+      <c r="AJ44" s="154"/>
+      <c r="AK44" s="154"/>
+      <c r="AL44" s="154"/>
+      <c r="AM44" s="155"/>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="49"/>
       <c r="B45" s="50"/>
-      <c r="C45" s="153"/>
-      <c r="D45" s="153"/>
-      <c r="E45" s="153"/>
-      <c r="F45" s="153"/>
-      <c r="G45" s="153"/>
-      <c r="H45" s="153"/>
-      <c r="I45" s="153"/>
-      <c r="J45" s="153"/>
-      <c r="K45" s="153"/>
-      <c r="L45" s="153"/>
-      <c r="M45" s="153"/>
-      <c r="N45" s="153"/>
-      <c r="O45" s="153"/>
-      <c r="P45" s="153"/>
-      <c r="Q45" s="153"/>
-      <c r="R45" s="153"/>
-      <c r="S45" s="153"/>
-      <c r="T45" s="153"/>
-      <c r="U45" s="153"/>
-      <c r="V45" s="153"/>
-      <c r="W45" s="153"/>
-      <c r="X45" s="153"/>
-      <c r="Y45" s="153"/>
-      <c r="Z45" s="153"/>
-      <c r="AA45" s="153"/>
-      <c r="AB45" s="153"/>
-      <c r="AC45" s="153"/>
-      <c r="AD45" s="153"/>
-      <c r="AE45" s="153"/>
-      <c r="AF45" s="153"/>
-      <c r="AG45" s="153"/>
-      <c r="AH45" s="153"/>
-      <c r="AI45" s="153"/>
-      <c r="AJ45" s="153"/>
-      <c r="AK45" s="153"/>
-      <c r="AL45" s="153"/>
-      <c r="AM45" s="154"/>
+      <c r="C45" s="154"/>
+      <c r="D45" s="154"/>
+      <c r="E45" s="154"/>
+      <c r="F45" s="154"/>
+      <c r="G45" s="154"/>
+      <c r="H45" s="154"/>
+      <c r="I45" s="154"/>
+      <c r="J45" s="154"/>
+      <c r="K45" s="154"/>
+      <c r="L45" s="154"/>
+      <c r="M45" s="154"/>
+      <c r="N45" s="154"/>
+      <c r="O45" s="154"/>
+      <c r="P45" s="154"/>
+      <c r="Q45" s="154"/>
+      <c r="R45" s="154"/>
+      <c r="S45" s="154"/>
+      <c r="T45" s="154"/>
+      <c r="U45" s="154"/>
+      <c r="V45" s="154"/>
+      <c r="W45" s="154"/>
+      <c r="X45" s="154"/>
+      <c r="Y45" s="154"/>
+      <c r="Z45" s="154"/>
+      <c r="AA45" s="154"/>
+      <c r="AB45" s="154"/>
+      <c r="AC45" s="154"/>
+      <c r="AD45" s="154"/>
+      <c r="AE45" s="154"/>
+      <c r="AF45" s="154"/>
+      <c r="AG45" s="154"/>
+      <c r="AH45" s="154"/>
+      <c r="AI45" s="154"/>
+      <c r="AJ45" s="154"/>
+      <c r="AK45" s="154"/>
+      <c r="AL45" s="154"/>
+      <c r="AM45" s="155"/>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="50"/>
-      <c r="C46" s="153"/>
-      <c r="D46" s="153"/>
-      <c r="E46" s="153"/>
-      <c r="F46" s="153"/>
-      <c r="G46" s="153"/>
-      <c r="H46" s="153"/>
-      <c r="I46" s="153"/>
-      <c r="J46" s="153"/>
-      <c r="K46" s="153"/>
-      <c r="L46" s="153"/>
-      <c r="M46" s="153"/>
-      <c r="N46" s="153"/>
-      <c r="O46" s="153"/>
-      <c r="P46" s="153"/>
-      <c r="Q46" s="153"/>
-      <c r="R46" s="153"/>
-      <c r="S46" s="153"/>
-      <c r="T46" s="153"/>
-      <c r="U46" s="153"/>
-      <c r="V46" s="153"/>
-      <c r="W46" s="153"/>
-      <c r="X46" s="153"/>
-      <c r="Y46" s="153"/>
-      <c r="Z46" s="153"/>
-      <c r="AA46" s="153"/>
-      <c r="AB46" s="153"/>
-      <c r="AC46" s="153"/>
-      <c r="AD46" s="153"/>
-      <c r="AE46" s="153"/>
-      <c r="AF46" s="153"/>
-      <c r="AG46" s="153"/>
-      <c r="AH46" s="153"/>
-      <c r="AI46" s="153"/>
-      <c r="AJ46" s="153"/>
-      <c r="AK46" s="153"/>
-      <c r="AL46" s="153"/>
-      <c r="AM46" s="154"/>
+      <c r="C46" s="154"/>
+      <c r="D46" s="154"/>
+      <c r="E46" s="154"/>
+      <c r="F46" s="154"/>
+      <c r="G46" s="154"/>
+      <c r="H46" s="154"/>
+      <c r="I46" s="154"/>
+      <c r="J46" s="154"/>
+      <c r="K46" s="154"/>
+      <c r="L46" s="154"/>
+      <c r="M46" s="154"/>
+      <c r="N46" s="154"/>
+      <c r="O46" s="154"/>
+      <c r="P46" s="154"/>
+      <c r="Q46" s="154"/>
+      <c r="R46" s="154"/>
+      <c r="S46" s="154"/>
+      <c r="T46" s="154"/>
+      <c r="U46" s="154"/>
+      <c r="V46" s="154"/>
+      <c r="W46" s="154"/>
+      <c r="X46" s="154"/>
+      <c r="Y46" s="154"/>
+      <c r="Z46" s="154"/>
+      <c r="AA46" s="154"/>
+      <c r="AB46" s="154"/>
+      <c r="AC46" s="154"/>
+      <c r="AD46" s="154"/>
+      <c r="AE46" s="154"/>
+      <c r="AF46" s="154"/>
+      <c r="AG46" s="154"/>
+      <c r="AH46" s="154"/>
+      <c r="AI46" s="154"/>
+      <c r="AJ46" s="154"/>
+      <c r="AK46" s="154"/>
+      <c r="AL46" s="154"/>
+      <c r="AM46" s="155"/>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="49"/>
       <c r="B47" s="50"/>
-      <c r="C47" s="153"/>
-      <c r="D47" s="153"/>
-      <c r="E47" s="153"/>
-      <c r="F47" s="153"/>
-      <c r="G47" s="153"/>
-      <c r="H47" s="153"/>
-      <c r="I47" s="153"/>
-      <c r="J47" s="153"/>
-      <c r="K47" s="153"/>
-      <c r="L47" s="153"/>
-      <c r="M47" s="153"/>
-      <c r="N47" s="153"/>
-      <c r="O47" s="153"/>
-      <c r="P47" s="153"/>
-      <c r="Q47" s="153"/>
-      <c r="R47" s="153"/>
-      <c r="S47" s="153"/>
-      <c r="T47" s="153"/>
-      <c r="U47" s="153"/>
-      <c r="V47" s="153"/>
-      <c r="W47" s="153"/>
-      <c r="X47" s="153"/>
-      <c r="Y47" s="153"/>
-      <c r="Z47" s="153"/>
-      <c r="AA47" s="153"/>
-      <c r="AB47" s="153"/>
-      <c r="AC47" s="153"/>
-      <c r="AD47" s="153"/>
-      <c r="AE47" s="153"/>
-      <c r="AF47" s="153"/>
-      <c r="AG47" s="153"/>
-      <c r="AH47" s="153"/>
-      <c r="AI47" s="153"/>
-      <c r="AJ47" s="153"/>
-      <c r="AK47" s="153"/>
-      <c r="AL47" s="153"/>
-      <c r="AM47" s="154"/>
+      <c r="C47" s="154"/>
+      <c r="D47" s="154"/>
+      <c r="E47" s="154"/>
+      <c r="F47" s="154"/>
+      <c r="G47" s="154"/>
+      <c r="H47" s="154"/>
+      <c r="I47" s="154"/>
+      <c r="J47" s="154"/>
+      <c r="K47" s="154"/>
+      <c r="L47" s="154"/>
+      <c r="M47" s="154"/>
+      <c r="N47" s="154"/>
+      <c r="O47" s="154"/>
+      <c r="P47" s="154"/>
+      <c r="Q47" s="154"/>
+      <c r="R47" s="154"/>
+      <c r="S47" s="154"/>
+      <c r="T47" s="154"/>
+      <c r="U47" s="154"/>
+      <c r="V47" s="154"/>
+      <c r="W47" s="154"/>
+      <c r="X47" s="154"/>
+      <c r="Y47" s="154"/>
+      <c r="Z47" s="154"/>
+      <c r="AA47" s="154"/>
+      <c r="AB47" s="154"/>
+      <c r="AC47" s="154"/>
+      <c r="AD47" s="154"/>
+      <c r="AE47" s="154"/>
+      <c r="AF47" s="154"/>
+      <c r="AG47" s="154"/>
+      <c r="AH47" s="154"/>
+      <c r="AI47" s="154"/>
+      <c r="AJ47" s="154"/>
+      <c r="AK47" s="154"/>
+      <c r="AL47" s="154"/>
+      <c r="AM47" s="155"/>
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="49"/>
       <c r="B48" s="50"/>
-      <c r="C48" s="153"/>
-      <c r="D48" s="153"/>
-      <c r="E48" s="153"/>
-      <c r="F48" s="153"/>
-      <c r="G48" s="153"/>
-      <c r="H48" s="153"/>
-      <c r="I48" s="153"/>
-      <c r="J48" s="153"/>
-      <c r="K48" s="153"/>
-      <c r="L48" s="153"/>
-      <c r="M48" s="153"/>
-      <c r="N48" s="153"/>
-      <c r="O48" s="153"/>
-      <c r="P48" s="153"/>
-      <c r="Q48" s="153"/>
-      <c r="R48" s="153"/>
-      <c r="S48" s="153"/>
-      <c r="T48" s="153"/>
-      <c r="U48" s="153"/>
-      <c r="V48" s="153"/>
-      <c r="W48" s="153"/>
-      <c r="X48" s="153"/>
-      <c r="Y48" s="153"/>
-      <c r="Z48" s="153"/>
-      <c r="AA48" s="153"/>
-      <c r="AB48" s="153"/>
-      <c r="AC48" s="153"/>
-      <c r="AD48" s="153"/>
-      <c r="AE48" s="153"/>
-      <c r="AF48" s="153"/>
-      <c r="AG48" s="153"/>
-      <c r="AH48" s="153"/>
-      <c r="AI48" s="153"/>
-      <c r="AJ48" s="153"/>
-      <c r="AK48" s="153"/>
-      <c r="AL48" s="153"/>
-      <c r="AM48" s="154"/>
+      <c r="C48" s="154"/>
+      <c r="D48" s="154"/>
+      <c r="E48" s="154"/>
+      <c r="F48" s="154"/>
+      <c r="G48" s="154"/>
+      <c r="H48" s="154"/>
+      <c r="I48" s="154"/>
+      <c r="J48" s="154"/>
+      <c r="K48" s="154"/>
+      <c r="L48" s="154"/>
+      <c r="M48" s="154"/>
+      <c r="N48" s="154"/>
+      <c r="O48" s="154"/>
+      <c r="P48" s="154"/>
+      <c r="Q48" s="154"/>
+      <c r="R48" s="154"/>
+      <c r="S48" s="154"/>
+      <c r="T48" s="154"/>
+      <c r="U48" s="154"/>
+      <c r="V48" s="154"/>
+      <c r="W48" s="154"/>
+      <c r="X48" s="154"/>
+      <c r="Y48" s="154"/>
+      <c r="Z48" s="154"/>
+      <c r="AA48" s="154"/>
+      <c r="AB48" s="154"/>
+      <c r="AC48" s="154"/>
+      <c r="AD48" s="154"/>
+      <c r="AE48" s="154"/>
+      <c r="AF48" s="154"/>
+      <c r="AG48" s="154"/>
+      <c r="AH48" s="154"/>
+      <c r="AI48" s="154"/>
+      <c r="AJ48" s="154"/>
+      <c r="AK48" s="154"/>
+      <c r="AL48" s="154"/>
+      <c r="AM48" s="155"/>
     </row>
     <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="49"/>
       <c r="B49" s="50"/>
-      <c r="C49" s="153"/>
-      <c r="D49" s="153"/>
-      <c r="E49" s="153"/>
-      <c r="F49" s="153"/>
-      <c r="G49" s="153"/>
-      <c r="H49" s="153"/>
-      <c r="I49" s="153"/>
-      <c r="J49" s="153"/>
-      <c r="K49" s="153"/>
-      <c r="L49" s="153"/>
-      <c r="M49" s="153"/>
-      <c r="N49" s="153"/>
-      <c r="O49" s="153"/>
-      <c r="P49" s="153"/>
-      <c r="Q49" s="153"/>
-      <c r="R49" s="153"/>
-      <c r="S49" s="153"/>
-      <c r="T49" s="153"/>
-      <c r="U49" s="153"/>
-      <c r="V49" s="153"/>
-      <c r="W49" s="153"/>
-      <c r="X49" s="153"/>
-      <c r="Y49" s="153"/>
-      <c r="Z49" s="153"/>
-      <c r="AA49" s="153"/>
-      <c r="AB49" s="153"/>
-      <c r="AC49" s="153"/>
-      <c r="AD49" s="153"/>
-      <c r="AE49" s="153"/>
-      <c r="AF49" s="153"/>
-      <c r="AG49" s="153"/>
-      <c r="AH49" s="153"/>
-      <c r="AI49" s="153"/>
-      <c r="AJ49" s="153"/>
-      <c r="AK49" s="153"/>
-      <c r="AL49" s="153"/>
-      <c r="AM49" s="154"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="154"/>
+      <c r="E49" s="154"/>
+      <c r="F49" s="154"/>
+      <c r="G49" s="154"/>
+      <c r="H49" s="154"/>
+      <c r="I49" s="154"/>
+      <c r="J49" s="154"/>
+      <c r="K49" s="154"/>
+      <c r="L49" s="154"/>
+      <c r="M49" s="154"/>
+      <c r="N49" s="154"/>
+      <c r="O49" s="154"/>
+      <c r="P49" s="154"/>
+      <c r="Q49" s="154"/>
+      <c r="R49" s="154"/>
+      <c r="S49" s="154"/>
+      <c r="T49" s="154"/>
+      <c r="U49" s="154"/>
+      <c r="V49" s="154"/>
+      <c r="W49" s="154"/>
+      <c r="X49" s="154"/>
+      <c r="Y49" s="154"/>
+      <c r="Z49" s="154"/>
+      <c r="AA49" s="154"/>
+      <c r="AB49" s="154"/>
+      <c r="AC49" s="154"/>
+      <c r="AD49" s="154"/>
+      <c r="AE49" s="154"/>
+      <c r="AF49" s="154"/>
+      <c r="AG49" s="154"/>
+      <c r="AH49" s="154"/>
+      <c r="AI49" s="154"/>
+      <c r="AJ49" s="154"/>
+      <c r="AK49" s="154"/>
+      <c r="AL49" s="154"/>
+      <c r="AM49" s="155"/>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="49"/>
       <c r="B50" s="50"/>
-      <c r="C50" s="153"/>
-      <c r="D50" s="153"/>
-      <c r="E50" s="153"/>
-      <c r="F50" s="153"/>
-      <c r="G50" s="153"/>
-      <c r="H50" s="153"/>
-      <c r="I50" s="153"/>
-      <c r="J50" s="153"/>
-      <c r="K50" s="153"/>
-      <c r="L50" s="153"/>
-      <c r="M50" s="153"/>
-      <c r="N50" s="153"/>
-      <c r="O50" s="153"/>
-      <c r="P50" s="153"/>
-      <c r="Q50" s="153"/>
-      <c r="R50" s="153"/>
-      <c r="S50" s="153"/>
-      <c r="T50" s="153"/>
-      <c r="U50" s="153"/>
-      <c r="V50" s="153"/>
-      <c r="W50" s="153"/>
-      <c r="X50" s="153"/>
-      <c r="Y50" s="153"/>
-      <c r="Z50" s="153"/>
-      <c r="AA50" s="153"/>
-      <c r="AB50" s="153"/>
-      <c r="AC50" s="153"/>
-      <c r="AD50" s="153"/>
-      <c r="AE50" s="153"/>
-      <c r="AF50" s="153"/>
-      <c r="AG50" s="153"/>
-      <c r="AH50" s="153"/>
-      <c r="AI50" s="153"/>
-      <c r="AJ50" s="153"/>
-      <c r="AK50" s="153"/>
-      <c r="AL50" s="153"/>
-      <c r="AM50" s="154"/>
+      <c r="C50" s="154"/>
+      <c r="D50" s="154"/>
+      <c r="E50" s="154"/>
+      <c r="F50" s="154"/>
+      <c r="G50" s="154"/>
+      <c r="H50" s="154"/>
+      <c r="I50" s="154"/>
+      <c r="J50" s="154"/>
+      <c r="K50" s="154"/>
+      <c r="L50" s="154"/>
+      <c r="M50" s="154"/>
+      <c r="N50" s="154"/>
+      <c r="O50" s="154"/>
+      <c r="P50" s="154"/>
+      <c r="Q50" s="154"/>
+      <c r="R50" s="154"/>
+      <c r="S50" s="154"/>
+      <c r="T50" s="154"/>
+      <c r="U50" s="154"/>
+      <c r="V50" s="154"/>
+      <c r="W50" s="154"/>
+      <c r="X50" s="154"/>
+      <c r="Y50" s="154"/>
+      <c r="Z50" s="154"/>
+      <c r="AA50" s="154"/>
+      <c r="AB50" s="154"/>
+      <c r="AC50" s="154"/>
+      <c r="AD50" s="154"/>
+      <c r="AE50" s="154"/>
+      <c r="AF50" s="154"/>
+      <c r="AG50" s="154"/>
+      <c r="AH50" s="154"/>
+      <c r="AI50" s="154"/>
+      <c r="AJ50" s="154"/>
+      <c r="AK50" s="154"/>
+      <c r="AL50" s="154"/>
+      <c r="AM50" s="155"/>
     </row>
     <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="49"/>
       <c r="B51" s="50"/>
-      <c r="C51" s="153"/>
-      <c r="D51" s="153"/>
-      <c r="E51" s="153"/>
-      <c r="F51" s="153"/>
-      <c r="G51" s="153"/>
-      <c r="H51" s="153"/>
-      <c r="I51" s="153"/>
-      <c r="J51" s="153"/>
-      <c r="K51" s="153"/>
-      <c r="L51" s="153"/>
-      <c r="M51" s="153"/>
-      <c r="N51" s="153"/>
-      <c r="O51" s="153"/>
-      <c r="P51" s="153"/>
-      <c r="Q51" s="153"/>
-      <c r="R51" s="153"/>
-      <c r="S51" s="153"/>
-      <c r="T51" s="153"/>
-      <c r="U51" s="153"/>
-      <c r="V51" s="153"/>
-      <c r="W51" s="153"/>
-      <c r="X51" s="153"/>
-      <c r="Y51" s="153"/>
-      <c r="Z51" s="153"/>
-      <c r="AA51" s="153"/>
-      <c r="AB51" s="153"/>
-      <c r="AC51" s="153"/>
-      <c r="AD51" s="153"/>
-      <c r="AE51" s="153"/>
-      <c r="AF51" s="153"/>
-      <c r="AG51" s="153"/>
-      <c r="AH51" s="153"/>
-      <c r="AI51" s="153"/>
-      <c r="AJ51" s="153"/>
-      <c r="AK51" s="153"/>
-      <c r="AL51" s="153"/>
-      <c r="AM51" s="154"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="154"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="154"/>
+      <c r="K51" s="154"/>
+      <c r="L51" s="154"/>
+      <c r="M51" s="154"/>
+      <c r="N51" s="154"/>
+      <c r="O51" s="154"/>
+      <c r="P51" s="154"/>
+      <c r="Q51" s="154"/>
+      <c r="R51" s="154"/>
+      <c r="S51" s="154"/>
+      <c r="T51" s="154"/>
+      <c r="U51" s="154"/>
+      <c r="V51" s="154"/>
+      <c r="W51" s="154"/>
+      <c r="X51" s="154"/>
+      <c r="Y51" s="154"/>
+      <c r="Z51" s="154"/>
+      <c r="AA51" s="154"/>
+      <c r="AB51" s="154"/>
+      <c r="AC51" s="154"/>
+      <c r="AD51" s="154"/>
+      <c r="AE51" s="154"/>
+      <c r="AF51" s="154"/>
+      <c r="AG51" s="154"/>
+      <c r="AH51" s="154"/>
+      <c r="AI51" s="154"/>
+      <c r="AJ51" s="154"/>
+      <c r="AK51" s="154"/>
+      <c r="AL51" s="154"/>
+      <c r="AM51" s="155"/>
     </row>
     <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="49"/>
       <c r="B52" s="50"/>
-      <c r="C52" s="153"/>
-      <c r="D52" s="153"/>
-      <c r="E52" s="153"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="153"/>
-      <c r="H52" s="153"/>
-      <c r="I52" s="153"/>
-      <c r="J52" s="153"/>
-      <c r="K52" s="153"/>
-      <c r="L52" s="153"/>
-      <c r="M52" s="153"/>
-      <c r="N52" s="153"/>
-      <c r="O52" s="153"/>
-      <c r="P52" s="153"/>
-      <c r="Q52" s="153"/>
-      <c r="R52" s="153"/>
-      <c r="S52" s="153"/>
-      <c r="T52" s="153"/>
-      <c r="U52" s="153"/>
-      <c r="V52" s="153"/>
-      <c r="W52" s="153"/>
-      <c r="X52" s="153"/>
-      <c r="Y52" s="153"/>
-      <c r="Z52" s="153"/>
-      <c r="AA52" s="153"/>
-      <c r="AB52" s="153"/>
-      <c r="AC52" s="153"/>
-      <c r="AD52" s="153"/>
-      <c r="AE52" s="153"/>
-      <c r="AF52" s="153"/>
-      <c r="AG52" s="153"/>
-      <c r="AH52" s="153"/>
-      <c r="AI52" s="153"/>
-      <c r="AJ52" s="153"/>
-      <c r="AK52" s="153"/>
-      <c r="AL52" s="153"/>
-      <c r="AM52" s="154"/>
+      <c r="C52" s="154"/>
+      <c r="D52" s="154"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="154"/>
+      <c r="G52" s="154"/>
+      <c r="H52" s="154"/>
+      <c r="I52" s="154"/>
+      <c r="J52" s="154"/>
+      <c r="K52" s="154"/>
+      <c r="L52" s="154"/>
+      <c r="M52" s="154"/>
+      <c r="N52" s="154"/>
+      <c r="O52" s="154"/>
+      <c r="P52" s="154"/>
+      <c r="Q52" s="154"/>
+      <c r="R52" s="154"/>
+      <c r="S52" s="154"/>
+      <c r="T52" s="154"/>
+      <c r="U52" s="154"/>
+      <c r="V52" s="154"/>
+      <c r="W52" s="154"/>
+      <c r="X52" s="154"/>
+      <c r="Y52" s="154"/>
+      <c r="Z52" s="154"/>
+      <c r="AA52" s="154"/>
+      <c r="AB52" s="154"/>
+      <c r="AC52" s="154"/>
+      <c r="AD52" s="154"/>
+      <c r="AE52" s="154"/>
+      <c r="AF52" s="154"/>
+      <c r="AG52" s="154"/>
+      <c r="AH52" s="154"/>
+      <c r="AI52" s="154"/>
+      <c r="AJ52" s="154"/>
+      <c r="AK52" s="154"/>
+      <c r="AL52" s="154"/>
+      <c r="AM52" s="155"/>
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="55"/>
-      <c r="C53" s="155"/>
-      <c r="D53" s="156"/>
-      <c r="E53" s="156"/>
-      <c r="F53" s="156"/>
-      <c r="G53" s="156"/>
-      <c r="H53" s="156"/>
-      <c r="I53" s="156"/>
-      <c r="J53" s="156"/>
-      <c r="K53" s="156"/>
-      <c r="L53" s="156"/>
-      <c r="M53" s="156"/>
-      <c r="N53" s="156"/>
-      <c r="O53" s="156"/>
-      <c r="P53" s="157"/>
-      <c r="Q53" s="157"/>
-      <c r="R53" s="157"/>
-      <c r="S53" s="157"/>
-      <c r="T53" s="157"/>
-      <c r="U53" s="157"/>
-      <c r="V53" s="157"/>
-      <c r="W53" s="157"/>
-      <c r="X53" s="157"/>
-      <c r="Y53" s="157"/>
-      <c r="Z53" s="157"/>
-      <c r="AA53" s="157"/>
-      <c r="AB53" s="157"/>
-      <c r="AC53" s="157"/>
-      <c r="AD53" s="157"/>
-      <c r="AE53" s="157"/>
-      <c r="AF53" s="157"/>
-      <c r="AG53" s="157"/>
-      <c r="AH53" s="157"/>
-      <c r="AI53" s="157"/>
-      <c r="AJ53" s="157"/>
-      <c r="AK53" s="158"/>
-      <c r="AL53" s="159"/>
-      <c r="AM53" s="160"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="157"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="157"/>
+      <c r="H53" s="157"/>
+      <c r="I53" s="157"/>
+      <c r="J53" s="157"/>
+      <c r="K53" s="157"/>
+      <c r="L53" s="157"/>
+      <c r="M53" s="157"/>
+      <c r="N53" s="157"/>
+      <c r="O53" s="157"/>
+      <c r="P53" s="158"/>
+      <c r="Q53" s="158"/>
+      <c r="R53" s="158"/>
+      <c r="S53" s="158"/>
+      <c r="T53" s="158"/>
+      <c r="U53" s="158"/>
+      <c r="V53" s="158"/>
+      <c r="W53" s="158"/>
+      <c r="X53" s="158"/>
+      <c r="Y53" s="158"/>
+      <c r="Z53" s="158"/>
+      <c r="AA53" s="158"/>
+      <c r="AB53" s="158"/>
+      <c r="AC53" s="158"/>
+      <c r="AD53" s="158"/>
+      <c r="AE53" s="158"/>
+      <c r="AF53" s="158"/>
+      <c r="AG53" s="158"/>
+      <c r="AH53" s="158"/>
+      <c r="AI53" s="158"/>
+      <c r="AJ53" s="158"/>
+      <c r="AK53" s="159"/>
+      <c r="AL53" s="160"/>
+      <c r="AM53" s="161"/>
     </row>
     <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="49"/>
       <c r="B54" s="55"/>
-      <c r="C54" s="161"/>
-      <c r="D54" s="162"/>
-      <c r="E54" s="162"/>
-      <c r="F54" s="162"/>
-      <c r="G54" s="162"/>
-      <c r="H54" s="162"/>
-      <c r="I54" s="162"/>
-      <c r="J54" s="162"/>
-      <c r="K54" s="162"/>
-      <c r="L54" s="162"/>
-      <c r="M54" s="162"/>
-      <c r="N54" s="162"/>
-      <c r="O54" s="162"/>
-      <c r="P54" s="163"/>
-      <c r="Q54" s="163"/>
-      <c r="R54" s="163"/>
-      <c r="S54" s="163"/>
-      <c r="T54" s="163"/>
-      <c r="U54" s="163"/>
-      <c r="V54" s="163"/>
-      <c r="W54" s="163"/>
-      <c r="X54" s="163"/>
-      <c r="Y54" s="163"/>
-      <c r="Z54" s="163"/>
-      <c r="AA54" s="163"/>
-      <c r="AB54" s="163"/>
-      <c r="AC54" s="163"/>
-      <c r="AD54" s="163"/>
-      <c r="AE54" s="163"/>
-      <c r="AF54" s="163"/>
-      <c r="AG54" s="163"/>
-      <c r="AH54" s="163"/>
-      <c r="AI54" s="163"/>
-      <c r="AJ54" s="163"/>
-      <c r="AK54" s="164"/>
-      <c r="AL54" s="165"/>
-      <c r="AM54" s="166"/>
+      <c r="C54" s="162"/>
+      <c r="D54" s="163"/>
+      <c r="E54" s="163"/>
+      <c r="F54" s="163"/>
+      <c r="G54" s="163"/>
+      <c r="H54" s="163"/>
+      <c r="I54" s="163"/>
+      <c r="J54" s="163"/>
+      <c r="K54" s="163"/>
+      <c r="L54" s="163"/>
+      <c r="M54" s="163"/>
+      <c r="N54" s="163"/>
+      <c r="O54" s="163"/>
+      <c r="P54" s="164"/>
+      <c r="Q54" s="164"/>
+      <c r="R54" s="164"/>
+      <c r="S54" s="164"/>
+      <c r="T54" s="164"/>
+      <c r="U54" s="164"/>
+      <c r="V54" s="164"/>
+      <c r="W54" s="164"/>
+      <c r="X54" s="164"/>
+      <c r="Y54" s="164"/>
+      <c r="Z54" s="164"/>
+      <c r="AA54" s="164"/>
+      <c r="AB54" s="164"/>
+      <c r="AC54" s="164"/>
+      <c r="AD54" s="164"/>
+      <c r="AE54" s="164"/>
+      <c r="AF54" s="164"/>
+      <c r="AG54" s="164"/>
+      <c r="AH54" s="164"/>
+      <c r="AI54" s="164"/>
+      <c r="AJ54" s="164"/>
+      <c r="AK54" s="165"/>
+      <c r="AL54" s="166"/>
+      <c r="AM54" s="167"/>
     </row>
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="49"/>
@@ -5669,11 +5676,11 @@
       <c r="AH55" s="97"/>
       <c r="AI55" s="97"/>
       <c r="AJ55" s="97"/>
-      <c r="AK55" s="83" t="s">
+      <c r="AK55" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="AL55" s="83"/>
-      <c r="AM55" s="83"/>
+      <c r="AL55" s="82"/>
+      <c r="AM55" s="82"/>
     </row>
     <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="49"/>
@@ -5691,10 +5698,10 @@
       <c r="M56" s="123"/>
       <c r="N56" s="123"/>
       <c r="O56" s="123"/>
-      <c r="P56" s="81" t="s">
+      <c r="P56" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="Q56" s="81"/>
+      <c r="Q56" s="78"/>
       <c r="R56" s="97"/>
       <c r="S56" s="97"/>
       <c r="T56" s="97"/>
@@ -5828,8 +5835,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P55" activeCellId="0" sqref="P55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7255,11 +7262,11 @@
       <c r="AH55" s="97"/>
       <c r="AI55" s="97"/>
       <c r="AJ55" s="97"/>
-      <c r="AK55" s="83" t="s">
+      <c r="AK55" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="AL55" s="83"/>
-      <c r="AM55" s="83"/>
+      <c r="AL55" s="82"/>
+      <c r="AM55" s="82"/>
     </row>
     <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="49"/>
@@ -7277,8 +7284,8 @@
       <c r="M56" s="123"/>
       <c r="N56" s="123"/>
       <c r="O56" s="123"/>
-      <c r="P56" s="167"/>
-      <c r="Q56" s="167"/>
+      <c r="P56" s="168"/>
+      <c r="Q56" s="168"/>
       <c r="R56" s="97"/>
       <c r="S56" s="97"/>
       <c r="T56" s="97"/>
@@ -7410,7 +7417,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D56" activeCellId="0" sqref="D56"/>
     </sheetView>
   </sheetViews>
@@ -8931,7 +8938,7 @@
       <c r="C56" s="58"/>
       <c r="D56" s="32" t="n">
         <f aca="true">YEAR(TODAY())</f>
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E56" s="32"/>
       <c r="F56" s="32"/>
@@ -9058,8 +9065,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N13" activeCellId="0" sqref="N13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P57" activeCellId="0" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11239,40 +11246,40 @@
       <c r="M53" s="73"/>
       <c r="N53" s="73"/>
       <c r="O53" s="73"/>
-      <c r="P53" s="81" t="s">
+      <c r="P53" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="Q53" s="81"/>
-      <c r="R53" s="82" t="s">
+      <c r="Q53" s="78"/>
+      <c r="R53" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="S53" s="82"/>
-      <c r="T53" s="82"/>
-      <c r="U53" s="82"/>
-      <c r="V53" s="82"/>
-      <c r="W53" s="82"/>
-      <c r="X53" s="82"/>
-      <c r="Y53" s="82"/>
-      <c r="Z53" s="82"/>
-      <c r="AA53" s="82"/>
-      <c r="AB53" s="82"/>
-      <c r="AC53" s="82"/>
-      <c r="AD53" s="83" t="s">
+      <c r="S53" s="81"/>
+      <c r="T53" s="81"/>
+      <c r="U53" s="81"/>
+      <c r="V53" s="81"/>
+      <c r="W53" s="81"/>
+      <c r="X53" s="81"/>
+      <c r="Y53" s="81"/>
+      <c r="Z53" s="81"/>
+      <c r="AA53" s="81"/>
+      <c r="AB53" s="81"/>
+      <c r="AC53" s="81"/>
+      <c r="AD53" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="AE53" s="83"/>
-      <c r="AF53" s="83"/>
-      <c r="AG53" s="83" t="s">
+      <c r="AE53" s="82"/>
+      <c r="AF53" s="82"/>
+      <c r="AG53" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="AH53" s="83"/>
-      <c r="AI53" s="83"/>
-      <c r="AJ53" s="83" t="s">
+      <c r="AH53" s="82"/>
+      <c r="AI53" s="82"/>
+      <c r="AJ53" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="AK53" s="83"/>
-      <c r="AL53" s="83"/>
-      <c r="AM53" s="83"/>
+      <c r="AK53" s="82"/>
+      <c r="AL53" s="82"/>
+      <c r="AM53" s="82"/>
     </row>
     <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="49"/>
@@ -11287,35 +11294,35 @@
       <c r="J54" s="78"/>
       <c r="K54" s="78"/>
       <c r="L54" s="78"/>
-      <c r="M54" s="83"/>
-      <c r="N54" s="83"/>
-      <c r="O54" s="83"/>
-      <c r="P54" s="81"/>
-      <c r="Q54" s="81"/>
-      <c r="R54" s="82"/>
-      <c r="S54" s="82"/>
-      <c r="T54" s="82"/>
-      <c r="U54" s="82"/>
-      <c r="V54" s="82"/>
-      <c r="W54" s="82"/>
-      <c r="X54" s="82"/>
-      <c r="Y54" s="82"/>
-      <c r="Z54" s="82"/>
-      <c r="AA54" s="82"/>
-      <c r="AB54" s="82"/>
-      <c r="AC54" s="82"/>
-      <c r="AD54" s="83" t="s">
+      <c r="M54" s="82"/>
+      <c r="N54" s="82"/>
+      <c r="O54" s="82"/>
+      <c r="P54" s="83"/>
+      <c r="Q54" s="83"/>
+      <c r="R54" s="81"/>
+      <c r="S54" s="81"/>
+      <c r="T54" s="81"/>
+      <c r="U54" s="81"/>
+      <c r="V54" s="81"/>
+      <c r="W54" s="81"/>
+      <c r="X54" s="81"/>
+      <c r="Y54" s="81"/>
+      <c r="Z54" s="81"/>
+      <c r="AA54" s="81"/>
+      <c r="AB54" s="81"/>
+      <c r="AC54" s="81"/>
+      <c r="AD54" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="AE54" s="83"/>
-      <c r="AF54" s="83"/>
-      <c r="AG54" s="83"/>
-      <c r="AH54" s="83"/>
-      <c r="AI54" s="83"/>
-      <c r="AJ54" s="83"/>
-      <c r="AK54" s="83"/>
-      <c r="AL54" s="83"/>
-      <c r="AM54" s="83"/>
+      <c r="AE54" s="82"/>
+      <c r="AF54" s="82"/>
+      <c r="AG54" s="82"/>
+      <c r="AH54" s="82"/>
+      <c r="AI54" s="82"/>
+      <c r="AJ54" s="82"/>
+      <c r="AK54" s="82"/>
+      <c r="AL54" s="82"/>
+      <c r="AM54" s="82"/>
     </row>
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="49"/>
@@ -11330,33 +11337,33 @@
       <c r="J55" s="78"/>
       <c r="K55" s="78"/>
       <c r="L55" s="78"/>
-      <c r="M55" s="83"/>
-      <c r="N55" s="83"/>
-      <c r="O55" s="83"/>
-      <c r="P55" s="81"/>
-      <c r="Q55" s="81"/>
-      <c r="R55" s="82"/>
-      <c r="S55" s="82"/>
-      <c r="T55" s="82"/>
-      <c r="U55" s="82"/>
-      <c r="V55" s="82"/>
-      <c r="W55" s="82"/>
-      <c r="X55" s="82"/>
-      <c r="Y55" s="82"/>
-      <c r="Z55" s="82"/>
-      <c r="AA55" s="82"/>
-      <c r="AB55" s="82"/>
-      <c r="AC55" s="82"/>
-      <c r="AD55" s="83"/>
-      <c r="AE55" s="83"/>
-      <c r="AF55" s="83"/>
-      <c r="AG55" s="83"/>
-      <c r="AH55" s="83"/>
-      <c r="AI55" s="83"/>
-      <c r="AJ55" s="83"/>
-      <c r="AK55" s="83"/>
-      <c r="AL55" s="83"/>
-      <c r="AM55" s="83"/>
+      <c r="M55" s="82"/>
+      <c r="N55" s="82"/>
+      <c r="O55" s="82"/>
+      <c r="P55" s="83"/>
+      <c r="Q55" s="83"/>
+      <c r="R55" s="81"/>
+      <c r="S55" s="81"/>
+      <c r="T55" s="81"/>
+      <c r="U55" s="81"/>
+      <c r="V55" s="81"/>
+      <c r="W55" s="81"/>
+      <c r="X55" s="81"/>
+      <c r="Y55" s="81"/>
+      <c r="Z55" s="81"/>
+      <c r="AA55" s="81"/>
+      <c r="AB55" s="81"/>
+      <c r="AC55" s="81"/>
+      <c r="AD55" s="82"/>
+      <c r="AE55" s="82"/>
+      <c r="AF55" s="82"/>
+      <c r="AG55" s="82"/>
+      <c r="AH55" s="82"/>
+      <c r="AI55" s="82"/>
+      <c r="AJ55" s="82"/>
+      <c r="AK55" s="82"/>
+      <c r="AL55" s="82"/>
+      <c r="AM55" s="82"/>
     </row>
     <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="49"/>
@@ -11378,10 +11385,10 @@
       <c r="M56" s="85"/>
       <c r="N56" s="85"/>
       <c r="O56" s="85"/>
-      <c r="P56" s="81" t="s">
+      <c r="P56" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="Q56" s="81"/>
+      <c r="Q56" s="78"/>
       <c r="R56" s="86" t="s">
         <v>4</v>
       </c>
@@ -11427,10 +11434,10 @@
       <c r="M57" s="85"/>
       <c r="N57" s="85"/>
       <c r="O57" s="85"/>
-      <c r="P57" s="81" t="s">
+      <c r="P57" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="Q57" s="81"/>
+      <c r="Q57" s="78"/>
       <c r="R57" s="86"/>
       <c r="S57" s="86"/>
       <c r="T57" s="86"/>
@@ -11541,8 +11548,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13016,21 +13023,21 @@
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="49"/>
       <c r="B55" s="55"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
       <c r="E55" s="74"/>
       <c r="F55" s="74"/>
       <c r="G55" s="74"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="82"/>
       <c r="J55" s="74"/>
       <c r="K55" s="74"/>
       <c r="L55" s="74"/>
-      <c r="M55" s="83"/>
-      <c r="N55" s="83"/>
-      <c r="O55" s="83"/>
-      <c r="P55" s="81"/>
-      <c r="Q55" s="81"/>
+      <c r="M55" s="82"/>
+      <c r="N55" s="82"/>
+      <c r="O55" s="82"/>
+      <c r="P55" s="83"/>
+      <c r="Q55" s="83"/>
       <c r="R55" s="97" t="s">
         <v>6</v>
       </c>
@@ -13052,11 +13059,11 @@
       <c r="AH55" s="97"/>
       <c r="AI55" s="97"/>
       <c r="AJ55" s="97"/>
-      <c r="AK55" s="83" t="s">
+      <c r="AK55" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="AL55" s="83"/>
-      <c r="AM55" s="83"/>
+      <c r="AL55" s="82"/>
+      <c r="AM55" s="82"/>
     </row>
     <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="49"/>
@@ -13074,10 +13081,10 @@
       <c r="M56" s="85"/>
       <c r="N56" s="85"/>
       <c r="O56" s="85"/>
-      <c r="P56" s="81" t="s">
+      <c r="P56" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="Q56" s="81"/>
+      <c r="Q56" s="78"/>
       <c r="R56" s="97"/>
       <c r="S56" s="97"/>
       <c r="T56" s="97"/>
@@ -13213,8 +13220,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15438,21 +15445,21 @@
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="49"/>
       <c r="B55" s="55"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
       <c r="E55" s="74"/>
       <c r="F55" s="74"/>
       <c r="G55" s="74"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="82"/>
       <c r="J55" s="74"/>
       <c r="K55" s="74"/>
       <c r="L55" s="74"/>
-      <c r="M55" s="83"/>
-      <c r="N55" s="83"/>
-      <c r="O55" s="83"/>
-      <c r="P55" s="81"/>
-      <c r="Q55" s="81"/>
+      <c r="M55" s="82"/>
+      <c r="N55" s="82"/>
+      <c r="O55" s="82"/>
+      <c r="P55" s="83"/>
+      <c r="Q55" s="83"/>
       <c r="R55" s="97" t="s">
         <v>6</v>
       </c>
@@ -15474,11 +15481,11 @@
       <c r="AH55" s="97"/>
       <c r="AI55" s="97"/>
       <c r="AJ55" s="97"/>
-      <c r="AK55" s="83" t="s">
+      <c r="AK55" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="AL55" s="83"/>
-      <c r="AM55" s="83"/>
+      <c r="AL55" s="82"/>
+      <c r="AM55" s="82"/>
     </row>
     <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="49"/>
@@ -15496,10 +15503,10 @@
       <c r="M56" s="85"/>
       <c r="N56" s="85"/>
       <c r="O56" s="85"/>
-      <c r="P56" s="81" t="s">
+      <c r="P56" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="Q56" s="81"/>
+      <c r="Q56" s="78"/>
       <c r="R56" s="97"/>
       <c r="S56" s="97"/>
       <c r="T56" s="97"/>
@@ -15664,7 +15671,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
@@ -17945,11 +17952,11 @@
       <c r="AH55" s="97"/>
       <c r="AI55" s="97"/>
       <c r="AJ55" s="97"/>
-      <c r="AK55" s="83" t="s">
+      <c r="AK55" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="AL55" s="83"/>
-      <c r="AM55" s="83"/>
+      <c r="AL55" s="82"/>
+      <c r="AM55" s="82"/>
     </row>
     <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="49"/>
@@ -17967,10 +17974,10 @@
       <c r="M56" s="123"/>
       <c r="N56" s="123"/>
       <c r="O56" s="123"/>
-      <c r="P56" s="81" t="s">
+      <c r="P56" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="Q56" s="81"/>
+      <c r="Q56" s="125"/>
       <c r="R56" s="97"/>
       <c r="S56" s="97"/>
       <c r="T56" s="97"/>
@@ -18135,7 +18142,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
@@ -20361,21 +20368,21 @@
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="49"/>
       <c r="B55" s="55"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
       <c r="E55" s="74"/>
       <c r="F55" s="74"/>
       <c r="G55" s="74"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="82"/>
       <c r="J55" s="74"/>
       <c r="K55" s="74"/>
       <c r="L55" s="74"/>
-      <c r="M55" s="83"/>
-      <c r="N55" s="83"/>
-      <c r="O55" s="83"/>
-      <c r="P55" s="81"/>
-      <c r="Q55" s="81"/>
+      <c r="M55" s="82"/>
+      <c r="N55" s="82"/>
+      <c r="O55" s="82"/>
+      <c r="P55" s="83"/>
+      <c r="Q55" s="83"/>
       <c r="R55" s="97" t="s">
         <v>6</v>
       </c>
@@ -20397,11 +20404,11 @@
       <c r="AH55" s="97"/>
       <c r="AI55" s="97"/>
       <c r="AJ55" s="97"/>
-      <c r="AK55" s="83" t="s">
+      <c r="AK55" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="AL55" s="83"/>
-      <c r="AM55" s="83"/>
+      <c r="AL55" s="82"/>
+      <c r="AM55" s="82"/>
     </row>
     <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="49"/>
@@ -20419,10 +20426,10 @@
       <c r="M56" s="85"/>
       <c r="N56" s="85"/>
       <c r="O56" s="85"/>
-      <c r="P56" s="81" t="s">
+      <c r="P56" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="Q56" s="81"/>
+      <c r="Q56" s="78"/>
       <c r="R56" s="97"/>
       <c r="S56" s="97"/>
       <c r="T56" s="97"/>
@@ -20555,7 +20562,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
@@ -20648,82 +20655,82 @@
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="51"/>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
-      <c r="AA2" s="125"/>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="125"/>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="125"/>
-      <c r="AG2" s="125"/>
-      <c r="AH2" s="125"/>
-      <c r="AI2" s="125"/>
-      <c r="AJ2" s="125"/>
-      <c r="AK2" s="125"/>
-      <c r="AL2" s="125"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="126"/>
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="126"/>
+      <c r="AH2" s="126"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="126"/>
+      <c r="AL2" s="126"/>
       <c r="AM2" s="52"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="51"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="125"/>
-      <c r="AE3" s="125"/>
-      <c r="AF3" s="125"/>
-      <c r="AG3" s="125"/>
-      <c r="AH3" s="125"/>
-      <c r="AI3" s="125"/>
-      <c r="AJ3" s="125"/>
-      <c r="AK3" s="125"/>
-      <c r="AL3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="126"/>
+      <c r="AH3" s="126"/>
+      <c r="AI3" s="126"/>
+      <c r="AJ3" s="126"/>
+      <c r="AK3" s="126"/>
+      <c r="AL3" s="126"/>
       <c r="AM3" s="52"/>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20766,122 +20773,122 @@
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="40"/>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="126" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="125"/>
-      <c r="T5" s="125"/>
-      <c r="U5" s="125"/>
-      <c r="V5" s="125"/>
-      <c r="W5" s="125"/>
-      <c r="X5" s="125"/>
-      <c r="Y5" s="125"/>
-      <c r="Z5" s="125"/>
-      <c r="AA5" s="125"/>
-      <c r="AB5" s="125"/>
-      <c r="AC5" s="125"/>
-      <c r="AD5" s="125"/>
-      <c r="AE5" s="125"/>
-      <c r="AF5" s="125"/>
-      <c r="AG5" s="125"/>
-      <c r="AH5" s="125"/>
-      <c r="AI5" s="125"/>
-      <c r="AJ5" s="125"/>
-      <c r="AK5" s="125"/>
-      <c r="AL5" s="125"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="126"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="126"/>
+      <c r="W5" s="126"/>
+      <c r="X5" s="126"/>
+      <c r="Y5" s="126"/>
+      <c r="Z5" s="126"/>
+      <c r="AA5" s="126"/>
+      <c r="AB5" s="126"/>
+      <c r="AC5" s="126"/>
+      <c r="AD5" s="126"/>
+      <c r="AE5" s="126"/>
+      <c r="AF5" s="126"/>
+      <c r="AG5" s="126"/>
+      <c r="AH5" s="126"/>
+      <c r="AI5" s="126"/>
+      <c r="AJ5" s="126"/>
+      <c r="AK5" s="126"/>
+      <c r="AL5" s="126"/>
       <c r="AM5" s="41"/>
       <c r="AQ5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="42"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125"/>
-      <c r="AA6" s="125"/>
-      <c r="AB6" s="125"/>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="125"/>
-      <c r="AF6" s="125"/>
-      <c r="AG6" s="125"/>
-      <c r="AH6" s="125"/>
-      <c r="AI6" s="125"/>
-      <c r="AJ6" s="125"/>
-      <c r="AK6" s="125"/>
-      <c r="AL6" s="125"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="126"/>
+      <c r="AH6" s="126"/>
+      <c r="AI6" s="126"/>
+      <c r="AJ6" s="126"/>
+      <c r="AK6" s="126"/>
+      <c r="AL6" s="126"/>
       <c r="AM6" s="43"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="44"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="125"/>
-      <c r="T7" s="125"/>
-      <c r="U7" s="125"/>
-      <c r="V7" s="125"/>
-      <c r="W7" s="125"/>
-      <c r="X7" s="125"/>
-      <c r="Y7" s="125"/>
-      <c r="Z7" s="125"/>
-      <c r="AA7" s="125"/>
-      <c r="AB7" s="125"/>
-      <c r="AC7" s="125"/>
-      <c r="AD7" s="125"/>
-      <c r="AE7" s="125"/>
-      <c r="AF7" s="125"/>
-      <c r="AG7" s="125"/>
-      <c r="AH7" s="125"/>
-      <c r="AI7" s="125"/>
-      <c r="AJ7" s="125"/>
-      <c r="AK7" s="125"/>
-      <c r="AL7" s="125"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="126"/>
+      <c r="AF7" s="126"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="126"/>
+      <c r="AJ7" s="126"/>
+      <c r="AK7" s="126"/>
+      <c r="AL7" s="126"/>
       <c r="AM7" s="43"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20890,252 +20897,252 @@
       <c r="AM8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="127" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
-      <c r="O9" s="126"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="126"/>
-      <c r="S9" s="126"/>
-      <c r="T9" s="126"/>
-      <c r="U9" s="126"/>
-      <c r="V9" s="126"/>
-      <c r="W9" s="126"/>
-      <c r="X9" s="126"/>
-      <c r="Y9" s="126"/>
-      <c r="Z9" s="126"/>
-      <c r="AA9" s="126"/>
-      <c r="AB9" s="126"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="126"/>
-      <c r="AE9" s="126"/>
-      <c r="AF9" s="126"/>
-      <c r="AG9" s="126"/>
-      <c r="AH9" s="126"/>
-      <c r="AI9" s="126"/>
-      <c r="AJ9" s="126"/>
-      <c r="AK9" s="126"/>
-      <c r="AL9" s="126"/>
-      <c r="AM9" s="126"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="127"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="127"/>
+      <c r="Y9" s="127"/>
+      <c r="Z9" s="127"/>
+      <c r="AA9" s="127"/>
+      <c r="AB9" s="127"/>
+      <c r="AC9" s="127"/>
+      <c r="AD9" s="127"/>
+      <c r="AE9" s="127"/>
+      <c r="AF9" s="127"/>
+      <c r="AG9" s="127"/>
+      <c r="AH9" s="127"/>
+      <c r="AI9" s="127"/>
+      <c r="AJ9" s="127"/>
+      <c r="AK9" s="127"/>
+      <c r="AL9" s="127"/>
+      <c r="AM9" s="127"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="126"/>
-      <c r="U10" s="126"/>
-      <c r="V10" s="126"/>
-      <c r="W10" s="126"/>
-      <c r="X10" s="126"/>
-      <c r="Y10" s="126"/>
-      <c r="Z10" s="126"/>
-      <c r="AA10" s="126"/>
-      <c r="AB10" s="126"/>
-      <c r="AC10" s="126"/>
-      <c r="AD10" s="126"/>
-      <c r="AE10" s="126"/>
-      <c r="AF10" s="126"/>
-      <c r="AG10" s="126"/>
-      <c r="AH10" s="126"/>
-      <c r="AI10" s="126"/>
-      <c r="AJ10" s="126"/>
-      <c r="AK10" s="126"/>
-      <c r="AL10" s="126"/>
-      <c r="AM10" s="126"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="127"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="127"/>
+      <c r="AA10" s="127"/>
+      <c r="AB10" s="127"/>
+      <c r="AC10" s="127"/>
+      <c r="AD10" s="127"/>
+      <c r="AE10" s="127"/>
+      <c r="AF10" s="127"/>
+      <c r="AG10" s="127"/>
+      <c r="AH10" s="127"/>
+      <c r="AI10" s="127"/>
+      <c r="AJ10" s="127"/>
+      <c r="AK10" s="127"/>
+      <c r="AL10" s="127"/>
+      <c r="AM10" s="127"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
-      <c r="O11" s="126"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="126"/>
-      <c r="R11" s="126"/>
-      <c r="S11" s="126"/>
-      <c r="T11" s="126"/>
-      <c r="U11" s="126"/>
-      <c r="V11" s="126"/>
-      <c r="W11" s="126"/>
-      <c r="X11" s="126"/>
-      <c r="Y11" s="126"/>
-      <c r="Z11" s="126"/>
-      <c r="AA11" s="126"/>
-      <c r="AB11" s="126"/>
-      <c r="AC11" s="126"/>
-      <c r="AD11" s="126"/>
-      <c r="AE11" s="126"/>
-      <c r="AF11" s="126"/>
-      <c r="AG11" s="126"/>
-      <c r="AH11" s="126"/>
-      <c r="AI11" s="126"/>
-      <c r="AJ11" s="126"/>
-      <c r="AK11" s="126"/>
-      <c r="AL11" s="126"/>
-      <c r="AM11" s="126"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="127"/>
+      <c r="O11" s="127"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="127"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="127"/>
+      <c r="T11" s="127"/>
+      <c r="U11" s="127"/>
+      <c r="V11" s="127"/>
+      <c r="W11" s="127"/>
+      <c r="X11" s="127"/>
+      <c r="Y11" s="127"/>
+      <c r="Z11" s="127"/>
+      <c r="AA11" s="127"/>
+      <c r="AB11" s="127"/>
+      <c r="AC11" s="127"/>
+      <c r="AD11" s="127"/>
+      <c r="AE11" s="127"/>
+      <c r="AF11" s="127"/>
+      <c r="AG11" s="127"/>
+      <c r="AH11" s="127"/>
+      <c r="AI11" s="127"/>
+      <c r="AJ11" s="127"/>
+      <c r="AK11" s="127"/>
+      <c r="AL11" s="127"/>
+      <c r="AM11" s="127"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C12" s="86" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="86"/>
-      <c r="E12" s="127" t="s">
+      <c r="E12" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="127"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="127"/>
-      <c r="Q12" s="127"/>
-      <c r="R12" s="127"/>
-      <c r="S12" s="127"/>
-      <c r="T12" s="127"/>
-      <c r="U12" s="127"/>
-      <c r="V12" s="127"/>
-      <c r="W12" s="127"/>
-      <c r="X12" s="127"/>
-      <c r="Y12" s="127"/>
-      <c r="Z12" s="127"/>
-      <c r="AA12" s="127"/>
-      <c r="AB12" s="127"/>
-      <c r="AC12" s="127"/>
-      <c r="AD12" s="127" t="s">
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="128"/>
+      <c r="P12" s="128"/>
+      <c r="Q12" s="128"/>
+      <c r="R12" s="128"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="128"/>
+      <c r="U12" s="128"/>
+      <c r="V12" s="128"/>
+      <c r="W12" s="128"/>
+      <c r="X12" s="128"/>
+      <c r="Y12" s="128"/>
+      <c r="Z12" s="128"/>
+      <c r="AA12" s="128"/>
+      <c r="AB12" s="128"/>
+      <c r="AC12" s="128"/>
+      <c r="AD12" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="AE12" s="127"/>
-      <c r="AF12" s="127"/>
-      <c r="AG12" s="127"/>
-      <c r="AH12" s="127"/>
-      <c r="AI12" s="127"/>
-      <c r="AJ12" s="127"/>
-      <c r="AK12" s="127"/>
-      <c r="AL12" s="127"/>
-      <c r="AM12" s="127"/>
+      <c r="AE12" s="128"/>
+      <c r="AF12" s="128"/>
+      <c r="AG12" s="128"/>
+      <c r="AH12" s="128"/>
+      <c r="AI12" s="128"/>
+      <c r="AJ12" s="128"/>
+      <c r="AK12" s="128"/>
+      <c r="AL12" s="128"/>
+      <c r="AM12" s="128"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C13" s="86"/>
       <c r="D13" s="86"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="127"/>
-      <c r="T13" s="127"/>
-      <c r="U13" s="127"/>
-      <c r="V13" s="127"/>
-      <c r="W13" s="127"/>
-      <c r="X13" s="127"/>
-      <c r="Y13" s="127"/>
-      <c r="Z13" s="127"/>
-      <c r="AA13" s="127"/>
-      <c r="AB13" s="127"/>
-      <c r="AC13" s="127"/>
-      <c r="AD13" s="127"/>
-      <c r="AE13" s="127"/>
-      <c r="AF13" s="127"/>
-      <c r="AG13" s="127"/>
-      <c r="AH13" s="127"/>
-      <c r="AI13" s="127"/>
-      <c r="AJ13" s="127"/>
-      <c r="AK13" s="127"/>
-      <c r="AL13" s="127"/>
-      <c r="AM13" s="127"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="128"/>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="128"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="128"/>
+      <c r="Y13" s="128"/>
+      <c r="Z13" s="128"/>
+      <c r="AA13" s="128"/>
+      <c r="AB13" s="128"/>
+      <c r="AC13" s="128"/>
+      <c r="AD13" s="128"/>
+      <c r="AE13" s="128"/>
+      <c r="AF13" s="128"/>
+      <c r="AG13" s="128"/>
+      <c r="AH13" s="128"/>
+      <c r="AI13" s="128"/>
+      <c r="AJ13" s="128"/>
+      <c r="AK13" s="128"/>
+      <c r="AL13" s="128"/>
+      <c r="AM13" s="128"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C14" s="86"/>
       <c r="D14" s="86"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="127"/>
-      <c r="P14" s="127"/>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="127"/>
-      <c r="S14" s="127"/>
-      <c r="T14" s="127"/>
-      <c r="U14" s="127"/>
-      <c r="V14" s="127"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="127"/>
-      <c r="Z14" s="127"/>
-      <c r="AA14" s="127"/>
-      <c r="AB14" s="127"/>
-      <c r="AC14" s="127"/>
-      <c r="AD14" s="127"/>
-      <c r="AE14" s="127"/>
-      <c r="AF14" s="127"/>
-      <c r="AG14" s="127"/>
-      <c r="AH14" s="127"/>
-      <c r="AI14" s="127"/>
-      <c r="AJ14" s="127"/>
-      <c r="AK14" s="127"/>
-      <c r="AL14" s="127"/>
-      <c r="AM14" s="127"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="128"/>
+      <c r="P14" s="128"/>
+      <c r="Q14" s="128"/>
+      <c r="R14" s="128"/>
+      <c r="S14" s="128"/>
+      <c r="T14" s="128"/>
+      <c r="U14" s="128"/>
+      <c r="V14" s="128"/>
+      <c r="W14" s="128"/>
+      <c r="X14" s="128"/>
+      <c r="Y14" s="128"/>
+      <c r="Z14" s="128"/>
+      <c r="AA14" s="128"/>
+      <c r="AB14" s="128"/>
+      <c r="AC14" s="128"/>
+      <c r="AD14" s="128"/>
+      <c r="AE14" s="128"/>
+      <c r="AF14" s="128"/>
+      <c r="AG14" s="128"/>
+      <c r="AH14" s="128"/>
+      <c r="AI14" s="128"/>
+      <c r="AJ14" s="128"/>
+      <c r="AK14" s="128"/>
+      <c r="AL14" s="128"/>
+      <c r="AM14" s="128"/>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="128" t="n">
+      <c r="C15" s="129" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="128"/>
+      <c r="D15" s="129"/>
       <c r="E15" s="118" t="s">
         <v>100</v>
       </c>
@@ -21163,22 +21170,22 @@
       <c r="AA15" s="118"/>
       <c r="AB15" s="118"/>
       <c r="AC15" s="118"/>
-      <c r="AD15" s="129" t="s">
+      <c r="AD15" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="AE15" s="129"/>
-      <c r="AF15" s="129"/>
-      <c r="AG15" s="129"/>
-      <c r="AH15" s="129"/>
-      <c r="AI15" s="129"/>
-      <c r="AJ15" s="129"/>
-      <c r="AK15" s="129"/>
-      <c r="AL15" s="129"/>
-      <c r="AM15" s="129"/>
+      <c r="AE15" s="130"/>
+      <c r="AF15" s="130"/>
+      <c r="AG15" s="130"/>
+      <c r="AH15" s="130"/>
+      <c r="AI15" s="130"/>
+      <c r="AJ15" s="130"/>
+      <c r="AK15" s="130"/>
+      <c r="AL15" s="130"/>
+      <c r="AM15" s="130"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
       <c r="E16" s="118"/>
       <c r="F16" s="118"/>
       <c r="G16" s="118"/>
@@ -21204,22 +21211,22 @@
       <c r="AA16" s="118"/>
       <c r="AB16" s="118"/>
       <c r="AC16" s="118"/>
-      <c r="AD16" s="129"/>
-      <c r="AE16" s="129"/>
-      <c r="AF16" s="129"/>
-      <c r="AG16" s="129"/>
-      <c r="AH16" s="129"/>
-      <c r="AI16" s="129"/>
-      <c r="AJ16" s="129"/>
-      <c r="AK16" s="129"/>
-      <c r="AL16" s="129"/>
-      <c r="AM16" s="129"/>
+      <c r="AD16" s="130"/>
+      <c r="AE16" s="130"/>
+      <c r="AF16" s="130"/>
+      <c r="AG16" s="130"/>
+      <c r="AH16" s="130"/>
+      <c r="AI16" s="130"/>
+      <c r="AJ16" s="130"/>
+      <c r="AK16" s="130"/>
+      <c r="AL16" s="130"/>
+      <c r="AM16" s="130"/>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C17" s="128" t="n">
+      <c r="C17" s="129" t="n">
         <v>2</v>
       </c>
-      <c r="D17" s="128"/>
+      <c r="D17" s="129"/>
       <c r="E17" s="118" t="s">
         <v>102</v>
       </c>
@@ -21247,22 +21254,22 @@
       <c r="AA17" s="118"/>
       <c r="AB17" s="118"/>
       <c r="AC17" s="118"/>
-      <c r="AD17" s="129" t="s">
+      <c r="AD17" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="AE17" s="129"/>
-      <c r="AF17" s="129"/>
-      <c r="AG17" s="129"/>
-      <c r="AH17" s="129"/>
-      <c r="AI17" s="129"/>
-      <c r="AJ17" s="129"/>
-      <c r="AK17" s="129"/>
-      <c r="AL17" s="129"/>
-      <c r="AM17" s="129"/>
+      <c r="AE17" s="130"/>
+      <c r="AF17" s="130"/>
+      <c r="AG17" s="130"/>
+      <c r="AH17" s="130"/>
+      <c r="AI17" s="130"/>
+      <c r="AJ17" s="130"/>
+      <c r="AK17" s="130"/>
+      <c r="AL17" s="130"/>
+      <c r="AM17" s="130"/>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
       <c r="E18" s="118"/>
       <c r="F18" s="118"/>
       <c r="G18" s="118"/>
@@ -21288,20 +21295,20 @@
       <c r="AA18" s="118"/>
       <c r="AB18" s="118"/>
       <c r="AC18" s="118"/>
-      <c r="AD18" s="129"/>
-      <c r="AE18" s="129"/>
-      <c r="AF18" s="129"/>
-      <c r="AG18" s="129"/>
-      <c r="AH18" s="129"/>
-      <c r="AI18" s="129"/>
-      <c r="AJ18" s="129"/>
-      <c r="AK18" s="129"/>
-      <c r="AL18" s="129"/>
-      <c r="AM18" s="129"/>
+      <c r="AD18" s="130"/>
+      <c r="AE18" s="130"/>
+      <c r="AF18" s="130"/>
+      <c r="AG18" s="130"/>
+      <c r="AH18" s="130"/>
+      <c r="AI18" s="130"/>
+      <c r="AJ18" s="130"/>
+      <c r="AK18" s="130"/>
+      <c r="AL18" s="130"/>
+      <c r="AM18" s="130"/>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
       <c r="E19" s="118"/>
       <c r="F19" s="118"/>
       <c r="G19" s="118"/>
@@ -21327,20 +21334,20 @@
       <c r="AA19" s="118"/>
       <c r="AB19" s="118"/>
       <c r="AC19" s="118"/>
-      <c r="AD19" s="129"/>
-      <c r="AE19" s="129"/>
-      <c r="AF19" s="129"/>
-      <c r="AG19" s="129"/>
-      <c r="AH19" s="129"/>
-      <c r="AI19" s="129"/>
-      <c r="AJ19" s="129"/>
-      <c r="AK19" s="129"/>
-      <c r="AL19" s="129"/>
-      <c r="AM19" s="129"/>
+      <c r="AD19" s="130"/>
+      <c r="AE19" s="130"/>
+      <c r="AF19" s="130"/>
+      <c r="AG19" s="130"/>
+      <c r="AH19" s="130"/>
+      <c r="AI19" s="130"/>
+      <c r="AJ19" s="130"/>
+      <c r="AK19" s="130"/>
+      <c r="AL19" s="130"/>
+      <c r="AM19" s="130"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
       <c r="E20" s="118"/>
       <c r="F20" s="118"/>
       <c r="G20" s="118"/>
@@ -21366,22 +21373,22 @@
       <c r="AA20" s="118"/>
       <c r="AB20" s="118"/>
       <c r="AC20" s="118"/>
-      <c r="AD20" s="129"/>
-      <c r="AE20" s="129"/>
-      <c r="AF20" s="129"/>
-      <c r="AG20" s="129"/>
-      <c r="AH20" s="129"/>
-      <c r="AI20" s="129"/>
-      <c r="AJ20" s="129"/>
-      <c r="AK20" s="129"/>
-      <c r="AL20" s="129"/>
-      <c r="AM20" s="129"/>
+      <c r="AD20" s="130"/>
+      <c r="AE20" s="130"/>
+      <c r="AF20" s="130"/>
+      <c r="AG20" s="130"/>
+      <c r="AH20" s="130"/>
+      <c r="AI20" s="130"/>
+      <c r="AJ20" s="130"/>
+      <c r="AK20" s="130"/>
+      <c r="AL20" s="130"/>
+      <c r="AM20" s="130"/>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="128" t="n">
+      <c r="C21" s="129" t="n">
         <v>3</v>
       </c>
-      <c r="D21" s="128"/>
+      <c r="D21" s="129"/>
       <c r="E21" s="118" t="s">
         <v>104</v>
       </c>
@@ -21409,22 +21416,22 @@
       <c r="AA21" s="118"/>
       <c r="AB21" s="118"/>
       <c r="AC21" s="118"/>
-      <c r="AD21" s="129" t="s">
+      <c r="AD21" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="AE21" s="129"/>
-      <c r="AF21" s="129"/>
-      <c r="AG21" s="129"/>
-      <c r="AH21" s="129"/>
-      <c r="AI21" s="129"/>
-      <c r="AJ21" s="129"/>
-      <c r="AK21" s="129"/>
-      <c r="AL21" s="129"/>
-      <c r="AM21" s="129"/>
+      <c r="AE21" s="130"/>
+      <c r="AF21" s="130"/>
+      <c r="AG21" s="130"/>
+      <c r="AH21" s="130"/>
+      <c r="AI21" s="130"/>
+      <c r="AJ21" s="130"/>
+      <c r="AK21" s="130"/>
+      <c r="AL21" s="130"/>
+      <c r="AM21" s="130"/>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
       <c r="E22" s="118"/>
       <c r="F22" s="118"/>
       <c r="G22" s="118"/>
@@ -21450,20 +21457,20 @@
       <c r="AA22" s="118"/>
       <c r="AB22" s="118"/>
       <c r="AC22" s="118"/>
-      <c r="AD22" s="129"/>
-      <c r="AE22" s="129"/>
-      <c r="AF22" s="129"/>
-      <c r="AG22" s="129"/>
-      <c r="AH22" s="129"/>
-      <c r="AI22" s="129"/>
-      <c r="AJ22" s="129"/>
-      <c r="AK22" s="129"/>
-      <c r="AL22" s="129"/>
-      <c r="AM22" s="129"/>
+      <c r="AD22" s="130"/>
+      <c r="AE22" s="130"/>
+      <c r="AF22" s="130"/>
+      <c r="AG22" s="130"/>
+      <c r="AH22" s="130"/>
+      <c r="AI22" s="130"/>
+      <c r="AJ22" s="130"/>
+      <c r="AK22" s="130"/>
+      <c r="AL22" s="130"/>
+      <c r="AM22" s="130"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
       <c r="E23" s="118"/>
       <c r="F23" s="118"/>
       <c r="G23" s="118"/>
@@ -21489,20 +21496,20 @@
       <c r="AA23" s="118"/>
       <c r="AB23" s="118"/>
       <c r="AC23" s="118"/>
-      <c r="AD23" s="129"/>
-      <c r="AE23" s="129"/>
-      <c r="AF23" s="129"/>
-      <c r="AG23" s="129"/>
-      <c r="AH23" s="129"/>
-      <c r="AI23" s="129"/>
-      <c r="AJ23" s="129"/>
-      <c r="AK23" s="129"/>
-      <c r="AL23" s="129"/>
-      <c r="AM23" s="129"/>
+      <c r="AD23" s="130"/>
+      <c r="AE23" s="130"/>
+      <c r="AF23" s="130"/>
+      <c r="AG23" s="130"/>
+      <c r="AH23" s="130"/>
+      <c r="AI23" s="130"/>
+      <c r="AJ23" s="130"/>
+      <c r="AK23" s="130"/>
+      <c r="AL23" s="130"/>
+      <c r="AM23" s="130"/>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
       <c r="E24" s="118"/>
       <c r="F24" s="118"/>
       <c r="G24" s="118"/>
@@ -21528,20 +21535,20 @@
       <c r="AA24" s="118"/>
       <c r="AB24" s="118"/>
       <c r="AC24" s="118"/>
-      <c r="AD24" s="129"/>
-      <c r="AE24" s="129"/>
-      <c r="AF24" s="129"/>
-      <c r="AG24" s="129"/>
-      <c r="AH24" s="129"/>
-      <c r="AI24" s="129"/>
-      <c r="AJ24" s="129"/>
-      <c r="AK24" s="129"/>
-      <c r="AL24" s="129"/>
-      <c r="AM24" s="129"/>
+      <c r="AD24" s="130"/>
+      <c r="AE24" s="130"/>
+      <c r="AF24" s="130"/>
+      <c r="AG24" s="130"/>
+      <c r="AH24" s="130"/>
+      <c r="AI24" s="130"/>
+      <c r="AJ24" s="130"/>
+      <c r="AK24" s="130"/>
+      <c r="AL24" s="130"/>
+      <c r="AM24" s="130"/>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
       <c r="E25" s="118"/>
       <c r="F25" s="118"/>
       <c r="G25" s="118"/>
@@ -21567,22 +21574,22 @@
       <c r="AA25" s="118"/>
       <c r="AB25" s="118"/>
       <c r="AC25" s="118"/>
-      <c r="AD25" s="129"/>
-      <c r="AE25" s="129"/>
-      <c r="AF25" s="129"/>
-      <c r="AG25" s="129"/>
-      <c r="AH25" s="129"/>
-      <c r="AI25" s="129"/>
-      <c r="AJ25" s="129"/>
-      <c r="AK25" s="129"/>
-      <c r="AL25" s="129"/>
-      <c r="AM25" s="129"/>
+      <c r="AD25" s="130"/>
+      <c r="AE25" s="130"/>
+      <c r="AF25" s="130"/>
+      <c r="AG25" s="130"/>
+      <c r="AH25" s="130"/>
+      <c r="AI25" s="130"/>
+      <c r="AJ25" s="130"/>
+      <c r="AK25" s="130"/>
+      <c r="AL25" s="130"/>
+      <c r="AM25" s="130"/>
     </row>
     <row r="26" customFormat="false" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="128" t="n">
+      <c r="C26" s="129" t="n">
         <v>4</v>
       </c>
-      <c r="D26" s="128"/>
+      <c r="D26" s="129"/>
       <c r="E26" s="118" t="s">
         <v>106</v>
       </c>
@@ -21610,22 +21617,22 @@
       <c r="AA26" s="118"/>
       <c r="AB26" s="118"/>
       <c r="AC26" s="118"/>
-      <c r="AD26" s="129" t="s">
+      <c r="AD26" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="AE26" s="129"/>
-      <c r="AF26" s="129"/>
-      <c r="AG26" s="129"/>
-      <c r="AH26" s="129"/>
-      <c r="AI26" s="129"/>
-      <c r="AJ26" s="129"/>
-      <c r="AK26" s="129"/>
-      <c r="AL26" s="129"/>
-      <c r="AM26" s="129"/>
+      <c r="AE26" s="130"/>
+      <c r="AF26" s="130"/>
+      <c r="AG26" s="130"/>
+      <c r="AH26" s="130"/>
+      <c r="AI26" s="130"/>
+      <c r="AJ26" s="130"/>
+      <c r="AK26" s="130"/>
+      <c r="AL26" s="130"/>
+      <c r="AM26" s="130"/>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
       <c r="E27" s="118"/>
       <c r="F27" s="118"/>
       <c r="G27" s="118"/>
@@ -21651,20 +21658,20 @@
       <c r="AA27" s="118"/>
       <c r="AB27" s="118"/>
       <c r="AC27" s="118"/>
-      <c r="AD27" s="129"/>
-      <c r="AE27" s="129"/>
-      <c r="AF27" s="129"/>
-      <c r="AG27" s="129"/>
-      <c r="AH27" s="129"/>
-      <c r="AI27" s="129"/>
-      <c r="AJ27" s="129"/>
-      <c r="AK27" s="129"/>
-      <c r="AL27" s="129"/>
-      <c r="AM27" s="129"/>
+      <c r="AD27" s="130"/>
+      <c r="AE27" s="130"/>
+      <c r="AF27" s="130"/>
+      <c r="AG27" s="130"/>
+      <c r="AH27" s="130"/>
+      <c r="AI27" s="130"/>
+      <c r="AJ27" s="130"/>
+      <c r="AK27" s="130"/>
+      <c r="AL27" s="130"/>
+      <c r="AM27" s="130"/>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
       <c r="E28" s="118"/>
       <c r="F28" s="118"/>
       <c r="G28" s="118"/>
@@ -21690,24 +21697,24 @@
       <c r="AA28" s="118"/>
       <c r="AB28" s="118"/>
       <c r="AC28" s="118"/>
-      <c r="AD28" s="129"/>
-      <c r="AE28" s="129"/>
-      <c r="AF28" s="129"/>
-      <c r="AG28" s="129"/>
-      <c r="AH28" s="129"/>
-      <c r="AI28" s="129"/>
-      <c r="AJ28" s="129"/>
-      <c r="AK28" s="129"/>
-      <c r="AL28" s="129"/>
-      <c r="AM28" s="129"/>
+      <c r="AD28" s="130"/>
+      <c r="AE28" s="130"/>
+      <c r="AF28" s="130"/>
+      <c r="AG28" s="130"/>
+      <c r="AH28" s="130"/>
+      <c r="AI28" s="130"/>
+      <c r="AJ28" s="130"/>
+      <c r="AK28" s="130"/>
+      <c r="AL28" s="130"/>
+      <c r="AM28" s="130"/>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="50"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
       <c r="E29" s="118"/>
       <c r="F29" s="118"/>
       <c r="G29" s="118"/>
@@ -21733,22 +21740,22 @@
       <c r="AA29" s="118"/>
       <c r="AB29" s="118"/>
       <c r="AC29" s="118"/>
-      <c r="AD29" s="129"/>
-      <c r="AE29" s="129"/>
-      <c r="AF29" s="129"/>
-      <c r="AG29" s="129"/>
-      <c r="AH29" s="129"/>
-      <c r="AI29" s="129"/>
-      <c r="AJ29" s="129"/>
-      <c r="AK29" s="129"/>
-      <c r="AL29" s="129"/>
-      <c r="AM29" s="129"/>
+      <c r="AD29" s="130"/>
+      <c r="AE29" s="130"/>
+      <c r="AF29" s="130"/>
+      <c r="AG29" s="130"/>
+      <c r="AH29" s="130"/>
+      <c r="AI29" s="130"/>
+      <c r="AJ29" s="130"/>
+      <c r="AK29" s="130"/>
+      <c r="AL29" s="130"/>
+      <c r="AM29" s="130"/>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="128"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
       <c r="E30" s="118"/>
       <c r="F30" s="118"/>
       <c r="G30" s="118"/>
@@ -21774,22 +21781,22 @@
       <c r="AA30" s="118"/>
       <c r="AB30" s="118"/>
       <c r="AC30" s="118"/>
-      <c r="AD30" s="129"/>
-      <c r="AE30" s="129"/>
-      <c r="AF30" s="129"/>
-      <c r="AG30" s="129"/>
-      <c r="AH30" s="129"/>
-      <c r="AI30" s="129"/>
-      <c r="AJ30" s="129"/>
-      <c r="AK30" s="129"/>
-      <c r="AL30" s="129"/>
-      <c r="AM30" s="129"/>
+      <c r="AD30" s="130"/>
+      <c r="AE30" s="130"/>
+      <c r="AF30" s="130"/>
+      <c r="AG30" s="130"/>
+      <c r="AH30" s="130"/>
+      <c r="AI30" s="130"/>
+      <c r="AJ30" s="130"/>
+      <c r="AK30" s="130"/>
+      <c r="AL30" s="130"/>
+      <c r="AM30" s="130"/>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="128"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
       <c r="E31" s="118"/>
       <c r="F31" s="118"/>
       <c r="G31" s="118"/>
@@ -21815,24 +21822,24 @@
       <c r="AA31" s="118"/>
       <c r="AB31" s="118"/>
       <c r="AC31" s="118"/>
-      <c r="AD31" s="129"/>
-      <c r="AE31" s="129"/>
-      <c r="AF31" s="129"/>
-      <c r="AG31" s="129"/>
-      <c r="AH31" s="129"/>
-      <c r="AI31" s="129"/>
-      <c r="AJ31" s="129"/>
-      <c r="AK31" s="129"/>
-      <c r="AL31" s="129"/>
-      <c r="AM31" s="129"/>
+      <c r="AD31" s="130"/>
+      <c r="AE31" s="130"/>
+      <c r="AF31" s="130"/>
+      <c r="AG31" s="130"/>
+      <c r="AH31" s="130"/>
+      <c r="AI31" s="130"/>
+      <c r="AJ31" s="130"/>
+      <c r="AK31" s="130"/>
+      <c r="AL31" s="130"/>
+      <c r="AM31" s="130"/>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
-      <c r="C32" s="128" t="n">
+      <c r="C32" s="129" t="n">
         <v>5</v>
       </c>
-      <c r="D32" s="128"/>
+      <c r="D32" s="129"/>
       <c r="E32" s="118" t="s">
         <v>108</v>
       </c>
@@ -21860,24 +21867,24 @@
       <c r="AA32" s="118"/>
       <c r="AB32" s="118"/>
       <c r="AC32" s="118"/>
-      <c r="AD32" s="129" t="s">
+      <c r="AD32" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="AE32" s="129"/>
-      <c r="AF32" s="129"/>
-      <c r="AG32" s="129"/>
-      <c r="AH32" s="129"/>
-      <c r="AI32" s="129"/>
-      <c r="AJ32" s="129"/>
-      <c r="AK32" s="129"/>
-      <c r="AL32" s="129"/>
-      <c r="AM32" s="129"/>
+      <c r="AE32" s="130"/>
+      <c r="AF32" s="130"/>
+      <c r="AG32" s="130"/>
+      <c r="AH32" s="130"/>
+      <c r="AI32" s="130"/>
+      <c r="AJ32" s="130"/>
+      <c r="AK32" s="130"/>
+      <c r="AL32" s="130"/>
+      <c r="AM32" s="130"/>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="128"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
       <c r="E33" s="118"/>
       <c r="F33" s="118"/>
       <c r="G33" s="118"/>
@@ -21903,22 +21910,22 @@
       <c r="AA33" s="118"/>
       <c r="AB33" s="118"/>
       <c r="AC33" s="118"/>
-      <c r="AD33" s="129"/>
-      <c r="AE33" s="129"/>
-      <c r="AF33" s="129"/>
-      <c r="AG33" s="129"/>
-      <c r="AH33" s="129"/>
-      <c r="AI33" s="129"/>
-      <c r="AJ33" s="129"/>
-      <c r="AK33" s="129"/>
-      <c r="AL33" s="129"/>
-      <c r="AM33" s="129"/>
+      <c r="AD33" s="130"/>
+      <c r="AE33" s="130"/>
+      <c r="AF33" s="130"/>
+      <c r="AG33" s="130"/>
+      <c r="AH33" s="130"/>
+      <c r="AI33" s="130"/>
+      <c r="AJ33" s="130"/>
+      <c r="AK33" s="130"/>
+      <c r="AL33" s="130"/>
+      <c r="AM33" s="130"/>
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
-      <c r="C34" s="128"/>
-      <c r="D34" s="128"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
       <c r="E34" s="118"/>
       <c r="F34" s="118"/>
       <c r="G34" s="118"/>
@@ -21944,22 +21951,22 @@
       <c r="AA34" s="118"/>
       <c r="AB34" s="118"/>
       <c r="AC34" s="118"/>
-      <c r="AD34" s="129"/>
-      <c r="AE34" s="129"/>
-      <c r="AF34" s="129"/>
-      <c r="AG34" s="129"/>
-      <c r="AH34" s="129"/>
-      <c r="AI34" s="129"/>
-      <c r="AJ34" s="129"/>
-      <c r="AK34" s="129"/>
-      <c r="AL34" s="129"/>
-      <c r="AM34" s="129"/>
+      <c r="AD34" s="130"/>
+      <c r="AE34" s="130"/>
+      <c r="AF34" s="130"/>
+      <c r="AG34" s="130"/>
+      <c r="AH34" s="130"/>
+      <c r="AI34" s="130"/>
+      <c r="AJ34" s="130"/>
+      <c r="AK34" s="130"/>
+      <c r="AL34" s="130"/>
+      <c r="AM34" s="130"/>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="128"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
       <c r="E35" s="118"/>
       <c r="F35" s="118"/>
       <c r="G35" s="118"/>
@@ -21985,26 +21992,26 @@
       <c r="AA35" s="118"/>
       <c r="AB35" s="118"/>
       <c r="AC35" s="118"/>
-      <c r="AD35" s="129"/>
-      <c r="AE35" s="129"/>
-      <c r="AF35" s="129"/>
-      <c r="AG35" s="129"/>
-      <c r="AH35" s="129"/>
-      <c r="AI35" s="129"/>
-      <c r="AJ35" s="129"/>
-      <c r="AK35" s="129"/>
-      <c r="AL35" s="129"/>
-      <c r="AM35" s="129"/>
+      <c r="AD35" s="130"/>
+      <c r="AE35" s="130"/>
+      <c r="AF35" s="130"/>
+      <c r="AG35" s="130"/>
+      <c r="AH35" s="130"/>
+      <c r="AI35" s="130"/>
+      <c r="AJ35" s="130"/>
+      <c r="AK35" s="130"/>
+      <c r="AL35" s="130"/>
+      <c r="AM35" s="130"/>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="50"/>
-      <c r="C36" s="128" t="n">
+      <c r="C36" s="129" t="n">
         <v>6</v>
       </c>
-      <c r="D36" s="128"/>
+      <c r="D36" s="129"/>
       <c r="E36" s="118" t="s">
         <v>110</v>
       </c>
@@ -22032,24 +22039,24 @@
       <c r="AA36" s="118"/>
       <c r="AB36" s="118"/>
       <c r="AC36" s="118"/>
-      <c r="AD36" s="129" t="s">
+      <c r="AD36" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="AE36" s="129"/>
-      <c r="AF36" s="129"/>
-      <c r="AG36" s="129"/>
-      <c r="AH36" s="129"/>
-      <c r="AI36" s="129"/>
-      <c r="AJ36" s="129"/>
-      <c r="AK36" s="129"/>
-      <c r="AL36" s="129"/>
-      <c r="AM36" s="129"/>
+      <c r="AE36" s="130"/>
+      <c r="AF36" s="130"/>
+      <c r="AG36" s="130"/>
+      <c r="AH36" s="130"/>
+      <c r="AI36" s="130"/>
+      <c r="AJ36" s="130"/>
+      <c r="AK36" s="130"/>
+      <c r="AL36" s="130"/>
+      <c r="AM36" s="130"/>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="128"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
       <c r="E37" s="118"/>
       <c r="F37" s="118"/>
       <c r="G37" s="118"/>
@@ -22075,22 +22082,22 @@
       <c r="AA37" s="118"/>
       <c r="AB37" s="118"/>
       <c r="AC37" s="118"/>
-      <c r="AD37" s="129"/>
-      <c r="AE37" s="129"/>
-      <c r="AF37" s="129"/>
-      <c r="AG37" s="129"/>
-      <c r="AH37" s="129"/>
-      <c r="AI37" s="129"/>
-      <c r="AJ37" s="129"/>
-      <c r="AK37" s="129"/>
-      <c r="AL37" s="129"/>
-      <c r="AM37" s="129"/>
+      <c r="AD37" s="130"/>
+      <c r="AE37" s="130"/>
+      <c r="AF37" s="130"/>
+      <c r="AG37" s="130"/>
+      <c r="AH37" s="130"/>
+      <c r="AI37" s="130"/>
+      <c r="AJ37" s="130"/>
+      <c r="AK37" s="130"/>
+      <c r="AL37" s="130"/>
+      <c r="AM37" s="130"/>
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
-      <c r="C38" s="128"/>
-      <c r="D38" s="128"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
       <c r="E38" s="118"/>
       <c r="F38" s="118"/>
       <c r="G38" s="118"/>
@@ -22116,24 +22123,24 @@
       <c r="AA38" s="118"/>
       <c r="AB38" s="118"/>
       <c r="AC38" s="118"/>
-      <c r="AD38" s="129"/>
-      <c r="AE38" s="129"/>
-      <c r="AF38" s="129"/>
-      <c r="AG38" s="129"/>
-      <c r="AH38" s="129"/>
-      <c r="AI38" s="129"/>
-      <c r="AJ38" s="129"/>
-      <c r="AK38" s="129"/>
-      <c r="AL38" s="129"/>
-      <c r="AM38" s="129"/>
+      <c r="AD38" s="130"/>
+      <c r="AE38" s="130"/>
+      <c r="AF38" s="130"/>
+      <c r="AG38" s="130"/>
+      <c r="AH38" s="130"/>
+      <c r="AI38" s="130"/>
+      <c r="AJ38" s="130"/>
+      <c r="AK38" s="130"/>
+      <c r="AL38" s="130"/>
+      <c r="AM38" s="130"/>
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
-      <c r="C39" s="128" t="n">
+      <c r="C39" s="129" t="n">
         <v>7</v>
       </c>
-      <c r="D39" s="128"/>
+      <c r="D39" s="129"/>
       <c r="E39" s="118" t="s">
         <v>112</v>
       </c>
@@ -22161,24 +22168,24 @@
       <c r="AA39" s="118"/>
       <c r="AB39" s="118"/>
       <c r="AC39" s="118"/>
-      <c r="AD39" s="129" t="s">
+      <c r="AD39" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="AE39" s="129"/>
-      <c r="AF39" s="129"/>
-      <c r="AG39" s="129"/>
-      <c r="AH39" s="129"/>
-      <c r="AI39" s="129"/>
-      <c r="AJ39" s="129"/>
-      <c r="AK39" s="129"/>
-      <c r="AL39" s="129"/>
-      <c r="AM39" s="129"/>
+      <c r="AE39" s="130"/>
+      <c r="AF39" s="130"/>
+      <c r="AG39" s="130"/>
+      <c r="AH39" s="130"/>
+      <c r="AI39" s="130"/>
+      <c r="AJ39" s="130"/>
+      <c r="AK39" s="130"/>
+      <c r="AL39" s="130"/>
+      <c r="AM39" s="130"/>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
       <c r="B40" s="50"/>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="129"/>
       <c r="E40" s="118"/>
       <c r="F40" s="118"/>
       <c r="G40" s="118"/>
@@ -22204,24 +22211,24 @@
       <c r="AA40" s="118"/>
       <c r="AB40" s="118"/>
       <c r="AC40" s="118"/>
-      <c r="AD40" s="129"/>
-      <c r="AE40" s="129"/>
-      <c r="AF40" s="129"/>
-      <c r="AG40" s="129"/>
-      <c r="AH40" s="129"/>
-      <c r="AI40" s="129"/>
-      <c r="AJ40" s="129"/>
-      <c r="AK40" s="129"/>
-      <c r="AL40" s="129"/>
-      <c r="AM40" s="129"/>
+      <c r="AD40" s="130"/>
+      <c r="AE40" s="130"/>
+      <c r="AF40" s="130"/>
+      <c r="AG40" s="130"/>
+      <c r="AH40" s="130"/>
+      <c r="AI40" s="130"/>
+      <c r="AJ40" s="130"/>
+      <c r="AK40" s="130"/>
+      <c r="AL40" s="130"/>
+      <c r="AM40" s="130"/>
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="50"/>
-      <c r="C41" s="128"/>
-      <c r="D41" s="128"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="129"/>
       <c r="E41" s="118"/>
       <c r="F41" s="118"/>
       <c r="G41" s="118"/>
@@ -22247,22 +22254,22 @@
       <c r="AA41" s="118"/>
       <c r="AB41" s="118"/>
       <c r="AC41" s="118"/>
-      <c r="AD41" s="129"/>
-      <c r="AE41" s="129"/>
-      <c r="AF41" s="129"/>
-      <c r="AG41" s="129"/>
-      <c r="AH41" s="129"/>
-      <c r="AI41" s="129"/>
-      <c r="AJ41" s="129"/>
-      <c r="AK41" s="129"/>
-      <c r="AL41" s="129"/>
-      <c r="AM41" s="129"/>
+      <c r="AD41" s="130"/>
+      <c r="AE41" s="130"/>
+      <c r="AF41" s="130"/>
+      <c r="AG41" s="130"/>
+      <c r="AH41" s="130"/>
+      <c r="AI41" s="130"/>
+      <c r="AJ41" s="130"/>
+      <c r="AK41" s="130"/>
+      <c r="AL41" s="130"/>
+      <c r="AM41" s="130"/>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49"/>
       <c r="B42" s="50"/>
-      <c r="C42" s="128"/>
-      <c r="D42" s="128"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="129"/>
       <c r="E42" s="118"/>
       <c r="F42" s="118"/>
       <c r="G42" s="118"/>
@@ -22288,24 +22295,24 @@
       <c r="AA42" s="118"/>
       <c r="AB42" s="118"/>
       <c r="AC42" s="118"/>
-      <c r="AD42" s="129"/>
-      <c r="AE42" s="129"/>
-      <c r="AF42" s="129"/>
-      <c r="AG42" s="129"/>
-      <c r="AH42" s="129"/>
-      <c r="AI42" s="129"/>
-      <c r="AJ42" s="129"/>
-      <c r="AK42" s="129"/>
-      <c r="AL42" s="129"/>
-      <c r="AM42" s="129"/>
+      <c r="AD42" s="130"/>
+      <c r="AE42" s="130"/>
+      <c r="AF42" s="130"/>
+      <c r="AG42" s="130"/>
+      <c r="AH42" s="130"/>
+      <c r="AI42" s="130"/>
+      <c r="AJ42" s="130"/>
+      <c r="AK42" s="130"/>
+      <c r="AL42" s="130"/>
+      <c r="AM42" s="130"/>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="49"/>
       <c r="B43" s="50"/>
-      <c r="C43" s="128" t="n">
+      <c r="C43" s="129" t="n">
         <v>8</v>
       </c>
-      <c r="D43" s="128"/>
+      <c r="D43" s="129"/>
       <c r="E43" s="118" t="s">
         <v>114</v>
       </c>
@@ -22333,24 +22340,24 @@
       <c r="AA43" s="118"/>
       <c r="AB43" s="118"/>
       <c r="AC43" s="118"/>
-      <c r="AD43" s="129" t="s">
+      <c r="AD43" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="AE43" s="129"/>
-      <c r="AF43" s="129"/>
-      <c r="AG43" s="129"/>
-      <c r="AH43" s="129"/>
-      <c r="AI43" s="129"/>
-      <c r="AJ43" s="129"/>
-      <c r="AK43" s="129"/>
-      <c r="AL43" s="129"/>
-      <c r="AM43" s="129"/>
+      <c r="AE43" s="130"/>
+      <c r="AF43" s="130"/>
+      <c r="AG43" s="130"/>
+      <c r="AH43" s="130"/>
+      <c r="AI43" s="130"/>
+      <c r="AJ43" s="130"/>
+      <c r="AK43" s="130"/>
+      <c r="AL43" s="130"/>
+      <c r="AM43" s="130"/>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="49"/>
       <c r="B44" s="50"/>
-      <c r="C44" s="128"/>
-      <c r="D44" s="128"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="129"/>
       <c r="E44" s="118"/>
       <c r="F44" s="118"/>
       <c r="G44" s="118"/>
@@ -22376,22 +22383,22 @@
       <c r="AA44" s="118"/>
       <c r="AB44" s="118"/>
       <c r="AC44" s="118"/>
-      <c r="AD44" s="129"/>
-      <c r="AE44" s="129"/>
-      <c r="AF44" s="129"/>
-      <c r="AG44" s="129"/>
-      <c r="AH44" s="129"/>
-      <c r="AI44" s="129"/>
-      <c r="AJ44" s="129"/>
-      <c r="AK44" s="129"/>
-      <c r="AL44" s="129"/>
-      <c r="AM44" s="129"/>
+      <c r="AD44" s="130"/>
+      <c r="AE44" s="130"/>
+      <c r="AF44" s="130"/>
+      <c r="AG44" s="130"/>
+      <c r="AH44" s="130"/>
+      <c r="AI44" s="130"/>
+      <c r="AJ44" s="130"/>
+      <c r="AK44" s="130"/>
+      <c r="AL44" s="130"/>
+      <c r="AM44" s="130"/>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="49"/>
       <c r="B45" s="50"/>
-      <c r="C45" s="128"/>
-      <c r="D45" s="128"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="129"/>
       <c r="E45" s="118"/>
       <c r="F45" s="118"/>
       <c r="G45" s="118"/>
@@ -22417,26 +22424,26 @@
       <c r="AA45" s="118"/>
       <c r="AB45" s="118"/>
       <c r="AC45" s="118"/>
-      <c r="AD45" s="129"/>
-      <c r="AE45" s="129"/>
-      <c r="AF45" s="129"/>
-      <c r="AG45" s="129"/>
-      <c r="AH45" s="129"/>
-      <c r="AI45" s="129"/>
-      <c r="AJ45" s="129"/>
-      <c r="AK45" s="129"/>
-      <c r="AL45" s="129"/>
-      <c r="AM45" s="129"/>
+      <c r="AD45" s="130"/>
+      <c r="AE45" s="130"/>
+      <c r="AF45" s="130"/>
+      <c r="AG45" s="130"/>
+      <c r="AH45" s="130"/>
+      <c r="AI45" s="130"/>
+      <c r="AJ45" s="130"/>
+      <c r="AK45" s="130"/>
+      <c r="AL45" s="130"/>
+      <c r="AM45" s="130"/>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="50"/>
-      <c r="C46" s="128" t="n">
+      <c r="C46" s="129" t="n">
         <v>9</v>
       </c>
-      <c r="D46" s="128"/>
+      <c r="D46" s="129"/>
       <c r="E46" s="118" t="s">
         <v>116</v>
       </c>
@@ -22464,24 +22471,24 @@
       <c r="AA46" s="118"/>
       <c r="AB46" s="118"/>
       <c r="AC46" s="118"/>
-      <c r="AD46" s="129" t="s">
+      <c r="AD46" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="AE46" s="129"/>
-      <c r="AF46" s="129"/>
-      <c r="AG46" s="129"/>
-      <c r="AH46" s="129"/>
-      <c r="AI46" s="129"/>
-      <c r="AJ46" s="129"/>
-      <c r="AK46" s="129"/>
-      <c r="AL46" s="129"/>
-      <c r="AM46" s="129"/>
+      <c r="AE46" s="130"/>
+      <c r="AF46" s="130"/>
+      <c r="AG46" s="130"/>
+      <c r="AH46" s="130"/>
+      <c r="AI46" s="130"/>
+      <c r="AJ46" s="130"/>
+      <c r="AK46" s="130"/>
+      <c r="AL46" s="130"/>
+      <c r="AM46" s="130"/>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="49"/>
       <c r="B47" s="50"/>
-      <c r="C47" s="128"/>
-      <c r="D47" s="128"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="129"/>
       <c r="E47" s="118"/>
       <c r="F47" s="118"/>
       <c r="G47" s="118"/>
@@ -22507,22 +22514,22 @@
       <c r="AA47" s="118"/>
       <c r="AB47" s="118"/>
       <c r="AC47" s="118"/>
-      <c r="AD47" s="129"/>
-      <c r="AE47" s="129"/>
-      <c r="AF47" s="129"/>
-      <c r="AG47" s="129"/>
-      <c r="AH47" s="129"/>
-      <c r="AI47" s="129"/>
-      <c r="AJ47" s="129"/>
-      <c r="AK47" s="129"/>
-      <c r="AL47" s="129"/>
-      <c r="AM47" s="129"/>
+      <c r="AD47" s="130"/>
+      <c r="AE47" s="130"/>
+      <c r="AF47" s="130"/>
+      <c r="AG47" s="130"/>
+      <c r="AH47" s="130"/>
+      <c r="AI47" s="130"/>
+      <c r="AJ47" s="130"/>
+      <c r="AK47" s="130"/>
+      <c r="AL47" s="130"/>
+      <c r="AM47" s="130"/>
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="49"/>
       <c r="B48" s="50"/>
-      <c r="C48" s="128"/>
-      <c r="D48" s="128"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
       <c r="E48" s="118"/>
       <c r="F48" s="118"/>
       <c r="G48" s="118"/>
@@ -22548,22 +22555,22 @@
       <c r="AA48" s="118"/>
       <c r="AB48" s="118"/>
       <c r="AC48" s="118"/>
-      <c r="AD48" s="129"/>
-      <c r="AE48" s="129"/>
-      <c r="AF48" s="129"/>
-      <c r="AG48" s="129"/>
-      <c r="AH48" s="129"/>
-      <c r="AI48" s="129"/>
-      <c r="AJ48" s="129"/>
-      <c r="AK48" s="129"/>
-      <c r="AL48" s="129"/>
-      <c r="AM48" s="129"/>
+      <c r="AD48" s="130"/>
+      <c r="AE48" s="130"/>
+      <c r="AF48" s="130"/>
+      <c r="AG48" s="130"/>
+      <c r="AH48" s="130"/>
+      <c r="AI48" s="130"/>
+      <c r="AJ48" s="130"/>
+      <c r="AK48" s="130"/>
+      <c r="AL48" s="130"/>
+      <c r="AM48" s="130"/>
     </row>
     <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="49"/>
       <c r="B49" s="50"/>
-      <c r="C49" s="128"/>
-      <c r="D49" s="128"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
       <c r="E49" s="118"/>
       <c r="F49" s="118"/>
       <c r="G49" s="118"/>
@@ -22589,24 +22596,24 @@
       <c r="AA49" s="118"/>
       <c r="AB49" s="118"/>
       <c r="AC49" s="118"/>
-      <c r="AD49" s="129"/>
-      <c r="AE49" s="129"/>
-      <c r="AF49" s="129"/>
-      <c r="AG49" s="129"/>
-      <c r="AH49" s="129"/>
-      <c r="AI49" s="129"/>
-      <c r="AJ49" s="129"/>
-      <c r="AK49" s="129"/>
-      <c r="AL49" s="129"/>
-      <c r="AM49" s="129"/>
+      <c r="AD49" s="130"/>
+      <c r="AE49" s="130"/>
+      <c r="AF49" s="130"/>
+      <c r="AG49" s="130"/>
+      <c r="AH49" s="130"/>
+      <c r="AI49" s="130"/>
+      <c r="AJ49" s="130"/>
+      <c r="AK49" s="130"/>
+      <c r="AL49" s="130"/>
+      <c r="AM49" s="130"/>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="49"/>
       <c r="B50" s="50"/>
-      <c r="C50" s="128" t="n">
+      <c r="C50" s="129" t="n">
         <v>10</v>
       </c>
-      <c r="D50" s="128"/>
+      <c r="D50" s="129"/>
       <c r="E50" s="118" t="s">
         <v>118</v>
       </c>
@@ -22634,24 +22641,24 @@
       <c r="AA50" s="118"/>
       <c r="AB50" s="118"/>
       <c r="AC50" s="118"/>
-      <c r="AD50" s="129" t="s">
+      <c r="AD50" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="AE50" s="129"/>
-      <c r="AF50" s="129"/>
-      <c r="AG50" s="129"/>
-      <c r="AH50" s="129"/>
-      <c r="AI50" s="129"/>
-      <c r="AJ50" s="129"/>
-      <c r="AK50" s="129"/>
-      <c r="AL50" s="129"/>
-      <c r="AM50" s="129"/>
+      <c r="AE50" s="130"/>
+      <c r="AF50" s="130"/>
+      <c r="AG50" s="130"/>
+      <c r="AH50" s="130"/>
+      <c r="AI50" s="130"/>
+      <c r="AJ50" s="130"/>
+      <c r="AK50" s="130"/>
+      <c r="AL50" s="130"/>
+      <c r="AM50" s="130"/>
     </row>
     <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="49"/>
       <c r="B51" s="50"/>
-      <c r="C51" s="128"/>
-      <c r="D51" s="128"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="129"/>
       <c r="E51" s="118"/>
       <c r="F51" s="118"/>
       <c r="G51" s="118"/>
@@ -22677,22 +22684,22 @@
       <c r="AA51" s="118"/>
       <c r="AB51" s="118"/>
       <c r="AC51" s="118"/>
-      <c r="AD51" s="129"/>
-      <c r="AE51" s="129"/>
-      <c r="AF51" s="129"/>
-      <c r="AG51" s="129"/>
-      <c r="AH51" s="129"/>
-      <c r="AI51" s="129"/>
-      <c r="AJ51" s="129"/>
-      <c r="AK51" s="129"/>
-      <c r="AL51" s="129"/>
-      <c r="AM51" s="129"/>
+      <c r="AD51" s="130"/>
+      <c r="AE51" s="130"/>
+      <c r="AF51" s="130"/>
+      <c r="AG51" s="130"/>
+      <c r="AH51" s="130"/>
+      <c r="AI51" s="130"/>
+      <c r="AJ51" s="130"/>
+      <c r="AK51" s="130"/>
+      <c r="AL51" s="130"/>
+      <c r="AM51" s="130"/>
     </row>
     <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="49"/>
       <c r="B52" s="50"/>
-      <c r="C52" s="128"/>
-      <c r="D52" s="128"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="129"/>
       <c r="E52" s="118"/>
       <c r="F52" s="118"/>
       <c r="G52" s="118"/>
@@ -22718,24 +22725,24 @@
       <c r="AA52" s="118"/>
       <c r="AB52" s="118"/>
       <c r="AC52" s="118"/>
-      <c r="AD52" s="129"/>
-      <c r="AE52" s="129"/>
-      <c r="AF52" s="129"/>
-      <c r="AG52" s="129"/>
-      <c r="AH52" s="129"/>
-      <c r="AI52" s="129"/>
-      <c r="AJ52" s="129"/>
-      <c r="AK52" s="129"/>
-      <c r="AL52" s="129"/>
-      <c r="AM52" s="129"/>
+      <c r="AD52" s="130"/>
+      <c r="AE52" s="130"/>
+      <c r="AF52" s="130"/>
+      <c r="AG52" s="130"/>
+      <c r="AH52" s="130"/>
+      <c r="AI52" s="130"/>
+      <c r="AJ52" s="130"/>
+      <c r="AK52" s="130"/>
+      <c r="AL52" s="130"/>
+      <c r="AM52" s="130"/>
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="55"/>
-      <c r="C53" s="128"/>
-      <c r="D53" s="128"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="129"/>
       <c r="E53" s="118"/>
       <c r="F53" s="118"/>
       <c r="G53" s="118"/>
@@ -22761,57 +22768,57 @@
       <c r="AA53" s="118"/>
       <c r="AB53" s="118"/>
       <c r="AC53" s="118"/>
-      <c r="AD53" s="129"/>
-      <c r="AE53" s="129"/>
-      <c r="AF53" s="129"/>
-      <c r="AG53" s="129"/>
-      <c r="AH53" s="129"/>
-      <c r="AI53" s="129"/>
-      <c r="AJ53" s="129"/>
-      <c r="AK53" s="129"/>
-      <c r="AL53" s="129"/>
-      <c r="AM53" s="129"/>
+      <c r="AD53" s="130"/>
+      <c r="AE53" s="130"/>
+      <c r="AF53" s="130"/>
+      <c r="AG53" s="130"/>
+      <c r="AH53" s="130"/>
+      <c r="AI53" s="130"/>
+      <c r="AJ53" s="130"/>
+      <c r="AK53" s="130"/>
+      <c r="AL53" s="130"/>
+      <c r="AM53" s="130"/>
     </row>
     <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="49"/>
       <c r="B54" s="55"/>
-      <c r="C54" s="130"/>
-      <c r="D54" s="131"/>
-      <c r="E54" s="132"/>
-      <c r="F54" s="132"/>
-      <c r="G54" s="132"/>
-      <c r="H54" s="132"/>
-      <c r="I54" s="132"/>
-      <c r="J54" s="132"/>
-      <c r="K54" s="132"/>
-      <c r="L54" s="132"/>
-      <c r="M54" s="132"/>
-      <c r="N54" s="132"/>
-      <c r="O54" s="132"/>
-      <c r="P54" s="133"/>
-      <c r="Q54" s="133"/>
-      <c r="R54" s="133"/>
-      <c r="S54" s="133"/>
-      <c r="T54" s="133"/>
-      <c r="U54" s="133"/>
-      <c r="V54" s="133"/>
-      <c r="W54" s="133"/>
-      <c r="X54" s="133"/>
-      <c r="Y54" s="133"/>
-      <c r="Z54" s="133"/>
-      <c r="AA54" s="133"/>
-      <c r="AB54" s="133"/>
-      <c r="AC54" s="133"/>
-      <c r="AD54" s="134"/>
-      <c r="AE54" s="134"/>
-      <c r="AF54" s="134"/>
-      <c r="AG54" s="134"/>
-      <c r="AH54" s="134"/>
-      <c r="AI54" s="134"/>
-      <c r="AJ54" s="134"/>
-      <c r="AK54" s="131"/>
-      <c r="AL54" s="131"/>
-      <c r="AM54" s="135"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="133"/>
+      <c r="F54" s="133"/>
+      <c r="G54" s="133"/>
+      <c r="H54" s="133"/>
+      <c r="I54" s="133"/>
+      <c r="J54" s="133"/>
+      <c r="K54" s="133"/>
+      <c r="L54" s="133"/>
+      <c r="M54" s="133"/>
+      <c r="N54" s="133"/>
+      <c r="O54" s="133"/>
+      <c r="P54" s="134"/>
+      <c r="Q54" s="134"/>
+      <c r="R54" s="134"/>
+      <c r="S54" s="134"/>
+      <c r="T54" s="134"/>
+      <c r="U54" s="134"/>
+      <c r="V54" s="134"/>
+      <c r="W54" s="134"/>
+      <c r="X54" s="134"/>
+      <c r="Y54" s="134"/>
+      <c r="Z54" s="134"/>
+      <c r="AA54" s="134"/>
+      <c r="AB54" s="134"/>
+      <c r="AC54" s="134"/>
+      <c r="AD54" s="135"/>
+      <c r="AE54" s="135"/>
+      <c r="AF54" s="135"/>
+      <c r="AG54" s="135"/>
+      <c r="AH54" s="135"/>
+      <c r="AI54" s="135"/>
+      <c r="AJ54" s="135"/>
+      <c r="AK54" s="132"/>
+      <c r="AL54" s="132"/>
+      <c r="AM54" s="136"/>
     </row>
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="49"/>
@@ -22852,11 +22859,11 @@
       <c r="AH55" s="97"/>
       <c r="AI55" s="97"/>
       <c r="AJ55" s="97"/>
-      <c r="AK55" s="83" t="s">
+      <c r="AK55" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="AL55" s="83"/>
-      <c r="AM55" s="83"/>
+      <c r="AL55" s="82"/>
+      <c r="AM55" s="82"/>
     </row>
     <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="49"/>
@@ -22874,10 +22881,10 @@
       <c r="M56" s="123"/>
       <c r="N56" s="123"/>
       <c r="O56" s="123"/>
-      <c r="P56" s="81" t="s">
+      <c r="P56" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="Q56" s="81"/>
+      <c r="Q56" s="78"/>
       <c r="R56" s="97"/>
       <c r="S56" s="97"/>
       <c r="T56" s="97"/>
@@ -23045,7 +23052,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
@@ -23648,84 +23655,84 @@
       <c r="AM14" s="47"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="137" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="136"/>
-      <c r="R15" s="136"/>
-      <c r="S15" s="136"/>
-      <c r="T15" s="136"/>
-      <c r="U15" s="136"/>
-      <c r="V15" s="136"/>
-      <c r="W15" s="136"/>
-      <c r="X15" s="136"/>
-      <c r="Y15" s="136"/>
-      <c r="Z15" s="136"/>
-      <c r="AA15" s="136"/>
-      <c r="AB15" s="136"/>
-      <c r="AC15" s="136"/>
-      <c r="AD15" s="136"/>
-      <c r="AE15" s="136"/>
-      <c r="AF15" s="136"/>
-      <c r="AG15" s="136"/>
-      <c r="AH15" s="136"/>
-      <c r="AI15" s="136"/>
-      <c r="AJ15" s="136"/>
-      <c r="AK15" s="136"/>
-      <c r="AL15" s="136"/>
-      <c r="AM15" s="136"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="137"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="137"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="137"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="137"/>
+      <c r="AE15" s="137"/>
+      <c r="AF15" s="137"/>
+      <c r="AG15" s="137"/>
+      <c r="AH15" s="137"/>
+      <c r="AI15" s="137"/>
+      <c r="AJ15" s="137"/>
+      <c r="AK15" s="137"/>
+      <c r="AL15" s="137"/>
+      <c r="AM15" s="137"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="136"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="136"/>
-      <c r="M16" s="136"/>
-      <c r="N16" s="136"/>
-      <c r="O16" s="136"/>
-      <c r="P16" s="136"/>
-      <c r="Q16" s="136"/>
-      <c r="R16" s="136"/>
-      <c r="S16" s="136"/>
-      <c r="T16" s="136"/>
-      <c r="U16" s="136"/>
-      <c r="V16" s="136"/>
-      <c r="W16" s="136"/>
-      <c r="X16" s="136"/>
-      <c r="Y16" s="136"/>
-      <c r="Z16" s="136"/>
-      <c r="AA16" s="136"/>
-      <c r="AB16" s="136"/>
-      <c r="AC16" s="136"/>
-      <c r="AD16" s="136"/>
-      <c r="AE16" s="136"/>
-      <c r="AF16" s="136"/>
-      <c r="AG16" s="136"/>
-      <c r="AH16" s="136"/>
-      <c r="AI16" s="136"/>
-      <c r="AJ16" s="136"/>
-      <c r="AK16" s="136"/>
-      <c r="AL16" s="136"/>
-      <c r="AM16" s="136"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="137"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="137"/>
+      <c r="AE16" s="137"/>
+      <c r="AF16" s="137"/>
+      <c r="AG16" s="137"/>
+      <c r="AH16" s="137"/>
+      <c r="AI16" s="137"/>
+      <c r="AJ16" s="137"/>
+      <c r="AK16" s="137"/>
+      <c r="AL16" s="137"/>
+      <c r="AM16" s="137"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="114" t="s">
@@ -23855,381 +23862,381 @@
         <v>1</v>
       </c>
       <c r="D20" s="98"/>
-      <c r="E20" s="137" t="s">
+      <c r="E20" s="138" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="137"/>
-      <c r="P20" s="137"/>
-      <c r="Q20" s="137"/>
-      <c r="R20" s="137"/>
-      <c r="S20" s="137"/>
-      <c r="T20" s="137"/>
-      <c r="U20" s="138" t="s">
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="138"/>
+      <c r="Q20" s="138"/>
+      <c r="R20" s="138"/>
+      <c r="S20" s="138"/>
+      <c r="T20" s="138"/>
+      <c r="U20" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="V20" s="138"/>
-      <c r="W20" s="138"/>
-      <c r="X20" s="138"/>
-      <c r="Y20" s="138"/>
-      <c r="Z20" s="138"/>
-      <c r="AA20" s="138"/>
-      <c r="AB20" s="138"/>
-      <c r="AC20" s="138"/>
-      <c r="AD20" s="138"/>
-      <c r="AE20" s="138"/>
-      <c r="AF20" s="138"/>
-      <c r="AG20" s="138"/>
-      <c r="AH20" s="138"/>
-      <c r="AI20" s="138"/>
-      <c r="AJ20" s="138"/>
-      <c r="AK20" s="138"/>
-      <c r="AL20" s="138"/>
-      <c r="AM20" s="138"/>
+      <c r="V20" s="139"/>
+      <c r="W20" s="139"/>
+      <c r="X20" s="139"/>
+      <c r="Y20" s="139"/>
+      <c r="Z20" s="139"/>
+      <c r="AA20" s="139"/>
+      <c r="AB20" s="139"/>
+      <c r="AC20" s="139"/>
+      <c r="AD20" s="139"/>
+      <c r="AE20" s="139"/>
+      <c r="AF20" s="139"/>
+      <c r="AG20" s="139"/>
+      <c r="AH20" s="139"/>
+      <c r="AI20" s="139"/>
+      <c r="AJ20" s="139"/>
+      <c r="AK20" s="139"/>
+      <c r="AL20" s="139"/>
+      <c r="AM20" s="139"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C21" s="98"/>
       <c r="D21" s="98"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="137"/>
-      <c r="Q21" s="137"/>
-      <c r="R21" s="137"/>
-      <c r="S21" s="137"/>
-      <c r="T21" s="137"/>
-      <c r="U21" s="138"/>
-      <c r="V21" s="138"/>
-      <c r="W21" s="138"/>
-      <c r="X21" s="138"/>
-      <c r="Y21" s="138"/>
-      <c r="Z21" s="138"/>
-      <c r="AA21" s="138"/>
-      <c r="AB21" s="138"/>
-      <c r="AC21" s="138"/>
-      <c r="AD21" s="138"/>
-      <c r="AE21" s="138"/>
-      <c r="AF21" s="138"/>
-      <c r="AG21" s="138"/>
-      <c r="AH21" s="138"/>
-      <c r="AI21" s="138"/>
-      <c r="AJ21" s="138"/>
-      <c r="AK21" s="138"/>
-      <c r="AL21" s="138"/>
-      <c r="AM21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="138"/>
+      <c r="Q21" s="138"/>
+      <c r="R21" s="138"/>
+      <c r="S21" s="138"/>
+      <c r="T21" s="138"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="139"/>
+      <c r="X21" s="139"/>
+      <c r="Y21" s="139"/>
+      <c r="Z21" s="139"/>
+      <c r="AA21" s="139"/>
+      <c r="AB21" s="139"/>
+      <c r="AC21" s="139"/>
+      <c r="AD21" s="139"/>
+      <c r="AE21" s="139"/>
+      <c r="AF21" s="139"/>
+      <c r="AG21" s="139"/>
+      <c r="AH21" s="139"/>
+      <c r="AI21" s="139"/>
+      <c r="AJ21" s="139"/>
+      <c r="AK21" s="139"/>
+      <c r="AL21" s="139"/>
+      <c r="AM21" s="139"/>
     </row>
     <row r="22" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C22" s="98" t="n">
         <v>2</v>
       </c>
       <c r="D22" s="98"/>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="138" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="137"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="137"/>
-      <c r="O22" s="137"/>
-      <c r="P22" s="137"/>
-      <c r="Q22" s="137"/>
-      <c r="R22" s="137"/>
-      <c r="S22" s="137"/>
-      <c r="T22" s="137"/>
-      <c r="U22" s="138" t="s">
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="138"/>
+      <c r="Q22" s="138"/>
+      <c r="R22" s="138"/>
+      <c r="S22" s="138"/>
+      <c r="T22" s="138"/>
+      <c r="U22" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="V22" s="138"/>
-      <c r="W22" s="138"/>
-      <c r="X22" s="138"/>
-      <c r="Y22" s="138"/>
-      <c r="Z22" s="138"/>
-      <c r="AA22" s="138"/>
-      <c r="AB22" s="138"/>
-      <c r="AC22" s="138"/>
-      <c r="AD22" s="138"/>
-      <c r="AE22" s="138"/>
-      <c r="AF22" s="138"/>
-      <c r="AG22" s="138"/>
-      <c r="AH22" s="138"/>
-      <c r="AI22" s="138"/>
-      <c r="AJ22" s="138"/>
-      <c r="AK22" s="138"/>
-      <c r="AL22" s="138"/>
-      <c r="AM22" s="138"/>
+      <c r="V22" s="139"/>
+      <c r="W22" s="139"/>
+      <c r="X22" s="139"/>
+      <c r="Y22" s="139"/>
+      <c r="Z22" s="139"/>
+      <c r="AA22" s="139"/>
+      <c r="AB22" s="139"/>
+      <c r="AC22" s="139"/>
+      <c r="AD22" s="139"/>
+      <c r="AE22" s="139"/>
+      <c r="AF22" s="139"/>
+      <c r="AG22" s="139"/>
+      <c r="AH22" s="139"/>
+      <c r="AI22" s="139"/>
+      <c r="AJ22" s="139"/>
+      <c r="AK22" s="139"/>
+      <c r="AL22" s="139"/>
+      <c r="AM22" s="139"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="98"/>
       <c r="D23" s="98"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="137"/>
-      <c r="O23" s="137"/>
-      <c r="P23" s="137"/>
-      <c r="Q23" s="137"/>
-      <c r="R23" s="137"/>
-      <c r="S23" s="137"/>
-      <c r="T23" s="137"/>
-      <c r="U23" s="138"/>
-      <c r="V23" s="138"/>
-      <c r="W23" s="138"/>
-      <c r="X23" s="138"/>
-      <c r="Y23" s="138"/>
-      <c r="Z23" s="138"/>
-      <c r="AA23" s="138"/>
-      <c r="AB23" s="138"/>
-      <c r="AC23" s="138"/>
-      <c r="AD23" s="138"/>
-      <c r="AE23" s="138"/>
-      <c r="AF23" s="138"/>
-      <c r="AG23" s="138"/>
-      <c r="AH23" s="138"/>
-      <c r="AI23" s="138"/>
-      <c r="AJ23" s="138"/>
-      <c r="AK23" s="138"/>
-      <c r="AL23" s="138"/>
-      <c r="AM23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="138"/>
+      <c r="T23" s="138"/>
+      <c r="U23" s="139"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="139"/>
+      <c r="X23" s="139"/>
+      <c r="Y23" s="139"/>
+      <c r="Z23" s="139"/>
+      <c r="AA23" s="139"/>
+      <c r="AB23" s="139"/>
+      <c r="AC23" s="139"/>
+      <c r="AD23" s="139"/>
+      <c r="AE23" s="139"/>
+      <c r="AF23" s="139"/>
+      <c r="AG23" s="139"/>
+      <c r="AH23" s="139"/>
+      <c r="AI23" s="139"/>
+      <c r="AJ23" s="139"/>
+      <c r="AK23" s="139"/>
+      <c r="AL23" s="139"/>
+      <c r="AM23" s="139"/>
     </row>
     <row r="24" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="98" t="n">
         <v>3</v>
       </c>
       <c r="D24" s="98"/>
-      <c r="E24" s="137" t="s">
+      <c r="E24" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="137"/>
-      <c r="G24" s="137"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="137"/>
-      <c r="J24" s="137"/>
-      <c r="K24" s="137"/>
-      <c r="L24" s="137"/>
-      <c r="M24" s="137"/>
-      <c r="N24" s="137"/>
-      <c r="O24" s="137"/>
-      <c r="P24" s="137"/>
-      <c r="Q24" s="137"/>
-      <c r="R24" s="137"/>
-      <c r="S24" s="137"/>
-      <c r="T24" s="137"/>
-      <c r="U24" s="138" t="s">
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="138"/>
+      <c r="Q24" s="138"/>
+      <c r="R24" s="138"/>
+      <c r="S24" s="138"/>
+      <c r="T24" s="138"/>
+      <c r="U24" s="139" t="s">
         <v>129</v>
       </c>
-      <c r="V24" s="138"/>
-      <c r="W24" s="138"/>
-      <c r="X24" s="138"/>
-      <c r="Y24" s="138"/>
-      <c r="Z24" s="138"/>
-      <c r="AA24" s="138"/>
-      <c r="AB24" s="138"/>
-      <c r="AC24" s="138"/>
-      <c r="AD24" s="138"/>
-      <c r="AE24" s="138"/>
-      <c r="AF24" s="138"/>
-      <c r="AG24" s="138"/>
-      <c r="AH24" s="138"/>
-      <c r="AI24" s="138"/>
-      <c r="AJ24" s="138"/>
-      <c r="AK24" s="138"/>
-      <c r="AL24" s="138"/>
-      <c r="AM24" s="138"/>
+      <c r="V24" s="139"/>
+      <c r="W24" s="139"/>
+      <c r="X24" s="139"/>
+      <c r="Y24" s="139"/>
+      <c r="Z24" s="139"/>
+      <c r="AA24" s="139"/>
+      <c r="AB24" s="139"/>
+      <c r="AC24" s="139"/>
+      <c r="AD24" s="139"/>
+      <c r="AE24" s="139"/>
+      <c r="AF24" s="139"/>
+      <c r="AG24" s="139"/>
+      <c r="AH24" s="139"/>
+      <c r="AI24" s="139"/>
+      <c r="AJ24" s="139"/>
+      <c r="AK24" s="139"/>
+      <c r="AL24" s="139"/>
+      <c r="AM24" s="139"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="98"/>
       <c r="D25" s="98"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="137"/>
-      <c r="O25" s="137"/>
-      <c r="P25" s="137"/>
-      <c r="Q25" s="137"/>
-      <c r="R25" s="137"/>
-      <c r="S25" s="137"/>
-      <c r="T25" s="137"/>
-      <c r="U25" s="138"/>
-      <c r="V25" s="138"/>
-      <c r="W25" s="138"/>
-      <c r="X25" s="138"/>
-      <c r="Y25" s="138"/>
-      <c r="Z25" s="138"/>
-      <c r="AA25" s="138"/>
-      <c r="AB25" s="138"/>
-      <c r="AC25" s="138"/>
-      <c r="AD25" s="138"/>
-      <c r="AE25" s="138"/>
-      <c r="AF25" s="138"/>
-      <c r="AG25" s="138"/>
-      <c r="AH25" s="138"/>
-      <c r="AI25" s="138"/>
-      <c r="AJ25" s="138"/>
-      <c r="AK25" s="138"/>
-      <c r="AL25" s="138"/>
-      <c r="AM25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="138"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="138"/>
+      <c r="P25" s="138"/>
+      <c r="Q25" s="138"/>
+      <c r="R25" s="138"/>
+      <c r="S25" s="138"/>
+      <c r="T25" s="138"/>
+      <c r="U25" s="139"/>
+      <c r="V25" s="139"/>
+      <c r="W25" s="139"/>
+      <c r="X25" s="139"/>
+      <c r="Y25" s="139"/>
+      <c r="Z25" s="139"/>
+      <c r="AA25" s="139"/>
+      <c r="AB25" s="139"/>
+      <c r="AC25" s="139"/>
+      <c r="AD25" s="139"/>
+      <c r="AE25" s="139"/>
+      <c r="AF25" s="139"/>
+      <c r="AG25" s="139"/>
+      <c r="AH25" s="139"/>
+      <c r="AI25" s="139"/>
+      <c r="AJ25" s="139"/>
+      <c r="AK25" s="139"/>
+      <c r="AL25" s="139"/>
+      <c r="AM25" s="139"/>
     </row>
     <row r="26" s="1" customFormat="true" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="98" t="n">
         <v>4</v>
       </c>
       <c r="D26" s="98"/>
-      <c r="E26" s="137" t="s">
+      <c r="E26" s="138" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="137"/>
-      <c r="P26" s="137"/>
-      <c r="Q26" s="137"/>
-      <c r="R26" s="137"/>
-      <c r="S26" s="137"/>
-      <c r="T26" s="137"/>
-      <c r="U26" s="138" t="s">
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="138"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
+      <c r="U26" s="139" t="s">
         <v>131</v>
       </c>
-      <c r="V26" s="138"/>
-      <c r="W26" s="138"/>
-      <c r="X26" s="138"/>
-      <c r="Y26" s="138"/>
-      <c r="Z26" s="138"/>
-      <c r="AA26" s="138"/>
-      <c r="AB26" s="138"/>
-      <c r="AC26" s="138"/>
-      <c r="AD26" s="138"/>
-      <c r="AE26" s="138"/>
-      <c r="AF26" s="138"/>
-      <c r="AG26" s="138"/>
-      <c r="AH26" s="138"/>
-      <c r="AI26" s="138"/>
-      <c r="AJ26" s="138"/>
-      <c r="AK26" s="138"/>
-      <c r="AL26" s="138"/>
-      <c r="AM26" s="138"/>
+      <c r="V26" s="139"/>
+      <c r="W26" s="139"/>
+      <c r="X26" s="139"/>
+      <c r="Y26" s="139"/>
+      <c r="Z26" s="139"/>
+      <c r="AA26" s="139"/>
+      <c r="AB26" s="139"/>
+      <c r="AC26" s="139"/>
+      <c r="AD26" s="139"/>
+      <c r="AE26" s="139"/>
+      <c r="AF26" s="139"/>
+      <c r="AG26" s="139"/>
+      <c r="AH26" s="139"/>
+      <c r="AI26" s="139"/>
+      <c r="AJ26" s="139"/>
+      <c r="AK26" s="139"/>
+      <c r="AL26" s="139"/>
+      <c r="AM26" s="139"/>
     </row>
     <row r="27" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="98"/>
       <c r="D27" s="98"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="137"/>
-      <c r="L27" s="137"/>
-      <c r="M27" s="137"/>
-      <c r="N27" s="137"/>
-      <c r="O27" s="137"/>
-      <c r="P27" s="137"/>
-      <c r="Q27" s="137"/>
-      <c r="R27" s="137"/>
-      <c r="S27" s="137"/>
-      <c r="T27" s="137"/>
-      <c r="U27" s="138"/>
-      <c r="V27" s="138"/>
-      <c r="W27" s="138"/>
-      <c r="X27" s="138"/>
-      <c r="Y27" s="138"/>
-      <c r="Z27" s="138"/>
-      <c r="AA27" s="138"/>
-      <c r="AB27" s="138"/>
-      <c r="AC27" s="138"/>
-      <c r="AD27" s="138"/>
-      <c r="AE27" s="138"/>
-      <c r="AF27" s="138"/>
-      <c r="AG27" s="138"/>
-      <c r="AH27" s="138"/>
-      <c r="AI27" s="138"/>
-      <c r="AJ27" s="138"/>
-      <c r="AK27" s="138"/>
-      <c r="AL27" s="138"/>
-      <c r="AM27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="138"/>
+      <c r="P27" s="138"/>
+      <c r="Q27" s="138"/>
+      <c r="R27" s="138"/>
+      <c r="S27" s="138"/>
+      <c r="T27" s="138"/>
+      <c r="U27" s="139"/>
+      <c r="V27" s="139"/>
+      <c r="W27" s="139"/>
+      <c r="X27" s="139"/>
+      <c r="Y27" s="139"/>
+      <c r="Z27" s="139"/>
+      <c r="AA27" s="139"/>
+      <c r="AB27" s="139"/>
+      <c r="AC27" s="139"/>
+      <c r="AD27" s="139"/>
+      <c r="AE27" s="139"/>
+      <c r="AF27" s="139"/>
+      <c r="AG27" s="139"/>
+      <c r="AH27" s="139"/>
+      <c r="AI27" s="139"/>
+      <c r="AJ27" s="139"/>
+      <c r="AK27" s="139"/>
+      <c r="AL27" s="139"/>
+      <c r="AM27" s="139"/>
     </row>
     <row r="28" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="98" t="n">
         <v>5</v>
       </c>
       <c r="D28" s="98"/>
-      <c r="E28" s="137" t="s">
+      <c r="E28" s="138" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="137"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="137"/>
-      <c r="P28" s="137"/>
-      <c r="Q28" s="137"/>
-      <c r="R28" s="137"/>
-      <c r="S28" s="137"/>
-      <c r="T28" s="137"/>
-      <c r="U28" s="138" t="s">
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="138"/>
+      <c r="Q28" s="138"/>
+      <c r="R28" s="138"/>
+      <c r="S28" s="138"/>
+      <c r="T28" s="138"/>
+      <c r="U28" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="V28" s="138"/>
-      <c r="W28" s="138"/>
-      <c r="X28" s="138"/>
-      <c r="Y28" s="138"/>
-      <c r="Z28" s="138"/>
-      <c r="AA28" s="138"/>
-      <c r="AB28" s="138"/>
-      <c r="AC28" s="138"/>
-      <c r="AD28" s="138"/>
-      <c r="AE28" s="138"/>
-      <c r="AF28" s="138"/>
-      <c r="AG28" s="138"/>
-      <c r="AH28" s="138"/>
-      <c r="AI28" s="138"/>
-      <c r="AJ28" s="138"/>
-      <c r="AK28" s="138"/>
-      <c r="AL28" s="138"/>
-      <c r="AM28" s="138"/>
+      <c r="V28" s="139"/>
+      <c r="W28" s="139"/>
+      <c r="X28" s="139"/>
+      <c r="Y28" s="139"/>
+      <c r="Z28" s="139"/>
+      <c r="AA28" s="139"/>
+      <c r="AB28" s="139"/>
+      <c r="AC28" s="139"/>
+      <c r="AD28" s="139"/>
+      <c r="AE28" s="139"/>
+      <c r="AF28" s="139"/>
+      <c r="AG28" s="139"/>
+      <c r="AH28" s="139"/>
+      <c r="AI28" s="139"/>
+      <c r="AJ28" s="139"/>
+      <c r="AK28" s="139"/>
+      <c r="AL28" s="139"/>
+      <c r="AM28" s="139"/>
     </row>
     <row r="29" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
@@ -24238,41 +24245,41 @@
       <c r="B29" s="50"/>
       <c r="C29" s="98"/>
       <c r="D29" s="98"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="137"/>
-      <c r="L29" s="137"/>
-      <c r="M29" s="137"/>
-      <c r="N29" s="137"/>
-      <c r="O29" s="137"/>
-      <c r="P29" s="137"/>
-      <c r="Q29" s="137"/>
-      <c r="R29" s="137"/>
-      <c r="S29" s="137"/>
-      <c r="T29" s="137"/>
-      <c r="U29" s="138"/>
-      <c r="V29" s="138"/>
-      <c r="W29" s="138"/>
-      <c r="X29" s="138"/>
-      <c r="Y29" s="138"/>
-      <c r="Z29" s="138"/>
-      <c r="AA29" s="138"/>
-      <c r="AB29" s="138"/>
-      <c r="AC29" s="138"/>
-      <c r="AD29" s="138"/>
-      <c r="AE29" s="138"/>
-      <c r="AF29" s="138"/>
-      <c r="AG29" s="138"/>
-      <c r="AH29" s="138"/>
-      <c r="AI29" s="138"/>
-      <c r="AJ29" s="138"/>
-      <c r="AK29" s="138"/>
-      <c r="AL29" s="138"/>
-      <c r="AM29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="138"/>
+      <c r="P29" s="138"/>
+      <c r="Q29" s="138"/>
+      <c r="R29" s="138"/>
+      <c r="S29" s="138"/>
+      <c r="T29" s="138"/>
+      <c r="U29" s="139"/>
+      <c r="V29" s="139"/>
+      <c r="W29" s="139"/>
+      <c r="X29" s="139"/>
+      <c r="Y29" s="139"/>
+      <c r="Z29" s="139"/>
+      <c r="AA29" s="139"/>
+      <c r="AB29" s="139"/>
+      <c r="AC29" s="139"/>
+      <c r="AD29" s="139"/>
+      <c r="AE29" s="139"/>
+      <c r="AF29" s="139"/>
+      <c r="AG29" s="139"/>
+      <c r="AH29" s="139"/>
+      <c r="AI29" s="139"/>
+      <c r="AJ29" s="139"/>
+      <c r="AK29" s="139"/>
+      <c r="AL29" s="139"/>
+      <c r="AM29" s="139"/>
     </row>
     <row r="30" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
@@ -24281,86 +24288,86 @@
         <v>6</v>
       </c>
       <c r="D30" s="98"/>
-      <c r="E30" s="137" t="s">
+      <c r="E30" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="137"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="137"/>
-      <c r="L30" s="137"/>
-      <c r="M30" s="137"/>
-      <c r="N30" s="137"/>
-      <c r="O30" s="137"/>
-      <c r="P30" s="137"/>
-      <c r="Q30" s="137"/>
-      <c r="R30" s="137"/>
-      <c r="S30" s="137"/>
-      <c r="T30" s="137"/>
-      <c r="U30" s="138" t="s">
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="138"/>
+      <c r="L30" s="138"/>
+      <c r="M30" s="138"/>
+      <c r="N30" s="138"/>
+      <c r="O30" s="138"/>
+      <c r="P30" s="138"/>
+      <c r="Q30" s="138"/>
+      <c r="R30" s="138"/>
+      <c r="S30" s="138"/>
+      <c r="T30" s="138"/>
+      <c r="U30" s="139" t="s">
         <v>135</v>
       </c>
-      <c r="V30" s="138"/>
-      <c r="W30" s="138"/>
-      <c r="X30" s="138"/>
-      <c r="Y30" s="138"/>
-      <c r="Z30" s="138"/>
-      <c r="AA30" s="138"/>
-      <c r="AB30" s="138"/>
-      <c r="AC30" s="138"/>
-      <c r="AD30" s="138"/>
-      <c r="AE30" s="138"/>
-      <c r="AF30" s="138"/>
-      <c r="AG30" s="138"/>
-      <c r="AH30" s="138"/>
-      <c r="AI30" s="138"/>
-      <c r="AJ30" s="138"/>
-      <c r="AK30" s="138"/>
-      <c r="AL30" s="138"/>
-      <c r="AM30" s="138"/>
+      <c r="V30" s="139"/>
+      <c r="W30" s="139"/>
+      <c r="X30" s="139"/>
+      <c r="Y30" s="139"/>
+      <c r="Z30" s="139"/>
+      <c r="AA30" s="139"/>
+      <c r="AB30" s="139"/>
+      <c r="AC30" s="139"/>
+      <c r="AD30" s="139"/>
+      <c r="AE30" s="139"/>
+      <c r="AF30" s="139"/>
+      <c r="AG30" s="139"/>
+      <c r="AH30" s="139"/>
+      <c r="AI30" s="139"/>
+      <c r="AJ30" s="139"/>
+      <c r="AK30" s="139"/>
+      <c r="AL30" s="139"/>
+      <c r="AM30" s="139"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
       <c r="C31" s="98"/>
       <c r="D31" s="98"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="137"/>
-      <c r="L31" s="137"/>
-      <c r="M31" s="137"/>
-      <c r="N31" s="137"/>
-      <c r="O31" s="137"/>
-      <c r="P31" s="137"/>
-      <c r="Q31" s="137"/>
-      <c r="R31" s="137"/>
-      <c r="S31" s="137"/>
-      <c r="T31" s="137"/>
-      <c r="U31" s="138"/>
-      <c r="V31" s="138"/>
-      <c r="W31" s="138"/>
-      <c r="X31" s="138"/>
-      <c r="Y31" s="138"/>
-      <c r="Z31" s="138"/>
-      <c r="AA31" s="138"/>
-      <c r="AB31" s="138"/>
-      <c r="AC31" s="138"/>
-      <c r="AD31" s="138"/>
-      <c r="AE31" s="138"/>
-      <c r="AF31" s="138"/>
-      <c r="AG31" s="138"/>
-      <c r="AH31" s="138"/>
-      <c r="AI31" s="138"/>
-      <c r="AJ31" s="138"/>
-      <c r="AK31" s="138"/>
-      <c r="AL31" s="138"/>
-      <c r="AM31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="138"/>
+      <c r="K31" s="138"/>
+      <c r="L31" s="138"/>
+      <c r="M31" s="138"/>
+      <c r="N31" s="138"/>
+      <c r="O31" s="138"/>
+      <c r="P31" s="138"/>
+      <c r="Q31" s="138"/>
+      <c r="R31" s="138"/>
+      <c r="S31" s="138"/>
+      <c r="T31" s="138"/>
+      <c r="U31" s="139"/>
+      <c r="V31" s="139"/>
+      <c r="W31" s="139"/>
+      <c r="X31" s="139"/>
+      <c r="Y31" s="139"/>
+      <c r="Z31" s="139"/>
+      <c r="AA31" s="139"/>
+      <c r="AB31" s="139"/>
+      <c r="AC31" s="139"/>
+      <c r="AD31" s="139"/>
+      <c r="AE31" s="139"/>
+      <c r="AF31" s="139"/>
+      <c r="AG31" s="139"/>
+      <c r="AH31" s="139"/>
+      <c r="AI31" s="139"/>
+      <c r="AJ31" s="139"/>
+      <c r="AK31" s="139"/>
+      <c r="AL31" s="139"/>
+      <c r="AM31" s="139"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
@@ -24369,86 +24376,86 @@
         <v>7</v>
       </c>
       <c r="D32" s="98"/>
-      <c r="E32" s="137" t="s">
+      <c r="E32" s="138" t="s">
         <v>136</v>
       </c>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="137"/>
-      <c r="L32" s="137"/>
-      <c r="M32" s="137"/>
-      <c r="N32" s="137"/>
-      <c r="O32" s="137"/>
-      <c r="P32" s="137"/>
-      <c r="Q32" s="137"/>
-      <c r="R32" s="137"/>
-      <c r="S32" s="137"/>
-      <c r="T32" s="137"/>
-      <c r="U32" s="138" t="s">
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="138"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="138"/>
+      <c r="N32" s="138"/>
+      <c r="O32" s="138"/>
+      <c r="P32" s="138"/>
+      <c r="Q32" s="138"/>
+      <c r="R32" s="138"/>
+      <c r="S32" s="138"/>
+      <c r="T32" s="138"/>
+      <c r="U32" s="139" t="s">
         <v>137</v>
       </c>
-      <c r="V32" s="138"/>
-      <c r="W32" s="138"/>
-      <c r="X32" s="138"/>
-      <c r="Y32" s="138"/>
-      <c r="Z32" s="138"/>
-      <c r="AA32" s="138"/>
-      <c r="AB32" s="138"/>
-      <c r="AC32" s="138"/>
-      <c r="AD32" s="138"/>
-      <c r="AE32" s="138"/>
-      <c r="AF32" s="138"/>
-      <c r="AG32" s="138"/>
-      <c r="AH32" s="138"/>
-      <c r="AI32" s="138"/>
-      <c r="AJ32" s="138"/>
-      <c r="AK32" s="138"/>
-      <c r="AL32" s="138"/>
-      <c r="AM32" s="138"/>
+      <c r="V32" s="139"/>
+      <c r="W32" s="139"/>
+      <c r="X32" s="139"/>
+      <c r="Y32" s="139"/>
+      <c r="Z32" s="139"/>
+      <c r="AA32" s="139"/>
+      <c r="AB32" s="139"/>
+      <c r="AC32" s="139"/>
+      <c r="AD32" s="139"/>
+      <c r="AE32" s="139"/>
+      <c r="AF32" s="139"/>
+      <c r="AG32" s="139"/>
+      <c r="AH32" s="139"/>
+      <c r="AI32" s="139"/>
+      <c r="AJ32" s="139"/>
+      <c r="AK32" s="139"/>
+      <c r="AL32" s="139"/>
+      <c r="AM32" s="139"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
       <c r="C33" s="98"/>
       <c r="D33" s="98"/>
-      <c r="E33" s="137"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="137"/>
-      <c r="J33" s="137"/>
-      <c r="K33" s="137"/>
-      <c r="L33" s="137"/>
-      <c r="M33" s="137"/>
-      <c r="N33" s="137"/>
-      <c r="O33" s="137"/>
-      <c r="P33" s="137"/>
-      <c r="Q33" s="137"/>
-      <c r="R33" s="137"/>
-      <c r="S33" s="137"/>
-      <c r="T33" s="137"/>
-      <c r="U33" s="138"/>
-      <c r="V33" s="138"/>
-      <c r="W33" s="138"/>
-      <c r="X33" s="138"/>
-      <c r="Y33" s="138"/>
-      <c r="Z33" s="138"/>
-      <c r="AA33" s="138"/>
-      <c r="AB33" s="138"/>
-      <c r="AC33" s="138"/>
-      <c r="AD33" s="138"/>
-      <c r="AE33" s="138"/>
-      <c r="AF33" s="138"/>
-      <c r="AG33" s="138"/>
-      <c r="AH33" s="138"/>
-      <c r="AI33" s="138"/>
-      <c r="AJ33" s="138"/>
-      <c r="AK33" s="138"/>
-      <c r="AL33" s="138"/>
-      <c r="AM33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="138"/>
+      <c r="K33" s="138"/>
+      <c r="L33" s="138"/>
+      <c r="M33" s="138"/>
+      <c r="N33" s="138"/>
+      <c r="O33" s="138"/>
+      <c r="P33" s="138"/>
+      <c r="Q33" s="138"/>
+      <c r="R33" s="138"/>
+      <c r="S33" s="138"/>
+      <c r="T33" s="138"/>
+      <c r="U33" s="139"/>
+      <c r="V33" s="139"/>
+      <c r="W33" s="139"/>
+      <c r="X33" s="139"/>
+      <c r="Y33" s="139"/>
+      <c r="Z33" s="139"/>
+      <c r="AA33" s="139"/>
+      <c r="AB33" s="139"/>
+      <c r="AC33" s="139"/>
+      <c r="AD33" s="139"/>
+      <c r="AE33" s="139"/>
+      <c r="AF33" s="139"/>
+      <c r="AG33" s="139"/>
+      <c r="AH33" s="139"/>
+      <c r="AI33" s="139"/>
+      <c r="AJ33" s="139"/>
+      <c r="AK33" s="139"/>
+      <c r="AL33" s="139"/>
+      <c r="AM33" s="139"/>
     </row>
     <row r="34" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
@@ -24457,86 +24464,86 @@
         <v>8</v>
       </c>
       <c r="D34" s="98"/>
-      <c r="E34" s="137" t="s">
+      <c r="E34" s="138" t="s">
         <v>138</v>
       </c>
-      <c r="F34" s="137"/>
-      <c r="G34" s="137"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
-      <c r="K34" s="137"/>
-      <c r="L34" s="137"/>
-      <c r="M34" s="137"/>
-      <c r="N34" s="137"/>
-      <c r="O34" s="137"/>
-      <c r="P34" s="137"/>
-      <c r="Q34" s="137"/>
-      <c r="R34" s="137"/>
-      <c r="S34" s="137"/>
-      <c r="T34" s="137"/>
-      <c r="U34" s="138" t="s">
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="138"/>
+      <c r="L34" s="138"/>
+      <c r="M34" s="138"/>
+      <c r="N34" s="138"/>
+      <c r="O34" s="138"/>
+      <c r="P34" s="138"/>
+      <c r="Q34" s="138"/>
+      <c r="R34" s="138"/>
+      <c r="S34" s="138"/>
+      <c r="T34" s="138"/>
+      <c r="U34" s="139" t="s">
         <v>139</v>
       </c>
-      <c r="V34" s="138"/>
-      <c r="W34" s="138"/>
-      <c r="X34" s="138"/>
-      <c r="Y34" s="138"/>
-      <c r="Z34" s="138"/>
-      <c r="AA34" s="138"/>
-      <c r="AB34" s="138"/>
-      <c r="AC34" s="138"/>
-      <c r="AD34" s="138"/>
-      <c r="AE34" s="138"/>
-      <c r="AF34" s="138"/>
-      <c r="AG34" s="138"/>
-      <c r="AH34" s="138"/>
-      <c r="AI34" s="138"/>
-      <c r="AJ34" s="138"/>
-      <c r="AK34" s="138"/>
-      <c r="AL34" s="138"/>
-      <c r="AM34" s="138"/>
+      <c r="V34" s="139"/>
+      <c r="W34" s="139"/>
+      <c r="X34" s="139"/>
+      <c r="Y34" s="139"/>
+      <c r="Z34" s="139"/>
+      <c r="AA34" s="139"/>
+      <c r="AB34" s="139"/>
+      <c r="AC34" s="139"/>
+      <c r="AD34" s="139"/>
+      <c r="AE34" s="139"/>
+      <c r="AF34" s="139"/>
+      <c r="AG34" s="139"/>
+      <c r="AH34" s="139"/>
+      <c r="AI34" s="139"/>
+      <c r="AJ34" s="139"/>
+      <c r="AK34" s="139"/>
+      <c r="AL34" s="139"/>
+      <c r="AM34" s="139"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
       <c r="C35" s="98"/>
       <c r="D35" s="98"/>
-      <c r="E35" s="137"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="137"/>
-      <c r="J35" s="137"/>
-      <c r="K35" s="137"/>
-      <c r="L35" s="137"/>
-      <c r="M35" s="137"/>
-      <c r="N35" s="137"/>
-      <c r="O35" s="137"/>
-      <c r="P35" s="137"/>
-      <c r="Q35" s="137"/>
-      <c r="R35" s="137"/>
-      <c r="S35" s="137"/>
-      <c r="T35" s="137"/>
-      <c r="U35" s="138"/>
-      <c r="V35" s="138"/>
-      <c r="W35" s="138"/>
-      <c r="X35" s="138"/>
-      <c r="Y35" s="138"/>
-      <c r="Z35" s="138"/>
-      <c r="AA35" s="138"/>
-      <c r="AB35" s="138"/>
-      <c r="AC35" s="138"/>
-      <c r="AD35" s="138"/>
-      <c r="AE35" s="138"/>
-      <c r="AF35" s="138"/>
-      <c r="AG35" s="138"/>
-      <c r="AH35" s="138"/>
-      <c r="AI35" s="138"/>
-      <c r="AJ35" s="138"/>
-      <c r="AK35" s="138"/>
-      <c r="AL35" s="138"/>
-      <c r="AM35" s="138"/>
+      <c r="E35" s="138"/>
+      <c r="F35" s="138"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="138"/>
+      <c r="K35" s="138"/>
+      <c r="L35" s="138"/>
+      <c r="M35" s="138"/>
+      <c r="N35" s="138"/>
+      <c r="O35" s="138"/>
+      <c r="P35" s="138"/>
+      <c r="Q35" s="138"/>
+      <c r="R35" s="138"/>
+      <c r="S35" s="138"/>
+      <c r="T35" s="138"/>
+      <c r="U35" s="139"/>
+      <c r="V35" s="139"/>
+      <c r="W35" s="139"/>
+      <c r="X35" s="139"/>
+      <c r="Y35" s="139"/>
+      <c r="Z35" s="139"/>
+      <c r="AA35" s="139"/>
+      <c r="AB35" s="139"/>
+      <c r="AC35" s="139"/>
+      <c r="AD35" s="139"/>
+      <c r="AE35" s="139"/>
+      <c r="AF35" s="139"/>
+      <c r="AG35" s="139"/>
+      <c r="AH35" s="139"/>
+      <c r="AI35" s="139"/>
+      <c r="AJ35" s="139"/>
+      <c r="AK35" s="139"/>
+      <c r="AL35" s="139"/>
+      <c r="AM35" s="139"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
@@ -24547,86 +24554,86 @@
         <v>9</v>
       </c>
       <c r="D36" s="98"/>
-      <c r="E36" s="137" t="s">
+      <c r="E36" s="138" t="s">
         <v>140</v>
       </c>
-      <c r="F36" s="137"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="137"/>
-      <c r="K36" s="137"/>
-      <c r="L36" s="137"/>
-      <c r="M36" s="137"/>
-      <c r="N36" s="137"/>
-      <c r="O36" s="137"/>
-      <c r="P36" s="137"/>
-      <c r="Q36" s="137"/>
-      <c r="R36" s="137"/>
-      <c r="S36" s="137"/>
-      <c r="T36" s="137"/>
-      <c r="U36" s="138" t="s">
+      <c r="F36" s="138"/>
+      <c r="G36" s="138"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="138"/>
+      <c r="K36" s="138"/>
+      <c r="L36" s="138"/>
+      <c r="M36" s="138"/>
+      <c r="N36" s="138"/>
+      <c r="O36" s="138"/>
+      <c r="P36" s="138"/>
+      <c r="Q36" s="138"/>
+      <c r="R36" s="138"/>
+      <c r="S36" s="138"/>
+      <c r="T36" s="138"/>
+      <c r="U36" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="V36" s="138"/>
-      <c r="W36" s="138"/>
-      <c r="X36" s="138"/>
-      <c r="Y36" s="138"/>
-      <c r="Z36" s="138"/>
-      <c r="AA36" s="138"/>
-      <c r="AB36" s="138"/>
-      <c r="AC36" s="138"/>
-      <c r="AD36" s="138"/>
-      <c r="AE36" s="138"/>
-      <c r="AF36" s="138"/>
-      <c r="AG36" s="138"/>
-      <c r="AH36" s="138"/>
-      <c r="AI36" s="138"/>
-      <c r="AJ36" s="138"/>
-      <c r="AK36" s="138"/>
-      <c r="AL36" s="138"/>
-      <c r="AM36" s="138"/>
+      <c r="V36" s="139"/>
+      <c r="W36" s="139"/>
+      <c r="X36" s="139"/>
+      <c r="Y36" s="139"/>
+      <c r="Z36" s="139"/>
+      <c r="AA36" s="139"/>
+      <c r="AB36" s="139"/>
+      <c r="AC36" s="139"/>
+      <c r="AD36" s="139"/>
+      <c r="AE36" s="139"/>
+      <c r="AF36" s="139"/>
+      <c r="AG36" s="139"/>
+      <c r="AH36" s="139"/>
+      <c r="AI36" s="139"/>
+      <c r="AJ36" s="139"/>
+      <c r="AK36" s="139"/>
+      <c r="AL36" s="139"/>
+      <c r="AM36" s="139"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
       <c r="C37" s="98"/>
       <c r="D37" s="98"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="137"/>
-      <c r="J37" s="137"/>
-      <c r="K37" s="137"/>
-      <c r="L37" s="137"/>
-      <c r="M37" s="137"/>
-      <c r="N37" s="137"/>
-      <c r="O37" s="137"/>
-      <c r="P37" s="137"/>
-      <c r="Q37" s="137"/>
-      <c r="R37" s="137"/>
-      <c r="S37" s="137"/>
-      <c r="T37" s="137"/>
-      <c r="U37" s="138"/>
-      <c r="V37" s="138"/>
-      <c r="W37" s="138"/>
-      <c r="X37" s="138"/>
-      <c r="Y37" s="138"/>
-      <c r="Z37" s="138"/>
-      <c r="AA37" s="138"/>
-      <c r="AB37" s="138"/>
-      <c r="AC37" s="138"/>
-      <c r="AD37" s="138"/>
-      <c r="AE37" s="138"/>
-      <c r="AF37" s="138"/>
-      <c r="AG37" s="138"/>
-      <c r="AH37" s="138"/>
-      <c r="AI37" s="138"/>
-      <c r="AJ37" s="138"/>
-      <c r="AK37" s="138"/>
-      <c r="AL37" s="138"/>
-      <c r="AM37" s="138"/>
+      <c r="E37" s="138"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="138"/>
+      <c r="K37" s="138"/>
+      <c r="L37" s="138"/>
+      <c r="M37" s="138"/>
+      <c r="N37" s="138"/>
+      <c r="O37" s="138"/>
+      <c r="P37" s="138"/>
+      <c r="Q37" s="138"/>
+      <c r="R37" s="138"/>
+      <c r="S37" s="138"/>
+      <c r="T37" s="138"/>
+      <c r="U37" s="139"/>
+      <c r="V37" s="139"/>
+      <c r="W37" s="139"/>
+      <c r="X37" s="139"/>
+      <c r="Y37" s="139"/>
+      <c r="Z37" s="139"/>
+      <c r="AA37" s="139"/>
+      <c r="AB37" s="139"/>
+      <c r="AC37" s="139"/>
+      <c r="AD37" s="139"/>
+      <c r="AE37" s="139"/>
+      <c r="AF37" s="139"/>
+      <c r="AG37" s="139"/>
+      <c r="AH37" s="139"/>
+      <c r="AI37" s="139"/>
+      <c r="AJ37" s="139"/>
+      <c r="AK37" s="139"/>
+      <c r="AL37" s="139"/>
+      <c r="AM37" s="139"/>
     </row>
     <row r="38" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
@@ -24635,86 +24642,86 @@
         <v>10</v>
       </c>
       <c r="D38" s="98"/>
-      <c r="E38" s="137" t="s">
+      <c r="E38" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="F38" s="137"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="137"/>
-      <c r="K38" s="137"/>
-      <c r="L38" s="137"/>
-      <c r="M38" s="137"/>
-      <c r="N38" s="137"/>
-      <c r="O38" s="137"/>
-      <c r="P38" s="137"/>
-      <c r="Q38" s="137"/>
-      <c r="R38" s="137"/>
-      <c r="S38" s="137"/>
-      <c r="T38" s="137"/>
-      <c r="U38" s="138" t="s">
+      <c r="F38" s="138"/>
+      <c r="G38" s="138"/>
+      <c r="H38" s="138"/>
+      <c r="I38" s="138"/>
+      <c r="J38" s="138"/>
+      <c r="K38" s="138"/>
+      <c r="L38" s="138"/>
+      <c r="M38" s="138"/>
+      <c r="N38" s="138"/>
+      <c r="O38" s="138"/>
+      <c r="P38" s="138"/>
+      <c r="Q38" s="138"/>
+      <c r="R38" s="138"/>
+      <c r="S38" s="138"/>
+      <c r="T38" s="138"/>
+      <c r="U38" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="V38" s="138"/>
-      <c r="W38" s="138"/>
-      <c r="X38" s="138"/>
-      <c r="Y38" s="138"/>
-      <c r="Z38" s="138"/>
-      <c r="AA38" s="138"/>
-      <c r="AB38" s="138"/>
-      <c r="AC38" s="138"/>
-      <c r="AD38" s="138"/>
-      <c r="AE38" s="138"/>
-      <c r="AF38" s="138"/>
-      <c r="AG38" s="138"/>
-      <c r="AH38" s="138"/>
-      <c r="AI38" s="138"/>
-      <c r="AJ38" s="138"/>
-      <c r="AK38" s="138"/>
-      <c r="AL38" s="138"/>
-      <c r="AM38" s="138"/>
+      <c r="V38" s="139"/>
+      <c r="W38" s="139"/>
+      <c r="X38" s="139"/>
+      <c r="Y38" s="139"/>
+      <c r="Z38" s="139"/>
+      <c r="AA38" s="139"/>
+      <c r="AB38" s="139"/>
+      <c r="AC38" s="139"/>
+      <c r="AD38" s="139"/>
+      <c r="AE38" s="139"/>
+      <c r="AF38" s="139"/>
+      <c r="AG38" s="139"/>
+      <c r="AH38" s="139"/>
+      <c r="AI38" s="139"/>
+      <c r="AJ38" s="139"/>
+      <c r="AK38" s="139"/>
+      <c r="AL38" s="139"/>
+      <c r="AM38" s="139"/>
     </row>
     <row r="39" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
       <c r="C39" s="98"/>
       <c r="D39" s="98"/>
-      <c r="E39" s="137"/>
-      <c r="F39" s="137"/>
-      <c r="G39" s="137"/>
-      <c r="H39" s="137"/>
-      <c r="I39" s="137"/>
-      <c r="J39" s="137"/>
-      <c r="K39" s="137"/>
-      <c r="L39" s="137"/>
-      <c r="M39" s="137"/>
-      <c r="N39" s="137"/>
-      <c r="O39" s="137"/>
-      <c r="P39" s="137"/>
-      <c r="Q39" s="137"/>
-      <c r="R39" s="137"/>
-      <c r="S39" s="137"/>
-      <c r="T39" s="137"/>
-      <c r="U39" s="138"/>
-      <c r="V39" s="138"/>
-      <c r="W39" s="138"/>
-      <c r="X39" s="138"/>
-      <c r="Y39" s="138"/>
-      <c r="Z39" s="138"/>
-      <c r="AA39" s="138"/>
-      <c r="AB39" s="138"/>
-      <c r="AC39" s="138"/>
-      <c r="AD39" s="138"/>
-      <c r="AE39" s="138"/>
-      <c r="AF39" s="138"/>
-      <c r="AG39" s="138"/>
-      <c r="AH39" s="138"/>
-      <c r="AI39" s="138"/>
-      <c r="AJ39" s="138"/>
-      <c r="AK39" s="138"/>
-      <c r="AL39" s="138"/>
-      <c r="AM39" s="138"/>
+      <c r="E39" s="138"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="138"/>
+      <c r="J39" s="138"/>
+      <c r="K39" s="138"/>
+      <c r="L39" s="138"/>
+      <c r="M39" s="138"/>
+      <c r="N39" s="138"/>
+      <c r="O39" s="138"/>
+      <c r="P39" s="138"/>
+      <c r="Q39" s="138"/>
+      <c r="R39" s="138"/>
+      <c r="S39" s="138"/>
+      <c r="T39" s="138"/>
+      <c r="U39" s="139"/>
+      <c r="V39" s="139"/>
+      <c r="W39" s="139"/>
+      <c r="X39" s="139"/>
+      <c r="Y39" s="139"/>
+      <c r="Z39" s="139"/>
+      <c r="AA39" s="139"/>
+      <c r="AB39" s="139"/>
+      <c r="AC39" s="139"/>
+      <c r="AD39" s="139"/>
+      <c r="AE39" s="139"/>
+      <c r="AF39" s="139"/>
+      <c r="AG39" s="139"/>
+      <c r="AH39" s="139"/>
+      <c r="AI39" s="139"/>
+      <c r="AJ39" s="139"/>
+      <c r="AK39" s="139"/>
+      <c r="AL39" s="139"/>
+      <c r="AM39" s="139"/>
     </row>
     <row r="40" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
@@ -24723,45 +24730,45 @@
         <v>11</v>
       </c>
       <c r="D40" s="98"/>
-      <c r="E40" s="137" t="s">
+      <c r="E40" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="F40" s="137"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="137"/>
-      <c r="J40" s="137"/>
-      <c r="K40" s="137"/>
-      <c r="L40" s="137"/>
-      <c r="M40" s="137"/>
-      <c r="N40" s="137"/>
-      <c r="O40" s="137"/>
-      <c r="P40" s="137"/>
-      <c r="Q40" s="137"/>
-      <c r="R40" s="137"/>
-      <c r="S40" s="137"/>
-      <c r="T40" s="137"/>
-      <c r="U40" s="138" t="s">
+      <c r="F40" s="138"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="138"/>
+      <c r="J40" s="138"/>
+      <c r="K40" s="138"/>
+      <c r="L40" s="138"/>
+      <c r="M40" s="138"/>
+      <c r="N40" s="138"/>
+      <c r="O40" s="138"/>
+      <c r="P40" s="138"/>
+      <c r="Q40" s="138"/>
+      <c r="R40" s="138"/>
+      <c r="S40" s="138"/>
+      <c r="T40" s="138"/>
+      <c r="U40" s="139" t="s">
         <v>145</v>
       </c>
-      <c r="V40" s="138"/>
-      <c r="W40" s="138"/>
-      <c r="X40" s="138"/>
-      <c r="Y40" s="138"/>
-      <c r="Z40" s="138"/>
-      <c r="AA40" s="138"/>
-      <c r="AB40" s="138"/>
-      <c r="AC40" s="138"/>
-      <c r="AD40" s="138"/>
-      <c r="AE40" s="138"/>
-      <c r="AF40" s="138"/>
-      <c r="AG40" s="138"/>
-      <c r="AH40" s="138"/>
-      <c r="AI40" s="138"/>
-      <c r="AJ40" s="138"/>
-      <c r="AK40" s="138"/>
-      <c r="AL40" s="138"/>
-      <c r="AM40" s="138"/>
+      <c r="V40" s="139"/>
+      <c r="W40" s="139"/>
+      <c r="X40" s="139"/>
+      <c r="Y40" s="139"/>
+      <c r="Z40" s="139"/>
+      <c r="AA40" s="139"/>
+      <c r="AB40" s="139"/>
+      <c r="AC40" s="139"/>
+      <c r="AD40" s="139"/>
+      <c r="AE40" s="139"/>
+      <c r="AF40" s="139"/>
+      <c r="AG40" s="139"/>
+      <c r="AH40" s="139"/>
+      <c r="AI40" s="139"/>
+      <c r="AJ40" s="139"/>
+      <c r="AK40" s="139"/>
+      <c r="AL40" s="139"/>
+      <c r="AM40" s="139"/>
     </row>
     <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
@@ -24770,41 +24777,41 @@
       <c r="B41" s="50"/>
       <c r="C41" s="98"/>
       <c r="D41" s="98"/>
-      <c r="E41" s="137"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="137"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="137"/>
-      <c r="J41" s="137"/>
-      <c r="K41" s="137"/>
-      <c r="L41" s="137"/>
-      <c r="M41" s="137"/>
-      <c r="N41" s="137"/>
-      <c r="O41" s="137"/>
-      <c r="P41" s="137"/>
-      <c r="Q41" s="137"/>
-      <c r="R41" s="137"/>
-      <c r="S41" s="137"/>
-      <c r="T41" s="137"/>
-      <c r="U41" s="138"/>
-      <c r="V41" s="138"/>
-      <c r="W41" s="138"/>
-      <c r="X41" s="138"/>
-      <c r="Y41" s="138"/>
-      <c r="Z41" s="138"/>
-      <c r="AA41" s="138"/>
-      <c r="AB41" s="138"/>
-      <c r="AC41" s="138"/>
-      <c r="AD41" s="138"/>
-      <c r="AE41" s="138"/>
-      <c r="AF41" s="138"/>
-      <c r="AG41" s="138"/>
-      <c r="AH41" s="138"/>
-      <c r="AI41" s="138"/>
-      <c r="AJ41" s="138"/>
-      <c r="AK41" s="138"/>
-      <c r="AL41" s="138"/>
-      <c r="AM41" s="138"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="138"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="138"/>
+      <c r="K41" s="138"/>
+      <c r="L41" s="138"/>
+      <c r="M41" s="138"/>
+      <c r="N41" s="138"/>
+      <c r="O41" s="138"/>
+      <c r="P41" s="138"/>
+      <c r="Q41" s="138"/>
+      <c r="R41" s="138"/>
+      <c r="S41" s="138"/>
+      <c r="T41" s="138"/>
+      <c r="U41" s="139"/>
+      <c r="V41" s="139"/>
+      <c r="W41" s="139"/>
+      <c r="X41" s="139"/>
+      <c r="Y41" s="139"/>
+      <c r="Z41" s="139"/>
+      <c r="AA41" s="139"/>
+      <c r="AB41" s="139"/>
+      <c r="AC41" s="139"/>
+      <c r="AD41" s="139"/>
+      <c r="AE41" s="139"/>
+      <c r="AF41" s="139"/>
+      <c r="AG41" s="139"/>
+      <c r="AH41" s="139"/>
+      <c r="AI41" s="139"/>
+      <c r="AJ41" s="139"/>
+      <c r="AK41" s="139"/>
+      <c r="AL41" s="139"/>
+      <c r="AM41" s="139"/>
     </row>
     <row r="42" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49"/>
@@ -24813,37 +24820,37 @@
         <v>12</v>
       </c>
       <c r="D42" s="98"/>
-      <c r="E42" s="137" t="s">
+      <c r="E42" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
-      <c r="J42" s="137"/>
-      <c r="K42" s="137"/>
-      <c r="L42" s="137"/>
-      <c r="M42" s="137"/>
-      <c r="N42" s="137"/>
-      <c r="O42" s="137"/>
-      <c r="P42" s="137"/>
-      <c r="Q42" s="137"/>
-      <c r="R42" s="137"/>
-      <c r="S42" s="137"/>
-      <c r="T42" s="137"/>
-      <c r="U42" s="138" t="s">
+      <c r="F42" s="138"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="138"/>
+      <c r="I42" s="138"/>
+      <c r="J42" s="138"/>
+      <c r="K42" s="138"/>
+      <c r="L42" s="138"/>
+      <c r="M42" s="138"/>
+      <c r="N42" s="138"/>
+      <c r="O42" s="138"/>
+      <c r="P42" s="138"/>
+      <c r="Q42" s="138"/>
+      <c r="R42" s="138"/>
+      <c r="S42" s="138"/>
+      <c r="T42" s="138"/>
+      <c r="U42" s="139" t="s">
         <v>147</v>
       </c>
-      <c r="V42" s="138"/>
-      <c r="W42" s="138"/>
-      <c r="X42" s="138"/>
-      <c r="Y42" s="138"/>
-      <c r="Z42" s="138"/>
-      <c r="AA42" s="138"/>
-      <c r="AB42" s="138"/>
-      <c r="AC42" s="138"/>
-      <c r="AD42" s="138"/>
-      <c r="AE42" s="138"/>
+      <c r="V42" s="139"/>
+      <c r="W42" s="139"/>
+      <c r="X42" s="139"/>
+      <c r="Y42" s="139"/>
+      <c r="Z42" s="139"/>
+      <c r="AA42" s="139"/>
+      <c r="AB42" s="139"/>
+      <c r="AC42" s="139"/>
+      <c r="AD42" s="139"/>
+      <c r="AE42" s="139"/>
       <c r="AF42" s="98" t="s">
         <v>148</v>
       </c>
@@ -24860,33 +24867,33 @@
       <c r="B43" s="50"/>
       <c r="C43" s="98"/>
       <c r="D43" s="98"/>
-      <c r="E43" s="137"/>
-      <c r="F43" s="137"/>
-      <c r="G43" s="137"/>
-      <c r="H43" s="137"/>
-      <c r="I43" s="137"/>
-      <c r="J43" s="137"/>
-      <c r="K43" s="137"/>
-      <c r="L43" s="137"/>
-      <c r="M43" s="137"/>
-      <c r="N43" s="137"/>
-      <c r="O43" s="137"/>
-      <c r="P43" s="137"/>
-      <c r="Q43" s="137"/>
-      <c r="R43" s="137"/>
-      <c r="S43" s="137"/>
-      <c r="T43" s="137"/>
-      <c r="U43" s="138"/>
-      <c r="V43" s="138"/>
-      <c r="W43" s="138"/>
-      <c r="X43" s="138"/>
-      <c r="Y43" s="138"/>
-      <c r="Z43" s="138"/>
-      <c r="AA43" s="138"/>
-      <c r="AB43" s="138"/>
-      <c r="AC43" s="138"/>
-      <c r="AD43" s="138"/>
-      <c r="AE43" s="138"/>
+      <c r="E43" s="138"/>
+      <c r="F43" s="138"/>
+      <c r="G43" s="138"/>
+      <c r="H43" s="138"/>
+      <c r="I43" s="138"/>
+      <c r="J43" s="138"/>
+      <c r="K43" s="138"/>
+      <c r="L43" s="138"/>
+      <c r="M43" s="138"/>
+      <c r="N43" s="138"/>
+      <c r="O43" s="138"/>
+      <c r="P43" s="138"/>
+      <c r="Q43" s="138"/>
+      <c r="R43" s="138"/>
+      <c r="S43" s="138"/>
+      <c r="T43" s="138"/>
+      <c r="U43" s="139"/>
+      <c r="V43" s="139"/>
+      <c r="W43" s="139"/>
+      <c r="X43" s="139"/>
+      <c r="Y43" s="139"/>
+      <c r="Z43" s="139"/>
+      <c r="AA43" s="139"/>
+      <c r="AB43" s="139"/>
+      <c r="AC43" s="139"/>
+      <c r="AD43" s="139"/>
+      <c r="AE43" s="139"/>
       <c r="AF43" s="98"/>
       <c r="AG43" s="98"/>
       <c r="AH43" s="98"/>
@@ -24903,37 +24910,37 @@
         <v>13</v>
       </c>
       <c r="D44" s="98"/>
-      <c r="E44" s="137" t="s">
+      <c r="E44" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="F44" s="137"/>
-      <c r="G44" s="137"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="137"/>
-      <c r="J44" s="137"/>
-      <c r="K44" s="137"/>
-      <c r="L44" s="137"/>
-      <c r="M44" s="137"/>
-      <c r="N44" s="137"/>
-      <c r="O44" s="137"/>
-      <c r="P44" s="137"/>
-      <c r="Q44" s="137"/>
-      <c r="R44" s="137"/>
-      <c r="S44" s="137"/>
-      <c r="T44" s="137"/>
-      <c r="U44" s="138" t="s">
+      <c r="F44" s="138"/>
+      <c r="G44" s="138"/>
+      <c r="H44" s="138"/>
+      <c r="I44" s="138"/>
+      <c r="J44" s="138"/>
+      <c r="K44" s="138"/>
+      <c r="L44" s="138"/>
+      <c r="M44" s="138"/>
+      <c r="N44" s="138"/>
+      <c r="O44" s="138"/>
+      <c r="P44" s="138"/>
+      <c r="Q44" s="138"/>
+      <c r="R44" s="138"/>
+      <c r="S44" s="138"/>
+      <c r="T44" s="138"/>
+      <c r="U44" s="139" t="s">
         <v>149</v>
       </c>
-      <c r="V44" s="138"/>
-      <c r="W44" s="138"/>
-      <c r="X44" s="138"/>
-      <c r="Y44" s="138"/>
-      <c r="Z44" s="138"/>
-      <c r="AA44" s="138"/>
-      <c r="AB44" s="138"/>
-      <c r="AC44" s="138"/>
-      <c r="AD44" s="138"/>
-      <c r="AE44" s="138"/>
+      <c r="V44" s="139"/>
+      <c r="W44" s="139"/>
+      <c r="X44" s="139"/>
+      <c r="Y44" s="139"/>
+      <c r="Z44" s="139"/>
+      <c r="AA44" s="139"/>
+      <c r="AB44" s="139"/>
+      <c r="AC44" s="139"/>
+      <c r="AD44" s="139"/>
+      <c r="AE44" s="139"/>
       <c r="AF44" s="98" t="s">
         <v>150</v>
       </c>
@@ -24950,33 +24957,33 @@
       <c r="B45" s="50"/>
       <c r="C45" s="98"/>
       <c r="D45" s="98"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="137"/>
-      <c r="J45" s="137"/>
-      <c r="K45" s="137"/>
-      <c r="L45" s="137"/>
-      <c r="M45" s="137"/>
-      <c r="N45" s="137"/>
-      <c r="O45" s="137"/>
-      <c r="P45" s="137"/>
-      <c r="Q45" s="137"/>
-      <c r="R45" s="137"/>
-      <c r="S45" s="137"/>
-      <c r="T45" s="137"/>
-      <c r="U45" s="138"/>
-      <c r="V45" s="138"/>
-      <c r="W45" s="138"/>
-      <c r="X45" s="138"/>
-      <c r="Y45" s="138"/>
-      <c r="Z45" s="138"/>
-      <c r="AA45" s="138"/>
-      <c r="AB45" s="138"/>
-      <c r="AC45" s="138"/>
-      <c r="AD45" s="138"/>
-      <c r="AE45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="138"/>
+      <c r="G45" s="138"/>
+      <c r="H45" s="138"/>
+      <c r="I45" s="138"/>
+      <c r="J45" s="138"/>
+      <c r="K45" s="138"/>
+      <c r="L45" s="138"/>
+      <c r="M45" s="138"/>
+      <c r="N45" s="138"/>
+      <c r="O45" s="138"/>
+      <c r="P45" s="138"/>
+      <c r="Q45" s="138"/>
+      <c r="R45" s="138"/>
+      <c r="S45" s="138"/>
+      <c r="T45" s="138"/>
+      <c r="U45" s="139"/>
+      <c r="V45" s="139"/>
+      <c r="W45" s="139"/>
+      <c r="X45" s="139"/>
+      <c r="Y45" s="139"/>
+      <c r="Z45" s="139"/>
+      <c r="AA45" s="139"/>
+      <c r="AB45" s="139"/>
+      <c r="AC45" s="139"/>
+      <c r="AD45" s="139"/>
+      <c r="AE45" s="139"/>
       <c r="AF45" s="98"/>
       <c r="AG45" s="98"/>
       <c r="AH45" s="98"/>
@@ -24995,37 +25002,37 @@
         <v>14</v>
       </c>
       <c r="D46" s="98"/>
-      <c r="E46" s="137" t="s">
+      <c r="E46" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="137"/>
-      <c r="J46" s="137"/>
-      <c r="K46" s="137"/>
-      <c r="L46" s="137"/>
-      <c r="M46" s="137"/>
-      <c r="N46" s="137"/>
-      <c r="O46" s="137"/>
-      <c r="P46" s="137"/>
-      <c r="Q46" s="137"/>
-      <c r="R46" s="137"/>
-      <c r="S46" s="137"/>
-      <c r="T46" s="137"/>
-      <c r="U46" s="138" t="s">
+      <c r="F46" s="138"/>
+      <c r="G46" s="138"/>
+      <c r="H46" s="138"/>
+      <c r="I46" s="138"/>
+      <c r="J46" s="138"/>
+      <c r="K46" s="138"/>
+      <c r="L46" s="138"/>
+      <c r="M46" s="138"/>
+      <c r="N46" s="138"/>
+      <c r="O46" s="138"/>
+      <c r="P46" s="138"/>
+      <c r="Q46" s="138"/>
+      <c r="R46" s="138"/>
+      <c r="S46" s="138"/>
+      <c r="T46" s="138"/>
+      <c r="U46" s="139" t="s">
         <v>151</v>
       </c>
-      <c r="V46" s="138"/>
-      <c r="W46" s="138"/>
-      <c r="X46" s="138"/>
-      <c r="Y46" s="138"/>
-      <c r="Z46" s="138"/>
-      <c r="AA46" s="138"/>
-      <c r="AB46" s="138"/>
-      <c r="AC46" s="138"/>
-      <c r="AD46" s="138"/>
-      <c r="AE46" s="138"/>
+      <c r="V46" s="139"/>
+      <c r="W46" s="139"/>
+      <c r="X46" s="139"/>
+      <c r="Y46" s="139"/>
+      <c r="Z46" s="139"/>
+      <c r="AA46" s="139"/>
+      <c r="AB46" s="139"/>
+      <c r="AC46" s="139"/>
+      <c r="AD46" s="139"/>
+      <c r="AE46" s="139"/>
       <c r="AF46" s="98" t="s">
         <v>152</v>
       </c>
@@ -25042,33 +25049,33 @@
       <c r="B47" s="50"/>
       <c r="C47" s="98"/>
       <c r="D47" s="98"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="137"/>
-      <c r="I47" s="137"/>
-      <c r="J47" s="137"/>
-      <c r="K47" s="137"/>
-      <c r="L47" s="137"/>
-      <c r="M47" s="137"/>
-      <c r="N47" s="137"/>
-      <c r="O47" s="137"/>
-      <c r="P47" s="137"/>
-      <c r="Q47" s="137"/>
-      <c r="R47" s="137"/>
-      <c r="S47" s="137"/>
-      <c r="T47" s="137"/>
-      <c r="U47" s="138"/>
-      <c r="V47" s="138"/>
-      <c r="W47" s="138"/>
-      <c r="X47" s="138"/>
-      <c r="Y47" s="138"/>
-      <c r="Z47" s="138"/>
-      <c r="AA47" s="138"/>
-      <c r="AB47" s="138"/>
-      <c r="AC47" s="138"/>
-      <c r="AD47" s="138"/>
-      <c r="AE47" s="138"/>
+      <c r="E47" s="138"/>
+      <c r="F47" s="138"/>
+      <c r="G47" s="138"/>
+      <c r="H47" s="138"/>
+      <c r="I47" s="138"/>
+      <c r="J47" s="138"/>
+      <c r="K47" s="138"/>
+      <c r="L47" s="138"/>
+      <c r="M47" s="138"/>
+      <c r="N47" s="138"/>
+      <c r="O47" s="138"/>
+      <c r="P47" s="138"/>
+      <c r="Q47" s="138"/>
+      <c r="R47" s="138"/>
+      <c r="S47" s="138"/>
+      <c r="T47" s="138"/>
+      <c r="U47" s="139"/>
+      <c r="V47" s="139"/>
+      <c r="W47" s="139"/>
+      <c r="X47" s="139"/>
+      <c r="Y47" s="139"/>
+      <c r="Z47" s="139"/>
+      <c r="AA47" s="139"/>
+      <c r="AB47" s="139"/>
+      <c r="AC47" s="139"/>
+      <c r="AD47" s="139"/>
+      <c r="AE47" s="139"/>
       <c r="AF47" s="98"/>
       <c r="AG47" s="98"/>
       <c r="AH47" s="98"/>
@@ -25085,37 +25092,37 @@
         <v>15</v>
       </c>
       <c r="D48" s="98"/>
-      <c r="E48" s="137" t="s">
+      <c r="E48" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="137"/>
-      <c r="J48" s="137"/>
-      <c r="K48" s="137"/>
-      <c r="L48" s="137"/>
-      <c r="M48" s="137"/>
-      <c r="N48" s="137"/>
-      <c r="O48" s="137"/>
-      <c r="P48" s="137"/>
-      <c r="Q48" s="137"/>
-      <c r="R48" s="137"/>
-      <c r="S48" s="137"/>
-      <c r="T48" s="137"/>
-      <c r="U48" s="139" t="s">
+      <c r="F48" s="138"/>
+      <c r="G48" s="138"/>
+      <c r="H48" s="138"/>
+      <c r="I48" s="138"/>
+      <c r="J48" s="138"/>
+      <c r="K48" s="138"/>
+      <c r="L48" s="138"/>
+      <c r="M48" s="138"/>
+      <c r="N48" s="138"/>
+      <c r="O48" s="138"/>
+      <c r="P48" s="138"/>
+      <c r="Q48" s="138"/>
+      <c r="R48" s="138"/>
+      <c r="S48" s="138"/>
+      <c r="T48" s="138"/>
+      <c r="U48" s="140" t="s">
         <v>153</v>
       </c>
-      <c r="V48" s="139"/>
-      <c r="W48" s="139"/>
-      <c r="X48" s="139"/>
-      <c r="Y48" s="139"/>
-      <c r="Z48" s="139"/>
-      <c r="AA48" s="139"/>
-      <c r="AB48" s="139"/>
-      <c r="AC48" s="139"/>
-      <c r="AD48" s="139"/>
-      <c r="AE48" s="139"/>
+      <c r="V48" s="140"/>
+      <c r="W48" s="140"/>
+      <c r="X48" s="140"/>
+      <c r="Y48" s="140"/>
+      <c r="Z48" s="140"/>
+      <c r="AA48" s="140"/>
+      <c r="AB48" s="140"/>
+      <c r="AC48" s="140"/>
+      <c r="AD48" s="140"/>
+      <c r="AE48" s="140"/>
       <c r="AF48" s="98" t="s">
         <v>154</v>
       </c>
@@ -25132,33 +25139,33 @@
       <c r="B49" s="50"/>
       <c r="C49" s="98"/>
       <c r="D49" s="98"/>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="137"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="137"/>
-      <c r="J49" s="137"/>
-      <c r="K49" s="137"/>
-      <c r="L49" s="137"/>
-      <c r="M49" s="137"/>
-      <c r="N49" s="137"/>
-      <c r="O49" s="137"/>
-      <c r="P49" s="137"/>
-      <c r="Q49" s="137"/>
-      <c r="R49" s="137"/>
-      <c r="S49" s="137"/>
-      <c r="T49" s="137"/>
-      <c r="U49" s="139"/>
-      <c r="V49" s="139"/>
-      <c r="W49" s="139"/>
-      <c r="X49" s="139"/>
-      <c r="Y49" s="139"/>
-      <c r="Z49" s="139"/>
-      <c r="AA49" s="139"/>
-      <c r="AB49" s="139"/>
-      <c r="AC49" s="139"/>
-      <c r="AD49" s="139"/>
-      <c r="AE49" s="139"/>
+      <c r="E49" s="138"/>
+      <c r="F49" s="138"/>
+      <c r="G49" s="138"/>
+      <c r="H49" s="138"/>
+      <c r="I49" s="138"/>
+      <c r="J49" s="138"/>
+      <c r="K49" s="138"/>
+      <c r="L49" s="138"/>
+      <c r="M49" s="138"/>
+      <c r="N49" s="138"/>
+      <c r="O49" s="138"/>
+      <c r="P49" s="138"/>
+      <c r="Q49" s="138"/>
+      <c r="R49" s="138"/>
+      <c r="S49" s="138"/>
+      <c r="T49" s="138"/>
+      <c r="U49" s="140"/>
+      <c r="V49" s="140"/>
+      <c r="W49" s="140"/>
+      <c r="X49" s="140"/>
+      <c r="Y49" s="140"/>
+      <c r="Z49" s="140"/>
+      <c r="AA49" s="140"/>
+      <c r="AB49" s="140"/>
+      <c r="AC49" s="140"/>
+      <c r="AD49" s="140"/>
+      <c r="AE49" s="140"/>
       <c r="AF49" s="98"/>
       <c r="AG49" s="98"/>
       <c r="AH49" s="98"/>
@@ -25173,33 +25180,33 @@
       <c r="B50" s="50"/>
       <c r="C50" s="98"/>
       <c r="D50" s="98"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137"/>
-      <c r="J50" s="137"/>
-      <c r="K50" s="137"/>
-      <c r="L50" s="137"/>
-      <c r="M50" s="137"/>
-      <c r="N50" s="137"/>
-      <c r="O50" s="137"/>
-      <c r="P50" s="137"/>
-      <c r="Q50" s="137"/>
-      <c r="R50" s="137"/>
-      <c r="S50" s="137"/>
-      <c r="T50" s="137"/>
-      <c r="U50" s="139"/>
-      <c r="V50" s="139"/>
-      <c r="W50" s="139"/>
-      <c r="X50" s="139"/>
-      <c r="Y50" s="139"/>
-      <c r="Z50" s="139"/>
-      <c r="AA50" s="139"/>
-      <c r="AB50" s="139"/>
-      <c r="AC50" s="139"/>
-      <c r="AD50" s="139"/>
-      <c r="AE50" s="139"/>
+      <c r="E50" s="138"/>
+      <c r="F50" s="138"/>
+      <c r="G50" s="138"/>
+      <c r="H50" s="138"/>
+      <c r="I50" s="138"/>
+      <c r="J50" s="138"/>
+      <c r="K50" s="138"/>
+      <c r="L50" s="138"/>
+      <c r="M50" s="138"/>
+      <c r="N50" s="138"/>
+      <c r="O50" s="138"/>
+      <c r="P50" s="138"/>
+      <c r="Q50" s="138"/>
+      <c r="R50" s="138"/>
+      <c r="S50" s="138"/>
+      <c r="T50" s="138"/>
+      <c r="U50" s="140"/>
+      <c r="V50" s="140"/>
+      <c r="W50" s="140"/>
+      <c r="X50" s="140"/>
+      <c r="Y50" s="140"/>
+      <c r="Z50" s="140"/>
+      <c r="AA50" s="140"/>
+      <c r="AB50" s="140"/>
+      <c r="AC50" s="140"/>
+      <c r="AD50" s="140"/>
+      <c r="AE50" s="140"/>
       <c r="AF50" s="98"/>
       <c r="AG50" s="98"/>
       <c r="AH50" s="98"/>
@@ -25216,37 +25223,37 @@
         <v>16</v>
       </c>
       <c r="D51" s="98"/>
-      <c r="E51" s="137" t="s">
+      <c r="E51" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="F51" s="137"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="137"/>
-      <c r="I51" s="137"/>
-      <c r="J51" s="137"/>
-      <c r="K51" s="137"/>
-      <c r="L51" s="137"/>
-      <c r="M51" s="137"/>
-      <c r="N51" s="137"/>
-      <c r="O51" s="137"/>
-      <c r="P51" s="137"/>
-      <c r="Q51" s="137"/>
-      <c r="R51" s="137"/>
-      <c r="S51" s="137"/>
-      <c r="T51" s="137"/>
-      <c r="U51" s="138" t="s">
+      <c r="F51" s="138"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="138"/>
+      <c r="I51" s="138"/>
+      <c r="J51" s="138"/>
+      <c r="K51" s="138"/>
+      <c r="L51" s="138"/>
+      <c r="M51" s="138"/>
+      <c r="N51" s="138"/>
+      <c r="O51" s="138"/>
+      <c r="P51" s="138"/>
+      <c r="Q51" s="138"/>
+      <c r="R51" s="138"/>
+      <c r="S51" s="138"/>
+      <c r="T51" s="138"/>
+      <c r="U51" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="V51" s="138"/>
-      <c r="W51" s="138"/>
-      <c r="X51" s="138"/>
-      <c r="Y51" s="138"/>
-      <c r="Z51" s="138"/>
-      <c r="AA51" s="138"/>
-      <c r="AB51" s="138"/>
-      <c r="AC51" s="138"/>
-      <c r="AD51" s="138"/>
-      <c r="AE51" s="138"/>
+      <c r="V51" s="139"/>
+      <c r="W51" s="139"/>
+      <c r="X51" s="139"/>
+      <c r="Y51" s="139"/>
+      <c r="Z51" s="139"/>
+      <c r="AA51" s="139"/>
+      <c r="AB51" s="139"/>
+      <c r="AC51" s="139"/>
+      <c r="AD51" s="139"/>
+      <c r="AE51" s="139"/>
       <c r="AF51" s="98" t="s">
         <v>156</v>
       </c>
@@ -25263,33 +25270,33 @@
       <c r="B52" s="50"/>
       <c r="C52" s="98"/>
       <c r="D52" s="98"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="137"/>
-      <c r="J52" s="137"/>
-      <c r="K52" s="137"/>
-      <c r="L52" s="137"/>
-      <c r="M52" s="137"/>
-      <c r="N52" s="137"/>
-      <c r="O52" s="137"/>
-      <c r="P52" s="137"/>
-      <c r="Q52" s="137"/>
-      <c r="R52" s="137"/>
-      <c r="S52" s="137"/>
-      <c r="T52" s="137"/>
-      <c r="U52" s="138"/>
-      <c r="V52" s="138"/>
-      <c r="W52" s="138"/>
-      <c r="X52" s="138"/>
-      <c r="Y52" s="138"/>
-      <c r="Z52" s="138"/>
-      <c r="AA52" s="138"/>
-      <c r="AB52" s="138"/>
-      <c r="AC52" s="138"/>
-      <c r="AD52" s="138"/>
-      <c r="AE52" s="138"/>
+      <c r="E52" s="138"/>
+      <c r="F52" s="138"/>
+      <c r="G52" s="138"/>
+      <c r="H52" s="138"/>
+      <c r="I52" s="138"/>
+      <c r="J52" s="138"/>
+      <c r="K52" s="138"/>
+      <c r="L52" s="138"/>
+      <c r="M52" s="138"/>
+      <c r="N52" s="138"/>
+      <c r="O52" s="138"/>
+      <c r="P52" s="138"/>
+      <c r="Q52" s="138"/>
+      <c r="R52" s="138"/>
+      <c r="S52" s="138"/>
+      <c r="T52" s="138"/>
+      <c r="U52" s="139"/>
+      <c r="V52" s="139"/>
+      <c r="W52" s="139"/>
+      <c r="X52" s="139"/>
+      <c r="Y52" s="139"/>
+      <c r="Z52" s="139"/>
+      <c r="AA52" s="139"/>
+      <c r="AB52" s="139"/>
+      <c r="AC52" s="139"/>
+      <c r="AD52" s="139"/>
+      <c r="AE52" s="139"/>
       <c r="AF52" s="98"/>
       <c r="AG52" s="98"/>
       <c r="AH52" s="98"/>
@@ -25304,40 +25311,40 @@
         <v>16</v>
       </c>
       <c r="B53" s="55"/>
-      <c r="C53" s="140"/>
+      <c r="C53" s="141"/>
       <c r="D53" s="19"/>
-      <c r="E53" s="141"/>
-      <c r="F53" s="141"/>
-      <c r="G53" s="141"/>
-      <c r="H53" s="141"/>
-      <c r="I53" s="141"/>
-      <c r="J53" s="141"/>
-      <c r="K53" s="141"/>
-      <c r="L53" s="141"/>
-      <c r="M53" s="141"/>
-      <c r="N53" s="141"/>
-      <c r="O53" s="141"/>
-      <c r="P53" s="141"/>
-      <c r="Q53" s="141"/>
-      <c r="R53" s="141"/>
-      <c r="S53" s="141"/>
-      <c r="T53" s="141"/>
-      <c r="U53" s="141"/>
-      <c r="V53" s="141"/>
-      <c r="W53" s="141"/>
-      <c r="X53" s="141"/>
-      <c r="Y53" s="141"/>
-      <c r="Z53" s="141"/>
-      <c r="AA53" s="141"/>
-      <c r="AB53" s="141"/>
-      <c r="AC53" s="141"/>
-      <c r="AD53" s="141"/>
-      <c r="AE53" s="141"/>
-      <c r="AF53" s="141"/>
-      <c r="AG53" s="141"/>
-      <c r="AH53" s="141"/>
-      <c r="AI53" s="141"/>
-      <c r="AJ53" s="141"/>
+      <c r="E53" s="142"/>
+      <c r="F53" s="142"/>
+      <c r="G53" s="142"/>
+      <c r="H53" s="142"/>
+      <c r="I53" s="142"/>
+      <c r="J53" s="142"/>
+      <c r="K53" s="142"/>
+      <c r="L53" s="142"/>
+      <c r="M53" s="142"/>
+      <c r="N53" s="142"/>
+      <c r="O53" s="142"/>
+      <c r="P53" s="142"/>
+      <c r="Q53" s="142"/>
+      <c r="R53" s="142"/>
+      <c r="S53" s="142"/>
+      <c r="T53" s="142"/>
+      <c r="U53" s="142"/>
+      <c r="V53" s="142"/>
+      <c r="W53" s="142"/>
+      <c r="X53" s="142"/>
+      <c r="Y53" s="142"/>
+      <c r="Z53" s="142"/>
+      <c r="AA53" s="142"/>
+      <c r="AB53" s="142"/>
+      <c r="AC53" s="142"/>
+      <c r="AD53" s="142"/>
+      <c r="AE53" s="142"/>
+      <c r="AF53" s="142"/>
+      <c r="AG53" s="142"/>
+      <c r="AH53" s="142"/>
+      <c r="AI53" s="142"/>
+      <c r="AJ53" s="142"/>
       <c r="AK53" s="23"/>
       <c r="AL53" s="6"/>
       <c r="AM53" s="41"/>
@@ -25422,11 +25429,11 @@
       <c r="AH55" s="97"/>
       <c r="AI55" s="97"/>
       <c r="AJ55" s="97"/>
-      <c r="AK55" s="83" t="s">
+      <c r="AK55" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="AL55" s="83"/>
-      <c r="AM55" s="83"/>
+      <c r="AL55" s="82"/>
+      <c r="AM55" s="82"/>
     </row>
     <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="49"/>
@@ -25444,10 +25451,10 @@
       <c r="M56" s="123"/>
       <c r="N56" s="123"/>
       <c r="O56" s="123"/>
-      <c r="P56" s="81" t="s">
+      <c r="P56" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="Q56" s="81"/>
+      <c r="Q56" s="78"/>
       <c r="R56" s="97"/>
       <c r="S56" s="97"/>
       <c r="T56" s="97"/>

--- a/backend/static/report.xlsx
+++ b/backend/static/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -522,6 +522,9 @@
     <t xml:space="preserve">3. Перечень предоставленной технической документации</t>
   </si>
   <si>
+    <t xml:space="preserve">Жилой дом, расположенный</t>
+  </si>
+  <si>
     <t xml:space="preserve">4. Результаты оценки технического состояния строительных конструкций</t>
   </si>
   <si>
@@ -541,9 +544,6 @@
   </si>
   <si>
     <t xml:space="preserve">4.2. Результаты обследования строительных конструкций</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Классификация технического состояния конструкций принята в соответствии ГОСТ 31937-2011 «Здания и сооружения. Правила обследования и мониторинга технического состояния».</t>
   </si>
 </sst>
 </file>
@@ -818,7 +818,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="158">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1447,6 +1447,10 @@
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1530,9 +1534,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>118440</xdr:colOff>
+      <xdr:colOff>118080</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1546,7 +1550,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="281160" y="66240"/>
-          <a:ext cx="1351080" cy="571680"/>
+          <a:ext cx="1350720" cy="571320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1573,9 +1577,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>167760</xdr:colOff>
+      <xdr:colOff>167400</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:rowOff>71280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1589,7 +1593,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="510120" y="39240"/>
-          <a:ext cx="1351080" cy="571680"/>
+          <a:ext cx="1350720" cy="571320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1616,9 +1620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>118080</xdr:colOff>
+      <xdr:colOff>117720</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1632,7 +1636,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5803920" y="10002240"/>
-          <a:ext cx="680040" cy="287280"/>
+          <a:ext cx="679680" cy="286920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1761,8 +1765,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N36" activeCellId="0" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3411,7 +3415,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AB16" activeCellId="0" sqref="AB16"/>
     </sheetView>
   </sheetViews>
@@ -5817,8 +5821,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q43" activeCellId="0" sqref="Q43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE47" activeCellId="0" sqref="AE47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5833,7 +5837,9 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4"/>
+      <c r="A1" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="B1" s="4"/>
       <c r="C1" s="105"/>
       <c r="D1" s="106"/>
@@ -5912,7 +5918,7 @@
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="51"/>
       <c r="D2" s="125" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E2" s="125"/>
       <c r="F2" s="125"/>
@@ -6030,7 +6036,7 @@
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="40"/>
       <c r="D5" s="125" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E5" s="125"/>
       <c r="F5" s="125"/>
@@ -6150,7 +6156,7 @@
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="40"/>
       <c r="D8" s="156" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E8" s="156"/>
       <c r="F8" s="156"/>
@@ -6859,7 +6865,7 @@
     <row r="27" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="40"/>
       <c r="D27" s="125" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E27" s="125"/>
       <c r="F27" s="125"/>
@@ -6982,242 +6988,249 @@
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
       <c r="C30" s="40"/>
-      <c r="D30" s="156" t="s">
-        <v>162</v>
-      </c>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="156"/>
-      <c r="O30" s="156"/>
-      <c r="P30" s="156"/>
-      <c r="Q30" s="156"/>
-      <c r="R30" s="156"/>
-      <c r="S30" s="156"/>
-      <c r="T30" s="156"/>
-      <c r="U30" s="156"/>
-      <c r="V30" s="156"/>
-      <c r="W30" s="156"/>
-      <c r="X30" s="156"/>
-      <c r="Y30" s="156"/>
-      <c r="Z30" s="156"/>
-      <c r="AA30" s="156"/>
-      <c r="AB30" s="156"/>
-      <c r="AC30" s="156"/>
-      <c r="AD30" s="156"/>
-      <c r="AE30" s="156"/>
-      <c r="AF30" s="156"/>
-      <c r="AG30" s="156"/>
-      <c r="AH30" s="156"/>
-      <c r="AI30" s="156"/>
-      <c r="AJ30" s="156"/>
-      <c r="AK30" s="156"/>
+      <c r="D30" s="157" t="str">
+        <f aca="false">IF(ISBLANK(Титульный!B8),"",IFERROR(IF(OR(LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилое помещение",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилой дом",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Многоквартирный дом"),"Физический износ конструкций принят в соответствии с ВСН 53-86(р) «Правила оценки физического износа жилых зданий" &amp; CHAR(10),""),"")) &amp; "Классификация технического состояния конструкций принята в соответствии ГОСТ 31937-2011 «Здания и сооружения. Правила обследования и мониторинга технического состояния»."</f>
+        <v>Классификация технического состояния конструкций принята в соответствии ГОСТ 31937-2011 «Здания и сооружения. Правила обследования и мониторинга технического состояния».</v>
+      </c>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="157"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="157"/>
+      <c r="O30" s="157"/>
+      <c r="P30" s="157"/>
+      <c r="Q30" s="157"/>
+      <c r="R30" s="157"/>
+      <c r="S30" s="157"/>
+      <c r="T30" s="157"/>
+      <c r="U30" s="157"/>
+      <c r="V30" s="157"/>
+      <c r="W30" s="157"/>
+      <c r="X30" s="157"/>
+      <c r="Y30" s="157"/>
+      <c r="Z30" s="157"/>
+      <c r="AA30" s="157"/>
+      <c r="AB30" s="157"/>
+      <c r="AC30" s="157"/>
+      <c r="AD30" s="157"/>
+      <c r="AE30" s="157"/>
+      <c r="AF30" s="157"/>
+      <c r="AG30" s="157"/>
+      <c r="AH30" s="157"/>
+      <c r="AI30" s="157"/>
+      <c r="AJ30" s="157"/>
+      <c r="AK30" s="157"/>
+      <c r="AL30" s="157"/>
       <c r="AM30" s="41"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
       <c r="C31" s="40"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="156"/>
-      <c r="O31" s="156"/>
-      <c r="P31" s="156"/>
-      <c r="Q31" s="156"/>
-      <c r="R31" s="156"/>
-      <c r="S31" s="156"/>
-      <c r="T31" s="156"/>
-      <c r="U31" s="156"/>
-      <c r="V31" s="156"/>
-      <c r="W31" s="156"/>
-      <c r="X31" s="156"/>
-      <c r="Y31" s="156"/>
-      <c r="Z31" s="156"/>
-      <c r="AA31" s="156"/>
-      <c r="AB31" s="156"/>
-      <c r="AC31" s="156"/>
-      <c r="AD31" s="156"/>
-      <c r="AE31" s="156"/>
-      <c r="AF31" s="156"/>
-      <c r="AG31" s="156"/>
-      <c r="AH31" s="156"/>
-      <c r="AI31" s="156"/>
-      <c r="AJ31" s="156"/>
-      <c r="AK31" s="156"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="157"/>
+      <c r="L31" s="157"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="157"/>
+      <c r="O31" s="157"/>
+      <c r="P31" s="157"/>
+      <c r="Q31" s="157"/>
+      <c r="R31" s="157"/>
+      <c r="S31" s="157"/>
+      <c r="T31" s="157"/>
+      <c r="U31" s="157"/>
+      <c r="V31" s="157"/>
+      <c r="W31" s="157"/>
+      <c r="X31" s="157"/>
+      <c r="Y31" s="157"/>
+      <c r="Z31" s="157"/>
+      <c r="AA31" s="157"/>
+      <c r="AB31" s="157"/>
+      <c r="AC31" s="157"/>
+      <c r="AD31" s="157"/>
+      <c r="AE31" s="157"/>
+      <c r="AF31" s="157"/>
+      <c r="AG31" s="157"/>
+      <c r="AH31" s="157"/>
+      <c r="AI31" s="157"/>
+      <c r="AJ31" s="157"/>
+      <c r="AK31" s="157"/>
+      <c r="AL31" s="157"/>
       <c r="AM31" s="41"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
       <c r="C32" s="40"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="156"/>
-      <c r="N32" s="156"/>
-      <c r="O32" s="156"/>
-      <c r="P32" s="156"/>
-      <c r="Q32" s="156"/>
-      <c r="R32" s="156"/>
-      <c r="S32" s="156"/>
-      <c r="T32" s="156"/>
-      <c r="U32" s="156"/>
-      <c r="V32" s="156"/>
-      <c r="W32" s="156"/>
-      <c r="X32" s="156"/>
-      <c r="Y32" s="156"/>
-      <c r="Z32" s="156"/>
-      <c r="AA32" s="156"/>
-      <c r="AB32" s="156"/>
-      <c r="AC32" s="156"/>
-      <c r="AD32" s="156"/>
-      <c r="AE32" s="156"/>
-      <c r="AF32" s="156"/>
-      <c r="AG32" s="156"/>
-      <c r="AH32" s="156"/>
-      <c r="AI32" s="156"/>
-      <c r="AJ32" s="156"/>
-      <c r="AK32" s="156"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="157"/>
+      <c r="M32" s="157"/>
+      <c r="N32" s="157"/>
+      <c r="O32" s="157"/>
+      <c r="P32" s="157"/>
+      <c r="Q32" s="157"/>
+      <c r="R32" s="157"/>
+      <c r="S32" s="157"/>
+      <c r="T32" s="157"/>
+      <c r="U32" s="157"/>
+      <c r="V32" s="157"/>
+      <c r="W32" s="157"/>
+      <c r="X32" s="157"/>
+      <c r="Y32" s="157"/>
+      <c r="Z32" s="157"/>
+      <c r="AA32" s="157"/>
+      <c r="AB32" s="157"/>
+      <c r="AC32" s="157"/>
+      <c r="AD32" s="157"/>
+      <c r="AE32" s="157"/>
+      <c r="AF32" s="157"/>
+      <c r="AG32" s="157"/>
+      <c r="AH32" s="157"/>
+      <c r="AI32" s="157"/>
+      <c r="AJ32" s="157"/>
+      <c r="AK32" s="157"/>
+      <c r="AL32" s="157"/>
       <c r="AM32" s="41"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="156"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="156"/>
-      <c r="N33" s="156"/>
-      <c r="O33" s="156"/>
-      <c r="P33" s="156"/>
-      <c r="Q33" s="156"/>
-      <c r="R33" s="156"/>
-      <c r="S33" s="156"/>
-      <c r="T33" s="156"/>
-      <c r="U33" s="156"/>
-      <c r="V33" s="156"/>
-      <c r="W33" s="156"/>
-      <c r="X33" s="156"/>
-      <c r="Y33" s="156"/>
-      <c r="Z33" s="156"/>
-      <c r="AA33" s="156"/>
-      <c r="AB33" s="156"/>
-      <c r="AC33" s="156"/>
-      <c r="AD33" s="156"/>
-      <c r="AE33" s="156"/>
-      <c r="AF33" s="156"/>
-      <c r="AG33" s="156"/>
-      <c r="AH33" s="156"/>
-      <c r="AI33" s="156"/>
-      <c r="AJ33" s="156"/>
-      <c r="AK33" s="156"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="157"/>
+      <c r="H33" s="157"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="157"/>
+      <c r="K33" s="157"/>
+      <c r="L33" s="157"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="157"/>
+      <c r="O33" s="157"/>
+      <c r="P33" s="157"/>
+      <c r="Q33" s="157"/>
+      <c r="R33" s="157"/>
+      <c r="S33" s="157"/>
+      <c r="T33" s="157"/>
+      <c r="U33" s="157"/>
+      <c r="V33" s="157"/>
+      <c r="W33" s="157"/>
+      <c r="X33" s="157"/>
+      <c r="Y33" s="157"/>
+      <c r="Z33" s="157"/>
+      <c r="AA33" s="157"/>
+      <c r="AB33" s="157"/>
+      <c r="AC33" s="157"/>
+      <c r="AD33" s="157"/>
+      <c r="AE33" s="157"/>
+      <c r="AF33" s="157"/>
+      <c r="AG33" s="157"/>
+      <c r="AH33" s="157"/>
+      <c r="AI33" s="157"/>
+      <c r="AJ33" s="157"/>
+      <c r="AK33" s="157"/>
+      <c r="AL33" s="157"/>
       <c r="AM33" s="41"/>
     </row>
     <row r="34" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
       <c r="C34" s="40"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="156"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="156"/>
-      <c r="K34" s="156"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="156"/>
-      <c r="N34" s="156"/>
-      <c r="O34" s="156"/>
-      <c r="P34" s="156"/>
-      <c r="Q34" s="156"/>
-      <c r="R34" s="156"/>
-      <c r="S34" s="156"/>
-      <c r="T34" s="156"/>
-      <c r="U34" s="156"/>
-      <c r="V34" s="156"/>
-      <c r="W34" s="156"/>
-      <c r="X34" s="156"/>
-      <c r="Y34" s="156"/>
-      <c r="Z34" s="156"/>
-      <c r="AA34" s="156"/>
-      <c r="AB34" s="156"/>
-      <c r="AC34" s="156"/>
-      <c r="AD34" s="156"/>
-      <c r="AE34" s="156"/>
-      <c r="AF34" s="156"/>
-      <c r="AG34" s="156"/>
-      <c r="AH34" s="156"/>
-      <c r="AI34" s="156"/>
-      <c r="AJ34" s="156"/>
-      <c r="AK34" s="156"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="157"/>
+      <c r="K34" s="157"/>
+      <c r="L34" s="157"/>
+      <c r="M34" s="157"/>
+      <c r="N34" s="157"/>
+      <c r="O34" s="157"/>
+      <c r="P34" s="157"/>
+      <c r="Q34" s="157"/>
+      <c r="R34" s="157"/>
+      <c r="S34" s="157"/>
+      <c r="T34" s="157"/>
+      <c r="U34" s="157"/>
+      <c r="V34" s="157"/>
+      <c r="W34" s="157"/>
+      <c r="X34" s="157"/>
+      <c r="Y34" s="157"/>
+      <c r="Z34" s="157"/>
+      <c r="AA34" s="157"/>
+      <c r="AB34" s="157"/>
+      <c r="AC34" s="157"/>
+      <c r="AD34" s="157"/>
+      <c r="AE34" s="157"/>
+      <c r="AF34" s="157"/>
+      <c r="AG34" s="157"/>
+      <c r="AH34" s="157"/>
+      <c r="AI34" s="157"/>
+      <c r="AJ34" s="157"/>
+      <c r="AK34" s="157"/>
+      <c r="AL34" s="157"/>
       <c r="AM34" s="41"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="156"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="156"/>
-      <c r="K35" s="156"/>
-      <c r="L35" s="156"/>
-      <c r="M35" s="156"/>
-      <c r="N35" s="156"/>
-      <c r="O35" s="156"/>
-      <c r="P35" s="156"/>
-      <c r="Q35" s="156"/>
-      <c r="R35" s="156"/>
-      <c r="S35" s="156"/>
-      <c r="T35" s="156"/>
-      <c r="U35" s="156"/>
-      <c r="V35" s="156"/>
-      <c r="W35" s="156"/>
-      <c r="X35" s="156"/>
-      <c r="Y35" s="156"/>
-      <c r="Z35" s="156"/>
-      <c r="AA35" s="156"/>
-      <c r="AB35" s="156"/>
-      <c r="AC35" s="156"/>
-      <c r="AD35" s="156"/>
-      <c r="AE35" s="156"/>
-      <c r="AF35" s="156"/>
-      <c r="AG35" s="156"/>
-      <c r="AH35" s="156"/>
-      <c r="AI35" s="156"/>
-      <c r="AJ35" s="156"/>
-      <c r="AK35" s="156"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="157"/>
+      <c r="K35" s="157"/>
+      <c r="L35" s="157"/>
+      <c r="M35" s="157"/>
+      <c r="N35" s="157"/>
+      <c r="O35" s="157"/>
+      <c r="P35" s="157"/>
+      <c r="Q35" s="157"/>
+      <c r="R35" s="157"/>
+      <c r="S35" s="157"/>
+      <c r="T35" s="157"/>
+      <c r="U35" s="157"/>
+      <c r="V35" s="157"/>
+      <c r="W35" s="157"/>
+      <c r="X35" s="157"/>
+      <c r="Y35" s="157"/>
+      <c r="Z35" s="157"/>
+      <c r="AA35" s="157"/>
+      <c r="AB35" s="157"/>
+      <c r="AC35" s="157"/>
+      <c r="AD35" s="157"/>
+      <c r="AE35" s="157"/>
+      <c r="AF35" s="157"/>
+      <c r="AG35" s="157"/>
+      <c r="AH35" s="157"/>
+      <c r="AI35" s="157"/>
+      <c r="AJ35" s="157"/>
+      <c r="AK35" s="157"/>
+      <c r="AL35" s="157"/>
       <c r="AM35" s="41"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7226,68 +7239,205 @@
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="40"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="156"/>
-      <c r="K36" s="156"/>
-      <c r="L36" s="156"/>
-      <c r="M36" s="156"/>
-      <c r="N36" s="156"/>
-      <c r="O36" s="156"/>
-      <c r="P36" s="156"/>
-      <c r="Q36" s="156"/>
-      <c r="R36" s="156"/>
-      <c r="S36" s="156"/>
-      <c r="T36" s="156"/>
-      <c r="U36" s="156"/>
-      <c r="V36" s="156"/>
-      <c r="W36" s="156"/>
-      <c r="X36" s="156"/>
-      <c r="Y36" s="156"/>
-      <c r="Z36" s="156"/>
-      <c r="AA36" s="156"/>
-      <c r="AB36" s="156"/>
-      <c r="AC36" s="156"/>
-      <c r="AD36" s="156"/>
-      <c r="AE36" s="156"/>
-      <c r="AF36" s="156"/>
-      <c r="AG36" s="156"/>
-      <c r="AH36" s="156"/>
-      <c r="AI36" s="156"/>
-      <c r="AJ36" s="156"/>
-      <c r="AK36" s="156"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="157"/>
+      <c r="K36" s="157"/>
+      <c r="L36" s="157"/>
+      <c r="M36" s="157"/>
+      <c r="N36" s="157"/>
+      <c r="O36" s="157"/>
+      <c r="P36" s="157"/>
+      <c r="Q36" s="157"/>
+      <c r="R36" s="157"/>
+      <c r="S36" s="157"/>
+      <c r="T36" s="157"/>
+      <c r="U36" s="157"/>
+      <c r="V36" s="157"/>
+      <c r="W36" s="157"/>
+      <c r="X36" s="157"/>
+      <c r="Y36" s="157"/>
+      <c r="Z36" s="157"/>
+      <c r="AA36" s="157"/>
+      <c r="AB36" s="157"/>
+      <c r="AC36" s="157"/>
+      <c r="AD36" s="157"/>
+      <c r="AE36" s="157"/>
+      <c r="AF36" s="157"/>
+      <c r="AG36" s="157"/>
+      <c r="AH36" s="157"/>
+      <c r="AI36" s="157"/>
+      <c r="AJ36" s="157"/>
+      <c r="AK36" s="157"/>
+      <c r="AL36" s="157"/>
       <c r="AM36" s="41"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
       <c r="C37" s="40"/>
-      <c r="AK37" s="8"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="157"/>
+      <c r="K37" s="157"/>
+      <c r="L37" s="157"/>
+      <c r="M37" s="157"/>
+      <c r="N37" s="157"/>
+      <c r="O37" s="157"/>
+      <c r="P37" s="157"/>
+      <c r="Q37" s="157"/>
+      <c r="R37" s="157"/>
+      <c r="S37" s="157"/>
+      <c r="T37" s="157"/>
+      <c r="U37" s="157"/>
+      <c r="V37" s="157"/>
+      <c r="W37" s="157"/>
+      <c r="X37" s="157"/>
+      <c r="Y37" s="157"/>
+      <c r="Z37" s="157"/>
+      <c r="AA37" s="157"/>
+      <c r="AB37" s="157"/>
+      <c r="AC37" s="157"/>
+      <c r="AD37" s="157"/>
+      <c r="AE37" s="157"/>
+      <c r="AF37" s="157"/>
+      <c r="AG37" s="157"/>
+      <c r="AH37" s="157"/>
+      <c r="AI37" s="157"/>
+      <c r="AJ37" s="157"/>
+      <c r="AK37" s="157"/>
+      <c r="AL37" s="157"/>
       <c r="AM37" s="41"/>
     </row>
     <row r="38" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
       <c r="C38" s="40"/>
-      <c r="AK38" s="8"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="157"/>
+      <c r="K38" s="157"/>
+      <c r="L38" s="157"/>
+      <c r="M38" s="157"/>
+      <c r="N38" s="157"/>
+      <c r="O38" s="157"/>
+      <c r="P38" s="157"/>
+      <c r="Q38" s="157"/>
+      <c r="R38" s="157"/>
+      <c r="S38" s="157"/>
+      <c r="T38" s="157"/>
+      <c r="U38" s="157"/>
+      <c r="V38" s="157"/>
+      <c r="W38" s="157"/>
+      <c r="X38" s="157"/>
+      <c r="Y38" s="157"/>
+      <c r="Z38" s="157"/>
+      <c r="AA38" s="157"/>
+      <c r="AB38" s="157"/>
+      <c r="AC38" s="157"/>
+      <c r="AD38" s="157"/>
+      <c r="AE38" s="157"/>
+      <c r="AF38" s="157"/>
+      <c r="AG38" s="157"/>
+      <c r="AH38" s="157"/>
+      <c r="AI38" s="157"/>
+      <c r="AJ38" s="157"/>
+      <c r="AK38" s="157"/>
+      <c r="AL38" s="157"/>
       <c r="AM38" s="41"/>
     </row>
     <row r="39" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
       <c r="C39" s="40"/>
-      <c r="AK39" s="8"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="157"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="157"/>
+      <c r="K39" s="157"/>
+      <c r="L39" s="157"/>
+      <c r="M39" s="157"/>
+      <c r="N39" s="157"/>
+      <c r="O39" s="157"/>
+      <c r="P39" s="157"/>
+      <c r="Q39" s="157"/>
+      <c r="R39" s="157"/>
+      <c r="S39" s="157"/>
+      <c r="T39" s="157"/>
+      <c r="U39" s="157"/>
+      <c r="V39" s="157"/>
+      <c r="W39" s="157"/>
+      <c r="X39" s="157"/>
+      <c r="Y39" s="157"/>
+      <c r="Z39" s="157"/>
+      <c r="AA39" s="157"/>
+      <c r="AB39" s="157"/>
+      <c r="AC39" s="157"/>
+      <c r="AD39" s="157"/>
+      <c r="AE39" s="157"/>
+      <c r="AF39" s="157"/>
+      <c r="AG39" s="157"/>
+      <c r="AH39" s="157"/>
+      <c r="AI39" s="157"/>
+      <c r="AJ39" s="157"/>
+      <c r="AK39" s="157"/>
+      <c r="AL39" s="157"/>
       <c r="AM39" s="41"/>
     </row>
     <row r="40" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
       <c r="B40" s="50"/>
       <c r="C40" s="40"/>
-      <c r="AK40" s="8"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="157"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="157"/>
+      <c r="K40" s="157"/>
+      <c r="L40" s="157"/>
+      <c r="M40" s="157"/>
+      <c r="N40" s="157"/>
+      <c r="O40" s="157"/>
+      <c r="P40" s="157"/>
+      <c r="Q40" s="157"/>
+      <c r="R40" s="157"/>
+      <c r="S40" s="157"/>
+      <c r="T40" s="157"/>
+      <c r="U40" s="157"/>
+      <c r="V40" s="157"/>
+      <c r="W40" s="157"/>
+      <c r="X40" s="157"/>
+      <c r="Y40" s="157"/>
+      <c r="Z40" s="157"/>
+      <c r="AA40" s="157"/>
+      <c r="AB40" s="157"/>
+      <c r="AC40" s="157"/>
+      <c r="AD40" s="157"/>
+      <c r="AE40" s="157"/>
+      <c r="AF40" s="157"/>
+      <c r="AG40" s="157"/>
+      <c r="AH40" s="157"/>
+      <c r="AI40" s="157"/>
+      <c r="AJ40" s="157"/>
+      <c r="AK40" s="157"/>
+      <c r="AL40" s="157"/>
       <c r="AM40" s="41"/>
     </row>
     <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7753,7 +7903,7 @@
     <mergeCell ref="D27:AL28"/>
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="B29:B35"/>
-    <mergeCell ref="D30:AK36"/>
+    <mergeCell ref="D30:AL40"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="B36:B40"/>
     <mergeCell ref="A41:A45"/>

--- a/backend/static/report.xlsx
+++ b/backend/static/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="162">
   <si>
     <t xml:space="preserve">ООО «Строительно-производственно объединение «УРАЛ»</t>
   </si>
@@ -520,9 +520,6 @@
   </si>
   <si>
     <t xml:space="preserve">3. Перечень предоставленной технической документации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жилой дом, расположенный</t>
   </si>
   <si>
     <t xml:space="preserve">4. Результаты оценки технического состояния строительных конструкций</t>
@@ -1766,7 +1763,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N36" activeCellId="0" sqref="N36"/>
+      <selection pane="topLeft" activeCell="N36" activeCellId="0" sqref="H8:AH49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3416,7 +3413,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB16" activeCellId="0" sqref="AB16"/>
+      <selection pane="topLeft" activeCell="AB16" activeCellId="0" sqref="H8:AH49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5821,2138 +5818,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE47" activeCellId="0" sqref="AE47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="2.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="38" min="4" style="1" width="2.55"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="2.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="75" min="40" style="1" width="2.55"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="76" style="9" width="2.55"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="106"/>
-      <c r="AH1" s="106"/>
-      <c r="AI1" s="106"/>
-      <c r="AJ1" s="106"/>
-      <c r="AK1" s="107"/>
-      <c r="AL1" s="108"/>
-      <c r="AM1" s="109"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="4"/>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4"/>
-      <c r="BM1" s="4"/>
-      <c r="BN1" s="4"/>
-      <c r="BO1" s="4"/>
-      <c r="BP1" s="4"/>
-      <c r="BQ1" s="4"/>
-      <c r="BR1" s="4"/>
-      <c r="BS1" s="4"/>
-      <c r="BT1" s="4"/>
-      <c r="BU1" s="4"/>
-      <c r="BV1" s="4"/>
-      <c r="BW1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="51"/>
-      <c r="D2" s="125" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
-      <c r="AA2" s="125"/>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="125"/>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="125"/>
-      <c r="AG2" s="125"/>
-      <c r="AH2" s="125"/>
-      <c r="AI2" s="125"/>
-      <c r="AJ2" s="125"/>
-      <c r="AK2" s="125"/>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="52"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C3" s="51"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="125"/>
-      <c r="AE3" s="125"/>
-      <c r="AF3" s="125"/>
-      <c r="AG3" s="125"/>
-      <c r="AH3" s="125"/>
-      <c r="AI3" s="125"/>
-      <c r="AJ3" s="125"/>
-      <c r="AK3" s="125"/>
-      <c r="AL3" s="125"/>
-      <c r="AM3" s="52"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C4" s="51"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="8"/>
-      <c r="AM4" s="52"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="40"/>
-      <c r="D5" s="125" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="125"/>
-      <c r="T5" s="125"/>
-      <c r="U5" s="125"/>
-      <c r="V5" s="125"/>
-      <c r="W5" s="125"/>
-      <c r="X5" s="125"/>
-      <c r="Y5" s="125"/>
-      <c r="Z5" s="125"/>
-      <c r="AA5" s="125"/>
-      <c r="AB5" s="125"/>
-      <c r="AC5" s="125"/>
-      <c r="AD5" s="125"/>
-      <c r="AE5" s="125"/>
-      <c r="AF5" s="125"/>
-      <c r="AG5" s="125"/>
-      <c r="AH5" s="125"/>
-      <c r="AI5" s="125"/>
-      <c r="AJ5" s="125"/>
-      <c r="AK5" s="125"/>
-      <c r="AL5" s="125"/>
-      <c r="AM5" s="41"/>
-      <c r="AQ5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C6" s="42"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125"/>
-      <c r="AA6" s="125"/>
-      <c r="AB6" s="125"/>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="125"/>
-      <c r="AF6" s="125"/>
-      <c r="AG6" s="125"/>
-      <c r="AH6" s="125"/>
-      <c r="AI6" s="125"/>
-      <c r="AJ6" s="125"/>
-      <c r="AK6" s="125"/>
-      <c r="AL6" s="125"/>
-      <c r="AM6" s="43"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="44"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="125"/>
-      <c r="T7" s="125"/>
-      <c r="U7" s="125"/>
-      <c r="V7" s="125"/>
-      <c r="W7" s="125"/>
-      <c r="X7" s="125"/>
-      <c r="Y7" s="125"/>
-      <c r="Z7" s="125"/>
-      <c r="AA7" s="125"/>
-      <c r="AB7" s="125"/>
-      <c r="AC7" s="125"/>
-      <c r="AD7" s="125"/>
-      <c r="AE7" s="125"/>
-      <c r="AF7" s="125"/>
-      <c r="AG7" s="125"/>
-      <c r="AH7" s="125"/>
-      <c r="AI7" s="125"/>
-      <c r="AJ7" s="125"/>
-      <c r="AK7" s="125"/>
-      <c r="AL7" s="125"/>
-      <c r="AM7" s="43"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C8" s="40"/>
-      <c r="D8" s="156" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="156"/>
-      <c r="S8" s="156"/>
-      <c r="T8" s="156"/>
-      <c r="U8" s="156"/>
-      <c r="V8" s="156"/>
-      <c r="W8" s="156"/>
-      <c r="X8" s="156"/>
-      <c r="Y8" s="156"/>
-      <c r="Z8" s="156"/>
-      <c r="AA8" s="156"/>
-      <c r="AB8" s="156"/>
-      <c r="AC8" s="156"/>
-      <c r="AD8" s="156"/>
-      <c r="AE8" s="156"/>
-      <c r="AF8" s="156"/>
-      <c r="AG8" s="156"/>
-      <c r="AH8" s="156"/>
-      <c r="AI8" s="156"/>
-      <c r="AJ8" s="156"/>
-      <c r="AK8" s="156"/>
-      <c r="AL8" s="156"/>
-      <c r="AM8" s="41"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="40"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="156"/>
-      <c r="N9" s="156"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="156"/>
-      <c r="S9" s="156"/>
-      <c r="T9" s="156"/>
-      <c r="U9" s="156"/>
-      <c r="V9" s="156"/>
-      <c r="W9" s="156"/>
-      <c r="X9" s="156"/>
-      <c r="Y9" s="156"/>
-      <c r="Z9" s="156"/>
-      <c r="AA9" s="156"/>
-      <c r="AB9" s="156"/>
-      <c r="AC9" s="156"/>
-      <c r="AD9" s="156"/>
-      <c r="AE9" s="156"/>
-      <c r="AF9" s="156"/>
-      <c r="AG9" s="156"/>
-      <c r="AH9" s="156"/>
-      <c r="AI9" s="156"/>
-      <c r="AJ9" s="156"/>
-      <c r="AK9" s="156"/>
-      <c r="AL9" s="156"/>
-      <c r="AM9" s="41"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="46"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="156"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="156"/>
-      <c r="R10" s="156"/>
-      <c r="S10" s="156"/>
-      <c r="T10" s="156"/>
-      <c r="U10" s="156"/>
-      <c r="V10" s="156"/>
-      <c r="W10" s="156"/>
-      <c r="X10" s="156"/>
-      <c r="Y10" s="156"/>
-      <c r="Z10" s="156"/>
-      <c r="AA10" s="156"/>
-      <c r="AB10" s="156"/>
-      <c r="AC10" s="156"/>
-      <c r="AD10" s="156"/>
-      <c r="AE10" s="156"/>
-      <c r="AF10" s="156"/>
-      <c r="AG10" s="156"/>
-      <c r="AH10" s="156"/>
-      <c r="AI10" s="156"/>
-      <c r="AJ10" s="156"/>
-      <c r="AK10" s="156"/>
-      <c r="AL10" s="156"/>
-      <c r="AM10" s="47"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="46"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="156"/>
-      <c r="O11" s="156"/>
-      <c r="P11" s="156"/>
-      <c r="Q11" s="156"/>
-      <c r="R11" s="156"/>
-      <c r="S11" s="156"/>
-      <c r="T11" s="156"/>
-      <c r="U11" s="156"/>
-      <c r="V11" s="156"/>
-      <c r="W11" s="156"/>
-      <c r="X11" s="156"/>
-      <c r="Y11" s="156"/>
-      <c r="Z11" s="156"/>
-      <c r="AA11" s="156"/>
-      <c r="AB11" s="156"/>
-      <c r="AC11" s="156"/>
-      <c r="AD11" s="156"/>
-      <c r="AE11" s="156"/>
-      <c r="AF11" s="156"/>
-      <c r="AG11" s="156"/>
-      <c r="AH11" s="156"/>
-      <c r="AI11" s="156"/>
-      <c r="AJ11" s="156"/>
-      <c r="AK11" s="156"/>
-      <c r="AL11" s="156"/>
-      <c r="AM11" s="47"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="46"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="156"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="156"/>
-      <c r="Q12" s="156"/>
-      <c r="R12" s="156"/>
-      <c r="S12" s="156"/>
-      <c r="T12" s="156"/>
-      <c r="U12" s="156"/>
-      <c r="V12" s="156"/>
-      <c r="W12" s="156"/>
-      <c r="X12" s="156"/>
-      <c r="Y12" s="156"/>
-      <c r="Z12" s="156"/>
-      <c r="AA12" s="156"/>
-      <c r="AB12" s="156"/>
-      <c r="AC12" s="156"/>
-      <c r="AD12" s="156"/>
-      <c r="AE12" s="156"/>
-      <c r="AF12" s="156"/>
-      <c r="AG12" s="156"/>
-      <c r="AH12" s="156"/>
-      <c r="AI12" s="156"/>
-      <c r="AJ12" s="156"/>
-      <c r="AK12" s="156"/>
-      <c r="AL12" s="156"/>
-      <c r="AM12" s="47"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="46"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="156"/>
-      <c r="N13" s="156"/>
-      <c r="O13" s="156"/>
-      <c r="P13" s="156"/>
-      <c r="Q13" s="156"/>
-      <c r="R13" s="156"/>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="156"/>
-      <c r="V13" s="156"/>
-      <c r="W13" s="156"/>
-      <c r="X13" s="156"/>
-      <c r="Y13" s="156"/>
-      <c r="Z13" s="156"/>
-      <c r="AA13" s="156"/>
-      <c r="AB13" s="156"/>
-      <c r="AC13" s="156"/>
-      <c r="AD13" s="156"/>
-      <c r="AE13" s="156"/>
-      <c r="AF13" s="156"/>
-      <c r="AG13" s="156"/>
-      <c r="AH13" s="156"/>
-      <c r="AI13" s="156"/>
-      <c r="AJ13" s="156"/>
-      <c r="AK13" s="156"/>
-      <c r="AL13" s="156"/>
-      <c r="AM13" s="47"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="46"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="156"/>
-      <c r="N14" s="156"/>
-      <c r="O14" s="156"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="156"/>
-      <c r="R14" s="156"/>
-      <c r="S14" s="156"/>
-      <c r="T14" s="156"/>
-      <c r="U14" s="156"/>
-      <c r="V14" s="156"/>
-      <c r="W14" s="156"/>
-      <c r="X14" s="156"/>
-      <c r="Y14" s="156"/>
-      <c r="Z14" s="156"/>
-      <c r="AA14" s="156"/>
-      <c r="AB14" s="156"/>
-      <c r="AC14" s="156"/>
-      <c r="AD14" s="156"/>
-      <c r="AE14" s="156"/>
-      <c r="AF14" s="156"/>
-      <c r="AG14" s="156"/>
-      <c r="AH14" s="156"/>
-      <c r="AI14" s="156"/>
-      <c r="AJ14" s="156"/>
-      <c r="AK14" s="156"/>
-      <c r="AL14" s="156"/>
-      <c r="AM14" s="47"/>
-    </row>
-    <row r="15" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="40"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="156"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="156"/>
-      <c r="O15" s="156"/>
-      <c r="P15" s="156"/>
-      <c r="Q15" s="156"/>
-      <c r="R15" s="156"/>
-      <c r="S15" s="156"/>
-      <c r="T15" s="156"/>
-      <c r="U15" s="156"/>
-      <c r="V15" s="156"/>
-      <c r="W15" s="156"/>
-      <c r="X15" s="156"/>
-      <c r="Y15" s="156"/>
-      <c r="Z15" s="156"/>
-      <c r="AA15" s="156"/>
-      <c r="AB15" s="156"/>
-      <c r="AC15" s="156"/>
-      <c r="AD15" s="156"/>
-      <c r="AE15" s="156"/>
-      <c r="AF15" s="156"/>
-      <c r="AG15" s="156"/>
-      <c r="AH15" s="156"/>
-      <c r="AI15" s="156"/>
-      <c r="AJ15" s="156"/>
-      <c r="AK15" s="156"/>
-      <c r="AL15" s="156"/>
-      <c r="AM15" s="41"/>
-    </row>
-    <row r="16" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="40"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="156"/>
-      <c r="O16" s="156"/>
-      <c r="P16" s="156"/>
-      <c r="Q16" s="156"/>
-      <c r="R16" s="156"/>
-      <c r="S16" s="156"/>
-      <c r="T16" s="156"/>
-      <c r="U16" s="156"/>
-      <c r="V16" s="156"/>
-      <c r="W16" s="156"/>
-      <c r="X16" s="156"/>
-      <c r="Y16" s="156"/>
-      <c r="Z16" s="156"/>
-      <c r="AA16" s="156"/>
-      <c r="AB16" s="156"/>
-      <c r="AC16" s="156"/>
-      <c r="AD16" s="156"/>
-      <c r="AE16" s="156"/>
-      <c r="AF16" s="156"/>
-      <c r="AG16" s="156"/>
-      <c r="AH16" s="156"/>
-      <c r="AI16" s="156"/>
-      <c r="AJ16" s="156"/>
-      <c r="AK16" s="156"/>
-      <c r="AL16" s="156"/>
-      <c r="AM16" s="41"/>
-    </row>
-    <row r="17" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C17" s="40"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="156"/>
-      <c r="K17" s="156"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="156"/>
-      <c r="N17" s="156"/>
-      <c r="O17" s="156"/>
-      <c r="P17" s="156"/>
-      <c r="Q17" s="156"/>
-      <c r="R17" s="156"/>
-      <c r="S17" s="156"/>
-      <c r="T17" s="156"/>
-      <c r="U17" s="156"/>
-      <c r="V17" s="156"/>
-      <c r="W17" s="156"/>
-      <c r="X17" s="156"/>
-      <c r="Y17" s="156"/>
-      <c r="Z17" s="156"/>
-      <c r="AA17" s="156"/>
-      <c r="AB17" s="156"/>
-      <c r="AC17" s="156"/>
-      <c r="AD17" s="156"/>
-      <c r="AE17" s="156"/>
-      <c r="AF17" s="156"/>
-      <c r="AG17" s="156"/>
-      <c r="AH17" s="156"/>
-      <c r="AI17" s="156"/>
-      <c r="AJ17" s="156"/>
-      <c r="AK17" s="156"/>
-      <c r="AL17" s="156"/>
-      <c r="AM17" s="41"/>
-    </row>
-    <row r="18" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C18" s="40"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="156"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="156"/>
-      <c r="Q18" s="156"/>
-      <c r="R18" s="156"/>
-      <c r="S18" s="156"/>
-      <c r="T18" s="156"/>
-      <c r="U18" s="156"/>
-      <c r="V18" s="156"/>
-      <c r="W18" s="156"/>
-      <c r="X18" s="156"/>
-      <c r="Y18" s="156"/>
-      <c r="Z18" s="156"/>
-      <c r="AA18" s="156"/>
-      <c r="AB18" s="156"/>
-      <c r="AC18" s="156"/>
-      <c r="AD18" s="156"/>
-      <c r="AE18" s="156"/>
-      <c r="AF18" s="156"/>
-      <c r="AG18" s="156"/>
-      <c r="AH18" s="156"/>
-      <c r="AI18" s="156"/>
-      <c r="AJ18" s="156"/>
-      <c r="AK18" s="156"/>
-      <c r="AL18" s="156"/>
-      <c r="AM18" s="41"/>
-    </row>
-    <row r="19" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C19" s="40"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="156"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="156"/>
-      <c r="Q19" s="156"/>
-      <c r="R19" s="156"/>
-      <c r="S19" s="156"/>
-      <c r="T19" s="156"/>
-      <c r="U19" s="156"/>
-      <c r="V19" s="156"/>
-      <c r="W19" s="156"/>
-      <c r="X19" s="156"/>
-      <c r="Y19" s="156"/>
-      <c r="Z19" s="156"/>
-      <c r="AA19" s="156"/>
-      <c r="AB19" s="156"/>
-      <c r="AC19" s="156"/>
-      <c r="AD19" s="156"/>
-      <c r="AE19" s="156"/>
-      <c r="AF19" s="156"/>
-      <c r="AG19" s="156"/>
-      <c r="AH19" s="156"/>
-      <c r="AI19" s="156"/>
-      <c r="AJ19" s="156"/>
-      <c r="AK19" s="156"/>
-      <c r="AL19" s="156"/>
-      <c r="AM19" s="41"/>
-    </row>
-    <row r="20" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="40"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="156"/>
-      <c r="P20" s="156"/>
-      <c r="Q20" s="156"/>
-      <c r="R20" s="156"/>
-      <c r="S20" s="156"/>
-      <c r="T20" s="156"/>
-      <c r="U20" s="156"/>
-      <c r="V20" s="156"/>
-      <c r="W20" s="156"/>
-      <c r="X20" s="156"/>
-      <c r="Y20" s="156"/>
-      <c r="Z20" s="156"/>
-      <c r="AA20" s="156"/>
-      <c r="AB20" s="156"/>
-      <c r="AC20" s="156"/>
-      <c r="AD20" s="156"/>
-      <c r="AE20" s="156"/>
-      <c r="AF20" s="156"/>
-      <c r="AG20" s="156"/>
-      <c r="AH20" s="156"/>
-      <c r="AI20" s="156"/>
-      <c r="AJ20" s="156"/>
-      <c r="AK20" s="156"/>
-      <c r="AL20" s="156"/>
-      <c r="AM20" s="41"/>
-    </row>
-    <row r="21" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="40"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="156"/>
-      <c r="P21" s="156"/>
-      <c r="Q21" s="156"/>
-      <c r="R21" s="156"/>
-      <c r="S21" s="156"/>
-      <c r="T21" s="156"/>
-      <c r="U21" s="156"/>
-      <c r="V21" s="156"/>
-      <c r="W21" s="156"/>
-      <c r="X21" s="156"/>
-      <c r="Y21" s="156"/>
-      <c r="Z21" s="156"/>
-      <c r="AA21" s="156"/>
-      <c r="AB21" s="156"/>
-      <c r="AC21" s="156"/>
-      <c r="AD21" s="156"/>
-      <c r="AE21" s="156"/>
-      <c r="AF21" s="156"/>
-      <c r="AG21" s="156"/>
-      <c r="AH21" s="156"/>
-      <c r="AI21" s="156"/>
-      <c r="AJ21" s="156"/>
-      <c r="AK21" s="156"/>
-      <c r="AL21" s="156"/>
-      <c r="AM21" s="41"/>
-    </row>
-    <row r="22" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="40"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="156"/>
-      <c r="O22" s="156"/>
-      <c r="P22" s="156"/>
-      <c r="Q22" s="156"/>
-      <c r="R22" s="156"/>
-      <c r="S22" s="156"/>
-      <c r="T22" s="156"/>
-      <c r="U22" s="156"/>
-      <c r="V22" s="156"/>
-      <c r="W22" s="156"/>
-      <c r="X22" s="156"/>
-      <c r="Y22" s="156"/>
-      <c r="Z22" s="156"/>
-      <c r="AA22" s="156"/>
-      <c r="AB22" s="156"/>
-      <c r="AC22" s="156"/>
-      <c r="AD22" s="156"/>
-      <c r="AE22" s="156"/>
-      <c r="AF22" s="156"/>
-      <c r="AG22" s="156"/>
-      <c r="AH22" s="156"/>
-      <c r="AI22" s="156"/>
-      <c r="AJ22" s="156"/>
-      <c r="AK22" s="156"/>
-      <c r="AL22" s="156"/>
-      <c r="AM22" s="41"/>
-    </row>
-    <row r="23" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="40"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="156"/>
-      <c r="O23" s="156"/>
-      <c r="P23" s="156"/>
-      <c r="Q23" s="156"/>
-      <c r="R23" s="156"/>
-      <c r="S23" s="156"/>
-      <c r="T23" s="156"/>
-      <c r="U23" s="156"/>
-      <c r="V23" s="156"/>
-      <c r="W23" s="156"/>
-      <c r="X23" s="156"/>
-      <c r="Y23" s="156"/>
-      <c r="Z23" s="156"/>
-      <c r="AA23" s="156"/>
-      <c r="AB23" s="156"/>
-      <c r="AC23" s="156"/>
-      <c r="AD23" s="156"/>
-      <c r="AE23" s="156"/>
-      <c r="AF23" s="156"/>
-      <c r="AG23" s="156"/>
-      <c r="AH23" s="156"/>
-      <c r="AI23" s="156"/>
-      <c r="AJ23" s="156"/>
-      <c r="AK23" s="156"/>
-      <c r="AL23" s="156"/>
-      <c r="AM23" s="41"/>
-    </row>
-    <row r="24" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="40"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="156"/>
-      <c r="O24" s="156"/>
-      <c r="P24" s="156"/>
-      <c r="Q24" s="156"/>
-      <c r="R24" s="156"/>
-      <c r="S24" s="156"/>
-      <c r="T24" s="156"/>
-      <c r="U24" s="156"/>
-      <c r="V24" s="156"/>
-      <c r="W24" s="156"/>
-      <c r="X24" s="156"/>
-      <c r="Y24" s="156"/>
-      <c r="Z24" s="156"/>
-      <c r="AA24" s="156"/>
-      <c r="AB24" s="156"/>
-      <c r="AC24" s="156"/>
-      <c r="AD24" s="156"/>
-      <c r="AE24" s="156"/>
-      <c r="AF24" s="156"/>
-      <c r="AG24" s="156"/>
-      <c r="AH24" s="156"/>
-      <c r="AI24" s="156"/>
-      <c r="AJ24" s="156"/>
-      <c r="AK24" s="156"/>
-      <c r="AL24" s="156"/>
-      <c r="AM24" s="41"/>
-    </row>
-    <row r="25" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="40"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="156"/>
-      <c r="P25" s="156"/>
-      <c r="Q25" s="156"/>
-      <c r="R25" s="156"/>
-      <c r="S25" s="156"/>
-      <c r="T25" s="156"/>
-      <c r="U25" s="156"/>
-      <c r="V25" s="156"/>
-      <c r="W25" s="156"/>
-      <c r="X25" s="156"/>
-      <c r="Y25" s="156"/>
-      <c r="Z25" s="156"/>
-      <c r="AA25" s="156"/>
-      <c r="AB25" s="156"/>
-      <c r="AC25" s="156"/>
-      <c r="AD25" s="156"/>
-      <c r="AE25" s="156"/>
-      <c r="AF25" s="156"/>
-      <c r="AG25" s="156"/>
-      <c r="AH25" s="156"/>
-      <c r="AI25" s="156"/>
-      <c r="AJ25" s="156"/>
-      <c r="AK25" s="156"/>
-      <c r="AL25" s="156"/>
-      <c r="AM25" s="41"/>
-    </row>
-    <row r="26" s="1" customFormat="true" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="40"/>
-      <c r="AK26" s="8"/>
-      <c r="AM26" s="41"/>
-    </row>
-    <row r="27" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C27" s="40"/>
-      <c r="D27" s="125" t="s">
-        <v>162</v>
-      </c>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="125"/>
-      <c r="R27" s="125"/>
-      <c r="S27" s="125"/>
-      <c r="T27" s="125"/>
-      <c r="U27" s="125"/>
-      <c r="V27" s="125"/>
-      <c r="W27" s="125"/>
-      <c r="X27" s="125"/>
-      <c r="Y27" s="125"/>
-      <c r="Z27" s="125"/>
-      <c r="AA27" s="125"/>
-      <c r="AB27" s="125"/>
-      <c r="AC27" s="125"/>
-      <c r="AD27" s="125"/>
-      <c r="AE27" s="125"/>
-      <c r="AF27" s="125"/>
-      <c r="AG27" s="125"/>
-      <c r="AH27" s="125"/>
-      <c r="AI27" s="125"/>
-      <c r="AJ27" s="125"/>
-      <c r="AK27" s="125"/>
-      <c r="AL27" s="125"/>
-      <c r="AM27" s="41"/>
-    </row>
-    <row r="28" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C28" s="40"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="125"/>
-      <c r="N28" s="125"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="125"/>
-      <c r="Q28" s="125"/>
-      <c r="R28" s="125"/>
-      <c r="S28" s="125"/>
-      <c r="T28" s="125"/>
-      <c r="U28" s="125"/>
-      <c r="V28" s="125"/>
-      <c r="W28" s="125"/>
-      <c r="X28" s="125"/>
-      <c r="Y28" s="125"/>
-      <c r="Z28" s="125"/>
-      <c r="AA28" s="125"/>
-      <c r="AB28" s="125"/>
-      <c r="AC28" s="125"/>
-      <c r="AD28" s="125"/>
-      <c r="AE28" s="125"/>
-      <c r="AF28" s="125"/>
-      <c r="AG28" s="125"/>
-      <c r="AH28" s="125"/>
-      <c r="AI28" s="125"/>
-      <c r="AJ28" s="125"/>
-      <c r="AK28" s="125"/>
-      <c r="AL28" s="125"/>
-      <c r="AM28" s="41"/>
-    </row>
-    <row r="29" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="16"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="16"/>
-      <c r="AG29" s="16"/>
-      <c r="AH29" s="16"/>
-      <c r="AI29" s="16"/>
-      <c r="AJ29" s="16"/>
-      <c r="AK29" s="8"/>
-      <c r="AM29" s="41"/>
-    </row>
-    <row r="30" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="157" t="str">
-        <f aca="false">IF(ISBLANK(Титульный!B8),"",IFERROR(IF(OR(LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилое помещение",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилой дом",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Многоквартирный дом"),"Физический износ конструкций принят в соответствии с ВСН 53-86(р) «Правила оценки физического износа жилых зданий" &amp; CHAR(10),""),"")) &amp; "Классификация технического состояния конструкций принята в соответствии ГОСТ 31937-2011 «Здания и сооружения. Правила обследования и мониторинга технического состояния»."</f>
-        <v>Классификация технического состояния конструкций принята в соответствии ГОСТ 31937-2011 «Здания и сооружения. Правила обследования и мониторинга технического состояния».</v>
-      </c>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="157"/>
-      <c r="L30" s="157"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="157"/>
-      <c r="O30" s="157"/>
-      <c r="P30" s="157"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="157"/>
-      <c r="S30" s="157"/>
-      <c r="T30" s="157"/>
-      <c r="U30" s="157"/>
-      <c r="V30" s="157"/>
-      <c r="W30" s="157"/>
-      <c r="X30" s="157"/>
-      <c r="Y30" s="157"/>
-      <c r="Z30" s="157"/>
-      <c r="AA30" s="157"/>
-      <c r="AB30" s="157"/>
-      <c r="AC30" s="157"/>
-      <c r="AD30" s="157"/>
-      <c r="AE30" s="157"/>
-      <c r="AF30" s="157"/>
-      <c r="AG30" s="157"/>
-      <c r="AH30" s="157"/>
-      <c r="AI30" s="157"/>
-      <c r="AJ30" s="157"/>
-      <c r="AK30" s="157"/>
-      <c r="AL30" s="157"/>
-      <c r="AM30" s="41"/>
-    </row>
-    <row r="31" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="157"/>
-      <c r="L31" s="157"/>
-      <c r="M31" s="157"/>
-      <c r="N31" s="157"/>
-      <c r="O31" s="157"/>
-      <c r="P31" s="157"/>
-      <c r="Q31" s="157"/>
-      <c r="R31" s="157"/>
-      <c r="S31" s="157"/>
-      <c r="T31" s="157"/>
-      <c r="U31" s="157"/>
-      <c r="V31" s="157"/>
-      <c r="W31" s="157"/>
-      <c r="X31" s="157"/>
-      <c r="Y31" s="157"/>
-      <c r="Z31" s="157"/>
-      <c r="AA31" s="157"/>
-      <c r="AB31" s="157"/>
-      <c r="AC31" s="157"/>
-      <c r="AD31" s="157"/>
-      <c r="AE31" s="157"/>
-      <c r="AF31" s="157"/>
-      <c r="AG31" s="157"/>
-      <c r="AH31" s="157"/>
-      <c r="AI31" s="157"/>
-      <c r="AJ31" s="157"/>
-      <c r="AK31" s="157"/>
-      <c r="AL31" s="157"/>
-      <c r="AM31" s="41"/>
-    </row>
-    <row r="32" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="49"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="157"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="157"/>
-      <c r="L32" s="157"/>
-      <c r="M32" s="157"/>
-      <c r="N32" s="157"/>
-      <c r="O32" s="157"/>
-      <c r="P32" s="157"/>
-      <c r="Q32" s="157"/>
-      <c r="R32" s="157"/>
-      <c r="S32" s="157"/>
-      <c r="T32" s="157"/>
-      <c r="U32" s="157"/>
-      <c r="V32" s="157"/>
-      <c r="W32" s="157"/>
-      <c r="X32" s="157"/>
-      <c r="Y32" s="157"/>
-      <c r="Z32" s="157"/>
-      <c r="AA32" s="157"/>
-      <c r="AB32" s="157"/>
-      <c r="AC32" s="157"/>
-      <c r="AD32" s="157"/>
-      <c r="AE32" s="157"/>
-      <c r="AF32" s="157"/>
-      <c r="AG32" s="157"/>
-      <c r="AH32" s="157"/>
-      <c r="AI32" s="157"/>
-      <c r="AJ32" s="157"/>
-      <c r="AK32" s="157"/>
-      <c r="AL32" s="157"/>
-      <c r="AM32" s="41"/>
-    </row>
-    <row r="33" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="49"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="157"/>
-      <c r="H33" s="157"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="157"/>
-      <c r="L33" s="157"/>
-      <c r="M33" s="157"/>
-      <c r="N33" s="157"/>
-      <c r="O33" s="157"/>
-      <c r="P33" s="157"/>
-      <c r="Q33" s="157"/>
-      <c r="R33" s="157"/>
-      <c r="S33" s="157"/>
-      <c r="T33" s="157"/>
-      <c r="U33" s="157"/>
-      <c r="V33" s="157"/>
-      <c r="W33" s="157"/>
-      <c r="X33" s="157"/>
-      <c r="Y33" s="157"/>
-      <c r="Z33" s="157"/>
-      <c r="AA33" s="157"/>
-      <c r="AB33" s="157"/>
-      <c r="AC33" s="157"/>
-      <c r="AD33" s="157"/>
-      <c r="AE33" s="157"/>
-      <c r="AF33" s="157"/>
-      <c r="AG33" s="157"/>
-      <c r="AH33" s="157"/>
-      <c r="AI33" s="157"/>
-      <c r="AJ33" s="157"/>
-      <c r="AK33" s="157"/>
-      <c r="AL33" s="157"/>
-      <c r="AM33" s="41"/>
-    </row>
-    <row r="34" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="49"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="157"/>
-      <c r="I34" s="157"/>
-      <c r="J34" s="157"/>
-      <c r="K34" s="157"/>
-      <c r="L34" s="157"/>
-      <c r="M34" s="157"/>
-      <c r="N34" s="157"/>
-      <c r="O34" s="157"/>
-      <c r="P34" s="157"/>
-      <c r="Q34" s="157"/>
-      <c r="R34" s="157"/>
-      <c r="S34" s="157"/>
-      <c r="T34" s="157"/>
-      <c r="U34" s="157"/>
-      <c r="V34" s="157"/>
-      <c r="W34" s="157"/>
-      <c r="X34" s="157"/>
-      <c r="Y34" s="157"/>
-      <c r="Z34" s="157"/>
-      <c r="AA34" s="157"/>
-      <c r="AB34" s="157"/>
-      <c r="AC34" s="157"/>
-      <c r="AD34" s="157"/>
-      <c r="AE34" s="157"/>
-      <c r="AF34" s="157"/>
-      <c r="AG34" s="157"/>
-      <c r="AH34" s="157"/>
-      <c r="AI34" s="157"/>
-      <c r="AJ34" s="157"/>
-      <c r="AK34" s="157"/>
-      <c r="AL34" s="157"/>
-      <c r="AM34" s="41"/>
-    </row>
-    <row r="35" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="49"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="157"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="157"/>
-      <c r="K35" s="157"/>
-      <c r="L35" s="157"/>
-      <c r="M35" s="157"/>
-      <c r="N35" s="157"/>
-      <c r="O35" s="157"/>
-      <c r="P35" s="157"/>
-      <c r="Q35" s="157"/>
-      <c r="R35" s="157"/>
-      <c r="S35" s="157"/>
-      <c r="T35" s="157"/>
-      <c r="U35" s="157"/>
-      <c r="V35" s="157"/>
-      <c r="W35" s="157"/>
-      <c r="X35" s="157"/>
-      <c r="Y35" s="157"/>
-      <c r="Z35" s="157"/>
-      <c r="AA35" s="157"/>
-      <c r="AB35" s="157"/>
-      <c r="AC35" s="157"/>
-      <c r="AD35" s="157"/>
-      <c r="AE35" s="157"/>
-      <c r="AF35" s="157"/>
-      <c r="AG35" s="157"/>
-      <c r="AH35" s="157"/>
-      <c r="AI35" s="157"/>
-      <c r="AJ35" s="157"/>
-      <c r="AK35" s="157"/>
-      <c r="AL35" s="157"/>
-      <c r="AM35" s="41"/>
-    </row>
-    <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="157"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="157"/>
-      <c r="K36" s="157"/>
-      <c r="L36" s="157"/>
-      <c r="M36" s="157"/>
-      <c r="N36" s="157"/>
-      <c r="O36" s="157"/>
-      <c r="P36" s="157"/>
-      <c r="Q36" s="157"/>
-      <c r="R36" s="157"/>
-      <c r="S36" s="157"/>
-      <c r="T36" s="157"/>
-      <c r="U36" s="157"/>
-      <c r="V36" s="157"/>
-      <c r="W36" s="157"/>
-      <c r="X36" s="157"/>
-      <c r="Y36" s="157"/>
-      <c r="Z36" s="157"/>
-      <c r="AA36" s="157"/>
-      <c r="AB36" s="157"/>
-      <c r="AC36" s="157"/>
-      <c r="AD36" s="157"/>
-      <c r="AE36" s="157"/>
-      <c r="AF36" s="157"/>
-      <c r="AG36" s="157"/>
-      <c r="AH36" s="157"/>
-      <c r="AI36" s="157"/>
-      <c r="AJ36" s="157"/>
-      <c r="AK36" s="157"/>
-      <c r="AL36" s="157"/>
-      <c r="AM36" s="41"/>
-    </row>
-    <row r="37" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="49"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="157"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="157"/>
-      <c r="I37" s="157"/>
-      <c r="J37" s="157"/>
-      <c r="K37" s="157"/>
-      <c r="L37" s="157"/>
-      <c r="M37" s="157"/>
-      <c r="N37" s="157"/>
-      <c r="O37" s="157"/>
-      <c r="P37" s="157"/>
-      <c r="Q37" s="157"/>
-      <c r="R37" s="157"/>
-      <c r="S37" s="157"/>
-      <c r="T37" s="157"/>
-      <c r="U37" s="157"/>
-      <c r="V37" s="157"/>
-      <c r="W37" s="157"/>
-      <c r="X37" s="157"/>
-      <c r="Y37" s="157"/>
-      <c r="Z37" s="157"/>
-      <c r="AA37" s="157"/>
-      <c r="AB37" s="157"/>
-      <c r="AC37" s="157"/>
-      <c r="AD37" s="157"/>
-      <c r="AE37" s="157"/>
-      <c r="AF37" s="157"/>
-      <c r="AG37" s="157"/>
-      <c r="AH37" s="157"/>
-      <c r="AI37" s="157"/>
-      <c r="AJ37" s="157"/>
-      <c r="AK37" s="157"/>
-      <c r="AL37" s="157"/>
-      <c r="AM37" s="41"/>
-    </row>
-    <row r="38" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="157"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="157"/>
-      <c r="K38" s="157"/>
-      <c r="L38" s="157"/>
-      <c r="M38" s="157"/>
-      <c r="N38" s="157"/>
-      <c r="O38" s="157"/>
-      <c r="P38" s="157"/>
-      <c r="Q38" s="157"/>
-      <c r="R38" s="157"/>
-      <c r="S38" s="157"/>
-      <c r="T38" s="157"/>
-      <c r="U38" s="157"/>
-      <c r="V38" s="157"/>
-      <c r="W38" s="157"/>
-      <c r="X38" s="157"/>
-      <c r="Y38" s="157"/>
-      <c r="Z38" s="157"/>
-      <c r="AA38" s="157"/>
-      <c r="AB38" s="157"/>
-      <c r="AC38" s="157"/>
-      <c r="AD38" s="157"/>
-      <c r="AE38" s="157"/>
-      <c r="AF38" s="157"/>
-      <c r="AG38" s="157"/>
-      <c r="AH38" s="157"/>
-      <c r="AI38" s="157"/>
-      <c r="AJ38" s="157"/>
-      <c r="AK38" s="157"/>
-      <c r="AL38" s="157"/>
-      <c r="AM38" s="41"/>
-    </row>
-    <row r="39" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="49"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="157"/>
-      <c r="I39" s="157"/>
-      <c r="J39" s="157"/>
-      <c r="K39" s="157"/>
-      <c r="L39" s="157"/>
-      <c r="M39" s="157"/>
-      <c r="N39" s="157"/>
-      <c r="O39" s="157"/>
-      <c r="P39" s="157"/>
-      <c r="Q39" s="157"/>
-      <c r="R39" s="157"/>
-      <c r="S39" s="157"/>
-      <c r="T39" s="157"/>
-      <c r="U39" s="157"/>
-      <c r="V39" s="157"/>
-      <c r="W39" s="157"/>
-      <c r="X39" s="157"/>
-      <c r="Y39" s="157"/>
-      <c r="Z39" s="157"/>
-      <c r="AA39" s="157"/>
-      <c r="AB39" s="157"/>
-      <c r="AC39" s="157"/>
-      <c r="AD39" s="157"/>
-      <c r="AE39" s="157"/>
-      <c r="AF39" s="157"/>
-      <c r="AG39" s="157"/>
-      <c r="AH39" s="157"/>
-      <c r="AI39" s="157"/>
-      <c r="AJ39" s="157"/>
-      <c r="AK39" s="157"/>
-      <c r="AL39" s="157"/>
-      <c r="AM39" s="41"/>
-    </row>
-    <row r="40" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="49"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="157"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="157"/>
-      <c r="I40" s="157"/>
-      <c r="J40" s="157"/>
-      <c r="K40" s="157"/>
-      <c r="L40" s="157"/>
-      <c r="M40" s="157"/>
-      <c r="N40" s="157"/>
-      <c r="O40" s="157"/>
-      <c r="P40" s="157"/>
-      <c r="Q40" s="157"/>
-      <c r="R40" s="157"/>
-      <c r="S40" s="157"/>
-      <c r="T40" s="157"/>
-      <c r="U40" s="157"/>
-      <c r="V40" s="157"/>
-      <c r="W40" s="157"/>
-      <c r="X40" s="157"/>
-      <c r="Y40" s="157"/>
-      <c r="Z40" s="157"/>
-      <c r="AA40" s="157"/>
-      <c r="AB40" s="157"/>
-      <c r="AC40" s="157"/>
-      <c r="AD40" s="157"/>
-      <c r="AE40" s="157"/>
-      <c r="AF40" s="157"/>
-      <c r="AG40" s="157"/>
-      <c r="AH40" s="157"/>
-      <c r="AI40" s="157"/>
-      <c r="AJ40" s="157"/>
-      <c r="AK40" s="157"/>
-      <c r="AL40" s="157"/>
-      <c r="AM40" s="41"/>
-    </row>
-    <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="40"/>
-      <c r="AK41" s="8"/>
-      <c r="AM41" s="41"/>
-    </row>
-    <row r="42" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="49"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="40"/>
-      <c r="AK42" s="8"/>
-      <c r="AM42" s="41"/>
-    </row>
-    <row r="43" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="49"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="40"/>
-      <c r="AK43" s="8"/>
-      <c r="AM43" s="41"/>
-    </row>
-    <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="49"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="40"/>
-      <c r="AK44" s="8"/>
-      <c r="AM44" s="41"/>
-    </row>
-    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="49"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="51"/>
-      <c r="AK45" s="8"/>
-      <c r="AM45" s="52"/>
-    </row>
-    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="50"/>
-      <c r="C46" s="51"/>
-      <c r="AK46" s="8"/>
-      <c r="AM46" s="52"/>
-    </row>
-    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="49"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="28"/>
-      <c r="AC47" s="28"/>
-      <c r="AD47" s="28"/>
-      <c r="AE47" s="28"/>
-      <c r="AF47" s="28"/>
-      <c r="AG47" s="28"/>
-      <c r="AH47" s="28"/>
-      <c r="AI47" s="28"/>
-      <c r="AJ47" s="28"/>
-      <c r="AK47" s="8"/>
-      <c r="AM47" s="52"/>
-    </row>
-    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="49"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="28"/>
-      <c r="AA48" s="28"/>
-      <c r="AB48" s="28"/>
-      <c r="AC48" s="28"/>
-      <c r="AD48" s="28"/>
-      <c r="AE48" s="28"/>
-      <c r="AF48" s="28"/>
-      <c r="AG48" s="28"/>
-      <c r="AH48" s="28"/>
-      <c r="AI48" s="28"/>
-      <c r="AJ48" s="28"/>
-      <c r="AK48" s="8"/>
-      <c r="AM48" s="41"/>
-    </row>
-    <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="49"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="40"/>
-      <c r="AK49" s="8"/>
-      <c r="AM49" s="41"/>
-    </row>
-    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="49"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="40"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="29"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="29"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="29"/>
-      <c r="AA50" s="29"/>
-      <c r="AB50" s="29"/>
-      <c r="AC50" s="29"/>
-      <c r="AD50" s="29"/>
-      <c r="AE50" s="29"/>
-      <c r="AF50" s="29"/>
-      <c r="AG50" s="29"/>
-      <c r="AH50" s="29"/>
-      <c r="AI50" s="29"/>
-      <c r="AJ50" s="29"/>
-      <c r="AK50" s="8"/>
-      <c r="AM50" s="53"/>
-    </row>
-    <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="49"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="29"/>
-      <c r="AB51" s="29"/>
-      <c r="AC51" s="29"/>
-      <c r="AD51" s="29"/>
-      <c r="AE51" s="29"/>
-      <c r="AF51" s="29"/>
-      <c r="AG51" s="29"/>
-      <c r="AH51" s="29"/>
-      <c r="AI51" s="29"/>
-      <c r="AJ51" s="29"/>
-      <c r="AK51" s="8"/>
-      <c r="AM51" s="53"/>
-    </row>
-    <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="49"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="40"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="29"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="29"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="29"/>
-      <c r="Z52" s="29"/>
-      <c r="AA52" s="29"/>
-      <c r="AB52" s="29"/>
-      <c r="AC52" s="29"/>
-      <c r="AD52" s="29"/>
-      <c r="AE52" s="29"/>
-      <c r="AF52" s="29"/>
-      <c r="AG52" s="29"/>
-      <c r="AH52" s="29"/>
-      <c r="AI52" s="29"/>
-      <c r="AJ52" s="29"/>
-      <c r="AK52" s="8"/>
-      <c r="AM52" s="53"/>
-    </row>
-    <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="55"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="11"/>
-      <c r="AD53" s="11"/>
-      <c r="AE53" s="11"/>
-      <c r="AF53" s="11"/>
-      <c r="AG53" s="11"/>
-      <c r="AH53" s="11"/>
-      <c r="AI53" s="11"/>
-      <c r="AJ53" s="11"/>
-      <c r="AK53" s="8"/>
-      <c r="AM53" s="43"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="49"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="93"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="93"/>
-      <c r="G54" s="93"/>
-      <c r="H54" s="93"/>
-      <c r="I54" s="93"/>
-      <c r="J54" s="93"/>
-      <c r="K54" s="93"/>
-      <c r="L54" s="93"/>
-      <c r="M54" s="93"/>
-      <c r="N54" s="93"/>
-      <c r="O54" s="93"/>
-      <c r="P54" s="94"/>
-      <c r="Q54" s="94"/>
-      <c r="R54" s="94"/>
-      <c r="S54" s="94"/>
-      <c r="T54" s="94"/>
-      <c r="U54" s="94"/>
-      <c r="V54" s="94"/>
-      <c r="W54" s="94"/>
-      <c r="X54" s="94"/>
-      <c r="Y54" s="94"/>
-      <c r="Z54" s="94"/>
-      <c r="AA54" s="94"/>
-      <c r="AB54" s="94"/>
-      <c r="AC54" s="94"/>
-      <c r="AD54" s="94"/>
-      <c r="AE54" s="94"/>
-      <c r="AF54" s="94"/>
-      <c r="AG54" s="94"/>
-      <c r="AH54" s="94"/>
-      <c r="AI54" s="94"/>
-      <c r="AJ54" s="94"/>
-      <c r="AK54" s="24"/>
-      <c r="AL54" s="25"/>
-      <c r="AM54" s="95"/>
-    </row>
-    <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="49"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="73"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="73"/>
-      <c r="K55" s="73"/>
-      <c r="L55" s="73"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="72"/>
-      <c r="O55" s="72"/>
-      <c r="P55" s="121"/>
-      <c r="Q55" s="121"/>
-      <c r="R55" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="S55" s="96"/>
-      <c r="T55" s="96"/>
-      <c r="U55" s="96"/>
-      <c r="V55" s="96"/>
-      <c r="W55" s="96"/>
-      <c r="X55" s="96"/>
-      <c r="Y55" s="96"/>
-      <c r="Z55" s="96"/>
-      <c r="AA55" s="96"/>
-      <c r="AB55" s="96"/>
-      <c r="AC55" s="96"/>
-      <c r="AD55" s="96"/>
-      <c r="AE55" s="96"/>
-      <c r="AF55" s="96"/>
-      <c r="AG55" s="96"/>
-      <c r="AH55" s="96"/>
-      <c r="AI55" s="96"/>
-      <c r="AJ55" s="96"/>
-      <c r="AK55" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL55" s="81"/>
-      <c r="AM55" s="81"/>
-    </row>
-    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="49"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="122"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="84"/>
-      <c r="H56" s="123"/>
-      <c r="I56" s="123"/>
-      <c r="J56" s="98"/>
-      <c r="K56" s="98"/>
-      <c r="L56" s="98"/>
-      <c r="M56" s="122"/>
-      <c r="N56" s="122"/>
-      <c r="O56" s="122"/>
-      <c r="P56" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q56" s="75"/>
-      <c r="R56" s="96"/>
-      <c r="S56" s="96"/>
-      <c r="T56" s="96"/>
-      <c r="U56" s="96"/>
-      <c r="V56" s="96"/>
-      <c r="W56" s="96"/>
-      <c r="X56" s="96"/>
-      <c r="Y56" s="96"/>
-      <c r="Z56" s="96"/>
-      <c r="AA56" s="96"/>
-      <c r="AB56" s="96"/>
-      <c r="AC56" s="96"/>
-      <c r="AD56" s="96"/>
-      <c r="AE56" s="96"/>
-      <c r="AF56" s="96"/>
-      <c r="AG56" s="96"/>
-      <c r="AH56" s="96"/>
-      <c r="AI56" s="96"/>
-      <c r="AJ56" s="96"/>
-      <c r="AK56" s="73"/>
-      <c r="AL56" s="73"/>
-      <c r="AM56" s="73"/>
-    </row>
-    <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="49"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="75"/>
-      <c r="E57" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="77"/>
-      <c r="J57" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="K57" s="78"/>
-      <c r="L57" s="78"/>
-      <c r="M57" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="N57" s="77"/>
-      <c r="O57" s="77"/>
-      <c r="P57" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q57" s="77"/>
-      <c r="R57" s="96"/>
-      <c r="S57" s="96"/>
-      <c r="T57" s="96"/>
-      <c r="U57" s="96"/>
-      <c r="V57" s="96"/>
-      <c r="W57" s="96"/>
-      <c r="X57" s="96"/>
-      <c r="Y57" s="96"/>
-      <c r="Z57" s="96"/>
-      <c r="AA57" s="96"/>
-      <c r="AB57" s="96"/>
-      <c r="AC57" s="96"/>
-      <c r="AD57" s="96"/>
-      <c r="AE57" s="96"/>
-      <c r="AF57" s="96"/>
-      <c r="AG57" s="96"/>
-      <c r="AH57" s="96"/>
-      <c r="AI57" s="96"/>
-      <c r="AJ57" s="96"/>
-      <c r="AK57" s="73"/>
-      <c r="AL57" s="73"/>
-      <c r="AM57" s="73"/>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="D2:AL3"/>
-    <mergeCell ref="D5:AL6"/>
-    <mergeCell ref="D8:AL25"/>
-    <mergeCell ref="D27:AL28"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="D30:AL40"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="R55:AJ57"/>
-    <mergeCell ref="AK55:AM55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="AK56:AM57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.315277777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:BW1048576"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK56" activeCellId="0" sqref="AK56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="H8:AH49 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8045,6 +5912,2134 @@
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="51"/>
+      <c r="D2" s="125" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
+      <c r="AA2" s="125"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="125"/>
+      <c r="AG2" s="125"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="125"/>
+      <c r="AJ2" s="125"/>
+      <c r="AK2" s="125"/>
+      <c r="AL2" s="125"/>
+      <c r="AM2" s="52"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C3" s="51"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="125"/>
+      <c r="AE3" s="125"/>
+      <c r="AF3" s="125"/>
+      <c r="AG3" s="125"/>
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="125"/>
+      <c r="AJ3" s="125"/>
+      <c r="AK3" s="125"/>
+      <c r="AL3" s="125"/>
+      <c r="AM3" s="52"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="51"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="8"/>
+      <c r="AM4" s="52"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C5" s="40"/>
+      <c r="D5" s="125" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="125"/>
+      <c r="T5" s="125"/>
+      <c r="U5" s="125"/>
+      <c r="V5" s="125"/>
+      <c r="W5" s="125"/>
+      <c r="X5" s="125"/>
+      <c r="Y5" s="125"/>
+      <c r="Z5" s="125"/>
+      <c r="AA5" s="125"/>
+      <c r="AB5" s="125"/>
+      <c r="AC5" s="125"/>
+      <c r="AD5" s="125"/>
+      <c r="AE5" s="125"/>
+      <c r="AF5" s="125"/>
+      <c r="AG5" s="125"/>
+      <c r="AH5" s="125"/>
+      <c r="AI5" s="125"/>
+      <c r="AJ5" s="125"/>
+      <c r="AK5" s="125"/>
+      <c r="AL5" s="125"/>
+      <c r="AM5" s="41"/>
+      <c r="AQ5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="42"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125"/>
+      <c r="V6" s="125"/>
+      <c r="W6" s="125"/>
+      <c r="X6" s="125"/>
+      <c r="Y6" s="125"/>
+      <c r="Z6" s="125"/>
+      <c r="AA6" s="125"/>
+      <c r="AB6" s="125"/>
+      <c r="AC6" s="125"/>
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="125"/>
+      <c r="AF6" s="125"/>
+      <c r="AG6" s="125"/>
+      <c r="AH6" s="125"/>
+      <c r="AI6" s="125"/>
+      <c r="AJ6" s="125"/>
+      <c r="AK6" s="125"/>
+      <c r="AL6" s="125"/>
+      <c r="AM6" s="43"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C7" s="44"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="125"/>
+      <c r="U7" s="125"/>
+      <c r="V7" s="125"/>
+      <c r="W7" s="125"/>
+      <c r="X7" s="125"/>
+      <c r="Y7" s="125"/>
+      <c r="Z7" s="125"/>
+      <c r="AA7" s="125"/>
+      <c r="AB7" s="125"/>
+      <c r="AC7" s="125"/>
+      <c r="AD7" s="125"/>
+      <c r="AE7" s="125"/>
+      <c r="AF7" s="125"/>
+      <c r="AG7" s="125"/>
+      <c r="AH7" s="125"/>
+      <c r="AI7" s="125"/>
+      <c r="AJ7" s="125"/>
+      <c r="AK7" s="125"/>
+      <c r="AL7" s="125"/>
+      <c r="AM7" s="43"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C8" s="40"/>
+      <c r="D8" s="156" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="156"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="156"/>
+      <c r="P8" s="156"/>
+      <c r="Q8" s="156"/>
+      <c r="R8" s="156"/>
+      <c r="S8" s="156"/>
+      <c r="T8" s="156"/>
+      <c r="U8" s="156"/>
+      <c r="V8" s="156"/>
+      <c r="W8" s="156"/>
+      <c r="X8" s="156"/>
+      <c r="Y8" s="156"/>
+      <c r="Z8" s="156"/>
+      <c r="AA8" s="156"/>
+      <c r="AB8" s="156"/>
+      <c r="AC8" s="156"/>
+      <c r="AD8" s="156"/>
+      <c r="AE8" s="156"/>
+      <c r="AF8" s="156"/>
+      <c r="AG8" s="156"/>
+      <c r="AH8" s="156"/>
+      <c r="AI8" s="156"/>
+      <c r="AJ8" s="156"/>
+      <c r="AK8" s="156"/>
+      <c r="AL8" s="156"/>
+      <c r="AM8" s="41"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C9" s="40"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="156"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="156"/>
+      <c r="Q9" s="156"/>
+      <c r="R9" s="156"/>
+      <c r="S9" s="156"/>
+      <c r="T9" s="156"/>
+      <c r="U9" s="156"/>
+      <c r="V9" s="156"/>
+      <c r="W9" s="156"/>
+      <c r="X9" s="156"/>
+      <c r="Y9" s="156"/>
+      <c r="Z9" s="156"/>
+      <c r="AA9" s="156"/>
+      <c r="AB9" s="156"/>
+      <c r="AC9" s="156"/>
+      <c r="AD9" s="156"/>
+      <c r="AE9" s="156"/>
+      <c r="AF9" s="156"/>
+      <c r="AG9" s="156"/>
+      <c r="AH9" s="156"/>
+      <c r="AI9" s="156"/>
+      <c r="AJ9" s="156"/>
+      <c r="AK9" s="156"/>
+      <c r="AL9" s="156"/>
+      <c r="AM9" s="41"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C10" s="46"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="156"/>
+      <c r="M10" s="156"/>
+      <c r="N10" s="156"/>
+      <c r="O10" s="156"/>
+      <c r="P10" s="156"/>
+      <c r="Q10" s="156"/>
+      <c r="R10" s="156"/>
+      <c r="S10" s="156"/>
+      <c r="T10" s="156"/>
+      <c r="U10" s="156"/>
+      <c r="V10" s="156"/>
+      <c r="W10" s="156"/>
+      <c r="X10" s="156"/>
+      <c r="Y10" s="156"/>
+      <c r="Z10" s="156"/>
+      <c r="AA10" s="156"/>
+      <c r="AB10" s="156"/>
+      <c r="AC10" s="156"/>
+      <c r="AD10" s="156"/>
+      <c r="AE10" s="156"/>
+      <c r="AF10" s="156"/>
+      <c r="AG10" s="156"/>
+      <c r="AH10" s="156"/>
+      <c r="AI10" s="156"/>
+      <c r="AJ10" s="156"/>
+      <c r="AK10" s="156"/>
+      <c r="AL10" s="156"/>
+      <c r="AM10" s="47"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C11" s="46"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="156"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="156"/>
+      <c r="Q11" s="156"/>
+      <c r="R11" s="156"/>
+      <c r="S11" s="156"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="156"/>
+      <c r="V11" s="156"/>
+      <c r="W11" s="156"/>
+      <c r="X11" s="156"/>
+      <c r="Y11" s="156"/>
+      <c r="Z11" s="156"/>
+      <c r="AA11" s="156"/>
+      <c r="AB11" s="156"/>
+      <c r="AC11" s="156"/>
+      <c r="AD11" s="156"/>
+      <c r="AE11" s="156"/>
+      <c r="AF11" s="156"/>
+      <c r="AG11" s="156"/>
+      <c r="AH11" s="156"/>
+      <c r="AI11" s="156"/>
+      <c r="AJ11" s="156"/>
+      <c r="AK11" s="156"/>
+      <c r="AL11" s="156"/>
+      <c r="AM11" s="47"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C12" s="46"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="156"/>
+      <c r="R12" s="156"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="156"/>
+      <c r="U12" s="156"/>
+      <c r="V12" s="156"/>
+      <c r="W12" s="156"/>
+      <c r="X12" s="156"/>
+      <c r="Y12" s="156"/>
+      <c r="Z12" s="156"/>
+      <c r="AA12" s="156"/>
+      <c r="AB12" s="156"/>
+      <c r="AC12" s="156"/>
+      <c r="AD12" s="156"/>
+      <c r="AE12" s="156"/>
+      <c r="AF12" s="156"/>
+      <c r="AG12" s="156"/>
+      <c r="AH12" s="156"/>
+      <c r="AI12" s="156"/>
+      <c r="AJ12" s="156"/>
+      <c r="AK12" s="156"/>
+      <c r="AL12" s="156"/>
+      <c r="AM12" s="47"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C13" s="46"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="156"/>
+      <c r="N13" s="156"/>
+      <c r="O13" s="156"/>
+      <c r="P13" s="156"/>
+      <c r="Q13" s="156"/>
+      <c r="R13" s="156"/>
+      <c r="S13" s="156"/>
+      <c r="T13" s="156"/>
+      <c r="U13" s="156"/>
+      <c r="V13" s="156"/>
+      <c r="W13" s="156"/>
+      <c r="X13" s="156"/>
+      <c r="Y13" s="156"/>
+      <c r="Z13" s="156"/>
+      <c r="AA13" s="156"/>
+      <c r="AB13" s="156"/>
+      <c r="AC13" s="156"/>
+      <c r="AD13" s="156"/>
+      <c r="AE13" s="156"/>
+      <c r="AF13" s="156"/>
+      <c r="AG13" s="156"/>
+      <c r="AH13" s="156"/>
+      <c r="AI13" s="156"/>
+      <c r="AJ13" s="156"/>
+      <c r="AK13" s="156"/>
+      <c r="AL13" s="156"/>
+      <c r="AM13" s="47"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C14" s="46"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="156"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="156"/>
+      <c r="U14" s="156"/>
+      <c r="V14" s="156"/>
+      <c r="W14" s="156"/>
+      <c r="X14" s="156"/>
+      <c r="Y14" s="156"/>
+      <c r="Z14" s="156"/>
+      <c r="AA14" s="156"/>
+      <c r="AB14" s="156"/>
+      <c r="AC14" s="156"/>
+      <c r="AD14" s="156"/>
+      <c r="AE14" s="156"/>
+      <c r="AF14" s="156"/>
+      <c r="AG14" s="156"/>
+      <c r="AH14" s="156"/>
+      <c r="AI14" s="156"/>
+      <c r="AJ14" s="156"/>
+      <c r="AK14" s="156"/>
+      <c r="AL14" s="156"/>
+      <c r="AM14" s="47"/>
+    </row>
+    <row r="15" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C15" s="40"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="156"/>
+      <c r="M15" s="156"/>
+      <c r="N15" s="156"/>
+      <c r="O15" s="156"/>
+      <c r="P15" s="156"/>
+      <c r="Q15" s="156"/>
+      <c r="R15" s="156"/>
+      <c r="S15" s="156"/>
+      <c r="T15" s="156"/>
+      <c r="U15" s="156"/>
+      <c r="V15" s="156"/>
+      <c r="W15" s="156"/>
+      <c r="X15" s="156"/>
+      <c r="Y15" s="156"/>
+      <c r="Z15" s="156"/>
+      <c r="AA15" s="156"/>
+      <c r="AB15" s="156"/>
+      <c r="AC15" s="156"/>
+      <c r="AD15" s="156"/>
+      <c r="AE15" s="156"/>
+      <c r="AF15" s="156"/>
+      <c r="AG15" s="156"/>
+      <c r="AH15" s="156"/>
+      <c r="AI15" s="156"/>
+      <c r="AJ15" s="156"/>
+      <c r="AK15" s="156"/>
+      <c r="AL15" s="156"/>
+      <c r="AM15" s="41"/>
+    </row>
+    <row r="16" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C16" s="40"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="156"/>
+      <c r="L16" s="156"/>
+      <c r="M16" s="156"/>
+      <c r="N16" s="156"/>
+      <c r="O16" s="156"/>
+      <c r="P16" s="156"/>
+      <c r="Q16" s="156"/>
+      <c r="R16" s="156"/>
+      <c r="S16" s="156"/>
+      <c r="T16" s="156"/>
+      <c r="U16" s="156"/>
+      <c r="V16" s="156"/>
+      <c r="W16" s="156"/>
+      <c r="X16" s="156"/>
+      <c r="Y16" s="156"/>
+      <c r="Z16" s="156"/>
+      <c r="AA16" s="156"/>
+      <c r="AB16" s="156"/>
+      <c r="AC16" s="156"/>
+      <c r="AD16" s="156"/>
+      <c r="AE16" s="156"/>
+      <c r="AF16" s="156"/>
+      <c r="AG16" s="156"/>
+      <c r="AH16" s="156"/>
+      <c r="AI16" s="156"/>
+      <c r="AJ16" s="156"/>
+      <c r="AK16" s="156"/>
+      <c r="AL16" s="156"/>
+      <c r="AM16" s="41"/>
+    </row>
+    <row r="17" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C17" s="40"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="156"/>
+      <c r="N17" s="156"/>
+      <c r="O17" s="156"/>
+      <c r="P17" s="156"/>
+      <c r="Q17" s="156"/>
+      <c r="R17" s="156"/>
+      <c r="S17" s="156"/>
+      <c r="T17" s="156"/>
+      <c r="U17" s="156"/>
+      <c r="V17" s="156"/>
+      <c r="W17" s="156"/>
+      <c r="X17" s="156"/>
+      <c r="Y17" s="156"/>
+      <c r="Z17" s="156"/>
+      <c r="AA17" s="156"/>
+      <c r="AB17" s="156"/>
+      <c r="AC17" s="156"/>
+      <c r="AD17" s="156"/>
+      <c r="AE17" s="156"/>
+      <c r="AF17" s="156"/>
+      <c r="AG17" s="156"/>
+      <c r="AH17" s="156"/>
+      <c r="AI17" s="156"/>
+      <c r="AJ17" s="156"/>
+      <c r="AK17" s="156"/>
+      <c r="AL17" s="156"/>
+      <c r="AM17" s="41"/>
+    </row>
+    <row r="18" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C18" s="40"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="156"/>
+      <c r="M18" s="156"/>
+      <c r="N18" s="156"/>
+      <c r="O18" s="156"/>
+      <c r="P18" s="156"/>
+      <c r="Q18" s="156"/>
+      <c r="R18" s="156"/>
+      <c r="S18" s="156"/>
+      <c r="T18" s="156"/>
+      <c r="U18" s="156"/>
+      <c r="V18" s="156"/>
+      <c r="W18" s="156"/>
+      <c r="X18" s="156"/>
+      <c r="Y18" s="156"/>
+      <c r="Z18" s="156"/>
+      <c r="AA18" s="156"/>
+      <c r="AB18" s="156"/>
+      <c r="AC18" s="156"/>
+      <c r="AD18" s="156"/>
+      <c r="AE18" s="156"/>
+      <c r="AF18" s="156"/>
+      <c r="AG18" s="156"/>
+      <c r="AH18" s="156"/>
+      <c r="AI18" s="156"/>
+      <c r="AJ18" s="156"/>
+      <c r="AK18" s="156"/>
+      <c r="AL18" s="156"/>
+      <c r="AM18" s="41"/>
+    </row>
+    <row r="19" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C19" s="40"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="156"/>
+      <c r="O19" s="156"/>
+      <c r="P19" s="156"/>
+      <c r="Q19" s="156"/>
+      <c r="R19" s="156"/>
+      <c r="S19" s="156"/>
+      <c r="T19" s="156"/>
+      <c r="U19" s="156"/>
+      <c r="V19" s="156"/>
+      <c r="W19" s="156"/>
+      <c r="X19" s="156"/>
+      <c r="Y19" s="156"/>
+      <c r="Z19" s="156"/>
+      <c r="AA19" s="156"/>
+      <c r="AB19" s="156"/>
+      <c r="AC19" s="156"/>
+      <c r="AD19" s="156"/>
+      <c r="AE19" s="156"/>
+      <c r="AF19" s="156"/>
+      <c r="AG19" s="156"/>
+      <c r="AH19" s="156"/>
+      <c r="AI19" s="156"/>
+      <c r="AJ19" s="156"/>
+      <c r="AK19" s="156"/>
+      <c r="AL19" s="156"/>
+      <c r="AM19" s="41"/>
+    </row>
+    <row r="20" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C20" s="40"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="156"/>
+      <c r="L20" s="156"/>
+      <c r="M20" s="156"/>
+      <c r="N20" s="156"/>
+      <c r="O20" s="156"/>
+      <c r="P20" s="156"/>
+      <c r="Q20" s="156"/>
+      <c r="R20" s="156"/>
+      <c r="S20" s="156"/>
+      <c r="T20" s="156"/>
+      <c r="U20" s="156"/>
+      <c r="V20" s="156"/>
+      <c r="W20" s="156"/>
+      <c r="X20" s="156"/>
+      <c r="Y20" s="156"/>
+      <c r="Z20" s="156"/>
+      <c r="AA20" s="156"/>
+      <c r="AB20" s="156"/>
+      <c r="AC20" s="156"/>
+      <c r="AD20" s="156"/>
+      <c r="AE20" s="156"/>
+      <c r="AF20" s="156"/>
+      <c r="AG20" s="156"/>
+      <c r="AH20" s="156"/>
+      <c r="AI20" s="156"/>
+      <c r="AJ20" s="156"/>
+      <c r="AK20" s="156"/>
+      <c r="AL20" s="156"/>
+      <c r="AM20" s="41"/>
+    </row>
+    <row r="21" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C21" s="40"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="156"/>
+      <c r="O21" s="156"/>
+      <c r="P21" s="156"/>
+      <c r="Q21" s="156"/>
+      <c r="R21" s="156"/>
+      <c r="S21" s="156"/>
+      <c r="T21" s="156"/>
+      <c r="U21" s="156"/>
+      <c r="V21" s="156"/>
+      <c r="W21" s="156"/>
+      <c r="X21" s="156"/>
+      <c r="Y21" s="156"/>
+      <c r="Z21" s="156"/>
+      <c r="AA21" s="156"/>
+      <c r="AB21" s="156"/>
+      <c r="AC21" s="156"/>
+      <c r="AD21" s="156"/>
+      <c r="AE21" s="156"/>
+      <c r="AF21" s="156"/>
+      <c r="AG21" s="156"/>
+      <c r="AH21" s="156"/>
+      <c r="AI21" s="156"/>
+      <c r="AJ21" s="156"/>
+      <c r="AK21" s="156"/>
+      <c r="AL21" s="156"/>
+      <c r="AM21" s="41"/>
+    </row>
+    <row r="22" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C22" s="40"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="156"/>
+      <c r="O22" s="156"/>
+      <c r="P22" s="156"/>
+      <c r="Q22" s="156"/>
+      <c r="R22" s="156"/>
+      <c r="S22" s="156"/>
+      <c r="T22" s="156"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="156"/>
+      <c r="W22" s="156"/>
+      <c r="X22" s="156"/>
+      <c r="Y22" s="156"/>
+      <c r="Z22" s="156"/>
+      <c r="AA22" s="156"/>
+      <c r="AB22" s="156"/>
+      <c r="AC22" s="156"/>
+      <c r="AD22" s="156"/>
+      <c r="AE22" s="156"/>
+      <c r="AF22" s="156"/>
+      <c r="AG22" s="156"/>
+      <c r="AH22" s="156"/>
+      <c r="AI22" s="156"/>
+      <c r="AJ22" s="156"/>
+      <c r="AK22" s="156"/>
+      <c r="AL22" s="156"/>
+      <c r="AM22" s="41"/>
+    </row>
+    <row r="23" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C23" s="40"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="156"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="156"/>
+      <c r="O23" s="156"/>
+      <c r="P23" s="156"/>
+      <c r="Q23" s="156"/>
+      <c r="R23" s="156"/>
+      <c r="S23" s="156"/>
+      <c r="T23" s="156"/>
+      <c r="U23" s="156"/>
+      <c r="V23" s="156"/>
+      <c r="W23" s="156"/>
+      <c r="X23" s="156"/>
+      <c r="Y23" s="156"/>
+      <c r="Z23" s="156"/>
+      <c r="AA23" s="156"/>
+      <c r="AB23" s="156"/>
+      <c r="AC23" s="156"/>
+      <c r="AD23" s="156"/>
+      <c r="AE23" s="156"/>
+      <c r="AF23" s="156"/>
+      <c r="AG23" s="156"/>
+      <c r="AH23" s="156"/>
+      <c r="AI23" s="156"/>
+      <c r="AJ23" s="156"/>
+      <c r="AK23" s="156"/>
+      <c r="AL23" s="156"/>
+      <c r="AM23" s="41"/>
+    </row>
+    <row r="24" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C24" s="40"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="156"/>
+      <c r="L24" s="156"/>
+      <c r="M24" s="156"/>
+      <c r="N24" s="156"/>
+      <c r="O24" s="156"/>
+      <c r="P24" s="156"/>
+      <c r="Q24" s="156"/>
+      <c r="R24" s="156"/>
+      <c r="S24" s="156"/>
+      <c r="T24" s="156"/>
+      <c r="U24" s="156"/>
+      <c r="V24" s="156"/>
+      <c r="W24" s="156"/>
+      <c r="X24" s="156"/>
+      <c r="Y24" s="156"/>
+      <c r="Z24" s="156"/>
+      <c r="AA24" s="156"/>
+      <c r="AB24" s="156"/>
+      <c r="AC24" s="156"/>
+      <c r="AD24" s="156"/>
+      <c r="AE24" s="156"/>
+      <c r="AF24" s="156"/>
+      <c r="AG24" s="156"/>
+      <c r="AH24" s="156"/>
+      <c r="AI24" s="156"/>
+      <c r="AJ24" s="156"/>
+      <c r="AK24" s="156"/>
+      <c r="AL24" s="156"/>
+      <c r="AM24" s="41"/>
+    </row>
+    <row r="25" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C25" s="40"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="156"/>
+      <c r="P25" s="156"/>
+      <c r="Q25" s="156"/>
+      <c r="R25" s="156"/>
+      <c r="S25" s="156"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="156"/>
+      <c r="V25" s="156"/>
+      <c r="W25" s="156"/>
+      <c r="X25" s="156"/>
+      <c r="Y25" s="156"/>
+      <c r="Z25" s="156"/>
+      <c r="AA25" s="156"/>
+      <c r="AB25" s="156"/>
+      <c r="AC25" s="156"/>
+      <c r="AD25" s="156"/>
+      <c r="AE25" s="156"/>
+      <c r="AF25" s="156"/>
+      <c r="AG25" s="156"/>
+      <c r="AH25" s="156"/>
+      <c r="AI25" s="156"/>
+      <c r="AJ25" s="156"/>
+      <c r="AK25" s="156"/>
+      <c r="AL25" s="156"/>
+      <c r="AM25" s="41"/>
+    </row>
+    <row r="26" s="1" customFormat="true" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C26" s="40"/>
+      <c r="AK26" s="8"/>
+      <c r="AM26" s="41"/>
+    </row>
+    <row r="27" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C27" s="40"/>
+      <c r="D27" s="125" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="125"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="125"/>
+      <c r="Q27" s="125"/>
+      <c r="R27" s="125"/>
+      <c r="S27" s="125"/>
+      <c r="T27" s="125"/>
+      <c r="U27" s="125"/>
+      <c r="V27" s="125"/>
+      <c r="W27" s="125"/>
+      <c r="X27" s="125"/>
+      <c r="Y27" s="125"/>
+      <c r="Z27" s="125"/>
+      <c r="AA27" s="125"/>
+      <c r="AB27" s="125"/>
+      <c r="AC27" s="125"/>
+      <c r="AD27" s="125"/>
+      <c r="AE27" s="125"/>
+      <c r="AF27" s="125"/>
+      <c r="AG27" s="125"/>
+      <c r="AH27" s="125"/>
+      <c r="AI27" s="125"/>
+      <c r="AJ27" s="125"/>
+      <c r="AK27" s="125"/>
+      <c r="AL27" s="125"/>
+      <c r="AM27" s="41"/>
+    </row>
+    <row r="28" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C28" s="40"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="125"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="125"/>
+      <c r="J28" s="125"/>
+      <c r="K28" s="125"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="125"/>
+      <c r="N28" s="125"/>
+      <c r="O28" s="125"/>
+      <c r="P28" s="125"/>
+      <c r="Q28" s="125"/>
+      <c r="R28" s="125"/>
+      <c r="S28" s="125"/>
+      <c r="T28" s="125"/>
+      <c r="U28" s="125"/>
+      <c r="V28" s="125"/>
+      <c r="W28" s="125"/>
+      <c r="X28" s="125"/>
+      <c r="Y28" s="125"/>
+      <c r="Z28" s="125"/>
+      <c r="AA28" s="125"/>
+      <c r="AB28" s="125"/>
+      <c r="AC28" s="125"/>
+      <c r="AD28" s="125"/>
+      <c r="AE28" s="125"/>
+      <c r="AF28" s="125"/>
+      <c r="AG28" s="125"/>
+      <c r="AH28" s="125"/>
+      <c r="AI28" s="125"/>
+      <c r="AJ28" s="125"/>
+      <c r="AK28" s="125"/>
+      <c r="AL28" s="125"/>
+      <c r="AM28" s="41"/>
+    </row>
+    <row r="29" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="50"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="16"/>
+      <c r="AI29" s="16"/>
+      <c r="AJ29" s="16"/>
+      <c r="AK29" s="8"/>
+      <c r="AM29" s="41"/>
+    </row>
+    <row r="30" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="157" t="str">
+        <f aca="false">IF(ISBLANK(Титульный!B8),"",IFERROR(IF(OR(LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилое помещение",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилой дом",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Многоквартирный дом"),"Физический износ конструкций принят в соответствии с ВСН 53-86(р) «Правила оценки физического износа жилых зданий" &amp; CHAR(10),""),"")) &amp; "Классификация технического состояния конструкций принята в соответствии ГОСТ 31937-2011 «Здания и сооружения. Правила обследования и мониторинга технического состояния»."</f>
+        <v>Классификация технического состояния конструкций принята в соответствии ГОСТ 31937-2011 «Здания и сооружения. Правила обследования и мониторинга технического состояния».</v>
+      </c>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="157"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="157"/>
+      <c r="O30" s="157"/>
+      <c r="P30" s="157"/>
+      <c r="Q30" s="157"/>
+      <c r="R30" s="157"/>
+      <c r="S30" s="157"/>
+      <c r="T30" s="157"/>
+      <c r="U30" s="157"/>
+      <c r="V30" s="157"/>
+      <c r="W30" s="157"/>
+      <c r="X30" s="157"/>
+      <c r="Y30" s="157"/>
+      <c r="Z30" s="157"/>
+      <c r="AA30" s="157"/>
+      <c r="AB30" s="157"/>
+      <c r="AC30" s="157"/>
+      <c r="AD30" s="157"/>
+      <c r="AE30" s="157"/>
+      <c r="AF30" s="157"/>
+      <c r="AG30" s="157"/>
+      <c r="AH30" s="157"/>
+      <c r="AI30" s="157"/>
+      <c r="AJ30" s="157"/>
+      <c r="AK30" s="157"/>
+      <c r="AL30" s="157"/>
+      <c r="AM30" s="41"/>
+    </row>
+    <row r="31" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="157"/>
+      <c r="L31" s="157"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="157"/>
+      <c r="O31" s="157"/>
+      <c r="P31" s="157"/>
+      <c r="Q31" s="157"/>
+      <c r="R31" s="157"/>
+      <c r="S31" s="157"/>
+      <c r="T31" s="157"/>
+      <c r="U31" s="157"/>
+      <c r="V31" s="157"/>
+      <c r="W31" s="157"/>
+      <c r="X31" s="157"/>
+      <c r="Y31" s="157"/>
+      <c r="Z31" s="157"/>
+      <c r="AA31" s="157"/>
+      <c r="AB31" s="157"/>
+      <c r="AC31" s="157"/>
+      <c r="AD31" s="157"/>
+      <c r="AE31" s="157"/>
+      <c r="AF31" s="157"/>
+      <c r="AG31" s="157"/>
+      <c r="AH31" s="157"/>
+      <c r="AI31" s="157"/>
+      <c r="AJ31" s="157"/>
+      <c r="AK31" s="157"/>
+      <c r="AL31" s="157"/>
+      <c r="AM31" s="41"/>
+    </row>
+    <row r="32" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="49"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="157"/>
+      <c r="M32" s="157"/>
+      <c r="N32" s="157"/>
+      <c r="O32" s="157"/>
+      <c r="P32" s="157"/>
+      <c r="Q32" s="157"/>
+      <c r="R32" s="157"/>
+      <c r="S32" s="157"/>
+      <c r="T32" s="157"/>
+      <c r="U32" s="157"/>
+      <c r="V32" s="157"/>
+      <c r="W32" s="157"/>
+      <c r="X32" s="157"/>
+      <c r="Y32" s="157"/>
+      <c r="Z32" s="157"/>
+      <c r="AA32" s="157"/>
+      <c r="AB32" s="157"/>
+      <c r="AC32" s="157"/>
+      <c r="AD32" s="157"/>
+      <c r="AE32" s="157"/>
+      <c r="AF32" s="157"/>
+      <c r="AG32" s="157"/>
+      <c r="AH32" s="157"/>
+      <c r="AI32" s="157"/>
+      <c r="AJ32" s="157"/>
+      <c r="AK32" s="157"/>
+      <c r="AL32" s="157"/>
+      <c r="AM32" s="41"/>
+    </row>
+    <row r="33" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="157"/>
+      <c r="H33" s="157"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="157"/>
+      <c r="K33" s="157"/>
+      <c r="L33" s="157"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="157"/>
+      <c r="O33" s="157"/>
+      <c r="P33" s="157"/>
+      <c r="Q33" s="157"/>
+      <c r="R33" s="157"/>
+      <c r="S33" s="157"/>
+      <c r="T33" s="157"/>
+      <c r="U33" s="157"/>
+      <c r="V33" s="157"/>
+      <c r="W33" s="157"/>
+      <c r="X33" s="157"/>
+      <c r="Y33" s="157"/>
+      <c r="Z33" s="157"/>
+      <c r="AA33" s="157"/>
+      <c r="AB33" s="157"/>
+      <c r="AC33" s="157"/>
+      <c r="AD33" s="157"/>
+      <c r="AE33" s="157"/>
+      <c r="AF33" s="157"/>
+      <c r="AG33" s="157"/>
+      <c r="AH33" s="157"/>
+      <c r="AI33" s="157"/>
+      <c r="AJ33" s="157"/>
+      <c r="AK33" s="157"/>
+      <c r="AL33" s="157"/>
+      <c r="AM33" s="41"/>
+    </row>
+    <row r="34" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="49"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="157"/>
+      <c r="K34" s="157"/>
+      <c r="L34" s="157"/>
+      <c r="M34" s="157"/>
+      <c r="N34" s="157"/>
+      <c r="O34" s="157"/>
+      <c r="P34" s="157"/>
+      <c r="Q34" s="157"/>
+      <c r="R34" s="157"/>
+      <c r="S34" s="157"/>
+      <c r="T34" s="157"/>
+      <c r="U34" s="157"/>
+      <c r="V34" s="157"/>
+      <c r="W34" s="157"/>
+      <c r="X34" s="157"/>
+      <c r="Y34" s="157"/>
+      <c r="Z34" s="157"/>
+      <c r="AA34" s="157"/>
+      <c r="AB34" s="157"/>
+      <c r="AC34" s="157"/>
+      <c r="AD34" s="157"/>
+      <c r="AE34" s="157"/>
+      <c r="AF34" s="157"/>
+      <c r="AG34" s="157"/>
+      <c r="AH34" s="157"/>
+      <c r="AI34" s="157"/>
+      <c r="AJ34" s="157"/>
+      <c r="AK34" s="157"/>
+      <c r="AL34" s="157"/>
+      <c r="AM34" s="41"/>
+    </row>
+    <row r="35" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="49"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="157"/>
+      <c r="K35" s="157"/>
+      <c r="L35" s="157"/>
+      <c r="M35" s="157"/>
+      <c r="N35" s="157"/>
+      <c r="O35" s="157"/>
+      <c r="P35" s="157"/>
+      <c r="Q35" s="157"/>
+      <c r="R35" s="157"/>
+      <c r="S35" s="157"/>
+      <c r="T35" s="157"/>
+      <c r="U35" s="157"/>
+      <c r="V35" s="157"/>
+      <c r="W35" s="157"/>
+      <c r="X35" s="157"/>
+      <c r="Y35" s="157"/>
+      <c r="Z35" s="157"/>
+      <c r="AA35" s="157"/>
+      <c r="AB35" s="157"/>
+      <c r="AC35" s="157"/>
+      <c r="AD35" s="157"/>
+      <c r="AE35" s="157"/>
+      <c r="AF35" s="157"/>
+      <c r="AG35" s="157"/>
+      <c r="AH35" s="157"/>
+      <c r="AI35" s="157"/>
+      <c r="AJ35" s="157"/>
+      <c r="AK35" s="157"/>
+      <c r="AL35" s="157"/>
+      <c r="AM35" s="41"/>
+    </row>
+    <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="50"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="157"/>
+      <c r="K36" s="157"/>
+      <c r="L36" s="157"/>
+      <c r="M36" s="157"/>
+      <c r="N36" s="157"/>
+      <c r="O36" s="157"/>
+      <c r="P36" s="157"/>
+      <c r="Q36" s="157"/>
+      <c r="R36" s="157"/>
+      <c r="S36" s="157"/>
+      <c r="T36" s="157"/>
+      <c r="U36" s="157"/>
+      <c r="V36" s="157"/>
+      <c r="W36" s="157"/>
+      <c r="X36" s="157"/>
+      <c r="Y36" s="157"/>
+      <c r="Z36" s="157"/>
+      <c r="AA36" s="157"/>
+      <c r="AB36" s="157"/>
+      <c r="AC36" s="157"/>
+      <c r="AD36" s="157"/>
+      <c r="AE36" s="157"/>
+      <c r="AF36" s="157"/>
+      <c r="AG36" s="157"/>
+      <c r="AH36" s="157"/>
+      <c r="AI36" s="157"/>
+      <c r="AJ36" s="157"/>
+      <c r="AK36" s="157"/>
+      <c r="AL36" s="157"/>
+      <c r="AM36" s="41"/>
+    </row>
+    <row r="37" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="49"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="157"/>
+      <c r="K37" s="157"/>
+      <c r="L37" s="157"/>
+      <c r="M37" s="157"/>
+      <c r="N37" s="157"/>
+      <c r="O37" s="157"/>
+      <c r="P37" s="157"/>
+      <c r="Q37" s="157"/>
+      <c r="R37" s="157"/>
+      <c r="S37" s="157"/>
+      <c r="T37" s="157"/>
+      <c r="U37" s="157"/>
+      <c r="V37" s="157"/>
+      <c r="W37" s="157"/>
+      <c r="X37" s="157"/>
+      <c r="Y37" s="157"/>
+      <c r="Z37" s="157"/>
+      <c r="AA37" s="157"/>
+      <c r="AB37" s="157"/>
+      <c r="AC37" s="157"/>
+      <c r="AD37" s="157"/>
+      <c r="AE37" s="157"/>
+      <c r="AF37" s="157"/>
+      <c r="AG37" s="157"/>
+      <c r="AH37" s="157"/>
+      <c r="AI37" s="157"/>
+      <c r="AJ37" s="157"/>
+      <c r="AK37" s="157"/>
+      <c r="AL37" s="157"/>
+      <c r="AM37" s="41"/>
+    </row>
+    <row r="38" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="157"/>
+      <c r="K38" s="157"/>
+      <c r="L38" s="157"/>
+      <c r="M38" s="157"/>
+      <c r="N38" s="157"/>
+      <c r="O38" s="157"/>
+      <c r="P38" s="157"/>
+      <c r="Q38" s="157"/>
+      <c r="R38" s="157"/>
+      <c r="S38" s="157"/>
+      <c r="T38" s="157"/>
+      <c r="U38" s="157"/>
+      <c r="V38" s="157"/>
+      <c r="W38" s="157"/>
+      <c r="X38" s="157"/>
+      <c r="Y38" s="157"/>
+      <c r="Z38" s="157"/>
+      <c r="AA38" s="157"/>
+      <c r="AB38" s="157"/>
+      <c r="AC38" s="157"/>
+      <c r="AD38" s="157"/>
+      <c r="AE38" s="157"/>
+      <c r="AF38" s="157"/>
+      <c r="AG38" s="157"/>
+      <c r="AH38" s="157"/>
+      <c r="AI38" s="157"/>
+      <c r="AJ38" s="157"/>
+      <c r="AK38" s="157"/>
+      <c r="AL38" s="157"/>
+      <c r="AM38" s="41"/>
+    </row>
+    <row r="39" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="49"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="157"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="157"/>
+      <c r="K39" s="157"/>
+      <c r="L39" s="157"/>
+      <c r="M39" s="157"/>
+      <c r="N39" s="157"/>
+      <c r="O39" s="157"/>
+      <c r="P39" s="157"/>
+      <c r="Q39" s="157"/>
+      <c r="R39" s="157"/>
+      <c r="S39" s="157"/>
+      <c r="T39" s="157"/>
+      <c r="U39" s="157"/>
+      <c r="V39" s="157"/>
+      <c r="W39" s="157"/>
+      <c r="X39" s="157"/>
+      <c r="Y39" s="157"/>
+      <c r="Z39" s="157"/>
+      <c r="AA39" s="157"/>
+      <c r="AB39" s="157"/>
+      <c r="AC39" s="157"/>
+      <c r="AD39" s="157"/>
+      <c r="AE39" s="157"/>
+      <c r="AF39" s="157"/>
+      <c r="AG39" s="157"/>
+      <c r="AH39" s="157"/>
+      <c r="AI39" s="157"/>
+      <c r="AJ39" s="157"/>
+      <c r="AK39" s="157"/>
+      <c r="AL39" s="157"/>
+      <c r="AM39" s="41"/>
+    </row>
+    <row r="40" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="49"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="157"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="157"/>
+      <c r="K40" s="157"/>
+      <c r="L40" s="157"/>
+      <c r="M40" s="157"/>
+      <c r="N40" s="157"/>
+      <c r="O40" s="157"/>
+      <c r="P40" s="157"/>
+      <c r="Q40" s="157"/>
+      <c r="R40" s="157"/>
+      <c r="S40" s="157"/>
+      <c r="T40" s="157"/>
+      <c r="U40" s="157"/>
+      <c r="V40" s="157"/>
+      <c r="W40" s="157"/>
+      <c r="X40" s="157"/>
+      <c r="Y40" s="157"/>
+      <c r="Z40" s="157"/>
+      <c r="AA40" s="157"/>
+      <c r="AB40" s="157"/>
+      <c r="AC40" s="157"/>
+      <c r="AD40" s="157"/>
+      <c r="AE40" s="157"/>
+      <c r="AF40" s="157"/>
+      <c r="AG40" s="157"/>
+      <c r="AH40" s="157"/>
+      <c r="AI40" s="157"/>
+      <c r="AJ40" s="157"/>
+      <c r="AK40" s="157"/>
+      <c r="AL40" s="157"/>
+      <c r="AM40" s="41"/>
+    </row>
+    <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="50"/>
+      <c r="C41" s="40"/>
+      <c r="AK41" s="8"/>
+      <c r="AM41" s="41"/>
+    </row>
+    <row r="42" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="49"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="40"/>
+      <c r="AK42" s="8"/>
+      <c r="AM42" s="41"/>
+    </row>
+    <row r="43" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="49"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="40"/>
+      <c r="AK43" s="8"/>
+      <c r="AM43" s="41"/>
+    </row>
+    <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="49"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="40"/>
+      <c r="AK44" s="8"/>
+      <c r="AM44" s="41"/>
+    </row>
+    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="49"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="51"/>
+      <c r="AK45" s="8"/>
+      <c r="AM45" s="52"/>
+    </row>
+    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="50"/>
+      <c r="C46" s="51"/>
+      <c r="AK46" s="8"/>
+      <c r="AM46" s="52"/>
+    </row>
+    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="49"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="28"/>
+      <c r="AC47" s="28"/>
+      <c r="AD47" s="28"/>
+      <c r="AE47" s="28"/>
+      <c r="AF47" s="28"/>
+      <c r="AG47" s="28"/>
+      <c r="AH47" s="28"/>
+      <c r="AI47" s="28"/>
+      <c r="AJ47" s="28"/>
+      <c r="AK47" s="8"/>
+      <c r="AM47" s="52"/>
+    </row>
+    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="49"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="28"/>
+      <c r="AC48" s="28"/>
+      <c r="AD48" s="28"/>
+      <c r="AE48" s="28"/>
+      <c r="AF48" s="28"/>
+      <c r="AG48" s="28"/>
+      <c r="AH48" s="28"/>
+      <c r="AI48" s="28"/>
+      <c r="AJ48" s="28"/>
+      <c r="AK48" s="8"/>
+      <c r="AM48" s="41"/>
+    </row>
+    <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="49"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="40"/>
+      <c r="AK49" s="8"/>
+      <c r="AM49" s="41"/>
+    </row>
+    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="49"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="40"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="29"/>
+      <c r="AB50" s="29"/>
+      <c r="AC50" s="29"/>
+      <c r="AD50" s="29"/>
+      <c r="AE50" s="29"/>
+      <c r="AF50" s="29"/>
+      <c r="AG50" s="29"/>
+      <c r="AH50" s="29"/>
+      <c r="AI50" s="29"/>
+      <c r="AJ50" s="29"/>
+      <c r="AK50" s="8"/>
+      <c r="AM50" s="53"/>
+    </row>
+    <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="49"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="29"/>
+      <c r="AA51" s="29"/>
+      <c r="AB51" s="29"/>
+      <c r="AC51" s="29"/>
+      <c r="AD51" s="29"/>
+      <c r="AE51" s="29"/>
+      <c r="AF51" s="29"/>
+      <c r="AG51" s="29"/>
+      <c r="AH51" s="29"/>
+      <c r="AI51" s="29"/>
+      <c r="AJ51" s="29"/>
+      <c r="AK51" s="8"/>
+      <c r="AM51" s="53"/>
+    </row>
+    <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="49"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="40"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="29"/>
+      <c r="AA52" s="29"/>
+      <c r="AB52" s="29"/>
+      <c r="AC52" s="29"/>
+      <c r="AD52" s="29"/>
+      <c r="AE52" s="29"/>
+      <c r="AF52" s="29"/>
+      <c r="AG52" s="29"/>
+      <c r="AH52" s="29"/>
+      <c r="AI52" s="29"/>
+      <c r="AJ52" s="29"/>
+      <c r="AK52" s="8"/>
+      <c r="AM52" s="53"/>
+    </row>
+    <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="55"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="11"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11"/>
+      <c r="AJ53" s="11"/>
+      <c r="AK53" s="8"/>
+      <c r="AM53" s="43"/>
+    </row>
+    <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="49"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="93"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="93"/>
+      <c r="G54" s="93"/>
+      <c r="H54" s="93"/>
+      <c r="I54" s="93"/>
+      <c r="J54" s="93"/>
+      <c r="K54" s="93"/>
+      <c r="L54" s="93"/>
+      <c r="M54" s="93"/>
+      <c r="N54" s="93"/>
+      <c r="O54" s="93"/>
+      <c r="P54" s="94"/>
+      <c r="Q54" s="94"/>
+      <c r="R54" s="94"/>
+      <c r="S54" s="94"/>
+      <c r="T54" s="94"/>
+      <c r="U54" s="94"/>
+      <c r="V54" s="94"/>
+      <c r="W54" s="94"/>
+      <c r="X54" s="94"/>
+      <c r="Y54" s="94"/>
+      <c r="Z54" s="94"/>
+      <c r="AA54" s="94"/>
+      <c r="AB54" s="94"/>
+      <c r="AC54" s="94"/>
+      <c r="AD54" s="94"/>
+      <c r="AE54" s="94"/>
+      <c r="AF54" s="94"/>
+      <c r="AG54" s="94"/>
+      <c r="AH54" s="94"/>
+      <c r="AI54" s="94"/>
+      <c r="AJ54" s="94"/>
+      <c r="AK54" s="24"/>
+      <c r="AL54" s="25"/>
+      <c r="AM54" s="95"/>
+    </row>
+    <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="49"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="73"/>
+      <c r="L55" s="73"/>
+      <c r="M55" s="72"/>
+      <c r="N55" s="72"/>
+      <c r="O55" s="72"/>
+      <c r="P55" s="121"/>
+      <c r="Q55" s="121"/>
+      <c r="R55" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="S55" s="96"/>
+      <c r="T55" s="96"/>
+      <c r="U55" s="96"/>
+      <c r="V55" s="96"/>
+      <c r="W55" s="96"/>
+      <c r="X55" s="96"/>
+      <c r="Y55" s="96"/>
+      <c r="Z55" s="96"/>
+      <c r="AA55" s="96"/>
+      <c r="AB55" s="96"/>
+      <c r="AC55" s="96"/>
+      <c r="AD55" s="96"/>
+      <c r="AE55" s="96"/>
+      <c r="AF55" s="96"/>
+      <c r="AG55" s="96"/>
+      <c r="AH55" s="96"/>
+      <c r="AI55" s="96"/>
+      <c r="AJ55" s="96"/>
+      <c r="AK55" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL55" s="81"/>
+      <c r="AM55" s="81"/>
+    </row>
+    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="49"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="123"/>
+      <c r="I56" s="123"/>
+      <c r="J56" s="98"/>
+      <c r="K56" s="98"/>
+      <c r="L56" s="98"/>
+      <c r="M56" s="122"/>
+      <c r="N56" s="122"/>
+      <c r="O56" s="122"/>
+      <c r="P56" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q56" s="75"/>
+      <c r="R56" s="96"/>
+      <c r="S56" s="96"/>
+      <c r="T56" s="96"/>
+      <c r="U56" s="96"/>
+      <c r="V56" s="96"/>
+      <c r="W56" s="96"/>
+      <c r="X56" s="96"/>
+      <c r="Y56" s="96"/>
+      <c r="Z56" s="96"/>
+      <c r="AA56" s="96"/>
+      <c r="AB56" s="96"/>
+      <c r="AC56" s="96"/>
+      <c r="AD56" s="96"/>
+      <c r="AE56" s="96"/>
+      <c r="AF56" s="96"/>
+      <c r="AG56" s="96"/>
+      <c r="AH56" s="96"/>
+      <c r="AI56" s="96"/>
+      <c r="AJ56" s="96"/>
+      <c r="AK56" s="73"/>
+      <c r="AL56" s="73"/>
+      <c r="AM56" s="73"/>
+    </row>
+    <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="49"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="75"/>
+      <c r="E57" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="77"/>
+      <c r="J57" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="K57" s="78"/>
+      <c r="L57" s="78"/>
+      <c r="M57" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="N57" s="77"/>
+      <c r="O57" s="77"/>
+      <c r="P57" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q57" s="77"/>
+      <c r="R57" s="96"/>
+      <c r="S57" s="96"/>
+      <c r="T57" s="96"/>
+      <c r="U57" s="96"/>
+      <c r="V57" s="96"/>
+      <c r="W57" s="96"/>
+      <c r="X57" s="96"/>
+      <c r="Y57" s="96"/>
+      <c r="Z57" s="96"/>
+      <c r="AA57" s="96"/>
+      <c r="AB57" s="96"/>
+      <c r="AC57" s="96"/>
+      <c r="AD57" s="96"/>
+      <c r="AE57" s="96"/>
+      <c r="AF57" s="96"/>
+      <c r="AG57" s="96"/>
+      <c r="AH57" s="96"/>
+      <c r="AI57" s="96"/>
+      <c r="AJ57" s="96"/>
+      <c r="AK57" s="73"/>
+      <c r="AL57" s="73"/>
+      <c r="AM57" s="73"/>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="D2:AL3"/>
+    <mergeCell ref="D5:AL6"/>
+    <mergeCell ref="D8:AL25"/>
+    <mergeCell ref="D27:AL28"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="D30:AL40"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="R55:AJ57"/>
+    <mergeCell ref="AK55:AM55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="AK56:AM57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.315277777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:BW1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AK56" activeCellId="1" sqref="H8:AH49 AK56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="2.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="38" min="4" style="1" width="2.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="2.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="75" min="40" style="1" width="2.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="76" style="9" width="2.55"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="107"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="109"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C2" s="51"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -9534,7 +9529,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D56" activeCellId="0" sqref="D56"/>
+      <selection pane="topLeft" activeCell="D56" activeCellId="1" sqref="H8:AH49 D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11181,8 +11176,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z20" activeCellId="0" sqref="Z20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8:AH49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13665,7 +13660,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
+      <selection pane="topLeft" activeCell="P56" activeCellId="1" sqref="H8:AH49 P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15337,7 +15332,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U38" activeCellId="0" sqref="U38"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="H8:AH49 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17788,7 +17783,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
+      <selection pane="topLeft" activeCell="P56" activeCellId="1" sqref="H8:AH49 P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20259,7 +20254,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
+      <selection pane="topLeft" activeCell="P56" activeCellId="1" sqref="H8:AH49 P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22679,7 +22674,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="1" sqref="H8:AH49 D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25169,7 +25164,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
+      <selection pane="topLeft" activeCell="P56" activeCellId="1" sqref="H8:AH49 P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/static/report.xlsx
+++ b/backend/static/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="164">
   <si>
     <t xml:space="preserve">ООО «Строительно-производственно объединение «УРАЛ»</t>
   </si>
@@ -406,9 +406,15 @@
     <t xml:space="preserve">2.2. Описание и характеристики здания</t>
   </si>
   <si>
-    <t xml:space="preserve">{Обследуемый.род.Тип помещения} {Тип помещения} представляет собой {Число этажей} здание {Форма здания} формы в плане, выполненное по бескаркасной конструктивной схеме с несущими продольными и поперечными стенами. 
-Подробное описание конструкций дома представлено в Таблице 3.
-За относительную отметку 0,000 м принят уровень чистого пола первого этажа дома.</t>
+    <t xml:space="preserve">{Обследуемый.род.Тип помещения} {Тип помещения} представляет собой {Число этажей} здание {Форма здания} формы. Количество этажей — {Число этажей}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">За относительную отметку 0,000 м принят уровень чистого пола первого этажа дома.
+Подробное описание конструкций дома представлено в Таблице 3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">За относительную отметку 0,000 м принят уровень чистого пола первого этажа дома.</t>
   </si>
   <si>
     <t xml:space="preserve">Таблица 3. Описание конструктивных элементов дома</t>
@@ -1360,6 +1366,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1441,10 +1451,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1531,9 +1537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>118080</xdr:colOff>
+      <xdr:colOff>117720</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>98280</xdr:rowOff>
+      <xdr:rowOff>97920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1547,7 +1553,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="281160" y="66240"/>
-          <a:ext cx="1350720" cy="571320"/>
+          <a:ext cx="1350360" cy="570960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1574,9 +1580,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>167400</xdr:colOff>
+      <xdr:colOff>167040</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1590,7 +1596,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="510120" y="39240"/>
-          <a:ext cx="1350720" cy="571320"/>
+          <a:ext cx="1350360" cy="570960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1617,9 +1623,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>117720</xdr:colOff>
+      <xdr:colOff>117360</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>138240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1633,7 +1639,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5803920" y="10002240"/>
-          <a:ext cx="679680" cy="286920"/>
+          <a:ext cx="679320" cy="286560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1763,7 +1769,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N36" activeCellId="0" sqref="H8:AH49"/>
+      <selection pane="topLeft" activeCell="N36" activeCellId="0" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3413,7 +3419,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB16" activeCellId="0" sqref="H8:AH49"/>
+      <selection pane="topLeft" activeCell="AB16" activeCellId="0" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3507,7 +3513,7 @@
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="51"/>
       <c r="D2" s="125" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E2" s="125"/>
       <c r="F2" s="125"/>
@@ -3624,123 +3630,123 @@
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="40"/>
-      <c r="D5" s="142" t="str">
+      <c r="D5" s="143" t="str">
         <f aca="false">IF(C11&lt;&gt;"", "Перечень технической документации, рассмотренной в процессе выполнения работ по обследованию строительных конструкций объекта, представлен в Таблице 4.", "Техническая документация отсутствует")</f>
         <v>Техническая документация отсутствует</v>
       </c>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="142"/>
-      <c r="S5" s="142"/>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="142"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="142"/>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="142"/>
-      <c r="AA5" s="142"/>
-      <c r="AB5" s="142"/>
-      <c r="AC5" s="142"/>
-      <c r="AD5" s="142"/>
-      <c r="AE5" s="142"/>
-      <c r="AF5" s="142"/>
-      <c r="AG5" s="142"/>
-      <c r="AH5" s="142"/>
-      <c r="AI5" s="142"/>
-      <c r="AJ5" s="142"/>
-      <c r="AK5" s="142"/>
-      <c r="AL5" s="142"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="143"/>
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="143"/>
+      <c r="W5" s="143"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="143"/>
+      <c r="AD5" s="143"/>
+      <c r="AE5" s="143"/>
+      <c r="AF5" s="143"/>
+      <c r="AG5" s="143"/>
+      <c r="AH5" s="143"/>
+      <c r="AI5" s="143"/>
+      <c r="AJ5" s="143"/>
+      <c r="AK5" s="143"/>
+      <c r="AL5" s="143"/>
       <c r="AM5" s="41"/>
       <c r="AQ5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="42"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="142"/>
-      <c r="N6" s="142"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="142"/>
-      <c r="Q6" s="142"/>
-      <c r="R6" s="142"/>
-      <c r="S6" s="142"/>
-      <c r="T6" s="142"/>
-      <c r="U6" s="142"/>
-      <c r="V6" s="142"/>
-      <c r="W6" s="142"/>
-      <c r="X6" s="142"/>
-      <c r="Y6" s="142"/>
-      <c r="Z6" s="142"/>
-      <c r="AA6" s="142"/>
-      <c r="AB6" s="142"/>
-      <c r="AC6" s="142"/>
-      <c r="AD6" s="142"/>
-      <c r="AE6" s="142"/>
-      <c r="AF6" s="142"/>
-      <c r="AG6" s="142"/>
-      <c r="AH6" s="142"/>
-      <c r="AI6" s="142"/>
-      <c r="AJ6" s="142"/>
-      <c r="AK6" s="142"/>
-      <c r="AL6" s="142"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="143"/>
+      <c r="V6" s="143"/>
+      <c r="W6" s="143"/>
+      <c r="X6" s="143"/>
+      <c r="Y6" s="143"/>
+      <c r="Z6" s="143"/>
+      <c r="AA6" s="143"/>
+      <c r="AB6" s="143"/>
+      <c r="AC6" s="143"/>
+      <c r="AD6" s="143"/>
+      <c r="AE6" s="143"/>
+      <c r="AF6" s="143"/>
+      <c r="AG6" s="143"/>
+      <c r="AH6" s="143"/>
+      <c r="AI6" s="143"/>
+      <c r="AJ6" s="143"/>
+      <c r="AK6" s="143"/>
+      <c r="AL6" s="143"/>
       <c r="AM6" s="43"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="44"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="142"/>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="142"/>
-      <c r="R7" s="142"/>
-      <c r="S7" s="142"/>
-      <c r="T7" s="142"/>
-      <c r="U7" s="142"/>
-      <c r="V7" s="142"/>
-      <c r="W7" s="142"/>
-      <c r="X7" s="142"/>
-      <c r="Y7" s="142"/>
-      <c r="Z7" s="142"/>
-      <c r="AA7" s="142"/>
-      <c r="AB7" s="142"/>
-      <c r="AC7" s="142"/>
-      <c r="AD7" s="142"/>
-      <c r="AE7" s="142"/>
-      <c r="AF7" s="142"/>
-      <c r="AG7" s="142"/>
-      <c r="AH7" s="142"/>
-      <c r="AI7" s="142"/>
-      <c r="AJ7" s="142"/>
-      <c r="AK7" s="142"/>
-      <c r="AL7" s="142"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="143"/>
+      <c r="R7" s="143"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="143"/>
+      <c r="W7" s="143"/>
+      <c r="X7" s="143"/>
+      <c r="Y7" s="143"/>
+      <c r="Z7" s="143"/>
+      <c r="AA7" s="143"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="143"/>
+      <c r="AD7" s="143"/>
+      <c r="AE7" s="143"/>
+      <c r="AF7" s="143"/>
+      <c r="AG7" s="143"/>
+      <c r="AH7" s="143"/>
+      <c r="AI7" s="143"/>
+      <c r="AJ7" s="143"/>
+      <c r="AK7" s="143"/>
+      <c r="AL7" s="143"/>
       <c r="AM7" s="43"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3749,1798 +3755,1798 @@
       <c r="AM8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="143" t="str">
+      <c r="C9" s="144" t="str">
         <f aca="false">IF(C11&lt;&gt;"", "Таблица 4. Перечень предоставленной технической документации", "")</f>
         <v/>
       </c>
-      <c r="D9" s="143"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="143"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143"/>
-      <c r="N9" s="143"/>
-      <c r="O9" s="143"/>
-      <c r="P9" s="143"/>
-      <c r="Q9" s="143"/>
-      <c r="R9" s="143"/>
-      <c r="S9" s="143"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="143"/>
-      <c r="V9" s="143"/>
-      <c r="W9" s="143"/>
-      <c r="X9" s="143"/>
-      <c r="Y9" s="143"/>
-      <c r="Z9" s="143"/>
-      <c r="AA9" s="143"/>
-      <c r="AB9" s="143"/>
-      <c r="AC9" s="143"/>
-      <c r="AD9" s="143"/>
-      <c r="AE9" s="143"/>
-      <c r="AF9" s="143"/>
-      <c r="AG9" s="143"/>
-      <c r="AH9" s="143"/>
-      <c r="AI9" s="143"/>
-      <c r="AJ9" s="143"/>
-      <c r="AK9" s="143"/>
-      <c r="AL9" s="143"/>
-      <c r="AM9" s="143"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="144"/>
+      <c r="P9" s="144"/>
+      <c r="Q9" s="144"/>
+      <c r="R9" s="144"/>
+      <c r="S9" s="144"/>
+      <c r="T9" s="144"/>
+      <c r="U9" s="144"/>
+      <c r="V9" s="144"/>
+      <c r="W9" s="144"/>
+      <c r="X9" s="144"/>
+      <c r="Y9" s="144"/>
+      <c r="Z9" s="144"/>
+      <c r="AA9" s="144"/>
+      <c r="AB9" s="144"/>
+      <c r="AC9" s="144"/>
+      <c r="AD9" s="144"/>
+      <c r="AE9" s="144"/>
+      <c r="AF9" s="144"/>
+      <c r="AG9" s="144"/>
+      <c r="AH9" s="144"/>
+      <c r="AI9" s="144"/>
+      <c r="AJ9" s="144"/>
+      <c r="AK9" s="144"/>
+      <c r="AL9" s="144"/>
+      <c r="AM9" s="144"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="143"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="143"/>
-      <c r="R10" s="143"/>
-      <c r="S10" s="143"/>
-      <c r="T10" s="143"/>
-      <c r="U10" s="143"/>
-      <c r="V10" s="143"/>
-      <c r="W10" s="143"/>
-      <c r="X10" s="143"/>
-      <c r="Y10" s="143"/>
-      <c r="Z10" s="143"/>
-      <c r="AA10" s="143"/>
-      <c r="AB10" s="143"/>
-      <c r="AC10" s="143"/>
-      <c r="AD10" s="143"/>
-      <c r="AE10" s="143"/>
-      <c r="AF10" s="143"/>
-      <c r="AG10" s="143"/>
-      <c r="AH10" s="143"/>
-      <c r="AI10" s="143"/>
-      <c r="AJ10" s="143"/>
-      <c r="AK10" s="143"/>
-      <c r="AL10" s="143"/>
-      <c r="AM10" s="143"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="144"/>
+      <c r="O10" s="144"/>
+      <c r="P10" s="144"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="144"/>
+      <c r="T10" s="144"/>
+      <c r="U10" s="144"/>
+      <c r="V10" s="144"/>
+      <c r="W10" s="144"/>
+      <c r="X10" s="144"/>
+      <c r="Y10" s="144"/>
+      <c r="Z10" s="144"/>
+      <c r="AA10" s="144"/>
+      <c r="AB10" s="144"/>
+      <c r="AC10" s="144"/>
+      <c r="AD10" s="144"/>
+      <c r="AE10" s="144"/>
+      <c r="AF10" s="144"/>
+      <c r="AG10" s="144"/>
+      <c r="AH10" s="144"/>
+      <c r="AI10" s="144"/>
+      <c r="AJ10" s="144"/>
+      <c r="AK10" s="144"/>
+      <c r="AL10" s="144"/>
+      <c r="AM10" s="144"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="144" t="str">
+      <c r="C11" s="145" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "№ п/п", "")</f>
         <v/>
       </c>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145" t="str">
+      <c r="D11" s="146"/>
+      <c r="E11" s="146" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "Наименование документации", "")</f>
         <v/>
       </c>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="145"/>
-      <c r="N11" s="145"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="145"/>
-      <c r="Q11" s="145"/>
-      <c r="R11" s="145"/>
-      <c r="S11" s="145"/>
-      <c r="T11" s="145"/>
-      <c r="U11" s="145"/>
-      <c r="V11" s="145"/>
-      <c r="W11" s="145" t="str">
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="146"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="146"/>
+      <c r="N11" s="146"/>
+      <c r="O11" s="146"/>
+      <c r="P11" s="146"/>
+      <c r="Q11" s="146"/>
+      <c r="R11" s="146"/>
+      <c r="S11" s="146"/>
+      <c r="T11" s="146"/>
+      <c r="U11" s="146"/>
+      <c r="V11" s="146"/>
+      <c r="W11" s="146" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "Год выпуска", "")</f>
         <v/>
       </c>
-      <c r="X11" s="145"/>
-      <c r="Y11" s="145"/>
-      <c r="Z11" s="145"/>
-      <c r="AA11" s="145"/>
-      <c r="AB11" s="145" t="str">
+      <c r="X11" s="146"/>
+      <c r="Y11" s="146"/>
+      <c r="Z11" s="146"/>
+      <c r="AA11" s="146"/>
+      <c r="AB11" s="146" t="str">
         <f aca="false">IF(E14&lt;&gt;"", "Разработчик", "")</f>
         <v/>
       </c>
-      <c r="AC11" s="145"/>
-      <c r="AD11" s="145"/>
-      <c r="AE11" s="145"/>
-      <c r="AF11" s="145"/>
-      <c r="AG11" s="145"/>
-      <c r="AH11" s="145"/>
-      <c r="AI11" s="145"/>
-      <c r="AJ11" s="145"/>
-      <c r="AK11" s="145"/>
-      <c r="AL11" s="145"/>
-      <c r="AM11" s="146"/>
+      <c r="AC11" s="146"/>
+      <c r="AD11" s="146"/>
+      <c r="AE11" s="146"/>
+      <c r="AF11" s="146"/>
+      <c r="AG11" s="146"/>
+      <c r="AH11" s="146"/>
+      <c r="AI11" s="146"/>
+      <c r="AJ11" s="146"/>
+      <c r="AK11" s="146"/>
+      <c r="AL11" s="146"/>
+      <c r="AM11" s="147"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="147"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="148"/>
-      <c r="N12" s="148"/>
-      <c r="O12" s="148"/>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="148"/>
-      <c r="S12" s="148"/>
-      <c r="T12" s="148"/>
-      <c r="U12" s="148"/>
-      <c r="V12" s="148"/>
-      <c r="W12" s="148"/>
-      <c r="X12" s="148"/>
-      <c r="Y12" s="148"/>
-      <c r="Z12" s="148"/>
-      <c r="AA12" s="148"/>
-      <c r="AB12" s="148"/>
-      <c r="AC12" s="148"/>
-      <c r="AD12" s="148"/>
-      <c r="AE12" s="148"/>
-      <c r="AF12" s="148"/>
-      <c r="AG12" s="148"/>
-      <c r="AH12" s="148"/>
-      <c r="AI12" s="148"/>
-      <c r="AJ12" s="148"/>
-      <c r="AK12" s="148"/>
-      <c r="AL12" s="148"/>
-      <c r="AM12" s="149"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="149"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="149"/>
+      <c r="M12" s="149"/>
+      <c r="N12" s="149"/>
+      <c r="O12" s="149"/>
+      <c r="P12" s="149"/>
+      <c r="Q12" s="149"/>
+      <c r="R12" s="149"/>
+      <c r="S12" s="149"/>
+      <c r="T12" s="149"/>
+      <c r="U12" s="149"/>
+      <c r="V12" s="149"/>
+      <c r="W12" s="149"/>
+      <c r="X12" s="149"/>
+      <c r="Y12" s="149"/>
+      <c r="Z12" s="149"/>
+      <c r="AA12" s="149"/>
+      <c r="AB12" s="149"/>
+      <c r="AC12" s="149"/>
+      <c r="AD12" s="149"/>
+      <c r="AE12" s="149"/>
+      <c r="AF12" s="149"/>
+      <c r="AG12" s="149"/>
+      <c r="AH12" s="149"/>
+      <c r="AI12" s="149"/>
+      <c r="AJ12" s="149"/>
+      <c r="AK12" s="149"/>
+      <c r="AL12" s="149"/>
+      <c r="AM12" s="150"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="147"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="148"/>
-      <c r="K13" s="148"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="148"/>
-      <c r="N13" s="148"/>
-      <c r="O13" s="148"/>
-      <c r="P13" s="148"/>
-      <c r="Q13" s="148"/>
-      <c r="R13" s="148"/>
-      <c r="S13" s="148"/>
-      <c r="T13" s="148"/>
-      <c r="U13" s="148"/>
-      <c r="V13" s="148"/>
-      <c r="W13" s="148"/>
-      <c r="X13" s="148"/>
-      <c r="Y13" s="148"/>
-      <c r="Z13" s="148"/>
-      <c r="AA13" s="148"/>
-      <c r="AB13" s="148"/>
-      <c r="AC13" s="148"/>
-      <c r="AD13" s="148"/>
-      <c r="AE13" s="148"/>
-      <c r="AF13" s="148"/>
-      <c r="AG13" s="148"/>
-      <c r="AH13" s="148"/>
-      <c r="AI13" s="148"/>
-      <c r="AJ13" s="148"/>
-      <c r="AK13" s="148"/>
-      <c r="AL13" s="148"/>
-      <c r="AM13" s="149"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="150"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="151"/>
-      <c r="S14" s="151"/>
-      <c r="T14" s="151"/>
-      <c r="U14" s="151"/>
-      <c r="V14" s="151"/>
-      <c r="W14" s="151"/>
-      <c r="X14" s="151"/>
-      <c r="Y14" s="151"/>
-      <c r="Z14" s="151"/>
-      <c r="AA14" s="151"/>
-      <c r="AB14" s="151"/>
-      <c r="AC14" s="151"/>
-      <c r="AD14" s="151"/>
-      <c r="AE14" s="151"/>
-      <c r="AF14" s="151"/>
-      <c r="AG14" s="151"/>
-      <c r="AH14" s="151"/>
-      <c r="AI14" s="151"/>
-      <c r="AJ14" s="151"/>
-      <c r="AK14" s="151"/>
-      <c r="AL14" s="151"/>
-      <c r="AM14" s="152"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="149"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="149"/>
+      <c r="Q13" s="149"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="149"/>
+      <c r="T13" s="149"/>
+      <c r="U13" s="149"/>
+      <c r="V13" s="149"/>
+      <c r="W13" s="149"/>
+      <c r="X13" s="149"/>
+      <c r="Y13" s="149"/>
+      <c r="Z13" s="149"/>
+      <c r="AA13" s="149"/>
+      <c r="AB13" s="149"/>
+      <c r="AC13" s="149"/>
+      <c r="AD13" s="149"/>
+      <c r="AE13" s="149"/>
+      <c r="AF13" s="149"/>
+      <c r="AG13" s="149"/>
+      <c r="AH13" s="149"/>
+      <c r="AI13" s="149"/>
+      <c r="AJ13" s="149"/>
+      <c r="AK13" s="149"/>
+      <c r="AL13" s="149"/>
+      <c r="AM13" s="150"/>
+    </row>
+    <row r="14" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C14" s="151"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="152"/>
+      <c r="T14" s="152"/>
+      <c r="U14" s="152"/>
+      <c r="V14" s="152"/>
+      <c r="W14" s="152"/>
+      <c r="X14" s="152"/>
+      <c r="Y14" s="152"/>
+      <c r="Z14" s="152"/>
+      <c r="AA14" s="152"/>
+      <c r="AB14" s="152"/>
+      <c r="AC14" s="152"/>
+      <c r="AD14" s="152"/>
+      <c r="AE14" s="152"/>
+      <c r="AF14" s="152"/>
+      <c r="AG14" s="152"/>
+      <c r="AH14" s="152"/>
+      <c r="AI14" s="152"/>
+      <c r="AJ14" s="152"/>
+      <c r="AK14" s="152"/>
+      <c r="AL14" s="152"/>
+      <c r="AM14" s="153"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="150"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="151"/>
-      <c r="Q15" s="151"/>
-      <c r="R15" s="151"/>
-      <c r="S15" s="151"/>
-      <c r="T15" s="151"/>
-      <c r="U15" s="151"/>
-      <c r="V15" s="151"/>
-      <c r="W15" s="151"/>
-      <c r="X15" s="151"/>
-      <c r="Y15" s="151"/>
-      <c r="Z15" s="151"/>
-      <c r="AA15" s="151"/>
-      <c r="AB15" s="151"/>
-      <c r="AC15" s="151"/>
-      <c r="AD15" s="151"/>
-      <c r="AE15" s="151"/>
-      <c r="AF15" s="151"/>
-      <c r="AG15" s="151"/>
-      <c r="AH15" s="151"/>
-      <c r="AI15" s="151"/>
-      <c r="AJ15" s="151"/>
-      <c r="AK15" s="151"/>
-      <c r="AL15" s="151"/>
-      <c r="AM15" s="152"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="152"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="152"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="152"/>
+      <c r="R15" s="152"/>
+      <c r="S15" s="152"/>
+      <c r="T15" s="152"/>
+      <c r="U15" s="152"/>
+      <c r="V15" s="152"/>
+      <c r="W15" s="152"/>
+      <c r="X15" s="152"/>
+      <c r="Y15" s="152"/>
+      <c r="Z15" s="152"/>
+      <c r="AA15" s="152"/>
+      <c r="AB15" s="152"/>
+      <c r="AC15" s="152"/>
+      <c r="AD15" s="152"/>
+      <c r="AE15" s="152"/>
+      <c r="AF15" s="152"/>
+      <c r="AG15" s="152"/>
+      <c r="AH15" s="152"/>
+      <c r="AI15" s="152"/>
+      <c r="AJ15" s="152"/>
+      <c r="AK15" s="152"/>
+      <c r="AL15" s="152"/>
+      <c r="AM15" s="153"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="150"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="151"/>
-      <c r="P16" s="151"/>
-      <c r="Q16" s="151"/>
-      <c r="R16" s="151"/>
-      <c r="S16" s="151"/>
-      <c r="T16" s="151"/>
-      <c r="U16" s="151"/>
-      <c r="V16" s="151"/>
-      <c r="W16" s="151"/>
-      <c r="X16" s="151"/>
-      <c r="Y16" s="151"/>
-      <c r="Z16" s="151"/>
-      <c r="AA16" s="151"/>
-      <c r="AB16" s="151"/>
-      <c r="AC16" s="151"/>
-      <c r="AD16" s="151"/>
-      <c r="AE16" s="151"/>
-      <c r="AF16" s="151"/>
-      <c r="AG16" s="151"/>
-      <c r="AH16" s="151"/>
-      <c r="AI16" s="151"/>
-      <c r="AJ16" s="151"/>
-      <c r="AK16" s="151"/>
-      <c r="AL16" s="151"/>
-      <c r="AM16" s="152"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="152"/>
+      <c r="M16" s="152"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="152"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="152"/>
+      <c r="R16" s="152"/>
+      <c r="S16" s="152"/>
+      <c r="T16" s="152"/>
+      <c r="U16" s="152"/>
+      <c r="V16" s="152"/>
+      <c r="W16" s="152"/>
+      <c r="X16" s="152"/>
+      <c r="Y16" s="152"/>
+      <c r="Z16" s="152"/>
+      <c r="AA16" s="152"/>
+      <c r="AB16" s="152"/>
+      <c r="AC16" s="152"/>
+      <c r="AD16" s="152"/>
+      <c r="AE16" s="152"/>
+      <c r="AF16" s="152"/>
+      <c r="AG16" s="152"/>
+      <c r="AH16" s="152"/>
+      <c r="AI16" s="152"/>
+      <c r="AJ16" s="152"/>
+      <c r="AK16" s="152"/>
+      <c r="AL16" s="152"/>
+      <c r="AM16" s="153"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C17" s="150"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="151"/>
-      <c r="Q17" s="151"/>
-      <c r="R17" s="151"/>
-      <c r="S17" s="151"/>
-      <c r="T17" s="151"/>
-      <c r="U17" s="151"/>
-      <c r="V17" s="151"/>
-      <c r="W17" s="151"/>
-      <c r="X17" s="151"/>
-      <c r="Y17" s="151"/>
-      <c r="Z17" s="151"/>
-      <c r="AA17" s="151"/>
-      <c r="AB17" s="151"/>
-      <c r="AC17" s="151"/>
-      <c r="AD17" s="151"/>
-      <c r="AE17" s="151"/>
-      <c r="AF17" s="151"/>
-      <c r="AG17" s="151"/>
-      <c r="AH17" s="151"/>
-      <c r="AI17" s="151"/>
-      <c r="AJ17" s="151"/>
-      <c r="AK17" s="151"/>
-      <c r="AL17" s="151"/>
-      <c r="AM17" s="152"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="152"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="152"/>
+      <c r="S17" s="152"/>
+      <c r="T17" s="152"/>
+      <c r="U17" s="152"/>
+      <c r="V17" s="152"/>
+      <c r="W17" s="152"/>
+      <c r="X17" s="152"/>
+      <c r="Y17" s="152"/>
+      <c r="Z17" s="152"/>
+      <c r="AA17" s="152"/>
+      <c r="AB17" s="152"/>
+      <c r="AC17" s="152"/>
+      <c r="AD17" s="152"/>
+      <c r="AE17" s="152"/>
+      <c r="AF17" s="152"/>
+      <c r="AG17" s="152"/>
+      <c r="AH17" s="152"/>
+      <c r="AI17" s="152"/>
+      <c r="AJ17" s="152"/>
+      <c r="AK17" s="152"/>
+      <c r="AL17" s="152"/>
+      <c r="AM17" s="153"/>
     </row>
     <row r="18" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C18" s="150"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="151"/>
-      <c r="Q18" s="151"/>
-      <c r="R18" s="151"/>
-      <c r="S18" s="151"/>
-      <c r="T18" s="151"/>
-      <c r="U18" s="151"/>
-      <c r="V18" s="151"/>
-      <c r="W18" s="151"/>
-      <c r="X18" s="151"/>
-      <c r="Y18" s="151"/>
-      <c r="Z18" s="151"/>
-      <c r="AA18" s="151"/>
-      <c r="AB18" s="151"/>
-      <c r="AC18" s="151"/>
-      <c r="AD18" s="151"/>
-      <c r="AE18" s="151"/>
-      <c r="AF18" s="151"/>
-      <c r="AG18" s="151"/>
-      <c r="AH18" s="151"/>
-      <c r="AI18" s="151"/>
-      <c r="AJ18" s="151"/>
-      <c r="AK18" s="151"/>
-      <c r="AL18" s="151"/>
-      <c r="AM18" s="152"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="152"/>
+      <c r="P18" s="152"/>
+      <c r="Q18" s="152"/>
+      <c r="R18" s="152"/>
+      <c r="S18" s="152"/>
+      <c r="T18" s="152"/>
+      <c r="U18" s="152"/>
+      <c r="V18" s="152"/>
+      <c r="W18" s="152"/>
+      <c r="X18" s="152"/>
+      <c r="Y18" s="152"/>
+      <c r="Z18" s="152"/>
+      <c r="AA18" s="152"/>
+      <c r="AB18" s="152"/>
+      <c r="AC18" s="152"/>
+      <c r="AD18" s="152"/>
+      <c r="AE18" s="152"/>
+      <c r="AF18" s="152"/>
+      <c r="AG18" s="152"/>
+      <c r="AH18" s="152"/>
+      <c r="AI18" s="152"/>
+      <c r="AJ18" s="152"/>
+      <c r="AK18" s="152"/>
+      <c r="AL18" s="152"/>
+      <c r="AM18" s="153"/>
     </row>
     <row r="19" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C19" s="150"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="151"/>
-      <c r="Q19" s="151"/>
-      <c r="R19" s="151"/>
-      <c r="S19" s="151"/>
-      <c r="T19" s="151"/>
-      <c r="U19" s="151"/>
-      <c r="V19" s="151"/>
-      <c r="W19" s="151"/>
-      <c r="X19" s="151"/>
-      <c r="Y19" s="151"/>
-      <c r="Z19" s="151"/>
-      <c r="AA19" s="151"/>
-      <c r="AB19" s="151"/>
-      <c r="AC19" s="151"/>
-      <c r="AD19" s="151"/>
-      <c r="AE19" s="151"/>
-      <c r="AF19" s="151"/>
-      <c r="AG19" s="151"/>
-      <c r="AH19" s="151"/>
-      <c r="AI19" s="151"/>
-      <c r="AJ19" s="151"/>
-      <c r="AK19" s="151"/>
-      <c r="AL19" s="151"/>
-      <c r="AM19" s="152"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="152"/>
+      <c r="S19" s="152"/>
+      <c r="T19" s="152"/>
+      <c r="U19" s="152"/>
+      <c r="V19" s="152"/>
+      <c r="W19" s="152"/>
+      <c r="X19" s="152"/>
+      <c r="Y19" s="152"/>
+      <c r="Z19" s="152"/>
+      <c r="AA19" s="152"/>
+      <c r="AB19" s="152"/>
+      <c r="AC19" s="152"/>
+      <c r="AD19" s="152"/>
+      <c r="AE19" s="152"/>
+      <c r="AF19" s="152"/>
+      <c r="AG19" s="152"/>
+      <c r="AH19" s="152"/>
+      <c r="AI19" s="152"/>
+      <c r="AJ19" s="152"/>
+      <c r="AK19" s="152"/>
+      <c r="AL19" s="152"/>
+      <c r="AM19" s="153"/>
     </row>
     <row r="20" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="150"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="151"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="151"/>
-      <c r="P20" s="151"/>
-      <c r="Q20" s="151"/>
-      <c r="R20" s="151"/>
-      <c r="S20" s="151"/>
-      <c r="T20" s="151"/>
-      <c r="U20" s="151"/>
-      <c r="V20" s="151"/>
-      <c r="W20" s="151"/>
-      <c r="X20" s="151"/>
-      <c r="Y20" s="151"/>
-      <c r="Z20" s="151"/>
-      <c r="AA20" s="151"/>
-      <c r="AB20" s="151"/>
-      <c r="AC20" s="151"/>
-      <c r="AD20" s="151"/>
-      <c r="AE20" s="151"/>
-      <c r="AF20" s="151"/>
-      <c r="AG20" s="151"/>
-      <c r="AH20" s="151"/>
-      <c r="AI20" s="151"/>
-      <c r="AJ20" s="151"/>
-      <c r="AK20" s="151"/>
-      <c r="AL20" s="151"/>
-      <c r="AM20" s="152"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="152"/>
+      <c r="N20" s="152"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="152"/>
+      <c r="S20" s="152"/>
+      <c r="T20" s="152"/>
+      <c r="U20" s="152"/>
+      <c r="V20" s="152"/>
+      <c r="W20" s="152"/>
+      <c r="X20" s="152"/>
+      <c r="Y20" s="152"/>
+      <c r="Z20" s="152"/>
+      <c r="AA20" s="152"/>
+      <c r="AB20" s="152"/>
+      <c r="AC20" s="152"/>
+      <c r="AD20" s="152"/>
+      <c r="AE20" s="152"/>
+      <c r="AF20" s="152"/>
+      <c r="AG20" s="152"/>
+      <c r="AH20" s="152"/>
+      <c r="AI20" s="152"/>
+      <c r="AJ20" s="152"/>
+      <c r="AK20" s="152"/>
+      <c r="AL20" s="152"/>
+      <c r="AM20" s="153"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="150"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="151"/>
-      <c r="Q21" s="151"/>
-      <c r="R21" s="151"/>
-      <c r="S21" s="151"/>
-      <c r="T21" s="151"/>
-      <c r="U21" s="151"/>
-      <c r="V21" s="151"/>
-      <c r="W21" s="151"/>
-      <c r="X21" s="151"/>
-      <c r="Y21" s="151"/>
-      <c r="Z21" s="151"/>
-      <c r="AA21" s="151"/>
-      <c r="AB21" s="151"/>
-      <c r="AC21" s="151"/>
-      <c r="AD21" s="151"/>
-      <c r="AE21" s="151"/>
-      <c r="AF21" s="151"/>
-      <c r="AG21" s="151"/>
-      <c r="AH21" s="151"/>
-      <c r="AI21" s="151"/>
-      <c r="AJ21" s="151"/>
-      <c r="AK21" s="151"/>
-      <c r="AL21" s="151"/>
-      <c r="AM21" s="152"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="152"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="152"/>
+      <c r="N21" s="152"/>
+      <c r="O21" s="152"/>
+      <c r="P21" s="152"/>
+      <c r="Q21" s="152"/>
+      <c r="R21" s="152"/>
+      <c r="S21" s="152"/>
+      <c r="T21" s="152"/>
+      <c r="U21" s="152"/>
+      <c r="V21" s="152"/>
+      <c r="W21" s="152"/>
+      <c r="X21" s="152"/>
+      <c r="Y21" s="152"/>
+      <c r="Z21" s="152"/>
+      <c r="AA21" s="152"/>
+      <c r="AB21" s="152"/>
+      <c r="AC21" s="152"/>
+      <c r="AD21" s="152"/>
+      <c r="AE21" s="152"/>
+      <c r="AF21" s="152"/>
+      <c r="AG21" s="152"/>
+      <c r="AH21" s="152"/>
+      <c r="AI21" s="152"/>
+      <c r="AJ21" s="152"/>
+      <c r="AK21" s="152"/>
+      <c r="AL21" s="152"/>
+      <c r="AM21" s="153"/>
     </row>
     <row r="22" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="150"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="151"/>
-      <c r="P22" s="151"/>
-      <c r="Q22" s="151"/>
-      <c r="R22" s="151"/>
-      <c r="S22" s="151"/>
-      <c r="T22" s="151"/>
-      <c r="U22" s="151"/>
-      <c r="V22" s="151"/>
-      <c r="W22" s="151"/>
-      <c r="X22" s="151"/>
-      <c r="Y22" s="151"/>
-      <c r="Z22" s="151"/>
-      <c r="AA22" s="151"/>
-      <c r="AB22" s="151"/>
-      <c r="AC22" s="151"/>
-      <c r="AD22" s="151"/>
-      <c r="AE22" s="151"/>
-      <c r="AF22" s="151"/>
-      <c r="AG22" s="151"/>
-      <c r="AH22" s="151"/>
-      <c r="AI22" s="151"/>
-      <c r="AJ22" s="151"/>
-      <c r="AK22" s="151"/>
-      <c r="AL22" s="151"/>
-      <c r="AM22" s="152"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="152"/>
+      <c r="S22" s="152"/>
+      <c r="T22" s="152"/>
+      <c r="U22" s="152"/>
+      <c r="V22" s="152"/>
+      <c r="W22" s="152"/>
+      <c r="X22" s="152"/>
+      <c r="Y22" s="152"/>
+      <c r="Z22" s="152"/>
+      <c r="AA22" s="152"/>
+      <c r="AB22" s="152"/>
+      <c r="AC22" s="152"/>
+      <c r="AD22" s="152"/>
+      <c r="AE22" s="152"/>
+      <c r="AF22" s="152"/>
+      <c r="AG22" s="152"/>
+      <c r="AH22" s="152"/>
+      <c r="AI22" s="152"/>
+      <c r="AJ22" s="152"/>
+      <c r="AK22" s="152"/>
+      <c r="AL22" s="152"/>
+      <c r="AM22" s="153"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="150"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="151"/>
-      <c r="Q23" s="151"/>
-      <c r="R23" s="151"/>
-      <c r="S23" s="151"/>
-      <c r="T23" s="151"/>
-      <c r="U23" s="151"/>
-      <c r="V23" s="151"/>
-      <c r="W23" s="151"/>
-      <c r="X23" s="151"/>
-      <c r="Y23" s="151"/>
-      <c r="Z23" s="151"/>
-      <c r="AA23" s="151"/>
-      <c r="AB23" s="151"/>
-      <c r="AC23" s="151"/>
-      <c r="AD23" s="151"/>
-      <c r="AE23" s="151"/>
-      <c r="AF23" s="151"/>
-      <c r="AG23" s="151"/>
-      <c r="AH23" s="151"/>
-      <c r="AI23" s="151"/>
-      <c r="AJ23" s="151"/>
-      <c r="AK23" s="151"/>
-      <c r="AL23" s="151"/>
-      <c r="AM23" s="152"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
+      <c r="R23" s="152"/>
+      <c r="S23" s="152"/>
+      <c r="T23" s="152"/>
+      <c r="U23" s="152"/>
+      <c r="V23" s="152"/>
+      <c r="W23" s="152"/>
+      <c r="X23" s="152"/>
+      <c r="Y23" s="152"/>
+      <c r="Z23" s="152"/>
+      <c r="AA23" s="152"/>
+      <c r="AB23" s="152"/>
+      <c r="AC23" s="152"/>
+      <c r="AD23" s="152"/>
+      <c r="AE23" s="152"/>
+      <c r="AF23" s="152"/>
+      <c r="AG23" s="152"/>
+      <c r="AH23" s="152"/>
+      <c r="AI23" s="152"/>
+      <c r="AJ23" s="152"/>
+      <c r="AK23" s="152"/>
+      <c r="AL23" s="152"/>
+      <c r="AM23" s="153"/>
     </row>
     <row r="24" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="150"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="151"/>
-      <c r="P24" s="151"/>
-      <c r="Q24" s="151"/>
-      <c r="R24" s="151"/>
-      <c r="S24" s="151"/>
-      <c r="T24" s="151"/>
-      <c r="U24" s="151"/>
-      <c r="V24" s="151"/>
-      <c r="W24" s="151"/>
-      <c r="X24" s="151"/>
-      <c r="Y24" s="151"/>
-      <c r="Z24" s="151"/>
-      <c r="AA24" s="151"/>
-      <c r="AB24" s="151"/>
-      <c r="AC24" s="151"/>
-      <c r="AD24" s="151"/>
-      <c r="AE24" s="151"/>
-      <c r="AF24" s="151"/>
-      <c r="AG24" s="151"/>
-      <c r="AH24" s="151"/>
-      <c r="AI24" s="151"/>
-      <c r="AJ24" s="151"/>
-      <c r="AK24" s="151"/>
-      <c r="AL24" s="151"/>
-      <c r="AM24" s="152"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="152"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="152"/>
+      <c r="R24" s="152"/>
+      <c r="S24" s="152"/>
+      <c r="T24" s="152"/>
+      <c r="U24" s="152"/>
+      <c r="V24" s="152"/>
+      <c r="W24" s="152"/>
+      <c r="X24" s="152"/>
+      <c r="Y24" s="152"/>
+      <c r="Z24" s="152"/>
+      <c r="AA24" s="152"/>
+      <c r="AB24" s="152"/>
+      <c r="AC24" s="152"/>
+      <c r="AD24" s="152"/>
+      <c r="AE24" s="152"/>
+      <c r="AF24" s="152"/>
+      <c r="AG24" s="152"/>
+      <c r="AH24" s="152"/>
+      <c r="AI24" s="152"/>
+      <c r="AJ24" s="152"/>
+      <c r="AK24" s="152"/>
+      <c r="AL24" s="152"/>
+      <c r="AM24" s="153"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="150"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="151"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="151"/>
-      <c r="O25" s="151"/>
-      <c r="P25" s="151"/>
-      <c r="Q25" s="151"/>
-      <c r="R25" s="151"/>
-      <c r="S25" s="151"/>
-      <c r="T25" s="151"/>
-      <c r="U25" s="151"/>
-      <c r="V25" s="151"/>
-      <c r="W25" s="151"/>
-      <c r="X25" s="151"/>
-      <c r="Y25" s="151"/>
-      <c r="Z25" s="151"/>
-      <c r="AA25" s="151"/>
-      <c r="AB25" s="151"/>
-      <c r="AC25" s="151"/>
-      <c r="AD25" s="151"/>
-      <c r="AE25" s="151"/>
-      <c r="AF25" s="151"/>
-      <c r="AG25" s="151"/>
-      <c r="AH25" s="151"/>
-      <c r="AI25" s="151"/>
-      <c r="AJ25" s="151"/>
-      <c r="AK25" s="151"/>
-      <c r="AL25" s="151"/>
-      <c r="AM25" s="152"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="152"/>
+      <c r="N25" s="152"/>
+      <c r="O25" s="152"/>
+      <c r="P25" s="152"/>
+      <c r="Q25" s="152"/>
+      <c r="R25" s="152"/>
+      <c r="S25" s="152"/>
+      <c r="T25" s="152"/>
+      <c r="U25" s="152"/>
+      <c r="V25" s="152"/>
+      <c r="W25" s="152"/>
+      <c r="X25" s="152"/>
+      <c r="Y25" s="152"/>
+      <c r="Z25" s="152"/>
+      <c r="AA25" s="152"/>
+      <c r="AB25" s="152"/>
+      <c r="AC25" s="152"/>
+      <c r="AD25" s="152"/>
+      <c r="AE25" s="152"/>
+      <c r="AF25" s="152"/>
+      <c r="AG25" s="152"/>
+      <c r="AH25" s="152"/>
+      <c r="AI25" s="152"/>
+      <c r="AJ25" s="152"/>
+      <c r="AK25" s="152"/>
+      <c r="AL25" s="152"/>
+      <c r="AM25" s="153"/>
     </row>
     <row r="26" s="1" customFormat="true" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="150"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="151"/>
-      <c r="Q26" s="151"/>
-      <c r="R26" s="151"/>
-      <c r="S26" s="151"/>
-      <c r="T26" s="151"/>
-      <c r="U26" s="151"/>
-      <c r="V26" s="151"/>
-      <c r="W26" s="151"/>
-      <c r="X26" s="151"/>
-      <c r="Y26" s="151"/>
-      <c r="Z26" s="151"/>
-      <c r="AA26" s="151"/>
-      <c r="AB26" s="151"/>
-      <c r="AC26" s="151"/>
-      <c r="AD26" s="151"/>
-      <c r="AE26" s="151"/>
-      <c r="AF26" s="151"/>
-      <c r="AG26" s="151"/>
-      <c r="AH26" s="151"/>
-      <c r="AI26" s="151"/>
-      <c r="AJ26" s="151"/>
-      <c r="AK26" s="151"/>
-      <c r="AL26" s="151"/>
-      <c r="AM26" s="152"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="152"/>
+      <c r="R26" s="152"/>
+      <c r="S26" s="152"/>
+      <c r="T26" s="152"/>
+      <c r="U26" s="152"/>
+      <c r="V26" s="152"/>
+      <c r="W26" s="152"/>
+      <c r="X26" s="152"/>
+      <c r="Y26" s="152"/>
+      <c r="Z26" s="152"/>
+      <c r="AA26" s="152"/>
+      <c r="AB26" s="152"/>
+      <c r="AC26" s="152"/>
+      <c r="AD26" s="152"/>
+      <c r="AE26" s="152"/>
+      <c r="AF26" s="152"/>
+      <c r="AG26" s="152"/>
+      <c r="AH26" s="152"/>
+      <c r="AI26" s="152"/>
+      <c r="AJ26" s="152"/>
+      <c r="AK26" s="152"/>
+      <c r="AL26" s="152"/>
+      <c r="AM26" s="153"/>
     </row>
     <row r="27" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C27" s="150"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="151"/>
-      <c r="O27" s="151"/>
-      <c r="P27" s="151"/>
-      <c r="Q27" s="151"/>
-      <c r="R27" s="151"/>
-      <c r="S27" s="151"/>
-      <c r="T27" s="151"/>
-      <c r="U27" s="151"/>
-      <c r="V27" s="151"/>
-      <c r="W27" s="151"/>
-      <c r="X27" s="151"/>
-      <c r="Y27" s="151"/>
-      <c r="Z27" s="151"/>
-      <c r="AA27" s="151"/>
-      <c r="AB27" s="151"/>
-      <c r="AC27" s="151"/>
-      <c r="AD27" s="151"/>
-      <c r="AE27" s="151"/>
-      <c r="AF27" s="151"/>
-      <c r="AG27" s="151"/>
-      <c r="AH27" s="151"/>
-      <c r="AI27" s="151"/>
-      <c r="AJ27" s="151"/>
-      <c r="AK27" s="151"/>
-      <c r="AL27" s="151"/>
-      <c r="AM27" s="152"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="152"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="152"/>
+      <c r="O27" s="152"/>
+      <c r="P27" s="152"/>
+      <c r="Q27" s="152"/>
+      <c r="R27" s="152"/>
+      <c r="S27" s="152"/>
+      <c r="T27" s="152"/>
+      <c r="U27" s="152"/>
+      <c r="V27" s="152"/>
+      <c r="W27" s="152"/>
+      <c r="X27" s="152"/>
+      <c r="Y27" s="152"/>
+      <c r="Z27" s="152"/>
+      <c r="AA27" s="152"/>
+      <c r="AB27" s="152"/>
+      <c r="AC27" s="152"/>
+      <c r="AD27" s="152"/>
+      <c r="AE27" s="152"/>
+      <c r="AF27" s="152"/>
+      <c r="AG27" s="152"/>
+      <c r="AH27" s="152"/>
+      <c r="AI27" s="152"/>
+      <c r="AJ27" s="152"/>
+      <c r="AK27" s="152"/>
+      <c r="AL27" s="152"/>
+      <c r="AM27" s="153"/>
     </row>
     <row r="28" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C28" s="150"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="151"/>
-      <c r="P28" s="151"/>
-      <c r="Q28" s="151"/>
-      <c r="R28" s="151"/>
-      <c r="S28" s="151"/>
-      <c r="T28" s="151"/>
-      <c r="U28" s="151"/>
-      <c r="V28" s="151"/>
-      <c r="W28" s="151"/>
-      <c r="X28" s="151"/>
-      <c r="Y28" s="151"/>
-      <c r="Z28" s="151"/>
-      <c r="AA28" s="151"/>
-      <c r="AB28" s="151"/>
-      <c r="AC28" s="151"/>
-      <c r="AD28" s="151"/>
-      <c r="AE28" s="151"/>
-      <c r="AF28" s="151"/>
-      <c r="AG28" s="151"/>
-      <c r="AH28" s="151"/>
-      <c r="AI28" s="151"/>
-      <c r="AJ28" s="151"/>
-      <c r="AK28" s="151"/>
-      <c r="AL28" s="151"/>
-      <c r="AM28" s="152"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="152"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="152"/>
+      <c r="P28" s="152"/>
+      <c r="Q28" s="152"/>
+      <c r="R28" s="152"/>
+      <c r="S28" s="152"/>
+      <c r="T28" s="152"/>
+      <c r="U28" s="152"/>
+      <c r="V28" s="152"/>
+      <c r="W28" s="152"/>
+      <c r="X28" s="152"/>
+      <c r="Y28" s="152"/>
+      <c r="Z28" s="152"/>
+      <c r="AA28" s="152"/>
+      <c r="AB28" s="152"/>
+      <c r="AC28" s="152"/>
+      <c r="AD28" s="152"/>
+      <c r="AE28" s="152"/>
+      <c r="AF28" s="152"/>
+      <c r="AG28" s="152"/>
+      <c r="AH28" s="152"/>
+      <c r="AI28" s="152"/>
+      <c r="AJ28" s="152"/>
+      <c r="AK28" s="152"/>
+      <c r="AL28" s="152"/>
+      <c r="AM28" s="153"/>
     </row>
     <row r="29" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="50"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="151"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="151"/>
-      <c r="Q29" s="151"/>
-      <c r="R29" s="151"/>
-      <c r="S29" s="151"/>
-      <c r="T29" s="151"/>
-      <c r="U29" s="151"/>
-      <c r="V29" s="151"/>
-      <c r="W29" s="151"/>
-      <c r="X29" s="151"/>
-      <c r="Y29" s="151"/>
-      <c r="Z29" s="151"/>
-      <c r="AA29" s="151"/>
-      <c r="AB29" s="151"/>
-      <c r="AC29" s="151"/>
-      <c r="AD29" s="151"/>
-      <c r="AE29" s="151"/>
-      <c r="AF29" s="151"/>
-      <c r="AG29" s="151"/>
-      <c r="AH29" s="151"/>
-      <c r="AI29" s="151"/>
-      <c r="AJ29" s="151"/>
-      <c r="AK29" s="151"/>
-      <c r="AL29" s="151"/>
-      <c r="AM29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="152"/>
+      <c r="R29" s="152"/>
+      <c r="S29" s="152"/>
+      <c r="T29" s="152"/>
+      <c r="U29" s="152"/>
+      <c r="V29" s="152"/>
+      <c r="W29" s="152"/>
+      <c r="X29" s="152"/>
+      <c r="Y29" s="152"/>
+      <c r="Z29" s="152"/>
+      <c r="AA29" s="152"/>
+      <c r="AB29" s="152"/>
+      <c r="AC29" s="152"/>
+      <c r="AD29" s="152"/>
+      <c r="AE29" s="152"/>
+      <c r="AF29" s="152"/>
+      <c r="AG29" s="152"/>
+      <c r="AH29" s="152"/>
+      <c r="AI29" s="152"/>
+      <c r="AJ29" s="152"/>
+      <c r="AK29" s="152"/>
+      <c r="AL29" s="152"/>
+      <c r="AM29" s="153"/>
     </row>
     <row r="30" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
-      <c r="C30" s="151"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
-      <c r="N30" s="151"/>
-      <c r="O30" s="151"/>
-      <c r="P30" s="151"/>
-      <c r="Q30" s="151"/>
-      <c r="R30" s="151"/>
-      <c r="S30" s="151"/>
-      <c r="T30" s="151"/>
-      <c r="U30" s="151"/>
-      <c r="V30" s="151"/>
-      <c r="W30" s="151"/>
-      <c r="X30" s="151"/>
-      <c r="Y30" s="151"/>
-      <c r="Z30" s="151"/>
-      <c r="AA30" s="151"/>
-      <c r="AB30" s="151"/>
-      <c r="AC30" s="151"/>
-      <c r="AD30" s="151"/>
-      <c r="AE30" s="151"/>
-      <c r="AF30" s="151"/>
-      <c r="AG30" s="151"/>
-      <c r="AH30" s="151"/>
-      <c r="AI30" s="151"/>
-      <c r="AJ30" s="151"/>
-      <c r="AK30" s="151"/>
-      <c r="AL30" s="151"/>
-      <c r="AM30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="152"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="152"/>
+      <c r="R30" s="152"/>
+      <c r="S30" s="152"/>
+      <c r="T30" s="152"/>
+      <c r="U30" s="152"/>
+      <c r="V30" s="152"/>
+      <c r="W30" s="152"/>
+      <c r="X30" s="152"/>
+      <c r="Y30" s="152"/>
+      <c r="Z30" s="152"/>
+      <c r="AA30" s="152"/>
+      <c r="AB30" s="152"/>
+      <c r="AC30" s="152"/>
+      <c r="AD30" s="152"/>
+      <c r="AE30" s="152"/>
+      <c r="AF30" s="152"/>
+      <c r="AG30" s="152"/>
+      <c r="AH30" s="152"/>
+      <c r="AI30" s="152"/>
+      <c r="AJ30" s="152"/>
+      <c r="AK30" s="152"/>
+      <c r="AL30" s="152"/>
+      <c r="AM30" s="153"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="151"/>
-      <c r="O31" s="151"/>
-      <c r="P31" s="151"/>
-      <c r="Q31" s="151"/>
-      <c r="R31" s="151"/>
-      <c r="S31" s="151"/>
-      <c r="T31" s="151"/>
-      <c r="U31" s="151"/>
-      <c r="V31" s="151"/>
-      <c r="W31" s="151"/>
-      <c r="X31" s="151"/>
-      <c r="Y31" s="151"/>
-      <c r="Z31" s="151"/>
-      <c r="AA31" s="151"/>
-      <c r="AB31" s="151"/>
-      <c r="AC31" s="151"/>
-      <c r="AD31" s="151"/>
-      <c r="AE31" s="151"/>
-      <c r="AF31" s="151"/>
-      <c r="AG31" s="151"/>
-      <c r="AH31" s="151"/>
-      <c r="AI31" s="151"/>
-      <c r="AJ31" s="151"/>
-      <c r="AK31" s="151"/>
-      <c r="AL31" s="151"/>
-      <c r="AM31" s="152"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="152"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="152"/>
+      <c r="Q31" s="152"/>
+      <c r="R31" s="152"/>
+      <c r="S31" s="152"/>
+      <c r="T31" s="152"/>
+      <c r="U31" s="152"/>
+      <c r="V31" s="152"/>
+      <c r="W31" s="152"/>
+      <c r="X31" s="152"/>
+      <c r="Y31" s="152"/>
+      <c r="Z31" s="152"/>
+      <c r="AA31" s="152"/>
+      <c r="AB31" s="152"/>
+      <c r="AC31" s="152"/>
+      <c r="AD31" s="152"/>
+      <c r="AE31" s="152"/>
+      <c r="AF31" s="152"/>
+      <c r="AG31" s="152"/>
+      <c r="AH31" s="152"/>
+      <c r="AI31" s="152"/>
+      <c r="AJ31" s="152"/>
+      <c r="AK31" s="152"/>
+      <c r="AL31" s="152"/>
+      <c r="AM31" s="153"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
-      <c r="N32" s="151"/>
-      <c r="O32" s="151"/>
-      <c r="P32" s="151"/>
-      <c r="Q32" s="151"/>
-      <c r="R32" s="151"/>
-      <c r="S32" s="151"/>
-      <c r="T32" s="151"/>
-      <c r="U32" s="151"/>
-      <c r="V32" s="151"/>
-      <c r="W32" s="151"/>
-      <c r="X32" s="151"/>
-      <c r="Y32" s="151"/>
-      <c r="Z32" s="151"/>
-      <c r="AA32" s="151"/>
-      <c r="AB32" s="151"/>
-      <c r="AC32" s="151"/>
-      <c r="AD32" s="151"/>
-      <c r="AE32" s="151"/>
-      <c r="AF32" s="151"/>
-      <c r="AG32" s="151"/>
-      <c r="AH32" s="151"/>
-      <c r="AI32" s="151"/>
-      <c r="AJ32" s="151"/>
-      <c r="AK32" s="151"/>
-      <c r="AL32" s="151"/>
-      <c r="AM32" s="152"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="152"/>
+      <c r="K32" s="152"/>
+      <c r="L32" s="152"/>
+      <c r="M32" s="152"/>
+      <c r="N32" s="152"/>
+      <c r="O32" s="152"/>
+      <c r="P32" s="152"/>
+      <c r="Q32" s="152"/>
+      <c r="R32" s="152"/>
+      <c r="S32" s="152"/>
+      <c r="T32" s="152"/>
+      <c r="U32" s="152"/>
+      <c r="V32" s="152"/>
+      <c r="W32" s="152"/>
+      <c r="X32" s="152"/>
+      <c r="Y32" s="152"/>
+      <c r="Z32" s="152"/>
+      <c r="AA32" s="152"/>
+      <c r="AB32" s="152"/>
+      <c r="AC32" s="152"/>
+      <c r="AD32" s="152"/>
+      <c r="AE32" s="152"/>
+      <c r="AF32" s="152"/>
+      <c r="AG32" s="152"/>
+      <c r="AH32" s="152"/>
+      <c r="AI32" s="152"/>
+      <c r="AJ32" s="152"/>
+      <c r="AK32" s="152"/>
+      <c r="AL32" s="152"/>
+      <c r="AM32" s="153"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="151"/>
-      <c r="O33" s="151"/>
-      <c r="P33" s="151"/>
-      <c r="Q33" s="151"/>
-      <c r="R33" s="151"/>
-      <c r="S33" s="151"/>
-      <c r="T33" s="151"/>
-      <c r="U33" s="151"/>
-      <c r="V33" s="151"/>
-      <c r="W33" s="151"/>
-      <c r="X33" s="151"/>
-      <c r="Y33" s="151"/>
-      <c r="Z33" s="151"/>
-      <c r="AA33" s="151"/>
-      <c r="AB33" s="151"/>
-      <c r="AC33" s="151"/>
-      <c r="AD33" s="151"/>
-      <c r="AE33" s="151"/>
-      <c r="AF33" s="151"/>
-      <c r="AG33" s="151"/>
-      <c r="AH33" s="151"/>
-      <c r="AI33" s="151"/>
-      <c r="AJ33" s="151"/>
-      <c r="AK33" s="151"/>
-      <c r="AL33" s="151"/>
-      <c r="AM33" s="152"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="152"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="152"/>
+      <c r="P33" s="152"/>
+      <c r="Q33" s="152"/>
+      <c r="R33" s="152"/>
+      <c r="S33" s="152"/>
+      <c r="T33" s="152"/>
+      <c r="U33" s="152"/>
+      <c r="V33" s="152"/>
+      <c r="W33" s="152"/>
+      <c r="X33" s="152"/>
+      <c r="Y33" s="152"/>
+      <c r="Z33" s="152"/>
+      <c r="AA33" s="152"/>
+      <c r="AB33" s="152"/>
+      <c r="AC33" s="152"/>
+      <c r="AD33" s="152"/>
+      <c r="AE33" s="152"/>
+      <c r="AF33" s="152"/>
+      <c r="AG33" s="152"/>
+      <c r="AH33" s="152"/>
+      <c r="AI33" s="152"/>
+      <c r="AJ33" s="152"/>
+      <c r="AK33" s="152"/>
+      <c r="AL33" s="152"/>
+      <c r="AM33" s="153"/>
     </row>
     <row r="34" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
-      <c r="C34" s="151"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
-      <c r="N34" s="151"/>
-      <c r="O34" s="151"/>
-      <c r="P34" s="151"/>
-      <c r="Q34" s="151"/>
-      <c r="R34" s="151"/>
-      <c r="S34" s="151"/>
-      <c r="T34" s="151"/>
-      <c r="U34" s="151"/>
-      <c r="V34" s="151"/>
-      <c r="W34" s="151"/>
-      <c r="X34" s="151"/>
-      <c r="Y34" s="151"/>
-      <c r="Z34" s="151"/>
-      <c r="AA34" s="151"/>
-      <c r="AB34" s="151"/>
-      <c r="AC34" s="151"/>
-      <c r="AD34" s="151"/>
-      <c r="AE34" s="151"/>
-      <c r="AF34" s="151"/>
-      <c r="AG34" s="151"/>
-      <c r="AH34" s="151"/>
-      <c r="AI34" s="151"/>
-      <c r="AJ34" s="151"/>
-      <c r="AK34" s="151"/>
-      <c r="AL34" s="151"/>
-      <c r="AM34" s="152"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="152"/>
+      <c r="L34" s="152"/>
+      <c r="M34" s="152"/>
+      <c r="N34" s="152"/>
+      <c r="O34" s="152"/>
+      <c r="P34" s="152"/>
+      <c r="Q34" s="152"/>
+      <c r="R34" s="152"/>
+      <c r="S34" s="152"/>
+      <c r="T34" s="152"/>
+      <c r="U34" s="152"/>
+      <c r="V34" s="152"/>
+      <c r="W34" s="152"/>
+      <c r="X34" s="152"/>
+      <c r="Y34" s="152"/>
+      <c r="Z34" s="152"/>
+      <c r="AA34" s="152"/>
+      <c r="AB34" s="152"/>
+      <c r="AC34" s="152"/>
+      <c r="AD34" s="152"/>
+      <c r="AE34" s="152"/>
+      <c r="AF34" s="152"/>
+      <c r="AG34" s="152"/>
+      <c r="AH34" s="152"/>
+      <c r="AI34" s="152"/>
+      <c r="AJ34" s="152"/>
+      <c r="AK34" s="152"/>
+      <c r="AL34" s="152"/>
+      <c r="AM34" s="153"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
-      <c r="C35" s="151"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
-      <c r="N35" s="151"/>
-      <c r="O35" s="151"/>
-      <c r="P35" s="151"/>
-      <c r="Q35" s="151"/>
-      <c r="R35" s="151"/>
-      <c r="S35" s="151"/>
-      <c r="T35" s="151"/>
-      <c r="U35" s="151"/>
-      <c r="V35" s="151"/>
-      <c r="W35" s="151"/>
-      <c r="X35" s="151"/>
-      <c r="Y35" s="151"/>
-      <c r="Z35" s="151"/>
-      <c r="AA35" s="151"/>
-      <c r="AB35" s="151"/>
-      <c r="AC35" s="151"/>
-      <c r="AD35" s="151"/>
-      <c r="AE35" s="151"/>
-      <c r="AF35" s="151"/>
-      <c r="AG35" s="151"/>
-      <c r="AH35" s="151"/>
-      <c r="AI35" s="151"/>
-      <c r="AJ35" s="151"/>
-      <c r="AK35" s="151"/>
-      <c r="AL35" s="151"/>
-      <c r="AM35" s="152"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="152"/>
+      <c r="N35" s="152"/>
+      <c r="O35" s="152"/>
+      <c r="P35" s="152"/>
+      <c r="Q35" s="152"/>
+      <c r="R35" s="152"/>
+      <c r="S35" s="152"/>
+      <c r="T35" s="152"/>
+      <c r="U35" s="152"/>
+      <c r="V35" s="152"/>
+      <c r="W35" s="152"/>
+      <c r="X35" s="152"/>
+      <c r="Y35" s="152"/>
+      <c r="Z35" s="152"/>
+      <c r="AA35" s="152"/>
+      <c r="AB35" s="152"/>
+      <c r="AC35" s="152"/>
+      <c r="AD35" s="152"/>
+      <c r="AE35" s="152"/>
+      <c r="AF35" s="152"/>
+      <c r="AG35" s="152"/>
+      <c r="AH35" s="152"/>
+      <c r="AI35" s="152"/>
+      <c r="AJ35" s="152"/>
+      <c r="AK35" s="152"/>
+      <c r="AL35" s="152"/>
+      <c r="AM35" s="153"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="50"/>
-      <c r="C36" s="151"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
-      <c r="N36" s="151"/>
-      <c r="O36" s="151"/>
-      <c r="P36" s="151"/>
-      <c r="Q36" s="151"/>
-      <c r="R36" s="151"/>
-      <c r="S36" s="151"/>
-      <c r="T36" s="151"/>
-      <c r="U36" s="151"/>
-      <c r="V36" s="151"/>
-      <c r="W36" s="151"/>
-      <c r="X36" s="151"/>
-      <c r="Y36" s="151"/>
-      <c r="Z36" s="151"/>
-      <c r="AA36" s="151"/>
-      <c r="AB36" s="151"/>
-      <c r="AC36" s="151"/>
-      <c r="AD36" s="151"/>
-      <c r="AE36" s="151"/>
-      <c r="AF36" s="151"/>
-      <c r="AG36" s="151"/>
-      <c r="AH36" s="151"/>
-      <c r="AI36" s="151"/>
-      <c r="AJ36" s="151"/>
-      <c r="AK36" s="151"/>
-      <c r="AL36" s="151"/>
-      <c r="AM36" s="152"/>
+      <c r="C36" s="152"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="152"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="152"/>
+      <c r="M36" s="152"/>
+      <c r="N36" s="152"/>
+      <c r="O36" s="152"/>
+      <c r="P36" s="152"/>
+      <c r="Q36" s="152"/>
+      <c r="R36" s="152"/>
+      <c r="S36" s="152"/>
+      <c r="T36" s="152"/>
+      <c r="U36" s="152"/>
+      <c r="V36" s="152"/>
+      <c r="W36" s="152"/>
+      <c r="X36" s="152"/>
+      <c r="Y36" s="152"/>
+      <c r="Z36" s="152"/>
+      <c r="AA36" s="152"/>
+      <c r="AB36" s="152"/>
+      <c r="AC36" s="152"/>
+      <c r="AD36" s="152"/>
+      <c r="AE36" s="152"/>
+      <c r="AF36" s="152"/>
+      <c r="AG36" s="152"/>
+      <c r="AH36" s="152"/>
+      <c r="AI36" s="152"/>
+      <c r="AJ36" s="152"/>
+      <c r="AK36" s="152"/>
+      <c r="AL36" s="152"/>
+      <c r="AM36" s="153"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
-      <c r="C37" s="151"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
-      <c r="N37" s="151"/>
-      <c r="O37" s="151"/>
-      <c r="P37" s="151"/>
-      <c r="Q37" s="151"/>
-      <c r="R37" s="151"/>
-      <c r="S37" s="151"/>
-      <c r="T37" s="151"/>
-      <c r="U37" s="151"/>
-      <c r="V37" s="151"/>
-      <c r="W37" s="151"/>
-      <c r="X37" s="151"/>
-      <c r="Y37" s="151"/>
-      <c r="Z37" s="151"/>
-      <c r="AA37" s="151"/>
-      <c r="AB37" s="151"/>
-      <c r="AC37" s="151"/>
-      <c r="AD37" s="151"/>
-      <c r="AE37" s="151"/>
-      <c r="AF37" s="151"/>
-      <c r="AG37" s="151"/>
-      <c r="AH37" s="151"/>
-      <c r="AI37" s="151"/>
-      <c r="AJ37" s="151"/>
-      <c r="AK37" s="151"/>
-      <c r="AL37" s="151"/>
-      <c r="AM37" s="152"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="152"/>
+      <c r="K37" s="152"/>
+      <c r="L37" s="152"/>
+      <c r="M37" s="152"/>
+      <c r="N37" s="152"/>
+      <c r="O37" s="152"/>
+      <c r="P37" s="152"/>
+      <c r="Q37" s="152"/>
+      <c r="R37" s="152"/>
+      <c r="S37" s="152"/>
+      <c r="T37" s="152"/>
+      <c r="U37" s="152"/>
+      <c r="V37" s="152"/>
+      <c r="W37" s="152"/>
+      <c r="X37" s="152"/>
+      <c r="Y37" s="152"/>
+      <c r="Z37" s="152"/>
+      <c r="AA37" s="152"/>
+      <c r="AB37" s="152"/>
+      <c r="AC37" s="152"/>
+      <c r="AD37" s="152"/>
+      <c r="AE37" s="152"/>
+      <c r="AF37" s="152"/>
+      <c r="AG37" s="152"/>
+      <c r="AH37" s="152"/>
+      <c r="AI37" s="152"/>
+      <c r="AJ37" s="152"/>
+      <c r="AK37" s="152"/>
+      <c r="AL37" s="152"/>
+      <c r="AM37" s="153"/>
     </row>
     <row r="38" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
-      <c r="C38" s="151"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
-      <c r="N38" s="151"/>
-      <c r="O38" s="151"/>
-      <c r="P38" s="151"/>
-      <c r="Q38" s="151"/>
-      <c r="R38" s="151"/>
-      <c r="S38" s="151"/>
-      <c r="T38" s="151"/>
-      <c r="U38" s="151"/>
-      <c r="V38" s="151"/>
-      <c r="W38" s="151"/>
-      <c r="X38" s="151"/>
-      <c r="Y38" s="151"/>
-      <c r="Z38" s="151"/>
-      <c r="AA38" s="151"/>
-      <c r="AB38" s="151"/>
-      <c r="AC38" s="151"/>
-      <c r="AD38" s="151"/>
-      <c r="AE38" s="151"/>
-      <c r="AF38" s="151"/>
-      <c r="AG38" s="151"/>
-      <c r="AH38" s="151"/>
-      <c r="AI38" s="151"/>
-      <c r="AJ38" s="151"/>
-      <c r="AK38" s="151"/>
-      <c r="AL38" s="151"/>
-      <c r="AM38" s="152"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="152"/>
+      <c r="L38" s="152"/>
+      <c r="M38" s="152"/>
+      <c r="N38" s="152"/>
+      <c r="O38" s="152"/>
+      <c r="P38" s="152"/>
+      <c r="Q38" s="152"/>
+      <c r="R38" s="152"/>
+      <c r="S38" s="152"/>
+      <c r="T38" s="152"/>
+      <c r="U38" s="152"/>
+      <c r="V38" s="152"/>
+      <c r="W38" s="152"/>
+      <c r="X38" s="152"/>
+      <c r="Y38" s="152"/>
+      <c r="Z38" s="152"/>
+      <c r="AA38" s="152"/>
+      <c r="AB38" s="152"/>
+      <c r="AC38" s="152"/>
+      <c r="AD38" s="152"/>
+      <c r="AE38" s="152"/>
+      <c r="AF38" s="152"/>
+      <c r="AG38" s="152"/>
+      <c r="AH38" s="152"/>
+      <c r="AI38" s="152"/>
+      <c r="AJ38" s="152"/>
+      <c r="AK38" s="152"/>
+      <c r="AL38" s="152"/>
+      <c r="AM38" s="153"/>
     </row>
     <row r="39" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
-      <c r="C39" s="151"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
-      <c r="N39" s="151"/>
-      <c r="O39" s="151"/>
-      <c r="P39" s="151"/>
-      <c r="Q39" s="151"/>
-      <c r="R39" s="151"/>
-      <c r="S39" s="151"/>
-      <c r="T39" s="151"/>
-      <c r="U39" s="151"/>
-      <c r="V39" s="151"/>
-      <c r="W39" s="151"/>
-      <c r="X39" s="151"/>
-      <c r="Y39" s="151"/>
-      <c r="Z39" s="151"/>
-      <c r="AA39" s="151"/>
-      <c r="AB39" s="151"/>
-      <c r="AC39" s="151"/>
-      <c r="AD39" s="151"/>
-      <c r="AE39" s="151"/>
-      <c r="AF39" s="151"/>
-      <c r="AG39" s="151"/>
-      <c r="AH39" s="151"/>
-      <c r="AI39" s="151"/>
-      <c r="AJ39" s="151"/>
-      <c r="AK39" s="151"/>
-      <c r="AL39" s="151"/>
-      <c r="AM39" s="152"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="152"/>
+      <c r="K39" s="152"/>
+      <c r="L39" s="152"/>
+      <c r="M39" s="152"/>
+      <c r="N39" s="152"/>
+      <c r="O39" s="152"/>
+      <c r="P39" s="152"/>
+      <c r="Q39" s="152"/>
+      <c r="R39" s="152"/>
+      <c r="S39" s="152"/>
+      <c r="T39" s="152"/>
+      <c r="U39" s="152"/>
+      <c r="V39" s="152"/>
+      <c r="W39" s="152"/>
+      <c r="X39" s="152"/>
+      <c r="Y39" s="152"/>
+      <c r="Z39" s="152"/>
+      <c r="AA39" s="152"/>
+      <c r="AB39" s="152"/>
+      <c r="AC39" s="152"/>
+      <c r="AD39" s="152"/>
+      <c r="AE39" s="152"/>
+      <c r="AF39" s="152"/>
+      <c r="AG39" s="152"/>
+      <c r="AH39" s="152"/>
+      <c r="AI39" s="152"/>
+      <c r="AJ39" s="152"/>
+      <c r="AK39" s="152"/>
+      <c r="AL39" s="152"/>
+      <c r="AM39" s="153"/>
     </row>
     <row r="40" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
       <c r="B40" s="50"/>
-      <c r="C40" s="151"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
-      <c r="N40" s="151"/>
-      <c r="O40" s="151"/>
-      <c r="P40" s="151"/>
-      <c r="Q40" s="151"/>
-      <c r="R40" s="151"/>
-      <c r="S40" s="151"/>
-      <c r="T40" s="151"/>
-      <c r="U40" s="151"/>
-      <c r="V40" s="151"/>
-      <c r="W40" s="151"/>
-      <c r="X40" s="151"/>
-      <c r="Y40" s="151"/>
-      <c r="Z40" s="151"/>
-      <c r="AA40" s="151"/>
-      <c r="AB40" s="151"/>
-      <c r="AC40" s="151"/>
-      <c r="AD40" s="151"/>
-      <c r="AE40" s="151"/>
-      <c r="AF40" s="151"/>
-      <c r="AG40" s="151"/>
-      <c r="AH40" s="151"/>
-      <c r="AI40" s="151"/>
-      <c r="AJ40" s="151"/>
-      <c r="AK40" s="151"/>
-      <c r="AL40" s="151"/>
-      <c r="AM40" s="152"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
+      <c r="I40" s="152"/>
+      <c r="J40" s="152"/>
+      <c r="K40" s="152"/>
+      <c r="L40" s="152"/>
+      <c r="M40" s="152"/>
+      <c r="N40" s="152"/>
+      <c r="O40" s="152"/>
+      <c r="P40" s="152"/>
+      <c r="Q40" s="152"/>
+      <c r="R40" s="152"/>
+      <c r="S40" s="152"/>
+      <c r="T40" s="152"/>
+      <c r="U40" s="152"/>
+      <c r="V40" s="152"/>
+      <c r="W40" s="152"/>
+      <c r="X40" s="152"/>
+      <c r="Y40" s="152"/>
+      <c r="Z40" s="152"/>
+      <c r="AA40" s="152"/>
+      <c r="AB40" s="152"/>
+      <c r="AC40" s="152"/>
+      <c r="AD40" s="152"/>
+      <c r="AE40" s="152"/>
+      <c r="AF40" s="152"/>
+      <c r="AG40" s="152"/>
+      <c r="AH40" s="152"/>
+      <c r="AI40" s="152"/>
+      <c r="AJ40" s="152"/>
+      <c r="AK40" s="152"/>
+      <c r="AL40" s="152"/>
+      <c r="AM40" s="153"/>
     </row>
     <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="50"/>
-      <c r="C41" s="151"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
-      <c r="N41" s="151"/>
-      <c r="O41" s="151"/>
-      <c r="P41" s="151"/>
-      <c r="Q41" s="151"/>
-      <c r="R41" s="151"/>
-      <c r="S41" s="151"/>
-      <c r="T41" s="151"/>
-      <c r="U41" s="151"/>
-      <c r="V41" s="151"/>
-      <c r="W41" s="151"/>
-      <c r="X41" s="151"/>
-      <c r="Y41" s="151"/>
-      <c r="Z41" s="151"/>
-      <c r="AA41" s="151"/>
-      <c r="AB41" s="151"/>
-      <c r="AC41" s="151"/>
-      <c r="AD41" s="151"/>
-      <c r="AE41" s="151"/>
-      <c r="AF41" s="151"/>
-      <c r="AG41" s="151"/>
-      <c r="AH41" s="151"/>
-      <c r="AI41" s="151"/>
-      <c r="AJ41" s="151"/>
-      <c r="AK41" s="151"/>
-      <c r="AL41" s="151"/>
-      <c r="AM41" s="152"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="152"/>
+      <c r="J41" s="152"/>
+      <c r="K41" s="152"/>
+      <c r="L41" s="152"/>
+      <c r="M41" s="152"/>
+      <c r="N41" s="152"/>
+      <c r="O41" s="152"/>
+      <c r="P41" s="152"/>
+      <c r="Q41" s="152"/>
+      <c r="R41" s="152"/>
+      <c r="S41" s="152"/>
+      <c r="T41" s="152"/>
+      <c r="U41" s="152"/>
+      <c r="V41" s="152"/>
+      <c r="W41" s="152"/>
+      <c r="X41" s="152"/>
+      <c r="Y41" s="152"/>
+      <c r="Z41" s="152"/>
+      <c r="AA41" s="152"/>
+      <c r="AB41" s="152"/>
+      <c r="AC41" s="152"/>
+      <c r="AD41" s="152"/>
+      <c r="AE41" s="152"/>
+      <c r="AF41" s="152"/>
+      <c r="AG41" s="152"/>
+      <c r="AH41" s="152"/>
+      <c r="AI41" s="152"/>
+      <c r="AJ41" s="152"/>
+      <c r="AK41" s="152"/>
+      <c r="AL41" s="152"/>
+      <c r="AM41" s="153"/>
     </row>
     <row r="42" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49"/>
       <c r="B42" s="50"/>
-      <c r="C42" s="151"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
-      <c r="N42" s="151"/>
-      <c r="O42" s="151"/>
-      <c r="P42" s="151"/>
-      <c r="Q42" s="151"/>
-      <c r="R42" s="151"/>
-      <c r="S42" s="151"/>
-      <c r="T42" s="151"/>
-      <c r="U42" s="151"/>
-      <c r="V42" s="151"/>
-      <c r="W42" s="151"/>
-      <c r="X42" s="151"/>
-      <c r="Y42" s="151"/>
-      <c r="Z42" s="151"/>
-      <c r="AA42" s="151"/>
-      <c r="AB42" s="151"/>
-      <c r="AC42" s="151"/>
-      <c r="AD42" s="151"/>
-      <c r="AE42" s="151"/>
-      <c r="AF42" s="151"/>
-      <c r="AG42" s="151"/>
-      <c r="AH42" s="151"/>
-      <c r="AI42" s="151"/>
-      <c r="AJ42" s="151"/>
-      <c r="AK42" s="151"/>
-      <c r="AL42" s="151"/>
-      <c r="AM42" s="152"/>
-    </row>
-    <row r="43" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C42" s="152"/>
+      <c r="D42" s="152"/>
+      <c r="E42" s="152"/>
+      <c r="F42" s="152"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="152"/>
+      <c r="I42" s="152"/>
+      <c r="J42" s="152"/>
+      <c r="K42" s="152"/>
+      <c r="L42" s="152"/>
+      <c r="M42" s="152"/>
+      <c r="N42" s="152"/>
+      <c r="O42" s="152"/>
+      <c r="P42" s="152"/>
+      <c r="Q42" s="152"/>
+      <c r="R42" s="152"/>
+      <c r="S42" s="152"/>
+      <c r="T42" s="152"/>
+      <c r="U42" s="152"/>
+      <c r="V42" s="152"/>
+      <c r="W42" s="152"/>
+      <c r="X42" s="152"/>
+      <c r="Y42" s="152"/>
+      <c r="Z42" s="152"/>
+      <c r="AA42" s="152"/>
+      <c r="AB42" s="152"/>
+      <c r="AC42" s="152"/>
+      <c r="AD42" s="152"/>
+      <c r="AE42" s="152"/>
+      <c r="AF42" s="152"/>
+      <c r="AG42" s="152"/>
+      <c r="AH42" s="152"/>
+      <c r="AI42" s="152"/>
+      <c r="AJ42" s="152"/>
+      <c r="AK42" s="152"/>
+      <c r="AL42" s="152"/>
+      <c r="AM42" s="153"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="49"/>
       <c r="B43" s="50"/>
-      <c r="C43" s="151"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
-      <c r="N43" s="151"/>
-      <c r="O43" s="151"/>
-      <c r="P43" s="151"/>
-      <c r="Q43" s="151"/>
-      <c r="R43" s="151"/>
-      <c r="S43" s="151"/>
-      <c r="T43" s="151"/>
-      <c r="U43" s="151"/>
-      <c r="V43" s="151"/>
-      <c r="W43" s="151"/>
-      <c r="X43" s="151"/>
-      <c r="Y43" s="151"/>
-      <c r="Z43" s="151"/>
-      <c r="AA43" s="151"/>
-      <c r="AB43" s="151"/>
-      <c r="AC43" s="151"/>
-      <c r="AD43" s="151"/>
-      <c r="AE43" s="151"/>
-      <c r="AF43" s="151"/>
-      <c r="AG43" s="151"/>
-      <c r="AH43" s="151"/>
-      <c r="AI43" s="151"/>
-      <c r="AJ43" s="151"/>
-      <c r="AK43" s="151"/>
-      <c r="AL43" s="151"/>
-      <c r="AM43" s="152"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="152"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="152"/>
+      <c r="K43" s="152"/>
+      <c r="L43" s="152"/>
+      <c r="M43" s="152"/>
+      <c r="N43" s="152"/>
+      <c r="O43" s="152"/>
+      <c r="P43" s="152"/>
+      <c r="Q43" s="152"/>
+      <c r="R43" s="152"/>
+      <c r="S43" s="152"/>
+      <c r="T43" s="152"/>
+      <c r="U43" s="152"/>
+      <c r="V43" s="152"/>
+      <c r="W43" s="152"/>
+      <c r="X43" s="152"/>
+      <c r="Y43" s="152"/>
+      <c r="Z43" s="152"/>
+      <c r="AA43" s="152"/>
+      <c r="AB43" s="152"/>
+      <c r="AC43" s="152"/>
+      <c r="AD43" s="152"/>
+      <c r="AE43" s="152"/>
+      <c r="AF43" s="152"/>
+      <c r="AG43" s="152"/>
+      <c r="AH43" s="152"/>
+      <c r="AI43" s="152"/>
+      <c r="AJ43" s="152"/>
+      <c r="AK43" s="152"/>
+      <c r="AL43" s="152"/>
+      <c r="AM43" s="153"/>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="49"/>
       <c r="B44" s="50"/>
-      <c r="C44" s="151"/>
-      <c r="D44" s="151"/>
-      <c r="E44" s="151"/>
-      <c r="F44" s="151"/>
-      <c r="G44" s="151"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="151"/>
-      <c r="J44" s="151"/>
-      <c r="K44" s="151"/>
-      <c r="L44" s="151"/>
-      <c r="M44" s="151"/>
-      <c r="N44" s="151"/>
-      <c r="O44" s="151"/>
-      <c r="P44" s="151"/>
-      <c r="Q44" s="151"/>
-      <c r="R44" s="151"/>
-      <c r="S44" s="151"/>
-      <c r="T44" s="151"/>
-      <c r="U44" s="151"/>
-      <c r="V44" s="151"/>
-      <c r="W44" s="151"/>
-      <c r="X44" s="151"/>
-      <c r="Y44" s="151"/>
-      <c r="Z44" s="151"/>
-      <c r="AA44" s="151"/>
-      <c r="AB44" s="151"/>
-      <c r="AC44" s="151"/>
-      <c r="AD44" s="151"/>
-      <c r="AE44" s="151"/>
-      <c r="AF44" s="151"/>
-      <c r="AG44" s="151"/>
-      <c r="AH44" s="151"/>
-      <c r="AI44" s="151"/>
-      <c r="AJ44" s="151"/>
-      <c r="AK44" s="151"/>
-      <c r="AL44" s="151"/>
-      <c r="AM44" s="152"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="152"/>
+      <c r="F44" s="152"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="152"/>
+      <c r="J44" s="152"/>
+      <c r="K44" s="152"/>
+      <c r="L44" s="152"/>
+      <c r="M44" s="152"/>
+      <c r="N44" s="152"/>
+      <c r="O44" s="152"/>
+      <c r="P44" s="152"/>
+      <c r="Q44" s="152"/>
+      <c r="R44" s="152"/>
+      <c r="S44" s="152"/>
+      <c r="T44" s="152"/>
+      <c r="U44" s="152"/>
+      <c r="V44" s="152"/>
+      <c r="W44" s="152"/>
+      <c r="X44" s="152"/>
+      <c r="Y44" s="152"/>
+      <c r="Z44" s="152"/>
+      <c r="AA44" s="152"/>
+      <c r="AB44" s="152"/>
+      <c r="AC44" s="152"/>
+      <c r="AD44" s="152"/>
+      <c r="AE44" s="152"/>
+      <c r="AF44" s="152"/>
+      <c r="AG44" s="152"/>
+      <c r="AH44" s="152"/>
+      <c r="AI44" s="152"/>
+      <c r="AJ44" s="152"/>
+      <c r="AK44" s="152"/>
+      <c r="AL44" s="152"/>
+      <c r="AM44" s="153"/>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="49"/>
       <c r="B45" s="50"/>
-      <c r="C45" s="151"/>
-      <c r="D45" s="151"/>
-      <c r="E45" s="151"/>
-      <c r="F45" s="151"/>
-      <c r="G45" s="151"/>
-      <c r="H45" s="151"/>
-      <c r="I45" s="151"/>
-      <c r="J45" s="151"/>
-      <c r="K45" s="151"/>
-      <c r="L45" s="151"/>
-      <c r="M45" s="151"/>
-      <c r="N45" s="151"/>
-      <c r="O45" s="151"/>
-      <c r="P45" s="151"/>
-      <c r="Q45" s="151"/>
-      <c r="R45" s="151"/>
-      <c r="S45" s="151"/>
-      <c r="T45" s="151"/>
-      <c r="U45" s="151"/>
-      <c r="V45" s="151"/>
-      <c r="W45" s="151"/>
-      <c r="X45" s="151"/>
-      <c r="Y45" s="151"/>
-      <c r="Z45" s="151"/>
-      <c r="AA45" s="151"/>
-      <c r="AB45" s="151"/>
-      <c r="AC45" s="151"/>
-      <c r="AD45" s="151"/>
-      <c r="AE45" s="151"/>
-      <c r="AF45" s="151"/>
-      <c r="AG45" s="151"/>
-      <c r="AH45" s="151"/>
-      <c r="AI45" s="151"/>
-      <c r="AJ45" s="151"/>
-      <c r="AK45" s="151"/>
-      <c r="AL45" s="151"/>
-      <c r="AM45" s="152"/>
+      <c r="C45" s="152"/>
+      <c r="D45" s="152"/>
+      <c r="E45" s="152"/>
+      <c r="F45" s="152"/>
+      <c r="G45" s="152"/>
+      <c r="H45" s="152"/>
+      <c r="I45" s="152"/>
+      <c r="J45" s="152"/>
+      <c r="K45" s="152"/>
+      <c r="L45" s="152"/>
+      <c r="M45" s="152"/>
+      <c r="N45" s="152"/>
+      <c r="O45" s="152"/>
+      <c r="P45" s="152"/>
+      <c r="Q45" s="152"/>
+      <c r="R45" s="152"/>
+      <c r="S45" s="152"/>
+      <c r="T45" s="152"/>
+      <c r="U45" s="152"/>
+      <c r="V45" s="152"/>
+      <c r="W45" s="152"/>
+      <c r="X45" s="152"/>
+      <c r="Y45" s="152"/>
+      <c r="Z45" s="152"/>
+      <c r="AA45" s="152"/>
+      <c r="AB45" s="152"/>
+      <c r="AC45" s="152"/>
+      <c r="AD45" s="152"/>
+      <c r="AE45" s="152"/>
+      <c r="AF45" s="152"/>
+      <c r="AG45" s="152"/>
+      <c r="AH45" s="152"/>
+      <c r="AI45" s="152"/>
+      <c r="AJ45" s="152"/>
+      <c r="AK45" s="152"/>
+      <c r="AL45" s="152"/>
+      <c r="AM45" s="153"/>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="50"/>
-      <c r="C46" s="151"/>
-      <c r="D46" s="151"/>
-      <c r="E46" s="151"/>
-      <c r="F46" s="151"/>
-      <c r="G46" s="151"/>
-      <c r="H46" s="151"/>
-      <c r="I46" s="151"/>
-      <c r="J46" s="151"/>
-      <c r="K46" s="151"/>
-      <c r="L46" s="151"/>
-      <c r="M46" s="151"/>
-      <c r="N46" s="151"/>
-      <c r="O46" s="151"/>
-      <c r="P46" s="151"/>
-      <c r="Q46" s="151"/>
-      <c r="R46" s="151"/>
-      <c r="S46" s="151"/>
-      <c r="T46" s="151"/>
-      <c r="U46" s="151"/>
-      <c r="V46" s="151"/>
-      <c r="W46" s="151"/>
-      <c r="X46" s="151"/>
-      <c r="Y46" s="151"/>
-      <c r="Z46" s="151"/>
-      <c r="AA46" s="151"/>
-      <c r="AB46" s="151"/>
-      <c r="AC46" s="151"/>
-      <c r="AD46" s="151"/>
-      <c r="AE46" s="151"/>
-      <c r="AF46" s="151"/>
-      <c r="AG46" s="151"/>
-      <c r="AH46" s="151"/>
-      <c r="AI46" s="151"/>
-      <c r="AJ46" s="151"/>
-      <c r="AK46" s="151"/>
-      <c r="AL46" s="151"/>
-      <c r="AM46" s="152"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="152"/>
+      <c r="F46" s="152"/>
+      <c r="G46" s="152"/>
+      <c r="H46" s="152"/>
+      <c r="I46" s="152"/>
+      <c r="J46" s="152"/>
+      <c r="K46" s="152"/>
+      <c r="L46" s="152"/>
+      <c r="M46" s="152"/>
+      <c r="N46" s="152"/>
+      <c r="O46" s="152"/>
+      <c r="P46" s="152"/>
+      <c r="Q46" s="152"/>
+      <c r="R46" s="152"/>
+      <c r="S46" s="152"/>
+      <c r="T46" s="152"/>
+      <c r="U46" s="152"/>
+      <c r="V46" s="152"/>
+      <c r="W46" s="152"/>
+      <c r="X46" s="152"/>
+      <c r="Y46" s="152"/>
+      <c r="Z46" s="152"/>
+      <c r="AA46" s="152"/>
+      <c r="AB46" s="152"/>
+      <c r="AC46" s="152"/>
+      <c r="AD46" s="152"/>
+      <c r="AE46" s="152"/>
+      <c r="AF46" s="152"/>
+      <c r="AG46" s="152"/>
+      <c r="AH46" s="152"/>
+      <c r="AI46" s="152"/>
+      <c r="AJ46" s="152"/>
+      <c r="AK46" s="152"/>
+      <c r="AL46" s="152"/>
+      <c r="AM46" s="153"/>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="49"/>
       <c r="B47" s="50"/>
-      <c r="C47" s="151"/>
-      <c r="D47" s="151"/>
-      <c r="E47" s="151"/>
-      <c r="F47" s="151"/>
-      <c r="G47" s="151"/>
-      <c r="H47" s="151"/>
-      <c r="I47" s="151"/>
-      <c r="J47" s="151"/>
-      <c r="K47" s="151"/>
-      <c r="L47" s="151"/>
-      <c r="M47" s="151"/>
-      <c r="N47" s="151"/>
-      <c r="O47" s="151"/>
-      <c r="P47" s="151"/>
-      <c r="Q47" s="151"/>
-      <c r="R47" s="151"/>
-      <c r="S47" s="151"/>
-      <c r="T47" s="151"/>
-      <c r="U47" s="151"/>
-      <c r="V47" s="151"/>
-      <c r="W47" s="151"/>
-      <c r="X47" s="151"/>
-      <c r="Y47" s="151"/>
-      <c r="Z47" s="151"/>
-      <c r="AA47" s="151"/>
-      <c r="AB47" s="151"/>
-      <c r="AC47" s="151"/>
-      <c r="AD47" s="151"/>
-      <c r="AE47" s="151"/>
-      <c r="AF47" s="151"/>
-      <c r="AG47" s="151"/>
-      <c r="AH47" s="151"/>
-      <c r="AI47" s="151"/>
-      <c r="AJ47" s="151"/>
-      <c r="AK47" s="151"/>
-      <c r="AL47" s="151"/>
-      <c r="AM47" s="152"/>
+      <c r="C47" s="152"/>
+      <c r="D47" s="152"/>
+      <c r="E47" s="152"/>
+      <c r="F47" s="152"/>
+      <c r="G47" s="152"/>
+      <c r="H47" s="152"/>
+      <c r="I47" s="152"/>
+      <c r="J47" s="152"/>
+      <c r="K47" s="152"/>
+      <c r="L47" s="152"/>
+      <c r="M47" s="152"/>
+      <c r="N47" s="152"/>
+      <c r="O47" s="152"/>
+      <c r="P47" s="152"/>
+      <c r="Q47" s="152"/>
+      <c r="R47" s="152"/>
+      <c r="S47" s="152"/>
+      <c r="T47" s="152"/>
+      <c r="U47" s="152"/>
+      <c r="V47" s="152"/>
+      <c r="W47" s="152"/>
+      <c r="X47" s="152"/>
+      <c r="Y47" s="152"/>
+      <c r="Z47" s="152"/>
+      <c r="AA47" s="152"/>
+      <c r="AB47" s="152"/>
+      <c r="AC47" s="152"/>
+      <c r="AD47" s="152"/>
+      <c r="AE47" s="152"/>
+      <c r="AF47" s="152"/>
+      <c r="AG47" s="152"/>
+      <c r="AH47" s="152"/>
+      <c r="AI47" s="152"/>
+      <c r="AJ47" s="152"/>
+      <c r="AK47" s="152"/>
+      <c r="AL47" s="152"/>
+      <c r="AM47" s="153"/>
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="49"/>
       <c r="B48" s="50"/>
-      <c r="C48" s="151"/>
-      <c r="D48" s="151"/>
-      <c r="E48" s="151"/>
-      <c r="F48" s="151"/>
-      <c r="G48" s="151"/>
-      <c r="H48" s="151"/>
-      <c r="I48" s="151"/>
-      <c r="J48" s="151"/>
-      <c r="K48" s="151"/>
-      <c r="L48" s="151"/>
-      <c r="M48" s="151"/>
-      <c r="N48" s="151"/>
-      <c r="O48" s="151"/>
-      <c r="P48" s="151"/>
-      <c r="Q48" s="151"/>
-      <c r="R48" s="151"/>
-      <c r="S48" s="151"/>
-      <c r="T48" s="151"/>
-      <c r="U48" s="151"/>
-      <c r="V48" s="151"/>
-      <c r="W48" s="151"/>
-      <c r="X48" s="151"/>
-      <c r="Y48" s="151"/>
-      <c r="Z48" s="151"/>
-      <c r="AA48" s="151"/>
-      <c r="AB48" s="151"/>
-      <c r="AC48" s="151"/>
-      <c r="AD48" s="151"/>
-      <c r="AE48" s="151"/>
-      <c r="AF48" s="151"/>
-      <c r="AG48" s="151"/>
-      <c r="AH48" s="151"/>
-      <c r="AI48" s="151"/>
-      <c r="AJ48" s="151"/>
-      <c r="AK48" s="151"/>
-      <c r="AL48" s="151"/>
-      <c r="AM48" s="152"/>
+      <c r="C48" s="152"/>
+      <c r="D48" s="152"/>
+      <c r="E48" s="152"/>
+      <c r="F48" s="152"/>
+      <c r="G48" s="152"/>
+      <c r="H48" s="152"/>
+      <c r="I48" s="152"/>
+      <c r="J48" s="152"/>
+      <c r="K48" s="152"/>
+      <c r="L48" s="152"/>
+      <c r="M48" s="152"/>
+      <c r="N48" s="152"/>
+      <c r="O48" s="152"/>
+      <c r="P48" s="152"/>
+      <c r="Q48" s="152"/>
+      <c r="R48" s="152"/>
+      <c r="S48" s="152"/>
+      <c r="T48" s="152"/>
+      <c r="U48" s="152"/>
+      <c r="V48" s="152"/>
+      <c r="W48" s="152"/>
+      <c r="X48" s="152"/>
+      <c r="Y48" s="152"/>
+      <c r="Z48" s="152"/>
+      <c r="AA48" s="152"/>
+      <c r="AB48" s="152"/>
+      <c r="AC48" s="152"/>
+      <c r="AD48" s="152"/>
+      <c r="AE48" s="152"/>
+      <c r="AF48" s="152"/>
+      <c r="AG48" s="152"/>
+      <c r="AH48" s="152"/>
+      <c r="AI48" s="152"/>
+      <c r="AJ48" s="152"/>
+      <c r="AK48" s="152"/>
+      <c r="AL48" s="152"/>
+      <c r="AM48" s="153"/>
     </row>
     <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="49"/>
       <c r="B49" s="50"/>
-      <c r="C49" s="151"/>
-      <c r="D49" s="151"/>
-      <c r="E49" s="151"/>
-      <c r="F49" s="151"/>
-      <c r="G49" s="151"/>
-      <c r="H49" s="151"/>
-      <c r="I49" s="151"/>
-      <c r="J49" s="151"/>
-      <c r="K49" s="151"/>
-      <c r="L49" s="151"/>
-      <c r="M49" s="151"/>
-      <c r="N49" s="151"/>
-      <c r="O49" s="151"/>
-      <c r="P49" s="151"/>
-      <c r="Q49" s="151"/>
-      <c r="R49" s="151"/>
-      <c r="S49" s="151"/>
-      <c r="T49" s="151"/>
-      <c r="U49" s="151"/>
-      <c r="V49" s="151"/>
-      <c r="W49" s="151"/>
-      <c r="X49" s="151"/>
-      <c r="Y49" s="151"/>
-      <c r="Z49" s="151"/>
-      <c r="AA49" s="151"/>
-      <c r="AB49" s="151"/>
-      <c r="AC49" s="151"/>
-      <c r="AD49" s="151"/>
-      <c r="AE49" s="151"/>
-      <c r="AF49" s="151"/>
-      <c r="AG49" s="151"/>
-      <c r="AH49" s="151"/>
-      <c r="AI49" s="151"/>
-      <c r="AJ49" s="151"/>
-      <c r="AK49" s="151"/>
-      <c r="AL49" s="151"/>
-      <c r="AM49" s="152"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="152"/>
+      <c r="F49" s="152"/>
+      <c r="G49" s="152"/>
+      <c r="H49" s="152"/>
+      <c r="I49" s="152"/>
+      <c r="J49" s="152"/>
+      <c r="K49" s="152"/>
+      <c r="L49" s="152"/>
+      <c r="M49" s="152"/>
+      <c r="N49" s="152"/>
+      <c r="O49" s="152"/>
+      <c r="P49" s="152"/>
+      <c r="Q49" s="152"/>
+      <c r="R49" s="152"/>
+      <c r="S49" s="152"/>
+      <c r="T49" s="152"/>
+      <c r="U49" s="152"/>
+      <c r="V49" s="152"/>
+      <c r="W49" s="152"/>
+      <c r="X49" s="152"/>
+      <c r="Y49" s="152"/>
+      <c r="Z49" s="152"/>
+      <c r="AA49" s="152"/>
+      <c r="AB49" s="152"/>
+      <c r="AC49" s="152"/>
+      <c r="AD49" s="152"/>
+      <c r="AE49" s="152"/>
+      <c r="AF49" s="152"/>
+      <c r="AG49" s="152"/>
+      <c r="AH49" s="152"/>
+      <c r="AI49" s="152"/>
+      <c r="AJ49" s="152"/>
+      <c r="AK49" s="152"/>
+      <c r="AL49" s="152"/>
+      <c r="AM49" s="153"/>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="49"/>
       <c r="B50" s="50"/>
-      <c r="C50" s="151"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="151"/>
-      <c r="F50" s="151"/>
-      <c r="G50" s="151"/>
-      <c r="H50" s="151"/>
-      <c r="I50" s="151"/>
-      <c r="J50" s="151"/>
-      <c r="K50" s="151"/>
-      <c r="L50" s="151"/>
-      <c r="M50" s="151"/>
-      <c r="N50" s="151"/>
-      <c r="O50" s="151"/>
-      <c r="P50" s="151"/>
-      <c r="Q50" s="151"/>
-      <c r="R50" s="151"/>
-      <c r="S50" s="151"/>
-      <c r="T50" s="151"/>
-      <c r="U50" s="151"/>
-      <c r="V50" s="151"/>
-      <c r="W50" s="151"/>
-      <c r="X50" s="151"/>
-      <c r="Y50" s="151"/>
-      <c r="Z50" s="151"/>
-      <c r="AA50" s="151"/>
-      <c r="AB50" s="151"/>
-      <c r="AC50" s="151"/>
-      <c r="AD50" s="151"/>
-      <c r="AE50" s="151"/>
-      <c r="AF50" s="151"/>
-      <c r="AG50" s="151"/>
-      <c r="AH50" s="151"/>
-      <c r="AI50" s="151"/>
-      <c r="AJ50" s="151"/>
-      <c r="AK50" s="151"/>
-      <c r="AL50" s="151"/>
-      <c r="AM50" s="152"/>
+      <c r="C50" s="152"/>
+      <c r="D50" s="152"/>
+      <c r="E50" s="152"/>
+      <c r="F50" s="152"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="152"/>
+      <c r="J50" s="152"/>
+      <c r="K50" s="152"/>
+      <c r="L50" s="152"/>
+      <c r="M50" s="152"/>
+      <c r="N50" s="152"/>
+      <c r="O50" s="152"/>
+      <c r="P50" s="152"/>
+      <c r="Q50" s="152"/>
+      <c r="R50" s="152"/>
+      <c r="S50" s="152"/>
+      <c r="T50" s="152"/>
+      <c r="U50" s="152"/>
+      <c r="V50" s="152"/>
+      <c r="W50" s="152"/>
+      <c r="X50" s="152"/>
+      <c r="Y50" s="152"/>
+      <c r="Z50" s="152"/>
+      <c r="AA50" s="152"/>
+      <c r="AB50" s="152"/>
+      <c r="AC50" s="152"/>
+      <c r="AD50" s="152"/>
+      <c r="AE50" s="152"/>
+      <c r="AF50" s="152"/>
+      <c r="AG50" s="152"/>
+      <c r="AH50" s="152"/>
+      <c r="AI50" s="152"/>
+      <c r="AJ50" s="152"/>
+      <c r="AK50" s="152"/>
+      <c r="AL50" s="152"/>
+      <c r="AM50" s="153"/>
     </row>
     <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="49"/>
       <c r="B51" s="50"/>
-      <c r="C51" s="151"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="151"/>
-      <c r="F51" s="151"/>
-      <c r="G51" s="151"/>
-      <c r="H51" s="151"/>
-      <c r="I51" s="151"/>
-      <c r="J51" s="151"/>
-      <c r="K51" s="151"/>
-      <c r="L51" s="151"/>
-      <c r="M51" s="151"/>
-      <c r="N51" s="151"/>
-      <c r="O51" s="151"/>
-      <c r="P51" s="151"/>
-      <c r="Q51" s="151"/>
-      <c r="R51" s="151"/>
-      <c r="S51" s="151"/>
-      <c r="T51" s="151"/>
-      <c r="U51" s="151"/>
-      <c r="V51" s="151"/>
-      <c r="W51" s="151"/>
-      <c r="X51" s="151"/>
-      <c r="Y51" s="151"/>
-      <c r="Z51" s="151"/>
-      <c r="AA51" s="151"/>
-      <c r="AB51" s="151"/>
-      <c r="AC51" s="151"/>
-      <c r="AD51" s="151"/>
-      <c r="AE51" s="151"/>
-      <c r="AF51" s="151"/>
-      <c r="AG51" s="151"/>
-      <c r="AH51" s="151"/>
-      <c r="AI51" s="151"/>
-      <c r="AJ51" s="151"/>
-      <c r="AK51" s="151"/>
-      <c r="AL51" s="151"/>
-      <c r="AM51" s="152"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="152"/>
+      <c r="E51" s="152"/>
+      <c r="F51" s="152"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="152"/>
+      <c r="I51" s="152"/>
+      <c r="J51" s="152"/>
+      <c r="K51" s="152"/>
+      <c r="L51" s="152"/>
+      <c r="M51" s="152"/>
+      <c r="N51" s="152"/>
+      <c r="O51" s="152"/>
+      <c r="P51" s="152"/>
+      <c r="Q51" s="152"/>
+      <c r="R51" s="152"/>
+      <c r="S51" s="152"/>
+      <c r="T51" s="152"/>
+      <c r="U51" s="152"/>
+      <c r="V51" s="152"/>
+      <c r="W51" s="152"/>
+      <c r="X51" s="152"/>
+      <c r="Y51" s="152"/>
+      <c r="Z51" s="152"/>
+      <c r="AA51" s="152"/>
+      <c r="AB51" s="152"/>
+      <c r="AC51" s="152"/>
+      <c r="AD51" s="152"/>
+      <c r="AE51" s="152"/>
+      <c r="AF51" s="152"/>
+      <c r="AG51" s="152"/>
+      <c r="AH51" s="152"/>
+      <c r="AI51" s="152"/>
+      <c r="AJ51" s="152"/>
+      <c r="AK51" s="152"/>
+      <c r="AL51" s="152"/>
+      <c r="AM51" s="153"/>
     </row>
     <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="49"/>
       <c r="B52" s="50"/>
-      <c r="C52" s="151"/>
-      <c r="D52" s="151"/>
-      <c r="E52" s="151"/>
-      <c r="F52" s="151"/>
-      <c r="G52" s="151"/>
-      <c r="H52" s="151"/>
-      <c r="I52" s="151"/>
-      <c r="J52" s="151"/>
-      <c r="K52" s="151"/>
-      <c r="L52" s="151"/>
-      <c r="M52" s="151"/>
-      <c r="N52" s="151"/>
-      <c r="O52" s="151"/>
-      <c r="P52" s="151"/>
-      <c r="Q52" s="151"/>
-      <c r="R52" s="151"/>
-      <c r="S52" s="151"/>
-      <c r="T52" s="151"/>
-      <c r="U52" s="151"/>
-      <c r="V52" s="151"/>
-      <c r="W52" s="151"/>
-      <c r="X52" s="151"/>
-      <c r="Y52" s="151"/>
-      <c r="Z52" s="151"/>
-      <c r="AA52" s="151"/>
-      <c r="AB52" s="151"/>
-      <c r="AC52" s="151"/>
-      <c r="AD52" s="151"/>
-      <c r="AE52" s="151"/>
-      <c r="AF52" s="151"/>
-      <c r="AG52" s="151"/>
-      <c r="AH52" s="151"/>
-      <c r="AI52" s="151"/>
-      <c r="AJ52" s="151"/>
-      <c r="AK52" s="151"/>
-      <c r="AL52" s="151"/>
-      <c r="AM52" s="152"/>
+      <c r="C52" s="152"/>
+      <c r="D52" s="152"/>
+      <c r="E52" s="152"/>
+      <c r="F52" s="152"/>
+      <c r="G52" s="152"/>
+      <c r="H52" s="152"/>
+      <c r="I52" s="152"/>
+      <c r="J52" s="152"/>
+      <c r="K52" s="152"/>
+      <c r="L52" s="152"/>
+      <c r="M52" s="152"/>
+      <c r="N52" s="152"/>
+      <c r="O52" s="152"/>
+      <c r="P52" s="152"/>
+      <c r="Q52" s="152"/>
+      <c r="R52" s="152"/>
+      <c r="S52" s="152"/>
+      <c r="T52" s="152"/>
+      <c r="U52" s="152"/>
+      <c r="V52" s="152"/>
+      <c r="W52" s="152"/>
+      <c r="X52" s="152"/>
+      <c r="Y52" s="152"/>
+      <c r="Z52" s="152"/>
+      <c r="AA52" s="152"/>
+      <c r="AB52" s="152"/>
+      <c r="AC52" s="152"/>
+      <c r="AD52" s="152"/>
+      <c r="AE52" s="152"/>
+      <c r="AF52" s="152"/>
+      <c r="AG52" s="152"/>
+      <c r="AH52" s="152"/>
+      <c r="AI52" s="152"/>
+      <c r="AJ52" s="152"/>
+      <c r="AK52" s="152"/>
+      <c r="AL52" s="152"/>
+      <c r="AM52" s="153"/>
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="55"/>
-      <c r="C53" s="150"/>
+      <c r="C53" s="151"/>
       <c r="D53" s="69"/>
       <c r="E53" s="69"/>
       <c r="F53" s="69"/>
@@ -5576,48 +5582,48 @@
       <c r="AJ53" s="69"/>
       <c r="AK53" s="69"/>
       <c r="AL53" s="69"/>
-      <c r="AM53" s="152"/>
+      <c r="AM53" s="153"/>
     </row>
     <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="49"/>
       <c r="B54" s="55"/>
-      <c r="C54" s="153"/>
-      <c r="D54" s="154"/>
-      <c r="E54" s="154"/>
-      <c r="F54" s="154"/>
-      <c r="G54" s="154"/>
-      <c r="H54" s="154"/>
-      <c r="I54" s="154"/>
-      <c r="J54" s="154"/>
-      <c r="K54" s="154"/>
-      <c r="L54" s="154"/>
-      <c r="M54" s="154"/>
-      <c r="N54" s="154"/>
-      <c r="O54" s="154"/>
-      <c r="P54" s="154"/>
-      <c r="Q54" s="154"/>
-      <c r="R54" s="154"/>
-      <c r="S54" s="154"/>
-      <c r="T54" s="154"/>
-      <c r="U54" s="154"/>
-      <c r="V54" s="154"/>
-      <c r="W54" s="154"/>
-      <c r="X54" s="154"/>
-      <c r="Y54" s="154"/>
-      <c r="Z54" s="154"/>
-      <c r="AA54" s="154"/>
-      <c r="AB54" s="154"/>
-      <c r="AC54" s="154"/>
-      <c r="AD54" s="154"/>
-      <c r="AE54" s="154"/>
-      <c r="AF54" s="154"/>
-      <c r="AG54" s="154"/>
-      <c r="AH54" s="154"/>
-      <c r="AI54" s="154"/>
-      <c r="AJ54" s="154"/>
-      <c r="AK54" s="154"/>
-      <c r="AL54" s="154"/>
-      <c r="AM54" s="155"/>
+      <c r="C54" s="154"/>
+      <c r="D54" s="155"/>
+      <c r="E54" s="155"/>
+      <c r="F54" s="155"/>
+      <c r="G54" s="155"/>
+      <c r="H54" s="155"/>
+      <c r="I54" s="155"/>
+      <c r="J54" s="155"/>
+      <c r="K54" s="155"/>
+      <c r="L54" s="155"/>
+      <c r="M54" s="155"/>
+      <c r="N54" s="155"/>
+      <c r="O54" s="155"/>
+      <c r="P54" s="155"/>
+      <c r="Q54" s="155"/>
+      <c r="R54" s="155"/>
+      <c r="S54" s="155"/>
+      <c r="T54" s="155"/>
+      <c r="U54" s="155"/>
+      <c r="V54" s="155"/>
+      <c r="W54" s="155"/>
+      <c r="X54" s="155"/>
+      <c r="Y54" s="155"/>
+      <c r="Z54" s="155"/>
+      <c r="AA54" s="155"/>
+      <c r="AB54" s="155"/>
+      <c r="AC54" s="155"/>
+      <c r="AD54" s="155"/>
+      <c r="AE54" s="155"/>
+      <c r="AF54" s="155"/>
+      <c r="AG54" s="155"/>
+      <c r="AH54" s="155"/>
+      <c r="AI54" s="155"/>
+      <c r="AJ54" s="155"/>
+      <c r="AK54" s="155"/>
+      <c r="AL54" s="155"/>
+      <c r="AM54" s="156"/>
     </row>
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="49"/>
@@ -5819,7 +5825,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="H8:AH49 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5913,7 +5919,7 @@
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="51"/>
       <c r="D2" s="125" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E2" s="125"/>
       <c r="F2" s="125"/>
@@ -6031,7 +6037,7 @@
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="40"/>
       <c r="D5" s="125" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E5" s="125"/>
       <c r="F5" s="125"/>
@@ -6150,706 +6156,706 @@
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="40"/>
-      <c r="D8" s="156" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="156"/>
-      <c r="S8" s="156"/>
-      <c r="T8" s="156"/>
-      <c r="U8" s="156"/>
-      <c r="V8" s="156"/>
-      <c r="W8" s="156"/>
-      <c r="X8" s="156"/>
-      <c r="Y8" s="156"/>
-      <c r="Z8" s="156"/>
-      <c r="AA8" s="156"/>
-      <c r="AB8" s="156"/>
-      <c r="AC8" s="156"/>
-      <c r="AD8" s="156"/>
-      <c r="AE8" s="156"/>
-      <c r="AF8" s="156"/>
-      <c r="AG8" s="156"/>
-      <c r="AH8" s="156"/>
-      <c r="AI8" s="156"/>
-      <c r="AJ8" s="156"/>
-      <c r="AK8" s="156"/>
-      <c r="AL8" s="156"/>
+      <c r="D8" s="157" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="157"/>
+      <c r="K8" s="157"/>
+      <c r="L8" s="157"/>
+      <c r="M8" s="157"/>
+      <c r="N8" s="157"/>
+      <c r="O8" s="157"/>
+      <c r="P8" s="157"/>
+      <c r="Q8" s="157"/>
+      <c r="R8" s="157"/>
+      <c r="S8" s="157"/>
+      <c r="T8" s="157"/>
+      <c r="U8" s="157"/>
+      <c r="V8" s="157"/>
+      <c r="W8" s="157"/>
+      <c r="X8" s="157"/>
+      <c r="Y8" s="157"/>
+      <c r="Z8" s="157"/>
+      <c r="AA8" s="157"/>
+      <c r="AB8" s="157"/>
+      <c r="AC8" s="157"/>
+      <c r="AD8" s="157"/>
+      <c r="AE8" s="157"/>
+      <c r="AF8" s="157"/>
+      <c r="AG8" s="157"/>
+      <c r="AH8" s="157"/>
+      <c r="AI8" s="157"/>
+      <c r="AJ8" s="157"/>
+      <c r="AK8" s="157"/>
+      <c r="AL8" s="157"/>
       <c r="AM8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C9" s="40"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="156"/>
-      <c r="N9" s="156"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="156"/>
-      <c r="S9" s="156"/>
-      <c r="T9" s="156"/>
-      <c r="U9" s="156"/>
-      <c r="V9" s="156"/>
-      <c r="W9" s="156"/>
-      <c r="X9" s="156"/>
-      <c r="Y9" s="156"/>
-      <c r="Z9" s="156"/>
-      <c r="AA9" s="156"/>
-      <c r="AB9" s="156"/>
-      <c r="AC9" s="156"/>
-      <c r="AD9" s="156"/>
-      <c r="AE9" s="156"/>
-      <c r="AF9" s="156"/>
-      <c r="AG9" s="156"/>
-      <c r="AH9" s="156"/>
-      <c r="AI9" s="156"/>
-      <c r="AJ9" s="156"/>
-      <c r="AK9" s="156"/>
-      <c r="AL9" s="156"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="157"/>
+      <c r="M9" s="157"/>
+      <c r="N9" s="157"/>
+      <c r="O9" s="157"/>
+      <c r="P9" s="157"/>
+      <c r="Q9" s="157"/>
+      <c r="R9" s="157"/>
+      <c r="S9" s="157"/>
+      <c r="T9" s="157"/>
+      <c r="U9" s="157"/>
+      <c r="V9" s="157"/>
+      <c r="W9" s="157"/>
+      <c r="X9" s="157"/>
+      <c r="Y9" s="157"/>
+      <c r="Z9" s="157"/>
+      <c r="AA9" s="157"/>
+      <c r="AB9" s="157"/>
+      <c r="AC9" s="157"/>
+      <c r="AD9" s="157"/>
+      <c r="AE9" s="157"/>
+      <c r="AF9" s="157"/>
+      <c r="AG9" s="157"/>
+      <c r="AH9" s="157"/>
+      <c r="AI9" s="157"/>
+      <c r="AJ9" s="157"/>
+      <c r="AK9" s="157"/>
+      <c r="AL9" s="157"/>
       <c r="AM9" s="41"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C10" s="46"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="156"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="156"/>
-      <c r="R10" s="156"/>
-      <c r="S10" s="156"/>
-      <c r="T10" s="156"/>
-      <c r="U10" s="156"/>
-      <c r="V10" s="156"/>
-      <c r="W10" s="156"/>
-      <c r="X10" s="156"/>
-      <c r="Y10" s="156"/>
-      <c r="Z10" s="156"/>
-      <c r="AA10" s="156"/>
-      <c r="AB10" s="156"/>
-      <c r="AC10" s="156"/>
-      <c r="AD10" s="156"/>
-      <c r="AE10" s="156"/>
-      <c r="AF10" s="156"/>
-      <c r="AG10" s="156"/>
-      <c r="AH10" s="156"/>
-      <c r="AI10" s="156"/>
-      <c r="AJ10" s="156"/>
-      <c r="AK10" s="156"/>
-      <c r="AL10" s="156"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="157"/>
+      <c r="M10" s="157"/>
+      <c r="N10" s="157"/>
+      <c r="O10" s="157"/>
+      <c r="P10" s="157"/>
+      <c r="Q10" s="157"/>
+      <c r="R10" s="157"/>
+      <c r="S10" s="157"/>
+      <c r="T10" s="157"/>
+      <c r="U10" s="157"/>
+      <c r="V10" s="157"/>
+      <c r="W10" s="157"/>
+      <c r="X10" s="157"/>
+      <c r="Y10" s="157"/>
+      <c r="Z10" s="157"/>
+      <c r="AA10" s="157"/>
+      <c r="AB10" s="157"/>
+      <c r="AC10" s="157"/>
+      <c r="AD10" s="157"/>
+      <c r="AE10" s="157"/>
+      <c r="AF10" s="157"/>
+      <c r="AG10" s="157"/>
+      <c r="AH10" s="157"/>
+      <c r="AI10" s="157"/>
+      <c r="AJ10" s="157"/>
+      <c r="AK10" s="157"/>
+      <c r="AL10" s="157"/>
       <c r="AM10" s="47"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C11" s="46"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="156"/>
-      <c r="O11" s="156"/>
-      <c r="P11" s="156"/>
-      <c r="Q11" s="156"/>
-      <c r="R11" s="156"/>
-      <c r="S11" s="156"/>
-      <c r="T11" s="156"/>
-      <c r="U11" s="156"/>
-      <c r="V11" s="156"/>
-      <c r="W11" s="156"/>
-      <c r="X11" s="156"/>
-      <c r="Y11" s="156"/>
-      <c r="Z11" s="156"/>
-      <c r="AA11" s="156"/>
-      <c r="AB11" s="156"/>
-      <c r="AC11" s="156"/>
-      <c r="AD11" s="156"/>
-      <c r="AE11" s="156"/>
-      <c r="AF11" s="156"/>
-      <c r="AG11" s="156"/>
-      <c r="AH11" s="156"/>
-      <c r="AI11" s="156"/>
-      <c r="AJ11" s="156"/>
-      <c r="AK11" s="156"/>
-      <c r="AL11" s="156"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="157"/>
+      <c r="L11" s="157"/>
+      <c r="M11" s="157"/>
+      <c r="N11" s="157"/>
+      <c r="O11" s="157"/>
+      <c r="P11" s="157"/>
+      <c r="Q11" s="157"/>
+      <c r="R11" s="157"/>
+      <c r="S11" s="157"/>
+      <c r="T11" s="157"/>
+      <c r="U11" s="157"/>
+      <c r="V11" s="157"/>
+      <c r="W11" s="157"/>
+      <c r="X11" s="157"/>
+      <c r="Y11" s="157"/>
+      <c r="Z11" s="157"/>
+      <c r="AA11" s="157"/>
+      <c r="AB11" s="157"/>
+      <c r="AC11" s="157"/>
+      <c r="AD11" s="157"/>
+      <c r="AE11" s="157"/>
+      <c r="AF11" s="157"/>
+      <c r="AG11" s="157"/>
+      <c r="AH11" s="157"/>
+      <c r="AI11" s="157"/>
+      <c r="AJ11" s="157"/>
+      <c r="AK11" s="157"/>
+      <c r="AL11" s="157"/>
       <c r="AM11" s="47"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C12" s="46"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="156"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="156"/>
-      <c r="Q12" s="156"/>
-      <c r="R12" s="156"/>
-      <c r="S12" s="156"/>
-      <c r="T12" s="156"/>
-      <c r="U12" s="156"/>
-      <c r="V12" s="156"/>
-      <c r="W12" s="156"/>
-      <c r="X12" s="156"/>
-      <c r="Y12" s="156"/>
-      <c r="Z12" s="156"/>
-      <c r="AA12" s="156"/>
-      <c r="AB12" s="156"/>
-      <c r="AC12" s="156"/>
-      <c r="AD12" s="156"/>
-      <c r="AE12" s="156"/>
-      <c r="AF12" s="156"/>
-      <c r="AG12" s="156"/>
-      <c r="AH12" s="156"/>
-      <c r="AI12" s="156"/>
-      <c r="AJ12" s="156"/>
-      <c r="AK12" s="156"/>
-      <c r="AL12" s="156"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="157"/>
+      <c r="M12" s="157"/>
+      <c r="N12" s="157"/>
+      <c r="O12" s="157"/>
+      <c r="P12" s="157"/>
+      <c r="Q12" s="157"/>
+      <c r="R12" s="157"/>
+      <c r="S12" s="157"/>
+      <c r="T12" s="157"/>
+      <c r="U12" s="157"/>
+      <c r="V12" s="157"/>
+      <c r="W12" s="157"/>
+      <c r="X12" s="157"/>
+      <c r="Y12" s="157"/>
+      <c r="Z12" s="157"/>
+      <c r="AA12" s="157"/>
+      <c r="AB12" s="157"/>
+      <c r="AC12" s="157"/>
+      <c r="AD12" s="157"/>
+      <c r="AE12" s="157"/>
+      <c r="AF12" s="157"/>
+      <c r="AG12" s="157"/>
+      <c r="AH12" s="157"/>
+      <c r="AI12" s="157"/>
+      <c r="AJ12" s="157"/>
+      <c r="AK12" s="157"/>
+      <c r="AL12" s="157"/>
       <c r="AM12" s="47"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C13" s="46"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="156"/>
-      <c r="N13" s="156"/>
-      <c r="O13" s="156"/>
-      <c r="P13" s="156"/>
-      <c r="Q13" s="156"/>
-      <c r="R13" s="156"/>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="156"/>
-      <c r="V13" s="156"/>
-      <c r="W13" s="156"/>
-      <c r="X13" s="156"/>
-      <c r="Y13" s="156"/>
-      <c r="Z13" s="156"/>
-      <c r="AA13" s="156"/>
-      <c r="AB13" s="156"/>
-      <c r="AC13" s="156"/>
-      <c r="AD13" s="156"/>
-      <c r="AE13" s="156"/>
-      <c r="AF13" s="156"/>
-      <c r="AG13" s="156"/>
-      <c r="AH13" s="156"/>
-      <c r="AI13" s="156"/>
-      <c r="AJ13" s="156"/>
-      <c r="AK13" s="156"/>
-      <c r="AL13" s="156"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="157"/>
+      <c r="L13" s="157"/>
+      <c r="M13" s="157"/>
+      <c r="N13" s="157"/>
+      <c r="O13" s="157"/>
+      <c r="P13" s="157"/>
+      <c r="Q13" s="157"/>
+      <c r="R13" s="157"/>
+      <c r="S13" s="157"/>
+      <c r="T13" s="157"/>
+      <c r="U13" s="157"/>
+      <c r="V13" s="157"/>
+      <c r="W13" s="157"/>
+      <c r="X13" s="157"/>
+      <c r="Y13" s="157"/>
+      <c r="Z13" s="157"/>
+      <c r="AA13" s="157"/>
+      <c r="AB13" s="157"/>
+      <c r="AC13" s="157"/>
+      <c r="AD13" s="157"/>
+      <c r="AE13" s="157"/>
+      <c r="AF13" s="157"/>
+      <c r="AG13" s="157"/>
+      <c r="AH13" s="157"/>
+      <c r="AI13" s="157"/>
+      <c r="AJ13" s="157"/>
+      <c r="AK13" s="157"/>
+      <c r="AL13" s="157"/>
       <c r="AM13" s="47"/>
     </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C14" s="46"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="156"/>
-      <c r="N14" s="156"/>
-      <c r="O14" s="156"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="156"/>
-      <c r="R14" s="156"/>
-      <c r="S14" s="156"/>
-      <c r="T14" s="156"/>
-      <c r="U14" s="156"/>
-      <c r="V14" s="156"/>
-      <c r="W14" s="156"/>
-      <c r="X14" s="156"/>
-      <c r="Y14" s="156"/>
-      <c r="Z14" s="156"/>
-      <c r="AA14" s="156"/>
-      <c r="AB14" s="156"/>
-      <c r="AC14" s="156"/>
-      <c r="AD14" s="156"/>
-      <c r="AE14" s="156"/>
-      <c r="AF14" s="156"/>
-      <c r="AG14" s="156"/>
-      <c r="AH14" s="156"/>
-      <c r="AI14" s="156"/>
-      <c r="AJ14" s="156"/>
-      <c r="AK14" s="156"/>
-      <c r="AL14" s="156"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="157"/>
+      <c r="K14" s="157"/>
+      <c r="L14" s="157"/>
+      <c r="M14" s="157"/>
+      <c r="N14" s="157"/>
+      <c r="O14" s="157"/>
+      <c r="P14" s="157"/>
+      <c r="Q14" s="157"/>
+      <c r="R14" s="157"/>
+      <c r="S14" s="157"/>
+      <c r="T14" s="157"/>
+      <c r="U14" s="157"/>
+      <c r="V14" s="157"/>
+      <c r="W14" s="157"/>
+      <c r="X14" s="157"/>
+      <c r="Y14" s="157"/>
+      <c r="Z14" s="157"/>
+      <c r="AA14" s="157"/>
+      <c r="AB14" s="157"/>
+      <c r="AC14" s="157"/>
+      <c r="AD14" s="157"/>
+      <c r="AE14" s="157"/>
+      <c r="AF14" s="157"/>
+      <c r="AG14" s="157"/>
+      <c r="AH14" s="157"/>
+      <c r="AI14" s="157"/>
+      <c r="AJ14" s="157"/>
+      <c r="AK14" s="157"/>
+      <c r="AL14" s="157"/>
       <c r="AM14" s="47"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C15" s="40"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="156"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="156"/>
-      <c r="O15" s="156"/>
-      <c r="P15" s="156"/>
-      <c r="Q15" s="156"/>
-      <c r="R15" s="156"/>
-      <c r="S15" s="156"/>
-      <c r="T15" s="156"/>
-      <c r="U15" s="156"/>
-      <c r="V15" s="156"/>
-      <c r="W15" s="156"/>
-      <c r="X15" s="156"/>
-      <c r="Y15" s="156"/>
-      <c r="Z15" s="156"/>
-      <c r="AA15" s="156"/>
-      <c r="AB15" s="156"/>
-      <c r="AC15" s="156"/>
-      <c r="AD15" s="156"/>
-      <c r="AE15" s="156"/>
-      <c r="AF15" s="156"/>
-      <c r="AG15" s="156"/>
-      <c r="AH15" s="156"/>
-      <c r="AI15" s="156"/>
-      <c r="AJ15" s="156"/>
-      <c r="AK15" s="156"/>
-      <c r="AL15" s="156"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="157"/>
+      <c r="L15" s="157"/>
+      <c r="M15" s="157"/>
+      <c r="N15" s="157"/>
+      <c r="O15" s="157"/>
+      <c r="P15" s="157"/>
+      <c r="Q15" s="157"/>
+      <c r="R15" s="157"/>
+      <c r="S15" s="157"/>
+      <c r="T15" s="157"/>
+      <c r="U15" s="157"/>
+      <c r="V15" s="157"/>
+      <c r="W15" s="157"/>
+      <c r="X15" s="157"/>
+      <c r="Y15" s="157"/>
+      <c r="Z15" s="157"/>
+      <c r="AA15" s="157"/>
+      <c r="AB15" s="157"/>
+      <c r="AC15" s="157"/>
+      <c r="AD15" s="157"/>
+      <c r="AE15" s="157"/>
+      <c r="AF15" s="157"/>
+      <c r="AG15" s="157"/>
+      <c r="AH15" s="157"/>
+      <c r="AI15" s="157"/>
+      <c r="AJ15" s="157"/>
+      <c r="AK15" s="157"/>
+      <c r="AL15" s="157"/>
       <c r="AM15" s="41"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="40"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="156"/>
-      <c r="O16" s="156"/>
-      <c r="P16" s="156"/>
-      <c r="Q16" s="156"/>
-      <c r="R16" s="156"/>
-      <c r="S16" s="156"/>
-      <c r="T16" s="156"/>
-      <c r="U16" s="156"/>
-      <c r="V16" s="156"/>
-      <c r="W16" s="156"/>
-      <c r="X16" s="156"/>
-      <c r="Y16" s="156"/>
-      <c r="Z16" s="156"/>
-      <c r="AA16" s="156"/>
-      <c r="AB16" s="156"/>
-      <c r="AC16" s="156"/>
-      <c r="AD16" s="156"/>
-      <c r="AE16" s="156"/>
-      <c r="AF16" s="156"/>
-      <c r="AG16" s="156"/>
-      <c r="AH16" s="156"/>
-      <c r="AI16" s="156"/>
-      <c r="AJ16" s="156"/>
-      <c r="AK16" s="156"/>
-      <c r="AL16" s="156"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
+      <c r="M16" s="157"/>
+      <c r="N16" s="157"/>
+      <c r="O16" s="157"/>
+      <c r="P16" s="157"/>
+      <c r="Q16" s="157"/>
+      <c r="R16" s="157"/>
+      <c r="S16" s="157"/>
+      <c r="T16" s="157"/>
+      <c r="U16" s="157"/>
+      <c r="V16" s="157"/>
+      <c r="W16" s="157"/>
+      <c r="X16" s="157"/>
+      <c r="Y16" s="157"/>
+      <c r="Z16" s="157"/>
+      <c r="AA16" s="157"/>
+      <c r="AB16" s="157"/>
+      <c r="AC16" s="157"/>
+      <c r="AD16" s="157"/>
+      <c r="AE16" s="157"/>
+      <c r="AF16" s="157"/>
+      <c r="AG16" s="157"/>
+      <c r="AH16" s="157"/>
+      <c r="AI16" s="157"/>
+      <c r="AJ16" s="157"/>
+      <c r="AK16" s="157"/>
+      <c r="AL16" s="157"/>
       <c r="AM16" s="41"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="40"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="156"/>
-      <c r="K17" s="156"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="156"/>
-      <c r="N17" s="156"/>
-      <c r="O17" s="156"/>
-      <c r="P17" s="156"/>
-      <c r="Q17" s="156"/>
-      <c r="R17" s="156"/>
-      <c r="S17" s="156"/>
-      <c r="T17" s="156"/>
-      <c r="U17" s="156"/>
-      <c r="V17" s="156"/>
-      <c r="W17" s="156"/>
-      <c r="X17" s="156"/>
-      <c r="Y17" s="156"/>
-      <c r="Z17" s="156"/>
-      <c r="AA17" s="156"/>
-      <c r="AB17" s="156"/>
-      <c r="AC17" s="156"/>
-      <c r="AD17" s="156"/>
-      <c r="AE17" s="156"/>
-      <c r="AF17" s="156"/>
-      <c r="AG17" s="156"/>
-      <c r="AH17" s="156"/>
-      <c r="AI17" s="156"/>
-      <c r="AJ17" s="156"/>
-      <c r="AK17" s="156"/>
-      <c r="AL17" s="156"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="157"/>
+      <c r="L17" s="157"/>
+      <c r="M17" s="157"/>
+      <c r="N17" s="157"/>
+      <c r="O17" s="157"/>
+      <c r="P17" s="157"/>
+      <c r="Q17" s="157"/>
+      <c r="R17" s="157"/>
+      <c r="S17" s="157"/>
+      <c r="T17" s="157"/>
+      <c r="U17" s="157"/>
+      <c r="V17" s="157"/>
+      <c r="W17" s="157"/>
+      <c r="X17" s="157"/>
+      <c r="Y17" s="157"/>
+      <c r="Z17" s="157"/>
+      <c r="AA17" s="157"/>
+      <c r="AB17" s="157"/>
+      <c r="AC17" s="157"/>
+      <c r="AD17" s="157"/>
+      <c r="AE17" s="157"/>
+      <c r="AF17" s="157"/>
+      <c r="AG17" s="157"/>
+      <c r="AH17" s="157"/>
+      <c r="AI17" s="157"/>
+      <c r="AJ17" s="157"/>
+      <c r="AK17" s="157"/>
+      <c r="AL17" s="157"/>
       <c r="AM17" s="41"/>
     </row>
     <row r="18" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C18" s="40"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="156"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="156"/>
-      <c r="Q18" s="156"/>
-      <c r="R18" s="156"/>
-      <c r="S18" s="156"/>
-      <c r="T18" s="156"/>
-      <c r="U18" s="156"/>
-      <c r="V18" s="156"/>
-      <c r="W18" s="156"/>
-      <c r="X18" s="156"/>
-      <c r="Y18" s="156"/>
-      <c r="Z18" s="156"/>
-      <c r="AA18" s="156"/>
-      <c r="AB18" s="156"/>
-      <c r="AC18" s="156"/>
-      <c r="AD18" s="156"/>
-      <c r="AE18" s="156"/>
-      <c r="AF18" s="156"/>
-      <c r="AG18" s="156"/>
-      <c r="AH18" s="156"/>
-      <c r="AI18" s="156"/>
-      <c r="AJ18" s="156"/>
-      <c r="AK18" s="156"/>
-      <c r="AL18" s="156"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="157"/>
+      <c r="L18" s="157"/>
+      <c r="M18" s="157"/>
+      <c r="N18" s="157"/>
+      <c r="O18" s="157"/>
+      <c r="P18" s="157"/>
+      <c r="Q18" s="157"/>
+      <c r="R18" s="157"/>
+      <c r="S18" s="157"/>
+      <c r="T18" s="157"/>
+      <c r="U18" s="157"/>
+      <c r="V18" s="157"/>
+      <c r="W18" s="157"/>
+      <c r="X18" s="157"/>
+      <c r="Y18" s="157"/>
+      <c r="Z18" s="157"/>
+      <c r="AA18" s="157"/>
+      <c r="AB18" s="157"/>
+      <c r="AC18" s="157"/>
+      <c r="AD18" s="157"/>
+      <c r="AE18" s="157"/>
+      <c r="AF18" s="157"/>
+      <c r="AG18" s="157"/>
+      <c r="AH18" s="157"/>
+      <c r="AI18" s="157"/>
+      <c r="AJ18" s="157"/>
+      <c r="AK18" s="157"/>
+      <c r="AL18" s="157"/>
       <c r="AM18" s="41"/>
     </row>
     <row r="19" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C19" s="40"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="156"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="156"/>
-      <c r="Q19" s="156"/>
-      <c r="R19" s="156"/>
-      <c r="S19" s="156"/>
-      <c r="T19" s="156"/>
-      <c r="U19" s="156"/>
-      <c r="V19" s="156"/>
-      <c r="W19" s="156"/>
-      <c r="X19" s="156"/>
-      <c r="Y19" s="156"/>
-      <c r="Z19" s="156"/>
-      <c r="AA19" s="156"/>
-      <c r="AB19" s="156"/>
-      <c r="AC19" s="156"/>
-      <c r="AD19" s="156"/>
-      <c r="AE19" s="156"/>
-      <c r="AF19" s="156"/>
-      <c r="AG19" s="156"/>
-      <c r="AH19" s="156"/>
-      <c r="AI19" s="156"/>
-      <c r="AJ19" s="156"/>
-      <c r="AK19" s="156"/>
-      <c r="AL19" s="156"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="157"/>
+      <c r="R19" s="157"/>
+      <c r="S19" s="157"/>
+      <c r="T19" s="157"/>
+      <c r="U19" s="157"/>
+      <c r="V19" s="157"/>
+      <c r="W19" s="157"/>
+      <c r="X19" s="157"/>
+      <c r="Y19" s="157"/>
+      <c r="Z19" s="157"/>
+      <c r="AA19" s="157"/>
+      <c r="AB19" s="157"/>
+      <c r="AC19" s="157"/>
+      <c r="AD19" s="157"/>
+      <c r="AE19" s="157"/>
+      <c r="AF19" s="157"/>
+      <c r="AG19" s="157"/>
+      <c r="AH19" s="157"/>
+      <c r="AI19" s="157"/>
+      <c r="AJ19" s="157"/>
+      <c r="AK19" s="157"/>
+      <c r="AL19" s="157"/>
       <c r="AM19" s="41"/>
     </row>
     <row r="20" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C20" s="40"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="156"/>
-      <c r="P20" s="156"/>
-      <c r="Q20" s="156"/>
-      <c r="R20" s="156"/>
-      <c r="S20" s="156"/>
-      <c r="T20" s="156"/>
-      <c r="U20" s="156"/>
-      <c r="V20" s="156"/>
-      <c r="W20" s="156"/>
-      <c r="X20" s="156"/>
-      <c r="Y20" s="156"/>
-      <c r="Z20" s="156"/>
-      <c r="AA20" s="156"/>
-      <c r="AB20" s="156"/>
-      <c r="AC20" s="156"/>
-      <c r="AD20" s="156"/>
-      <c r="AE20" s="156"/>
-      <c r="AF20" s="156"/>
-      <c r="AG20" s="156"/>
-      <c r="AH20" s="156"/>
-      <c r="AI20" s="156"/>
-      <c r="AJ20" s="156"/>
-      <c r="AK20" s="156"/>
-      <c r="AL20" s="156"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="157"/>
+      <c r="K20" s="157"/>
+      <c r="L20" s="157"/>
+      <c r="M20" s="157"/>
+      <c r="N20" s="157"/>
+      <c r="O20" s="157"/>
+      <c r="P20" s="157"/>
+      <c r="Q20" s="157"/>
+      <c r="R20" s="157"/>
+      <c r="S20" s="157"/>
+      <c r="T20" s="157"/>
+      <c r="U20" s="157"/>
+      <c r="V20" s="157"/>
+      <c r="W20" s="157"/>
+      <c r="X20" s="157"/>
+      <c r="Y20" s="157"/>
+      <c r="Z20" s="157"/>
+      <c r="AA20" s="157"/>
+      <c r="AB20" s="157"/>
+      <c r="AC20" s="157"/>
+      <c r="AD20" s="157"/>
+      <c r="AE20" s="157"/>
+      <c r="AF20" s="157"/>
+      <c r="AG20" s="157"/>
+      <c r="AH20" s="157"/>
+      <c r="AI20" s="157"/>
+      <c r="AJ20" s="157"/>
+      <c r="AK20" s="157"/>
+      <c r="AL20" s="157"/>
       <c r="AM20" s="41"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C21" s="40"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="156"/>
-      <c r="P21" s="156"/>
-      <c r="Q21" s="156"/>
-      <c r="R21" s="156"/>
-      <c r="S21" s="156"/>
-      <c r="T21" s="156"/>
-      <c r="U21" s="156"/>
-      <c r="V21" s="156"/>
-      <c r="W21" s="156"/>
-      <c r="X21" s="156"/>
-      <c r="Y21" s="156"/>
-      <c r="Z21" s="156"/>
-      <c r="AA21" s="156"/>
-      <c r="AB21" s="156"/>
-      <c r="AC21" s="156"/>
-      <c r="AD21" s="156"/>
-      <c r="AE21" s="156"/>
-      <c r="AF21" s="156"/>
-      <c r="AG21" s="156"/>
-      <c r="AH21" s="156"/>
-      <c r="AI21" s="156"/>
-      <c r="AJ21" s="156"/>
-      <c r="AK21" s="156"/>
-      <c r="AL21" s="156"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="157"/>
+      <c r="L21" s="157"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="157"/>
+      <c r="Q21" s="157"/>
+      <c r="R21" s="157"/>
+      <c r="S21" s="157"/>
+      <c r="T21" s="157"/>
+      <c r="U21" s="157"/>
+      <c r="V21" s="157"/>
+      <c r="W21" s="157"/>
+      <c r="X21" s="157"/>
+      <c r="Y21" s="157"/>
+      <c r="Z21" s="157"/>
+      <c r="AA21" s="157"/>
+      <c r="AB21" s="157"/>
+      <c r="AC21" s="157"/>
+      <c r="AD21" s="157"/>
+      <c r="AE21" s="157"/>
+      <c r="AF21" s="157"/>
+      <c r="AG21" s="157"/>
+      <c r="AH21" s="157"/>
+      <c r="AI21" s="157"/>
+      <c r="AJ21" s="157"/>
+      <c r="AK21" s="157"/>
+      <c r="AL21" s="157"/>
       <c r="AM21" s="41"/>
     </row>
     <row r="22" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C22" s="40"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="156"/>
-      <c r="O22" s="156"/>
-      <c r="P22" s="156"/>
-      <c r="Q22" s="156"/>
-      <c r="R22" s="156"/>
-      <c r="S22" s="156"/>
-      <c r="T22" s="156"/>
-      <c r="U22" s="156"/>
-      <c r="V22" s="156"/>
-      <c r="W22" s="156"/>
-      <c r="X22" s="156"/>
-      <c r="Y22" s="156"/>
-      <c r="Z22" s="156"/>
-      <c r="AA22" s="156"/>
-      <c r="AB22" s="156"/>
-      <c r="AC22" s="156"/>
-      <c r="AD22" s="156"/>
-      <c r="AE22" s="156"/>
-      <c r="AF22" s="156"/>
-      <c r="AG22" s="156"/>
-      <c r="AH22" s="156"/>
-      <c r="AI22" s="156"/>
-      <c r="AJ22" s="156"/>
-      <c r="AK22" s="156"/>
-      <c r="AL22" s="156"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="157"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="157"/>
+      <c r="Q22" s="157"/>
+      <c r="R22" s="157"/>
+      <c r="S22" s="157"/>
+      <c r="T22" s="157"/>
+      <c r="U22" s="157"/>
+      <c r="V22" s="157"/>
+      <c r="W22" s="157"/>
+      <c r="X22" s="157"/>
+      <c r="Y22" s="157"/>
+      <c r="Z22" s="157"/>
+      <c r="AA22" s="157"/>
+      <c r="AB22" s="157"/>
+      <c r="AC22" s="157"/>
+      <c r="AD22" s="157"/>
+      <c r="AE22" s="157"/>
+      <c r="AF22" s="157"/>
+      <c r="AG22" s="157"/>
+      <c r="AH22" s="157"/>
+      <c r="AI22" s="157"/>
+      <c r="AJ22" s="157"/>
+      <c r="AK22" s="157"/>
+      <c r="AL22" s="157"/>
       <c r="AM22" s="41"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="40"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="156"/>
-      <c r="O23" s="156"/>
-      <c r="P23" s="156"/>
-      <c r="Q23" s="156"/>
-      <c r="R23" s="156"/>
-      <c r="S23" s="156"/>
-      <c r="T23" s="156"/>
-      <c r="U23" s="156"/>
-      <c r="V23" s="156"/>
-      <c r="W23" s="156"/>
-      <c r="X23" s="156"/>
-      <c r="Y23" s="156"/>
-      <c r="Z23" s="156"/>
-      <c r="AA23" s="156"/>
-      <c r="AB23" s="156"/>
-      <c r="AC23" s="156"/>
-      <c r="AD23" s="156"/>
-      <c r="AE23" s="156"/>
-      <c r="AF23" s="156"/>
-      <c r="AG23" s="156"/>
-      <c r="AH23" s="156"/>
-      <c r="AI23" s="156"/>
-      <c r="AJ23" s="156"/>
-      <c r="AK23" s="156"/>
-      <c r="AL23" s="156"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="157"/>
+      <c r="L23" s="157"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="157"/>
+      <c r="O23" s="157"/>
+      <c r="P23" s="157"/>
+      <c r="Q23" s="157"/>
+      <c r="R23" s="157"/>
+      <c r="S23" s="157"/>
+      <c r="T23" s="157"/>
+      <c r="U23" s="157"/>
+      <c r="V23" s="157"/>
+      <c r="W23" s="157"/>
+      <c r="X23" s="157"/>
+      <c r="Y23" s="157"/>
+      <c r="Z23" s="157"/>
+      <c r="AA23" s="157"/>
+      <c r="AB23" s="157"/>
+      <c r="AC23" s="157"/>
+      <c r="AD23" s="157"/>
+      <c r="AE23" s="157"/>
+      <c r="AF23" s="157"/>
+      <c r="AG23" s="157"/>
+      <c r="AH23" s="157"/>
+      <c r="AI23" s="157"/>
+      <c r="AJ23" s="157"/>
+      <c r="AK23" s="157"/>
+      <c r="AL23" s="157"/>
       <c r="AM23" s="41"/>
     </row>
     <row r="24" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="40"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="156"/>
-      <c r="O24" s="156"/>
-      <c r="P24" s="156"/>
-      <c r="Q24" s="156"/>
-      <c r="R24" s="156"/>
-      <c r="S24" s="156"/>
-      <c r="T24" s="156"/>
-      <c r="U24" s="156"/>
-      <c r="V24" s="156"/>
-      <c r="W24" s="156"/>
-      <c r="X24" s="156"/>
-      <c r="Y24" s="156"/>
-      <c r="Z24" s="156"/>
-      <c r="AA24" s="156"/>
-      <c r="AB24" s="156"/>
-      <c r="AC24" s="156"/>
-      <c r="AD24" s="156"/>
-      <c r="AE24" s="156"/>
-      <c r="AF24" s="156"/>
-      <c r="AG24" s="156"/>
-      <c r="AH24" s="156"/>
-      <c r="AI24" s="156"/>
-      <c r="AJ24" s="156"/>
-      <c r="AK24" s="156"/>
-      <c r="AL24" s="156"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="157"/>
+      <c r="K24" s="157"/>
+      <c r="L24" s="157"/>
+      <c r="M24" s="157"/>
+      <c r="N24" s="157"/>
+      <c r="O24" s="157"/>
+      <c r="P24" s="157"/>
+      <c r="Q24" s="157"/>
+      <c r="R24" s="157"/>
+      <c r="S24" s="157"/>
+      <c r="T24" s="157"/>
+      <c r="U24" s="157"/>
+      <c r="V24" s="157"/>
+      <c r="W24" s="157"/>
+      <c r="X24" s="157"/>
+      <c r="Y24" s="157"/>
+      <c r="Z24" s="157"/>
+      <c r="AA24" s="157"/>
+      <c r="AB24" s="157"/>
+      <c r="AC24" s="157"/>
+      <c r="AD24" s="157"/>
+      <c r="AE24" s="157"/>
+      <c r="AF24" s="157"/>
+      <c r="AG24" s="157"/>
+      <c r="AH24" s="157"/>
+      <c r="AI24" s="157"/>
+      <c r="AJ24" s="157"/>
+      <c r="AK24" s="157"/>
+      <c r="AL24" s="157"/>
       <c r="AM24" s="41"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="40"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="156"/>
-      <c r="P25" s="156"/>
-      <c r="Q25" s="156"/>
-      <c r="R25" s="156"/>
-      <c r="S25" s="156"/>
-      <c r="T25" s="156"/>
-      <c r="U25" s="156"/>
-      <c r="V25" s="156"/>
-      <c r="W25" s="156"/>
-      <c r="X25" s="156"/>
-      <c r="Y25" s="156"/>
-      <c r="Z25" s="156"/>
-      <c r="AA25" s="156"/>
-      <c r="AB25" s="156"/>
-      <c r="AC25" s="156"/>
-      <c r="AD25" s="156"/>
-      <c r="AE25" s="156"/>
-      <c r="AF25" s="156"/>
-      <c r="AG25" s="156"/>
-      <c r="AH25" s="156"/>
-      <c r="AI25" s="156"/>
-      <c r="AJ25" s="156"/>
-      <c r="AK25" s="156"/>
-      <c r="AL25" s="156"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="157"/>
+      <c r="K25" s="157"/>
+      <c r="L25" s="157"/>
+      <c r="M25" s="157"/>
+      <c r="N25" s="157"/>
+      <c r="O25" s="157"/>
+      <c r="P25" s="157"/>
+      <c r="Q25" s="157"/>
+      <c r="R25" s="157"/>
+      <c r="S25" s="157"/>
+      <c r="T25" s="157"/>
+      <c r="U25" s="157"/>
+      <c r="V25" s="157"/>
+      <c r="W25" s="157"/>
+      <c r="X25" s="157"/>
+      <c r="Y25" s="157"/>
+      <c r="Z25" s="157"/>
+      <c r="AA25" s="157"/>
+      <c r="AB25" s="157"/>
+      <c r="AC25" s="157"/>
+      <c r="AD25" s="157"/>
+      <c r="AE25" s="157"/>
+      <c r="AF25" s="157"/>
+      <c r="AG25" s="157"/>
+      <c r="AH25" s="157"/>
+      <c r="AI25" s="157"/>
+      <c r="AJ25" s="157"/>
+      <c r="AK25" s="157"/>
+      <c r="AL25" s="157"/>
       <c r="AM25" s="41"/>
     </row>
     <row r="26" s="1" customFormat="true" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6860,7 +6866,7 @@
     <row r="27" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="40"/>
       <c r="D27" s="125" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E27" s="125"/>
       <c r="F27" s="125"/>
@@ -6983,249 +6989,249 @@
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
       <c r="C30" s="40"/>
-      <c r="D30" s="157" t="str">
+      <c r="D30" s="111" t="str">
         <f aca="false">IF(ISBLANK(Титульный!B8),"",IFERROR(IF(OR(LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилое помещение",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилой дом",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Многоквартирный дом"),"Физический износ конструкций принят в соответствии с ВСН 53-86(р) «Правила оценки физического износа жилых зданий" &amp; CHAR(10),""),"")) &amp; "Классификация технического состояния конструкций принята в соответствии ГОСТ 31937-2011 «Здания и сооружения. Правила обследования и мониторинга технического состояния»."</f>
         <v>Классификация технического состояния конструкций принята в соответствии ГОСТ 31937-2011 «Здания и сооружения. Правила обследования и мониторинга технического состояния».</v>
       </c>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="157"/>
-      <c r="L30" s="157"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="157"/>
-      <c r="O30" s="157"/>
-      <c r="P30" s="157"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="157"/>
-      <c r="S30" s="157"/>
-      <c r="T30" s="157"/>
-      <c r="U30" s="157"/>
-      <c r="V30" s="157"/>
-      <c r="W30" s="157"/>
-      <c r="X30" s="157"/>
-      <c r="Y30" s="157"/>
-      <c r="Z30" s="157"/>
-      <c r="AA30" s="157"/>
-      <c r="AB30" s="157"/>
-      <c r="AC30" s="157"/>
-      <c r="AD30" s="157"/>
-      <c r="AE30" s="157"/>
-      <c r="AF30" s="157"/>
-      <c r="AG30" s="157"/>
-      <c r="AH30" s="157"/>
-      <c r="AI30" s="157"/>
-      <c r="AJ30" s="157"/>
-      <c r="AK30" s="157"/>
-      <c r="AL30" s="157"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="111"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="111"/>
+      <c r="W30" s="111"/>
+      <c r="X30" s="111"/>
+      <c r="Y30" s="111"/>
+      <c r="Z30" s="111"/>
+      <c r="AA30" s="111"/>
+      <c r="AB30" s="111"/>
+      <c r="AC30" s="111"/>
+      <c r="AD30" s="111"/>
+      <c r="AE30" s="111"/>
+      <c r="AF30" s="111"/>
+      <c r="AG30" s="111"/>
+      <c r="AH30" s="111"/>
+      <c r="AI30" s="111"/>
+      <c r="AJ30" s="111"/>
+      <c r="AK30" s="111"/>
+      <c r="AL30" s="111"/>
       <c r="AM30" s="41"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
       <c r="C31" s="40"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="157"/>
-      <c r="L31" s="157"/>
-      <c r="M31" s="157"/>
-      <c r="N31" s="157"/>
-      <c r="O31" s="157"/>
-      <c r="P31" s="157"/>
-      <c r="Q31" s="157"/>
-      <c r="R31" s="157"/>
-      <c r="S31" s="157"/>
-      <c r="T31" s="157"/>
-      <c r="U31" s="157"/>
-      <c r="V31" s="157"/>
-      <c r="W31" s="157"/>
-      <c r="X31" s="157"/>
-      <c r="Y31" s="157"/>
-      <c r="Z31" s="157"/>
-      <c r="AA31" s="157"/>
-      <c r="AB31" s="157"/>
-      <c r="AC31" s="157"/>
-      <c r="AD31" s="157"/>
-      <c r="AE31" s="157"/>
-      <c r="AF31" s="157"/>
-      <c r="AG31" s="157"/>
-      <c r="AH31" s="157"/>
-      <c r="AI31" s="157"/>
-      <c r="AJ31" s="157"/>
-      <c r="AK31" s="157"/>
-      <c r="AL31" s="157"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="111"/>
+      <c r="Z31" s="111"/>
+      <c r="AA31" s="111"/>
+      <c r="AB31" s="111"/>
+      <c r="AC31" s="111"/>
+      <c r="AD31" s="111"/>
+      <c r="AE31" s="111"/>
+      <c r="AF31" s="111"/>
+      <c r="AG31" s="111"/>
+      <c r="AH31" s="111"/>
+      <c r="AI31" s="111"/>
+      <c r="AJ31" s="111"/>
+      <c r="AK31" s="111"/>
+      <c r="AL31" s="111"/>
       <c r="AM31" s="41"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
       <c r="C32" s="40"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="157"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="157"/>
-      <c r="L32" s="157"/>
-      <c r="M32" s="157"/>
-      <c r="N32" s="157"/>
-      <c r="O32" s="157"/>
-      <c r="P32" s="157"/>
-      <c r="Q32" s="157"/>
-      <c r="R32" s="157"/>
-      <c r="S32" s="157"/>
-      <c r="T32" s="157"/>
-      <c r="U32" s="157"/>
-      <c r="V32" s="157"/>
-      <c r="W32" s="157"/>
-      <c r="X32" s="157"/>
-      <c r="Y32" s="157"/>
-      <c r="Z32" s="157"/>
-      <c r="AA32" s="157"/>
-      <c r="AB32" s="157"/>
-      <c r="AC32" s="157"/>
-      <c r="AD32" s="157"/>
-      <c r="AE32" s="157"/>
-      <c r="AF32" s="157"/>
-      <c r="AG32" s="157"/>
-      <c r="AH32" s="157"/>
-      <c r="AI32" s="157"/>
-      <c r="AJ32" s="157"/>
-      <c r="AK32" s="157"/>
-      <c r="AL32" s="157"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="111"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="111"/>
+      <c r="Z32" s="111"/>
+      <c r="AA32" s="111"/>
+      <c r="AB32" s="111"/>
+      <c r="AC32" s="111"/>
+      <c r="AD32" s="111"/>
+      <c r="AE32" s="111"/>
+      <c r="AF32" s="111"/>
+      <c r="AG32" s="111"/>
+      <c r="AH32" s="111"/>
+      <c r="AI32" s="111"/>
+      <c r="AJ32" s="111"/>
+      <c r="AK32" s="111"/>
+      <c r="AL32" s="111"/>
       <c r="AM32" s="41"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="157"/>
-      <c r="H33" s="157"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="157"/>
-      <c r="L33" s="157"/>
-      <c r="M33" s="157"/>
-      <c r="N33" s="157"/>
-      <c r="O33" s="157"/>
-      <c r="P33" s="157"/>
-      <c r="Q33" s="157"/>
-      <c r="R33" s="157"/>
-      <c r="S33" s="157"/>
-      <c r="T33" s="157"/>
-      <c r="U33" s="157"/>
-      <c r="V33" s="157"/>
-      <c r="W33" s="157"/>
-      <c r="X33" s="157"/>
-      <c r="Y33" s="157"/>
-      <c r="Z33" s="157"/>
-      <c r="AA33" s="157"/>
-      <c r="AB33" s="157"/>
-      <c r="AC33" s="157"/>
-      <c r="AD33" s="157"/>
-      <c r="AE33" s="157"/>
-      <c r="AF33" s="157"/>
-      <c r="AG33" s="157"/>
-      <c r="AH33" s="157"/>
-      <c r="AI33" s="157"/>
-      <c r="AJ33" s="157"/>
-      <c r="AK33" s="157"/>
-      <c r="AL33" s="157"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="111"/>
+      <c r="Y33" s="111"/>
+      <c r="Z33" s="111"/>
+      <c r="AA33" s="111"/>
+      <c r="AB33" s="111"/>
+      <c r="AC33" s="111"/>
+      <c r="AD33" s="111"/>
+      <c r="AE33" s="111"/>
+      <c r="AF33" s="111"/>
+      <c r="AG33" s="111"/>
+      <c r="AH33" s="111"/>
+      <c r="AI33" s="111"/>
+      <c r="AJ33" s="111"/>
+      <c r="AK33" s="111"/>
+      <c r="AL33" s="111"/>
       <c r="AM33" s="41"/>
     </row>
     <row r="34" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
       <c r="C34" s="40"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="157"/>
-      <c r="I34" s="157"/>
-      <c r="J34" s="157"/>
-      <c r="K34" s="157"/>
-      <c r="L34" s="157"/>
-      <c r="M34" s="157"/>
-      <c r="N34" s="157"/>
-      <c r="O34" s="157"/>
-      <c r="P34" s="157"/>
-      <c r="Q34" s="157"/>
-      <c r="R34" s="157"/>
-      <c r="S34" s="157"/>
-      <c r="T34" s="157"/>
-      <c r="U34" s="157"/>
-      <c r="V34" s="157"/>
-      <c r="W34" s="157"/>
-      <c r="X34" s="157"/>
-      <c r="Y34" s="157"/>
-      <c r="Z34" s="157"/>
-      <c r="AA34" s="157"/>
-      <c r="AB34" s="157"/>
-      <c r="AC34" s="157"/>
-      <c r="AD34" s="157"/>
-      <c r="AE34" s="157"/>
-      <c r="AF34" s="157"/>
-      <c r="AG34" s="157"/>
-      <c r="AH34" s="157"/>
-      <c r="AI34" s="157"/>
-      <c r="AJ34" s="157"/>
-      <c r="AK34" s="157"/>
-      <c r="AL34" s="157"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="111"/>
+      <c r="P34" s="111"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="111"/>
+      <c r="S34" s="111"/>
+      <c r="T34" s="111"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="111"/>
+      <c r="W34" s="111"/>
+      <c r="X34" s="111"/>
+      <c r="Y34" s="111"/>
+      <c r="Z34" s="111"/>
+      <c r="AA34" s="111"/>
+      <c r="AB34" s="111"/>
+      <c r="AC34" s="111"/>
+      <c r="AD34" s="111"/>
+      <c r="AE34" s="111"/>
+      <c r="AF34" s="111"/>
+      <c r="AG34" s="111"/>
+      <c r="AH34" s="111"/>
+      <c r="AI34" s="111"/>
+      <c r="AJ34" s="111"/>
+      <c r="AK34" s="111"/>
+      <c r="AL34" s="111"/>
       <c r="AM34" s="41"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="157"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="157"/>
-      <c r="K35" s="157"/>
-      <c r="L35" s="157"/>
-      <c r="M35" s="157"/>
-      <c r="N35" s="157"/>
-      <c r="O35" s="157"/>
-      <c r="P35" s="157"/>
-      <c r="Q35" s="157"/>
-      <c r="R35" s="157"/>
-      <c r="S35" s="157"/>
-      <c r="T35" s="157"/>
-      <c r="U35" s="157"/>
-      <c r="V35" s="157"/>
-      <c r="W35" s="157"/>
-      <c r="X35" s="157"/>
-      <c r="Y35" s="157"/>
-      <c r="Z35" s="157"/>
-      <c r="AA35" s="157"/>
-      <c r="AB35" s="157"/>
-      <c r="AC35" s="157"/>
-      <c r="AD35" s="157"/>
-      <c r="AE35" s="157"/>
-      <c r="AF35" s="157"/>
-      <c r="AG35" s="157"/>
-      <c r="AH35" s="157"/>
-      <c r="AI35" s="157"/>
-      <c r="AJ35" s="157"/>
-      <c r="AK35" s="157"/>
-      <c r="AL35" s="157"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="111"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="111"/>
+      <c r="Q35" s="111"/>
+      <c r="R35" s="111"/>
+      <c r="S35" s="111"/>
+      <c r="T35" s="111"/>
+      <c r="U35" s="111"/>
+      <c r="V35" s="111"/>
+      <c r="W35" s="111"/>
+      <c r="X35" s="111"/>
+      <c r="Y35" s="111"/>
+      <c r="Z35" s="111"/>
+      <c r="AA35" s="111"/>
+      <c r="AB35" s="111"/>
+      <c r="AC35" s="111"/>
+      <c r="AD35" s="111"/>
+      <c r="AE35" s="111"/>
+      <c r="AF35" s="111"/>
+      <c r="AG35" s="111"/>
+      <c r="AH35" s="111"/>
+      <c r="AI35" s="111"/>
+      <c r="AJ35" s="111"/>
+      <c r="AK35" s="111"/>
+      <c r="AL35" s="111"/>
       <c r="AM35" s="41"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7234,205 +7240,205 @@
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="40"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="157"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="157"/>
-      <c r="K36" s="157"/>
-      <c r="L36" s="157"/>
-      <c r="M36" s="157"/>
-      <c r="N36" s="157"/>
-      <c r="O36" s="157"/>
-      <c r="P36" s="157"/>
-      <c r="Q36" s="157"/>
-      <c r="R36" s="157"/>
-      <c r="S36" s="157"/>
-      <c r="T36" s="157"/>
-      <c r="U36" s="157"/>
-      <c r="V36" s="157"/>
-      <c r="W36" s="157"/>
-      <c r="X36" s="157"/>
-      <c r="Y36" s="157"/>
-      <c r="Z36" s="157"/>
-      <c r="AA36" s="157"/>
-      <c r="AB36" s="157"/>
-      <c r="AC36" s="157"/>
-      <c r="AD36" s="157"/>
-      <c r="AE36" s="157"/>
-      <c r="AF36" s="157"/>
-      <c r="AG36" s="157"/>
-      <c r="AH36" s="157"/>
-      <c r="AI36" s="157"/>
-      <c r="AJ36" s="157"/>
-      <c r="AK36" s="157"/>
-      <c r="AL36" s="157"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="111"/>
+      <c r="O36" s="111"/>
+      <c r="P36" s="111"/>
+      <c r="Q36" s="111"/>
+      <c r="R36" s="111"/>
+      <c r="S36" s="111"/>
+      <c r="T36" s="111"/>
+      <c r="U36" s="111"/>
+      <c r="V36" s="111"/>
+      <c r="W36" s="111"/>
+      <c r="X36" s="111"/>
+      <c r="Y36" s="111"/>
+      <c r="Z36" s="111"/>
+      <c r="AA36" s="111"/>
+      <c r="AB36" s="111"/>
+      <c r="AC36" s="111"/>
+      <c r="AD36" s="111"/>
+      <c r="AE36" s="111"/>
+      <c r="AF36" s="111"/>
+      <c r="AG36" s="111"/>
+      <c r="AH36" s="111"/>
+      <c r="AI36" s="111"/>
+      <c r="AJ36" s="111"/>
+      <c r="AK36" s="111"/>
+      <c r="AL36" s="111"/>
       <c r="AM36" s="41"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="157"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="157"/>
-      <c r="I37" s="157"/>
-      <c r="J37" s="157"/>
-      <c r="K37" s="157"/>
-      <c r="L37" s="157"/>
-      <c r="M37" s="157"/>
-      <c r="N37" s="157"/>
-      <c r="O37" s="157"/>
-      <c r="P37" s="157"/>
-      <c r="Q37" s="157"/>
-      <c r="R37" s="157"/>
-      <c r="S37" s="157"/>
-      <c r="T37" s="157"/>
-      <c r="U37" s="157"/>
-      <c r="V37" s="157"/>
-      <c r="W37" s="157"/>
-      <c r="X37" s="157"/>
-      <c r="Y37" s="157"/>
-      <c r="Z37" s="157"/>
-      <c r="AA37" s="157"/>
-      <c r="AB37" s="157"/>
-      <c r="AC37" s="157"/>
-      <c r="AD37" s="157"/>
-      <c r="AE37" s="157"/>
-      <c r="AF37" s="157"/>
-      <c r="AG37" s="157"/>
-      <c r="AH37" s="157"/>
-      <c r="AI37" s="157"/>
-      <c r="AJ37" s="157"/>
-      <c r="AK37" s="157"/>
-      <c r="AL37" s="157"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="111"/>
+      <c r="P37" s="111"/>
+      <c r="Q37" s="111"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="111"/>
+      <c r="T37" s="111"/>
+      <c r="U37" s="111"/>
+      <c r="V37" s="111"/>
+      <c r="W37" s="111"/>
+      <c r="X37" s="111"/>
+      <c r="Y37" s="111"/>
+      <c r="Z37" s="111"/>
+      <c r="AA37" s="111"/>
+      <c r="AB37" s="111"/>
+      <c r="AC37" s="111"/>
+      <c r="AD37" s="111"/>
+      <c r="AE37" s="111"/>
+      <c r="AF37" s="111"/>
+      <c r="AG37" s="111"/>
+      <c r="AH37" s="111"/>
+      <c r="AI37" s="111"/>
+      <c r="AJ37" s="111"/>
+      <c r="AK37" s="111"/>
+      <c r="AL37" s="111"/>
       <c r="AM37" s="41"/>
     </row>
     <row r="38" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
       <c r="C38" s="40"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="157"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="157"/>
-      <c r="K38" s="157"/>
-      <c r="L38" s="157"/>
-      <c r="M38" s="157"/>
-      <c r="N38" s="157"/>
-      <c r="O38" s="157"/>
-      <c r="P38" s="157"/>
-      <c r="Q38" s="157"/>
-      <c r="R38" s="157"/>
-      <c r="S38" s="157"/>
-      <c r="T38" s="157"/>
-      <c r="U38" s="157"/>
-      <c r="V38" s="157"/>
-      <c r="W38" s="157"/>
-      <c r="X38" s="157"/>
-      <c r="Y38" s="157"/>
-      <c r="Z38" s="157"/>
-      <c r="AA38" s="157"/>
-      <c r="AB38" s="157"/>
-      <c r="AC38" s="157"/>
-      <c r="AD38" s="157"/>
-      <c r="AE38" s="157"/>
-      <c r="AF38" s="157"/>
-      <c r="AG38" s="157"/>
-      <c r="AH38" s="157"/>
-      <c r="AI38" s="157"/>
-      <c r="AJ38" s="157"/>
-      <c r="AK38" s="157"/>
-      <c r="AL38" s="157"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="111"/>
+      <c r="O38" s="111"/>
+      <c r="P38" s="111"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="111"/>
+      <c r="T38" s="111"/>
+      <c r="U38" s="111"/>
+      <c r="V38" s="111"/>
+      <c r="W38" s="111"/>
+      <c r="X38" s="111"/>
+      <c r="Y38" s="111"/>
+      <c r="Z38" s="111"/>
+      <c r="AA38" s="111"/>
+      <c r="AB38" s="111"/>
+      <c r="AC38" s="111"/>
+      <c r="AD38" s="111"/>
+      <c r="AE38" s="111"/>
+      <c r="AF38" s="111"/>
+      <c r="AG38" s="111"/>
+      <c r="AH38" s="111"/>
+      <c r="AI38" s="111"/>
+      <c r="AJ38" s="111"/>
+      <c r="AK38" s="111"/>
+      <c r="AL38" s="111"/>
       <c r="AM38" s="41"/>
     </row>
     <row r="39" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
       <c r="C39" s="40"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="157"/>
-      <c r="I39" s="157"/>
-      <c r="J39" s="157"/>
-      <c r="K39" s="157"/>
-      <c r="L39" s="157"/>
-      <c r="M39" s="157"/>
-      <c r="N39" s="157"/>
-      <c r="O39" s="157"/>
-      <c r="P39" s="157"/>
-      <c r="Q39" s="157"/>
-      <c r="R39" s="157"/>
-      <c r="S39" s="157"/>
-      <c r="T39" s="157"/>
-      <c r="U39" s="157"/>
-      <c r="V39" s="157"/>
-      <c r="W39" s="157"/>
-      <c r="X39" s="157"/>
-      <c r="Y39" s="157"/>
-      <c r="Z39" s="157"/>
-      <c r="AA39" s="157"/>
-      <c r="AB39" s="157"/>
-      <c r="AC39" s="157"/>
-      <c r="AD39" s="157"/>
-      <c r="AE39" s="157"/>
-      <c r="AF39" s="157"/>
-      <c r="AG39" s="157"/>
-      <c r="AH39" s="157"/>
-      <c r="AI39" s="157"/>
-      <c r="AJ39" s="157"/>
-      <c r="AK39" s="157"/>
-      <c r="AL39" s="157"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="111"/>
+      <c r="P39" s="111"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="111"/>
+      <c r="T39" s="111"/>
+      <c r="U39" s="111"/>
+      <c r="V39" s="111"/>
+      <c r="W39" s="111"/>
+      <c r="X39" s="111"/>
+      <c r="Y39" s="111"/>
+      <c r="Z39" s="111"/>
+      <c r="AA39" s="111"/>
+      <c r="AB39" s="111"/>
+      <c r="AC39" s="111"/>
+      <c r="AD39" s="111"/>
+      <c r="AE39" s="111"/>
+      <c r="AF39" s="111"/>
+      <c r="AG39" s="111"/>
+      <c r="AH39" s="111"/>
+      <c r="AI39" s="111"/>
+      <c r="AJ39" s="111"/>
+      <c r="AK39" s="111"/>
+      <c r="AL39" s="111"/>
       <c r="AM39" s="41"/>
     </row>
     <row r="40" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
       <c r="B40" s="50"/>
       <c r="C40" s="40"/>
-      <c r="D40" s="157"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="157"/>
-      <c r="I40" s="157"/>
-      <c r="J40" s="157"/>
-      <c r="K40" s="157"/>
-      <c r="L40" s="157"/>
-      <c r="M40" s="157"/>
-      <c r="N40" s="157"/>
-      <c r="O40" s="157"/>
-      <c r="P40" s="157"/>
-      <c r="Q40" s="157"/>
-      <c r="R40" s="157"/>
-      <c r="S40" s="157"/>
-      <c r="T40" s="157"/>
-      <c r="U40" s="157"/>
-      <c r="V40" s="157"/>
-      <c r="W40" s="157"/>
-      <c r="X40" s="157"/>
-      <c r="Y40" s="157"/>
-      <c r="Z40" s="157"/>
-      <c r="AA40" s="157"/>
-      <c r="AB40" s="157"/>
-      <c r="AC40" s="157"/>
-      <c r="AD40" s="157"/>
-      <c r="AE40" s="157"/>
-      <c r="AF40" s="157"/>
-      <c r="AG40" s="157"/>
-      <c r="AH40" s="157"/>
-      <c r="AI40" s="157"/>
-      <c r="AJ40" s="157"/>
-      <c r="AK40" s="157"/>
-      <c r="AL40" s="157"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="111"/>
+      <c r="O40" s="111"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
+      <c r="Z40" s="111"/>
+      <c r="AA40" s="111"/>
+      <c r="AB40" s="111"/>
+      <c r="AC40" s="111"/>
+      <c r="AD40" s="111"/>
+      <c r="AE40" s="111"/>
+      <c r="AF40" s="111"/>
+      <c r="AG40" s="111"/>
+      <c r="AH40" s="111"/>
+      <c r="AI40" s="111"/>
+      <c r="AJ40" s="111"/>
+      <c r="AK40" s="111"/>
+      <c r="AL40" s="111"/>
       <c r="AM40" s="41"/>
     </row>
     <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7451,7 +7457,7 @@
       <c r="AK42" s="8"/>
       <c r="AM42" s="41"/>
     </row>
-    <row r="43" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="49"/>
       <c r="B43" s="50"/>
       <c r="C43" s="40"/>
@@ -7947,7 +7953,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK56" activeCellId="1" sqref="H8:AH49 AK56"/>
+      <selection pane="topLeft" activeCell="AK56" activeCellId="0" sqref="AK56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8399,7 +8405,7 @@
       <c r="AK13" s="8"/>
       <c r="AM13" s="47"/>
     </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C14" s="46"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -9040,7 +9046,7 @@
       <c r="AK42" s="8"/>
       <c r="AM42" s="41"/>
     </row>
-    <row r="43" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="49"/>
       <c r="B43" s="50"/>
       <c r="C43" s="40"/>
@@ -9529,7 +9535,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D56" activeCellId="1" sqref="H8:AH49 D56"/>
+      <selection pane="topLeft" activeCell="D56" activeCellId="0" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11176,8 +11182,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8:AH49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13660,7 +13666,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P56" activeCellId="1" sqref="H8:AH49 P56"/>
+      <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15332,7 +15338,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="H8:AH49 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17782,8 +17788,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P56" activeCellId="1" sqref="H8:AH49 P56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AQ2" activeCellId="0" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20254,7 +20260,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P56" activeCellId="1" sqref="H8:AH49 P56"/>
+      <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22674,7 +22680,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="1" sqref="H8:AH49 D5"/>
+      <selection pane="topLeft" activeCell="AD46" activeCellId="0" sqref="AD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25164,7 +25170,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P56" activeCellId="1" sqref="H8:AH49 P56"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25375,161 +25381,161 @@
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="40"/>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111"/>
-      <c r="S5" s="111"/>
-      <c r="T5" s="111"/>
-      <c r="U5" s="111"/>
-      <c r="V5" s="111"/>
-      <c r="W5" s="111"/>
-      <c r="X5" s="111"/>
-      <c r="Y5" s="111"/>
-      <c r="Z5" s="111"/>
-      <c r="AA5" s="111"/>
-      <c r="AB5" s="111"/>
-      <c r="AC5" s="111"/>
-      <c r="AD5" s="111"/>
-      <c r="AE5" s="111"/>
-      <c r="AF5" s="111"/>
-      <c r="AG5" s="111"/>
-      <c r="AH5" s="111"/>
-      <c r="AI5" s="111"/>
-      <c r="AJ5" s="111"/>
-      <c r="AK5" s="111"/>
-      <c r="AL5" s="111"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="136"/>
+      <c r="T5" s="136"/>
+      <c r="U5" s="136"/>
+      <c r="V5" s="136"/>
+      <c r="W5" s="136"/>
+      <c r="X5" s="136"/>
+      <c r="Y5" s="136"/>
+      <c r="Z5" s="136"/>
+      <c r="AA5" s="136"/>
+      <c r="AB5" s="136"/>
+      <c r="AC5" s="136"/>
+      <c r="AD5" s="136"/>
+      <c r="AE5" s="136"/>
+      <c r="AF5" s="136"/>
+      <c r="AG5" s="136"/>
+      <c r="AH5" s="136"/>
+      <c r="AI5" s="136"/>
+      <c r="AJ5" s="136"/>
+      <c r="AK5" s="136"/>
+      <c r="AL5" s="136"/>
       <c r="AM5" s="41"/>
       <c r="AQ5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="42"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="111"/>
-      <c r="AA6" s="111"/>
-      <c r="AB6" s="111"/>
-      <c r="AC6" s="111"/>
-      <c r="AD6" s="111"/>
-      <c r="AE6" s="111"/>
-      <c r="AF6" s="111"/>
-      <c r="AG6" s="111"/>
-      <c r="AH6" s="111"/>
-      <c r="AI6" s="111"/>
-      <c r="AJ6" s="111"/>
-      <c r="AK6" s="111"/>
-      <c r="AL6" s="111"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="136"/>
+      <c r="Q6" s="136"/>
+      <c r="R6" s="136"/>
+      <c r="S6" s="136"/>
+      <c r="T6" s="136"/>
+      <c r="U6" s="136"/>
+      <c r="V6" s="136"/>
+      <c r="W6" s="136"/>
+      <c r="X6" s="136"/>
+      <c r="Y6" s="136"/>
+      <c r="Z6" s="136"/>
+      <c r="AA6" s="136"/>
+      <c r="AB6" s="136"/>
+      <c r="AC6" s="136"/>
+      <c r="AD6" s="136"/>
+      <c r="AE6" s="136"/>
+      <c r="AF6" s="136"/>
+      <c r="AG6" s="136"/>
+      <c r="AH6" s="136"/>
+      <c r="AI6" s="136"/>
+      <c r="AJ6" s="136"/>
+      <c r="AK6" s="136"/>
+      <c r="AL6" s="136"/>
       <c r="AM6" s="43"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="44"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="111"/>
-      <c r="W7" s="111"/>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="111"/>
-      <c r="Z7" s="111"/>
-      <c r="AA7" s="111"/>
-      <c r="AB7" s="111"/>
-      <c r="AC7" s="111"/>
-      <c r="AD7" s="111"/>
-      <c r="AE7" s="111"/>
-      <c r="AF7" s="111"/>
-      <c r="AG7" s="111"/>
-      <c r="AH7" s="111"/>
-      <c r="AI7" s="111"/>
-      <c r="AJ7" s="111"/>
-      <c r="AK7" s="111"/>
-      <c r="AL7" s="111"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="136"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="136"/>
+      <c r="T7" s="136"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="136"/>
+      <c r="W7" s="136"/>
+      <c r="X7" s="136"/>
+      <c r="Y7" s="136"/>
+      <c r="Z7" s="136"/>
+      <c r="AA7" s="136"/>
+      <c r="AB7" s="136"/>
+      <c r="AC7" s="136"/>
+      <c r="AD7" s="136"/>
+      <c r="AE7" s="136"/>
+      <c r="AF7" s="136"/>
+      <c r="AG7" s="136"/>
+      <c r="AH7" s="136"/>
+      <c r="AI7" s="136"/>
+      <c r="AJ7" s="136"/>
+      <c r="AK7" s="136"/>
+      <c r="AL7" s="136"/>
       <c r="AM7" s="43"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="40"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="111"/>
-      <c r="W8" s="111"/>
-      <c r="X8" s="111"/>
-      <c r="Y8" s="111"/>
-      <c r="Z8" s="111"/>
-      <c r="AA8" s="111"/>
-      <c r="AB8" s="111"/>
-      <c r="AC8" s="111"/>
-      <c r="AD8" s="111"/>
-      <c r="AE8" s="111"/>
-      <c r="AF8" s="111"/>
-      <c r="AG8" s="111"/>
-      <c r="AH8" s="111"/>
-      <c r="AI8" s="111"/>
-      <c r="AJ8" s="111"/>
-      <c r="AK8" s="111"/>
-      <c r="AL8" s="111"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="136"/>
+      <c r="R8" s="136"/>
+      <c r="S8" s="136"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="136"/>
+      <c r="V8" s="136"/>
+      <c r="W8" s="136"/>
+      <c r="X8" s="136"/>
+      <c r="Y8" s="136"/>
+      <c r="Z8" s="136"/>
+      <c r="AA8" s="136"/>
+      <c r="AB8" s="136"/>
+      <c r="AC8" s="136"/>
+      <c r="AD8" s="136"/>
+      <c r="AE8" s="136"/>
+      <c r="AF8" s="136"/>
+      <c r="AG8" s="136"/>
+      <c r="AH8" s="136"/>
+      <c r="AI8" s="136"/>
+      <c r="AJ8" s="136"/>
+      <c r="AK8" s="136"/>
+      <c r="AL8" s="136"/>
       <c r="AM8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25573,7 +25579,9 @@
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C10" s="46"/>
-      <c r="D10" s="111"/>
+      <c r="D10" s="111" t="s">
+        <v>121</v>
+      </c>
       <c r="E10" s="111"/>
       <c r="F10" s="111"/>
       <c r="G10" s="111"/>
@@ -25651,7 +25659,9 @@
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C12" s="46"/>
-      <c r="D12" s="111"/>
+      <c r="D12" s="111" t="s">
+        <v>122</v>
+      </c>
       <c r="E12" s="111"/>
       <c r="F12" s="111"/>
       <c r="G12" s="111"/>
@@ -25727,7 +25737,7 @@
       <c r="AL13" s="111"/>
       <c r="AM13" s="47"/>
     </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C14" s="46"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -25766,84 +25776,84 @@
       <c r="AM14" s="47"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="136" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="136"/>
-      <c r="R15" s="136"/>
-      <c r="S15" s="136"/>
-      <c r="T15" s="136"/>
-      <c r="U15" s="136"/>
-      <c r="V15" s="136"/>
-      <c r="W15" s="136"/>
-      <c r="X15" s="136"/>
-      <c r="Y15" s="136"/>
-      <c r="Z15" s="136"/>
-      <c r="AA15" s="136"/>
-      <c r="AB15" s="136"/>
-      <c r="AC15" s="136"/>
-      <c r="AD15" s="136"/>
-      <c r="AE15" s="136"/>
-      <c r="AF15" s="136"/>
-      <c r="AG15" s="136"/>
-      <c r="AH15" s="136"/>
-      <c r="AI15" s="136"/>
-      <c r="AJ15" s="136"/>
-      <c r="AK15" s="136"/>
-      <c r="AL15" s="136"/>
-      <c r="AM15" s="136"/>
+      <c r="C15" s="137" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="137"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="137"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="137"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="137"/>
+      <c r="AE15" s="137"/>
+      <c r="AF15" s="137"/>
+      <c r="AG15" s="137"/>
+      <c r="AH15" s="137"/>
+      <c r="AI15" s="137"/>
+      <c r="AJ15" s="137"/>
+      <c r="AK15" s="137"/>
+      <c r="AL15" s="137"/>
+      <c r="AM15" s="137"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="136"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="136"/>
-      <c r="M16" s="136"/>
-      <c r="N16" s="136"/>
-      <c r="O16" s="136"/>
-      <c r="P16" s="136"/>
-      <c r="Q16" s="136"/>
-      <c r="R16" s="136"/>
-      <c r="S16" s="136"/>
-      <c r="T16" s="136"/>
-      <c r="U16" s="136"/>
-      <c r="V16" s="136"/>
-      <c r="W16" s="136"/>
-      <c r="X16" s="136"/>
-      <c r="Y16" s="136"/>
-      <c r="Z16" s="136"/>
-      <c r="AA16" s="136"/>
-      <c r="AB16" s="136"/>
-      <c r="AC16" s="136"/>
-      <c r="AD16" s="136"/>
-      <c r="AE16" s="136"/>
-      <c r="AF16" s="136"/>
-      <c r="AG16" s="136"/>
-      <c r="AH16" s="136"/>
-      <c r="AI16" s="136"/>
-      <c r="AJ16" s="136"/>
-      <c r="AK16" s="136"/>
-      <c r="AL16" s="136"/>
-      <c r="AM16" s="136"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="137"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="137"/>
+      <c r="AE16" s="137"/>
+      <c r="AF16" s="137"/>
+      <c r="AG16" s="137"/>
+      <c r="AH16" s="137"/>
+      <c r="AI16" s="137"/>
+      <c r="AJ16" s="137"/>
+      <c r="AK16" s="137"/>
+      <c r="AL16" s="137"/>
+      <c r="AM16" s="137"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="113" t="s">
@@ -25851,7 +25861,7 @@
       </c>
       <c r="D17" s="113"/>
       <c r="E17" s="113" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F17" s="113"/>
       <c r="G17" s="113"/>
@@ -25869,7 +25879,7 @@
       <c r="S17" s="113"/>
       <c r="T17" s="113"/>
       <c r="U17" s="113" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="V17" s="113"/>
       <c r="W17" s="113"/>
@@ -25973,381 +25983,381 @@
         <v>1</v>
       </c>
       <c r="D20" s="97"/>
-      <c r="E20" s="137" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="137"/>
-      <c r="P20" s="137"/>
-      <c r="Q20" s="137"/>
-      <c r="R20" s="137"/>
-      <c r="S20" s="137"/>
-      <c r="T20" s="137"/>
-      <c r="U20" s="138" t="s">
-        <v>125</v>
-      </c>
-      <c r="V20" s="138"/>
-      <c r="W20" s="138"/>
-      <c r="X20" s="138"/>
-      <c r="Y20" s="138"/>
-      <c r="Z20" s="138"/>
-      <c r="AA20" s="138"/>
-      <c r="AB20" s="138"/>
-      <c r="AC20" s="138"/>
-      <c r="AD20" s="138"/>
-      <c r="AE20" s="138"/>
-      <c r="AF20" s="138"/>
-      <c r="AG20" s="138"/>
-      <c r="AH20" s="138"/>
-      <c r="AI20" s="138"/>
-      <c r="AJ20" s="138"/>
-      <c r="AK20" s="138"/>
-      <c r="AL20" s="138"/>
-      <c r="AM20" s="138"/>
+      <c r="E20" s="138" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="138"/>
+      <c r="Q20" s="138"/>
+      <c r="R20" s="138"/>
+      <c r="S20" s="138"/>
+      <c r="T20" s="138"/>
+      <c r="U20" s="139" t="s">
+        <v>127</v>
+      </c>
+      <c r="V20" s="139"/>
+      <c r="W20" s="139"/>
+      <c r="X20" s="139"/>
+      <c r="Y20" s="139"/>
+      <c r="Z20" s="139"/>
+      <c r="AA20" s="139"/>
+      <c r="AB20" s="139"/>
+      <c r="AC20" s="139"/>
+      <c r="AD20" s="139"/>
+      <c r="AE20" s="139"/>
+      <c r="AF20" s="139"/>
+      <c r="AG20" s="139"/>
+      <c r="AH20" s="139"/>
+      <c r="AI20" s="139"/>
+      <c r="AJ20" s="139"/>
+      <c r="AK20" s="139"/>
+      <c r="AL20" s="139"/>
+      <c r="AM20" s="139"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C21" s="97"/>
       <c r="D21" s="97"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="137"/>
-      <c r="Q21" s="137"/>
-      <c r="R21" s="137"/>
-      <c r="S21" s="137"/>
-      <c r="T21" s="137"/>
-      <c r="U21" s="138"/>
-      <c r="V21" s="138"/>
-      <c r="W21" s="138"/>
-      <c r="X21" s="138"/>
-      <c r="Y21" s="138"/>
-      <c r="Z21" s="138"/>
-      <c r="AA21" s="138"/>
-      <c r="AB21" s="138"/>
-      <c r="AC21" s="138"/>
-      <c r="AD21" s="138"/>
-      <c r="AE21" s="138"/>
-      <c r="AF21" s="138"/>
-      <c r="AG21" s="138"/>
-      <c r="AH21" s="138"/>
-      <c r="AI21" s="138"/>
-      <c r="AJ21" s="138"/>
-      <c r="AK21" s="138"/>
-      <c r="AL21" s="138"/>
-      <c r="AM21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="138"/>
+      <c r="Q21" s="138"/>
+      <c r="R21" s="138"/>
+      <c r="S21" s="138"/>
+      <c r="T21" s="138"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="139"/>
+      <c r="X21" s="139"/>
+      <c r="Y21" s="139"/>
+      <c r="Z21" s="139"/>
+      <c r="AA21" s="139"/>
+      <c r="AB21" s="139"/>
+      <c r="AC21" s="139"/>
+      <c r="AD21" s="139"/>
+      <c r="AE21" s="139"/>
+      <c r="AF21" s="139"/>
+      <c r="AG21" s="139"/>
+      <c r="AH21" s="139"/>
+      <c r="AI21" s="139"/>
+      <c r="AJ21" s="139"/>
+      <c r="AK21" s="139"/>
+      <c r="AL21" s="139"/>
+      <c r="AM21" s="139"/>
     </row>
     <row r="22" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C22" s="97" t="n">
         <v>2</v>
       </c>
       <c r="D22" s="97"/>
-      <c r="E22" s="137" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="137"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="137"/>
-      <c r="O22" s="137"/>
-      <c r="P22" s="137"/>
-      <c r="Q22" s="137"/>
-      <c r="R22" s="137"/>
-      <c r="S22" s="137"/>
-      <c r="T22" s="137"/>
-      <c r="U22" s="138" t="s">
-        <v>127</v>
-      </c>
-      <c r="V22" s="138"/>
-      <c r="W22" s="138"/>
-      <c r="X22" s="138"/>
-      <c r="Y22" s="138"/>
-      <c r="Z22" s="138"/>
-      <c r="AA22" s="138"/>
-      <c r="AB22" s="138"/>
-      <c r="AC22" s="138"/>
-      <c r="AD22" s="138"/>
-      <c r="AE22" s="138"/>
-      <c r="AF22" s="138"/>
-      <c r="AG22" s="138"/>
-      <c r="AH22" s="138"/>
-      <c r="AI22" s="138"/>
-      <c r="AJ22" s="138"/>
-      <c r="AK22" s="138"/>
-      <c r="AL22" s="138"/>
-      <c r="AM22" s="138"/>
+      <c r="E22" s="138" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="138"/>
+      <c r="Q22" s="138"/>
+      <c r="R22" s="138"/>
+      <c r="S22" s="138"/>
+      <c r="T22" s="138"/>
+      <c r="U22" s="139" t="s">
+        <v>129</v>
+      </c>
+      <c r="V22" s="139"/>
+      <c r="W22" s="139"/>
+      <c r="X22" s="139"/>
+      <c r="Y22" s="139"/>
+      <c r="Z22" s="139"/>
+      <c r="AA22" s="139"/>
+      <c r="AB22" s="139"/>
+      <c r="AC22" s="139"/>
+      <c r="AD22" s="139"/>
+      <c r="AE22" s="139"/>
+      <c r="AF22" s="139"/>
+      <c r="AG22" s="139"/>
+      <c r="AH22" s="139"/>
+      <c r="AI22" s="139"/>
+      <c r="AJ22" s="139"/>
+      <c r="AK22" s="139"/>
+      <c r="AL22" s="139"/>
+      <c r="AM22" s="139"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="97"/>
       <c r="D23" s="97"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="137"/>
-      <c r="O23" s="137"/>
-      <c r="P23" s="137"/>
-      <c r="Q23" s="137"/>
-      <c r="R23" s="137"/>
-      <c r="S23" s="137"/>
-      <c r="T23" s="137"/>
-      <c r="U23" s="138"/>
-      <c r="V23" s="138"/>
-      <c r="W23" s="138"/>
-      <c r="X23" s="138"/>
-      <c r="Y23" s="138"/>
-      <c r="Z23" s="138"/>
-      <c r="AA23" s="138"/>
-      <c r="AB23" s="138"/>
-      <c r="AC23" s="138"/>
-      <c r="AD23" s="138"/>
-      <c r="AE23" s="138"/>
-      <c r="AF23" s="138"/>
-      <c r="AG23" s="138"/>
-      <c r="AH23" s="138"/>
-      <c r="AI23" s="138"/>
-      <c r="AJ23" s="138"/>
-      <c r="AK23" s="138"/>
-      <c r="AL23" s="138"/>
-      <c r="AM23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="138"/>
+      <c r="T23" s="138"/>
+      <c r="U23" s="139"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="139"/>
+      <c r="X23" s="139"/>
+      <c r="Y23" s="139"/>
+      <c r="Z23" s="139"/>
+      <c r="AA23" s="139"/>
+      <c r="AB23" s="139"/>
+      <c r="AC23" s="139"/>
+      <c r="AD23" s="139"/>
+      <c r="AE23" s="139"/>
+      <c r="AF23" s="139"/>
+      <c r="AG23" s="139"/>
+      <c r="AH23" s="139"/>
+      <c r="AI23" s="139"/>
+      <c r="AJ23" s="139"/>
+      <c r="AK23" s="139"/>
+      <c r="AL23" s="139"/>
+      <c r="AM23" s="139"/>
     </row>
     <row r="24" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="97" t="n">
         <v>3</v>
       </c>
       <c r="D24" s="97"/>
-      <c r="E24" s="137" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="137"/>
-      <c r="G24" s="137"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="137"/>
-      <c r="J24" s="137"/>
-      <c r="K24" s="137"/>
-      <c r="L24" s="137"/>
-      <c r="M24" s="137"/>
-      <c r="N24" s="137"/>
-      <c r="O24" s="137"/>
-      <c r="P24" s="137"/>
-      <c r="Q24" s="137"/>
-      <c r="R24" s="137"/>
-      <c r="S24" s="137"/>
-      <c r="T24" s="137"/>
-      <c r="U24" s="138" t="s">
-        <v>129</v>
-      </c>
-      <c r="V24" s="138"/>
-      <c r="W24" s="138"/>
-      <c r="X24" s="138"/>
-      <c r="Y24" s="138"/>
-      <c r="Z24" s="138"/>
-      <c r="AA24" s="138"/>
-      <c r="AB24" s="138"/>
-      <c r="AC24" s="138"/>
-      <c r="AD24" s="138"/>
-      <c r="AE24" s="138"/>
-      <c r="AF24" s="138"/>
-      <c r="AG24" s="138"/>
-      <c r="AH24" s="138"/>
-      <c r="AI24" s="138"/>
-      <c r="AJ24" s="138"/>
-      <c r="AK24" s="138"/>
-      <c r="AL24" s="138"/>
-      <c r="AM24" s="138"/>
+      <c r="E24" s="138" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="138"/>
+      <c r="Q24" s="138"/>
+      <c r="R24" s="138"/>
+      <c r="S24" s="138"/>
+      <c r="T24" s="138"/>
+      <c r="U24" s="139" t="s">
+        <v>131</v>
+      </c>
+      <c r="V24" s="139"/>
+      <c r="W24" s="139"/>
+      <c r="X24" s="139"/>
+      <c r="Y24" s="139"/>
+      <c r="Z24" s="139"/>
+      <c r="AA24" s="139"/>
+      <c r="AB24" s="139"/>
+      <c r="AC24" s="139"/>
+      <c r="AD24" s="139"/>
+      <c r="AE24" s="139"/>
+      <c r="AF24" s="139"/>
+      <c r="AG24" s="139"/>
+      <c r="AH24" s="139"/>
+      <c r="AI24" s="139"/>
+      <c r="AJ24" s="139"/>
+      <c r="AK24" s="139"/>
+      <c r="AL24" s="139"/>
+      <c r="AM24" s="139"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="97"/>
       <c r="D25" s="97"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="137"/>
-      <c r="O25" s="137"/>
-      <c r="P25" s="137"/>
-      <c r="Q25" s="137"/>
-      <c r="R25" s="137"/>
-      <c r="S25" s="137"/>
-      <c r="T25" s="137"/>
-      <c r="U25" s="138"/>
-      <c r="V25" s="138"/>
-      <c r="W25" s="138"/>
-      <c r="X25" s="138"/>
-      <c r="Y25" s="138"/>
-      <c r="Z25" s="138"/>
-      <c r="AA25" s="138"/>
-      <c r="AB25" s="138"/>
-      <c r="AC25" s="138"/>
-      <c r="AD25" s="138"/>
-      <c r="AE25" s="138"/>
-      <c r="AF25" s="138"/>
-      <c r="AG25" s="138"/>
-      <c r="AH25" s="138"/>
-      <c r="AI25" s="138"/>
-      <c r="AJ25" s="138"/>
-      <c r="AK25" s="138"/>
-      <c r="AL25" s="138"/>
-      <c r="AM25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="138"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="138"/>
+      <c r="P25" s="138"/>
+      <c r="Q25" s="138"/>
+      <c r="R25" s="138"/>
+      <c r="S25" s="138"/>
+      <c r="T25" s="138"/>
+      <c r="U25" s="139"/>
+      <c r="V25" s="139"/>
+      <c r="W25" s="139"/>
+      <c r="X25" s="139"/>
+      <c r="Y25" s="139"/>
+      <c r="Z25" s="139"/>
+      <c r="AA25" s="139"/>
+      <c r="AB25" s="139"/>
+      <c r="AC25" s="139"/>
+      <c r="AD25" s="139"/>
+      <c r="AE25" s="139"/>
+      <c r="AF25" s="139"/>
+      <c r="AG25" s="139"/>
+      <c r="AH25" s="139"/>
+      <c r="AI25" s="139"/>
+      <c r="AJ25" s="139"/>
+      <c r="AK25" s="139"/>
+      <c r="AL25" s="139"/>
+      <c r="AM25" s="139"/>
     </row>
     <row r="26" s="1" customFormat="true" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="97" t="n">
         <v>4</v>
       </c>
       <c r="D26" s="97"/>
-      <c r="E26" s="137" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="137"/>
-      <c r="P26" s="137"/>
-      <c r="Q26" s="137"/>
-      <c r="R26" s="137"/>
-      <c r="S26" s="137"/>
-      <c r="T26" s="137"/>
-      <c r="U26" s="138" t="s">
-        <v>131</v>
-      </c>
-      <c r="V26" s="138"/>
-      <c r="W26" s="138"/>
-      <c r="X26" s="138"/>
-      <c r="Y26" s="138"/>
-      <c r="Z26" s="138"/>
-      <c r="AA26" s="138"/>
-      <c r="AB26" s="138"/>
-      <c r="AC26" s="138"/>
-      <c r="AD26" s="138"/>
-      <c r="AE26" s="138"/>
-      <c r="AF26" s="138"/>
-      <c r="AG26" s="138"/>
-      <c r="AH26" s="138"/>
-      <c r="AI26" s="138"/>
-      <c r="AJ26" s="138"/>
-      <c r="AK26" s="138"/>
-      <c r="AL26" s="138"/>
-      <c r="AM26" s="138"/>
+      <c r="E26" s="138" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="138"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
+      <c r="U26" s="139" t="s">
+        <v>133</v>
+      </c>
+      <c r="V26" s="139"/>
+      <c r="W26" s="139"/>
+      <c r="X26" s="139"/>
+      <c r="Y26" s="139"/>
+      <c r="Z26" s="139"/>
+      <c r="AA26" s="139"/>
+      <c r="AB26" s="139"/>
+      <c r="AC26" s="139"/>
+      <c r="AD26" s="139"/>
+      <c r="AE26" s="139"/>
+      <c r="AF26" s="139"/>
+      <c r="AG26" s="139"/>
+      <c r="AH26" s="139"/>
+      <c r="AI26" s="139"/>
+      <c r="AJ26" s="139"/>
+      <c r="AK26" s="139"/>
+      <c r="AL26" s="139"/>
+      <c r="AM26" s="139"/>
     </row>
     <row r="27" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="97"/>
       <c r="D27" s="97"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="137"/>
-      <c r="L27" s="137"/>
-      <c r="M27" s="137"/>
-      <c r="N27" s="137"/>
-      <c r="O27" s="137"/>
-      <c r="P27" s="137"/>
-      <c r="Q27" s="137"/>
-      <c r="R27" s="137"/>
-      <c r="S27" s="137"/>
-      <c r="T27" s="137"/>
-      <c r="U27" s="138"/>
-      <c r="V27" s="138"/>
-      <c r="W27" s="138"/>
-      <c r="X27" s="138"/>
-      <c r="Y27" s="138"/>
-      <c r="Z27" s="138"/>
-      <c r="AA27" s="138"/>
-      <c r="AB27" s="138"/>
-      <c r="AC27" s="138"/>
-      <c r="AD27" s="138"/>
-      <c r="AE27" s="138"/>
-      <c r="AF27" s="138"/>
-      <c r="AG27" s="138"/>
-      <c r="AH27" s="138"/>
-      <c r="AI27" s="138"/>
-      <c r="AJ27" s="138"/>
-      <c r="AK27" s="138"/>
-      <c r="AL27" s="138"/>
-      <c r="AM27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="138"/>
+      <c r="P27" s="138"/>
+      <c r="Q27" s="138"/>
+      <c r="R27" s="138"/>
+      <c r="S27" s="138"/>
+      <c r="T27" s="138"/>
+      <c r="U27" s="139"/>
+      <c r="V27" s="139"/>
+      <c r="W27" s="139"/>
+      <c r="X27" s="139"/>
+      <c r="Y27" s="139"/>
+      <c r="Z27" s="139"/>
+      <c r="AA27" s="139"/>
+      <c r="AB27" s="139"/>
+      <c r="AC27" s="139"/>
+      <c r="AD27" s="139"/>
+      <c r="AE27" s="139"/>
+      <c r="AF27" s="139"/>
+      <c r="AG27" s="139"/>
+      <c r="AH27" s="139"/>
+      <c r="AI27" s="139"/>
+      <c r="AJ27" s="139"/>
+      <c r="AK27" s="139"/>
+      <c r="AL27" s="139"/>
+      <c r="AM27" s="139"/>
     </row>
     <row r="28" s="1" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="97" t="n">
         <v>5</v>
       </c>
       <c r="D28" s="97"/>
-      <c r="E28" s="137" t="s">
-        <v>132</v>
-      </c>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="137"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="137"/>
-      <c r="P28" s="137"/>
-      <c r="Q28" s="137"/>
-      <c r="R28" s="137"/>
-      <c r="S28" s="137"/>
-      <c r="T28" s="137"/>
-      <c r="U28" s="138" t="s">
-        <v>133</v>
-      </c>
-      <c r="V28" s="138"/>
-      <c r="W28" s="138"/>
-      <c r="X28" s="138"/>
-      <c r="Y28" s="138"/>
-      <c r="Z28" s="138"/>
-      <c r="AA28" s="138"/>
-      <c r="AB28" s="138"/>
-      <c r="AC28" s="138"/>
-      <c r="AD28" s="138"/>
-      <c r="AE28" s="138"/>
-      <c r="AF28" s="138"/>
-      <c r="AG28" s="138"/>
-      <c r="AH28" s="138"/>
-      <c r="AI28" s="138"/>
-      <c r="AJ28" s="138"/>
-      <c r="AK28" s="138"/>
-      <c r="AL28" s="138"/>
-      <c r="AM28" s="138"/>
+      <c r="E28" s="138" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="138"/>
+      <c r="Q28" s="138"/>
+      <c r="R28" s="138"/>
+      <c r="S28" s="138"/>
+      <c r="T28" s="138"/>
+      <c r="U28" s="139" t="s">
+        <v>135</v>
+      </c>
+      <c r="V28" s="139"/>
+      <c r="W28" s="139"/>
+      <c r="X28" s="139"/>
+      <c r="Y28" s="139"/>
+      <c r="Z28" s="139"/>
+      <c r="AA28" s="139"/>
+      <c r="AB28" s="139"/>
+      <c r="AC28" s="139"/>
+      <c r="AD28" s="139"/>
+      <c r="AE28" s="139"/>
+      <c r="AF28" s="139"/>
+      <c r="AG28" s="139"/>
+      <c r="AH28" s="139"/>
+      <c r="AI28" s="139"/>
+      <c r="AJ28" s="139"/>
+      <c r="AK28" s="139"/>
+      <c r="AL28" s="139"/>
+      <c r="AM28" s="139"/>
     </row>
     <row r="29" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
@@ -26356,41 +26366,41 @@
       <c r="B29" s="50"/>
       <c r="C29" s="97"/>
       <c r="D29" s="97"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="137"/>
-      <c r="L29" s="137"/>
-      <c r="M29" s="137"/>
-      <c r="N29" s="137"/>
-      <c r="O29" s="137"/>
-      <c r="P29" s="137"/>
-      <c r="Q29" s="137"/>
-      <c r="R29" s="137"/>
-      <c r="S29" s="137"/>
-      <c r="T29" s="137"/>
-      <c r="U29" s="138"/>
-      <c r="V29" s="138"/>
-      <c r="W29" s="138"/>
-      <c r="X29" s="138"/>
-      <c r="Y29" s="138"/>
-      <c r="Z29" s="138"/>
-      <c r="AA29" s="138"/>
-      <c r="AB29" s="138"/>
-      <c r="AC29" s="138"/>
-      <c r="AD29" s="138"/>
-      <c r="AE29" s="138"/>
-      <c r="AF29" s="138"/>
-      <c r="AG29" s="138"/>
-      <c r="AH29" s="138"/>
-      <c r="AI29" s="138"/>
-      <c r="AJ29" s="138"/>
-      <c r="AK29" s="138"/>
-      <c r="AL29" s="138"/>
-      <c r="AM29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="138"/>
+      <c r="P29" s="138"/>
+      <c r="Q29" s="138"/>
+      <c r="R29" s="138"/>
+      <c r="S29" s="138"/>
+      <c r="T29" s="138"/>
+      <c r="U29" s="139"/>
+      <c r="V29" s="139"/>
+      <c r="W29" s="139"/>
+      <c r="X29" s="139"/>
+      <c r="Y29" s="139"/>
+      <c r="Z29" s="139"/>
+      <c r="AA29" s="139"/>
+      <c r="AB29" s="139"/>
+      <c r="AC29" s="139"/>
+      <c r="AD29" s="139"/>
+      <c r="AE29" s="139"/>
+      <c r="AF29" s="139"/>
+      <c r="AG29" s="139"/>
+      <c r="AH29" s="139"/>
+      <c r="AI29" s="139"/>
+      <c r="AJ29" s="139"/>
+      <c r="AK29" s="139"/>
+      <c r="AL29" s="139"/>
+      <c r="AM29" s="139"/>
     </row>
     <row r="30" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
@@ -26399,86 +26409,86 @@
         <v>6</v>
       </c>
       <c r="D30" s="97"/>
-      <c r="E30" s="137" t="s">
-        <v>134</v>
-      </c>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="137"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="137"/>
-      <c r="L30" s="137"/>
-      <c r="M30" s="137"/>
-      <c r="N30" s="137"/>
-      <c r="O30" s="137"/>
-      <c r="P30" s="137"/>
-      <c r="Q30" s="137"/>
-      <c r="R30" s="137"/>
-      <c r="S30" s="137"/>
-      <c r="T30" s="137"/>
-      <c r="U30" s="138" t="s">
-        <v>135</v>
-      </c>
-      <c r="V30" s="138"/>
-      <c r="W30" s="138"/>
-      <c r="X30" s="138"/>
-      <c r="Y30" s="138"/>
-      <c r="Z30" s="138"/>
-      <c r="AA30" s="138"/>
-      <c r="AB30" s="138"/>
-      <c r="AC30" s="138"/>
-      <c r="AD30" s="138"/>
-      <c r="AE30" s="138"/>
-      <c r="AF30" s="138"/>
-      <c r="AG30" s="138"/>
-      <c r="AH30" s="138"/>
-      <c r="AI30" s="138"/>
-      <c r="AJ30" s="138"/>
-      <c r="AK30" s="138"/>
-      <c r="AL30" s="138"/>
-      <c r="AM30" s="138"/>
+      <c r="E30" s="138" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="138"/>
+      <c r="L30" s="138"/>
+      <c r="M30" s="138"/>
+      <c r="N30" s="138"/>
+      <c r="O30" s="138"/>
+      <c r="P30" s="138"/>
+      <c r="Q30" s="138"/>
+      <c r="R30" s="138"/>
+      <c r="S30" s="138"/>
+      <c r="T30" s="138"/>
+      <c r="U30" s="139" t="s">
+        <v>137</v>
+      </c>
+      <c r="V30" s="139"/>
+      <c r="W30" s="139"/>
+      <c r="X30" s="139"/>
+      <c r="Y30" s="139"/>
+      <c r="Z30" s="139"/>
+      <c r="AA30" s="139"/>
+      <c r="AB30" s="139"/>
+      <c r="AC30" s="139"/>
+      <c r="AD30" s="139"/>
+      <c r="AE30" s="139"/>
+      <c r="AF30" s="139"/>
+      <c r="AG30" s="139"/>
+      <c r="AH30" s="139"/>
+      <c r="AI30" s="139"/>
+      <c r="AJ30" s="139"/>
+      <c r="AK30" s="139"/>
+      <c r="AL30" s="139"/>
+      <c r="AM30" s="139"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
       <c r="C31" s="97"/>
       <c r="D31" s="97"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="137"/>
-      <c r="L31" s="137"/>
-      <c r="M31" s="137"/>
-      <c r="N31" s="137"/>
-      <c r="O31" s="137"/>
-      <c r="P31" s="137"/>
-      <c r="Q31" s="137"/>
-      <c r="R31" s="137"/>
-      <c r="S31" s="137"/>
-      <c r="T31" s="137"/>
-      <c r="U31" s="138"/>
-      <c r="V31" s="138"/>
-      <c r="W31" s="138"/>
-      <c r="X31" s="138"/>
-      <c r="Y31" s="138"/>
-      <c r="Z31" s="138"/>
-      <c r="AA31" s="138"/>
-      <c r="AB31" s="138"/>
-      <c r="AC31" s="138"/>
-      <c r="AD31" s="138"/>
-      <c r="AE31" s="138"/>
-      <c r="AF31" s="138"/>
-      <c r="AG31" s="138"/>
-      <c r="AH31" s="138"/>
-      <c r="AI31" s="138"/>
-      <c r="AJ31" s="138"/>
-      <c r="AK31" s="138"/>
-      <c r="AL31" s="138"/>
-      <c r="AM31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="138"/>
+      <c r="K31" s="138"/>
+      <c r="L31" s="138"/>
+      <c r="M31" s="138"/>
+      <c r="N31" s="138"/>
+      <c r="O31" s="138"/>
+      <c r="P31" s="138"/>
+      <c r="Q31" s="138"/>
+      <c r="R31" s="138"/>
+      <c r="S31" s="138"/>
+      <c r="T31" s="138"/>
+      <c r="U31" s="139"/>
+      <c r="V31" s="139"/>
+      <c r="W31" s="139"/>
+      <c r="X31" s="139"/>
+      <c r="Y31" s="139"/>
+      <c r="Z31" s="139"/>
+      <c r="AA31" s="139"/>
+      <c r="AB31" s="139"/>
+      <c r="AC31" s="139"/>
+      <c r="AD31" s="139"/>
+      <c r="AE31" s="139"/>
+      <c r="AF31" s="139"/>
+      <c r="AG31" s="139"/>
+      <c r="AH31" s="139"/>
+      <c r="AI31" s="139"/>
+      <c r="AJ31" s="139"/>
+      <c r="AK31" s="139"/>
+      <c r="AL31" s="139"/>
+      <c r="AM31" s="139"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
@@ -26487,86 +26497,86 @@
         <v>7</v>
       </c>
       <c r="D32" s="97"/>
-      <c r="E32" s="137" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="137"/>
-      <c r="L32" s="137"/>
-      <c r="M32" s="137"/>
-      <c r="N32" s="137"/>
-      <c r="O32" s="137"/>
-      <c r="P32" s="137"/>
-      <c r="Q32" s="137"/>
-      <c r="R32" s="137"/>
-      <c r="S32" s="137"/>
-      <c r="T32" s="137"/>
-      <c r="U32" s="138" t="s">
-        <v>137</v>
-      </c>
-      <c r="V32" s="138"/>
-      <c r="W32" s="138"/>
-      <c r="X32" s="138"/>
-      <c r="Y32" s="138"/>
-      <c r="Z32" s="138"/>
-      <c r="AA32" s="138"/>
-      <c r="AB32" s="138"/>
-      <c r="AC32" s="138"/>
-      <c r="AD32" s="138"/>
-      <c r="AE32" s="138"/>
-      <c r="AF32" s="138"/>
-      <c r="AG32" s="138"/>
-      <c r="AH32" s="138"/>
-      <c r="AI32" s="138"/>
-      <c r="AJ32" s="138"/>
-      <c r="AK32" s="138"/>
-      <c r="AL32" s="138"/>
-      <c r="AM32" s="138"/>
+      <c r="E32" s="138" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="138"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="138"/>
+      <c r="N32" s="138"/>
+      <c r="O32" s="138"/>
+      <c r="P32" s="138"/>
+      <c r="Q32" s="138"/>
+      <c r="R32" s="138"/>
+      <c r="S32" s="138"/>
+      <c r="T32" s="138"/>
+      <c r="U32" s="139" t="s">
+        <v>139</v>
+      </c>
+      <c r="V32" s="139"/>
+      <c r="W32" s="139"/>
+      <c r="X32" s="139"/>
+      <c r="Y32" s="139"/>
+      <c r="Z32" s="139"/>
+      <c r="AA32" s="139"/>
+      <c r="AB32" s="139"/>
+      <c r="AC32" s="139"/>
+      <c r="AD32" s="139"/>
+      <c r="AE32" s="139"/>
+      <c r="AF32" s="139"/>
+      <c r="AG32" s="139"/>
+      <c r="AH32" s="139"/>
+      <c r="AI32" s="139"/>
+      <c r="AJ32" s="139"/>
+      <c r="AK32" s="139"/>
+      <c r="AL32" s="139"/>
+      <c r="AM32" s="139"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
       <c r="C33" s="97"/>
       <c r="D33" s="97"/>
-      <c r="E33" s="137"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="137"/>
-      <c r="J33" s="137"/>
-      <c r="K33" s="137"/>
-      <c r="L33" s="137"/>
-      <c r="M33" s="137"/>
-      <c r="N33" s="137"/>
-      <c r="O33" s="137"/>
-      <c r="P33" s="137"/>
-      <c r="Q33" s="137"/>
-      <c r="R33" s="137"/>
-      <c r="S33" s="137"/>
-      <c r="T33" s="137"/>
-      <c r="U33" s="138"/>
-      <c r="V33" s="138"/>
-      <c r="W33" s="138"/>
-      <c r="X33" s="138"/>
-      <c r="Y33" s="138"/>
-      <c r="Z33" s="138"/>
-      <c r="AA33" s="138"/>
-      <c r="AB33" s="138"/>
-      <c r="AC33" s="138"/>
-      <c r="AD33" s="138"/>
-      <c r="AE33" s="138"/>
-      <c r="AF33" s="138"/>
-      <c r="AG33" s="138"/>
-      <c r="AH33" s="138"/>
-      <c r="AI33" s="138"/>
-      <c r="AJ33" s="138"/>
-      <c r="AK33" s="138"/>
-      <c r="AL33" s="138"/>
-      <c r="AM33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="138"/>
+      <c r="K33" s="138"/>
+      <c r="L33" s="138"/>
+      <c r="M33" s="138"/>
+      <c r="N33" s="138"/>
+      <c r="O33" s="138"/>
+      <c r="P33" s="138"/>
+      <c r="Q33" s="138"/>
+      <c r="R33" s="138"/>
+      <c r="S33" s="138"/>
+      <c r="T33" s="138"/>
+      <c r="U33" s="139"/>
+      <c r="V33" s="139"/>
+      <c r="W33" s="139"/>
+      <c r="X33" s="139"/>
+      <c r="Y33" s="139"/>
+      <c r="Z33" s="139"/>
+      <c r="AA33" s="139"/>
+      <c r="AB33" s="139"/>
+      <c r="AC33" s="139"/>
+      <c r="AD33" s="139"/>
+      <c r="AE33" s="139"/>
+      <c r="AF33" s="139"/>
+      <c r="AG33" s="139"/>
+      <c r="AH33" s="139"/>
+      <c r="AI33" s="139"/>
+      <c r="AJ33" s="139"/>
+      <c r="AK33" s="139"/>
+      <c r="AL33" s="139"/>
+      <c r="AM33" s="139"/>
     </row>
     <row r="34" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
@@ -26575,86 +26585,86 @@
         <v>8</v>
       </c>
       <c r="D34" s="97"/>
-      <c r="E34" s="137" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" s="137"/>
-      <c r="G34" s="137"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
-      <c r="K34" s="137"/>
-      <c r="L34" s="137"/>
-      <c r="M34" s="137"/>
-      <c r="N34" s="137"/>
-      <c r="O34" s="137"/>
-      <c r="P34" s="137"/>
-      <c r="Q34" s="137"/>
-      <c r="R34" s="137"/>
-      <c r="S34" s="137"/>
-      <c r="T34" s="137"/>
-      <c r="U34" s="138" t="s">
-        <v>139</v>
-      </c>
-      <c r="V34" s="138"/>
-      <c r="W34" s="138"/>
-      <c r="X34" s="138"/>
-      <c r="Y34" s="138"/>
-      <c r="Z34" s="138"/>
-      <c r="AA34" s="138"/>
-      <c r="AB34" s="138"/>
-      <c r="AC34" s="138"/>
-      <c r="AD34" s="138"/>
-      <c r="AE34" s="138"/>
-      <c r="AF34" s="138"/>
-      <c r="AG34" s="138"/>
-      <c r="AH34" s="138"/>
-      <c r="AI34" s="138"/>
-      <c r="AJ34" s="138"/>
-      <c r="AK34" s="138"/>
-      <c r="AL34" s="138"/>
-      <c r="AM34" s="138"/>
+      <c r="E34" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="138"/>
+      <c r="L34" s="138"/>
+      <c r="M34" s="138"/>
+      <c r="N34" s="138"/>
+      <c r="O34" s="138"/>
+      <c r="P34" s="138"/>
+      <c r="Q34" s="138"/>
+      <c r="R34" s="138"/>
+      <c r="S34" s="138"/>
+      <c r="T34" s="138"/>
+      <c r="U34" s="139" t="s">
+        <v>141</v>
+      </c>
+      <c r="V34" s="139"/>
+      <c r="W34" s="139"/>
+      <c r="X34" s="139"/>
+      <c r="Y34" s="139"/>
+      <c r="Z34" s="139"/>
+      <c r="AA34" s="139"/>
+      <c r="AB34" s="139"/>
+      <c r="AC34" s="139"/>
+      <c r="AD34" s="139"/>
+      <c r="AE34" s="139"/>
+      <c r="AF34" s="139"/>
+      <c r="AG34" s="139"/>
+      <c r="AH34" s="139"/>
+      <c r="AI34" s="139"/>
+      <c r="AJ34" s="139"/>
+      <c r="AK34" s="139"/>
+      <c r="AL34" s="139"/>
+      <c r="AM34" s="139"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
       <c r="C35" s="97"/>
       <c r="D35" s="97"/>
-      <c r="E35" s="137"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="137"/>
-      <c r="J35" s="137"/>
-      <c r="K35" s="137"/>
-      <c r="L35" s="137"/>
-      <c r="M35" s="137"/>
-      <c r="N35" s="137"/>
-      <c r="O35" s="137"/>
-      <c r="P35" s="137"/>
-      <c r="Q35" s="137"/>
-      <c r="R35" s="137"/>
-      <c r="S35" s="137"/>
-      <c r="T35" s="137"/>
-      <c r="U35" s="138"/>
-      <c r="V35" s="138"/>
-      <c r="W35" s="138"/>
-      <c r="X35" s="138"/>
-      <c r="Y35" s="138"/>
-      <c r="Z35" s="138"/>
-      <c r="AA35" s="138"/>
-      <c r="AB35" s="138"/>
-      <c r="AC35" s="138"/>
-      <c r="AD35" s="138"/>
-      <c r="AE35" s="138"/>
-      <c r="AF35" s="138"/>
-      <c r="AG35" s="138"/>
-      <c r="AH35" s="138"/>
-      <c r="AI35" s="138"/>
-      <c r="AJ35" s="138"/>
-      <c r="AK35" s="138"/>
-      <c r="AL35" s="138"/>
-      <c r="AM35" s="138"/>
+      <c r="E35" s="138"/>
+      <c r="F35" s="138"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="138"/>
+      <c r="K35" s="138"/>
+      <c r="L35" s="138"/>
+      <c r="M35" s="138"/>
+      <c r="N35" s="138"/>
+      <c r="O35" s="138"/>
+      <c r="P35" s="138"/>
+      <c r="Q35" s="138"/>
+      <c r="R35" s="138"/>
+      <c r="S35" s="138"/>
+      <c r="T35" s="138"/>
+      <c r="U35" s="139"/>
+      <c r="V35" s="139"/>
+      <c r="W35" s="139"/>
+      <c r="X35" s="139"/>
+      <c r="Y35" s="139"/>
+      <c r="Z35" s="139"/>
+      <c r="AA35" s="139"/>
+      <c r="AB35" s="139"/>
+      <c r="AC35" s="139"/>
+      <c r="AD35" s="139"/>
+      <c r="AE35" s="139"/>
+      <c r="AF35" s="139"/>
+      <c r="AG35" s="139"/>
+      <c r="AH35" s="139"/>
+      <c r="AI35" s="139"/>
+      <c r="AJ35" s="139"/>
+      <c r="AK35" s="139"/>
+      <c r="AL35" s="139"/>
+      <c r="AM35" s="139"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
@@ -26665,86 +26675,86 @@
         <v>9</v>
       </c>
       <c r="D36" s="97"/>
-      <c r="E36" s="137" t="s">
-        <v>140</v>
-      </c>
-      <c r="F36" s="137"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="137"/>
-      <c r="K36" s="137"/>
-      <c r="L36" s="137"/>
-      <c r="M36" s="137"/>
-      <c r="N36" s="137"/>
-      <c r="O36" s="137"/>
-      <c r="P36" s="137"/>
-      <c r="Q36" s="137"/>
-      <c r="R36" s="137"/>
-      <c r="S36" s="137"/>
-      <c r="T36" s="137"/>
-      <c r="U36" s="138" t="s">
-        <v>141</v>
-      </c>
-      <c r="V36" s="138"/>
-      <c r="W36" s="138"/>
-      <c r="X36" s="138"/>
-      <c r="Y36" s="138"/>
-      <c r="Z36" s="138"/>
-      <c r="AA36" s="138"/>
-      <c r="AB36" s="138"/>
-      <c r="AC36" s="138"/>
-      <c r="AD36" s="138"/>
-      <c r="AE36" s="138"/>
-      <c r="AF36" s="138"/>
-      <c r="AG36" s="138"/>
-      <c r="AH36" s="138"/>
-      <c r="AI36" s="138"/>
-      <c r="AJ36" s="138"/>
-      <c r="AK36" s="138"/>
-      <c r="AL36" s="138"/>
-      <c r="AM36" s="138"/>
+      <c r="E36" s="138" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="138"/>
+      <c r="G36" s="138"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="138"/>
+      <c r="K36" s="138"/>
+      <c r="L36" s="138"/>
+      <c r="M36" s="138"/>
+      <c r="N36" s="138"/>
+      <c r="O36" s="138"/>
+      <c r="P36" s="138"/>
+      <c r="Q36" s="138"/>
+      <c r="R36" s="138"/>
+      <c r="S36" s="138"/>
+      <c r="T36" s="138"/>
+      <c r="U36" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="V36" s="139"/>
+      <c r="W36" s="139"/>
+      <c r="X36" s="139"/>
+      <c r="Y36" s="139"/>
+      <c r="Z36" s="139"/>
+      <c r="AA36" s="139"/>
+      <c r="AB36" s="139"/>
+      <c r="AC36" s="139"/>
+      <c r="AD36" s="139"/>
+      <c r="AE36" s="139"/>
+      <c r="AF36" s="139"/>
+      <c r="AG36" s="139"/>
+      <c r="AH36" s="139"/>
+      <c r="AI36" s="139"/>
+      <c r="AJ36" s="139"/>
+      <c r="AK36" s="139"/>
+      <c r="AL36" s="139"/>
+      <c r="AM36" s="139"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
       <c r="C37" s="97"/>
       <c r="D37" s="97"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="137"/>
-      <c r="J37" s="137"/>
-      <c r="K37" s="137"/>
-      <c r="L37" s="137"/>
-      <c r="M37" s="137"/>
-      <c r="N37" s="137"/>
-      <c r="O37" s="137"/>
-      <c r="P37" s="137"/>
-      <c r="Q37" s="137"/>
-      <c r="R37" s="137"/>
-      <c r="S37" s="137"/>
-      <c r="T37" s="137"/>
-      <c r="U37" s="138"/>
-      <c r="V37" s="138"/>
-      <c r="W37" s="138"/>
-      <c r="X37" s="138"/>
-      <c r="Y37" s="138"/>
-      <c r="Z37" s="138"/>
-      <c r="AA37" s="138"/>
-      <c r="AB37" s="138"/>
-      <c r="AC37" s="138"/>
-      <c r="AD37" s="138"/>
-      <c r="AE37" s="138"/>
-      <c r="AF37" s="138"/>
-      <c r="AG37" s="138"/>
-      <c r="AH37" s="138"/>
-      <c r="AI37" s="138"/>
-      <c r="AJ37" s="138"/>
-      <c r="AK37" s="138"/>
-      <c r="AL37" s="138"/>
-      <c r="AM37" s="138"/>
+      <c r="E37" s="138"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="138"/>
+      <c r="K37" s="138"/>
+      <c r="L37" s="138"/>
+      <c r="M37" s="138"/>
+      <c r="N37" s="138"/>
+      <c r="O37" s="138"/>
+      <c r="P37" s="138"/>
+      <c r="Q37" s="138"/>
+      <c r="R37" s="138"/>
+      <c r="S37" s="138"/>
+      <c r="T37" s="138"/>
+      <c r="U37" s="139"/>
+      <c r="V37" s="139"/>
+      <c r="W37" s="139"/>
+      <c r="X37" s="139"/>
+      <c r="Y37" s="139"/>
+      <c r="Z37" s="139"/>
+      <c r="AA37" s="139"/>
+      <c r="AB37" s="139"/>
+      <c r="AC37" s="139"/>
+      <c r="AD37" s="139"/>
+      <c r="AE37" s="139"/>
+      <c r="AF37" s="139"/>
+      <c r="AG37" s="139"/>
+      <c r="AH37" s="139"/>
+      <c r="AI37" s="139"/>
+      <c r="AJ37" s="139"/>
+      <c r="AK37" s="139"/>
+      <c r="AL37" s="139"/>
+      <c r="AM37" s="139"/>
     </row>
     <row r="38" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
@@ -26753,86 +26763,86 @@
         <v>10</v>
       </c>
       <c r="D38" s="97"/>
-      <c r="E38" s="137" t="s">
-        <v>142</v>
-      </c>
-      <c r="F38" s="137"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="137"/>
-      <c r="K38" s="137"/>
-      <c r="L38" s="137"/>
-      <c r="M38" s="137"/>
-      <c r="N38" s="137"/>
-      <c r="O38" s="137"/>
-      <c r="P38" s="137"/>
-      <c r="Q38" s="137"/>
-      <c r="R38" s="137"/>
-      <c r="S38" s="137"/>
-      <c r="T38" s="137"/>
-      <c r="U38" s="138" t="s">
-        <v>143</v>
-      </c>
-      <c r="V38" s="138"/>
-      <c r="W38" s="138"/>
-      <c r="X38" s="138"/>
-      <c r="Y38" s="138"/>
-      <c r="Z38" s="138"/>
-      <c r="AA38" s="138"/>
-      <c r="AB38" s="138"/>
-      <c r="AC38" s="138"/>
-      <c r="AD38" s="138"/>
-      <c r="AE38" s="138"/>
-      <c r="AF38" s="138"/>
-      <c r="AG38" s="138"/>
-      <c r="AH38" s="138"/>
-      <c r="AI38" s="138"/>
-      <c r="AJ38" s="138"/>
-      <c r="AK38" s="138"/>
-      <c r="AL38" s="138"/>
-      <c r="AM38" s="138"/>
+      <c r="E38" s="138" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="138"/>
+      <c r="G38" s="138"/>
+      <c r="H38" s="138"/>
+      <c r="I38" s="138"/>
+      <c r="J38" s="138"/>
+      <c r="K38" s="138"/>
+      <c r="L38" s="138"/>
+      <c r="M38" s="138"/>
+      <c r="N38" s="138"/>
+      <c r="O38" s="138"/>
+      <c r="P38" s="138"/>
+      <c r="Q38" s="138"/>
+      <c r="R38" s="138"/>
+      <c r="S38" s="138"/>
+      <c r="T38" s="138"/>
+      <c r="U38" s="139" t="s">
+        <v>145</v>
+      </c>
+      <c r="V38" s="139"/>
+      <c r="W38" s="139"/>
+      <c r="X38" s="139"/>
+      <c r="Y38" s="139"/>
+      <c r="Z38" s="139"/>
+      <c r="AA38" s="139"/>
+      <c r="AB38" s="139"/>
+      <c r="AC38" s="139"/>
+      <c r="AD38" s="139"/>
+      <c r="AE38" s="139"/>
+      <c r="AF38" s="139"/>
+      <c r="AG38" s="139"/>
+      <c r="AH38" s="139"/>
+      <c r="AI38" s="139"/>
+      <c r="AJ38" s="139"/>
+      <c r="AK38" s="139"/>
+      <c r="AL38" s="139"/>
+      <c r="AM38" s="139"/>
     </row>
     <row r="39" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
       <c r="C39" s="97"/>
       <c r="D39" s="97"/>
-      <c r="E39" s="137"/>
-      <c r="F39" s="137"/>
-      <c r="G39" s="137"/>
-      <c r="H39" s="137"/>
-      <c r="I39" s="137"/>
-      <c r="J39" s="137"/>
-      <c r="K39" s="137"/>
-      <c r="L39" s="137"/>
-      <c r="M39" s="137"/>
-      <c r="N39" s="137"/>
-      <c r="O39" s="137"/>
-      <c r="P39" s="137"/>
-      <c r="Q39" s="137"/>
-      <c r="R39" s="137"/>
-      <c r="S39" s="137"/>
-      <c r="T39" s="137"/>
-      <c r="U39" s="138"/>
-      <c r="V39" s="138"/>
-      <c r="W39" s="138"/>
-      <c r="X39" s="138"/>
-      <c r="Y39" s="138"/>
-      <c r="Z39" s="138"/>
-      <c r="AA39" s="138"/>
-      <c r="AB39" s="138"/>
-      <c r="AC39" s="138"/>
-      <c r="AD39" s="138"/>
-      <c r="AE39" s="138"/>
-      <c r="AF39" s="138"/>
-      <c r="AG39" s="138"/>
-      <c r="AH39" s="138"/>
-      <c r="AI39" s="138"/>
-      <c r="AJ39" s="138"/>
-      <c r="AK39" s="138"/>
-      <c r="AL39" s="138"/>
-      <c r="AM39" s="138"/>
+      <c r="E39" s="138"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="138"/>
+      <c r="J39" s="138"/>
+      <c r="K39" s="138"/>
+      <c r="L39" s="138"/>
+      <c r="M39" s="138"/>
+      <c r="N39" s="138"/>
+      <c r="O39" s="138"/>
+      <c r="P39" s="138"/>
+      <c r="Q39" s="138"/>
+      <c r="R39" s="138"/>
+      <c r="S39" s="138"/>
+      <c r="T39" s="138"/>
+      <c r="U39" s="139"/>
+      <c r="V39" s="139"/>
+      <c r="W39" s="139"/>
+      <c r="X39" s="139"/>
+      <c r="Y39" s="139"/>
+      <c r="Z39" s="139"/>
+      <c r="AA39" s="139"/>
+      <c r="AB39" s="139"/>
+      <c r="AC39" s="139"/>
+      <c r="AD39" s="139"/>
+      <c r="AE39" s="139"/>
+      <c r="AF39" s="139"/>
+      <c r="AG39" s="139"/>
+      <c r="AH39" s="139"/>
+      <c r="AI39" s="139"/>
+      <c r="AJ39" s="139"/>
+      <c r="AK39" s="139"/>
+      <c r="AL39" s="139"/>
+      <c r="AM39" s="139"/>
     </row>
     <row r="40" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
@@ -26841,45 +26851,45 @@
         <v>11</v>
       </c>
       <c r="D40" s="97"/>
-      <c r="E40" s="137" t="s">
-        <v>144</v>
-      </c>
-      <c r="F40" s="137"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="137"/>
-      <c r="J40" s="137"/>
-      <c r="K40" s="137"/>
-      <c r="L40" s="137"/>
-      <c r="M40" s="137"/>
-      <c r="N40" s="137"/>
-      <c r="O40" s="137"/>
-      <c r="P40" s="137"/>
-      <c r="Q40" s="137"/>
-      <c r="R40" s="137"/>
-      <c r="S40" s="137"/>
-      <c r="T40" s="137"/>
-      <c r="U40" s="138" t="s">
-        <v>145</v>
-      </c>
-      <c r="V40" s="138"/>
-      <c r="W40" s="138"/>
-      <c r="X40" s="138"/>
-      <c r="Y40" s="138"/>
-      <c r="Z40" s="138"/>
-      <c r="AA40" s="138"/>
-      <c r="AB40" s="138"/>
-      <c r="AC40" s="138"/>
-      <c r="AD40" s="138"/>
-      <c r="AE40" s="138"/>
-      <c r="AF40" s="138"/>
-      <c r="AG40" s="138"/>
-      <c r="AH40" s="138"/>
-      <c r="AI40" s="138"/>
-      <c r="AJ40" s="138"/>
-      <c r="AK40" s="138"/>
-      <c r="AL40" s="138"/>
-      <c r="AM40" s="138"/>
+      <c r="E40" s="138" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" s="138"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="138"/>
+      <c r="J40" s="138"/>
+      <c r="K40" s="138"/>
+      <c r="L40" s="138"/>
+      <c r="M40" s="138"/>
+      <c r="N40" s="138"/>
+      <c r="O40" s="138"/>
+      <c r="P40" s="138"/>
+      <c r="Q40" s="138"/>
+      <c r="R40" s="138"/>
+      <c r="S40" s="138"/>
+      <c r="T40" s="138"/>
+      <c r="U40" s="139" t="s">
+        <v>147</v>
+      </c>
+      <c r="V40" s="139"/>
+      <c r="W40" s="139"/>
+      <c r="X40" s="139"/>
+      <c r="Y40" s="139"/>
+      <c r="Z40" s="139"/>
+      <c r="AA40" s="139"/>
+      <c r="AB40" s="139"/>
+      <c r="AC40" s="139"/>
+      <c r="AD40" s="139"/>
+      <c r="AE40" s="139"/>
+      <c r="AF40" s="139"/>
+      <c r="AG40" s="139"/>
+      <c r="AH40" s="139"/>
+      <c r="AI40" s="139"/>
+      <c r="AJ40" s="139"/>
+      <c r="AK40" s="139"/>
+      <c r="AL40" s="139"/>
+      <c r="AM40" s="139"/>
     </row>
     <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
@@ -26888,41 +26898,41 @@
       <c r="B41" s="50"/>
       <c r="C41" s="97"/>
       <c r="D41" s="97"/>
-      <c r="E41" s="137"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="137"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="137"/>
-      <c r="J41" s="137"/>
-      <c r="K41" s="137"/>
-      <c r="L41" s="137"/>
-      <c r="M41" s="137"/>
-      <c r="N41" s="137"/>
-      <c r="O41" s="137"/>
-      <c r="P41" s="137"/>
-      <c r="Q41" s="137"/>
-      <c r="R41" s="137"/>
-      <c r="S41" s="137"/>
-      <c r="T41" s="137"/>
-      <c r="U41" s="138"/>
-      <c r="V41" s="138"/>
-      <c r="W41" s="138"/>
-      <c r="X41" s="138"/>
-      <c r="Y41" s="138"/>
-      <c r="Z41" s="138"/>
-      <c r="AA41" s="138"/>
-      <c r="AB41" s="138"/>
-      <c r="AC41" s="138"/>
-      <c r="AD41" s="138"/>
-      <c r="AE41" s="138"/>
-      <c r="AF41" s="138"/>
-      <c r="AG41" s="138"/>
-      <c r="AH41" s="138"/>
-      <c r="AI41" s="138"/>
-      <c r="AJ41" s="138"/>
-      <c r="AK41" s="138"/>
-      <c r="AL41" s="138"/>
-      <c r="AM41" s="138"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="138"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="138"/>
+      <c r="K41" s="138"/>
+      <c r="L41" s="138"/>
+      <c r="M41" s="138"/>
+      <c r="N41" s="138"/>
+      <c r="O41" s="138"/>
+      <c r="P41" s="138"/>
+      <c r="Q41" s="138"/>
+      <c r="R41" s="138"/>
+      <c r="S41" s="138"/>
+      <c r="T41" s="138"/>
+      <c r="U41" s="139"/>
+      <c r="V41" s="139"/>
+      <c r="W41" s="139"/>
+      <c r="X41" s="139"/>
+      <c r="Y41" s="139"/>
+      <c r="Z41" s="139"/>
+      <c r="AA41" s="139"/>
+      <c r="AB41" s="139"/>
+      <c r="AC41" s="139"/>
+      <c r="AD41" s="139"/>
+      <c r="AE41" s="139"/>
+      <c r="AF41" s="139"/>
+      <c r="AG41" s="139"/>
+      <c r="AH41" s="139"/>
+      <c r="AI41" s="139"/>
+      <c r="AJ41" s="139"/>
+      <c r="AK41" s="139"/>
+      <c r="AL41" s="139"/>
+      <c r="AM41" s="139"/>
     </row>
     <row r="42" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49"/>
@@ -26931,39 +26941,39 @@
         <v>12</v>
       </c>
       <c r="D42" s="97"/>
-      <c r="E42" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
-      <c r="J42" s="137"/>
-      <c r="K42" s="137"/>
-      <c r="L42" s="137"/>
-      <c r="M42" s="137"/>
-      <c r="N42" s="137"/>
-      <c r="O42" s="137"/>
-      <c r="P42" s="137"/>
-      <c r="Q42" s="137"/>
-      <c r="R42" s="137"/>
-      <c r="S42" s="137"/>
-      <c r="T42" s="137"/>
-      <c r="U42" s="138" t="s">
-        <v>147</v>
-      </c>
-      <c r="V42" s="138"/>
-      <c r="W42" s="138"/>
-      <c r="X42" s="138"/>
-      <c r="Y42" s="138"/>
-      <c r="Z42" s="138"/>
-      <c r="AA42" s="138"/>
-      <c r="AB42" s="138"/>
-      <c r="AC42" s="138"/>
-      <c r="AD42" s="138"/>
-      <c r="AE42" s="138"/>
+      <c r="E42" s="138" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" s="138"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="138"/>
+      <c r="I42" s="138"/>
+      <c r="J42" s="138"/>
+      <c r="K42" s="138"/>
+      <c r="L42" s="138"/>
+      <c r="M42" s="138"/>
+      <c r="N42" s="138"/>
+      <c r="O42" s="138"/>
+      <c r="P42" s="138"/>
+      <c r="Q42" s="138"/>
+      <c r="R42" s="138"/>
+      <c r="S42" s="138"/>
+      <c r="T42" s="138"/>
+      <c r="U42" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="V42" s="139"/>
+      <c r="W42" s="139"/>
+      <c r="X42" s="139"/>
+      <c r="Y42" s="139"/>
+      <c r="Z42" s="139"/>
+      <c r="AA42" s="139"/>
+      <c r="AB42" s="139"/>
+      <c r="AC42" s="139"/>
+      <c r="AD42" s="139"/>
+      <c r="AE42" s="139"/>
       <c r="AF42" s="97" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AG42" s="97"/>
       <c r="AH42" s="97"/>
@@ -26973,38 +26983,38 @@
       <c r="AL42" s="97"/>
       <c r="AM42" s="97"/>
     </row>
-    <row r="43" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="49"/>
       <c r="B43" s="50"/>
       <c r="C43" s="97"/>
       <c r="D43" s="97"/>
-      <c r="E43" s="137"/>
-      <c r="F43" s="137"/>
-      <c r="G43" s="137"/>
-      <c r="H43" s="137"/>
-      <c r="I43" s="137"/>
-      <c r="J43" s="137"/>
-      <c r="K43" s="137"/>
-      <c r="L43" s="137"/>
-      <c r="M43" s="137"/>
-      <c r="N43" s="137"/>
-      <c r="O43" s="137"/>
-      <c r="P43" s="137"/>
-      <c r="Q43" s="137"/>
-      <c r="R43" s="137"/>
-      <c r="S43" s="137"/>
-      <c r="T43" s="137"/>
-      <c r="U43" s="138"/>
-      <c r="V43" s="138"/>
-      <c r="W43" s="138"/>
-      <c r="X43" s="138"/>
-      <c r="Y43" s="138"/>
-      <c r="Z43" s="138"/>
-      <c r="AA43" s="138"/>
-      <c r="AB43" s="138"/>
-      <c r="AC43" s="138"/>
-      <c r="AD43" s="138"/>
-      <c r="AE43" s="138"/>
+      <c r="E43" s="138"/>
+      <c r="F43" s="138"/>
+      <c r="G43" s="138"/>
+      <c r="H43" s="138"/>
+      <c r="I43" s="138"/>
+      <c r="J43" s="138"/>
+      <c r="K43" s="138"/>
+      <c r="L43" s="138"/>
+      <c r="M43" s="138"/>
+      <c r="N43" s="138"/>
+      <c r="O43" s="138"/>
+      <c r="P43" s="138"/>
+      <c r="Q43" s="138"/>
+      <c r="R43" s="138"/>
+      <c r="S43" s="138"/>
+      <c r="T43" s="138"/>
+      <c r="U43" s="139"/>
+      <c r="V43" s="139"/>
+      <c r="W43" s="139"/>
+      <c r="X43" s="139"/>
+      <c r="Y43" s="139"/>
+      <c r="Z43" s="139"/>
+      <c r="AA43" s="139"/>
+      <c r="AB43" s="139"/>
+      <c r="AC43" s="139"/>
+      <c r="AD43" s="139"/>
+      <c r="AE43" s="139"/>
       <c r="AF43" s="97"/>
       <c r="AG43" s="97"/>
       <c r="AH43" s="97"/>
@@ -27021,39 +27031,39 @@
         <v>13</v>
       </c>
       <c r="D44" s="97"/>
-      <c r="E44" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="F44" s="137"/>
-      <c r="G44" s="137"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="137"/>
-      <c r="J44" s="137"/>
-      <c r="K44" s="137"/>
-      <c r="L44" s="137"/>
-      <c r="M44" s="137"/>
-      <c r="N44" s="137"/>
-      <c r="O44" s="137"/>
-      <c r="P44" s="137"/>
-      <c r="Q44" s="137"/>
-      <c r="R44" s="137"/>
-      <c r="S44" s="137"/>
-      <c r="T44" s="137"/>
-      <c r="U44" s="138" t="s">
-        <v>149</v>
-      </c>
-      <c r="V44" s="138"/>
-      <c r="W44" s="138"/>
-      <c r="X44" s="138"/>
-      <c r="Y44" s="138"/>
-      <c r="Z44" s="138"/>
-      <c r="AA44" s="138"/>
-      <c r="AB44" s="138"/>
-      <c r="AC44" s="138"/>
-      <c r="AD44" s="138"/>
-      <c r="AE44" s="138"/>
+      <c r="E44" s="138" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44" s="138"/>
+      <c r="G44" s="138"/>
+      <c r="H44" s="138"/>
+      <c r="I44" s="138"/>
+      <c r="J44" s="138"/>
+      <c r="K44" s="138"/>
+      <c r="L44" s="138"/>
+      <c r="M44" s="138"/>
+      <c r="N44" s="138"/>
+      <c r="O44" s="138"/>
+      <c r="P44" s="138"/>
+      <c r="Q44" s="138"/>
+      <c r="R44" s="138"/>
+      <c r="S44" s="138"/>
+      <c r="T44" s="138"/>
+      <c r="U44" s="139" t="s">
+        <v>151</v>
+      </c>
+      <c r="V44" s="139"/>
+      <c r="W44" s="139"/>
+      <c r="X44" s="139"/>
+      <c r="Y44" s="139"/>
+      <c r="Z44" s="139"/>
+      <c r="AA44" s="139"/>
+      <c r="AB44" s="139"/>
+      <c r="AC44" s="139"/>
+      <c r="AD44" s="139"/>
+      <c r="AE44" s="139"/>
       <c r="AF44" s="97" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG44" s="97"/>
       <c r="AH44" s="97"/>
@@ -27068,33 +27078,33 @@
       <c r="B45" s="50"/>
       <c r="C45" s="97"/>
       <c r="D45" s="97"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="137"/>
-      <c r="J45" s="137"/>
-      <c r="K45" s="137"/>
-      <c r="L45" s="137"/>
-      <c r="M45" s="137"/>
-      <c r="N45" s="137"/>
-      <c r="O45" s="137"/>
-      <c r="P45" s="137"/>
-      <c r="Q45" s="137"/>
-      <c r="R45" s="137"/>
-      <c r="S45" s="137"/>
-      <c r="T45" s="137"/>
-      <c r="U45" s="138"/>
-      <c r="V45" s="138"/>
-      <c r="W45" s="138"/>
-      <c r="X45" s="138"/>
-      <c r="Y45" s="138"/>
-      <c r="Z45" s="138"/>
-      <c r="AA45" s="138"/>
-      <c r="AB45" s="138"/>
-      <c r="AC45" s="138"/>
-      <c r="AD45" s="138"/>
-      <c r="AE45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="138"/>
+      <c r="G45" s="138"/>
+      <c r="H45" s="138"/>
+      <c r="I45" s="138"/>
+      <c r="J45" s="138"/>
+      <c r="K45" s="138"/>
+      <c r="L45" s="138"/>
+      <c r="M45" s="138"/>
+      <c r="N45" s="138"/>
+      <c r="O45" s="138"/>
+      <c r="P45" s="138"/>
+      <c r="Q45" s="138"/>
+      <c r="R45" s="138"/>
+      <c r="S45" s="138"/>
+      <c r="T45" s="138"/>
+      <c r="U45" s="139"/>
+      <c r="V45" s="139"/>
+      <c r="W45" s="139"/>
+      <c r="X45" s="139"/>
+      <c r="Y45" s="139"/>
+      <c r="Z45" s="139"/>
+      <c r="AA45" s="139"/>
+      <c r="AB45" s="139"/>
+      <c r="AC45" s="139"/>
+      <c r="AD45" s="139"/>
+      <c r="AE45" s="139"/>
       <c r="AF45" s="97"/>
       <c r="AG45" s="97"/>
       <c r="AH45" s="97"/>
@@ -27113,39 +27123,39 @@
         <v>14</v>
       </c>
       <c r="D46" s="97"/>
-      <c r="E46" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="137"/>
-      <c r="J46" s="137"/>
-      <c r="K46" s="137"/>
-      <c r="L46" s="137"/>
-      <c r="M46" s="137"/>
-      <c r="N46" s="137"/>
-      <c r="O46" s="137"/>
-      <c r="P46" s="137"/>
-      <c r="Q46" s="137"/>
-      <c r="R46" s="137"/>
-      <c r="S46" s="137"/>
-      <c r="T46" s="137"/>
-      <c r="U46" s="138" t="s">
-        <v>151</v>
-      </c>
-      <c r="V46" s="138"/>
-      <c r="W46" s="138"/>
-      <c r="X46" s="138"/>
-      <c r="Y46" s="138"/>
-      <c r="Z46" s="138"/>
-      <c r="AA46" s="138"/>
-      <c r="AB46" s="138"/>
-      <c r="AC46" s="138"/>
-      <c r="AD46" s="138"/>
-      <c r="AE46" s="138"/>
+      <c r="E46" s="138" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="138"/>
+      <c r="G46" s="138"/>
+      <c r="H46" s="138"/>
+      <c r="I46" s="138"/>
+      <c r="J46" s="138"/>
+      <c r="K46" s="138"/>
+      <c r="L46" s="138"/>
+      <c r="M46" s="138"/>
+      <c r="N46" s="138"/>
+      <c r="O46" s="138"/>
+      <c r="P46" s="138"/>
+      <c r="Q46" s="138"/>
+      <c r="R46" s="138"/>
+      <c r="S46" s="138"/>
+      <c r="T46" s="138"/>
+      <c r="U46" s="139" t="s">
+        <v>153</v>
+      </c>
+      <c r="V46" s="139"/>
+      <c r="W46" s="139"/>
+      <c r="X46" s="139"/>
+      <c r="Y46" s="139"/>
+      <c r="Z46" s="139"/>
+      <c r="AA46" s="139"/>
+      <c r="AB46" s="139"/>
+      <c r="AC46" s="139"/>
+      <c r="AD46" s="139"/>
+      <c r="AE46" s="139"/>
       <c r="AF46" s="97" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AG46" s="97"/>
       <c r="AH46" s="97"/>
@@ -27160,33 +27170,33 @@
       <c r="B47" s="50"/>
       <c r="C47" s="97"/>
       <c r="D47" s="97"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="137"/>
-      <c r="I47" s="137"/>
-      <c r="J47" s="137"/>
-      <c r="K47" s="137"/>
-      <c r="L47" s="137"/>
-      <c r="M47" s="137"/>
-      <c r="N47" s="137"/>
-      <c r="O47" s="137"/>
-      <c r="P47" s="137"/>
-      <c r="Q47" s="137"/>
-      <c r="R47" s="137"/>
-      <c r="S47" s="137"/>
-      <c r="T47" s="137"/>
-      <c r="U47" s="138"/>
-      <c r="V47" s="138"/>
-      <c r="W47" s="138"/>
-      <c r="X47" s="138"/>
-      <c r="Y47" s="138"/>
-      <c r="Z47" s="138"/>
-      <c r="AA47" s="138"/>
-      <c r="AB47" s="138"/>
-      <c r="AC47" s="138"/>
-      <c r="AD47" s="138"/>
-      <c r="AE47" s="138"/>
+      <c r="E47" s="138"/>
+      <c r="F47" s="138"/>
+      <c r="G47" s="138"/>
+      <c r="H47" s="138"/>
+      <c r="I47" s="138"/>
+      <c r="J47" s="138"/>
+      <c r="K47" s="138"/>
+      <c r="L47" s="138"/>
+      <c r="M47" s="138"/>
+      <c r="N47" s="138"/>
+      <c r="O47" s="138"/>
+      <c r="P47" s="138"/>
+      <c r="Q47" s="138"/>
+      <c r="R47" s="138"/>
+      <c r="S47" s="138"/>
+      <c r="T47" s="138"/>
+      <c r="U47" s="139"/>
+      <c r="V47" s="139"/>
+      <c r="W47" s="139"/>
+      <c r="X47" s="139"/>
+      <c r="Y47" s="139"/>
+      <c r="Z47" s="139"/>
+      <c r="AA47" s="139"/>
+      <c r="AB47" s="139"/>
+      <c r="AC47" s="139"/>
+      <c r="AD47" s="139"/>
+      <c r="AE47" s="139"/>
       <c r="AF47" s="97"/>
       <c r="AG47" s="97"/>
       <c r="AH47" s="97"/>
@@ -27203,39 +27213,39 @@
         <v>15</v>
       </c>
       <c r="D48" s="97"/>
-      <c r="E48" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="137"/>
-      <c r="J48" s="137"/>
-      <c r="K48" s="137"/>
-      <c r="L48" s="137"/>
-      <c r="M48" s="137"/>
-      <c r="N48" s="137"/>
-      <c r="O48" s="137"/>
-      <c r="P48" s="137"/>
-      <c r="Q48" s="137"/>
-      <c r="R48" s="137"/>
-      <c r="S48" s="137"/>
-      <c r="T48" s="137"/>
-      <c r="U48" s="139" t="s">
-        <v>153</v>
-      </c>
-      <c r="V48" s="139"/>
-      <c r="W48" s="139"/>
-      <c r="X48" s="139"/>
-      <c r="Y48" s="139"/>
-      <c r="Z48" s="139"/>
-      <c r="AA48" s="139"/>
-      <c r="AB48" s="139"/>
-      <c r="AC48" s="139"/>
-      <c r="AD48" s="139"/>
-      <c r="AE48" s="139"/>
+      <c r="E48" s="138" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="138"/>
+      <c r="G48" s="138"/>
+      <c r="H48" s="138"/>
+      <c r="I48" s="138"/>
+      <c r="J48" s="138"/>
+      <c r="K48" s="138"/>
+      <c r="L48" s="138"/>
+      <c r="M48" s="138"/>
+      <c r="N48" s="138"/>
+      <c r="O48" s="138"/>
+      <c r="P48" s="138"/>
+      <c r="Q48" s="138"/>
+      <c r="R48" s="138"/>
+      <c r="S48" s="138"/>
+      <c r="T48" s="138"/>
+      <c r="U48" s="140" t="s">
+        <v>155</v>
+      </c>
+      <c r="V48" s="140"/>
+      <c r="W48" s="140"/>
+      <c r="X48" s="140"/>
+      <c r="Y48" s="140"/>
+      <c r="Z48" s="140"/>
+      <c r="AA48" s="140"/>
+      <c r="AB48" s="140"/>
+      <c r="AC48" s="140"/>
+      <c r="AD48" s="140"/>
+      <c r="AE48" s="140"/>
       <c r="AF48" s="97" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG48" s="97"/>
       <c r="AH48" s="97"/>
@@ -27250,33 +27260,33 @@
       <c r="B49" s="50"/>
       <c r="C49" s="97"/>
       <c r="D49" s="97"/>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="137"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="137"/>
-      <c r="J49" s="137"/>
-      <c r="K49" s="137"/>
-      <c r="L49" s="137"/>
-      <c r="M49" s="137"/>
-      <c r="N49" s="137"/>
-      <c r="O49" s="137"/>
-      <c r="P49" s="137"/>
-      <c r="Q49" s="137"/>
-      <c r="R49" s="137"/>
-      <c r="S49" s="137"/>
-      <c r="T49" s="137"/>
-      <c r="U49" s="139"/>
-      <c r="V49" s="139"/>
-      <c r="W49" s="139"/>
-      <c r="X49" s="139"/>
-      <c r="Y49" s="139"/>
-      <c r="Z49" s="139"/>
-      <c r="AA49" s="139"/>
-      <c r="AB49" s="139"/>
-      <c r="AC49" s="139"/>
-      <c r="AD49" s="139"/>
-      <c r="AE49" s="139"/>
+      <c r="E49" s="138"/>
+      <c r="F49" s="138"/>
+      <c r="G49" s="138"/>
+      <c r="H49" s="138"/>
+      <c r="I49" s="138"/>
+      <c r="J49" s="138"/>
+      <c r="K49" s="138"/>
+      <c r="L49" s="138"/>
+      <c r="M49" s="138"/>
+      <c r="N49" s="138"/>
+      <c r="O49" s="138"/>
+      <c r="P49" s="138"/>
+      <c r="Q49" s="138"/>
+      <c r="R49" s="138"/>
+      <c r="S49" s="138"/>
+      <c r="T49" s="138"/>
+      <c r="U49" s="140"/>
+      <c r="V49" s="140"/>
+      <c r="W49" s="140"/>
+      <c r="X49" s="140"/>
+      <c r="Y49" s="140"/>
+      <c r="Z49" s="140"/>
+      <c r="AA49" s="140"/>
+      <c r="AB49" s="140"/>
+      <c r="AC49" s="140"/>
+      <c r="AD49" s="140"/>
+      <c r="AE49" s="140"/>
       <c r="AF49" s="97"/>
       <c r="AG49" s="97"/>
       <c r="AH49" s="97"/>
@@ -27291,33 +27301,33 @@
       <c r="B50" s="50"/>
       <c r="C50" s="97"/>
       <c r="D50" s="97"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137"/>
-      <c r="J50" s="137"/>
-      <c r="K50" s="137"/>
-      <c r="L50" s="137"/>
-      <c r="M50" s="137"/>
-      <c r="N50" s="137"/>
-      <c r="O50" s="137"/>
-      <c r="P50" s="137"/>
-      <c r="Q50" s="137"/>
-      <c r="R50" s="137"/>
-      <c r="S50" s="137"/>
-      <c r="T50" s="137"/>
-      <c r="U50" s="139"/>
-      <c r="V50" s="139"/>
-      <c r="W50" s="139"/>
-      <c r="X50" s="139"/>
-      <c r="Y50" s="139"/>
-      <c r="Z50" s="139"/>
-      <c r="AA50" s="139"/>
-      <c r="AB50" s="139"/>
-      <c r="AC50" s="139"/>
-      <c r="AD50" s="139"/>
-      <c r="AE50" s="139"/>
+      <c r="E50" s="138"/>
+      <c r="F50" s="138"/>
+      <c r="G50" s="138"/>
+      <c r="H50" s="138"/>
+      <c r="I50" s="138"/>
+      <c r="J50" s="138"/>
+      <c r="K50" s="138"/>
+      <c r="L50" s="138"/>
+      <c r="M50" s="138"/>
+      <c r="N50" s="138"/>
+      <c r="O50" s="138"/>
+      <c r="P50" s="138"/>
+      <c r="Q50" s="138"/>
+      <c r="R50" s="138"/>
+      <c r="S50" s="138"/>
+      <c r="T50" s="138"/>
+      <c r="U50" s="140"/>
+      <c r="V50" s="140"/>
+      <c r="W50" s="140"/>
+      <c r="X50" s="140"/>
+      <c r="Y50" s="140"/>
+      <c r="Z50" s="140"/>
+      <c r="AA50" s="140"/>
+      <c r="AB50" s="140"/>
+      <c r="AC50" s="140"/>
+      <c r="AD50" s="140"/>
+      <c r="AE50" s="140"/>
       <c r="AF50" s="97"/>
       <c r="AG50" s="97"/>
       <c r="AH50" s="97"/>
@@ -27334,39 +27344,39 @@
         <v>16</v>
       </c>
       <c r="D51" s="97"/>
-      <c r="E51" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="F51" s="137"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="137"/>
-      <c r="I51" s="137"/>
-      <c r="J51" s="137"/>
-      <c r="K51" s="137"/>
-      <c r="L51" s="137"/>
-      <c r="M51" s="137"/>
-      <c r="N51" s="137"/>
-      <c r="O51" s="137"/>
-      <c r="P51" s="137"/>
-      <c r="Q51" s="137"/>
-      <c r="R51" s="137"/>
-      <c r="S51" s="137"/>
-      <c r="T51" s="137"/>
-      <c r="U51" s="138" t="s">
-        <v>155</v>
-      </c>
-      <c r="V51" s="138"/>
-      <c r="W51" s="138"/>
-      <c r="X51" s="138"/>
-      <c r="Y51" s="138"/>
-      <c r="Z51" s="138"/>
-      <c r="AA51" s="138"/>
-      <c r="AB51" s="138"/>
-      <c r="AC51" s="138"/>
-      <c r="AD51" s="138"/>
-      <c r="AE51" s="138"/>
+      <c r="E51" s="138" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="138"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="138"/>
+      <c r="I51" s="138"/>
+      <c r="J51" s="138"/>
+      <c r="K51" s="138"/>
+      <c r="L51" s="138"/>
+      <c r="M51" s="138"/>
+      <c r="N51" s="138"/>
+      <c r="O51" s="138"/>
+      <c r="P51" s="138"/>
+      <c r="Q51" s="138"/>
+      <c r="R51" s="138"/>
+      <c r="S51" s="138"/>
+      <c r="T51" s="138"/>
+      <c r="U51" s="139" t="s">
+        <v>157</v>
+      </c>
+      <c r="V51" s="139"/>
+      <c r="W51" s="139"/>
+      <c r="X51" s="139"/>
+      <c r="Y51" s="139"/>
+      <c r="Z51" s="139"/>
+      <c r="AA51" s="139"/>
+      <c r="AB51" s="139"/>
+      <c r="AC51" s="139"/>
+      <c r="AD51" s="139"/>
+      <c r="AE51" s="139"/>
       <c r="AF51" s="97" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AG51" s="97"/>
       <c r="AH51" s="97"/>
@@ -27381,33 +27391,33 @@
       <c r="B52" s="50"/>
       <c r="C52" s="97"/>
       <c r="D52" s="97"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="137"/>
-      <c r="J52" s="137"/>
-      <c r="K52" s="137"/>
-      <c r="L52" s="137"/>
-      <c r="M52" s="137"/>
-      <c r="N52" s="137"/>
-      <c r="O52" s="137"/>
-      <c r="P52" s="137"/>
-      <c r="Q52" s="137"/>
-      <c r="R52" s="137"/>
-      <c r="S52" s="137"/>
-      <c r="T52" s="137"/>
-      <c r="U52" s="138"/>
-      <c r="V52" s="138"/>
-      <c r="W52" s="138"/>
-      <c r="X52" s="138"/>
-      <c r="Y52" s="138"/>
-      <c r="Z52" s="138"/>
-      <c r="AA52" s="138"/>
-      <c r="AB52" s="138"/>
-      <c r="AC52" s="138"/>
-      <c r="AD52" s="138"/>
-      <c r="AE52" s="138"/>
+      <c r="E52" s="138"/>
+      <c r="F52" s="138"/>
+      <c r="G52" s="138"/>
+      <c r="H52" s="138"/>
+      <c r="I52" s="138"/>
+      <c r="J52" s="138"/>
+      <c r="K52" s="138"/>
+      <c r="L52" s="138"/>
+      <c r="M52" s="138"/>
+      <c r="N52" s="138"/>
+      <c r="O52" s="138"/>
+      <c r="P52" s="138"/>
+      <c r="Q52" s="138"/>
+      <c r="R52" s="138"/>
+      <c r="S52" s="138"/>
+      <c r="T52" s="138"/>
+      <c r="U52" s="139"/>
+      <c r="V52" s="139"/>
+      <c r="W52" s="139"/>
+      <c r="X52" s="139"/>
+      <c r="Y52" s="139"/>
+      <c r="Z52" s="139"/>
+      <c r="AA52" s="139"/>
+      <c r="AB52" s="139"/>
+      <c r="AC52" s="139"/>
+      <c r="AD52" s="139"/>
+      <c r="AE52" s="139"/>
       <c r="AF52" s="97"/>
       <c r="AG52" s="97"/>
       <c r="AH52" s="97"/>
@@ -27422,40 +27432,40 @@
         <v>16</v>
       </c>
       <c r="B53" s="55"/>
-      <c r="C53" s="140"/>
+      <c r="C53" s="141"/>
       <c r="D53" s="19"/>
-      <c r="E53" s="141"/>
-      <c r="F53" s="141"/>
-      <c r="G53" s="141"/>
-      <c r="H53" s="141"/>
-      <c r="I53" s="141"/>
-      <c r="J53" s="141"/>
-      <c r="K53" s="141"/>
-      <c r="L53" s="141"/>
-      <c r="M53" s="141"/>
-      <c r="N53" s="141"/>
-      <c r="O53" s="141"/>
-      <c r="P53" s="141"/>
-      <c r="Q53" s="141"/>
-      <c r="R53" s="141"/>
-      <c r="S53" s="141"/>
-      <c r="T53" s="141"/>
-      <c r="U53" s="141"/>
-      <c r="V53" s="141"/>
-      <c r="W53" s="141"/>
-      <c r="X53" s="141"/>
-      <c r="Y53" s="141"/>
-      <c r="Z53" s="141"/>
-      <c r="AA53" s="141"/>
-      <c r="AB53" s="141"/>
-      <c r="AC53" s="141"/>
-      <c r="AD53" s="141"/>
-      <c r="AE53" s="141"/>
-      <c r="AF53" s="141"/>
-      <c r="AG53" s="141"/>
-      <c r="AH53" s="141"/>
-      <c r="AI53" s="141"/>
-      <c r="AJ53" s="141"/>
+      <c r="E53" s="142"/>
+      <c r="F53" s="142"/>
+      <c r="G53" s="142"/>
+      <c r="H53" s="142"/>
+      <c r="I53" s="142"/>
+      <c r="J53" s="142"/>
+      <c r="K53" s="142"/>
+      <c r="L53" s="142"/>
+      <c r="M53" s="142"/>
+      <c r="N53" s="142"/>
+      <c r="O53" s="142"/>
+      <c r="P53" s="142"/>
+      <c r="Q53" s="142"/>
+      <c r="R53" s="142"/>
+      <c r="S53" s="142"/>
+      <c r="T53" s="142"/>
+      <c r="U53" s="142"/>
+      <c r="V53" s="142"/>
+      <c r="W53" s="142"/>
+      <c r="X53" s="142"/>
+      <c r="Y53" s="142"/>
+      <c r="Z53" s="142"/>
+      <c r="AA53" s="142"/>
+      <c r="AB53" s="142"/>
+      <c r="AC53" s="142"/>
+      <c r="AD53" s="142"/>
+      <c r="AE53" s="142"/>
+      <c r="AF53" s="142"/>
+      <c r="AG53" s="142"/>
+      <c r="AH53" s="142"/>
+      <c r="AI53" s="142"/>
+      <c r="AJ53" s="142"/>
       <c r="AK53" s="23"/>
       <c r="AL53" s="6"/>
       <c r="AM53" s="41"/>
@@ -27647,9 +27657,10 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="90">
+  <mergeCells count="91">
     <mergeCell ref="D2:AL3"/>
-    <mergeCell ref="D5:AL13"/>
+    <mergeCell ref="D5:AL8"/>
+    <mergeCell ref="D10:AL13"/>
     <mergeCell ref="C15:AM16"/>
     <mergeCell ref="C17:D19"/>
     <mergeCell ref="E17:T19"/>

--- a/backend/static/report.xlsx
+++ b/backend/static/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="168">
   <si>
     <t xml:space="preserve">ООО «Строительно-производственно объединение «УРАЛ»</t>
   </si>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">Инв. № подп.</t>
   </si>
   <si>
-    <t xml:space="preserve">СОДЕРЖАНИЕ</t>
+    <t xml:space="preserve">Содержание</t>
   </si>
   <si>
     <t xml:space="preserve">{Шифр}</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">Утв.</t>
   </si>
   <si>
-    <t xml:space="preserve">ПРАВОВЫЕ ТРЕБОВАНИЯ И ОБЯЗАТЕЛЬСТВА</t>
+    <t xml:space="preserve">Правовые требования и обязательства</t>
   </si>
   <si>
     <t xml:space="preserve">Настоящее заключение является интеллектуальной собственностью ООО «Строительно-производственное объединение «Урал». Внесение изменений сторонними лицами и организациями без письменного разрешения разработчика документации не допускается. За нарушение авторских и смежных прав предусмотрена административная (статья 7.12 КоАП РФ) и уголовная (статья 146 УК РФ) ответственность.</t>
@@ -597,6 +597,9 @@
     <t xml:space="preserve">5.2. Выводы и рекомендации</t>
   </si>
   <si>
+    <t xml:space="preserve">6. Перечень нормативной и технической документации</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -904,7 +907,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="174">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1545,15 +1548,59 @@
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1640,9 +1687,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>117360</xdr:colOff>
+      <xdr:colOff>117000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1656,7 +1703,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="281160" y="66240"/>
-          <a:ext cx="1350000" cy="570600"/>
+          <a:ext cx="1349640" cy="570240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1683,9 +1730,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>166680</xdr:colOff>
+      <xdr:colOff>166320</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1699,7 +1746,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="510120" y="81360"/>
-          <a:ext cx="1350000" cy="570600"/>
+          <a:ext cx="1349640" cy="570240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1726,9 +1773,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>117000</xdr:colOff>
+      <xdr:colOff>116640</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1742,7 +1789,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5803920" y="10002240"/>
-          <a:ext cx="678960" cy="286200"/>
+          <a:ext cx="678600" cy="285840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7041,41 +7088,41 @@
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="40"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0"/>
-      <c r="I28" s="0"/>
-      <c r="J28" s="0"/>
-      <c r="K28" s="0"/>
-      <c r="L28" s="0"/>
-      <c r="M28" s="0"/>
-      <c r="N28" s="0"/>
-      <c r="O28" s="0"/>
-      <c r="P28" s="0"/>
-      <c r="Q28" s="0"/>
-      <c r="R28" s="0"/>
-      <c r="S28" s="0"/>
-      <c r="T28" s="0"/>
-      <c r="U28" s="0"/>
-      <c r="V28" s="0"/>
-      <c r="W28" s="0"/>
-      <c r="X28" s="0"/>
-      <c r="Y28" s="0"/>
-      <c r="Z28" s="0"/>
-      <c r="AA28" s="0"/>
-      <c r="AB28" s="0"/>
-      <c r="AC28" s="0"/>
-      <c r="AD28" s="0"/>
-      <c r="AE28" s="0"/>
-      <c r="AF28" s="0"/>
-      <c r="AG28" s="0"/>
-      <c r="AH28" s="0"/>
-      <c r="AI28" s="0"/>
-      <c r="AJ28" s="0"/>
-      <c r="AK28" s="0"/>
-      <c r="AL28" s="0"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
       <c r="AM28" s="41"/>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8157,8 +8204,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK56" activeCellId="0" sqref="AK56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AX9" activeCellId="0" sqref="AX9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8174,43 +8221,43 @@
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
-      <c r="AH1" s="110"/>
-      <c r="AI1" s="110"/>
-      <c r="AJ1" s="110"/>
-      <c r="AK1" s="111"/>
-      <c r="AL1" s="112"/>
-      <c r="AM1" s="113"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="161"/>
+      <c r="S1" s="161"/>
+      <c r="T1" s="161"/>
+      <c r="U1" s="161"/>
+      <c r="V1" s="161"/>
+      <c r="W1" s="161"/>
+      <c r="X1" s="161"/>
+      <c r="Y1" s="161"/>
+      <c r="Z1" s="161"/>
+      <c r="AA1" s="161"/>
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="161"/>
+      <c r="AD1" s="161"/>
+      <c r="AE1" s="161"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="161"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="161"/>
+      <c r="AJ1" s="161"/>
+      <c r="AK1" s="161"/>
+      <c r="AL1" s="161"/>
+      <c r="AM1" s="162"/>
       <c r="AN1" s="4"/>
       <c r="AO1" s="4"/>
       <c r="AP1" s="4"/>
@@ -8249,1300 +8296,2134 @@
       <c r="BW1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="51"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="8"/>
-      <c r="AM2" s="52"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="164"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
+      <c r="Y2" s="164"/>
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="164"/>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="164"/>
+      <c r="AD2" s="164"/>
+      <c r="AE2" s="164"/>
+      <c r="AF2" s="164"/>
+      <c r="AG2" s="164"/>
+      <c r="AH2" s="164"/>
+      <c r="AI2" s="164"/>
+      <c r="AJ2" s="164"/>
+      <c r="AK2" s="164"/>
+      <c r="AL2" s="164"/>
+      <c r="AM2" s="165"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C3" s="51"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="8"/>
-      <c r="AM3" s="52"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="164"/>
+      <c r="T3" s="164"/>
+      <c r="U3" s="164"/>
+      <c r="V3" s="164"/>
+      <c r="W3" s="164"/>
+      <c r="X3" s="164"/>
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="164"/>
+      <c r="AD3" s="164"/>
+      <c r="AE3" s="164"/>
+      <c r="AF3" s="164"/>
+      <c r="AG3" s="164"/>
+      <c r="AH3" s="164"/>
+      <c r="AI3" s="164"/>
+      <c r="AJ3" s="164"/>
+      <c r="AK3" s="164"/>
+      <c r="AL3" s="164"/>
+      <c r="AM3" s="165"/>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C4" s="51"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="8"/>
-      <c r="AM4" s="52"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="164"/>
+      <c r="N4" s="164"/>
+      <c r="O4" s="164"/>
+      <c r="P4" s="164"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="164"/>
+      <c r="S4" s="164"/>
+      <c r="T4" s="164"/>
+      <c r="U4" s="164"/>
+      <c r="V4" s="164"/>
+      <c r="W4" s="164"/>
+      <c r="X4" s="164"/>
+      <c r="Y4" s="164"/>
+      <c r="Z4" s="164"/>
+      <c r="AA4" s="164"/>
+      <c r="AB4" s="164"/>
+      <c r="AC4" s="164"/>
+      <c r="AD4" s="164"/>
+      <c r="AE4" s="164"/>
+      <c r="AF4" s="164"/>
+      <c r="AG4" s="164"/>
+      <c r="AH4" s="164"/>
+      <c r="AI4" s="164"/>
+      <c r="AJ4" s="164"/>
+      <c r="AK4" s="164"/>
+      <c r="AL4" s="164"/>
+      <c r="AM4" s="165"/>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="40"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="AK5" s="8"/>
-      <c r="AM5" s="41"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="164"/>
+      <c r="Q5" s="164"/>
+      <c r="R5" s="164"/>
+      <c r="S5" s="164"/>
+      <c r="T5" s="164"/>
+      <c r="U5" s="164"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="164"/>
+      <c r="X5" s="164"/>
+      <c r="Y5" s="164"/>
+      <c r="Z5" s="164"/>
+      <c r="AA5" s="164"/>
+      <c r="AB5" s="164"/>
+      <c r="AC5" s="164"/>
+      <c r="AD5" s="164"/>
+      <c r="AE5" s="164"/>
+      <c r="AF5" s="164"/>
+      <c r="AG5" s="164"/>
+      <c r="AH5" s="164"/>
+      <c r="AI5" s="164"/>
+      <c r="AJ5" s="164"/>
+      <c r="AK5" s="164"/>
+      <c r="AL5" s="164"/>
+      <c r="AM5" s="165"/>
       <c r="AQ5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C6" s="42"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="8"/>
-      <c r="AM6" s="43"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="164"/>
+      <c r="L6" s="164"/>
+      <c r="M6" s="164"/>
+      <c r="N6" s="164"/>
+      <c r="O6" s="164"/>
+      <c r="P6" s="164"/>
+      <c r="Q6" s="164"/>
+      <c r="R6" s="164"/>
+      <c r="S6" s="164"/>
+      <c r="T6" s="164"/>
+      <c r="U6" s="164"/>
+      <c r="V6" s="164"/>
+      <c r="W6" s="164"/>
+      <c r="X6" s="164"/>
+      <c r="Y6" s="164"/>
+      <c r="Z6" s="164"/>
+      <c r="AA6" s="164"/>
+      <c r="AB6" s="164"/>
+      <c r="AC6" s="164"/>
+      <c r="AD6" s="164"/>
+      <c r="AE6" s="164"/>
+      <c r="AF6" s="164"/>
+      <c r="AG6" s="164"/>
+      <c r="AH6" s="164"/>
+      <c r="AI6" s="164"/>
+      <c r="AJ6" s="164"/>
+      <c r="AK6" s="164"/>
+      <c r="AL6" s="164"/>
+      <c r="AM6" s="165"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="44"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="8"/>
-      <c r="AM7" s="43"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="164"/>
+      <c r="M7" s="164"/>
+      <c r="N7" s="164"/>
+      <c r="O7" s="164"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="164"/>
+      <c r="R7" s="164"/>
+      <c r="S7" s="164"/>
+      <c r="T7" s="164"/>
+      <c r="U7" s="164"/>
+      <c r="V7" s="164"/>
+      <c r="W7" s="164"/>
+      <c r="X7" s="164"/>
+      <c r="Y7" s="164"/>
+      <c r="Z7" s="164"/>
+      <c r="AA7" s="164"/>
+      <c r="AB7" s="164"/>
+      <c r="AC7" s="164"/>
+      <c r="AD7" s="164"/>
+      <c r="AE7" s="164"/>
+      <c r="AF7" s="164"/>
+      <c r="AG7" s="164"/>
+      <c r="AH7" s="164"/>
+      <c r="AI7" s="164"/>
+      <c r="AJ7" s="164"/>
+      <c r="AK7" s="164"/>
+      <c r="AL7" s="164"/>
+      <c r="AM7" s="165"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C8" s="40"/>
-      <c r="AK8" s="8"/>
-      <c r="AM8" s="41"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="164"/>
+      <c r="O8" s="164"/>
+      <c r="P8" s="164"/>
+      <c r="Q8" s="164"/>
+      <c r="R8" s="164"/>
+      <c r="S8" s="164"/>
+      <c r="T8" s="164"/>
+      <c r="U8" s="164"/>
+      <c r="V8" s="164"/>
+      <c r="W8" s="164"/>
+      <c r="X8" s="164"/>
+      <c r="Y8" s="164"/>
+      <c r="Z8" s="164"/>
+      <c r="AA8" s="164"/>
+      <c r="AB8" s="164"/>
+      <c r="AC8" s="164"/>
+      <c r="AD8" s="164"/>
+      <c r="AE8" s="164"/>
+      <c r="AF8" s="164"/>
+      <c r="AG8" s="164"/>
+      <c r="AH8" s="164"/>
+      <c r="AI8" s="164"/>
+      <c r="AJ8" s="164"/>
+      <c r="AK8" s="164"/>
+      <c r="AL8" s="164"/>
+      <c r="AM8" s="165"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="40"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="8"/>
-      <c r="AM9" s="41"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="164"/>
+      <c r="P9" s="164"/>
+      <c r="Q9" s="164"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="164"/>
+      <c r="T9" s="164"/>
+      <c r="U9" s="164"/>
+      <c r="V9" s="164"/>
+      <c r="W9" s="164"/>
+      <c r="X9" s="164"/>
+      <c r="Y9" s="164"/>
+      <c r="Z9" s="164"/>
+      <c r="AA9" s="164"/>
+      <c r="AB9" s="164"/>
+      <c r="AC9" s="164"/>
+      <c r="AD9" s="164"/>
+      <c r="AE9" s="164"/>
+      <c r="AF9" s="164"/>
+      <c r="AG9" s="164"/>
+      <c r="AH9" s="164"/>
+      <c r="AI9" s="164"/>
+      <c r="AJ9" s="164"/>
+      <c r="AK9" s="164"/>
+      <c r="AL9" s="164"/>
+      <c r="AM9" s="165"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="46"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="8"/>
-      <c r="AM10" s="47"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="164"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="164"/>
+      <c r="O10" s="164"/>
+      <c r="P10" s="164"/>
+      <c r="Q10" s="164"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="164"/>
+      <c r="T10" s="164"/>
+      <c r="U10" s="164"/>
+      <c r="V10" s="164"/>
+      <c r="W10" s="164"/>
+      <c r="X10" s="164"/>
+      <c r="Y10" s="164"/>
+      <c r="Z10" s="164"/>
+      <c r="AA10" s="164"/>
+      <c r="AB10" s="164"/>
+      <c r="AC10" s="164"/>
+      <c r="AD10" s="164"/>
+      <c r="AE10" s="164"/>
+      <c r="AF10" s="164"/>
+      <c r="AG10" s="164"/>
+      <c r="AH10" s="164"/>
+      <c r="AI10" s="164"/>
+      <c r="AJ10" s="164"/>
+      <c r="AK10" s="164"/>
+      <c r="AL10" s="164"/>
+      <c r="AM10" s="165"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="46"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="8"/>
-      <c r="AM11" s="47"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="164"/>
+      <c r="O11" s="164"/>
+      <c r="P11" s="164"/>
+      <c r="Q11" s="164"/>
+      <c r="R11" s="164"/>
+      <c r="S11" s="164"/>
+      <c r="T11" s="164"/>
+      <c r="U11" s="164"/>
+      <c r="V11" s="164"/>
+      <c r="W11" s="164"/>
+      <c r="X11" s="164"/>
+      <c r="Y11" s="164"/>
+      <c r="Z11" s="164"/>
+      <c r="AA11" s="164"/>
+      <c r="AB11" s="164"/>
+      <c r="AC11" s="164"/>
+      <c r="AD11" s="164"/>
+      <c r="AE11" s="164"/>
+      <c r="AF11" s="164"/>
+      <c r="AG11" s="164"/>
+      <c r="AH11" s="164"/>
+      <c r="AI11" s="164"/>
+      <c r="AJ11" s="164"/>
+      <c r="AK11" s="164"/>
+      <c r="AL11" s="164"/>
+      <c r="AM11" s="165"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="46"/>
-      <c r="AK12" s="8"/>
-      <c r="AM12" s="47"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="164"/>
+      <c r="P12" s="164"/>
+      <c r="Q12" s="164"/>
+      <c r="R12" s="164"/>
+      <c r="S12" s="164"/>
+      <c r="T12" s="164"/>
+      <c r="U12" s="164"/>
+      <c r="V12" s="164"/>
+      <c r="W12" s="164"/>
+      <c r="X12" s="164"/>
+      <c r="Y12" s="164"/>
+      <c r="Z12" s="164"/>
+      <c r="AA12" s="164"/>
+      <c r="AB12" s="164"/>
+      <c r="AC12" s="164"/>
+      <c r="AD12" s="164"/>
+      <c r="AE12" s="164"/>
+      <c r="AF12" s="164"/>
+      <c r="AG12" s="164"/>
+      <c r="AH12" s="164"/>
+      <c r="AI12" s="164"/>
+      <c r="AJ12" s="164"/>
+      <c r="AK12" s="164"/>
+      <c r="AL12" s="164"/>
+      <c r="AM12" s="165"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="46"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="8"/>
-      <c r="AM13" s="47"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
+      <c r="L13" s="167"/>
+      <c r="M13" s="167"/>
+      <c r="N13" s="167"/>
+      <c r="O13" s="167"/>
+      <c r="P13" s="167"/>
+      <c r="Q13" s="167"/>
+      <c r="R13" s="167"/>
+      <c r="S13" s="167"/>
+      <c r="T13" s="167"/>
+      <c r="U13" s="167"/>
+      <c r="V13" s="167"/>
+      <c r="W13" s="167"/>
+      <c r="X13" s="167"/>
+      <c r="Y13" s="167"/>
+      <c r="Z13" s="167"/>
+      <c r="AA13" s="167"/>
+      <c r="AB13" s="167"/>
+      <c r="AC13" s="167"/>
+      <c r="AD13" s="167"/>
+      <c r="AE13" s="167"/>
+      <c r="AF13" s="167"/>
+      <c r="AG13" s="167"/>
+      <c r="AH13" s="167"/>
+      <c r="AI13" s="167"/>
+      <c r="AJ13" s="167"/>
+      <c r="AK13" s="164"/>
+      <c r="AL13" s="164"/>
+      <c r="AM13" s="165"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="46"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="8"/>
-      <c r="AM14" s="47"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="167"/>
+      <c r="L14" s="167"/>
+      <c r="M14" s="167"/>
+      <c r="N14" s="167"/>
+      <c r="O14" s="167"/>
+      <c r="P14" s="167"/>
+      <c r="Q14" s="167"/>
+      <c r="R14" s="167"/>
+      <c r="S14" s="167"/>
+      <c r="T14" s="167"/>
+      <c r="U14" s="167"/>
+      <c r="V14" s="167"/>
+      <c r="W14" s="167"/>
+      <c r="X14" s="167"/>
+      <c r="Y14" s="167"/>
+      <c r="Z14" s="167"/>
+      <c r="AA14" s="167"/>
+      <c r="AB14" s="167"/>
+      <c r="AC14" s="167"/>
+      <c r="AD14" s="167"/>
+      <c r="AE14" s="167"/>
+      <c r="AF14" s="167"/>
+      <c r="AG14" s="167"/>
+      <c r="AH14" s="167"/>
+      <c r="AI14" s="167"/>
+      <c r="AJ14" s="167"/>
+      <c r="AK14" s="164"/>
+      <c r="AL14" s="164"/>
+      <c r="AM14" s="165"/>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="40"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="16"/>
-      <c r="AJ15" s="16"/>
-      <c r="AK15" s="8"/>
-      <c r="AM15" s="41"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="167"/>
+      <c r="L15" s="167"/>
+      <c r="M15" s="167"/>
+      <c r="N15" s="167"/>
+      <c r="O15" s="167"/>
+      <c r="P15" s="167"/>
+      <c r="Q15" s="167"/>
+      <c r="R15" s="167"/>
+      <c r="S15" s="167"/>
+      <c r="T15" s="167"/>
+      <c r="U15" s="167"/>
+      <c r="V15" s="167"/>
+      <c r="W15" s="167"/>
+      <c r="X15" s="167"/>
+      <c r="Y15" s="167"/>
+      <c r="Z15" s="167"/>
+      <c r="AA15" s="167"/>
+      <c r="AB15" s="167"/>
+      <c r="AC15" s="167"/>
+      <c r="AD15" s="167"/>
+      <c r="AE15" s="167"/>
+      <c r="AF15" s="167"/>
+      <c r="AG15" s="167"/>
+      <c r="AH15" s="167"/>
+      <c r="AI15" s="167"/>
+      <c r="AJ15" s="167"/>
+      <c r="AK15" s="164"/>
+      <c r="AL15" s="164"/>
+      <c r="AM15" s="165"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="40"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="16"/>
-      <c r="AJ16" s="16"/>
-      <c r="AK16" s="8"/>
-      <c r="AM16" s="41"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="167"/>
+      <c r="L16" s="167"/>
+      <c r="M16" s="167"/>
+      <c r="N16" s="167"/>
+      <c r="O16" s="167"/>
+      <c r="P16" s="167"/>
+      <c r="Q16" s="167"/>
+      <c r="R16" s="167"/>
+      <c r="S16" s="167"/>
+      <c r="T16" s="167"/>
+      <c r="U16" s="167"/>
+      <c r="V16" s="167"/>
+      <c r="W16" s="167"/>
+      <c r="X16" s="167"/>
+      <c r="Y16" s="167"/>
+      <c r="Z16" s="167"/>
+      <c r="AA16" s="167"/>
+      <c r="AB16" s="167"/>
+      <c r="AC16" s="167"/>
+      <c r="AD16" s="167"/>
+      <c r="AE16" s="167"/>
+      <c r="AF16" s="167"/>
+      <c r="AG16" s="167"/>
+      <c r="AH16" s="167"/>
+      <c r="AI16" s="167"/>
+      <c r="AJ16" s="167"/>
+      <c r="AK16" s="164"/>
+      <c r="AL16" s="164"/>
+      <c r="AM16" s="165"/>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C17" s="40"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="8"/>
-      <c r="AM17" s="41"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="167"/>
+      <c r="I17" s="167"/>
+      <c r="J17" s="167"/>
+      <c r="K17" s="167"/>
+      <c r="L17" s="167"/>
+      <c r="M17" s="167"/>
+      <c r="N17" s="167"/>
+      <c r="O17" s="167"/>
+      <c r="P17" s="167"/>
+      <c r="Q17" s="167"/>
+      <c r="R17" s="167"/>
+      <c r="S17" s="167"/>
+      <c r="T17" s="167"/>
+      <c r="U17" s="167"/>
+      <c r="V17" s="167"/>
+      <c r="W17" s="167"/>
+      <c r="X17" s="167"/>
+      <c r="Y17" s="167"/>
+      <c r="Z17" s="167"/>
+      <c r="AA17" s="167"/>
+      <c r="AB17" s="167"/>
+      <c r="AC17" s="167"/>
+      <c r="AD17" s="167"/>
+      <c r="AE17" s="167"/>
+      <c r="AF17" s="167"/>
+      <c r="AG17" s="167"/>
+      <c r="AH17" s="167"/>
+      <c r="AI17" s="167"/>
+      <c r="AJ17" s="167"/>
+      <c r="AK17" s="164"/>
+      <c r="AL17" s="164"/>
+      <c r="AM17" s="165"/>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C18" s="40"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="8"/>
-      <c r="AM18" s="41"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="167"/>
+      <c r="K18" s="167"/>
+      <c r="L18" s="167"/>
+      <c r="M18" s="167"/>
+      <c r="N18" s="167"/>
+      <c r="O18" s="167"/>
+      <c r="P18" s="167"/>
+      <c r="Q18" s="167"/>
+      <c r="R18" s="167"/>
+      <c r="S18" s="167"/>
+      <c r="T18" s="167"/>
+      <c r="U18" s="167"/>
+      <c r="V18" s="167"/>
+      <c r="W18" s="167"/>
+      <c r="X18" s="167"/>
+      <c r="Y18" s="167"/>
+      <c r="Z18" s="167"/>
+      <c r="AA18" s="167"/>
+      <c r="AB18" s="167"/>
+      <c r="AC18" s="167"/>
+      <c r="AD18" s="167"/>
+      <c r="AE18" s="167"/>
+      <c r="AF18" s="167"/>
+      <c r="AG18" s="167"/>
+      <c r="AH18" s="167"/>
+      <c r="AI18" s="167"/>
+      <c r="AJ18" s="167"/>
+      <c r="AK18" s="164"/>
+      <c r="AL18" s="164"/>
+      <c r="AM18" s="165"/>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C19" s="40"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="16"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="16"/>
-      <c r="AK19" s="8"/>
-      <c r="AM19" s="41"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="167"/>
+      <c r="K19" s="167"/>
+      <c r="L19" s="167"/>
+      <c r="M19" s="167"/>
+      <c r="N19" s="167"/>
+      <c r="O19" s="167"/>
+      <c r="P19" s="167"/>
+      <c r="Q19" s="167"/>
+      <c r="R19" s="167"/>
+      <c r="S19" s="167"/>
+      <c r="T19" s="167"/>
+      <c r="U19" s="167"/>
+      <c r="V19" s="167"/>
+      <c r="W19" s="167"/>
+      <c r="X19" s="167"/>
+      <c r="Y19" s="167"/>
+      <c r="Z19" s="167"/>
+      <c r="AA19" s="167"/>
+      <c r="AB19" s="167"/>
+      <c r="AC19" s="167"/>
+      <c r="AD19" s="167"/>
+      <c r="AE19" s="167"/>
+      <c r="AF19" s="167"/>
+      <c r="AG19" s="167"/>
+      <c r="AH19" s="167"/>
+      <c r="AI19" s="167"/>
+      <c r="AJ19" s="167"/>
+      <c r="AK19" s="164"/>
+      <c r="AL19" s="164"/>
+      <c r="AM19" s="165"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="40"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="16"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="8"/>
-      <c r="AM20" s="41"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="167"/>
+      <c r="K20" s="167"/>
+      <c r="L20" s="167"/>
+      <c r="M20" s="167"/>
+      <c r="N20" s="167"/>
+      <c r="O20" s="167"/>
+      <c r="P20" s="167"/>
+      <c r="Q20" s="167"/>
+      <c r="R20" s="167"/>
+      <c r="S20" s="167"/>
+      <c r="T20" s="167"/>
+      <c r="U20" s="167"/>
+      <c r="V20" s="167"/>
+      <c r="W20" s="167"/>
+      <c r="X20" s="167"/>
+      <c r="Y20" s="167"/>
+      <c r="Z20" s="167"/>
+      <c r="AA20" s="167"/>
+      <c r="AB20" s="167"/>
+      <c r="AC20" s="167"/>
+      <c r="AD20" s="167"/>
+      <c r="AE20" s="167"/>
+      <c r="AF20" s="167"/>
+      <c r="AG20" s="167"/>
+      <c r="AH20" s="167"/>
+      <c r="AI20" s="167"/>
+      <c r="AJ20" s="167"/>
+      <c r="AK20" s="164"/>
+      <c r="AL20" s="164"/>
+      <c r="AM20" s="165"/>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="40"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="16"/>
-      <c r="AH21" s="16"/>
-      <c r="AI21" s="16"/>
-      <c r="AJ21" s="16"/>
-      <c r="AK21" s="8"/>
-      <c r="AM21" s="41"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="167"/>
+      <c r="K21" s="167"/>
+      <c r="L21" s="167"/>
+      <c r="M21" s="167"/>
+      <c r="N21" s="167"/>
+      <c r="O21" s="167"/>
+      <c r="P21" s="167"/>
+      <c r="Q21" s="167"/>
+      <c r="R21" s="167"/>
+      <c r="S21" s="167"/>
+      <c r="T21" s="167"/>
+      <c r="U21" s="167"/>
+      <c r="V21" s="167"/>
+      <c r="W21" s="167"/>
+      <c r="X21" s="167"/>
+      <c r="Y21" s="167"/>
+      <c r="Z21" s="167"/>
+      <c r="AA21" s="167"/>
+      <c r="AB21" s="167"/>
+      <c r="AC21" s="167"/>
+      <c r="AD21" s="167"/>
+      <c r="AE21" s="167"/>
+      <c r="AF21" s="167"/>
+      <c r="AG21" s="167"/>
+      <c r="AH21" s="167"/>
+      <c r="AI21" s="167"/>
+      <c r="AJ21" s="167"/>
+      <c r="AK21" s="164"/>
+      <c r="AL21" s="164"/>
+      <c r="AM21" s="165"/>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="40"/>
-      <c r="AK22" s="8"/>
-      <c r="AM22" s="41"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="164"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="164"/>
+      <c r="O22" s="164"/>
+      <c r="P22" s="164"/>
+      <c r="Q22" s="164"/>
+      <c r="R22" s="164"/>
+      <c r="S22" s="164"/>
+      <c r="T22" s="164"/>
+      <c r="U22" s="164"/>
+      <c r="V22" s="164"/>
+      <c r="W22" s="164"/>
+      <c r="X22" s="164"/>
+      <c r="Y22" s="164"/>
+      <c r="Z22" s="164"/>
+      <c r="AA22" s="164"/>
+      <c r="AB22" s="164"/>
+      <c r="AC22" s="164"/>
+      <c r="AD22" s="164"/>
+      <c r="AE22" s="164"/>
+      <c r="AF22" s="164"/>
+      <c r="AG22" s="164"/>
+      <c r="AH22" s="164"/>
+      <c r="AI22" s="164"/>
+      <c r="AJ22" s="164"/>
+      <c r="AK22" s="164"/>
+      <c r="AL22" s="164"/>
+      <c r="AM22" s="165"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="40"/>
-      <c r="AK23" s="8"/>
-      <c r="AM23" s="41"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="164"/>
+      <c r="L23" s="164"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="164"/>
+      <c r="O23" s="164"/>
+      <c r="P23" s="164"/>
+      <c r="Q23" s="164"/>
+      <c r="R23" s="164"/>
+      <c r="S23" s="164"/>
+      <c r="T23" s="164"/>
+      <c r="U23" s="164"/>
+      <c r="V23" s="164"/>
+      <c r="W23" s="164"/>
+      <c r="X23" s="164"/>
+      <c r="Y23" s="164"/>
+      <c r="Z23" s="164"/>
+      <c r="AA23" s="164"/>
+      <c r="AB23" s="164"/>
+      <c r="AC23" s="164"/>
+      <c r="AD23" s="164"/>
+      <c r="AE23" s="164"/>
+      <c r="AF23" s="164"/>
+      <c r="AG23" s="164"/>
+      <c r="AH23" s="164"/>
+      <c r="AI23" s="164"/>
+      <c r="AJ23" s="164"/>
+      <c r="AK23" s="164"/>
+      <c r="AL23" s="164"/>
+      <c r="AM23" s="165"/>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="40"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="95"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="95"/>
-      <c r="AE24" s="95"/>
-      <c r="AF24" s="95"/>
-      <c r="AG24" s="95"/>
-      <c r="AH24" s="95"/>
-      <c r="AI24" s="95"/>
-      <c r="AJ24" s="95"/>
-      <c r="AK24" s="8"/>
-      <c r="AM24" s="41"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="167"/>
+      <c r="K24" s="167"/>
+      <c r="L24" s="167"/>
+      <c r="M24" s="167"/>
+      <c r="N24" s="167"/>
+      <c r="O24" s="167"/>
+      <c r="P24" s="167"/>
+      <c r="Q24" s="167"/>
+      <c r="R24" s="167"/>
+      <c r="S24" s="167"/>
+      <c r="T24" s="167"/>
+      <c r="U24" s="167"/>
+      <c r="V24" s="167"/>
+      <c r="W24" s="167"/>
+      <c r="X24" s="167"/>
+      <c r="Y24" s="167"/>
+      <c r="Z24" s="167"/>
+      <c r="AA24" s="167"/>
+      <c r="AB24" s="167"/>
+      <c r="AC24" s="167"/>
+      <c r="AD24" s="167"/>
+      <c r="AE24" s="167"/>
+      <c r="AF24" s="167"/>
+      <c r="AG24" s="167"/>
+      <c r="AH24" s="167"/>
+      <c r="AI24" s="167"/>
+      <c r="AJ24" s="167"/>
+      <c r="AK24" s="164"/>
+      <c r="AL24" s="164"/>
+      <c r="AM24" s="165"/>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="40"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="95"/>
-      <c r="W25" s="95"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="95"/>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95"/>
-      <c r="AE25" s="95"/>
-      <c r="AF25" s="95"/>
-      <c r="AG25" s="95"/>
-      <c r="AH25" s="95"/>
-      <c r="AI25" s="95"/>
-      <c r="AJ25" s="95"/>
-      <c r="AK25" s="8"/>
-      <c r="AM25" s="41"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="167"/>
+      <c r="K25" s="167"/>
+      <c r="L25" s="167"/>
+      <c r="M25" s="167"/>
+      <c r="N25" s="167"/>
+      <c r="O25" s="167"/>
+      <c r="P25" s="167"/>
+      <c r="Q25" s="167"/>
+      <c r="R25" s="167"/>
+      <c r="S25" s="167"/>
+      <c r="T25" s="167"/>
+      <c r="U25" s="167"/>
+      <c r="V25" s="167"/>
+      <c r="W25" s="167"/>
+      <c r="X25" s="167"/>
+      <c r="Y25" s="167"/>
+      <c r="Z25" s="167"/>
+      <c r="AA25" s="167"/>
+      <c r="AB25" s="167"/>
+      <c r="AC25" s="167"/>
+      <c r="AD25" s="167"/>
+      <c r="AE25" s="167"/>
+      <c r="AF25" s="167"/>
+      <c r="AG25" s="167"/>
+      <c r="AH25" s="167"/>
+      <c r="AI25" s="167"/>
+      <c r="AJ25" s="167"/>
+      <c r="AK25" s="164"/>
+      <c r="AL25" s="164"/>
+      <c r="AM25" s="165"/>
     </row>
     <row r="26" customFormat="false" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="40"/>
-      <c r="AK26" s="8"/>
-      <c r="AM26" s="41"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="164"/>
+      <c r="L26" s="164"/>
+      <c r="M26" s="164"/>
+      <c r="N26" s="164"/>
+      <c r="O26" s="164"/>
+      <c r="P26" s="164"/>
+      <c r="Q26" s="164"/>
+      <c r="R26" s="164"/>
+      <c r="S26" s="164"/>
+      <c r="T26" s="164"/>
+      <c r="U26" s="164"/>
+      <c r="V26" s="164"/>
+      <c r="W26" s="164"/>
+      <c r="X26" s="164"/>
+      <c r="Y26" s="164"/>
+      <c r="Z26" s="164"/>
+      <c r="AA26" s="164"/>
+      <c r="AB26" s="164"/>
+      <c r="AC26" s="164"/>
+      <c r="AD26" s="164"/>
+      <c r="AE26" s="164"/>
+      <c r="AF26" s="164"/>
+      <c r="AG26" s="164"/>
+      <c r="AH26" s="164"/>
+      <c r="AI26" s="164"/>
+      <c r="AJ26" s="164"/>
+      <c r="AK26" s="164"/>
+      <c r="AL26" s="164"/>
+      <c r="AM26" s="165"/>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C27" s="40"/>
-      <c r="AK27" s="8"/>
-      <c r="AM27" s="41"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="164"/>
+      <c r="L27" s="164"/>
+      <c r="M27" s="164"/>
+      <c r="N27" s="164"/>
+      <c r="O27" s="164"/>
+      <c r="P27" s="164"/>
+      <c r="Q27" s="164"/>
+      <c r="R27" s="164"/>
+      <c r="S27" s="164"/>
+      <c r="T27" s="164"/>
+      <c r="U27" s="164"/>
+      <c r="V27" s="164"/>
+      <c r="W27" s="164"/>
+      <c r="X27" s="164"/>
+      <c r="Y27" s="164"/>
+      <c r="Z27" s="164"/>
+      <c r="AA27" s="164"/>
+      <c r="AB27" s="164"/>
+      <c r="AC27" s="164"/>
+      <c r="AD27" s="164"/>
+      <c r="AE27" s="164"/>
+      <c r="AF27" s="164"/>
+      <c r="AG27" s="164"/>
+      <c r="AH27" s="164"/>
+      <c r="AI27" s="164"/>
+      <c r="AJ27" s="164"/>
+      <c r="AK27" s="164"/>
+      <c r="AL27" s="164"/>
+      <c r="AM27" s="165"/>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C28" s="40"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="16"/>
-      <c r="AG28" s="16"/>
-      <c r="AH28" s="16"/>
-      <c r="AI28" s="16"/>
-      <c r="AJ28" s="16"/>
-      <c r="AK28" s="8"/>
-      <c r="AM28" s="41"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
+      <c r="K28" s="167"/>
+      <c r="L28" s="167"/>
+      <c r="M28" s="167"/>
+      <c r="N28" s="167"/>
+      <c r="O28" s="167"/>
+      <c r="P28" s="167"/>
+      <c r="Q28" s="167"/>
+      <c r="R28" s="167"/>
+      <c r="S28" s="167"/>
+      <c r="T28" s="167"/>
+      <c r="U28" s="167"/>
+      <c r="V28" s="167"/>
+      <c r="W28" s="167"/>
+      <c r="X28" s="167"/>
+      <c r="Y28" s="167"/>
+      <c r="Z28" s="167"/>
+      <c r="AA28" s="167"/>
+      <c r="AB28" s="167"/>
+      <c r="AC28" s="167"/>
+      <c r="AD28" s="167"/>
+      <c r="AE28" s="167"/>
+      <c r="AF28" s="167"/>
+      <c r="AG28" s="167"/>
+      <c r="AH28" s="167"/>
+      <c r="AI28" s="167"/>
+      <c r="AJ28" s="167"/>
+      <c r="AK28" s="164"/>
+      <c r="AL28" s="164"/>
+      <c r="AM28" s="165"/>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="50"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="16"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="16"/>
-      <c r="AG29" s="16"/>
-      <c r="AH29" s="16"/>
-      <c r="AI29" s="16"/>
-      <c r="AJ29" s="16"/>
-      <c r="AK29" s="8"/>
-      <c r="AM29" s="41"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="167"/>
+      <c r="K29" s="167"/>
+      <c r="L29" s="167"/>
+      <c r="M29" s="167"/>
+      <c r="N29" s="167"/>
+      <c r="O29" s="167"/>
+      <c r="P29" s="167"/>
+      <c r="Q29" s="167"/>
+      <c r="R29" s="167"/>
+      <c r="S29" s="167"/>
+      <c r="T29" s="167"/>
+      <c r="U29" s="167"/>
+      <c r="V29" s="167"/>
+      <c r="W29" s="167"/>
+      <c r="X29" s="167"/>
+      <c r="Y29" s="167"/>
+      <c r="Z29" s="167"/>
+      <c r="AA29" s="167"/>
+      <c r="AB29" s="167"/>
+      <c r="AC29" s="167"/>
+      <c r="AD29" s="167"/>
+      <c r="AE29" s="167"/>
+      <c r="AF29" s="167"/>
+      <c r="AG29" s="167"/>
+      <c r="AH29" s="167"/>
+      <c r="AI29" s="167"/>
+      <c r="AJ29" s="167"/>
+      <c r="AK29" s="164"/>
+      <c r="AL29" s="164"/>
+      <c r="AM29" s="165"/>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
-      <c r="C30" s="40"/>
-      <c r="AK30" s="8"/>
-      <c r="AM30" s="41"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="164"/>
+      <c r="K30" s="164"/>
+      <c r="L30" s="164"/>
+      <c r="M30" s="164"/>
+      <c r="N30" s="164"/>
+      <c r="O30" s="164"/>
+      <c r="P30" s="164"/>
+      <c r="Q30" s="164"/>
+      <c r="R30" s="164"/>
+      <c r="S30" s="164"/>
+      <c r="T30" s="164"/>
+      <c r="U30" s="164"/>
+      <c r="V30" s="164"/>
+      <c r="W30" s="164"/>
+      <c r="X30" s="164"/>
+      <c r="Y30" s="164"/>
+      <c r="Z30" s="164"/>
+      <c r="AA30" s="164"/>
+      <c r="AB30" s="164"/>
+      <c r="AC30" s="164"/>
+      <c r="AD30" s="164"/>
+      <c r="AE30" s="164"/>
+      <c r="AF30" s="164"/>
+      <c r="AG30" s="164"/>
+      <c r="AH30" s="164"/>
+      <c r="AI30" s="164"/>
+      <c r="AJ30" s="164"/>
+      <c r="AK30" s="164"/>
+      <c r="AL30" s="164"/>
+      <c r="AM30" s="165"/>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="95"/>
-      <c r="AF31" s="95"/>
-      <c r="AG31" s="95"/>
-      <c r="AH31" s="95"/>
-      <c r="AI31" s="95"/>
-      <c r="AJ31" s="95"/>
-      <c r="AK31" s="8"/>
-      <c r="AM31" s="41"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="167"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="167"/>
+      <c r="K31" s="167"/>
+      <c r="L31" s="167"/>
+      <c r="M31" s="167"/>
+      <c r="N31" s="167"/>
+      <c r="O31" s="167"/>
+      <c r="P31" s="167"/>
+      <c r="Q31" s="167"/>
+      <c r="R31" s="167"/>
+      <c r="S31" s="167"/>
+      <c r="T31" s="167"/>
+      <c r="U31" s="167"/>
+      <c r="V31" s="167"/>
+      <c r="W31" s="167"/>
+      <c r="X31" s="167"/>
+      <c r="Y31" s="167"/>
+      <c r="Z31" s="167"/>
+      <c r="AA31" s="167"/>
+      <c r="AB31" s="167"/>
+      <c r="AC31" s="167"/>
+      <c r="AD31" s="167"/>
+      <c r="AE31" s="167"/>
+      <c r="AF31" s="167"/>
+      <c r="AG31" s="167"/>
+      <c r="AH31" s="167"/>
+      <c r="AI31" s="167"/>
+      <c r="AJ31" s="167"/>
+      <c r="AK31" s="164"/>
+      <c r="AL31" s="164"/>
+      <c r="AM31" s="165"/>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="95"/>
-      <c r="AA32" s="95"/>
-      <c r="AB32" s="95"/>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="95"/>
-      <c r="AE32" s="95"/>
-      <c r="AF32" s="95"/>
-      <c r="AG32" s="95"/>
-      <c r="AH32" s="95"/>
-      <c r="AI32" s="95"/>
-      <c r="AJ32" s="95"/>
-      <c r="AK32" s="8"/>
-      <c r="AM32" s="41"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="167"/>
+      <c r="K32" s="167"/>
+      <c r="L32" s="167"/>
+      <c r="M32" s="167"/>
+      <c r="N32" s="167"/>
+      <c r="O32" s="167"/>
+      <c r="P32" s="167"/>
+      <c r="Q32" s="167"/>
+      <c r="R32" s="167"/>
+      <c r="S32" s="167"/>
+      <c r="T32" s="167"/>
+      <c r="U32" s="167"/>
+      <c r="V32" s="167"/>
+      <c r="W32" s="167"/>
+      <c r="X32" s="167"/>
+      <c r="Y32" s="167"/>
+      <c r="Z32" s="167"/>
+      <c r="AA32" s="167"/>
+      <c r="AB32" s="167"/>
+      <c r="AC32" s="167"/>
+      <c r="AD32" s="167"/>
+      <c r="AE32" s="167"/>
+      <c r="AF32" s="167"/>
+      <c r="AG32" s="167"/>
+      <c r="AH32" s="167"/>
+      <c r="AI32" s="167"/>
+      <c r="AJ32" s="167"/>
+      <c r="AK32" s="164"/>
+      <c r="AL32" s="164"/>
+      <c r="AM32" s="165"/>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
-      <c r="C33" s="40"/>
-      <c r="AK33" s="8"/>
-      <c r="AM33" s="41"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="164"/>
+      <c r="L33" s="164"/>
+      <c r="M33" s="164"/>
+      <c r="N33" s="164"/>
+      <c r="O33" s="164"/>
+      <c r="P33" s="164"/>
+      <c r="Q33" s="164"/>
+      <c r="R33" s="164"/>
+      <c r="S33" s="164"/>
+      <c r="T33" s="164"/>
+      <c r="U33" s="164"/>
+      <c r="V33" s="164"/>
+      <c r="W33" s="164"/>
+      <c r="X33" s="164"/>
+      <c r="Y33" s="164"/>
+      <c r="Z33" s="164"/>
+      <c r="AA33" s="164"/>
+      <c r="AB33" s="164"/>
+      <c r="AC33" s="164"/>
+      <c r="AD33" s="164"/>
+      <c r="AE33" s="164"/>
+      <c r="AF33" s="164"/>
+      <c r="AG33" s="164"/>
+      <c r="AH33" s="164"/>
+      <c r="AI33" s="164"/>
+      <c r="AJ33" s="164"/>
+      <c r="AK33" s="164"/>
+      <c r="AL33" s="164"/>
+      <c r="AM33" s="165"/>
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
-      <c r="C34" s="40"/>
-      <c r="AK34" s="8"/>
-      <c r="AM34" s="41"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="164"/>
+      <c r="F34" s="164"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="164"/>
+      <c r="K34" s="164"/>
+      <c r="L34" s="164"/>
+      <c r="M34" s="164"/>
+      <c r="N34" s="164"/>
+      <c r="O34" s="164"/>
+      <c r="P34" s="164"/>
+      <c r="Q34" s="164"/>
+      <c r="R34" s="164"/>
+      <c r="S34" s="164"/>
+      <c r="T34" s="164"/>
+      <c r="U34" s="164"/>
+      <c r="V34" s="164"/>
+      <c r="W34" s="164"/>
+      <c r="X34" s="164"/>
+      <c r="Y34" s="164"/>
+      <c r="Z34" s="164"/>
+      <c r="AA34" s="164"/>
+      <c r="AB34" s="164"/>
+      <c r="AC34" s="164"/>
+      <c r="AD34" s="164"/>
+      <c r="AE34" s="164"/>
+      <c r="AF34" s="164"/>
+      <c r="AG34" s="164"/>
+      <c r="AH34" s="164"/>
+      <c r="AI34" s="164"/>
+      <c r="AJ34" s="164"/>
+      <c r="AK34" s="164"/>
+      <c r="AL34" s="164"/>
+      <c r="AM34" s="165"/>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
-      <c r="C35" s="40"/>
-      <c r="AK35" s="8"/>
-      <c r="AM35" s="41"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="164"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="164"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="164"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="164"/>
+      <c r="K35" s="164"/>
+      <c r="L35" s="164"/>
+      <c r="M35" s="164"/>
+      <c r="N35" s="164"/>
+      <c r="O35" s="164"/>
+      <c r="P35" s="164"/>
+      <c r="Q35" s="164"/>
+      <c r="R35" s="164"/>
+      <c r="S35" s="164"/>
+      <c r="T35" s="164"/>
+      <c r="U35" s="164"/>
+      <c r="V35" s="164"/>
+      <c r="W35" s="164"/>
+      <c r="X35" s="164"/>
+      <c r="Y35" s="164"/>
+      <c r="Z35" s="164"/>
+      <c r="AA35" s="164"/>
+      <c r="AB35" s="164"/>
+      <c r="AC35" s="164"/>
+      <c r="AD35" s="164"/>
+      <c r="AE35" s="164"/>
+      <c r="AF35" s="164"/>
+      <c r="AG35" s="164"/>
+      <c r="AH35" s="164"/>
+      <c r="AI35" s="164"/>
+      <c r="AJ35" s="164"/>
+      <c r="AK35" s="164"/>
+      <c r="AL35" s="164"/>
+      <c r="AM35" s="165"/>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="50"/>
-      <c r="C36" s="40"/>
-      <c r="AK36" s="8"/>
-      <c r="AM36" s="41"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="164"/>
+      <c r="I36" s="164"/>
+      <c r="J36" s="164"/>
+      <c r="K36" s="164"/>
+      <c r="L36" s="164"/>
+      <c r="M36" s="164"/>
+      <c r="N36" s="164"/>
+      <c r="O36" s="164"/>
+      <c r="P36" s="164"/>
+      <c r="Q36" s="164"/>
+      <c r="R36" s="164"/>
+      <c r="S36" s="164"/>
+      <c r="T36" s="164"/>
+      <c r="U36" s="164"/>
+      <c r="V36" s="164"/>
+      <c r="W36" s="164"/>
+      <c r="X36" s="164"/>
+      <c r="Y36" s="164"/>
+      <c r="Z36" s="164"/>
+      <c r="AA36" s="164"/>
+      <c r="AB36" s="164"/>
+      <c r="AC36" s="164"/>
+      <c r="AD36" s="164"/>
+      <c r="AE36" s="164"/>
+      <c r="AF36" s="164"/>
+      <c r="AG36" s="164"/>
+      <c r="AH36" s="164"/>
+      <c r="AI36" s="164"/>
+      <c r="AJ36" s="164"/>
+      <c r="AK36" s="164"/>
+      <c r="AL36" s="164"/>
+      <c r="AM36" s="165"/>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
-      <c r="C37" s="40"/>
-      <c r="AK37" s="8"/>
-      <c r="AM37" s="41"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="164"/>
+      <c r="I37" s="164"/>
+      <c r="J37" s="164"/>
+      <c r="K37" s="164"/>
+      <c r="L37" s="164"/>
+      <c r="M37" s="164"/>
+      <c r="N37" s="164"/>
+      <c r="O37" s="164"/>
+      <c r="P37" s="164"/>
+      <c r="Q37" s="164"/>
+      <c r="R37" s="164"/>
+      <c r="S37" s="164"/>
+      <c r="T37" s="164"/>
+      <c r="U37" s="164"/>
+      <c r="V37" s="164"/>
+      <c r="W37" s="164"/>
+      <c r="X37" s="164"/>
+      <c r="Y37" s="164"/>
+      <c r="Z37" s="164"/>
+      <c r="AA37" s="164"/>
+      <c r="AB37" s="164"/>
+      <c r="AC37" s="164"/>
+      <c r="AD37" s="164"/>
+      <c r="AE37" s="164"/>
+      <c r="AF37" s="164"/>
+      <c r="AG37" s="164"/>
+      <c r="AH37" s="164"/>
+      <c r="AI37" s="164"/>
+      <c r="AJ37" s="164"/>
+      <c r="AK37" s="164"/>
+      <c r="AL37" s="164"/>
+      <c r="AM37" s="165"/>
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
-      <c r="C38" s="40"/>
-      <c r="AK38" s="8"/>
-      <c r="AM38" s="41"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="164"/>
+      <c r="F38" s="164"/>
+      <c r="G38" s="164"/>
+      <c r="H38" s="164"/>
+      <c r="I38" s="164"/>
+      <c r="J38" s="164"/>
+      <c r="K38" s="164"/>
+      <c r="L38" s="164"/>
+      <c r="M38" s="164"/>
+      <c r="N38" s="164"/>
+      <c r="O38" s="164"/>
+      <c r="P38" s="164"/>
+      <c r="Q38" s="164"/>
+      <c r="R38" s="164"/>
+      <c r="S38" s="164"/>
+      <c r="T38" s="164"/>
+      <c r="U38" s="164"/>
+      <c r="V38" s="164"/>
+      <c r="W38" s="164"/>
+      <c r="X38" s="164"/>
+      <c r="Y38" s="164"/>
+      <c r="Z38" s="164"/>
+      <c r="AA38" s="164"/>
+      <c r="AB38" s="164"/>
+      <c r="AC38" s="164"/>
+      <c r="AD38" s="164"/>
+      <c r="AE38" s="164"/>
+      <c r="AF38" s="164"/>
+      <c r="AG38" s="164"/>
+      <c r="AH38" s="164"/>
+      <c r="AI38" s="164"/>
+      <c r="AJ38" s="164"/>
+      <c r="AK38" s="164"/>
+      <c r="AL38" s="164"/>
+      <c r="AM38" s="165"/>
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
-      <c r="C39" s="40"/>
-      <c r="AK39" s="8"/>
-      <c r="AM39" s="41"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="164"/>
+      <c r="E39" s="164"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="164"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="164"/>
+      <c r="K39" s="164"/>
+      <c r="L39" s="164"/>
+      <c r="M39" s="164"/>
+      <c r="N39" s="164"/>
+      <c r="O39" s="164"/>
+      <c r="P39" s="164"/>
+      <c r="Q39" s="164"/>
+      <c r="R39" s="164"/>
+      <c r="S39" s="164"/>
+      <c r="T39" s="164"/>
+      <c r="U39" s="164"/>
+      <c r="V39" s="164"/>
+      <c r="W39" s="164"/>
+      <c r="X39" s="164"/>
+      <c r="Y39" s="164"/>
+      <c r="Z39" s="164"/>
+      <c r="AA39" s="164"/>
+      <c r="AB39" s="164"/>
+      <c r="AC39" s="164"/>
+      <c r="AD39" s="164"/>
+      <c r="AE39" s="164"/>
+      <c r="AF39" s="164"/>
+      <c r="AG39" s="164"/>
+      <c r="AH39" s="164"/>
+      <c r="AI39" s="164"/>
+      <c r="AJ39" s="164"/>
+      <c r="AK39" s="164"/>
+      <c r="AL39" s="164"/>
+      <c r="AM39" s="165"/>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
       <c r="B40" s="50"/>
-      <c r="C40" s="40"/>
-      <c r="AK40" s="8"/>
-      <c r="AM40" s="41"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="164"/>
+      <c r="E40" s="164"/>
+      <c r="F40" s="164"/>
+      <c r="G40" s="164"/>
+      <c r="H40" s="164"/>
+      <c r="I40" s="164"/>
+      <c r="J40" s="164"/>
+      <c r="K40" s="164"/>
+      <c r="L40" s="164"/>
+      <c r="M40" s="164"/>
+      <c r="N40" s="164"/>
+      <c r="O40" s="164"/>
+      <c r="P40" s="164"/>
+      <c r="Q40" s="164"/>
+      <c r="R40" s="164"/>
+      <c r="S40" s="164"/>
+      <c r="T40" s="164"/>
+      <c r="U40" s="164"/>
+      <c r="V40" s="164"/>
+      <c r="W40" s="164"/>
+      <c r="X40" s="164"/>
+      <c r="Y40" s="164"/>
+      <c r="Z40" s="164"/>
+      <c r="AA40" s="164"/>
+      <c r="AB40" s="164"/>
+      <c r="AC40" s="164"/>
+      <c r="AD40" s="164"/>
+      <c r="AE40" s="164"/>
+      <c r="AF40" s="164"/>
+      <c r="AG40" s="164"/>
+      <c r="AH40" s="164"/>
+      <c r="AI40" s="164"/>
+      <c r="AJ40" s="164"/>
+      <c r="AK40" s="164"/>
+      <c r="AL40" s="164"/>
+      <c r="AM40" s="165"/>
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="50"/>
-      <c r="C41" s="40"/>
-      <c r="AK41" s="8"/>
-      <c r="AM41" s="41"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="164"/>
+      <c r="E41" s="164"/>
+      <c r="F41" s="164"/>
+      <c r="G41" s="164"/>
+      <c r="H41" s="164"/>
+      <c r="I41" s="164"/>
+      <c r="J41" s="164"/>
+      <c r="K41" s="164"/>
+      <c r="L41" s="164"/>
+      <c r="M41" s="164"/>
+      <c r="N41" s="164"/>
+      <c r="O41" s="164"/>
+      <c r="P41" s="164"/>
+      <c r="Q41" s="164"/>
+      <c r="R41" s="164"/>
+      <c r="S41" s="164"/>
+      <c r="T41" s="164"/>
+      <c r="U41" s="164"/>
+      <c r="V41" s="164"/>
+      <c r="W41" s="164"/>
+      <c r="X41" s="164"/>
+      <c r="Y41" s="164"/>
+      <c r="Z41" s="164"/>
+      <c r="AA41" s="164"/>
+      <c r="AB41" s="164"/>
+      <c r="AC41" s="164"/>
+      <c r="AD41" s="164"/>
+      <c r="AE41" s="164"/>
+      <c r="AF41" s="164"/>
+      <c r="AG41" s="164"/>
+      <c r="AH41" s="164"/>
+      <c r="AI41" s="164"/>
+      <c r="AJ41" s="164"/>
+      <c r="AK41" s="164"/>
+      <c r="AL41" s="164"/>
+      <c r="AM41" s="165"/>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49"/>
       <c r="B42" s="50"/>
-      <c r="C42" s="40"/>
-      <c r="AK42" s="8"/>
-      <c r="AM42" s="41"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="164"/>
+      <c r="E42" s="164"/>
+      <c r="F42" s="164"/>
+      <c r="G42" s="164"/>
+      <c r="H42" s="164"/>
+      <c r="I42" s="164"/>
+      <c r="J42" s="164"/>
+      <c r="K42" s="164"/>
+      <c r="L42" s="164"/>
+      <c r="M42" s="164"/>
+      <c r="N42" s="164"/>
+      <c r="O42" s="164"/>
+      <c r="P42" s="164"/>
+      <c r="Q42" s="164"/>
+      <c r="R42" s="164"/>
+      <c r="S42" s="164"/>
+      <c r="T42" s="164"/>
+      <c r="U42" s="164"/>
+      <c r="V42" s="164"/>
+      <c r="W42" s="164"/>
+      <c r="X42" s="164"/>
+      <c r="Y42" s="164"/>
+      <c r="Z42" s="164"/>
+      <c r="AA42" s="164"/>
+      <c r="AB42" s="164"/>
+      <c r="AC42" s="164"/>
+      <c r="AD42" s="164"/>
+      <c r="AE42" s="164"/>
+      <c r="AF42" s="164"/>
+      <c r="AG42" s="164"/>
+      <c r="AH42" s="164"/>
+      <c r="AI42" s="164"/>
+      <c r="AJ42" s="164"/>
+      <c r="AK42" s="164"/>
+      <c r="AL42" s="164"/>
+      <c r="AM42" s="165"/>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="49"/>
       <c r="B43" s="50"/>
-      <c r="C43" s="40"/>
-      <c r="AK43" s="8"/>
-      <c r="AM43" s="41"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="164"/>
+      <c r="E43" s="164"/>
+      <c r="F43" s="164"/>
+      <c r="G43" s="164"/>
+      <c r="H43" s="164"/>
+      <c r="I43" s="164"/>
+      <c r="J43" s="164"/>
+      <c r="K43" s="164"/>
+      <c r="L43" s="164"/>
+      <c r="M43" s="164"/>
+      <c r="N43" s="164"/>
+      <c r="O43" s="164"/>
+      <c r="P43" s="164"/>
+      <c r="Q43" s="164"/>
+      <c r="R43" s="164"/>
+      <c r="S43" s="164"/>
+      <c r="T43" s="164"/>
+      <c r="U43" s="164"/>
+      <c r="V43" s="164"/>
+      <c r="W43" s="164"/>
+      <c r="X43" s="164"/>
+      <c r="Y43" s="164"/>
+      <c r="Z43" s="164"/>
+      <c r="AA43" s="164"/>
+      <c r="AB43" s="164"/>
+      <c r="AC43" s="164"/>
+      <c r="AD43" s="164"/>
+      <c r="AE43" s="164"/>
+      <c r="AF43" s="164"/>
+      <c r="AG43" s="164"/>
+      <c r="AH43" s="164"/>
+      <c r="AI43" s="164"/>
+      <c r="AJ43" s="164"/>
+      <c r="AK43" s="164"/>
+      <c r="AL43" s="164"/>
+      <c r="AM43" s="165"/>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="49"/>
       <c r="B44" s="50"/>
-      <c r="C44" s="40"/>
-      <c r="AK44" s="8"/>
-      <c r="AM44" s="41"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="164"/>
+      <c r="E44" s="164"/>
+      <c r="F44" s="164"/>
+      <c r="G44" s="164"/>
+      <c r="H44" s="164"/>
+      <c r="I44" s="164"/>
+      <c r="J44" s="164"/>
+      <c r="K44" s="164"/>
+      <c r="L44" s="164"/>
+      <c r="M44" s="164"/>
+      <c r="N44" s="164"/>
+      <c r="O44" s="164"/>
+      <c r="P44" s="164"/>
+      <c r="Q44" s="164"/>
+      <c r="R44" s="164"/>
+      <c r="S44" s="164"/>
+      <c r="T44" s="164"/>
+      <c r="U44" s="164"/>
+      <c r="V44" s="164"/>
+      <c r="W44" s="164"/>
+      <c r="X44" s="164"/>
+      <c r="Y44" s="164"/>
+      <c r="Z44" s="164"/>
+      <c r="AA44" s="164"/>
+      <c r="AB44" s="164"/>
+      <c r="AC44" s="164"/>
+      <c r="AD44" s="164"/>
+      <c r="AE44" s="164"/>
+      <c r="AF44" s="164"/>
+      <c r="AG44" s="164"/>
+      <c r="AH44" s="164"/>
+      <c r="AI44" s="164"/>
+      <c r="AJ44" s="164"/>
+      <c r="AK44" s="164"/>
+      <c r="AL44" s="164"/>
+      <c r="AM44" s="165"/>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="49"/>
       <c r="B45" s="50"/>
-      <c r="C45" s="51"/>
-      <c r="AK45" s="8"/>
-      <c r="AM45" s="52"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="164"/>
+      <c r="E45" s="164"/>
+      <c r="F45" s="164"/>
+      <c r="G45" s="164"/>
+      <c r="H45" s="164"/>
+      <c r="I45" s="164"/>
+      <c r="J45" s="164"/>
+      <c r="K45" s="164"/>
+      <c r="L45" s="164"/>
+      <c r="M45" s="164"/>
+      <c r="N45" s="164"/>
+      <c r="O45" s="164"/>
+      <c r="P45" s="164"/>
+      <c r="Q45" s="164"/>
+      <c r="R45" s="164"/>
+      <c r="S45" s="164"/>
+      <c r="T45" s="164"/>
+      <c r="U45" s="164"/>
+      <c r="V45" s="164"/>
+      <c r="W45" s="164"/>
+      <c r="X45" s="164"/>
+      <c r="Y45" s="164"/>
+      <c r="Z45" s="164"/>
+      <c r="AA45" s="164"/>
+      <c r="AB45" s="164"/>
+      <c r="AC45" s="164"/>
+      <c r="AD45" s="164"/>
+      <c r="AE45" s="164"/>
+      <c r="AF45" s="164"/>
+      <c r="AG45" s="164"/>
+      <c r="AH45" s="164"/>
+      <c r="AI45" s="164"/>
+      <c r="AJ45" s="164"/>
+      <c r="AK45" s="164"/>
+      <c r="AL45" s="164"/>
+      <c r="AM45" s="165"/>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="50"/>
-      <c r="C46" s="51"/>
-      <c r="AK46" s="8"/>
-      <c r="AM46" s="52"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="164"/>
+      <c r="E46" s="164"/>
+      <c r="F46" s="164"/>
+      <c r="G46" s="164"/>
+      <c r="H46" s="164"/>
+      <c r="I46" s="164"/>
+      <c r="J46" s="164"/>
+      <c r="K46" s="164"/>
+      <c r="L46" s="164"/>
+      <c r="M46" s="164"/>
+      <c r="N46" s="164"/>
+      <c r="O46" s="164"/>
+      <c r="P46" s="164"/>
+      <c r="Q46" s="164"/>
+      <c r="R46" s="164"/>
+      <c r="S46" s="164"/>
+      <c r="T46" s="164"/>
+      <c r="U46" s="164"/>
+      <c r="V46" s="164"/>
+      <c r="W46" s="164"/>
+      <c r="X46" s="164"/>
+      <c r="Y46" s="164"/>
+      <c r="Z46" s="164"/>
+      <c r="AA46" s="164"/>
+      <c r="AB46" s="164"/>
+      <c r="AC46" s="164"/>
+      <c r="AD46" s="164"/>
+      <c r="AE46" s="164"/>
+      <c r="AF46" s="164"/>
+      <c r="AG46" s="164"/>
+      <c r="AH46" s="164"/>
+      <c r="AI46" s="164"/>
+      <c r="AJ46" s="164"/>
+      <c r="AK46" s="164"/>
+      <c r="AL46" s="164"/>
+      <c r="AM46" s="165"/>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="49"/>
       <c r="B47" s="50"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="28"/>
-      <c r="AC47" s="28"/>
-      <c r="AD47" s="28"/>
-      <c r="AE47" s="28"/>
-      <c r="AF47" s="28"/>
-      <c r="AG47" s="28"/>
-      <c r="AH47" s="28"/>
-      <c r="AI47" s="28"/>
-      <c r="AJ47" s="28"/>
-      <c r="AK47" s="8"/>
-      <c r="AM47" s="52"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="164"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="164"/>
+      <c r="I47" s="164"/>
+      <c r="J47" s="164"/>
+      <c r="K47" s="164"/>
+      <c r="L47" s="164"/>
+      <c r="M47" s="164"/>
+      <c r="N47" s="164"/>
+      <c r="O47" s="164"/>
+      <c r="P47" s="164"/>
+      <c r="Q47" s="164"/>
+      <c r="R47" s="164"/>
+      <c r="S47" s="164"/>
+      <c r="T47" s="164"/>
+      <c r="U47" s="164"/>
+      <c r="V47" s="164"/>
+      <c r="W47" s="164"/>
+      <c r="X47" s="164"/>
+      <c r="Y47" s="164"/>
+      <c r="Z47" s="164"/>
+      <c r="AA47" s="164"/>
+      <c r="AB47" s="164"/>
+      <c r="AC47" s="164"/>
+      <c r="AD47" s="164"/>
+      <c r="AE47" s="164"/>
+      <c r="AF47" s="164"/>
+      <c r="AG47" s="164"/>
+      <c r="AH47" s="164"/>
+      <c r="AI47" s="164"/>
+      <c r="AJ47" s="164"/>
+      <c r="AK47" s="164"/>
+      <c r="AL47" s="164"/>
+      <c r="AM47" s="165"/>
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="49"/>
       <c r="B48" s="50"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="28"/>
-      <c r="AA48" s="28"/>
-      <c r="AB48" s="28"/>
-      <c r="AC48" s="28"/>
-      <c r="AD48" s="28"/>
-      <c r="AE48" s="28"/>
-      <c r="AF48" s="28"/>
-      <c r="AG48" s="28"/>
-      <c r="AH48" s="28"/>
-      <c r="AI48" s="28"/>
-      <c r="AJ48" s="28"/>
-      <c r="AK48" s="8"/>
-      <c r="AM48" s="41"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="164"/>
+      <c r="E48" s="164"/>
+      <c r="F48" s="164"/>
+      <c r="G48" s="164"/>
+      <c r="H48" s="164"/>
+      <c r="I48" s="164"/>
+      <c r="J48" s="164"/>
+      <c r="K48" s="164"/>
+      <c r="L48" s="164"/>
+      <c r="M48" s="164"/>
+      <c r="N48" s="164"/>
+      <c r="O48" s="164"/>
+      <c r="P48" s="164"/>
+      <c r="Q48" s="164"/>
+      <c r="R48" s="164"/>
+      <c r="S48" s="164"/>
+      <c r="T48" s="164"/>
+      <c r="U48" s="164"/>
+      <c r="V48" s="164"/>
+      <c r="W48" s="164"/>
+      <c r="X48" s="164"/>
+      <c r="Y48" s="164"/>
+      <c r="Z48" s="164"/>
+      <c r="AA48" s="164"/>
+      <c r="AB48" s="164"/>
+      <c r="AC48" s="164"/>
+      <c r="AD48" s="164"/>
+      <c r="AE48" s="164"/>
+      <c r="AF48" s="164"/>
+      <c r="AG48" s="164"/>
+      <c r="AH48" s="164"/>
+      <c r="AI48" s="164"/>
+      <c r="AJ48" s="164"/>
+      <c r="AK48" s="164"/>
+      <c r="AL48" s="164"/>
+      <c r="AM48" s="165"/>
     </row>
     <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="49"/>
       <c r="B49" s="50"/>
-      <c r="C49" s="40"/>
-      <c r="AK49" s="8"/>
-      <c r="AM49" s="41"/>
+      <c r="C49" s="163"/>
+      <c r="D49" s="164"/>
+      <c r="E49" s="164"/>
+      <c r="F49" s="164"/>
+      <c r="G49" s="164"/>
+      <c r="H49" s="164"/>
+      <c r="I49" s="164"/>
+      <c r="J49" s="164"/>
+      <c r="K49" s="164"/>
+      <c r="L49" s="164"/>
+      <c r="M49" s="164"/>
+      <c r="N49" s="164"/>
+      <c r="O49" s="164"/>
+      <c r="P49" s="164"/>
+      <c r="Q49" s="164"/>
+      <c r="R49" s="164"/>
+      <c r="S49" s="164"/>
+      <c r="T49" s="164"/>
+      <c r="U49" s="164"/>
+      <c r="V49" s="164"/>
+      <c r="W49" s="164"/>
+      <c r="X49" s="164"/>
+      <c r="Y49" s="164"/>
+      <c r="Z49" s="164"/>
+      <c r="AA49" s="164"/>
+      <c r="AB49" s="164"/>
+      <c r="AC49" s="164"/>
+      <c r="AD49" s="164"/>
+      <c r="AE49" s="164"/>
+      <c r="AF49" s="164"/>
+      <c r="AG49" s="164"/>
+      <c r="AH49" s="164"/>
+      <c r="AI49" s="164"/>
+      <c r="AJ49" s="164"/>
+      <c r="AK49" s="164"/>
+      <c r="AL49" s="164"/>
+      <c r="AM49" s="165"/>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="49"/>
       <c r="B50" s="50"/>
-      <c r="C50" s="40"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="29"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="29"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="29"/>
-      <c r="AA50" s="29"/>
-      <c r="AB50" s="29"/>
-      <c r="AC50" s="29"/>
-      <c r="AD50" s="29"/>
-      <c r="AE50" s="29"/>
-      <c r="AF50" s="29"/>
-      <c r="AG50" s="29"/>
-      <c r="AH50" s="29"/>
-      <c r="AI50" s="29"/>
-      <c r="AJ50" s="29"/>
-      <c r="AK50" s="8"/>
-      <c r="AM50" s="53"/>
+      <c r="C50" s="163"/>
+      <c r="D50" s="164"/>
+      <c r="E50" s="164"/>
+      <c r="F50" s="164"/>
+      <c r="G50" s="164"/>
+      <c r="H50" s="164"/>
+      <c r="I50" s="164"/>
+      <c r="J50" s="164"/>
+      <c r="K50" s="164"/>
+      <c r="L50" s="164"/>
+      <c r="M50" s="164"/>
+      <c r="N50" s="164"/>
+      <c r="O50" s="164"/>
+      <c r="P50" s="167"/>
+      <c r="Q50" s="167"/>
+      <c r="R50" s="167"/>
+      <c r="S50" s="167"/>
+      <c r="T50" s="167"/>
+      <c r="U50" s="167"/>
+      <c r="V50" s="167"/>
+      <c r="W50" s="167"/>
+      <c r="X50" s="167"/>
+      <c r="Y50" s="167"/>
+      <c r="Z50" s="167"/>
+      <c r="AA50" s="167"/>
+      <c r="AB50" s="167"/>
+      <c r="AC50" s="167"/>
+      <c r="AD50" s="167"/>
+      <c r="AE50" s="167"/>
+      <c r="AF50" s="167"/>
+      <c r="AG50" s="167"/>
+      <c r="AH50" s="167"/>
+      <c r="AI50" s="167"/>
+      <c r="AJ50" s="167"/>
+      <c r="AK50" s="164"/>
+      <c r="AL50" s="164"/>
+      <c r="AM50" s="168"/>
     </row>
     <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="49"/>
       <c r="B51" s="50"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="29"/>
-      <c r="AB51" s="29"/>
-      <c r="AC51" s="29"/>
-      <c r="AD51" s="29"/>
-      <c r="AE51" s="29"/>
-      <c r="AF51" s="29"/>
-      <c r="AG51" s="29"/>
-      <c r="AH51" s="29"/>
-      <c r="AI51" s="29"/>
-      <c r="AJ51" s="29"/>
-      <c r="AK51" s="8"/>
-      <c r="AM51" s="53"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="164"/>
+      <c r="E51" s="164"/>
+      <c r="F51" s="164"/>
+      <c r="G51" s="164"/>
+      <c r="H51" s="164"/>
+      <c r="I51" s="164"/>
+      <c r="J51" s="164"/>
+      <c r="K51" s="164"/>
+      <c r="L51" s="164"/>
+      <c r="M51" s="164"/>
+      <c r="N51" s="164"/>
+      <c r="O51" s="164"/>
+      <c r="P51" s="167"/>
+      <c r="Q51" s="167"/>
+      <c r="R51" s="167"/>
+      <c r="S51" s="167"/>
+      <c r="T51" s="167"/>
+      <c r="U51" s="167"/>
+      <c r="V51" s="167"/>
+      <c r="W51" s="167"/>
+      <c r="X51" s="167"/>
+      <c r="Y51" s="167"/>
+      <c r="Z51" s="167"/>
+      <c r="AA51" s="167"/>
+      <c r="AB51" s="167"/>
+      <c r="AC51" s="167"/>
+      <c r="AD51" s="167"/>
+      <c r="AE51" s="167"/>
+      <c r="AF51" s="167"/>
+      <c r="AG51" s="167"/>
+      <c r="AH51" s="167"/>
+      <c r="AI51" s="167"/>
+      <c r="AJ51" s="167"/>
+      <c r="AK51" s="164"/>
+      <c r="AL51" s="164"/>
+      <c r="AM51" s="168"/>
     </row>
     <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="49"/>
       <c r="B52" s="50"/>
-      <c r="C52" s="40"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="29"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="29"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="29"/>
-      <c r="Z52" s="29"/>
-      <c r="AA52" s="29"/>
-      <c r="AB52" s="29"/>
-      <c r="AC52" s="29"/>
-      <c r="AD52" s="29"/>
-      <c r="AE52" s="29"/>
-      <c r="AF52" s="29"/>
-      <c r="AG52" s="29"/>
-      <c r="AH52" s="29"/>
-      <c r="AI52" s="29"/>
-      <c r="AJ52" s="29"/>
-      <c r="AK52" s="8"/>
-      <c r="AM52" s="53"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="164"/>
+      <c r="E52" s="164"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="164"/>
+      <c r="H52" s="164"/>
+      <c r="I52" s="164"/>
+      <c r="J52" s="164"/>
+      <c r="K52" s="164"/>
+      <c r="L52" s="164"/>
+      <c r="M52" s="164"/>
+      <c r="N52" s="164"/>
+      <c r="O52" s="164"/>
+      <c r="P52" s="167"/>
+      <c r="Q52" s="167"/>
+      <c r="R52" s="167"/>
+      <c r="S52" s="167"/>
+      <c r="T52" s="167"/>
+      <c r="U52" s="167"/>
+      <c r="V52" s="167"/>
+      <c r="W52" s="167"/>
+      <c r="X52" s="167"/>
+      <c r="Y52" s="167"/>
+      <c r="Z52" s="167"/>
+      <c r="AA52" s="167"/>
+      <c r="AB52" s="167"/>
+      <c r="AC52" s="167"/>
+      <c r="AD52" s="167"/>
+      <c r="AE52" s="167"/>
+      <c r="AF52" s="167"/>
+      <c r="AG52" s="167"/>
+      <c r="AH52" s="167"/>
+      <c r="AI52" s="167"/>
+      <c r="AJ52" s="167"/>
+      <c r="AK52" s="164"/>
+      <c r="AL52" s="164"/>
+      <c r="AM52" s="168"/>
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="55"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="11"/>
-      <c r="AD53" s="11"/>
-      <c r="AE53" s="11"/>
-      <c r="AF53" s="11"/>
-      <c r="AG53" s="11"/>
-      <c r="AH53" s="11"/>
-      <c r="AI53" s="11"/>
-      <c r="AJ53" s="11"/>
-      <c r="AK53" s="8"/>
-      <c r="AM53" s="43"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="164"/>
+      <c r="E53" s="164"/>
+      <c r="F53" s="164"/>
+      <c r="G53" s="164"/>
+      <c r="H53" s="164"/>
+      <c r="I53" s="164"/>
+      <c r="J53" s="164"/>
+      <c r="K53" s="164"/>
+      <c r="L53" s="164"/>
+      <c r="M53" s="164"/>
+      <c r="N53" s="164"/>
+      <c r="O53" s="164"/>
+      <c r="P53" s="164"/>
+      <c r="Q53" s="164"/>
+      <c r="R53" s="164"/>
+      <c r="S53" s="164"/>
+      <c r="T53" s="164"/>
+      <c r="U53" s="164"/>
+      <c r="V53" s="164"/>
+      <c r="W53" s="164"/>
+      <c r="X53" s="164"/>
+      <c r="Y53" s="164"/>
+      <c r="Z53" s="164"/>
+      <c r="AA53" s="164"/>
+      <c r="AB53" s="164"/>
+      <c r="AC53" s="164"/>
+      <c r="AD53" s="164"/>
+      <c r="AE53" s="164"/>
+      <c r="AF53" s="164"/>
+      <c r="AG53" s="164"/>
+      <c r="AH53" s="164"/>
+      <c r="AI53" s="164"/>
+      <c r="AJ53" s="164"/>
+      <c r="AK53" s="164"/>
+      <c r="AL53" s="164"/>
+      <c r="AM53" s="165"/>
     </row>
     <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="49"/>
       <c r="B54" s="55"/>
-      <c r="C54" s="96"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="97"/>
-      <c r="F54" s="97"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="97"/>
-      <c r="J54" s="97"/>
-      <c r="K54" s="97"/>
-      <c r="L54" s="97"/>
-      <c r="M54" s="97"/>
-      <c r="N54" s="97"/>
-      <c r="O54" s="97"/>
-      <c r="P54" s="98"/>
-      <c r="Q54" s="98"/>
-      <c r="R54" s="98"/>
-      <c r="S54" s="98"/>
-      <c r="T54" s="98"/>
-      <c r="U54" s="98"/>
-      <c r="V54" s="98"/>
-      <c r="W54" s="98"/>
-      <c r="X54" s="98"/>
-      <c r="Y54" s="98"/>
-      <c r="Z54" s="98"/>
-      <c r="AA54" s="98"/>
-      <c r="AB54" s="98"/>
-      <c r="AC54" s="98"/>
-      <c r="AD54" s="98"/>
-      <c r="AE54" s="98"/>
-      <c r="AF54" s="98"/>
-      <c r="AG54" s="98"/>
-      <c r="AH54" s="98"/>
-      <c r="AI54" s="98"/>
-      <c r="AJ54" s="98"/>
-      <c r="AK54" s="24"/>
-      <c r="AL54" s="25"/>
-      <c r="AM54" s="99"/>
+      <c r="C54" s="169"/>
+      <c r="D54" s="170"/>
+      <c r="E54" s="170"/>
+      <c r="F54" s="170"/>
+      <c r="G54" s="170"/>
+      <c r="H54" s="170"/>
+      <c r="I54" s="170"/>
+      <c r="J54" s="170"/>
+      <c r="K54" s="170"/>
+      <c r="L54" s="170"/>
+      <c r="M54" s="170"/>
+      <c r="N54" s="170"/>
+      <c r="O54" s="170"/>
+      <c r="P54" s="170"/>
+      <c r="Q54" s="170"/>
+      <c r="R54" s="170"/>
+      <c r="S54" s="170"/>
+      <c r="T54" s="170"/>
+      <c r="U54" s="170"/>
+      <c r="V54" s="170"/>
+      <c r="W54" s="170"/>
+      <c r="X54" s="170"/>
+      <c r="Y54" s="170"/>
+      <c r="Z54" s="170"/>
+      <c r="AA54" s="170"/>
+      <c r="AB54" s="170"/>
+      <c r="AC54" s="170"/>
+      <c r="AD54" s="170"/>
+      <c r="AE54" s="170"/>
+      <c r="AF54" s="170"/>
+      <c r="AG54" s="170"/>
+      <c r="AH54" s="170"/>
+      <c r="AI54" s="170"/>
+      <c r="AJ54" s="170"/>
+      <c r="AK54" s="170"/>
+      <c r="AL54" s="170"/>
+      <c r="AM54" s="171"/>
     </row>
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="49"/>
@@ -9738,7 +10619,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -10068,706 +10949,706 @@
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="40"/>
-      <c r="D8" s="160" t="s">
+      <c r="D8" s="172" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="160"/>
-      <c r="K8" s="160"/>
-      <c r="L8" s="160"/>
-      <c r="M8" s="160"/>
-      <c r="N8" s="160"/>
-      <c r="O8" s="160"/>
-      <c r="P8" s="160"/>
-      <c r="Q8" s="160"/>
-      <c r="R8" s="160"/>
-      <c r="S8" s="160"/>
-      <c r="T8" s="160"/>
-      <c r="U8" s="160"/>
-      <c r="V8" s="160"/>
-      <c r="W8" s="160"/>
-      <c r="X8" s="160"/>
-      <c r="Y8" s="160"/>
-      <c r="Z8" s="160"/>
-      <c r="AA8" s="160"/>
-      <c r="AB8" s="160"/>
-      <c r="AC8" s="160"/>
-      <c r="AD8" s="160"/>
-      <c r="AE8" s="160"/>
-      <c r="AF8" s="160"/>
-      <c r="AG8" s="160"/>
-      <c r="AH8" s="160"/>
-      <c r="AI8" s="160"/>
-      <c r="AJ8" s="160"/>
-      <c r="AK8" s="160"/>
-      <c r="AL8" s="160"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="172"/>
+      <c r="L8" s="172"/>
+      <c r="M8" s="172"/>
+      <c r="N8" s="172"/>
+      <c r="O8" s="172"/>
+      <c r="P8" s="172"/>
+      <c r="Q8" s="172"/>
+      <c r="R8" s="172"/>
+      <c r="S8" s="172"/>
+      <c r="T8" s="172"/>
+      <c r="U8" s="172"/>
+      <c r="V8" s="172"/>
+      <c r="W8" s="172"/>
+      <c r="X8" s="172"/>
+      <c r="Y8" s="172"/>
+      <c r="Z8" s="172"/>
+      <c r="AA8" s="172"/>
+      <c r="AB8" s="172"/>
+      <c r="AC8" s="172"/>
+      <c r="AD8" s="172"/>
+      <c r="AE8" s="172"/>
+      <c r="AF8" s="172"/>
+      <c r="AG8" s="172"/>
+      <c r="AH8" s="172"/>
+      <c r="AI8" s="172"/>
+      <c r="AJ8" s="172"/>
+      <c r="AK8" s="172"/>
+      <c r="AL8" s="172"/>
       <c r="AM8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C9" s="40"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="160"/>
-      <c r="K9" s="160"/>
-      <c r="L9" s="160"/>
-      <c r="M9" s="160"/>
-      <c r="N9" s="160"/>
-      <c r="O9" s="160"/>
-      <c r="P9" s="160"/>
-      <c r="Q9" s="160"/>
-      <c r="R9" s="160"/>
-      <c r="S9" s="160"/>
-      <c r="T9" s="160"/>
-      <c r="U9" s="160"/>
-      <c r="V9" s="160"/>
-      <c r="W9" s="160"/>
-      <c r="X9" s="160"/>
-      <c r="Y9" s="160"/>
-      <c r="Z9" s="160"/>
-      <c r="AA9" s="160"/>
-      <c r="AB9" s="160"/>
-      <c r="AC9" s="160"/>
-      <c r="AD9" s="160"/>
-      <c r="AE9" s="160"/>
-      <c r="AF9" s="160"/>
-      <c r="AG9" s="160"/>
-      <c r="AH9" s="160"/>
-      <c r="AI9" s="160"/>
-      <c r="AJ9" s="160"/>
-      <c r="AK9" s="160"/>
-      <c r="AL9" s="160"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="172"/>
+      <c r="L9" s="172"/>
+      <c r="M9" s="172"/>
+      <c r="N9" s="172"/>
+      <c r="O9" s="172"/>
+      <c r="P9" s="172"/>
+      <c r="Q9" s="172"/>
+      <c r="R9" s="172"/>
+      <c r="S9" s="172"/>
+      <c r="T9" s="172"/>
+      <c r="U9" s="172"/>
+      <c r="V9" s="172"/>
+      <c r="W9" s="172"/>
+      <c r="X9" s="172"/>
+      <c r="Y9" s="172"/>
+      <c r="Z9" s="172"/>
+      <c r="AA9" s="172"/>
+      <c r="AB9" s="172"/>
+      <c r="AC9" s="172"/>
+      <c r="AD9" s="172"/>
+      <c r="AE9" s="172"/>
+      <c r="AF9" s="172"/>
+      <c r="AG9" s="172"/>
+      <c r="AH9" s="172"/>
+      <c r="AI9" s="172"/>
+      <c r="AJ9" s="172"/>
+      <c r="AK9" s="172"/>
+      <c r="AL9" s="172"/>
       <c r="AM9" s="41"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C10" s="46"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="160"/>
-      <c r="K10" s="160"/>
-      <c r="L10" s="160"/>
-      <c r="M10" s="160"/>
-      <c r="N10" s="160"/>
-      <c r="O10" s="160"/>
-      <c r="P10" s="160"/>
-      <c r="Q10" s="160"/>
-      <c r="R10" s="160"/>
-      <c r="S10" s="160"/>
-      <c r="T10" s="160"/>
-      <c r="U10" s="160"/>
-      <c r="V10" s="160"/>
-      <c r="W10" s="160"/>
-      <c r="X10" s="160"/>
-      <c r="Y10" s="160"/>
-      <c r="Z10" s="160"/>
-      <c r="AA10" s="160"/>
-      <c r="AB10" s="160"/>
-      <c r="AC10" s="160"/>
-      <c r="AD10" s="160"/>
-      <c r="AE10" s="160"/>
-      <c r="AF10" s="160"/>
-      <c r="AG10" s="160"/>
-      <c r="AH10" s="160"/>
-      <c r="AI10" s="160"/>
-      <c r="AJ10" s="160"/>
-      <c r="AK10" s="160"/>
-      <c r="AL10" s="160"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="172"/>
+      <c r="N10" s="172"/>
+      <c r="O10" s="172"/>
+      <c r="P10" s="172"/>
+      <c r="Q10" s="172"/>
+      <c r="R10" s="172"/>
+      <c r="S10" s="172"/>
+      <c r="T10" s="172"/>
+      <c r="U10" s="172"/>
+      <c r="V10" s="172"/>
+      <c r="W10" s="172"/>
+      <c r="X10" s="172"/>
+      <c r="Y10" s="172"/>
+      <c r="Z10" s="172"/>
+      <c r="AA10" s="172"/>
+      <c r="AB10" s="172"/>
+      <c r="AC10" s="172"/>
+      <c r="AD10" s="172"/>
+      <c r="AE10" s="172"/>
+      <c r="AF10" s="172"/>
+      <c r="AG10" s="172"/>
+      <c r="AH10" s="172"/>
+      <c r="AI10" s="172"/>
+      <c r="AJ10" s="172"/>
+      <c r="AK10" s="172"/>
+      <c r="AL10" s="172"/>
       <c r="AM10" s="47"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C11" s="46"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="160"/>
-      <c r="K11" s="160"/>
-      <c r="L11" s="160"/>
-      <c r="M11" s="160"/>
-      <c r="N11" s="160"/>
-      <c r="O11" s="160"/>
-      <c r="P11" s="160"/>
-      <c r="Q11" s="160"/>
-      <c r="R11" s="160"/>
-      <c r="S11" s="160"/>
-      <c r="T11" s="160"/>
-      <c r="U11" s="160"/>
-      <c r="V11" s="160"/>
-      <c r="W11" s="160"/>
-      <c r="X11" s="160"/>
-      <c r="Y11" s="160"/>
-      <c r="Z11" s="160"/>
-      <c r="AA11" s="160"/>
-      <c r="AB11" s="160"/>
-      <c r="AC11" s="160"/>
-      <c r="AD11" s="160"/>
-      <c r="AE11" s="160"/>
-      <c r="AF11" s="160"/>
-      <c r="AG11" s="160"/>
-      <c r="AH11" s="160"/>
-      <c r="AI11" s="160"/>
-      <c r="AJ11" s="160"/>
-      <c r="AK11" s="160"/>
-      <c r="AL11" s="160"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="172"/>
+      <c r="L11" s="172"/>
+      <c r="M11" s="172"/>
+      <c r="N11" s="172"/>
+      <c r="O11" s="172"/>
+      <c r="P11" s="172"/>
+      <c r="Q11" s="172"/>
+      <c r="R11" s="172"/>
+      <c r="S11" s="172"/>
+      <c r="T11" s="172"/>
+      <c r="U11" s="172"/>
+      <c r="V11" s="172"/>
+      <c r="W11" s="172"/>
+      <c r="X11" s="172"/>
+      <c r="Y11" s="172"/>
+      <c r="Z11" s="172"/>
+      <c r="AA11" s="172"/>
+      <c r="AB11" s="172"/>
+      <c r="AC11" s="172"/>
+      <c r="AD11" s="172"/>
+      <c r="AE11" s="172"/>
+      <c r="AF11" s="172"/>
+      <c r="AG11" s="172"/>
+      <c r="AH11" s="172"/>
+      <c r="AI11" s="172"/>
+      <c r="AJ11" s="172"/>
+      <c r="AK11" s="172"/>
+      <c r="AL11" s="172"/>
       <c r="AM11" s="47"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C12" s="46"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="160"/>
-      <c r="L12" s="160"/>
-      <c r="M12" s="160"/>
-      <c r="N12" s="160"/>
-      <c r="O12" s="160"/>
-      <c r="P12" s="160"/>
-      <c r="Q12" s="160"/>
-      <c r="R12" s="160"/>
-      <c r="S12" s="160"/>
-      <c r="T12" s="160"/>
-      <c r="U12" s="160"/>
-      <c r="V12" s="160"/>
-      <c r="W12" s="160"/>
-      <c r="X12" s="160"/>
-      <c r="Y12" s="160"/>
-      <c r="Z12" s="160"/>
-      <c r="AA12" s="160"/>
-      <c r="AB12" s="160"/>
-      <c r="AC12" s="160"/>
-      <c r="AD12" s="160"/>
-      <c r="AE12" s="160"/>
-      <c r="AF12" s="160"/>
-      <c r="AG12" s="160"/>
-      <c r="AH12" s="160"/>
-      <c r="AI12" s="160"/>
-      <c r="AJ12" s="160"/>
-      <c r="AK12" s="160"/>
-      <c r="AL12" s="160"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="172"/>
+      <c r="L12" s="172"/>
+      <c r="M12" s="172"/>
+      <c r="N12" s="172"/>
+      <c r="O12" s="172"/>
+      <c r="P12" s="172"/>
+      <c r="Q12" s="172"/>
+      <c r="R12" s="172"/>
+      <c r="S12" s="172"/>
+      <c r="T12" s="172"/>
+      <c r="U12" s="172"/>
+      <c r="V12" s="172"/>
+      <c r="W12" s="172"/>
+      <c r="X12" s="172"/>
+      <c r="Y12" s="172"/>
+      <c r="Z12" s="172"/>
+      <c r="AA12" s="172"/>
+      <c r="AB12" s="172"/>
+      <c r="AC12" s="172"/>
+      <c r="AD12" s="172"/>
+      <c r="AE12" s="172"/>
+      <c r="AF12" s="172"/>
+      <c r="AG12" s="172"/>
+      <c r="AH12" s="172"/>
+      <c r="AI12" s="172"/>
+      <c r="AJ12" s="172"/>
+      <c r="AK12" s="172"/>
+      <c r="AL12" s="172"/>
       <c r="AM12" s="47"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C13" s="46"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="160"/>
-      <c r="K13" s="160"/>
-      <c r="L13" s="160"/>
-      <c r="M13" s="160"/>
-      <c r="N13" s="160"/>
-      <c r="O13" s="160"/>
-      <c r="P13" s="160"/>
-      <c r="Q13" s="160"/>
-      <c r="R13" s="160"/>
-      <c r="S13" s="160"/>
-      <c r="T13" s="160"/>
-      <c r="U13" s="160"/>
-      <c r="V13" s="160"/>
-      <c r="W13" s="160"/>
-      <c r="X13" s="160"/>
-      <c r="Y13" s="160"/>
-      <c r="Z13" s="160"/>
-      <c r="AA13" s="160"/>
-      <c r="AB13" s="160"/>
-      <c r="AC13" s="160"/>
-      <c r="AD13" s="160"/>
-      <c r="AE13" s="160"/>
-      <c r="AF13" s="160"/>
-      <c r="AG13" s="160"/>
-      <c r="AH13" s="160"/>
-      <c r="AI13" s="160"/>
-      <c r="AJ13" s="160"/>
-      <c r="AK13" s="160"/>
-      <c r="AL13" s="160"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="172"/>
+      <c r="L13" s="172"/>
+      <c r="M13" s="172"/>
+      <c r="N13" s="172"/>
+      <c r="O13" s="172"/>
+      <c r="P13" s="172"/>
+      <c r="Q13" s="172"/>
+      <c r="R13" s="172"/>
+      <c r="S13" s="172"/>
+      <c r="T13" s="172"/>
+      <c r="U13" s="172"/>
+      <c r="V13" s="172"/>
+      <c r="W13" s="172"/>
+      <c r="X13" s="172"/>
+      <c r="Y13" s="172"/>
+      <c r="Z13" s="172"/>
+      <c r="AA13" s="172"/>
+      <c r="AB13" s="172"/>
+      <c r="AC13" s="172"/>
+      <c r="AD13" s="172"/>
+      <c r="AE13" s="172"/>
+      <c r="AF13" s="172"/>
+      <c r="AG13" s="172"/>
+      <c r="AH13" s="172"/>
+      <c r="AI13" s="172"/>
+      <c r="AJ13" s="172"/>
+      <c r="AK13" s="172"/>
+      <c r="AL13" s="172"/>
       <c r="AM13" s="47"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C14" s="46"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="160"/>
-      <c r="M14" s="160"/>
-      <c r="N14" s="160"/>
-      <c r="O14" s="160"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="160"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="160"/>
-      <c r="T14" s="160"/>
-      <c r="U14" s="160"/>
-      <c r="V14" s="160"/>
-      <c r="W14" s="160"/>
-      <c r="X14" s="160"/>
-      <c r="Y14" s="160"/>
-      <c r="Z14" s="160"/>
-      <c r="AA14" s="160"/>
-      <c r="AB14" s="160"/>
-      <c r="AC14" s="160"/>
-      <c r="AD14" s="160"/>
-      <c r="AE14" s="160"/>
-      <c r="AF14" s="160"/>
-      <c r="AG14" s="160"/>
-      <c r="AH14" s="160"/>
-      <c r="AI14" s="160"/>
-      <c r="AJ14" s="160"/>
-      <c r="AK14" s="160"/>
-      <c r="AL14" s="160"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="172"/>
+      <c r="L14" s="172"/>
+      <c r="M14" s="172"/>
+      <c r="N14" s="172"/>
+      <c r="O14" s="172"/>
+      <c r="P14" s="172"/>
+      <c r="Q14" s="172"/>
+      <c r="R14" s="172"/>
+      <c r="S14" s="172"/>
+      <c r="T14" s="172"/>
+      <c r="U14" s="172"/>
+      <c r="V14" s="172"/>
+      <c r="W14" s="172"/>
+      <c r="X14" s="172"/>
+      <c r="Y14" s="172"/>
+      <c r="Z14" s="172"/>
+      <c r="AA14" s="172"/>
+      <c r="AB14" s="172"/>
+      <c r="AC14" s="172"/>
+      <c r="AD14" s="172"/>
+      <c r="AE14" s="172"/>
+      <c r="AF14" s="172"/>
+      <c r="AG14" s="172"/>
+      <c r="AH14" s="172"/>
+      <c r="AI14" s="172"/>
+      <c r="AJ14" s="172"/>
+      <c r="AK14" s="172"/>
+      <c r="AL14" s="172"/>
       <c r="AM14" s="47"/>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C15" s="40"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="160"/>
-      <c r="M15" s="160"/>
-      <c r="N15" s="160"/>
-      <c r="O15" s="160"/>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="160"/>
-      <c r="R15" s="160"/>
-      <c r="S15" s="160"/>
-      <c r="T15" s="160"/>
-      <c r="U15" s="160"/>
-      <c r="V15" s="160"/>
-      <c r="W15" s="160"/>
-      <c r="X15" s="160"/>
-      <c r="Y15" s="160"/>
-      <c r="Z15" s="160"/>
-      <c r="AA15" s="160"/>
-      <c r="AB15" s="160"/>
-      <c r="AC15" s="160"/>
-      <c r="AD15" s="160"/>
-      <c r="AE15" s="160"/>
-      <c r="AF15" s="160"/>
-      <c r="AG15" s="160"/>
-      <c r="AH15" s="160"/>
-      <c r="AI15" s="160"/>
-      <c r="AJ15" s="160"/>
-      <c r="AK15" s="160"/>
-      <c r="AL15" s="160"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="172"/>
+      <c r="L15" s="172"/>
+      <c r="M15" s="172"/>
+      <c r="N15" s="172"/>
+      <c r="O15" s="172"/>
+      <c r="P15" s="172"/>
+      <c r="Q15" s="172"/>
+      <c r="R15" s="172"/>
+      <c r="S15" s="172"/>
+      <c r="T15" s="172"/>
+      <c r="U15" s="172"/>
+      <c r="V15" s="172"/>
+      <c r="W15" s="172"/>
+      <c r="X15" s="172"/>
+      <c r="Y15" s="172"/>
+      <c r="Z15" s="172"/>
+      <c r="AA15" s="172"/>
+      <c r="AB15" s="172"/>
+      <c r="AC15" s="172"/>
+      <c r="AD15" s="172"/>
+      <c r="AE15" s="172"/>
+      <c r="AF15" s="172"/>
+      <c r="AG15" s="172"/>
+      <c r="AH15" s="172"/>
+      <c r="AI15" s="172"/>
+      <c r="AJ15" s="172"/>
+      <c r="AK15" s="172"/>
+      <c r="AL15" s="172"/>
       <c r="AM15" s="41"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="40"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="160"/>
-      <c r="M16" s="160"/>
-      <c r="N16" s="160"/>
-      <c r="O16" s="160"/>
-      <c r="P16" s="160"/>
-      <c r="Q16" s="160"/>
-      <c r="R16" s="160"/>
-      <c r="S16" s="160"/>
-      <c r="T16" s="160"/>
-      <c r="U16" s="160"/>
-      <c r="V16" s="160"/>
-      <c r="W16" s="160"/>
-      <c r="X16" s="160"/>
-      <c r="Y16" s="160"/>
-      <c r="Z16" s="160"/>
-      <c r="AA16" s="160"/>
-      <c r="AB16" s="160"/>
-      <c r="AC16" s="160"/>
-      <c r="AD16" s="160"/>
-      <c r="AE16" s="160"/>
-      <c r="AF16" s="160"/>
-      <c r="AG16" s="160"/>
-      <c r="AH16" s="160"/>
-      <c r="AI16" s="160"/>
-      <c r="AJ16" s="160"/>
-      <c r="AK16" s="160"/>
-      <c r="AL16" s="160"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="172"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="172"/>
+      <c r="N16" s="172"/>
+      <c r="O16" s="172"/>
+      <c r="P16" s="172"/>
+      <c r="Q16" s="172"/>
+      <c r="R16" s="172"/>
+      <c r="S16" s="172"/>
+      <c r="T16" s="172"/>
+      <c r="U16" s="172"/>
+      <c r="V16" s="172"/>
+      <c r="W16" s="172"/>
+      <c r="X16" s="172"/>
+      <c r="Y16" s="172"/>
+      <c r="Z16" s="172"/>
+      <c r="AA16" s="172"/>
+      <c r="AB16" s="172"/>
+      <c r="AC16" s="172"/>
+      <c r="AD16" s="172"/>
+      <c r="AE16" s="172"/>
+      <c r="AF16" s="172"/>
+      <c r="AG16" s="172"/>
+      <c r="AH16" s="172"/>
+      <c r="AI16" s="172"/>
+      <c r="AJ16" s="172"/>
+      <c r="AK16" s="172"/>
+      <c r="AL16" s="172"/>
       <c r="AM16" s="41"/>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="40"/>
-      <c r="D17" s="160"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
-      <c r="K17" s="160"/>
-      <c r="L17" s="160"/>
-      <c r="M17" s="160"/>
-      <c r="N17" s="160"/>
-      <c r="O17" s="160"/>
-      <c r="P17" s="160"/>
-      <c r="Q17" s="160"/>
-      <c r="R17" s="160"/>
-      <c r="S17" s="160"/>
-      <c r="T17" s="160"/>
-      <c r="U17" s="160"/>
-      <c r="V17" s="160"/>
-      <c r="W17" s="160"/>
-      <c r="X17" s="160"/>
-      <c r="Y17" s="160"/>
-      <c r="Z17" s="160"/>
-      <c r="AA17" s="160"/>
-      <c r="AB17" s="160"/>
-      <c r="AC17" s="160"/>
-      <c r="AD17" s="160"/>
-      <c r="AE17" s="160"/>
-      <c r="AF17" s="160"/>
-      <c r="AG17" s="160"/>
-      <c r="AH17" s="160"/>
-      <c r="AI17" s="160"/>
-      <c r="AJ17" s="160"/>
-      <c r="AK17" s="160"/>
-      <c r="AL17" s="160"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="172"/>
+      <c r="L17" s="172"/>
+      <c r="M17" s="172"/>
+      <c r="N17" s="172"/>
+      <c r="O17" s="172"/>
+      <c r="P17" s="172"/>
+      <c r="Q17" s="172"/>
+      <c r="R17" s="172"/>
+      <c r="S17" s="172"/>
+      <c r="T17" s="172"/>
+      <c r="U17" s="172"/>
+      <c r="V17" s="172"/>
+      <c r="W17" s="172"/>
+      <c r="X17" s="172"/>
+      <c r="Y17" s="172"/>
+      <c r="Z17" s="172"/>
+      <c r="AA17" s="172"/>
+      <c r="AB17" s="172"/>
+      <c r="AC17" s="172"/>
+      <c r="AD17" s="172"/>
+      <c r="AE17" s="172"/>
+      <c r="AF17" s="172"/>
+      <c r="AG17" s="172"/>
+      <c r="AH17" s="172"/>
+      <c r="AI17" s="172"/>
+      <c r="AJ17" s="172"/>
+      <c r="AK17" s="172"/>
+      <c r="AL17" s="172"/>
       <c r="AM17" s="41"/>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C18" s="40"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
-      <c r="K18" s="160"/>
-      <c r="L18" s="160"/>
-      <c r="M18" s="160"/>
-      <c r="N18" s="160"/>
-      <c r="O18" s="160"/>
-      <c r="P18" s="160"/>
-      <c r="Q18" s="160"/>
-      <c r="R18" s="160"/>
-      <c r="S18" s="160"/>
-      <c r="T18" s="160"/>
-      <c r="U18" s="160"/>
-      <c r="V18" s="160"/>
-      <c r="W18" s="160"/>
-      <c r="X18" s="160"/>
-      <c r="Y18" s="160"/>
-      <c r="Z18" s="160"/>
-      <c r="AA18" s="160"/>
-      <c r="AB18" s="160"/>
-      <c r="AC18" s="160"/>
-      <c r="AD18" s="160"/>
-      <c r="AE18" s="160"/>
-      <c r="AF18" s="160"/>
-      <c r="AG18" s="160"/>
-      <c r="AH18" s="160"/>
-      <c r="AI18" s="160"/>
-      <c r="AJ18" s="160"/>
-      <c r="AK18" s="160"/>
-      <c r="AL18" s="160"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="172"/>
+      <c r="N18" s="172"/>
+      <c r="O18" s="172"/>
+      <c r="P18" s="172"/>
+      <c r="Q18" s="172"/>
+      <c r="R18" s="172"/>
+      <c r="S18" s="172"/>
+      <c r="T18" s="172"/>
+      <c r="U18" s="172"/>
+      <c r="V18" s="172"/>
+      <c r="W18" s="172"/>
+      <c r="X18" s="172"/>
+      <c r="Y18" s="172"/>
+      <c r="Z18" s="172"/>
+      <c r="AA18" s="172"/>
+      <c r="AB18" s="172"/>
+      <c r="AC18" s="172"/>
+      <c r="AD18" s="172"/>
+      <c r="AE18" s="172"/>
+      <c r="AF18" s="172"/>
+      <c r="AG18" s="172"/>
+      <c r="AH18" s="172"/>
+      <c r="AI18" s="172"/>
+      <c r="AJ18" s="172"/>
+      <c r="AK18" s="172"/>
+      <c r="AL18" s="172"/>
       <c r="AM18" s="41"/>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C19" s="40"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
-      <c r="K19" s="160"/>
-      <c r="L19" s="160"/>
-      <c r="M19" s="160"/>
-      <c r="N19" s="160"/>
-      <c r="O19" s="160"/>
-      <c r="P19" s="160"/>
-      <c r="Q19" s="160"/>
-      <c r="R19" s="160"/>
-      <c r="S19" s="160"/>
-      <c r="T19" s="160"/>
-      <c r="U19" s="160"/>
-      <c r="V19" s="160"/>
-      <c r="W19" s="160"/>
-      <c r="X19" s="160"/>
-      <c r="Y19" s="160"/>
-      <c r="Z19" s="160"/>
-      <c r="AA19" s="160"/>
-      <c r="AB19" s="160"/>
-      <c r="AC19" s="160"/>
-      <c r="AD19" s="160"/>
-      <c r="AE19" s="160"/>
-      <c r="AF19" s="160"/>
-      <c r="AG19" s="160"/>
-      <c r="AH19" s="160"/>
-      <c r="AI19" s="160"/>
-      <c r="AJ19" s="160"/>
-      <c r="AK19" s="160"/>
-      <c r="AL19" s="160"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="172"/>
+      <c r="L19" s="172"/>
+      <c r="M19" s="172"/>
+      <c r="N19" s="172"/>
+      <c r="O19" s="172"/>
+      <c r="P19" s="172"/>
+      <c r="Q19" s="172"/>
+      <c r="R19" s="172"/>
+      <c r="S19" s="172"/>
+      <c r="T19" s="172"/>
+      <c r="U19" s="172"/>
+      <c r="V19" s="172"/>
+      <c r="W19" s="172"/>
+      <c r="X19" s="172"/>
+      <c r="Y19" s="172"/>
+      <c r="Z19" s="172"/>
+      <c r="AA19" s="172"/>
+      <c r="AB19" s="172"/>
+      <c r="AC19" s="172"/>
+      <c r="AD19" s="172"/>
+      <c r="AE19" s="172"/>
+      <c r="AF19" s="172"/>
+      <c r="AG19" s="172"/>
+      <c r="AH19" s="172"/>
+      <c r="AI19" s="172"/>
+      <c r="AJ19" s="172"/>
+      <c r="AK19" s="172"/>
+      <c r="AL19" s="172"/>
       <c r="AM19" s="41"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C20" s="40"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
-      <c r="K20" s="160"/>
-      <c r="L20" s="160"/>
-      <c r="M20" s="160"/>
-      <c r="N20" s="160"/>
-      <c r="O20" s="160"/>
-      <c r="P20" s="160"/>
-      <c r="Q20" s="160"/>
-      <c r="R20" s="160"/>
-      <c r="S20" s="160"/>
-      <c r="T20" s="160"/>
-      <c r="U20" s="160"/>
-      <c r="V20" s="160"/>
-      <c r="W20" s="160"/>
-      <c r="X20" s="160"/>
-      <c r="Y20" s="160"/>
-      <c r="Z20" s="160"/>
-      <c r="AA20" s="160"/>
-      <c r="AB20" s="160"/>
-      <c r="AC20" s="160"/>
-      <c r="AD20" s="160"/>
-      <c r="AE20" s="160"/>
-      <c r="AF20" s="160"/>
-      <c r="AG20" s="160"/>
-      <c r="AH20" s="160"/>
-      <c r="AI20" s="160"/>
-      <c r="AJ20" s="160"/>
-      <c r="AK20" s="160"/>
-      <c r="AL20" s="160"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="172"/>
+      <c r="K20" s="172"/>
+      <c r="L20" s="172"/>
+      <c r="M20" s="172"/>
+      <c r="N20" s="172"/>
+      <c r="O20" s="172"/>
+      <c r="P20" s="172"/>
+      <c r="Q20" s="172"/>
+      <c r="R20" s="172"/>
+      <c r="S20" s="172"/>
+      <c r="T20" s="172"/>
+      <c r="U20" s="172"/>
+      <c r="V20" s="172"/>
+      <c r="W20" s="172"/>
+      <c r="X20" s="172"/>
+      <c r="Y20" s="172"/>
+      <c r="Z20" s="172"/>
+      <c r="AA20" s="172"/>
+      <c r="AB20" s="172"/>
+      <c r="AC20" s="172"/>
+      <c r="AD20" s="172"/>
+      <c r="AE20" s="172"/>
+      <c r="AF20" s="172"/>
+      <c r="AG20" s="172"/>
+      <c r="AH20" s="172"/>
+      <c r="AI20" s="172"/>
+      <c r="AJ20" s="172"/>
+      <c r="AK20" s="172"/>
+      <c r="AL20" s="172"/>
       <c r="AM20" s="41"/>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C21" s="40"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="160"/>
-      <c r="K21" s="160"/>
-      <c r="L21" s="160"/>
-      <c r="M21" s="160"/>
-      <c r="N21" s="160"/>
-      <c r="O21" s="160"/>
-      <c r="P21" s="160"/>
-      <c r="Q21" s="160"/>
-      <c r="R21" s="160"/>
-      <c r="S21" s="160"/>
-      <c r="T21" s="160"/>
-      <c r="U21" s="160"/>
-      <c r="V21" s="160"/>
-      <c r="W21" s="160"/>
-      <c r="X21" s="160"/>
-      <c r="Y21" s="160"/>
-      <c r="Z21" s="160"/>
-      <c r="AA21" s="160"/>
-      <c r="AB21" s="160"/>
-      <c r="AC21" s="160"/>
-      <c r="AD21" s="160"/>
-      <c r="AE21" s="160"/>
-      <c r="AF21" s="160"/>
-      <c r="AG21" s="160"/>
-      <c r="AH21" s="160"/>
-      <c r="AI21" s="160"/>
-      <c r="AJ21" s="160"/>
-      <c r="AK21" s="160"/>
-      <c r="AL21" s="160"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="172"/>
+      <c r="K21" s="172"/>
+      <c r="L21" s="172"/>
+      <c r="M21" s="172"/>
+      <c r="N21" s="172"/>
+      <c r="O21" s="172"/>
+      <c r="P21" s="172"/>
+      <c r="Q21" s="172"/>
+      <c r="R21" s="172"/>
+      <c r="S21" s="172"/>
+      <c r="T21" s="172"/>
+      <c r="U21" s="172"/>
+      <c r="V21" s="172"/>
+      <c r="W21" s="172"/>
+      <c r="X21" s="172"/>
+      <c r="Y21" s="172"/>
+      <c r="Z21" s="172"/>
+      <c r="AA21" s="172"/>
+      <c r="AB21" s="172"/>
+      <c r="AC21" s="172"/>
+      <c r="AD21" s="172"/>
+      <c r="AE21" s="172"/>
+      <c r="AF21" s="172"/>
+      <c r="AG21" s="172"/>
+      <c r="AH21" s="172"/>
+      <c r="AI21" s="172"/>
+      <c r="AJ21" s="172"/>
+      <c r="AK21" s="172"/>
+      <c r="AL21" s="172"/>
       <c r="AM21" s="41"/>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C22" s="40"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="160"/>
-      <c r="K22" s="160"/>
-      <c r="L22" s="160"/>
-      <c r="M22" s="160"/>
-      <c r="N22" s="160"/>
-      <c r="O22" s="160"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="160"/>
-      <c r="R22" s="160"/>
-      <c r="S22" s="160"/>
-      <c r="T22" s="160"/>
-      <c r="U22" s="160"/>
-      <c r="V22" s="160"/>
-      <c r="W22" s="160"/>
-      <c r="X22" s="160"/>
-      <c r="Y22" s="160"/>
-      <c r="Z22" s="160"/>
-      <c r="AA22" s="160"/>
-      <c r="AB22" s="160"/>
-      <c r="AC22" s="160"/>
-      <c r="AD22" s="160"/>
-      <c r="AE22" s="160"/>
-      <c r="AF22" s="160"/>
-      <c r="AG22" s="160"/>
-      <c r="AH22" s="160"/>
-      <c r="AI22" s="160"/>
-      <c r="AJ22" s="160"/>
-      <c r="AK22" s="160"/>
-      <c r="AL22" s="160"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="172"/>
+      <c r="J22" s="172"/>
+      <c r="K22" s="172"/>
+      <c r="L22" s="172"/>
+      <c r="M22" s="172"/>
+      <c r="N22" s="172"/>
+      <c r="O22" s="172"/>
+      <c r="P22" s="172"/>
+      <c r="Q22" s="172"/>
+      <c r="R22" s="172"/>
+      <c r="S22" s="172"/>
+      <c r="T22" s="172"/>
+      <c r="U22" s="172"/>
+      <c r="V22" s="172"/>
+      <c r="W22" s="172"/>
+      <c r="X22" s="172"/>
+      <c r="Y22" s="172"/>
+      <c r="Z22" s="172"/>
+      <c r="AA22" s="172"/>
+      <c r="AB22" s="172"/>
+      <c r="AC22" s="172"/>
+      <c r="AD22" s="172"/>
+      <c r="AE22" s="172"/>
+      <c r="AF22" s="172"/>
+      <c r="AG22" s="172"/>
+      <c r="AH22" s="172"/>
+      <c r="AI22" s="172"/>
+      <c r="AJ22" s="172"/>
+      <c r="AK22" s="172"/>
+      <c r="AL22" s="172"/>
       <c r="AM22" s="41"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="40"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
-      <c r="K23" s="160"/>
-      <c r="L23" s="160"/>
-      <c r="M23" s="160"/>
-      <c r="N23" s="160"/>
-      <c r="O23" s="160"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="160"/>
-      <c r="R23" s="160"/>
-      <c r="S23" s="160"/>
-      <c r="T23" s="160"/>
-      <c r="U23" s="160"/>
-      <c r="V23" s="160"/>
-      <c r="W23" s="160"/>
-      <c r="X23" s="160"/>
-      <c r="Y23" s="160"/>
-      <c r="Z23" s="160"/>
-      <c r="AA23" s="160"/>
-      <c r="AB23" s="160"/>
-      <c r="AC23" s="160"/>
-      <c r="AD23" s="160"/>
-      <c r="AE23" s="160"/>
-      <c r="AF23" s="160"/>
-      <c r="AG23" s="160"/>
-      <c r="AH23" s="160"/>
-      <c r="AI23" s="160"/>
-      <c r="AJ23" s="160"/>
-      <c r="AK23" s="160"/>
-      <c r="AL23" s="160"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="172"/>
+      <c r="K23" s="172"/>
+      <c r="L23" s="172"/>
+      <c r="M23" s="172"/>
+      <c r="N23" s="172"/>
+      <c r="O23" s="172"/>
+      <c r="P23" s="172"/>
+      <c r="Q23" s="172"/>
+      <c r="R23" s="172"/>
+      <c r="S23" s="172"/>
+      <c r="T23" s="172"/>
+      <c r="U23" s="172"/>
+      <c r="V23" s="172"/>
+      <c r="W23" s="172"/>
+      <c r="X23" s="172"/>
+      <c r="Y23" s="172"/>
+      <c r="Z23" s="172"/>
+      <c r="AA23" s="172"/>
+      <c r="AB23" s="172"/>
+      <c r="AC23" s="172"/>
+      <c r="AD23" s="172"/>
+      <c r="AE23" s="172"/>
+      <c r="AF23" s="172"/>
+      <c r="AG23" s="172"/>
+      <c r="AH23" s="172"/>
+      <c r="AI23" s="172"/>
+      <c r="AJ23" s="172"/>
+      <c r="AK23" s="172"/>
+      <c r="AL23" s="172"/>
       <c r="AM23" s="41"/>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="40"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="160"/>
-      <c r="K24" s="160"/>
-      <c r="L24" s="160"/>
-      <c r="M24" s="160"/>
-      <c r="N24" s="160"/>
-      <c r="O24" s="160"/>
-      <c r="P24" s="160"/>
-      <c r="Q24" s="160"/>
-      <c r="R24" s="160"/>
-      <c r="S24" s="160"/>
-      <c r="T24" s="160"/>
-      <c r="U24" s="160"/>
-      <c r="V24" s="160"/>
-      <c r="W24" s="160"/>
-      <c r="X24" s="160"/>
-      <c r="Y24" s="160"/>
-      <c r="Z24" s="160"/>
-      <c r="AA24" s="160"/>
-      <c r="AB24" s="160"/>
-      <c r="AC24" s="160"/>
-      <c r="AD24" s="160"/>
-      <c r="AE24" s="160"/>
-      <c r="AF24" s="160"/>
-      <c r="AG24" s="160"/>
-      <c r="AH24" s="160"/>
-      <c r="AI24" s="160"/>
-      <c r="AJ24" s="160"/>
-      <c r="AK24" s="160"/>
-      <c r="AL24" s="160"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="172"/>
+      <c r="K24" s="172"/>
+      <c r="L24" s="172"/>
+      <c r="M24" s="172"/>
+      <c r="N24" s="172"/>
+      <c r="O24" s="172"/>
+      <c r="P24" s="172"/>
+      <c r="Q24" s="172"/>
+      <c r="R24" s="172"/>
+      <c r="S24" s="172"/>
+      <c r="T24" s="172"/>
+      <c r="U24" s="172"/>
+      <c r="V24" s="172"/>
+      <c r="W24" s="172"/>
+      <c r="X24" s="172"/>
+      <c r="Y24" s="172"/>
+      <c r="Z24" s="172"/>
+      <c r="AA24" s="172"/>
+      <c r="AB24" s="172"/>
+      <c r="AC24" s="172"/>
+      <c r="AD24" s="172"/>
+      <c r="AE24" s="172"/>
+      <c r="AF24" s="172"/>
+      <c r="AG24" s="172"/>
+      <c r="AH24" s="172"/>
+      <c r="AI24" s="172"/>
+      <c r="AJ24" s="172"/>
+      <c r="AK24" s="172"/>
+      <c r="AL24" s="172"/>
       <c r="AM24" s="41"/>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="40"/>
-      <c r="D25" s="160"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="160"/>
-      <c r="K25" s="160"/>
-      <c r="L25" s="160"/>
-      <c r="M25" s="160"/>
-      <c r="N25" s="160"/>
-      <c r="O25" s="160"/>
-      <c r="P25" s="160"/>
-      <c r="Q25" s="160"/>
-      <c r="R25" s="160"/>
-      <c r="S25" s="160"/>
-      <c r="T25" s="160"/>
-      <c r="U25" s="160"/>
-      <c r="V25" s="160"/>
-      <c r="W25" s="160"/>
-      <c r="X25" s="160"/>
-      <c r="Y25" s="160"/>
-      <c r="Z25" s="160"/>
-      <c r="AA25" s="160"/>
-      <c r="AB25" s="160"/>
-      <c r="AC25" s="160"/>
-      <c r="AD25" s="160"/>
-      <c r="AE25" s="160"/>
-      <c r="AF25" s="160"/>
-      <c r="AG25" s="160"/>
-      <c r="AH25" s="160"/>
-      <c r="AI25" s="160"/>
-      <c r="AJ25" s="160"/>
-      <c r="AK25" s="160"/>
-      <c r="AL25" s="160"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="172"/>
+      <c r="K25" s="172"/>
+      <c r="L25" s="172"/>
+      <c r="M25" s="172"/>
+      <c r="N25" s="172"/>
+      <c r="O25" s="172"/>
+      <c r="P25" s="172"/>
+      <c r="Q25" s="172"/>
+      <c r="R25" s="172"/>
+      <c r="S25" s="172"/>
+      <c r="T25" s="172"/>
+      <c r="U25" s="172"/>
+      <c r="V25" s="172"/>
+      <c r="W25" s="172"/>
+      <c r="X25" s="172"/>
+      <c r="Y25" s="172"/>
+      <c r="Z25" s="172"/>
+      <c r="AA25" s="172"/>
+      <c r="AB25" s="172"/>
+      <c r="AC25" s="172"/>
+      <c r="AD25" s="172"/>
+      <c r="AE25" s="172"/>
+      <c r="AF25" s="172"/>
+      <c r="AG25" s="172"/>
+      <c r="AH25" s="172"/>
+      <c r="AI25" s="172"/>
+      <c r="AJ25" s="172"/>
+      <c r="AK25" s="172"/>
+      <c r="AL25" s="172"/>
       <c r="AM25" s="41"/>
     </row>
     <row r="26" customFormat="false" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13098,8 +13979,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q36" activeCellId="0" sqref="Q36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13192,7 +14073,7 @@
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="51"/>
       <c r="D2" s="66" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
@@ -13309,945 +14190,945 @@
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="40"/>
-      <c r="D5" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="161"/>
-      <c r="O5" s="161"/>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="161"/>
-      <c r="R5" s="161"/>
-      <c r="S5" s="161"/>
-      <c r="T5" s="161"/>
-      <c r="U5" s="161"/>
-      <c r="V5" s="161"/>
-      <c r="W5" s="161"/>
-      <c r="X5" s="161"/>
-      <c r="Y5" s="161"/>
-      <c r="Z5" s="161"/>
-      <c r="AA5" s="161"/>
-      <c r="AB5" s="161"/>
-      <c r="AC5" s="161"/>
-      <c r="AD5" s="161"/>
-      <c r="AE5" s="161"/>
-      <c r="AF5" s="161"/>
-      <c r="AG5" s="161"/>
-      <c r="AH5" s="161"/>
-      <c r="AI5" s="161"/>
-      <c r="AJ5" s="161"/>
-      <c r="AK5" s="161"/>
-      <c r="AL5" s="161"/>
+      <c r="D5" s="139" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="139"/>
+      <c r="T5" s="139"/>
+      <c r="U5" s="139"/>
+      <c r="V5" s="139"/>
+      <c r="W5" s="139"/>
+      <c r="X5" s="139"/>
+      <c r="Y5" s="139"/>
+      <c r="Z5" s="139"/>
+      <c r="AA5" s="139"/>
+      <c r="AB5" s="139"/>
+      <c r="AC5" s="139"/>
+      <c r="AD5" s="139"/>
+      <c r="AE5" s="139"/>
+      <c r="AF5" s="139"/>
+      <c r="AG5" s="139"/>
+      <c r="AH5" s="139"/>
+      <c r="AI5" s="139"/>
+      <c r="AJ5" s="139"/>
+      <c r="AK5" s="139"/>
+      <c r="AL5" s="139"/>
       <c r="AM5" s="41"/>
       <c r="AQ5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="42"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="161"/>
-      <c r="N6" s="161"/>
-      <c r="O6" s="161"/>
-      <c r="P6" s="161"/>
-      <c r="Q6" s="161"/>
-      <c r="R6" s="161"/>
-      <c r="S6" s="161"/>
-      <c r="T6" s="161"/>
-      <c r="U6" s="161"/>
-      <c r="V6" s="161"/>
-      <c r="W6" s="161"/>
-      <c r="X6" s="161"/>
-      <c r="Y6" s="161"/>
-      <c r="Z6" s="161"/>
-      <c r="AA6" s="161"/>
-      <c r="AB6" s="161"/>
-      <c r="AC6" s="161"/>
-      <c r="AD6" s="161"/>
-      <c r="AE6" s="161"/>
-      <c r="AF6" s="161"/>
-      <c r="AG6" s="161"/>
-      <c r="AH6" s="161"/>
-      <c r="AI6" s="161"/>
-      <c r="AJ6" s="161"/>
-      <c r="AK6" s="161"/>
-      <c r="AL6" s="161"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="139"/>
+      <c r="R6" s="139"/>
+      <c r="S6" s="139"/>
+      <c r="T6" s="139"/>
+      <c r="U6" s="139"/>
+      <c r="V6" s="139"/>
+      <c r="W6" s="139"/>
+      <c r="X6" s="139"/>
+      <c r="Y6" s="139"/>
+      <c r="Z6" s="139"/>
+      <c r="AA6" s="139"/>
+      <c r="AB6" s="139"/>
+      <c r="AC6" s="139"/>
+      <c r="AD6" s="139"/>
+      <c r="AE6" s="139"/>
+      <c r="AF6" s="139"/>
+      <c r="AG6" s="139"/>
+      <c r="AH6" s="139"/>
+      <c r="AI6" s="139"/>
+      <c r="AJ6" s="139"/>
+      <c r="AK6" s="139"/>
+      <c r="AL6" s="139"/>
       <c r="AM6" s="43"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="44"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="161"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="161"/>
-      <c r="R7" s="161"/>
-      <c r="S7" s="161"/>
-      <c r="T7" s="161"/>
-      <c r="U7" s="161"/>
-      <c r="V7" s="161"/>
-      <c r="W7" s="161"/>
-      <c r="X7" s="161"/>
-      <c r="Y7" s="161"/>
-      <c r="Z7" s="161"/>
-      <c r="AA7" s="161"/>
-      <c r="AB7" s="161"/>
-      <c r="AC7" s="161"/>
-      <c r="AD7" s="161"/>
-      <c r="AE7" s="161"/>
-      <c r="AF7" s="161"/>
-      <c r="AG7" s="161"/>
-      <c r="AH7" s="161"/>
-      <c r="AI7" s="161"/>
-      <c r="AJ7" s="161"/>
-      <c r="AK7" s="161"/>
-      <c r="AL7" s="161"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="139"/>
+      <c r="R7" s="139"/>
+      <c r="S7" s="139"/>
+      <c r="T7" s="139"/>
+      <c r="U7" s="139"/>
+      <c r="V7" s="139"/>
+      <c r="W7" s="139"/>
+      <c r="X7" s="139"/>
+      <c r="Y7" s="139"/>
+      <c r="Z7" s="139"/>
+      <c r="AA7" s="139"/>
+      <c r="AB7" s="139"/>
+      <c r="AC7" s="139"/>
+      <c r="AD7" s="139"/>
+      <c r="AE7" s="139"/>
+      <c r="AF7" s="139"/>
+      <c r="AG7" s="139"/>
+      <c r="AH7" s="139"/>
+      <c r="AI7" s="139"/>
+      <c r="AJ7" s="139"/>
+      <c r="AK7" s="139"/>
+      <c r="AL7" s="139"/>
       <c r="AM7" s="43"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="40"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
-      <c r="O8" s="161"/>
-      <c r="P8" s="161"/>
-      <c r="Q8" s="161"/>
-      <c r="R8" s="161"/>
-      <c r="S8" s="161"/>
-      <c r="T8" s="161"/>
-      <c r="U8" s="161"/>
-      <c r="V8" s="161"/>
-      <c r="W8" s="161"/>
-      <c r="X8" s="161"/>
-      <c r="Y8" s="161"/>
-      <c r="Z8" s="161"/>
-      <c r="AA8" s="161"/>
-      <c r="AB8" s="161"/>
-      <c r="AC8" s="161"/>
-      <c r="AD8" s="161"/>
-      <c r="AE8" s="161"/>
-      <c r="AF8" s="161"/>
-      <c r="AG8" s="161"/>
-      <c r="AH8" s="161"/>
-      <c r="AI8" s="161"/>
-      <c r="AJ8" s="161"/>
-      <c r="AK8" s="161"/>
-      <c r="AL8" s="161"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="139"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="139"/>
+      <c r="S8" s="139"/>
+      <c r="T8" s="139"/>
+      <c r="U8" s="139"/>
+      <c r="V8" s="139"/>
+      <c r="W8" s="139"/>
+      <c r="X8" s="139"/>
+      <c r="Y8" s="139"/>
+      <c r="Z8" s="139"/>
+      <c r="AA8" s="139"/>
+      <c r="AB8" s="139"/>
+      <c r="AC8" s="139"/>
+      <c r="AD8" s="139"/>
+      <c r="AE8" s="139"/>
+      <c r="AF8" s="139"/>
+      <c r="AG8" s="139"/>
+      <c r="AH8" s="139"/>
+      <c r="AI8" s="139"/>
+      <c r="AJ8" s="139"/>
+      <c r="AK8" s="139"/>
+      <c r="AL8" s="139"/>
       <c r="AM8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C9" s="40"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="161"/>
-      <c r="S9" s="161"/>
-      <c r="T9" s="161"/>
-      <c r="U9" s="161"/>
-      <c r="V9" s="161"/>
-      <c r="W9" s="161"/>
-      <c r="X9" s="161"/>
-      <c r="Y9" s="161"/>
-      <c r="Z9" s="161"/>
-      <c r="AA9" s="161"/>
-      <c r="AB9" s="161"/>
-      <c r="AC9" s="161"/>
-      <c r="AD9" s="161"/>
-      <c r="AE9" s="161"/>
-      <c r="AF9" s="161"/>
-      <c r="AG9" s="161"/>
-      <c r="AH9" s="161"/>
-      <c r="AI9" s="161"/>
-      <c r="AJ9" s="161"/>
-      <c r="AK9" s="161"/>
-      <c r="AL9" s="161"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="139"/>
+      <c r="O9" s="139"/>
+      <c r="P9" s="139"/>
+      <c r="Q9" s="139"/>
+      <c r="R9" s="139"/>
+      <c r="S9" s="139"/>
+      <c r="T9" s="139"/>
+      <c r="U9" s="139"/>
+      <c r="V9" s="139"/>
+      <c r="W9" s="139"/>
+      <c r="X9" s="139"/>
+      <c r="Y9" s="139"/>
+      <c r="Z9" s="139"/>
+      <c r="AA9" s="139"/>
+      <c r="AB9" s="139"/>
+      <c r="AC9" s="139"/>
+      <c r="AD9" s="139"/>
+      <c r="AE9" s="139"/>
+      <c r="AF9" s="139"/>
+      <c r="AG9" s="139"/>
+      <c r="AH9" s="139"/>
+      <c r="AI9" s="139"/>
+      <c r="AJ9" s="139"/>
+      <c r="AK9" s="139"/>
+      <c r="AL9" s="139"/>
       <c r="AM9" s="41"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C10" s="46"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="161"/>
-      <c r="S10" s="161"/>
-      <c r="T10" s="161"/>
-      <c r="U10" s="161"/>
-      <c r="V10" s="161"/>
-      <c r="W10" s="161"/>
-      <c r="X10" s="161"/>
-      <c r="Y10" s="161"/>
-      <c r="Z10" s="161"/>
-      <c r="AA10" s="161"/>
-      <c r="AB10" s="161"/>
-      <c r="AC10" s="161"/>
-      <c r="AD10" s="161"/>
-      <c r="AE10" s="161"/>
-      <c r="AF10" s="161"/>
-      <c r="AG10" s="161"/>
-      <c r="AH10" s="161"/>
-      <c r="AI10" s="161"/>
-      <c r="AJ10" s="161"/>
-      <c r="AK10" s="161"/>
-      <c r="AL10" s="161"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="139"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="139"/>
+      <c r="R10" s="139"/>
+      <c r="S10" s="139"/>
+      <c r="T10" s="139"/>
+      <c r="U10" s="139"/>
+      <c r="V10" s="139"/>
+      <c r="W10" s="139"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="139"/>
+      <c r="Z10" s="139"/>
+      <c r="AA10" s="139"/>
+      <c r="AB10" s="139"/>
+      <c r="AC10" s="139"/>
+      <c r="AD10" s="139"/>
+      <c r="AE10" s="139"/>
+      <c r="AF10" s="139"/>
+      <c r="AG10" s="139"/>
+      <c r="AH10" s="139"/>
+      <c r="AI10" s="139"/>
+      <c r="AJ10" s="139"/>
+      <c r="AK10" s="139"/>
+      <c r="AL10" s="139"/>
       <c r="AM10" s="47"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C11" s="46"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="161"/>
-      <c r="Y11" s="161"/>
-      <c r="Z11" s="161"/>
-      <c r="AA11" s="161"/>
-      <c r="AB11" s="161"/>
-      <c r="AC11" s="161"/>
-      <c r="AD11" s="161"/>
-      <c r="AE11" s="161"/>
-      <c r="AF11" s="161"/>
-      <c r="AG11" s="161"/>
-      <c r="AH11" s="161"/>
-      <c r="AI11" s="161"/>
-      <c r="AJ11" s="161"/>
-      <c r="AK11" s="161"/>
-      <c r="AL11" s="161"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="139"/>
+      <c r="N11" s="139"/>
+      <c r="O11" s="139"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="139"/>
+      <c r="R11" s="139"/>
+      <c r="S11" s="139"/>
+      <c r="T11" s="139"/>
+      <c r="U11" s="139"/>
+      <c r="V11" s="139"/>
+      <c r="W11" s="139"/>
+      <c r="X11" s="139"/>
+      <c r="Y11" s="139"/>
+      <c r="Z11" s="139"/>
+      <c r="AA11" s="139"/>
+      <c r="AB11" s="139"/>
+      <c r="AC11" s="139"/>
+      <c r="AD11" s="139"/>
+      <c r="AE11" s="139"/>
+      <c r="AF11" s="139"/>
+      <c r="AG11" s="139"/>
+      <c r="AH11" s="139"/>
+      <c r="AI11" s="139"/>
+      <c r="AJ11" s="139"/>
+      <c r="AK11" s="139"/>
+      <c r="AL11" s="139"/>
       <c r="AM11" s="47"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C12" s="46"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="161"/>
-      <c r="L12" s="161"/>
-      <c r="M12" s="161"/>
-      <c r="N12" s="161"/>
-      <c r="O12" s="161"/>
-      <c r="P12" s="161"/>
-      <c r="Q12" s="161"/>
-      <c r="R12" s="161"/>
-      <c r="S12" s="161"/>
-      <c r="T12" s="161"/>
-      <c r="U12" s="161"/>
-      <c r="V12" s="161"/>
-      <c r="W12" s="161"/>
-      <c r="X12" s="161"/>
-      <c r="Y12" s="161"/>
-      <c r="Z12" s="161"/>
-      <c r="AA12" s="161"/>
-      <c r="AB12" s="161"/>
-      <c r="AC12" s="161"/>
-      <c r="AD12" s="161"/>
-      <c r="AE12" s="161"/>
-      <c r="AF12" s="161"/>
-      <c r="AG12" s="161"/>
-      <c r="AH12" s="161"/>
-      <c r="AI12" s="161"/>
-      <c r="AJ12" s="161"/>
-      <c r="AK12" s="161"/>
-      <c r="AL12" s="161"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="139"/>
+      <c r="N12" s="139"/>
+      <c r="O12" s="139"/>
+      <c r="P12" s="139"/>
+      <c r="Q12" s="139"/>
+      <c r="R12" s="139"/>
+      <c r="S12" s="139"/>
+      <c r="T12" s="139"/>
+      <c r="U12" s="139"/>
+      <c r="V12" s="139"/>
+      <c r="W12" s="139"/>
+      <c r="X12" s="139"/>
+      <c r="Y12" s="139"/>
+      <c r="Z12" s="139"/>
+      <c r="AA12" s="139"/>
+      <c r="AB12" s="139"/>
+      <c r="AC12" s="139"/>
+      <c r="AD12" s="139"/>
+      <c r="AE12" s="139"/>
+      <c r="AF12" s="139"/>
+      <c r="AG12" s="139"/>
+      <c r="AH12" s="139"/>
+      <c r="AI12" s="139"/>
+      <c r="AJ12" s="139"/>
+      <c r="AK12" s="139"/>
+      <c r="AL12" s="139"/>
       <c r="AM12" s="47"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C13" s="46"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="161"/>
-      <c r="K13" s="161"/>
-      <c r="L13" s="161"/>
-      <c r="M13" s="161"/>
-      <c r="N13" s="161"/>
-      <c r="O13" s="161"/>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="161"/>
-      <c r="R13" s="161"/>
-      <c r="S13" s="161"/>
-      <c r="T13" s="161"/>
-      <c r="U13" s="161"/>
-      <c r="V13" s="161"/>
-      <c r="W13" s="161"/>
-      <c r="X13" s="161"/>
-      <c r="Y13" s="161"/>
-      <c r="Z13" s="161"/>
-      <c r="AA13" s="161"/>
-      <c r="AB13" s="161"/>
-      <c r="AC13" s="161"/>
-      <c r="AD13" s="161"/>
-      <c r="AE13" s="161"/>
-      <c r="AF13" s="161"/>
-      <c r="AG13" s="161"/>
-      <c r="AH13" s="161"/>
-      <c r="AI13" s="161"/>
-      <c r="AJ13" s="161"/>
-      <c r="AK13" s="161"/>
-      <c r="AL13" s="161"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="139"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="139"/>
+      <c r="R13" s="139"/>
+      <c r="S13" s="139"/>
+      <c r="T13" s="139"/>
+      <c r="U13" s="139"/>
+      <c r="V13" s="139"/>
+      <c r="W13" s="139"/>
+      <c r="X13" s="139"/>
+      <c r="Y13" s="139"/>
+      <c r="Z13" s="139"/>
+      <c r="AA13" s="139"/>
+      <c r="AB13" s="139"/>
+      <c r="AC13" s="139"/>
+      <c r="AD13" s="139"/>
+      <c r="AE13" s="139"/>
+      <c r="AF13" s="139"/>
+      <c r="AG13" s="139"/>
+      <c r="AH13" s="139"/>
+      <c r="AI13" s="139"/>
+      <c r="AJ13" s="139"/>
+      <c r="AK13" s="139"/>
+      <c r="AL13" s="139"/>
       <c r="AM13" s="47"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C14" s="46"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="161"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="161"/>
-      <c r="Q14" s="161"/>
-      <c r="R14" s="161"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="161"/>
-      <c r="V14" s="161"/>
-      <c r="W14" s="161"/>
-      <c r="X14" s="161"/>
-      <c r="Y14" s="161"/>
-      <c r="Z14" s="161"/>
-      <c r="AA14" s="161"/>
-      <c r="AB14" s="161"/>
-      <c r="AC14" s="161"/>
-      <c r="AD14" s="161"/>
-      <c r="AE14" s="161"/>
-      <c r="AF14" s="161"/>
-      <c r="AG14" s="161"/>
-      <c r="AH14" s="161"/>
-      <c r="AI14" s="161"/>
-      <c r="AJ14" s="161"/>
-      <c r="AK14" s="161"/>
-      <c r="AL14" s="161"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="139"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="139"/>
+      <c r="N14" s="139"/>
+      <c r="O14" s="139"/>
+      <c r="P14" s="139"/>
+      <c r="Q14" s="139"/>
+      <c r="R14" s="139"/>
+      <c r="S14" s="139"/>
+      <c r="T14" s="139"/>
+      <c r="U14" s="139"/>
+      <c r="V14" s="139"/>
+      <c r="W14" s="139"/>
+      <c r="X14" s="139"/>
+      <c r="Y14" s="139"/>
+      <c r="Z14" s="139"/>
+      <c r="AA14" s="139"/>
+      <c r="AB14" s="139"/>
+      <c r="AC14" s="139"/>
+      <c r="AD14" s="139"/>
+      <c r="AE14" s="139"/>
+      <c r="AF14" s="139"/>
+      <c r="AG14" s="139"/>
+      <c r="AH14" s="139"/>
+      <c r="AI14" s="139"/>
+      <c r="AJ14" s="139"/>
+      <c r="AK14" s="139"/>
+      <c r="AL14" s="139"/>
       <c r="AM14" s="47"/>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C15" s="40"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="161"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="161"/>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161"/>
-      <c r="P15" s="161"/>
-      <c r="Q15" s="161"/>
-      <c r="R15" s="161"/>
-      <c r="S15" s="161"/>
-      <c r="T15" s="161"/>
-      <c r="U15" s="161"/>
-      <c r="V15" s="161"/>
-      <c r="W15" s="161"/>
-      <c r="X15" s="161"/>
-      <c r="Y15" s="161"/>
-      <c r="Z15" s="161"/>
-      <c r="AA15" s="161"/>
-      <c r="AB15" s="161"/>
-      <c r="AC15" s="161"/>
-      <c r="AD15" s="161"/>
-      <c r="AE15" s="161"/>
-      <c r="AF15" s="161"/>
-      <c r="AG15" s="161"/>
-      <c r="AH15" s="161"/>
-      <c r="AI15" s="161"/>
-      <c r="AJ15" s="161"/>
-      <c r="AK15" s="161"/>
-      <c r="AL15" s="161"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="139"/>
+      <c r="R15" s="139"/>
+      <c r="S15" s="139"/>
+      <c r="T15" s="139"/>
+      <c r="U15" s="139"/>
+      <c r="V15" s="139"/>
+      <c r="W15" s="139"/>
+      <c r="X15" s="139"/>
+      <c r="Y15" s="139"/>
+      <c r="Z15" s="139"/>
+      <c r="AA15" s="139"/>
+      <c r="AB15" s="139"/>
+      <c r="AC15" s="139"/>
+      <c r="AD15" s="139"/>
+      <c r="AE15" s="139"/>
+      <c r="AF15" s="139"/>
+      <c r="AG15" s="139"/>
+      <c r="AH15" s="139"/>
+      <c r="AI15" s="139"/>
+      <c r="AJ15" s="139"/>
+      <c r="AK15" s="139"/>
+      <c r="AL15" s="139"/>
       <c r="AM15" s="41"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="40"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="161"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="161"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="161"/>
-      <c r="Q16" s="161"/>
-      <c r="R16" s="161"/>
-      <c r="S16" s="161"/>
-      <c r="T16" s="161"/>
-      <c r="U16" s="161"/>
-      <c r="V16" s="161"/>
-      <c r="W16" s="161"/>
-      <c r="X16" s="161"/>
-      <c r="Y16" s="161"/>
-      <c r="Z16" s="161"/>
-      <c r="AA16" s="161"/>
-      <c r="AB16" s="161"/>
-      <c r="AC16" s="161"/>
-      <c r="AD16" s="161"/>
-      <c r="AE16" s="161"/>
-      <c r="AF16" s="161"/>
-      <c r="AG16" s="161"/>
-      <c r="AH16" s="161"/>
-      <c r="AI16" s="161"/>
-      <c r="AJ16" s="161"/>
-      <c r="AK16" s="161"/>
-      <c r="AL16" s="161"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="139"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="139"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="139"/>
+      <c r="T16" s="139"/>
+      <c r="U16" s="139"/>
+      <c r="V16" s="139"/>
+      <c r="W16" s="139"/>
+      <c r="X16" s="139"/>
+      <c r="Y16" s="139"/>
+      <c r="Z16" s="139"/>
+      <c r="AA16" s="139"/>
+      <c r="AB16" s="139"/>
+      <c r="AC16" s="139"/>
+      <c r="AD16" s="139"/>
+      <c r="AE16" s="139"/>
+      <c r="AF16" s="139"/>
+      <c r="AG16" s="139"/>
+      <c r="AH16" s="139"/>
+      <c r="AI16" s="139"/>
+      <c r="AJ16" s="139"/>
+      <c r="AK16" s="139"/>
+      <c r="AL16" s="139"/>
       <c r="AM16" s="41"/>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="40"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="161"/>
-      <c r="K17" s="161"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="161"/>
-      <c r="N17" s="161"/>
-      <c r="O17" s="161"/>
-      <c r="P17" s="161"/>
-      <c r="Q17" s="161"/>
-      <c r="R17" s="161"/>
-      <c r="S17" s="161"/>
-      <c r="T17" s="161"/>
-      <c r="U17" s="161"/>
-      <c r="V17" s="161"/>
-      <c r="W17" s="161"/>
-      <c r="X17" s="161"/>
-      <c r="Y17" s="161"/>
-      <c r="Z17" s="161"/>
-      <c r="AA17" s="161"/>
-      <c r="AB17" s="161"/>
-      <c r="AC17" s="161"/>
-      <c r="AD17" s="161"/>
-      <c r="AE17" s="161"/>
-      <c r="AF17" s="161"/>
-      <c r="AG17" s="161"/>
-      <c r="AH17" s="161"/>
-      <c r="AI17" s="161"/>
-      <c r="AJ17" s="161"/>
-      <c r="AK17" s="161"/>
-      <c r="AL17" s="161"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="139"/>
+      <c r="N17" s="139"/>
+      <c r="O17" s="139"/>
+      <c r="P17" s="139"/>
+      <c r="Q17" s="139"/>
+      <c r="R17" s="139"/>
+      <c r="S17" s="139"/>
+      <c r="T17" s="139"/>
+      <c r="U17" s="139"/>
+      <c r="V17" s="139"/>
+      <c r="W17" s="139"/>
+      <c r="X17" s="139"/>
+      <c r="Y17" s="139"/>
+      <c r="Z17" s="139"/>
+      <c r="AA17" s="139"/>
+      <c r="AB17" s="139"/>
+      <c r="AC17" s="139"/>
+      <c r="AD17" s="139"/>
+      <c r="AE17" s="139"/>
+      <c r="AF17" s="139"/>
+      <c r="AG17" s="139"/>
+      <c r="AH17" s="139"/>
+      <c r="AI17" s="139"/>
+      <c r="AJ17" s="139"/>
+      <c r="AK17" s="139"/>
+      <c r="AL17" s="139"/>
       <c r="AM17" s="41"/>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C18" s="40"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="161"/>
-      <c r="S18" s="161"/>
-      <c r="T18" s="161"/>
-      <c r="U18" s="161"/>
-      <c r="V18" s="161"/>
-      <c r="W18" s="161"/>
-      <c r="X18" s="161"/>
-      <c r="Y18" s="161"/>
-      <c r="Z18" s="161"/>
-      <c r="AA18" s="161"/>
-      <c r="AB18" s="161"/>
-      <c r="AC18" s="161"/>
-      <c r="AD18" s="161"/>
-      <c r="AE18" s="161"/>
-      <c r="AF18" s="161"/>
-      <c r="AG18" s="161"/>
-      <c r="AH18" s="161"/>
-      <c r="AI18" s="161"/>
-      <c r="AJ18" s="161"/>
-      <c r="AK18" s="161"/>
-      <c r="AL18" s="161"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="139"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="139"/>
+      <c r="R18" s="139"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="139"/>
+      <c r="U18" s="139"/>
+      <c r="V18" s="139"/>
+      <c r="W18" s="139"/>
+      <c r="X18" s="139"/>
+      <c r="Y18" s="139"/>
+      <c r="Z18" s="139"/>
+      <c r="AA18" s="139"/>
+      <c r="AB18" s="139"/>
+      <c r="AC18" s="139"/>
+      <c r="AD18" s="139"/>
+      <c r="AE18" s="139"/>
+      <c r="AF18" s="139"/>
+      <c r="AG18" s="139"/>
+      <c r="AH18" s="139"/>
+      <c r="AI18" s="139"/>
+      <c r="AJ18" s="139"/>
+      <c r="AK18" s="139"/>
+      <c r="AL18" s="139"/>
       <c r="AM18" s="41"/>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C19" s="40"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="161"/>
-      <c r="N19" s="161"/>
-      <c r="O19" s="161"/>
-      <c r="P19" s="161"/>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="161"/>
-      <c r="S19" s="161"/>
-      <c r="T19" s="161"/>
-      <c r="U19" s="161"/>
-      <c r="V19" s="161"/>
-      <c r="W19" s="161"/>
-      <c r="X19" s="161"/>
-      <c r="Y19" s="161"/>
-      <c r="Z19" s="161"/>
-      <c r="AA19" s="161"/>
-      <c r="AB19" s="161"/>
-      <c r="AC19" s="161"/>
-      <c r="AD19" s="161"/>
-      <c r="AE19" s="161"/>
-      <c r="AF19" s="161"/>
-      <c r="AG19" s="161"/>
-      <c r="AH19" s="161"/>
-      <c r="AI19" s="161"/>
-      <c r="AJ19" s="161"/>
-      <c r="AK19" s="161"/>
-      <c r="AL19" s="161"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="139"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="139"/>
+      <c r="O19" s="139"/>
+      <c r="P19" s="139"/>
+      <c r="Q19" s="139"/>
+      <c r="R19" s="139"/>
+      <c r="S19" s="139"/>
+      <c r="T19" s="139"/>
+      <c r="U19" s="139"/>
+      <c r="V19" s="139"/>
+      <c r="W19" s="139"/>
+      <c r="X19" s="139"/>
+      <c r="Y19" s="139"/>
+      <c r="Z19" s="139"/>
+      <c r="AA19" s="139"/>
+      <c r="AB19" s="139"/>
+      <c r="AC19" s="139"/>
+      <c r="AD19" s="139"/>
+      <c r="AE19" s="139"/>
+      <c r="AF19" s="139"/>
+      <c r="AG19" s="139"/>
+      <c r="AH19" s="139"/>
+      <c r="AI19" s="139"/>
+      <c r="AJ19" s="139"/>
+      <c r="AK19" s="139"/>
+      <c r="AL19" s="139"/>
       <c r="AM19" s="41"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C20" s="40"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="161"/>
-      <c r="Q20" s="161"/>
-      <c r="R20" s="161"/>
-      <c r="S20" s="161"/>
-      <c r="T20" s="161"/>
-      <c r="U20" s="161"/>
-      <c r="V20" s="161"/>
-      <c r="W20" s="161"/>
-      <c r="X20" s="161"/>
-      <c r="Y20" s="161"/>
-      <c r="Z20" s="161"/>
-      <c r="AA20" s="161"/>
-      <c r="AB20" s="161"/>
-      <c r="AC20" s="161"/>
-      <c r="AD20" s="161"/>
-      <c r="AE20" s="161"/>
-      <c r="AF20" s="161"/>
-      <c r="AG20" s="161"/>
-      <c r="AH20" s="161"/>
-      <c r="AI20" s="161"/>
-      <c r="AJ20" s="161"/>
-      <c r="AK20" s="161"/>
-      <c r="AL20" s="161"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="139"/>
+      <c r="N20" s="139"/>
+      <c r="O20" s="139"/>
+      <c r="P20" s="139"/>
+      <c r="Q20" s="139"/>
+      <c r="R20" s="139"/>
+      <c r="S20" s="139"/>
+      <c r="T20" s="139"/>
+      <c r="U20" s="139"/>
+      <c r="V20" s="139"/>
+      <c r="W20" s="139"/>
+      <c r="X20" s="139"/>
+      <c r="Y20" s="139"/>
+      <c r="Z20" s="139"/>
+      <c r="AA20" s="139"/>
+      <c r="AB20" s="139"/>
+      <c r="AC20" s="139"/>
+      <c r="AD20" s="139"/>
+      <c r="AE20" s="139"/>
+      <c r="AF20" s="139"/>
+      <c r="AG20" s="139"/>
+      <c r="AH20" s="139"/>
+      <c r="AI20" s="139"/>
+      <c r="AJ20" s="139"/>
+      <c r="AK20" s="139"/>
+      <c r="AL20" s="139"/>
       <c r="AM20" s="41"/>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C21" s="40"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
-      <c r="N21" s="161"/>
-      <c r="O21" s="161"/>
-      <c r="P21" s="161"/>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="161"/>
-      <c r="S21" s="161"/>
-      <c r="T21" s="161"/>
-      <c r="U21" s="161"/>
-      <c r="V21" s="161"/>
-      <c r="W21" s="161"/>
-      <c r="X21" s="161"/>
-      <c r="Y21" s="161"/>
-      <c r="Z21" s="161"/>
-      <c r="AA21" s="161"/>
-      <c r="AB21" s="161"/>
-      <c r="AC21" s="161"/>
-      <c r="AD21" s="161"/>
-      <c r="AE21" s="161"/>
-      <c r="AF21" s="161"/>
-      <c r="AG21" s="161"/>
-      <c r="AH21" s="161"/>
-      <c r="AI21" s="161"/>
-      <c r="AJ21" s="161"/>
-      <c r="AK21" s="161"/>
-      <c r="AL21" s="161"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="139"/>
+      <c r="R21" s="139"/>
+      <c r="S21" s="139"/>
+      <c r="T21" s="139"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="139"/>
+      <c r="X21" s="139"/>
+      <c r="Y21" s="139"/>
+      <c r="Z21" s="139"/>
+      <c r="AA21" s="139"/>
+      <c r="AB21" s="139"/>
+      <c r="AC21" s="139"/>
+      <c r="AD21" s="139"/>
+      <c r="AE21" s="139"/>
+      <c r="AF21" s="139"/>
+      <c r="AG21" s="139"/>
+      <c r="AH21" s="139"/>
+      <c r="AI21" s="139"/>
+      <c r="AJ21" s="139"/>
+      <c r="AK21" s="139"/>
+      <c r="AL21" s="139"/>
       <c r="AM21" s="41"/>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C22" s="40"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="161"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="161"/>
-      <c r="P22" s="161"/>
-      <c r="Q22" s="161"/>
-      <c r="R22" s="161"/>
-      <c r="S22" s="161"/>
-      <c r="T22" s="161"/>
-      <c r="U22" s="161"/>
-      <c r="V22" s="161"/>
-      <c r="W22" s="161"/>
-      <c r="X22" s="161"/>
-      <c r="Y22" s="161"/>
-      <c r="Z22" s="161"/>
-      <c r="AA22" s="161"/>
-      <c r="AB22" s="161"/>
-      <c r="AC22" s="161"/>
-      <c r="AD22" s="161"/>
-      <c r="AE22" s="161"/>
-      <c r="AF22" s="161"/>
-      <c r="AG22" s="161"/>
-      <c r="AH22" s="161"/>
-      <c r="AI22" s="161"/>
-      <c r="AJ22" s="161"/>
-      <c r="AK22" s="161"/>
-      <c r="AL22" s="161"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="139"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="139"/>
+      <c r="N22" s="139"/>
+      <c r="O22" s="139"/>
+      <c r="P22" s="139"/>
+      <c r="Q22" s="139"/>
+      <c r="R22" s="139"/>
+      <c r="S22" s="139"/>
+      <c r="T22" s="139"/>
+      <c r="U22" s="139"/>
+      <c r="V22" s="139"/>
+      <c r="W22" s="139"/>
+      <c r="X22" s="139"/>
+      <c r="Y22" s="139"/>
+      <c r="Z22" s="139"/>
+      <c r="AA22" s="139"/>
+      <c r="AB22" s="139"/>
+      <c r="AC22" s="139"/>
+      <c r="AD22" s="139"/>
+      <c r="AE22" s="139"/>
+      <c r="AF22" s="139"/>
+      <c r="AG22" s="139"/>
+      <c r="AH22" s="139"/>
+      <c r="AI22" s="139"/>
+      <c r="AJ22" s="139"/>
+      <c r="AK22" s="139"/>
+      <c r="AL22" s="139"/>
       <c r="AM22" s="41"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="40"/>
-      <c r="D23" s="162" t="str">
+      <c r="D23" s="173" t="str">
         <f aca="false">CHAR(10)&amp;IF(ISBLANK(Титульный!B8),"8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».",IFERROR(IF(OR(LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилое помещение",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилой дом",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Многоквартирный дом"),"8. ВСН 53-86(р) «Правила оценки физического износа зданий»;"&amp;CHAR(10)&amp;"9. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».","8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов»."),"8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов»."))</f>
         <v>
 8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».</v>
       </c>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="162"/>
-      <c r="K23" s="162"/>
-      <c r="L23" s="162"/>
-      <c r="M23" s="162"/>
-      <c r="N23" s="162"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="162"/>
-      <c r="Q23" s="162"/>
-      <c r="R23" s="162"/>
-      <c r="S23" s="162"/>
-      <c r="T23" s="162"/>
-      <c r="U23" s="162"/>
-      <c r="V23" s="162"/>
-      <c r="W23" s="162"/>
-      <c r="X23" s="162"/>
-      <c r="Y23" s="162"/>
-      <c r="Z23" s="162"/>
-      <c r="AA23" s="162"/>
-      <c r="AB23" s="162"/>
-      <c r="AC23" s="162"/>
-      <c r="AD23" s="162"/>
-      <c r="AE23" s="162"/>
-      <c r="AF23" s="162"/>
-      <c r="AG23" s="162"/>
-      <c r="AH23" s="162"/>
-      <c r="AI23" s="162"/>
-      <c r="AJ23" s="162"/>
-      <c r="AK23" s="162"/>
-      <c r="AL23" s="162"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="173"/>
+      <c r="J23" s="173"/>
+      <c r="K23" s="173"/>
+      <c r="L23" s="173"/>
+      <c r="M23" s="173"/>
+      <c r="N23" s="173"/>
+      <c r="O23" s="173"/>
+      <c r="P23" s="173"/>
+      <c r="Q23" s="173"/>
+      <c r="R23" s="173"/>
+      <c r="S23" s="173"/>
+      <c r="T23" s="173"/>
+      <c r="U23" s="173"/>
+      <c r="V23" s="173"/>
+      <c r="W23" s="173"/>
+      <c r="X23" s="173"/>
+      <c r="Y23" s="173"/>
+      <c r="Z23" s="173"/>
+      <c r="AA23" s="173"/>
+      <c r="AB23" s="173"/>
+      <c r="AC23" s="173"/>
+      <c r="AD23" s="173"/>
+      <c r="AE23" s="173"/>
+      <c r="AF23" s="173"/>
+      <c r="AG23" s="173"/>
+      <c r="AH23" s="173"/>
+      <c r="AI23" s="173"/>
+      <c r="AJ23" s="173"/>
+      <c r="AK23" s="173"/>
+      <c r="AL23" s="173"/>
       <c r="AM23" s="41"/>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="40"/>
-      <c r="D24" s="162"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="162"/>
-      <c r="I24" s="162"/>
-      <c r="J24" s="162"/>
-      <c r="K24" s="162"/>
-      <c r="L24" s="162"/>
-      <c r="M24" s="162"/>
-      <c r="N24" s="162"/>
-      <c r="O24" s="162"/>
-      <c r="P24" s="162"/>
-      <c r="Q24" s="162"/>
-      <c r="R24" s="162"/>
-      <c r="S24" s="162"/>
-      <c r="T24" s="162"/>
-      <c r="U24" s="162"/>
-      <c r="V24" s="162"/>
-      <c r="W24" s="162"/>
-      <c r="X24" s="162"/>
-      <c r="Y24" s="162"/>
-      <c r="Z24" s="162"/>
-      <c r="AA24" s="162"/>
-      <c r="AB24" s="162"/>
-      <c r="AC24" s="162"/>
-      <c r="AD24" s="162"/>
-      <c r="AE24" s="162"/>
-      <c r="AF24" s="162"/>
-      <c r="AG24" s="162"/>
-      <c r="AH24" s="162"/>
-      <c r="AI24" s="162"/>
-      <c r="AJ24" s="162"/>
-      <c r="AK24" s="162"/>
-      <c r="AL24" s="162"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="173"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="173"/>
+      <c r="J24" s="173"/>
+      <c r="K24" s="173"/>
+      <c r="L24" s="173"/>
+      <c r="M24" s="173"/>
+      <c r="N24" s="173"/>
+      <c r="O24" s="173"/>
+      <c r="P24" s="173"/>
+      <c r="Q24" s="173"/>
+      <c r="R24" s="173"/>
+      <c r="S24" s="173"/>
+      <c r="T24" s="173"/>
+      <c r="U24" s="173"/>
+      <c r="V24" s="173"/>
+      <c r="W24" s="173"/>
+      <c r="X24" s="173"/>
+      <c r="Y24" s="173"/>
+      <c r="Z24" s="173"/>
+      <c r="AA24" s="173"/>
+      <c r="AB24" s="173"/>
+      <c r="AC24" s="173"/>
+      <c r="AD24" s="173"/>
+      <c r="AE24" s="173"/>
+      <c r="AF24" s="173"/>
+      <c r="AG24" s="173"/>
+      <c r="AH24" s="173"/>
+      <c r="AI24" s="173"/>
+      <c r="AJ24" s="173"/>
+      <c r="AK24" s="173"/>
+      <c r="AL24" s="173"/>
       <c r="AM24" s="41"/>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="40"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="162"/>
-      <c r="K25" s="162"/>
-      <c r="L25" s="162"/>
-      <c r="M25" s="162"/>
-      <c r="N25" s="162"/>
-      <c r="O25" s="162"/>
-      <c r="P25" s="162"/>
-      <c r="Q25" s="162"/>
-      <c r="R25" s="162"/>
-      <c r="S25" s="162"/>
-      <c r="T25" s="162"/>
-      <c r="U25" s="162"/>
-      <c r="V25" s="162"/>
-      <c r="W25" s="162"/>
-      <c r="X25" s="162"/>
-      <c r="Y25" s="162"/>
-      <c r="Z25" s="162"/>
-      <c r="AA25" s="162"/>
-      <c r="AB25" s="162"/>
-      <c r="AC25" s="162"/>
-      <c r="AD25" s="162"/>
-      <c r="AE25" s="162"/>
-      <c r="AF25" s="162"/>
-      <c r="AG25" s="162"/>
-      <c r="AH25" s="162"/>
-      <c r="AI25" s="162"/>
-      <c r="AJ25" s="162"/>
-      <c r="AK25" s="162"/>
-      <c r="AL25" s="162"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="173"/>
+      <c r="K25" s="173"/>
+      <c r="L25" s="173"/>
+      <c r="M25" s="173"/>
+      <c r="N25" s="173"/>
+      <c r="O25" s="173"/>
+      <c r="P25" s="173"/>
+      <c r="Q25" s="173"/>
+      <c r="R25" s="173"/>
+      <c r="S25" s="173"/>
+      <c r="T25" s="173"/>
+      <c r="U25" s="173"/>
+      <c r="V25" s="173"/>
+      <c r="W25" s="173"/>
+      <c r="X25" s="173"/>
+      <c r="Y25" s="173"/>
+      <c r="Z25" s="173"/>
+      <c r="AA25" s="173"/>
+      <c r="AB25" s="173"/>
+      <c r="AC25" s="173"/>
+      <c r="AD25" s="173"/>
+      <c r="AE25" s="173"/>
+      <c r="AF25" s="173"/>
+      <c r="AG25" s="173"/>
+      <c r="AH25" s="173"/>
+      <c r="AI25" s="173"/>
+      <c r="AJ25" s="173"/>
+      <c r="AK25" s="173"/>
+      <c r="AL25" s="173"/>
       <c r="AM25" s="41"/>
     </row>
     <row r="26" customFormat="false" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="40"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="162"/>
-      <c r="H26" s="162"/>
-      <c r="I26" s="162"/>
-      <c r="J26" s="162"/>
-      <c r="K26" s="162"/>
-      <c r="L26" s="162"/>
-      <c r="M26" s="162"/>
-      <c r="N26" s="162"/>
-      <c r="O26" s="162"/>
-      <c r="P26" s="162"/>
-      <c r="Q26" s="162"/>
-      <c r="R26" s="162"/>
-      <c r="S26" s="162"/>
-      <c r="T26" s="162"/>
-      <c r="U26" s="162"/>
-      <c r="V26" s="162"/>
-      <c r="W26" s="162"/>
-      <c r="X26" s="162"/>
-      <c r="Y26" s="162"/>
-      <c r="Z26" s="162"/>
-      <c r="AA26" s="162"/>
-      <c r="AB26" s="162"/>
-      <c r="AC26" s="162"/>
-      <c r="AD26" s="162"/>
-      <c r="AE26" s="162"/>
-      <c r="AF26" s="162"/>
-      <c r="AG26" s="162"/>
-      <c r="AH26" s="162"/>
-      <c r="AI26" s="162"/>
-      <c r="AJ26" s="162"/>
-      <c r="AK26" s="162"/>
-      <c r="AL26" s="162"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="173"/>
+      <c r="F26" s="173"/>
+      <c r="G26" s="173"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="173"/>
+      <c r="J26" s="173"/>
+      <c r="K26" s="173"/>
+      <c r="L26" s="173"/>
+      <c r="M26" s="173"/>
+      <c r="N26" s="173"/>
+      <c r="O26" s="173"/>
+      <c r="P26" s="173"/>
+      <c r="Q26" s="173"/>
+      <c r="R26" s="173"/>
+      <c r="S26" s="173"/>
+      <c r="T26" s="173"/>
+      <c r="U26" s="173"/>
+      <c r="V26" s="173"/>
+      <c r="W26" s="173"/>
+      <c r="X26" s="173"/>
+      <c r="Y26" s="173"/>
+      <c r="Z26" s="173"/>
+      <c r="AA26" s="173"/>
+      <c r="AB26" s="173"/>
+      <c r="AC26" s="173"/>
+      <c r="AD26" s="173"/>
+      <c r="AE26" s="173"/>
+      <c r="AF26" s="173"/>
+      <c r="AG26" s="173"/>
+      <c r="AH26" s="173"/>
+      <c r="AI26" s="173"/>
+      <c r="AJ26" s="173"/>
+      <c r="AK26" s="173"/>
+      <c r="AL26" s="173"/>
       <c r="AM26" s="41"/>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="40"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="162"/>
-      <c r="H27" s="162"/>
-      <c r="I27" s="162"/>
-      <c r="J27" s="162"/>
-      <c r="K27" s="162"/>
-      <c r="L27" s="162"/>
-      <c r="M27" s="162"/>
-      <c r="N27" s="162"/>
-      <c r="O27" s="162"/>
-      <c r="P27" s="162"/>
-      <c r="Q27" s="162"/>
-      <c r="R27" s="162"/>
-      <c r="S27" s="162"/>
-      <c r="T27" s="162"/>
-      <c r="U27" s="162"/>
-      <c r="V27" s="162"/>
-      <c r="W27" s="162"/>
-      <c r="X27" s="162"/>
-      <c r="Y27" s="162"/>
-      <c r="Z27" s="162"/>
-      <c r="AA27" s="162"/>
-      <c r="AB27" s="162"/>
-      <c r="AC27" s="162"/>
-      <c r="AD27" s="162"/>
-      <c r="AE27" s="162"/>
-      <c r="AF27" s="162"/>
-      <c r="AG27" s="162"/>
-      <c r="AH27" s="162"/>
-      <c r="AI27" s="162"/>
-      <c r="AJ27" s="162"/>
-      <c r="AK27" s="162"/>
-      <c r="AL27" s="162"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="173"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="173"/>
+      <c r="J27" s="173"/>
+      <c r="K27" s="173"/>
+      <c r="L27" s="173"/>
+      <c r="M27" s="173"/>
+      <c r="N27" s="173"/>
+      <c r="O27" s="173"/>
+      <c r="P27" s="173"/>
+      <c r="Q27" s="173"/>
+      <c r="R27" s="173"/>
+      <c r="S27" s="173"/>
+      <c r="T27" s="173"/>
+      <c r="U27" s="173"/>
+      <c r="V27" s="173"/>
+      <c r="W27" s="173"/>
+      <c r="X27" s="173"/>
+      <c r="Y27" s="173"/>
+      <c r="Z27" s="173"/>
+      <c r="AA27" s="173"/>
+      <c r="AB27" s="173"/>
+      <c r="AC27" s="173"/>
+      <c r="AD27" s="173"/>
+      <c r="AE27" s="173"/>
+      <c r="AF27" s="173"/>
+      <c r="AG27" s="173"/>
+      <c r="AH27" s="173"/>
+      <c r="AI27" s="173"/>
+      <c r="AJ27" s="173"/>
+      <c r="AK27" s="173"/>
+      <c r="AL27" s="173"/>
       <c r="AM27" s="41"/>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="40"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="162"/>
-      <c r="L28" s="162"/>
-      <c r="M28" s="162"/>
-      <c r="N28" s="162"/>
-      <c r="O28" s="162"/>
-      <c r="P28" s="162"/>
-      <c r="Q28" s="162"/>
-      <c r="R28" s="162"/>
-      <c r="S28" s="162"/>
-      <c r="T28" s="162"/>
-      <c r="U28" s="162"/>
-      <c r="V28" s="162"/>
-      <c r="W28" s="162"/>
-      <c r="X28" s="162"/>
-      <c r="Y28" s="162"/>
-      <c r="Z28" s="162"/>
-      <c r="AA28" s="162"/>
-      <c r="AB28" s="162"/>
-      <c r="AC28" s="162"/>
-      <c r="AD28" s="162"/>
-      <c r="AE28" s="162"/>
-      <c r="AF28" s="162"/>
-      <c r="AG28" s="162"/>
-      <c r="AH28" s="162"/>
-      <c r="AI28" s="162"/>
-      <c r="AJ28" s="162"/>
-      <c r="AK28" s="162"/>
-      <c r="AL28" s="162"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="173"/>
+      <c r="K28" s="173"/>
+      <c r="L28" s="173"/>
+      <c r="M28" s="173"/>
+      <c r="N28" s="173"/>
+      <c r="O28" s="173"/>
+      <c r="P28" s="173"/>
+      <c r="Q28" s="173"/>
+      <c r="R28" s="173"/>
+      <c r="S28" s="173"/>
+      <c r="T28" s="173"/>
+      <c r="U28" s="173"/>
+      <c r="V28" s="173"/>
+      <c r="W28" s="173"/>
+      <c r="X28" s="173"/>
+      <c r="Y28" s="173"/>
+      <c r="Z28" s="173"/>
+      <c r="AA28" s="173"/>
+      <c r="AB28" s="173"/>
+      <c r="AC28" s="173"/>
+      <c r="AD28" s="173"/>
+      <c r="AE28" s="173"/>
+      <c r="AF28" s="173"/>
+      <c r="AG28" s="173"/>
+      <c r="AH28" s="173"/>
+      <c r="AI28" s="173"/>
+      <c r="AJ28" s="173"/>
+      <c r="AK28" s="173"/>
+      <c r="AL28" s="173"/>
       <c r="AM28" s="41"/>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14256,287 +15137,287 @@
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="40"/>
-      <c r="D29" s="162"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="162"/>
-      <c r="H29" s="162"/>
-      <c r="I29" s="162"/>
-      <c r="J29" s="162"/>
-      <c r="K29" s="162"/>
-      <c r="L29" s="162"/>
-      <c r="M29" s="162"/>
-      <c r="N29" s="162"/>
-      <c r="O29" s="162"/>
-      <c r="P29" s="162"/>
-      <c r="Q29" s="162"/>
-      <c r="R29" s="162"/>
-      <c r="S29" s="162"/>
-      <c r="T29" s="162"/>
-      <c r="U29" s="162"/>
-      <c r="V29" s="162"/>
-      <c r="W29" s="162"/>
-      <c r="X29" s="162"/>
-      <c r="Y29" s="162"/>
-      <c r="Z29" s="162"/>
-      <c r="AA29" s="162"/>
-      <c r="AB29" s="162"/>
-      <c r="AC29" s="162"/>
-      <c r="AD29" s="162"/>
-      <c r="AE29" s="162"/>
-      <c r="AF29" s="162"/>
-      <c r="AG29" s="162"/>
-      <c r="AH29" s="162"/>
-      <c r="AI29" s="162"/>
-      <c r="AJ29" s="162"/>
-      <c r="AK29" s="162"/>
-      <c r="AL29" s="162"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="173"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="173"/>
+      <c r="J29" s="173"/>
+      <c r="K29" s="173"/>
+      <c r="L29" s="173"/>
+      <c r="M29" s="173"/>
+      <c r="N29" s="173"/>
+      <c r="O29" s="173"/>
+      <c r="P29" s="173"/>
+      <c r="Q29" s="173"/>
+      <c r="R29" s="173"/>
+      <c r="S29" s="173"/>
+      <c r="T29" s="173"/>
+      <c r="U29" s="173"/>
+      <c r="V29" s="173"/>
+      <c r="W29" s="173"/>
+      <c r="X29" s="173"/>
+      <c r="Y29" s="173"/>
+      <c r="Z29" s="173"/>
+      <c r="AA29" s="173"/>
+      <c r="AB29" s="173"/>
+      <c r="AC29" s="173"/>
+      <c r="AD29" s="173"/>
+      <c r="AE29" s="173"/>
+      <c r="AF29" s="173"/>
+      <c r="AG29" s="173"/>
+      <c r="AH29" s="173"/>
+      <c r="AI29" s="173"/>
+      <c r="AJ29" s="173"/>
+      <c r="AK29" s="173"/>
+      <c r="AL29" s="173"/>
       <c r="AM29" s="41"/>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
       <c r="C30" s="40"/>
-      <c r="D30" s="162"/>
-      <c r="E30" s="162"/>
-      <c r="F30" s="162"/>
-      <c r="G30" s="162"/>
-      <c r="H30" s="162"/>
-      <c r="I30" s="162"/>
-      <c r="J30" s="162"/>
-      <c r="K30" s="162"/>
-      <c r="L30" s="162"/>
-      <c r="M30" s="162"/>
-      <c r="N30" s="162"/>
-      <c r="O30" s="162"/>
-      <c r="P30" s="162"/>
-      <c r="Q30" s="162"/>
-      <c r="R30" s="162"/>
-      <c r="S30" s="162"/>
-      <c r="T30" s="162"/>
-      <c r="U30" s="162"/>
-      <c r="V30" s="162"/>
-      <c r="W30" s="162"/>
-      <c r="X30" s="162"/>
-      <c r="Y30" s="162"/>
-      <c r="Z30" s="162"/>
-      <c r="AA30" s="162"/>
-      <c r="AB30" s="162"/>
-      <c r="AC30" s="162"/>
-      <c r="AD30" s="162"/>
-      <c r="AE30" s="162"/>
-      <c r="AF30" s="162"/>
-      <c r="AG30" s="162"/>
-      <c r="AH30" s="162"/>
-      <c r="AI30" s="162"/>
-      <c r="AJ30" s="162"/>
-      <c r="AK30" s="162"/>
-      <c r="AL30" s="162"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="173"/>
+      <c r="K30" s="173"/>
+      <c r="L30" s="173"/>
+      <c r="M30" s="173"/>
+      <c r="N30" s="173"/>
+      <c r="O30" s="173"/>
+      <c r="P30" s="173"/>
+      <c r="Q30" s="173"/>
+      <c r="R30" s="173"/>
+      <c r="S30" s="173"/>
+      <c r="T30" s="173"/>
+      <c r="U30" s="173"/>
+      <c r="V30" s="173"/>
+      <c r="W30" s="173"/>
+      <c r="X30" s="173"/>
+      <c r="Y30" s="173"/>
+      <c r="Z30" s="173"/>
+      <c r="AA30" s="173"/>
+      <c r="AB30" s="173"/>
+      <c r="AC30" s="173"/>
+      <c r="AD30" s="173"/>
+      <c r="AE30" s="173"/>
+      <c r="AF30" s="173"/>
+      <c r="AG30" s="173"/>
+      <c r="AH30" s="173"/>
+      <c r="AI30" s="173"/>
+      <c r="AJ30" s="173"/>
+      <c r="AK30" s="173"/>
+      <c r="AL30" s="173"/>
       <c r="AM30" s="41"/>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
       <c r="C31" s="40"/>
-      <c r="D31" s="162"/>
-      <c r="E31" s="162"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="162"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="162"/>
-      <c r="J31" s="162"/>
-      <c r="K31" s="162"/>
-      <c r="L31" s="162"/>
-      <c r="M31" s="162"/>
-      <c r="N31" s="162"/>
-      <c r="O31" s="162"/>
-      <c r="P31" s="162"/>
-      <c r="Q31" s="162"/>
-      <c r="R31" s="162"/>
-      <c r="S31" s="162"/>
-      <c r="T31" s="162"/>
-      <c r="U31" s="162"/>
-      <c r="V31" s="162"/>
-      <c r="W31" s="162"/>
-      <c r="X31" s="162"/>
-      <c r="Y31" s="162"/>
-      <c r="Z31" s="162"/>
-      <c r="AA31" s="162"/>
-      <c r="AB31" s="162"/>
-      <c r="AC31" s="162"/>
-      <c r="AD31" s="162"/>
-      <c r="AE31" s="162"/>
-      <c r="AF31" s="162"/>
-      <c r="AG31" s="162"/>
-      <c r="AH31" s="162"/>
-      <c r="AI31" s="162"/>
-      <c r="AJ31" s="162"/>
-      <c r="AK31" s="162"/>
-      <c r="AL31" s="162"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="173"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="173"/>
+      <c r="J31" s="173"/>
+      <c r="K31" s="173"/>
+      <c r="L31" s="173"/>
+      <c r="M31" s="173"/>
+      <c r="N31" s="173"/>
+      <c r="O31" s="173"/>
+      <c r="P31" s="173"/>
+      <c r="Q31" s="173"/>
+      <c r="R31" s="173"/>
+      <c r="S31" s="173"/>
+      <c r="T31" s="173"/>
+      <c r="U31" s="173"/>
+      <c r="V31" s="173"/>
+      <c r="W31" s="173"/>
+      <c r="X31" s="173"/>
+      <c r="Y31" s="173"/>
+      <c r="Z31" s="173"/>
+      <c r="AA31" s="173"/>
+      <c r="AB31" s="173"/>
+      <c r="AC31" s="173"/>
+      <c r="AD31" s="173"/>
+      <c r="AE31" s="173"/>
+      <c r="AF31" s="173"/>
+      <c r="AG31" s="173"/>
+      <c r="AH31" s="173"/>
+      <c r="AI31" s="173"/>
+      <c r="AJ31" s="173"/>
+      <c r="AK31" s="173"/>
+      <c r="AL31" s="173"/>
       <c r="AM31" s="41"/>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
       <c r="C32" s="40"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="162"/>
-      <c r="I32" s="162"/>
-      <c r="J32" s="162"/>
-      <c r="K32" s="162"/>
-      <c r="L32" s="162"/>
-      <c r="M32" s="162"/>
-      <c r="N32" s="162"/>
-      <c r="O32" s="162"/>
-      <c r="P32" s="162"/>
-      <c r="Q32" s="162"/>
-      <c r="R32" s="162"/>
-      <c r="S32" s="162"/>
-      <c r="T32" s="162"/>
-      <c r="U32" s="162"/>
-      <c r="V32" s="162"/>
-      <c r="W32" s="162"/>
-      <c r="X32" s="162"/>
-      <c r="Y32" s="162"/>
-      <c r="Z32" s="162"/>
-      <c r="AA32" s="162"/>
-      <c r="AB32" s="162"/>
-      <c r="AC32" s="162"/>
-      <c r="AD32" s="162"/>
-      <c r="AE32" s="162"/>
-      <c r="AF32" s="162"/>
-      <c r="AG32" s="162"/>
-      <c r="AH32" s="162"/>
-      <c r="AI32" s="162"/>
-      <c r="AJ32" s="162"/>
-      <c r="AK32" s="162"/>
-      <c r="AL32" s="162"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="173"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="173"/>
+      <c r="K32" s="173"/>
+      <c r="L32" s="173"/>
+      <c r="M32" s="173"/>
+      <c r="N32" s="173"/>
+      <c r="O32" s="173"/>
+      <c r="P32" s="173"/>
+      <c r="Q32" s="173"/>
+      <c r="R32" s="173"/>
+      <c r="S32" s="173"/>
+      <c r="T32" s="173"/>
+      <c r="U32" s="173"/>
+      <c r="V32" s="173"/>
+      <c r="W32" s="173"/>
+      <c r="X32" s="173"/>
+      <c r="Y32" s="173"/>
+      <c r="Z32" s="173"/>
+      <c r="AA32" s="173"/>
+      <c r="AB32" s="173"/>
+      <c r="AC32" s="173"/>
+      <c r="AD32" s="173"/>
+      <c r="AE32" s="173"/>
+      <c r="AF32" s="173"/>
+      <c r="AG32" s="173"/>
+      <c r="AH32" s="173"/>
+      <c r="AI32" s="173"/>
+      <c r="AJ32" s="173"/>
+      <c r="AK32" s="173"/>
+      <c r="AL32" s="173"/>
       <c r="AM32" s="41"/>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0"/>
-      <c r="H33" s="0"/>
-      <c r="I33" s="0"/>
-      <c r="J33" s="0"/>
-      <c r="K33" s="0"/>
-      <c r="L33" s="0"/>
-      <c r="M33" s="0"/>
-      <c r="N33" s="0"/>
-      <c r="O33" s="0"/>
-      <c r="P33" s="0"/>
-      <c r="Q33" s="0"/>
-      <c r="R33" s="0"/>
-      <c r="S33" s="0"/>
-      <c r="T33" s="0"/>
-      <c r="U33" s="0"/>
-      <c r="V33" s="0"/>
-      <c r="W33" s="0"/>
-      <c r="X33" s="0"/>
-      <c r="Y33" s="0"/>
-      <c r="Z33" s="0"/>
-      <c r="AA33" s="0"/>
-      <c r="AB33" s="0"/>
-      <c r="AC33" s="0"/>
-      <c r="AD33" s="0"/>
-      <c r="AE33" s="0"/>
-      <c r="AF33" s="0"/>
-      <c r="AG33" s="0"/>
-      <c r="AH33" s="0"/>
-      <c r="AI33" s="0"/>
-      <c r="AJ33" s="0"/>
-      <c r="AK33" s="0"/>
-      <c r="AL33" s="0"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
       <c r="AM33" s="41"/>
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
       <c r="C34" s="40"/>
-      <c r="D34" s="0"/>
-      <c r="E34" s="0"/>
-      <c r="F34" s="0"/>
-      <c r="G34" s="0"/>
-      <c r="H34" s="0"/>
-      <c r="I34" s="0"/>
-      <c r="J34" s="0"/>
-      <c r="K34" s="0"/>
-      <c r="L34" s="0"/>
-      <c r="M34" s="0"/>
-      <c r="N34" s="0"/>
-      <c r="O34" s="0"/>
-      <c r="P34" s="0"/>
-      <c r="Q34" s="0"/>
-      <c r="R34" s="0"/>
-      <c r="S34" s="0"/>
-      <c r="T34" s="0"/>
-      <c r="U34" s="0"/>
-      <c r="V34" s="0"/>
-      <c r="W34" s="0"/>
-      <c r="X34" s="0"/>
-      <c r="Y34" s="0"/>
-      <c r="Z34" s="0"/>
-      <c r="AA34" s="0"/>
-      <c r="AB34" s="0"/>
-      <c r="AC34" s="0"/>
-      <c r="AD34" s="0"/>
-      <c r="AE34" s="0"/>
-      <c r="AF34" s="0"/>
-      <c r="AG34" s="0"/>
-      <c r="AH34" s="0"/>
-      <c r="AI34" s="0"/>
-      <c r="AJ34" s="0"/>
-      <c r="AK34" s="0"/>
-      <c r="AL34" s="0"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
       <c r="AM34" s="41"/>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
-      <c r="I35" s="0"/>
-      <c r="J35" s="0"/>
-      <c r="K35" s="0"/>
-      <c r="L35" s="0"/>
-      <c r="M35" s="0"/>
-      <c r="N35" s="0"/>
-      <c r="O35" s="0"/>
-      <c r="P35" s="0"/>
-      <c r="Q35" s="0"/>
-      <c r="R35" s="0"/>
-      <c r="S35" s="0"/>
-      <c r="T35" s="0"/>
-      <c r="U35" s="0"/>
-      <c r="V35" s="0"/>
-      <c r="W35" s="0"/>
-      <c r="X35" s="0"/>
-      <c r="Y35" s="0"/>
-      <c r="Z35" s="0"/>
-      <c r="AA35" s="0"/>
-      <c r="AB35" s="0"/>
-      <c r="AC35" s="0"/>
-      <c r="AD35" s="0"/>
-      <c r="AE35" s="0"/>
-      <c r="AF35" s="0"/>
-      <c r="AG35" s="0"/>
-      <c r="AH35" s="0"/>
-      <c r="AI35" s="0"/>
-      <c r="AJ35" s="0"/>
-      <c r="AK35" s="0"/>
-      <c r="AL35" s="0"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
       <c r="AM35" s="41"/>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14545,205 +15426,205 @@
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="40"/>
-      <c r="D36" s="0"/>
-      <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
-      <c r="I36" s="0"/>
-      <c r="J36" s="0"/>
-      <c r="K36" s="0"/>
-      <c r="L36" s="0"/>
-      <c r="M36" s="0"/>
-      <c r="N36" s="0"/>
-      <c r="O36" s="0"/>
-      <c r="P36" s="0"/>
-      <c r="Q36" s="0"/>
-      <c r="R36" s="0"/>
-      <c r="S36" s="0"/>
-      <c r="T36" s="0"/>
-      <c r="U36" s="0"/>
-      <c r="V36" s="0"/>
-      <c r="W36" s="0"/>
-      <c r="X36" s="0"/>
-      <c r="Y36" s="0"/>
-      <c r="Z36" s="0"/>
-      <c r="AA36" s="0"/>
-      <c r="AB36" s="0"/>
-      <c r="AC36" s="0"/>
-      <c r="AD36" s="0"/>
-      <c r="AE36" s="0"/>
-      <c r="AF36" s="0"/>
-      <c r="AG36" s="0"/>
-      <c r="AH36" s="0"/>
-      <c r="AI36" s="0"/>
-      <c r="AJ36" s="0"/>
-      <c r="AK36" s="0"/>
-      <c r="AL36" s="0"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
       <c r="AM36" s="41"/>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0"/>
-      <c r="F37" s="0"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
-      <c r="I37" s="0"/>
-      <c r="J37" s="0"/>
-      <c r="K37" s="0"/>
-      <c r="L37" s="0"/>
-      <c r="M37" s="0"/>
-      <c r="N37" s="0"/>
-      <c r="O37" s="0"/>
-      <c r="P37" s="0"/>
-      <c r="Q37" s="0"/>
-      <c r="R37" s="0"/>
-      <c r="S37" s="0"/>
-      <c r="T37" s="0"/>
-      <c r="U37" s="0"/>
-      <c r="V37" s="0"/>
-      <c r="W37" s="0"/>
-      <c r="X37" s="0"/>
-      <c r="Y37" s="0"/>
-      <c r="Z37" s="0"/>
-      <c r="AA37" s="0"/>
-      <c r="AB37" s="0"/>
-      <c r="AC37" s="0"/>
-      <c r="AD37" s="0"/>
-      <c r="AE37" s="0"/>
-      <c r="AF37" s="0"/>
-      <c r="AG37" s="0"/>
-      <c r="AH37" s="0"/>
-      <c r="AI37" s="0"/>
-      <c r="AJ37" s="0"/>
-      <c r="AK37" s="0"/>
-      <c r="AL37" s="0"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
       <c r="AM37" s="41"/>
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
       <c r="C38" s="40"/>
-      <c r="D38" s="0"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0"/>
-      <c r="H38" s="0"/>
-      <c r="I38" s="0"/>
-      <c r="J38" s="0"/>
-      <c r="K38" s="0"/>
-      <c r="L38" s="0"/>
-      <c r="M38" s="0"/>
-      <c r="N38" s="0"/>
-      <c r="O38" s="0"/>
-      <c r="P38" s="0"/>
-      <c r="Q38" s="0"/>
-      <c r="R38" s="0"/>
-      <c r="S38" s="0"/>
-      <c r="T38" s="0"/>
-      <c r="U38" s="0"/>
-      <c r="V38" s="0"/>
-      <c r="W38" s="0"/>
-      <c r="X38" s="0"/>
-      <c r="Y38" s="0"/>
-      <c r="Z38" s="0"/>
-      <c r="AA38" s="0"/>
-      <c r="AB38" s="0"/>
-      <c r="AC38" s="0"/>
-      <c r="AD38" s="0"/>
-      <c r="AE38" s="0"/>
-      <c r="AF38" s="0"/>
-      <c r="AG38" s="0"/>
-      <c r="AH38" s="0"/>
-      <c r="AI38" s="0"/>
-      <c r="AJ38" s="0"/>
-      <c r="AK38" s="0"/>
-      <c r="AL38" s="0"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
       <c r="AM38" s="41"/>
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
       <c r="C39" s="40"/>
-      <c r="D39" s="0"/>
-      <c r="E39" s="0"/>
-      <c r="F39" s="0"/>
-      <c r="G39" s="0"/>
-      <c r="H39" s="0"/>
-      <c r="I39" s="0"/>
-      <c r="J39" s="0"/>
-      <c r="K39" s="0"/>
-      <c r="L39" s="0"/>
-      <c r="M39" s="0"/>
-      <c r="N39" s="0"/>
-      <c r="O39" s="0"/>
-      <c r="P39" s="0"/>
-      <c r="Q39" s="0"/>
-      <c r="R39" s="0"/>
-      <c r="S39" s="0"/>
-      <c r="T39" s="0"/>
-      <c r="U39" s="0"/>
-      <c r="V39" s="0"/>
-      <c r="W39" s="0"/>
-      <c r="X39" s="0"/>
-      <c r="Y39" s="0"/>
-      <c r="Z39" s="0"/>
-      <c r="AA39" s="0"/>
-      <c r="AB39" s="0"/>
-      <c r="AC39" s="0"/>
-      <c r="AD39" s="0"/>
-      <c r="AE39" s="0"/>
-      <c r="AF39" s="0"/>
-      <c r="AG39" s="0"/>
-      <c r="AH39" s="0"/>
-      <c r="AI39" s="0"/>
-      <c r="AJ39" s="0"/>
-      <c r="AK39" s="0"/>
-      <c r="AL39" s="0"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="8"/>
+      <c r="AL39" s="8"/>
       <c r="AM39" s="41"/>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
       <c r="B40" s="50"/>
       <c r="C40" s="40"/>
-      <c r="D40" s="0"/>
-      <c r="E40" s="0"/>
-      <c r="F40" s="0"/>
-      <c r="G40" s="0"/>
-      <c r="H40" s="0"/>
-      <c r="I40" s="0"/>
-      <c r="J40" s="0"/>
-      <c r="K40" s="0"/>
-      <c r="L40" s="0"/>
-      <c r="M40" s="0"/>
-      <c r="N40" s="0"/>
-      <c r="O40" s="0"/>
-      <c r="P40" s="0"/>
-      <c r="Q40" s="0"/>
-      <c r="R40" s="0"/>
-      <c r="S40" s="0"/>
-      <c r="T40" s="0"/>
-      <c r="U40" s="0"/>
-      <c r="V40" s="0"/>
-      <c r="W40" s="0"/>
-      <c r="X40" s="0"/>
-      <c r="Y40" s="0"/>
-      <c r="Z40" s="0"/>
-      <c r="AA40" s="0"/>
-      <c r="AB40" s="0"/>
-      <c r="AC40" s="0"/>
-      <c r="AD40" s="0"/>
-      <c r="AE40" s="0"/>
-      <c r="AF40" s="0"/>
-      <c r="AG40" s="0"/>
-      <c r="AH40" s="0"/>
-      <c r="AI40" s="0"/>
-      <c r="AJ40" s="0"/>
-      <c r="AK40" s="0"/>
-      <c r="AL40" s="0"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="8"/>
+      <c r="AL40" s="8"/>
       <c r="AM40" s="41"/>
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14752,205 +15633,205 @@
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="40"/>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0"/>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0"/>
-      <c r="H41" s="0"/>
-      <c r="I41" s="0"/>
-      <c r="J41" s="0"/>
-      <c r="K41" s="0"/>
-      <c r="L41" s="0"/>
-      <c r="M41" s="0"/>
-      <c r="N41" s="0"/>
-      <c r="O41" s="0"/>
-      <c r="P41" s="0"/>
-      <c r="Q41" s="0"/>
-      <c r="R41" s="0"/>
-      <c r="S41" s="0"/>
-      <c r="T41" s="0"/>
-      <c r="U41" s="0"/>
-      <c r="V41" s="0"/>
-      <c r="W41" s="0"/>
-      <c r="X41" s="0"/>
-      <c r="Y41" s="0"/>
-      <c r="Z41" s="0"/>
-      <c r="AA41" s="0"/>
-      <c r="AB41" s="0"/>
-      <c r="AC41" s="0"/>
-      <c r="AD41" s="0"/>
-      <c r="AE41" s="0"/>
-      <c r="AF41" s="0"/>
-      <c r="AG41" s="0"/>
-      <c r="AH41" s="0"/>
-      <c r="AI41" s="0"/>
-      <c r="AJ41" s="0"/>
-      <c r="AK41" s="0"/>
-      <c r="AL41" s="0"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
       <c r="AM41" s="41"/>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49"/>
       <c r="B42" s="50"/>
       <c r="C42" s="40"/>
-      <c r="D42" s="0"/>
-      <c r="E42" s="0"/>
-      <c r="F42" s="0"/>
-      <c r="G42" s="0"/>
-      <c r="H42" s="0"/>
-      <c r="I42" s="0"/>
-      <c r="J42" s="0"/>
-      <c r="K42" s="0"/>
-      <c r="L42" s="0"/>
-      <c r="M42" s="0"/>
-      <c r="N42" s="0"/>
-      <c r="O42" s="0"/>
-      <c r="P42" s="0"/>
-      <c r="Q42" s="0"/>
-      <c r="R42" s="0"/>
-      <c r="S42" s="0"/>
-      <c r="T42" s="0"/>
-      <c r="U42" s="0"/>
-      <c r="V42" s="0"/>
-      <c r="W42" s="0"/>
-      <c r="X42" s="0"/>
-      <c r="Y42" s="0"/>
-      <c r="Z42" s="0"/>
-      <c r="AA42" s="0"/>
-      <c r="AB42" s="0"/>
-      <c r="AC42" s="0"/>
-      <c r="AD42" s="0"/>
-      <c r="AE42" s="0"/>
-      <c r="AF42" s="0"/>
-      <c r="AG42" s="0"/>
-      <c r="AH42" s="0"/>
-      <c r="AI42" s="0"/>
-      <c r="AJ42" s="0"/>
-      <c r="AK42" s="0"/>
-      <c r="AL42" s="0"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8"/>
       <c r="AM42" s="41"/>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="49"/>
       <c r="B43" s="50"/>
       <c r="C43" s="40"/>
-      <c r="D43" s="0"/>
-      <c r="E43" s="0"/>
-      <c r="F43" s="0"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="0"/>
-      <c r="I43" s="0"/>
-      <c r="J43" s="0"/>
-      <c r="K43" s="0"/>
-      <c r="L43" s="0"/>
-      <c r="M43" s="0"/>
-      <c r="N43" s="0"/>
-      <c r="O43" s="0"/>
-      <c r="P43" s="0"/>
-      <c r="Q43" s="0"/>
-      <c r="R43" s="0"/>
-      <c r="S43" s="0"/>
-      <c r="T43" s="0"/>
-      <c r="U43" s="0"/>
-      <c r="V43" s="0"/>
-      <c r="W43" s="0"/>
-      <c r="X43" s="0"/>
-      <c r="Y43" s="0"/>
-      <c r="Z43" s="0"/>
-      <c r="AA43" s="0"/>
-      <c r="AB43" s="0"/>
-      <c r="AC43" s="0"/>
-      <c r="AD43" s="0"/>
-      <c r="AE43" s="0"/>
-      <c r="AF43" s="0"/>
-      <c r="AG43" s="0"/>
-      <c r="AH43" s="0"/>
-      <c r="AI43" s="0"/>
-      <c r="AJ43" s="0"/>
-      <c r="AK43" s="0"/>
-      <c r="AL43" s="0"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="8"/>
       <c r="AM43" s="41"/>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="49"/>
       <c r="B44" s="50"/>
       <c r="C44" s="40"/>
-      <c r="D44" s="0"/>
-      <c r="E44" s="0"/>
-      <c r="F44" s="0"/>
-      <c r="G44" s="0"/>
-      <c r="H44" s="0"/>
-      <c r="I44" s="0"/>
-      <c r="J44" s="0"/>
-      <c r="K44" s="0"/>
-      <c r="L44" s="0"/>
-      <c r="M44" s="0"/>
-      <c r="N44" s="0"/>
-      <c r="O44" s="0"/>
-      <c r="P44" s="0"/>
-      <c r="Q44" s="0"/>
-      <c r="R44" s="0"/>
-      <c r="S44" s="0"/>
-      <c r="T44" s="0"/>
-      <c r="U44" s="0"/>
-      <c r="V44" s="0"/>
-      <c r="W44" s="0"/>
-      <c r="X44" s="0"/>
-      <c r="Y44" s="0"/>
-      <c r="Z44" s="0"/>
-      <c r="AA44" s="0"/>
-      <c r="AB44" s="0"/>
-      <c r="AC44" s="0"/>
-      <c r="AD44" s="0"/>
-      <c r="AE44" s="0"/>
-      <c r="AF44" s="0"/>
-      <c r="AG44" s="0"/>
-      <c r="AH44" s="0"/>
-      <c r="AI44" s="0"/>
-      <c r="AJ44" s="0"/>
-      <c r="AK44" s="0"/>
-      <c r="AL44" s="0"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="8"/>
+      <c r="AH44" s="8"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="8"/>
+      <c r="AK44" s="8"/>
+      <c r="AL44" s="8"/>
       <c r="AM44" s="41"/>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="49"/>
       <c r="B45" s="50"/>
       <c r="C45" s="51"/>
-      <c r="D45" s="0"/>
-      <c r="E45" s="0"/>
-      <c r="F45" s="0"/>
-      <c r="G45" s="0"/>
-      <c r="H45" s="0"/>
-      <c r="I45" s="0"/>
-      <c r="J45" s="0"/>
-      <c r="K45" s="0"/>
-      <c r="L45" s="0"/>
-      <c r="M45" s="0"/>
-      <c r="N45" s="0"/>
-      <c r="O45" s="0"/>
-      <c r="P45" s="0"/>
-      <c r="Q45" s="0"/>
-      <c r="R45" s="0"/>
-      <c r="S45" s="0"/>
-      <c r="T45" s="0"/>
-      <c r="U45" s="0"/>
-      <c r="V45" s="0"/>
-      <c r="W45" s="0"/>
-      <c r="X45" s="0"/>
-      <c r="Y45" s="0"/>
-      <c r="Z45" s="0"/>
-      <c r="AA45" s="0"/>
-      <c r="AB45" s="0"/>
-      <c r="AC45" s="0"/>
-      <c r="AD45" s="0"/>
-      <c r="AE45" s="0"/>
-      <c r="AF45" s="0"/>
-      <c r="AG45" s="0"/>
-      <c r="AH45" s="0"/>
-      <c r="AI45" s="0"/>
-      <c r="AJ45" s="0"/>
-      <c r="AK45" s="0"/>
-      <c r="AL45" s="0"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="8"/>
+      <c r="AL45" s="8"/>
       <c r="AM45" s="52"/>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14959,287 +15840,287 @@
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="51"/>
-      <c r="D46" s="0"/>
-      <c r="E46" s="0"/>
-      <c r="F46" s="0"/>
-      <c r="G46" s="0"/>
-      <c r="H46" s="0"/>
-      <c r="I46" s="0"/>
-      <c r="J46" s="0"/>
-      <c r="K46" s="0"/>
-      <c r="L46" s="0"/>
-      <c r="M46" s="0"/>
-      <c r="N46" s="0"/>
-      <c r="O46" s="0"/>
-      <c r="P46" s="0"/>
-      <c r="Q46" s="0"/>
-      <c r="R46" s="0"/>
-      <c r="S46" s="0"/>
-      <c r="T46" s="0"/>
-      <c r="U46" s="0"/>
-      <c r="V46" s="0"/>
-      <c r="W46" s="0"/>
-      <c r="X46" s="0"/>
-      <c r="Y46" s="0"/>
-      <c r="Z46" s="0"/>
-      <c r="AA46" s="0"/>
-      <c r="AB46" s="0"/>
-      <c r="AC46" s="0"/>
-      <c r="AD46" s="0"/>
-      <c r="AE46" s="0"/>
-      <c r="AF46" s="0"/>
-      <c r="AG46" s="0"/>
-      <c r="AH46" s="0"/>
-      <c r="AI46" s="0"/>
-      <c r="AJ46" s="0"/>
-      <c r="AK46" s="0"/>
-      <c r="AL46" s="0"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
       <c r="AM46" s="52"/>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="49"/>
       <c r="B47" s="50"/>
       <c r="C47" s="40"/>
-      <c r="D47" s="0"/>
-      <c r="E47" s="0"/>
-      <c r="F47" s="0"/>
-      <c r="G47" s="0"/>
-      <c r="H47" s="0"/>
-      <c r="I47" s="0"/>
-      <c r="J47" s="0"/>
-      <c r="K47" s="0"/>
-      <c r="L47" s="0"/>
-      <c r="M47" s="0"/>
-      <c r="N47" s="0"/>
-      <c r="O47" s="0"/>
-      <c r="P47" s="0"/>
-      <c r="Q47" s="0"/>
-      <c r="R47" s="0"/>
-      <c r="S47" s="0"/>
-      <c r="T47" s="0"/>
-      <c r="U47" s="0"/>
-      <c r="V47" s="0"/>
-      <c r="W47" s="0"/>
-      <c r="X47" s="0"/>
-      <c r="Y47" s="0"/>
-      <c r="Z47" s="0"/>
-      <c r="AA47" s="0"/>
-      <c r="AB47" s="0"/>
-      <c r="AC47" s="0"/>
-      <c r="AD47" s="0"/>
-      <c r="AE47" s="0"/>
-      <c r="AF47" s="0"/>
-      <c r="AG47" s="0"/>
-      <c r="AH47" s="0"/>
-      <c r="AI47" s="0"/>
-      <c r="AJ47" s="0"/>
-      <c r="AK47" s="0"/>
-      <c r="AL47" s="0"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="8"/>
+      <c r="AK47" s="8"/>
+      <c r="AL47" s="8"/>
       <c r="AM47" s="52"/>
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="49"/>
       <c r="B48" s="50"/>
       <c r="C48" s="40"/>
-      <c r="D48" s="0"/>
-      <c r="E48" s="0"/>
-      <c r="F48" s="0"/>
-      <c r="G48" s="0"/>
-      <c r="H48" s="0"/>
-      <c r="I48" s="0"/>
-      <c r="J48" s="0"/>
-      <c r="K48" s="0"/>
-      <c r="L48" s="0"/>
-      <c r="M48" s="0"/>
-      <c r="N48" s="0"/>
-      <c r="O48" s="0"/>
-      <c r="P48" s="0"/>
-      <c r="Q48" s="0"/>
-      <c r="R48" s="0"/>
-      <c r="S48" s="0"/>
-      <c r="T48" s="0"/>
-      <c r="U48" s="0"/>
-      <c r="V48" s="0"/>
-      <c r="W48" s="0"/>
-      <c r="X48" s="0"/>
-      <c r="Y48" s="0"/>
-      <c r="Z48" s="0"/>
-      <c r="AA48" s="0"/>
-      <c r="AB48" s="0"/>
-      <c r="AC48" s="0"/>
-      <c r="AD48" s="0"/>
-      <c r="AE48" s="0"/>
-      <c r="AF48" s="0"/>
-      <c r="AG48" s="0"/>
-      <c r="AH48" s="0"/>
-      <c r="AI48" s="0"/>
-      <c r="AJ48" s="0"/>
-      <c r="AK48" s="0"/>
-      <c r="AL48" s="0"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="8"/>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="8"/>
+      <c r="AL48" s="8"/>
       <c r="AM48" s="41"/>
     </row>
     <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="49"/>
       <c r="B49" s="50"/>
       <c r="C49" s="40"/>
-      <c r="D49" s="0"/>
-      <c r="E49" s="0"/>
-      <c r="F49" s="0"/>
-      <c r="G49" s="0"/>
-      <c r="H49" s="0"/>
-      <c r="I49" s="0"/>
-      <c r="J49" s="0"/>
-      <c r="K49" s="0"/>
-      <c r="L49" s="0"/>
-      <c r="M49" s="0"/>
-      <c r="N49" s="0"/>
-      <c r="O49" s="0"/>
-      <c r="P49" s="0"/>
-      <c r="Q49" s="0"/>
-      <c r="R49" s="0"/>
-      <c r="S49" s="0"/>
-      <c r="T49" s="0"/>
-      <c r="U49" s="0"/>
-      <c r="V49" s="0"/>
-      <c r="W49" s="0"/>
-      <c r="X49" s="0"/>
-      <c r="Y49" s="0"/>
-      <c r="Z49" s="0"/>
-      <c r="AA49" s="0"/>
-      <c r="AB49" s="0"/>
-      <c r="AC49" s="0"/>
-      <c r="AD49" s="0"/>
-      <c r="AE49" s="0"/>
-      <c r="AF49" s="0"/>
-      <c r="AG49" s="0"/>
-      <c r="AH49" s="0"/>
-      <c r="AI49" s="0"/>
-      <c r="AJ49" s="0"/>
-      <c r="AK49" s="0"/>
-      <c r="AL49" s="0"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="8"/>
+      <c r="AL49" s="8"/>
       <c r="AM49" s="41"/>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="49"/>
       <c r="B50" s="50"/>
       <c r="C50" s="40"/>
-      <c r="D50" s="0"/>
-      <c r="E50" s="0"/>
-      <c r="F50" s="0"/>
-      <c r="G50" s="0"/>
-      <c r="H50" s="0"/>
-      <c r="I50" s="0"/>
-      <c r="J50" s="0"/>
-      <c r="K50" s="0"/>
-      <c r="L50" s="0"/>
-      <c r="M50" s="0"/>
-      <c r="N50" s="0"/>
-      <c r="O50" s="0"/>
-      <c r="P50" s="0"/>
-      <c r="Q50" s="0"/>
-      <c r="R50" s="0"/>
-      <c r="S50" s="0"/>
-      <c r="T50" s="0"/>
-      <c r="U50" s="0"/>
-      <c r="V50" s="0"/>
-      <c r="W50" s="0"/>
-      <c r="X50" s="0"/>
-      <c r="Y50" s="0"/>
-      <c r="Z50" s="0"/>
-      <c r="AA50" s="0"/>
-      <c r="AB50" s="0"/>
-      <c r="AC50" s="0"/>
-      <c r="AD50" s="0"/>
-      <c r="AE50" s="0"/>
-      <c r="AF50" s="0"/>
-      <c r="AG50" s="0"/>
-      <c r="AH50" s="0"/>
-      <c r="AI50" s="0"/>
-      <c r="AJ50" s="0"/>
-      <c r="AK50" s="0"/>
-      <c r="AL50" s="0"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8"/>
+      <c r="AL50" s="8"/>
       <c r="AM50" s="53"/>
     </row>
     <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="49"/>
       <c r="B51" s="50"/>
       <c r="C51" s="54"/>
-      <c r="D51" s="0"/>
-      <c r="E51" s="0"/>
-      <c r="F51" s="0"/>
-      <c r="G51" s="0"/>
-      <c r="H51" s="0"/>
-      <c r="I51" s="0"/>
-      <c r="J51" s="0"/>
-      <c r="K51" s="0"/>
-      <c r="L51" s="0"/>
-      <c r="M51" s="0"/>
-      <c r="N51" s="0"/>
-      <c r="O51" s="0"/>
-      <c r="P51" s="0"/>
-      <c r="Q51" s="0"/>
-      <c r="R51" s="0"/>
-      <c r="S51" s="0"/>
-      <c r="T51" s="0"/>
-      <c r="U51" s="0"/>
-      <c r="V51" s="0"/>
-      <c r="W51" s="0"/>
-      <c r="X51" s="0"/>
-      <c r="Y51" s="0"/>
-      <c r="Z51" s="0"/>
-      <c r="AA51" s="0"/>
-      <c r="AB51" s="0"/>
-      <c r="AC51" s="0"/>
-      <c r="AD51" s="0"/>
-      <c r="AE51" s="0"/>
-      <c r="AF51" s="0"/>
-      <c r="AG51" s="0"/>
-      <c r="AH51" s="0"/>
-      <c r="AI51" s="0"/>
-      <c r="AJ51" s="0"/>
-      <c r="AK51" s="0"/>
-      <c r="AL51" s="0"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="8"/>
+      <c r="AL51" s="8"/>
       <c r="AM51" s="53"/>
     </row>
     <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="49"/>
       <c r="B52" s="50"/>
       <c r="C52" s="40"/>
-      <c r="D52" s="0"/>
-      <c r="E52" s="0"/>
-      <c r="F52" s="0"/>
-      <c r="G52" s="0"/>
-      <c r="H52" s="0"/>
-      <c r="I52" s="0"/>
-      <c r="J52" s="0"/>
-      <c r="K52" s="0"/>
-      <c r="L52" s="0"/>
-      <c r="M52" s="0"/>
-      <c r="N52" s="0"/>
-      <c r="O52" s="0"/>
-      <c r="P52" s="0"/>
-      <c r="Q52" s="0"/>
-      <c r="R52" s="0"/>
-      <c r="S52" s="0"/>
-      <c r="T52" s="0"/>
-      <c r="U52" s="0"/>
-      <c r="V52" s="0"/>
-      <c r="W52" s="0"/>
-      <c r="X52" s="0"/>
-      <c r="Y52" s="0"/>
-      <c r="Z52" s="0"/>
-      <c r="AA52" s="0"/>
-      <c r="AB52" s="0"/>
-      <c r="AC52" s="0"/>
-      <c r="AD52" s="0"/>
-      <c r="AE52" s="0"/>
-      <c r="AF52" s="0"/>
-      <c r="AG52" s="0"/>
-      <c r="AH52" s="0"/>
-      <c r="AI52" s="0"/>
-      <c r="AJ52" s="0"/>
-      <c r="AK52" s="0"/>
-      <c r="AL52" s="0"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="8"/>
+      <c r="AL52" s="8"/>
       <c r="AM52" s="53"/>
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18753,7 +19634,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ54" activeCellId="0" sqref="AJ54"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21226,8 +22107,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22898,7 +23779,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CL1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/backend/static/report.xlsx
+++ b/backend/static/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -907,7 +907,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="166">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1549,51 +1549,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1687,9 +1655,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>117000</xdr:colOff>
+      <xdr:colOff>116640</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1703,7 +1671,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="281160" y="66240"/>
-          <a:ext cx="1349640" cy="570240"/>
+          <a:ext cx="1349280" cy="569880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1730,9 +1698,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>166320</xdr:colOff>
+      <xdr:colOff>165960</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1746,7 +1714,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="510120" y="81360"/>
-          <a:ext cx="1349640" cy="570240"/>
+          <a:ext cx="1349280" cy="569880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1773,9 +1741,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>116640</xdr:colOff>
+      <xdr:colOff>116280</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1789,7 +1757,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5803920" y="10002240"/>
-          <a:ext cx="678600" cy="285840"/>
+          <a:ext cx="678240" cy="285480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1919,7 +1887,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AP41" activeCellId="0" sqref="AP41"/>
+      <selection pane="topLeft" activeCell="AP41" activeCellId="1" sqref="C1:AM54 AP41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3569,7 +3537,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB16" activeCellId="0" sqref="AB16"/>
+      <selection pane="topLeft" activeCell="AB16" activeCellId="0" sqref="C1:AM54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5975,7 +5943,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
+      <selection pane="topLeft" activeCell="AH49" activeCellId="0" sqref="C1:AM54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8204,8 +8172,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AX9" activeCellId="0" sqref="AX9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:AM54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8296,2134 +8264,2134 @@
       <c r="BW1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="164"/>
-      <c r="AD2" s="164"/>
-      <c r="AE2" s="164"/>
-      <c r="AF2" s="164"/>
-      <c r="AG2" s="164"/>
-      <c r="AH2" s="164"/>
-      <c r="AI2" s="164"/>
-      <c r="AJ2" s="164"/>
-      <c r="AK2" s="164"/>
-      <c r="AL2" s="164"/>
-      <c r="AM2" s="165"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="155"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C3" s="163"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="164"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="164"/>
-      <c r="T3" s="164"/>
-      <c r="U3" s="164"/>
-      <c r="V3" s="164"/>
-      <c r="W3" s="164"/>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="164"/>
-      <c r="AA3" s="164"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="164"/>
-      <c r="AD3" s="164"/>
-      <c r="AE3" s="164"/>
-      <c r="AF3" s="164"/>
-      <c r="AG3" s="164"/>
-      <c r="AH3" s="164"/>
-      <c r="AI3" s="164"/>
-      <c r="AJ3" s="164"/>
-      <c r="AK3" s="164"/>
-      <c r="AL3" s="164"/>
-      <c r="AM3" s="165"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="155"/>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C4" s="163"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="164"/>
-      <c r="M4" s="164"/>
-      <c r="N4" s="164"/>
-      <c r="O4" s="164"/>
-      <c r="P4" s="164"/>
-      <c r="Q4" s="164"/>
-      <c r="R4" s="164"/>
-      <c r="S4" s="164"/>
-      <c r="T4" s="164"/>
-      <c r="U4" s="164"/>
-      <c r="V4" s="164"/>
-      <c r="W4" s="164"/>
-      <c r="X4" s="164"/>
-      <c r="Y4" s="164"/>
-      <c r="Z4" s="164"/>
-      <c r="AA4" s="164"/>
-      <c r="AB4" s="164"/>
-      <c r="AC4" s="164"/>
-      <c r="AD4" s="164"/>
-      <c r="AE4" s="164"/>
-      <c r="AF4" s="164"/>
-      <c r="AG4" s="164"/>
-      <c r="AH4" s="164"/>
-      <c r="AI4" s="164"/>
-      <c r="AJ4" s="164"/>
-      <c r="AK4" s="164"/>
-      <c r="AL4" s="164"/>
-      <c r="AM4" s="165"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="155"/>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="163"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
-      <c r="K5" s="164"/>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="164"/>
-      <c r="P5" s="164"/>
-      <c r="Q5" s="164"/>
-      <c r="R5" s="164"/>
-      <c r="S5" s="164"/>
-      <c r="T5" s="164"/>
-      <c r="U5" s="164"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
-      <c r="X5" s="164"/>
-      <c r="Y5" s="164"/>
-      <c r="Z5" s="164"/>
-      <c r="AA5" s="164"/>
-      <c r="AB5" s="164"/>
-      <c r="AC5" s="164"/>
-      <c r="AD5" s="164"/>
-      <c r="AE5" s="164"/>
-      <c r="AF5" s="164"/>
-      <c r="AG5" s="164"/>
-      <c r="AH5" s="164"/>
-      <c r="AI5" s="164"/>
-      <c r="AJ5" s="164"/>
-      <c r="AK5" s="164"/>
-      <c r="AL5" s="164"/>
-      <c r="AM5" s="165"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="73"/>
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="73"/>
+      <c r="AJ5" s="73"/>
+      <c r="AK5" s="73"/>
+      <c r="AL5" s="73"/>
+      <c r="AM5" s="155"/>
       <c r="AQ5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C6" s="163"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
-      <c r="L6" s="164"/>
-      <c r="M6" s="164"/>
-      <c r="N6" s="164"/>
-      <c r="O6" s="164"/>
-      <c r="P6" s="164"/>
-      <c r="Q6" s="164"/>
-      <c r="R6" s="164"/>
-      <c r="S6" s="164"/>
-      <c r="T6" s="164"/>
-      <c r="U6" s="164"/>
-      <c r="V6" s="164"/>
-      <c r="W6" s="164"/>
-      <c r="X6" s="164"/>
-      <c r="Y6" s="164"/>
-      <c r="Z6" s="164"/>
-      <c r="AA6" s="164"/>
-      <c r="AB6" s="164"/>
-      <c r="AC6" s="164"/>
-      <c r="AD6" s="164"/>
-      <c r="AE6" s="164"/>
-      <c r="AF6" s="164"/>
-      <c r="AG6" s="164"/>
-      <c r="AH6" s="164"/>
-      <c r="AI6" s="164"/>
-      <c r="AJ6" s="164"/>
-      <c r="AK6" s="164"/>
-      <c r="AL6" s="164"/>
-      <c r="AM6" s="165"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="73"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="73"/>
+      <c r="AH6" s="73"/>
+      <c r="AI6" s="73"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="73"/>
+      <c r="AL6" s="73"/>
+      <c r="AM6" s="155"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="163"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="164"/>
-      <c r="K7" s="164"/>
-      <c r="L7" s="164"/>
-      <c r="M7" s="164"/>
-      <c r="N7" s="164"/>
-      <c r="O7" s="164"/>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="164"/>
-      <c r="R7" s="164"/>
-      <c r="S7" s="164"/>
-      <c r="T7" s="164"/>
-      <c r="U7" s="164"/>
-      <c r="V7" s="164"/>
-      <c r="W7" s="164"/>
-      <c r="X7" s="164"/>
-      <c r="Y7" s="164"/>
-      <c r="Z7" s="164"/>
-      <c r="AA7" s="164"/>
-      <c r="AB7" s="164"/>
-      <c r="AC7" s="164"/>
-      <c r="AD7" s="164"/>
-      <c r="AE7" s="164"/>
-      <c r="AF7" s="164"/>
-      <c r="AG7" s="164"/>
-      <c r="AH7" s="164"/>
-      <c r="AI7" s="164"/>
-      <c r="AJ7" s="164"/>
-      <c r="AK7" s="164"/>
-      <c r="AL7" s="164"/>
-      <c r="AM7" s="165"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="73"/>
+      <c r="AH7" s="73"/>
+      <c r="AI7" s="73"/>
+      <c r="AJ7" s="73"/>
+      <c r="AK7" s="73"/>
+      <c r="AL7" s="73"/>
+      <c r="AM7" s="155"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C8" s="163"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
-      <c r="L8" s="164"/>
-      <c r="M8" s="164"/>
-      <c r="N8" s="164"/>
-      <c r="O8" s="164"/>
-      <c r="P8" s="164"/>
-      <c r="Q8" s="164"/>
-      <c r="R8" s="164"/>
-      <c r="S8" s="164"/>
-      <c r="T8" s="164"/>
-      <c r="U8" s="164"/>
-      <c r="V8" s="164"/>
-      <c r="W8" s="164"/>
-      <c r="X8" s="164"/>
-      <c r="Y8" s="164"/>
-      <c r="Z8" s="164"/>
-      <c r="AA8" s="164"/>
-      <c r="AB8" s="164"/>
-      <c r="AC8" s="164"/>
-      <c r="AD8" s="164"/>
-      <c r="AE8" s="164"/>
-      <c r="AF8" s="164"/>
-      <c r="AG8" s="164"/>
-      <c r="AH8" s="164"/>
-      <c r="AI8" s="164"/>
-      <c r="AJ8" s="164"/>
-      <c r="AK8" s="164"/>
-      <c r="AL8" s="164"/>
-      <c r="AM8" s="165"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="73"/>
+      <c r="AD8" s="73"/>
+      <c r="AE8" s="73"/>
+      <c r="AF8" s="73"/>
+      <c r="AG8" s="73"/>
+      <c r="AH8" s="73"/>
+      <c r="AI8" s="73"/>
+      <c r="AJ8" s="73"/>
+      <c r="AK8" s="73"/>
+      <c r="AL8" s="73"/>
+      <c r="AM8" s="155"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="163"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
-      <c r="L9" s="164"/>
-      <c r="M9" s="164"/>
-      <c r="N9" s="164"/>
-      <c r="O9" s="164"/>
-      <c r="P9" s="164"/>
-      <c r="Q9" s="164"/>
-      <c r="R9" s="164"/>
-      <c r="S9" s="164"/>
-      <c r="T9" s="164"/>
-      <c r="U9" s="164"/>
-      <c r="V9" s="164"/>
-      <c r="W9" s="164"/>
-      <c r="X9" s="164"/>
-      <c r="Y9" s="164"/>
-      <c r="Z9" s="164"/>
-      <c r="AA9" s="164"/>
-      <c r="AB9" s="164"/>
-      <c r="AC9" s="164"/>
-      <c r="AD9" s="164"/>
-      <c r="AE9" s="164"/>
-      <c r="AF9" s="164"/>
-      <c r="AG9" s="164"/>
-      <c r="AH9" s="164"/>
-      <c r="AI9" s="164"/>
-      <c r="AJ9" s="164"/>
-      <c r="AK9" s="164"/>
-      <c r="AL9" s="164"/>
-      <c r="AM9" s="165"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="73"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="73"/>
+      <c r="AH9" s="73"/>
+      <c r="AI9" s="73"/>
+      <c r="AJ9" s="73"/>
+      <c r="AK9" s="73"/>
+      <c r="AL9" s="73"/>
+      <c r="AM9" s="155"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="163"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="164"/>
-      <c r="M10" s="164"/>
-      <c r="N10" s="164"/>
-      <c r="O10" s="164"/>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="164"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="164"/>
-      <c r="T10" s="164"/>
-      <c r="U10" s="164"/>
-      <c r="V10" s="164"/>
-      <c r="W10" s="164"/>
-      <c r="X10" s="164"/>
-      <c r="Y10" s="164"/>
-      <c r="Z10" s="164"/>
-      <c r="AA10" s="164"/>
-      <c r="AB10" s="164"/>
-      <c r="AC10" s="164"/>
-      <c r="AD10" s="164"/>
-      <c r="AE10" s="164"/>
-      <c r="AF10" s="164"/>
-      <c r="AG10" s="164"/>
-      <c r="AH10" s="164"/>
-      <c r="AI10" s="164"/>
-      <c r="AJ10" s="164"/>
-      <c r="AK10" s="164"/>
-      <c r="AL10" s="164"/>
-      <c r="AM10" s="165"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="73"/>
+      <c r="AE10" s="73"/>
+      <c r="AF10" s="73"/>
+      <c r="AG10" s="73"/>
+      <c r="AH10" s="73"/>
+      <c r="AI10" s="73"/>
+      <c r="AJ10" s="73"/>
+      <c r="AK10" s="73"/>
+      <c r="AL10" s="73"/>
+      <c r="AM10" s="155"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="163"/>
-      <c r="D11" s="164"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="164"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="164"/>
-      <c r="N11" s="164"/>
-      <c r="O11" s="164"/>
-      <c r="P11" s="164"/>
-      <c r="Q11" s="164"/>
-      <c r="R11" s="164"/>
-      <c r="S11" s="164"/>
-      <c r="T11" s="164"/>
-      <c r="U11" s="164"/>
-      <c r="V11" s="164"/>
-      <c r="W11" s="164"/>
-      <c r="X11" s="164"/>
-      <c r="Y11" s="164"/>
-      <c r="Z11" s="164"/>
-      <c r="AA11" s="164"/>
-      <c r="AB11" s="164"/>
-      <c r="AC11" s="164"/>
-      <c r="AD11" s="164"/>
-      <c r="AE11" s="164"/>
-      <c r="AF11" s="164"/>
-      <c r="AG11" s="164"/>
-      <c r="AH11" s="164"/>
-      <c r="AI11" s="164"/>
-      <c r="AJ11" s="164"/>
-      <c r="AK11" s="164"/>
-      <c r="AL11" s="164"/>
-      <c r="AM11" s="165"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="73"/>
+      <c r="AC11" s="73"/>
+      <c r="AD11" s="73"/>
+      <c r="AE11" s="73"/>
+      <c r="AF11" s="73"/>
+      <c r="AG11" s="73"/>
+      <c r="AH11" s="73"/>
+      <c r="AI11" s="73"/>
+      <c r="AJ11" s="73"/>
+      <c r="AK11" s="73"/>
+      <c r="AL11" s="73"/>
+      <c r="AM11" s="155"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="163"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="164"/>
-      <c r="O12" s="164"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="164"/>
-      <c r="R12" s="164"/>
-      <c r="S12" s="164"/>
-      <c r="T12" s="164"/>
-      <c r="U12" s="164"/>
-      <c r="V12" s="164"/>
-      <c r="W12" s="164"/>
-      <c r="X12" s="164"/>
-      <c r="Y12" s="164"/>
-      <c r="Z12" s="164"/>
-      <c r="AA12" s="164"/>
-      <c r="AB12" s="164"/>
-      <c r="AC12" s="164"/>
-      <c r="AD12" s="164"/>
-      <c r="AE12" s="164"/>
-      <c r="AF12" s="164"/>
-      <c r="AG12" s="164"/>
-      <c r="AH12" s="164"/>
-      <c r="AI12" s="164"/>
-      <c r="AJ12" s="164"/>
-      <c r="AK12" s="164"/>
-      <c r="AL12" s="164"/>
-      <c r="AM12" s="165"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="73"/>
+      <c r="AH12" s="73"/>
+      <c r="AI12" s="73"/>
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="73"/>
+      <c r="AL12" s="73"/>
+      <c r="AM12" s="155"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="163"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
-      <c r="L13" s="167"/>
-      <c r="M13" s="167"/>
-      <c r="N13" s="167"/>
-      <c r="O13" s="167"/>
-      <c r="P13" s="167"/>
-      <c r="Q13" s="167"/>
-      <c r="R13" s="167"/>
-      <c r="S13" s="167"/>
-      <c r="T13" s="167"/>
-      <c r="U13" s="167"/>
-      <c r="V13" s="167"/>
-      <c r="W13" s="167"/>
-      <c r="X13" s="167"/>
-      <c r="Y13" s="167"/>
-      <c r="Z13" s="167"/>
-      <c r="AA13" s="167"/>
-      <c r="AB13" s="167"/>
-      <c r="AC13" s="167"/>
-      <c r="AD13" s="167"/>
-      <c r="AE13" s="167"/>
-      <c r="AF13" s="167"/>
-      <c r="AG13" s="167"/>
-      <c r="AH13" s="167"/>
-      <c r="AI13" s="167"/>
-      <c r="AJ13" s="167"/>
-      <c r="AK13" s="164"/>
-      <c r="AL13" s="164"/>
-      <c r="AM13" s="165"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="73"/>
+      <c r="AB13" s="73"/>
+      <c r="AC13" s="73"/>
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="73"/>
+      <c r="AF13" s="73"/>
+      <c r="AG13" s="73"/>
+      <c r="AH13" s="73"/>
+      <c r="AI13" s="73"/>
+      <c r="AJ13" s="73"/>
+      <c r="AK13" s="73"/>
+      <c r="AL13" s="73"/>
+      <c r="AM13" s="155"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="163"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
-      <c r="L14" s="167"/>
-      <c r="M14" s="167"/>
-      <c r="N14" s="167"/>
-      <c r="O14" s="167"/>
-      <c r="P14" s="167"/>
-      <c r="Q14" s="167"/>
-      <c r="R14" s="167"/>
-      <c r="S14" s="167"/>
-      <c r="T14" s="167"/>
-      <c r="U14" s="167"/>
-      <c r="V14" s="167"/>
-      <c r="W14" s="167"/>
-      <c r="X14" s="167"/>
-      <c r="Y14" s="167"/>
-      <c r="Z14" s="167"/>
-      <c r="AA14" s="167"/>
-      <c r="AB14" s="167"/>
-      <c r="AC14" s="167"/>
-      <c r="AD14" s="167"/>
-      <c r="AE14" s="167"/>
-      <c r="AF14" s="167"/>
-      <c r="AG14" s="167"/>
-      <c r="AH14" s="167"/>
-      <c r="AI14" s="167"/>
-      <c r="AJ14" s="167"/>
-      <c r="AK14" s="164"/>
-      <c r="AL14" s="164"/>
-      <c r="AM14" s="165"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="73"/>
+      <c r="AC14" s="73"/>
+      <c r="AD14" s="73"/>
+      <c r="AE14" s="73"/>
+      <c r="AF14" s="73"/>
+      <c r="AG14" s="73"/>
+      <c r="AH14" s="73"/>
+      <c r="AI14" s="73"/>
+      <c r="AJ14" s="73"/>
+      <c r="AK14" s="73"/>
+      <c r="AL14" s="73"/>
+      <c r="AM14" s="155"/>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="163"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
-      <c r="L15" s="167"/>
-      <c r="M15" s="167"/>
-      <c r="N15" s="167"/>
-      <c r="O15" s="167"/>
-      <c r="P15" s="167"/>
-      <c r="Q15" s="167"/>
-      <c r="R15" s="167"/>
-      <c r="S15" s="167"/>
-      <c r="T15" s="167"/>
-      <c r="U15" s="167"/>
-      <c r="V15" s="167"/>
-      <c r="W15" s="167"/>
-      <c r="X15" s="167"/>
-      <c r="Y15" s="167"/>
-      <c r="Z15" s="167"/>
-      <c r="AA15" s="167"/>
-      <c r="AB15" s="167"/>
-      <c r="AC15" s="167"/>
-      <c r="AD15" s="167"/>
-      <c r="AE15" s="167"/>
-      <c r="AF15" s="167"/>
-      <c r="AG15" s="167"/>
-      <c r="AH15" s="167"/>
-      <c r="AI15" s="167"/>
-      <c r="AJ15" s="167"/>
-      <c r="AK15" s="164"/>
-      <c r="AL15" s="164"/>
-      <c r="AM15" s="165"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="73"/>
+      <c r="AC15" s="73"/>
+      <c r="AD15" s="73"/>
+      <c r="AE15" s="73"/>
+      <c r="AF15" s="73"/>
+      <c r="AG15" s="73"/>
+      <c r="AH15" s="73"/>
+      <c r="AI15" s="73"/>
+      <c r="AJ15" s="73"/>
+      <c r="AK15" s="73"/>
+      <c r="AL15" s="73"/>
+      <c r="AM15" s="155"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="163"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
-      <c r="L16" s="167"/>
-      <c r="M16" s="167"/>
-      <c r="N16" s="167"/>
-      <c r="O16" s="167"/>
-      <c r="P16" s="167"/>
-      <c r="Q16" s="167"/>
-      <c r="R16" s="167"/>
-      <c r="S16" s="167"/>
-      <c r="T16" s="167"/>
-      <c r="U16" s="167"/>
-      <c r="V16" s="167"/>
-      <c r="W16" s="167"/>
-      <c r="X16" s="167"/>
-      <c r="Y16" s="167"/>
-      <c r="Z16" s="167"/>
-      <c r="AA16" s="167"/>
-      <c r="AB16" s="167"/>
-      <c r="AC16" s="167"/>
-      <c r="AD16" s="167"/>
-      <c r="AE16" s="167"/>
-      <c r="AF16" s="167"/>
-      <c r="AG16" s="167"/>
-      <c r="AH16" s="167"/>
-      <c r="AI16" s="167"/>
-      <c r="AJ16" s="167"/>
-      <c r="AK16" s="164"/>
-      <c r="AL16" s="164"/>
-      <c r="AM16" s="165"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="73"/>
+      <c r="AC16" s="73"/>
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="73"/>
+      <c r="AG16" s="73"/>
+      <c r="AH16" s="73"/>
+      <c r="AI16" s="73"/>
+      <c r="AJ16" s="73"/>
+      <c r="AK16" s="73"/>
+      <c r="AL16" s="73"/>
+      <c r="AM16" s="155"/>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C17" s="163"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
-      <c r="L17" s="167"/>
-      <c r="M17" s="167"/>
-      <c r="N17" s="167"/>
-      <c r="O17" s="167"/>
-      <c r="P17" s="167"/>
-      <c r="Q17" s="167"/>
-      <c r="R17" s="167"/>
-      <c r="S17" s="167"/>
-      <c r="T17" s="167"/>
-      <c r="U17" s="167"/>
-      <c r="V17" s="167"/>
-      <c r="W17" s="167"/>
-      <c r="X17" s="167"/>
-      <c r="Y17" s="167"/>
-      <c r="Z17" s="167"/>
-      <c r="AA17" s="167"/>
-      <c r="AB17" s="167"/>
-      <c r="AC17" s="167"/>
-      <c r="AD17" s="167"/>
-      <c r="AE17" s="167"/>
-      <c r="AF17" s="167"/>
-      <c r="AG17" s="167"/>
-      <c r="AH17" s="167"/>
-      <c r="AI17" s="167"/>
-      <c r="AJ17" s="167"/>
-      <c r="AK17" s="164"/>
-      <c r="AL17" s="164"/>
-      <c r="AM17" s="165"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
+      <c r="Z17" s="73"/>
+      <c r="AA17" s="73"/>
+      <c r="AB17" s="73"/>
+      <c r="AC17" s="73"/>
+      <c r="AD17" s="73"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="73"/>
+      <c r="AG17" s="73"/>
+      <c r="AH17" s="73"/>
+      <c r="AI17" s="73"/>
+      <c r="AJ17" s="73"/>
+      <c r="AK17" s="73"/>
+      <c r="AL17" s="73"/>
+      <c r="AM17" s="155"/>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C18" s="163"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="167"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="167"/>
-      <c r="K18" s="167"/>
-      <c r="L18" s="167"/>
-      <c r="M18" s="167"/>
-      <c r="N18" s="167"/>
-      <c r="O18" s="167"/>
-      <c r="P18" s="167"/>
-      <c r="Q18" s="167"/>
-      <c r="R18" s="167"/>
-      <c r="S18" s="167"/>
-      <c r="T18" s="167"/>
-      <c r="U18" s="167"/>
-      <c r="V18" s="167"/>
-      <c r="W18" s="167"/>
-      <c r="X18" s="167"/>
-      <c r="Y18" s="167"/>
-      <c r="Z18" s="167"/>
-      <c r="AA18" s="167"/>
-      <c r="AB18" s="167"/>
-      <c r="AC18" s="167"/>
-      <c r="AD18" s="167"/>
-      <c r="AE18" s="167"/>
-      <c r="AF18" s="167"/>
-      <c r="AG18" s="167"/>
-      <c r="AH18" s="167"/>
-      <c r="AI18" s="167"/>
-      <c r="AJ18" s="167"/>
-      <c r="AK18" s="164"/>
-      <c r="AL18" s="164"/>
-      <c r="AM18" s="165"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="73"/>
+      <c r="AC18" s="73"/>
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="73"/>
+      <c r="AF18" s="73"/>
+      <c r="AG18" s="73"/>
+      <c r="AH18" s="73"/>
+      <c r="AI18" s="73"/>
+      <c r="AJ18" s="73"/>
+      <c r="AK18" s="73"/>
+      <c r="AL18" s="73"/>
+      <c r="AM18" s="155"/>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C19" s="163"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="167"/>
-      <c r="J19" s="167"/>
-      <c r="K19" s="167"/>
-      <c r="L19" s="167"/>
-      <c r="M19" s="167"/>
-      <c r="N19" s="167"/>
-      <c r="O19" s="167"/>
-      <c r="P19" s="167"/>
-      <c r="Q19" s="167"/>
-      <c r="R19" s="167"/>
-      <c r="S19" s="167"/>
-      <c r="T19" s="167"/>
-      <c r="U19" s="167"/>
-      <c r="V19" s="167"/>
-      <c r="W19" s="167"/>
-      <c r="X19" s="167"/>
-      <c r="Y19" s="167"/>
-      <c r="Z19" s="167"/>
-      <c r="AA19" s="167"/>
-      <c r="AB19" s="167"/>
-      <c r="AC19" s="167"/>
-      <c r="AD19" s="167"/>
-      <c r="AE19" s="167"/>
-      <c r="AF19" s="167"/>
-      <c r="AG19" s="167"/>
-      <c r="AH19" s="167"/>
-      <c r="AI19" s="167"/>
-      <c r="AJ19" s="167"/>
-      <c r="AK19" s="164"/>
-      <c r="AL19" s="164"/>
-      <c r="AM19" s="165"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="73"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="73"/>
+      <c r="Y19" s="73"/>
+      <c r="Z19" s="73"/>
+      <c r="AA19" s="73"/>
+      <c r="AB19" s="73"/>
+      <c r="AC19" s="73"/>
+      <c r="AD19" s="73"/>
+      <c r="AE19" s="73"/>
+      <c r="AF19" s="73"/>
+      <c r="AG19" s="73"/>
+      <c r="AH19" s="73"/>
+      <c r="AI19" s="73"/>
+      <c r="AJ19" s="73"/>
+      <c r="AK19" s="73"/>
+      <c r="AL19" s="73"/>
+      <c r="AM19" s="155"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="163"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="167"/>
-      <c r="K20" s="167"/>
-      <c r="L20" s="167"/>
-      <c r="M20" s="167"/>
-      <c r="N20" s="167"/>
-      <c r="O20" s="167"/>
-      <c r="P20" s="167"/>
-      <c r="Q20" s="167"/>
-      <c r="R20" s="167"/>
-      <c r="S20" s="167"/>
-      <c r="T20" s="167"/>
-      <c r="U20" s="167"/>
-      <c r="V20" s="167"/>
-      <c r="W20" s="167"/>
-      <c r="X20" s="167"/>
-      <c r="Y20" s="167"/>
-      <c r="Z20" s="167"/>
-      <c r="AA20" s="167"/>
-      <c r="AB20" s="167"/>
-      <c r="AC20" s="167"/>
-      <c r="AD20" s="167"/>
-      <c r="AE20" s="167"/>
-      <c r="AF20" s="167"/>
-      <c r="AG20" s="167"/>
-      <c r="AH20" s="167"/>
-      <c r="AI20" s="167"/>
-      <c r="AJ20" s="167"/>
-      <c r="AK20" s="164"/>
-      <c r="AL20" s="164"/>
-      <c r="AM20" s="165"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="73"/>
+      <c r="AB20" s="73"/>
+      <c r="AC20" s="73"/>
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="73"/>
+      <c r="AF20" s="73"/>
+      <c r="AG20" s="73"/>
+      <c r="AH20" s="73"/>
+      <c r="AI20" s="73"/>
+      <c r="AJ20" s="73"/>
+      <c r="AK20" s="73"/>
+      <c r="AL20" s="73"/>
+      <c r="AM20" s="155"/>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="163"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="167"/>
-      <c r="J21" s="167"/>
-      <c r="K21" s="167"/>
-      <c r="L21" s="167"/>
-      <c r="M21" s="167"/>
-      <c r="N21" s="167"/>
-      <c r="O21" s="167"/>
-      <c r="P21" s="167"/>
-      <c r="Q21" s="167"/>
-      <c r="R21" s="167"/>
-      <c r="S21" s="167"/>
-      <c r="T21" s="167"/>
-      <c r="U21" s="167"/>
-      <c r="V21" s="167"/>
-      <c r="W21" s="167"/>
-      <c r="X21" s="167"/>
-      <c r="Y21" s="167"/>
-      <c r="Z21" s="167"/>
-      <c r="AA21" s="167"/>
-      <c r="AB21" s="167"/>
-      <c r="AC21" s="167"/>
-      <c r="AD21" s="167"/>
-      <c r="AE21" s="167"/>
-      <c r="AF21" s="167"/>
-      <c r="AG21" s="167"/>
-      <c r="AH21" s="167"/>
-      <c r="AI21" s="167"/>
-      <c r="AJ21" s="167"/>
-      <c r="AK21" s="164"/>
-      <c r="AL21" s="164"/>
-      <c r="AM21" s="165"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="73"/>
+      <c r="Y21" s="73"/>
+      <c r="Z21" s="73"/>
+      <c r="AA21" s="73"/>
+      <c r="AB21" s="73"/>
+      <c r="AC21" s="73"/>
+      <c r="AD21" s="73"/>
+      <c r="AE21" s="73"/>
+      <c r="AF21" s="73"/>
+      <c r="AG21" s="73"/>
+      <c r="AH21" s="73"/>
+      <c r="AI21" s="73"/>
+      <c r="AJ21" s="73"/>
+      <c r="AK21" s="73"/>
+      <c r="AL21" s="73"/>
+      <c r="AM21" s="155"/>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="163"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="164"/>
-      <c r="L22" s="164"/>
-      <c r="M22" s="164"/>
-      <c r="N22" s="164"/>
-      <c r="O22" s="164"/>
-      <c r="P22" s="164"/>
-      <c r="Q22" s="164"/>
-      <c r="R22" s="164"/>
-      <c r="S22" s="164"/>
-      <c r="T22" s="164"/>
-      <c r="U22" s="164"/>
-      <c r="V22" s="164"/>
-      <c r="W22" s="164"/>
-      <c r="X22" s="164"/>
-      <c r="Y22" s="164"/>
-      <c r="Z22" s="164"/>
-      <c r="AA22" s="164"/>
-      <c r="AB22" s="164"/>
-      <c r="AC22" s="164"/>
-      <c r="AD22" s="164"/>
-      <c r="AE22" s="164"/>
-      <c r="AF22" s="164"/>
-      <c r="AG22" s="164"/>
-      <c r="AH22" s="164"/>
-      <c r="AI22" s="164"/>
-      <c r="AJ22" s="164"/>
-      <c r="AK22" s="164"/>
-      <c r="AL22" s="164"/>
-      <c r="AM22" s="165"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="73"/>
+      <c r="AC22" s="73"/>
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="73"/>
+      <c r="AF22" s="73"/>
+      <c r="AG22" s="73"/>
+      <c r="AH22" s="73"/>
+      <c r="AI22" s="73"/>
+      <c r="AJ22" s="73"/>
+      <c r="AK22" s="73"/>
+      <c r="AL22" s="73"/>
+      <c r="AM22" s="155"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="163"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="164"/>
-      <c r="L23" s="164"/>
-      <c r="M23" s="164"/>
-      <c r="N23" s="164"/>
-      <c r="O23" s="164"/>
-      <c r="P23" s="164"/>
-      <c r="Q23" s="164"/>
-      <c r="R23" s="164"/>
-      <c r="S23" s="164"/>
-      <c r="T23" s="164"/>
-      <c r="U23" s="164"/>
-      <c r="V23" s="164"/>
-      <c r="W23" s="164"/>
-      <c r="X23" s="164"/>
-      <c r="Y23" s="164"/>
-      <c r="Z23" s="164"/>
-      <c r="AA23" s="164"/>
-      <c r="AB23" s="164"/>
-      <c r="AC23" s="164"/>
-      <c r="AD23" s="164"/>
-      <c r="AE23" s="164"/>
-      <c r="AF23" s="164"/>
-      <c r="AG23" s="164"/>
-      <c r="AH23" s="164"/>
-      <c r="AI23" s="164"/>
-      <c r="AJ23" s="164"/>
-      <c r="AK23" s="164"/>
-      <c r="AL23" s="164"/>
-      <c r="AM23" s="165"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="73"/>
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="73"/>
+      <c r="AG23" s="73"/>
+      <c r="AH23" s="73"/>
+      <c r="AI23" s="73"/>
+      <c r="AJ23" s="73"/>
+      <c r="AK23" s="73"/>
+      <c r="AL23" s="73"/>
+      <c r="AM23" s="155"/>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="163"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="167"/>
-      <c r="K24" s="167"/>
-      <c r="L24" s="167"/>
-      <c r="M24" s="167"/>
-      <c r="N24" s="167"/>
-      <c r="O24" s="167"/>
-      <c r="P24" s="167"/>
-      <c r="Q24" s="167"/>
-      <c r="R24" s="167"/>
-      <c r="S24" s="167"/>
-      <c r="T24" s="167"/>
-      <c r="U24" s="167"/>
-      <c r="V24" s="167"/>
-      <c r="W24" s="167"/>
-      <c r="X24" s="167"/>
-      <c r="Y24" s="167"/>
-      <c r="Z24" s="167"/>
-      <c r="AA24" s="167"/>
-      <c r="AB24" s="167"/>
-      <c r="AC24" s="167"/>
-      <c r="AD24" s="167"/>
-      <c r="AE24" s="167"/>
-      <c r="AF24" s="167"/>
-      <c r="AG24" s="167"/>
-      <c r="AH24" s="167"/>
-      <c r="AI24" s="167"/>
-      <c r="AJ24" s="167"/>
-      <c r="AK24" s="164"/>
-      <c r="AL24" s="164"/>
-      <c r="AM24" s="165"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="73"/>
+      <c r="Y24" s="73"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="73"/>
+      <c r="AB24" s="73"/>
+      <c r="AC24" s="73"/>
+      <c r="AD24" s="73"/>
+      <c r="AE24" s="73"/>
+      <c r="AF24" s="73"/>
+      <c r="AG24" s="73"/>
+      <c r="AH24" s="73"/>
+      <c r="AI24" s="73"/>
+      <c r="AJ24" s="73"/>
+      <c r="AK24" s="73"/>
+      <c r="AL24" s="73"/>
+      <c r="AM24" s="155"/>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="163"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="167"/>
-      <c r="K25" s="167"/>
-      <c r="L25" s="167"/>
-      <c r="M25" s="167"/>
-      <c r="N25" s="167"/>
-      <c r="O25" s="167"/>
-      <c r="P25" s="167"/>
-      <c r="Q25" s="167"/>
-      <c r="R25" s="167"/>
-      <c r="S25" s="167"/>
-      <c r="T25" s="167"/>
-      <c r="U25" s="167"/>
-      <c r="V25" s="167"/>
-      <c r="W25" s="167"/>
-      <c r="X25" s="167"/>
-      <c r="Y25" s="167"/>
-      <c r="Z25" s="167"/>
-      <c r="AA25" s="167"/>
-      <c r="AB25" s="167"/>
-      <c r="AC25" s="167"/>
-      <c r="AD25" s="167"/>
-      <c r="AE25" s="167"/>
-      <c r="AF25" s="167"/>
-      <c r="AG25" s="167"/>
-      <c r="AH25" s="167"/>
-      <c r="AI25" s="167"/>
-      <c r="AJ25" s="167"/>
-      <c r="AK25" s="164"/>
-      <c r="AL25" s="164"/>
-      <c r="AM25" s="165"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="73"/>
+      <c r="AA25" s="73"/>
+      <c r="AB25" s="73"/>
+      <c r="AC25" s="73"/>
+      <c r="AD25" s="73"/>
+      <c r="AE25" s="73"/>
+      <c r="AF25" s="73"/>
+      <c r="AG25" s="73"/>
+      <c r="AH25" s="73"/>
+      <c r="AI25" s="73"/>
+      <c r="AJ25" s="73"/>
+      <c r="AK25" s="73"/>
+      <c r="AL25" s="73"/>
+      <c r="AM25" s="155"/>
     </row>
     <row r="26" customFormat="false" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="163"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="164"/>
-      <c r="L26" s="164"/>
-      <c r="M26" s="164"/>
-      <c r="N26" s="164"/>
-      <c r="O26" s="164"/>
-      <c r="P26" s="164"/>
-      <c r="Q26" s="164"/>
-      <c r="R26" s="164"/>
-      <c r="S26" s="164"/>
-      <c r="T26" s="164"/>
-      <c r="U26" s="164"/>
-      <c r="V26" s="164"/>
-      <c r="W26" s="164"/>
-      <c r="X26" s="164"/>
-      <c r="Y26" s="164"/>
-      <c r="Z26" s="164"/>
-      <c r="AA26" s="164"/>
-      <c r="AB26" s="164"/>
-      <c r="AC26" s="164"/>
-      <c r="AD26" s="164"/>
-      <c r="AE26" s="164"/>
-      <c r="AF26" s="164"/>
-      <c r="AG26" s="164"/>
-      <c r="AH26" s="164"/>
-      <c r="AI26" s="164"/>
-      <c r="AJ26" s="164"/>
-      <c r="AK26" s="164"/>
-      <c r="AL26" s="164"/>
-      <c r="AM26" s="165"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="73"/>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="73"/>
+      <c r="AA26" s="73"/>
+      <c r="AB26" s="73"/>
+      <c r="AC26" s="73"/>
+      <c r="AD26" s="73"/>
+      <c r="AE26" s="73"/>
+      <c r="AF26" s="73"/>
+      <c r="AG26" s="73"/>
+      <c r="AH26" s="73"/>
+      <c r="AI26" s="73"/>
+      <c r="AJ26" s="73"/>
+      <c r="AK26" s="73"/>
+      <c r="AL26" s="73"/>
+      <c r="AM26" s="155"/>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C27" s="163"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="164"/>
-      <c r="F27" s="164"/>
-      <c r="G27" s="164"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="164"/>
-      <c r="J27" s="164"/>
-      <c r="K27" s="164"/>
-      <c r="L27" s="164"/>
-      <c r="M27" s="164"/>
-      <c r="N27" s="164"/>
-      <c r="O27" s="164"/>
-      <c r="P27" s="164"/>
-      <c r="Q27" s="164"/>
-      <c r="R27" s="164"/>
-      <c r="S27" s="164"/>
-      <c r="T27" s="164"/>
-      <c r="U27" s="164"/>
-      <c r="V27" s="164"/>
-      <c r="W27" s="164"/>
-      <c r="X27" s="164"/>
-      <c r="Y27" s="164"/>
-      <c r="Z27" s="164"/>
-      <c r="AA27" s="164"/>
-      <c r="AB27" s="164"/>
-      <c r="AC27" s="164"/>
-      <c r="AD27" s="164"/>
-      <c r="AE27" s="164"/>
-      <c r="AF27" s="164"/>
-      <c r="AG27" s="164"/>
-      <c r="AH27" s="164"/>
-      <c r="AI27" s="164"/>
-      <c r="AJ27" s="164"/>
-      <c r="AK27" s="164"/>
-      <c r="AL27" s="164"/>
-      <c r="AM27" s="165"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="73"/>
+      <c r="AC27" s="73"/>
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="73"/>
+      <c r="AF27" s="73"/>
+      <c r="AG27" s="73"/>
+      <c r="AH27" s="73"/>
+      <c r="AI27" s="73"/>
+      <c r="AJ27" s="73"/>
+      <c r="AK27" s="73"/>
+      <c r="AL27" s="73"/>
+      <c r="AM27" s="155"/>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C28" s="163"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="167"/>
-      <c r="L28" s="167"/>
-      <c r="M28" s="167"/>
-      <c r="N28" s="167"/>
-      <c r="O28" s="167"/>
-      <c r="P28" s="167"/>
-      <c r="Q28" s="167"/>
-      <c r="R28" s="167"/>
-      <c r="S28" s="167"/>
-      <c r="T28" s="167"/>
-      <c r="U28" s="167"/>
-      <c r="V28" s="167"/>
-      <c r="W28" s="167"/>
-      <c r="X28" s="167"/>
-      <c r="Y28" s="167"/>
-      <c r="Z28" s="167"/>
-      <c r="AA28" s="167"/>
-      <c r="AB28" s="167"/>
-      <c r="AC28" s="167"/>
-      <c r="AD28" s="167"/>
-      <c r="AE28" s="167"/>
-      <c r="AF28" s="167"/>
-      <c r="AG28" s="167"/>
-      <c r="AH28" s="167"/>
-      <c r="AI28" s="167"/>
-      <c r="AJ28" s="167"/>
-      <c r="AK28" s="164"/>
-      <c r="AL28" s="164"/>
-      <c r="AM28" s="165"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="73"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="73"/>
+      <c r="AA28" s="73"/>
+      <c r="AB28" s="73"/>
+      <c r="AC28" s="73"/>
+      <c r="AD28" s="73"/>
+      <c r="AE28" s="73"/>
+      <c r="AF28" s="73"/>
+      <c r="AG28" s="73"/>
+      <c r="AH28" s="73"/>
+      <c r="AI28" s="73"/>
+      <c r="AJ28" s="73"/>
+      <c r="AK28" s="73"/>
+      <c r="AL28" s="73"/>
+      <c r="AM28" s="155"/>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="50"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="167"/>
-      <c r="J29" s="167"/>
-      <c r="K29" s="167"/>
-      <c r="L29" s="167"/>
-      <c r="M29" s="167"/>
-      <c r="N29" s="167"/>
-      <c r="O29" s="167"/>
-      <c r="P29" s="167"/>
-      <c r="Q29" s="167"/>
-      <c r="R29" s="167"/>
-      <c r="S29" s="167"/>
-      <c r="T29" s="167"/>
-      <c r="U29" s="167"/>
-      <c r="V29" s="167"/>
-      <c r="W29" s="167"/>
-      <c r="X29" s="167"/>
-      <c r="Y29" s="167"/>
-      <c r="Z29" s="167"/>
-      <c r="AA29" s="167"/>
-      <c r="AB29" s="167"/>
-      <c r="AC29" s="167"/>
-      <c r="AD29" s="167"/>
-      <c r="AE29" s="167"/>
-      <c r="AF29" s="167"/>
-      <c r="AG29" s="167"/>
-      <c r="AH29" s="167"/>
-      <c r="AI29" s="167"/>
-      <c r="AJ29" s="167"/>
-      <c r="AK29" s="164"/>
-      <c r="AL29" s="164"/>
-      <c r="AM29" s="165"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="73"/>
+      <c r="Y29" s="73"/>
+      <c r="Z29" s="73"/>
+      <c r="AA29" s="73"/>
+      <c r="AB29" s="73"/>
+      <c r="AC29" s="73"/>
+      <c r="AD29" s="73"/>
+      <c r="AE29" s="73"/>
+      <c r="AF29" s="73"/>
+      <c r="AG29" s="73"/>
+      <c r="AH29" s="73"/>
+      <c r="AI29" s="73"/>
+      <c r="AJ29" s="73"/>
+      <c r="AK29" s="73"/>
+      <c r="AL29" s="73"/>
+      <c r="AM29" s="155"/>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="164"/>
-      <c r="I30" s="164"/>
-      <c r="J30" s="164"/>
-      <c r="K30" s="164"/>
-      <c r="L30" s="164"/>
-      <c r="M30" s="164"/>
-      <c r="N30" s="164"/>
-      <c r="O30" s="164"/>
-      <c r="P30" s="164"/>
-      <c r="Q30" s="164"/>
-      <c r="R30" s="164"/>
-      <c r="S30" s="164"/>
-      <c r="T30" s="164"/>
-      <c r="U30" s="164"/>
-      <c r="V30" s="164"/>
-      <c r="W30" s="164"/>
-      <c r="X30" s="164"/>
-      <c r="Y30" s="164"/>
-      <c r="Z30" s="164"/>
-      <c r="AA30" s="164"/>
-      <c r="AB30" s="164"/>
-      <c r="AC30" s="164"/>
-      <c r="AD30" s="164"/>
-      <c r="AE30" s="164"/>
-      <c r="AF30" s="164"/>
-      <c r="AG30" s="164"/>
-      <c r="AH30" s="164"/>
-      <c r="AI30" s="164"/>
-      <c r="AJ30" s="164"/>
-      <c r="AK30" s="164"/>
-      <c r="AL30" s="164"/>
-      <c r="AM30" s="165"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="73"/>
+      <c r="W30" s="73"/>
+      <c r="X30" s="73"/>
+      <c r="Y30" s="73"/>
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="73"/>
+      <c r="AB30" s="73"/>
+      <c r="AC30" s="73"/>
+      <c r="AD30" s="73"/>
+      <c r="AE30" s="73"/>
+      <c r="AF30" s="73"/>
+      <c r="AG30" s="73"/>
+      <c r="AH30" s="73"/>
+      <c r="AI30" s="73"/>
+      <c r="AJ30" s="73"/>
+      <c r="AK30" s="73"/>
+      <c r="AL30" s="73"/>
+      <c r="AM30" s="155"/>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="167"/>
-      <c r="I31" s="167"/>
-      <c r="J31" s="167"/>
-      <c r="K31" s="167"/>
-      <c r="L31" s="167"/>
-      <c r="M31" s="167"/>
-      <c r="N31" s="167"/>
-      <c r="O31" s="167"/>
-      <c r="P31" s="167"/>
-      <c r="Q31" s="167"/>
-      <c r="R31" s="167"/>
-      <c r="S31" s="167"/>
-      <c r="T31" s="167"/>
-      <c r="U31" s="167"/>
-      <c r="V31" s="167"/>
-      <c r="W31" s="167"/>
-      <c r="X31" s="167"/>
-      <c r="Y31" s="167"/>
-      <c r="Z31" s="167"/>
-      <c r="AA31" s="167"/>
-      <c r="AB31" s="167"/>
-      <c r="AC31" s="167"/>
-      <c r="AD31" s="167"/>
-      <c r="AE31" s="167"/>
-      <c r="AF31" s="167"/>
-      <c r="AG31" s="167"/>
-      <c r="AH31" s="167"/>
-      <c r="AI31" s="167"/>
-      <c r="AJ31" s="167"/>
-      <c r="AK31" s="164"/>
-      <c r="AL31" s="164"/>
-      <c r="AM31" s="165"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="73"/>
+      <c r="W31" s="73"/>
+      <c r="X31" s="73"/>
+      <c r="Y31" s="73"/>
+      <c r="Z31" s="73"/>
+      <c r="AA31" s="73"/>
+      <c r="AB31" s="73"/>
+      <c r="AC31" s="73"/>
+      <c r="AD31" s="73"/>
+      <c r="AE31" s="73"/>
+      <c r="AF31" s="73"/>
+      <c r="AG31" s="73"/>
+      <c r="AH31" s="73"/>
+      <c r="AI31" s="73"/>
+      <c r="AJ31" s="73"/>
+      <c r="AK31" s="73"/>
+      <c r="AL31" s="73"/>
+      <c r="AM31" s="155"/>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
-      <c r="C32" s="163"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="167"/>
-      <c r="I32" s="167"/>
-      <c r="J32" s="167"/>
-      <c r="K32" s="167"/>
-      <c r="L32" s="167"/>
-      <c r="M32" s="167"/>
-      <c r="N32" s="167"/>
-      <c r="O32" s="167"/>
-      <c r="P32" s="167"/>
-      <c r="Q32" s="167"/>
-      <c r="R32" s="167"/>
-      <c r="S32" s="167"/>
-      <c r="T32" s="167"/>
-      <c r="U32" s="167"/>
-      <c r="V32" s="167"/>
-      <c r="W32" s="167"/>
-      <c r="X32" s="167"/>
-      <c r="Y32" s="167"/>
-      <c r="Z32" s="167"/>
-      <c r="AA32" s="167"/>
-      <c r="AB32" s="167"/>
-      <c r="AC32" s="167"/>
-      <c r="AD32" s="167"/>
-      <c r="AE32" s="167"/>
-      <c r="AF32" s="167"/>
-      <c r="AG32" s="167"/>
-      <c r="AH32" s="167"/>
-      <c r="AI32" s="167"/>
-      <c r="AJ32" s="167"/>
-      <c r="AK32" s="164"/>
-      <c r="AL32" s="164"/>
-      <c r="AM32" s="165"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="73"/>
+      <c r="AA32" s="73"/>
+      <c r="AB32" s="73"/>
+      <c r="AC32" s="73"/>
+      <c r="AD32" s="73"/>
+      <c r="AE32" s="73"/>
+      <c r="AF32" s="73"/>
+      <c r="AG32" s="73"/>
+      <c r="AH32" s="73"/>
+      <c r="AI32" s="73"/>
+      <c r="AJ32" s="73"/>
+      <c r="AK32" s="73"/>
+      <c r="AL32" s="73"/>
+      <c r="AM32" s="155"/>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="164"/>
-      <c r="E33" s="164"/>
-      <c r="F33" s="164"/>
-      <c r="G33" s="164"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="164"/>
-      <c r="J33" s="164"/>
-      <c r="K33" s="164"/>
-      <c r="L33" s="164"/>
-      <c r="M33" s="164"/>
-      <c r="N33" s="164"/>
-      <c r="O33" s="164"/>
-      <c r="P33" s="164"/>
-      <c r="Q33" s="164"/>
-      <c r="R33" s="164"/>
-      <c r="S33" s="164"/>
-      <c r="T33" s="164"/>
-      <c r="U33" s="164"/>
-      <c r="V33" s="164"/>
-      <c r="W33" s="164"/>
-      <c r="X33" s="164"/>
-      <c r="Y33" s="164"/>
-      <c r="Z33" s="164"/>
-      <c r="AA33" s="164"/>
-      <c r="AB33" s="164"/>
-      <c r="AC33" s="164"/>
-      <c r="AD33" s="164"/>
-      <c r="AE33" s="164"/>
-      <c r="AF33" s="164"/>
-      <c r="AG33" s="164"/>
-      <c r="AH33" s="164"/>
-      <c r="AI33" s="164"/>
-      <c r="AJ33" s="164"/>
-      <c r="AK33" s="164"/>
-      <c r="AL33" s="164"/>
-      <c r="AM33" s="165"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="73"/>
+      <c r="W33" s="73"/>
+      <c r="X33" s="73"/>
+      <c r="Y33" s="73"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" s="73"/>
+      <c r="AB33" s="73"/>
+      <c r="AC33" s="73"/>
+      <c r="AD33" s="73"/>
+      <c r="AE33" s="73"/>
+      <c r="AF33" s="73"/>
+      <c r="AG33" s="73"/>
+      <c r="AH33" s="73"/>
+      <c r="AI33" s="73"/>
+      <c r="AJ33" s="73"/>
+      <c r="AK33" s="73"/>
+      <c r="AL33" s="73"/>
+      <c r="AM33" s="155"/>
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
-      <c r="C34" s="163"/>
-      <c r="D34" s="164"/>
-      <c r="E34" s="164"/>
-      <c r="F34" s="164"/>
-      <c r="G34" s="164"/>
-      <c r="H34" s="164"/>
-      <c r="I34" s="164"/>
-      <c r="J34" s="164"/>
-      <c r="K34" s="164"/>
-      <c r="L34" s="164"/>
-      <c r="M34" s="164"/>
-      <c r="N34" s="164"/>
-      <c r="O34" s="164"/>
-      <c r="P34" s="164"/>
-      <c r="Q34" s="164"/>
-      <c r="R34" s="164"/>
-      <c r="S34" s="164"/>
-      <c r="T34" s="164"/>
-      <c r="U34" s="164"/>
-      <c r="V34" s="164"/>
-      <c r="W34" s="164"/>
-      <c r="X34" s="164"/>
-      <c r="Y34" s="164"/>
-      <c r="Z34" s="164"/>
-      <c r="AA34" s="164"/>
-      <c r="AB34" s="164"/>
-      <c r="AC34" s="164"/>
-      <c r="AD34" s="164"/>
-      <c r="AE34" s="164"/>
-      <c r="AF34" s="164"/>
-      <c r="AG34" s="164"/>
-      <c r="AH34" s="164"/>
-      <c r="AI34" s="164"/>
-      <c r="AJ34" s="164"/>
-      <c r="AK34" s="164"/>
-      <c r="AL34" s="164"/>
-      <c r="AM34" s="165"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="73"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="73"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="73"/>
+      <c r="AB34" s="73"/>
+      <c r="AC34" s="73"/>
+      <c r="AD34" s="73"/>
+      <c r="AE34" s="73"/>
+      <c r="AF34" s="73"/>
+      <c r="AG34" s="73"/>
+      <c r="AH34" s="73"/>
+      <c r="AI34" s="73"/>
+      <c r="AJ34" s="73"/>
+      <c r="AK34" s="73"/>
+      <c r="AL34" s="73"/>
+      <c r="AM34" s="155"/>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="164"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="164"/>
-      <c r="G35" s="164"/>
-      <c r="H35" s="164"/>
-      <c r="I35" s="164"/>
-      <c r="J35" s="164"/>
-      <c r="K35" s="164"/>
-      <c r="L35" s="164"/>
-      <c r="M35" s="164"/>
-      <c r="N35" s="164"/>
-      <c r="O35" s="164"/>
-      <c r="P35" s="164"/>
-      <c r="Q35" s="164"/>
-      <c r="R35" s="164"/>
-      <c r="S35" s="164"/>
-      <c r="T35" s="164"/>
-      <c r="U35" s="164"/>
-      <c r="V35" s="164"/>
-      <c r="W35" s="164"/>
-      <c r="X35" s="164"/>
-      <c r="Y35" s="164"/>
-      <c r="Z35" s="164"/>
-      <c r="AA35" s="164"/>
-      <c r="AB35" s="164"/>
-      <c r="AC35" s="164"/>
-      <c r="AD35" s="164"/>
-      <c r="AE35" s="164"/>
-      <c r="AF35" s="164"/>
-      <c r="AG35" s="164"/>
-      <c r="AH35" s="164"/>
-      <c r="AI35" s="164"/>
-      <c r="AJ35" s="164"/>
-      <c r="AK35" s="164"/>
-      <c r="AL35" s="164"/>
-      <c r="AM35" s="165"/>
+      <c r="C35" s="154"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="73"/>
+      <c r="X35" s="73"/>
+      <c r="Y35" s="73"/>
+      <c r="Z35" s="73"/>
+      <c r="AA35" s="73"/>
+      <c r="AB35" s="73"/>
+      <c r="AC35" s="73"/>
+      <c r="AD35" s="73"/>
+      <c r="AE35" s="73"/>
+      <c r="AF35" s="73"/>
+      <c r="AG35" s="73"/>
+      <c r="AH35" s="73"/>
+      <c r="AI35" s="73"/>
+      <c r="AJ35" s="73"/>
+      <c r="AK35" s="73"/>
+      <c r="AL35" s="73"/>
+      <c r="AM35" s="155"/>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="50"/>
-      <c r="C36" s="163"/>
-      <c r="D36" s="164"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="164"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="164"/>
-      <c r="I36" s="164"/>
-      <c r="J36" s="164"/>
-      <c r="K36" s="164"/>
-      <c r="L36" s="164"/>
-      <c r="M36" s="164"/>
-      <c r="N36" s="164"/>
-      <c r="O36" s="164"/>
-      <c r="P36" s="164"/>
-      <c r="Q36" s="164"/>
-      <c r="R36" s="164"/>
-      <c r="S36" s="164"/>
-      <c r="T36" s="164"/>
-      <c r="U36" s="164"/>
-      <c r="V36" s="164"/>
-      <c r="W36" s="164"/>
-      <c r="X36" s="164"/>
-      <c r="Y36" s="164"/>
-      <c r="Z36" s="164"/>
-      <c r="AA36" s="164"/>
-      <c r="AB36" s="164"/>
-      <c r="AC36" s="164"/>
-      <c r="AD36" s="164"/>
-      <c r="AE36" s="164"/>
-      <c r="AF36" s="164"/>
-      <c r="AG36" s="164"/>
-      <c r="AH36" s="164"/>
-      <c r="AI36" s="164"/>
-      <c r="AJ36" s="164"/>
-      <c r="AK36" s="164"/>
-      <c r="AL36" s="164"/>
-      <c r="AM36" s="165"/>
+      <c r="C36" s="154"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="73"/>
+      <c r="U36" s="73"/>
+      <c r="V36" s="73"/>
+      <c r="W36" s="73"/>
+      <c r="X36" s="73"/>
+      <c r="Y36" s="73"/>
+      <c r="Z36" s="73"/>
+      <c r="AA36" s="73"/>
+      <c r="AB36" s="73"/>
+      <c r="AC36" s="73"/>
+      <c r="AD36" s="73"/>
+      <c r="AE36" s="73"/>
+      <c r="AF36" s="73"/>
+      <c r="AG36" s="73"/>
+      <c r="AH36" s="73"/>
+      <c r="AI36" s="73"/>
+      <c r="AJ36" s="73"/>
+      <c r="AK36" s="73"/>
+      <c r="AL36" s="73"/>
+      <c r="AM36" s="155"/>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="164"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="164"/>
-      <c r="J37" s="164"/>
-      <c r="K37" s="164"/>
-      <c r="L37" s="164"/>
-      <c r="M37" s="164"/>
-      <c r="N37" s="164"/>
-      <c r="O37" s="164"/>
-      <c r="P37" s="164"/>
-      <c r="Q37" s="164"/>
-      <c r="R37" s="164"/>
-      <c r="S37" s="164"/>
-      <c r="T37" s="164"/>
-      <c r="U37" s="164"/>
-      <c r="V37" s="164"/>
-      <c r="W37" s="164"/>
-      <c r="X37" s="164"/>
-      <c r="Y37" s="164"/>
-      <c r="Z37" s="164"/>
-      <c r="AA37" s="164"/>
-      <c r="AB37" s="164"/>
-      <c r="AC37" s="164"/>
-      <c r="AD37" s="164"/>
-      <c r="AE37" s="164"/>
-      <c r="AF37" s="164"/>
-      <c r="AG37" s="164"/>
-      <c r="AH37" s="164"/>
-      <c r="AI37" s="164"/>
-      <c r="AJ37" s="164"/>
-      <c r="AK37" s="164"/>
-      <c r="AL37" s="164"/>
-      <c r="AM37" s="165"/>
+      <c r="C37" s="154"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="73"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="73"/>
+      <c r="Z37" s="73"/>
+      <c r="AA37" s="73"/>
+      <c r="AB37" s="73"/>
+      <c r="AC37" s="73"/>
+      <c r="AD37" s="73"/>
+      <c r="AE37" s="73"/>
+      <c r="AF37" s="73"/>
+      <c r="AG37" s="73"/>
+      <c r="AH37" s="73"/>
+      <c r="AI37" s="73"/>
+      <c r="AJ37" s="73"/>
+      <c r="AK37" s="73"/>
+      <c r="AL37" s="73"/>
+      <c r="AM37" s="155"/>
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="164"/>
-      <c r="E38" s="164"/>
-      <c r="F38" s="164"/>
-      <c r="G38" s="164"/>
-      <c r="H38" s="164"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="164"/>
-      <c r="K38" s="164"/>
-      <c r="L38" s="164"/>
-      <c r="M38" s="164"/>
-      <c r="N38" s="164"/>
-      <c r="O38" s="164"/>
-      <c r="P38" s="164"/>
-      <c r="Q38" s="164"/>
-      <c r="R38" s="164"/>
-      <c r="S38" s="164"/>
-      <c r="T38" s="164"/>
-      <c r="U38" s="164"/>
-      <c r="V38" s="164"/>
-      <c r="W38" s="164"/>
-      <c r="X38" s="164"/>
-      <c r="Y38" s="164"/>
-      <c r="Z38" s="164"/>
-      <c r="AA38" s="164"/>
-      <c r="AB38" s="164"/>
-      <c r="AC38" s="164"/>
-      <c r="AD38" s="164"/>
-      <c r="AE38" s="164"/>
-      <c r="AF38" s="164"/>
-      <c r="AG38" s="164"/>
-      <c r="AH38" s="164"/>
-      <c r="AI38" s="164"/>
-      <c r="AJ38" s="164"/>
-      <c r="AK38" s="164"/>
-      <c r="AL38" s="164"/>
-      <c r="AM38" s="165"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="73"/>
+      <c r="W38" s="73"/>
+      <c r="X38" s="73"/>
+      <c r="Y38" s="73"/>
+      <c r="Z38" s="73"/>
+      <c r="AA38" s="73"/>
+      <c r="AB38" s="73"/>
+      <c r="AC38" s="73"/>
+      <c r="AD38" s="73"/>
+      <c r="AE38" s="73"/>
+      <c r="AF38" s="73"/>
+      <c r="AG38" s="73"/>
+      <c r="AH38" s="73"/>
+      <c r="AI38" s="73"/>
+      <c r="AJ38" s="73"/>
+      <c r="AK38" s="73"/>
+      <c r="AL38" s="73"/>
+      <c r="AM38" s="155"/>
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="164"/>
-      <c r="E39" s="164"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="164"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="164"/>
-      <c r="K39" s="164"/>
-      <c r="L39" s="164"/>
-      <c r="M39" s="164"/>
-      <c r="N39" s="164"/>
-      <c r="O39" s="164"/>
-      <c r="P39" s="164"/>
-      <c r="Q39" s="164"/>
-      <c r="R39" s="164"/>
-      <c r="S39" s="164"/>
-      <c r="T39" s="164"/>
-      <c r="U39" s="164"/>
-      <c r="V39" s="164"/>
-      <c r="W39" s="164"/>
-      <c r="X39" s="164"/>
-      <c r="Y39" s="164"/>
-      <c r="Z39" s="164"/>
-      <c r="AA39" s="164"/>
-      <c r="AB39" s="164"/>
-      <c r="AC39" s="164"/>
-      <c r="AD39" s="164"/>
-      <c r="AE39" s="164"/>
-      <c r="AF39" s="164"/>
-      <c r="AG39" s="164"/>
-      <c r="AH39" s="164"/>
-      <c r="AI39" s="164"/>
-      <c r="AJ39" s="164"/>
-      <c r="AK39" s="164"/>
-      <c r="AL39" s="164"/>
-      <c r="AM39" s="165"/>
+      <c r="C39" s="154"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="73"/>
+      <c r="U39" s="73"/>
+      <c r="V39" s="73"/>
+      <c r="W39" s="73"/>
+      <c r="X39" s="73"/>
+      <c r="Y39" s="73"/>
+      <c r="Z39" s="73"/>
+      <c r="AA39" s="73"/>
+      <c r="AB39" s="73"/>
+      <c r="AC39" s="73"/>
+      <c r="AD39" s="73"/>
+      <c r="AE39" s="73"/>
+      <c r="AF39" s="73"/>
+      <c r="AG39" s="73"/>
+      <c r="AH39" s="73"/>
+      <c r="AI39" s="73"/>
+      <c r="AJ39" s="73"/>
+      <c r="AK39" s="73"/>
+      <c r="AL39" s="73"/>
+      <c r="AM39" s="155"/>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
       <c r="B40" s="50"/>
-      <c r="C40" s="163"/>
-      <c r="D40" s="164"/>
-      <c r="E40" s="164"/>
-      <c r="F40" s="164"/>
-      <c r="G40" s="164"/>
-      <c r="H40" s="164"/>
-      <c r="I40" s="164"/>
-      <c r="J40" s="164"/>
-      <c r="K40" s="164"/>
-      <c r="L40" s="164"/>
-      <c r="M40" s="164"/>
-      <c r="N40" s="164"/>
-      <c r="O40" s="164"/>
-      <c r="P40" s="164"/>
-      <c r="Q40" s="164"/>
-      <c r="R40" s="164"/>
-      <c r="S40" s="164"/>
-      <c r="T40" s="164"/>
-      <c r="U40" s="164"/>
-      <c r="V40" s="164"/>
-      <c r="W40" s="164"/>
-      <c r="X40" s="164"/>
-      <c r="Y40" s="164"/>
-      <c r="Z40" s="164"/>
-      <c r="AA40" s="164"/>
-      <c r="AB40" s="164"/>
-      <c r="AC40" s="164"/>
-      <c r="AD40" s="164"/>
-      <c r="AE40" s="164"/>
-      <c r="AF40" s="164"/>
-      <c r="AG40" s="164"/>
-      <c r="AH40" s="164"/>
-      <c r="AI40" s="164"/>
-      <c r="AJ40" s="164"/>
-      <c r="AK40" s="164"/>
-      <c r="AL40" s="164"/>
-      <c r="AM40" s="165"/>
+      <c r="C40" s="154"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="73"/>
+      <c r="U40" s="73"/>
+      <c r="V40" s="73"/>
+      <c r="W40" s="73"/>
+      <c r="X40" s="73"/>
+      <c r="Y40" s="73"/>
+      <c r="Z40" s="73"/>
+      <c r="AA40" s="73"/>
+      <c r="AB40" s="73"/>
+      <c r="AC40" s="73"/>
+      <c r="AD40" s="73"/>
+      <c r="AE40" s="73"/>
+      <c r="AF40" s="73"/>
+      <c r="AG40" s="73"/>
+      <c r="AH40" s="73"/>
+      <c r="AI40" s="73"/>
+      <c r="AJ40" s="73"/>
+      <c r="AK40" s="73"/>
+      <c r="AL40" s="73"/>
+      <c r="AM40" s="155"/>
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="50"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="164"/>
-      <c r="E41" s="164"/>
-      <c r="F41" s="164"/>
-      <c r="G41" s="164"/>
-      <c r="H41" s="164"/>
-      <c r="I41" s="164"/>
-      <c r="J41" s="164"/>
-      <c r="K41" s="164"/>
-      <c r="L41" s="164"/>
-      <c r="M41" s="164"/>
-      <c r="N41" s="164"/>
-      <c r="O41" s="164"/>
-      <c r="P41" s="164"/>
-      <c r="Q41" s="164"/>
-      <c r="R41" s="164"/>
-      <c r="S41" s="164"/>
-      <c r="T41" s="164"/>
-      <c r="U41" s="164"/>
-      <c r="V41" s="164"/>
-      <c r="W41" s="164"/>
-      <c r="X41" s="164"/>
-      <c r="Y41" s="164"/>
-      <c r="Z41" s="164"/>
-      <c r="AA41" s="164"/>
-      <c r="AB41" s="164"/>
-      <c r="AC41" s="164"/>
-      <c r="AD41" s="164"/>
-      <c r="AE41" s="164"/>
-      <c r="AF41" s="164"/>
-      <c r="AG41" s="164"/>
-      <c r="AH41" s="164"/>
-      <c r="AI41" s="164"/>
-      <c r="AJ41" s="164"/>
-      <c r="AK41" s="164"/>
-      <c r="AL41" s="164"/>
-      <c r="AM41" s="165"/>
+      <c r="C41" s="154"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="73"/>
+      <c r="W41" s="73"/>
+      <c r="X41" s="73"/>
+      <c r="Y41" s="73"/>
+      <c r="Z41" s="73"/>
+      <c r="AA41" s="73"/>
+      <c r="AB41" s="73"/>
+      <c r="AC41" s="73"/>
+      <c r="AD41" s="73"/>
+      <c r="AE41" s="73"/>
+      <c r="AF41" s="73"/>
+      <c r="AG41" s="73"/>
+      <c r="AH41" s="73"/>
+      <c r="AI41" s="73"/>
+      <c r="AJ41" s="73"/>
+      <c r="AK41" s="73"/>
+      <c r="AL41" s="73"/>
+      <c r="AM41" s="155"/>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49"/>
       <c r="B42" s="50"/>
-      <c r="C42" s="163"/>
-      <c r="D42" s="164"/>
-      <c r="E42" s="164"/>
-      <c r="F42" s="164"/>
-      <c r="G42" s="164"/>
-      <c r="H42" s="164"/>
-      <c r="I42" s="164"/>
-      <c r="J42" s="164"/>
-      <c r="K42" s="164"/>
-      <c r="L42" s="164"/>
-      <c r="M42" s="164"/>
-      <c r="N42" s="164"/>
-      <c r="O42" s="164"/>
-      <c r="P42" s="164"/>
-      <c r="Q42" s="164"/>
-      <c r="R42" s="164"/>
-      <c r="S42" s="164"/>
-      <c r="T42" s="164"/>
-      <c r="U42" s="164"/>
-      <c r="V42" s="164"/>
-      <c r="W42" s="164"/>
-      <c r="X42" s="164"/>
-      <c r="Y42" s="164"/>
-      <c r="Z42" s="164"/>
-      <c r="AA42" s="164"/>
-      <c r="AB42" s="164"/>
-      <c r="AC42" s="164"/>
-      <c r="AD42" s="164"/>
-      <c r="AE42" s="164"/>
-      <c r="AF42" s="164"/>
-      <c r="AG42" s="164"/>
-      <c r="AH42" s="164"/>
-      <c r="AI42" s="164"/>
-      <c r="AJ42" s="164"/>
-      <c r="AK42" s="164"/>
-      <c r="AL42" s="164"/>
-      <c r="AM42" s="165"/>
+      <c r="C42" s="154"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="73"/>
+      <c r="T42" s="73"/>
+      <c r="U42" s="73"/>
+      <c r="V42" s="73"/>
+      <c r="W42" s="73"/>
+      <c r="X42" s="73"/>
+      <c r="Y42" s="73"/>
+      <c r="Z42" s="73"/>
+      <c r="AA42" s="73"/>
+      <c r="AB42" s="73"/>
+      <c r="AC42" s="73"/>
+      <c r="AD42" s="73"/>
+      <c r="AE42" s="73"/>
+      <c r="AF42" s="73"/>
+      <c r="AG42" s="73"/>
+      <c r="AH42" s="73"/>
+      <c r="AI42" s="73"/>
+      <c r="AJ42" s="73"/>
+      <c r="AK42" s="73"/>
+      <c r="AL42" s="73"/>
+      <c r="AM42" s="155"/>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="49"/>
       <c r="B43" s="50"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="164"/>
-      <c r="E43" s="164"/>
-      <c r="F43" s="164"/>
-      <c r="G43" s="164"/>
-      <c r="H43" s="164"/>
-      <c r="I43" s="164"/>
-      <c r="J43" s="164"/>
-      <c r="K43" s="164"/>
-      <c r="L43" s="164"/>
-      <c r="M43" s="164"/>
-      <c r="N43" s="164"/>
-      <c r="O43" s="164"/>
-      <c r="P43" s="164"/>
-      <c r="Q43" s="164"/>
-      <c r="R43" s="164"/>
-      <c r="S43" s="164"/>
-      <c r="T43" s="164"/>
-      <c r="U43" s="164"/>
-      <c r="V43" s="164"/>
-      <c r="W43" s="164"/>
-      <c r="X43" s="164"/>
-      <c r="Y43" s="164"/>
-      <c r="Z43" s="164"/>
-      <c r="AA43" s="164"/>
-      <c r="AB43" s="164"/>
-      <c r="AC43" s="164"/>
-      <c r="AD43" s="164"/>
-      <c r="AE43" s="164"/>
-      <c r="AF43" s="164"/>
-      <c r="AG43" s="164"/>
-      <c r="AH43" s="164"/>
-      <c r="AI43" s="164"/>
-      <c r="AJ43" s="164"/>
-      <c r="AK43" s="164"/>
-      <c r="AL43" s="164"/>
-      <c r="AM43" s="165"/>
+      <c r="C43" s="154"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="73"/>
+      <c r="S43" s="73"/>
+      <c r="T43" s="73"/>
+      <c r="U43" s="73"/>
+      <c r="V43" s="73"/>
+      <c r="W43" s="73"/>
+      <c r="X43" s="73"/>
+      <c r="Y43" s="73"/>
+      <c r="Z43" s="73"/>
+      <c r="AA43" s="73"/>
+      <c r="AB43" s="73"/>
+      <c r="AC43" s="73"/>
+      <c r="AD43" s="73"/>
+      <c r="AE43" s="73"/>
+      <c r="AF43" s="73"/>
+      <c r="AG43" s="73"/>
+      <c r="AH43" s="73"/>
+      <c r="AI43" s="73"/>
+      <c r="AJ43" s="73"/>
+      <c r="AK43" s="73"/>
+      <c r="AL43" s="73"/>
+      <c r="AM43" s="155"/>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="49"/>
       <c r="B44" s="50"/>
-      <c r="C44" s="163"/>
-      <c r="D44" s="164"/>
-      <c r="E44" s="164"/>
-      <c r="F44" s="164"/>
-      <c r="G44" s="164"/>
-      <c r="H44" s="164"/>
-      <c r="I44" s="164"/>
-      <c r="J44" s="164"/>
-      <c r="K44" s="164"/>
-      <c r="L44" s="164"/>
-      <c r="M44" s="164"/>
-      <c r="N44" s="164"/>
-      <c r="O44" s="164"/>
-      <c r="P44" s="164"/>
-      <c r="Q44" s="164"/>
-      <c r="R44" s="164"/>
-      <c r="S44" s="164"/>
-      <c r="T44" s="164"/>
-      <c r="U44" s="164"/>
-      <c r="V44" s="164"/>
-      <c r="W44" s="164"/>
-      <c r="X44" s="164"/>
-      <c r="Y44" s="164"/>
-      <c r="Z44" s="164"/>
-      <c r="AA44" s="164"/>
-      <c r="AB44" s="164"/>
-      <c r="AC44" s="164"/>
-      <c r="AD44" s="164"/>
-      <c r="AE44" s="164"/>
-      <c r="AF44" s="164"/>
-      <c r="AG44" s="164"/>
-      <c r="AH44" s="164"/>
-      <c r="AI44" s="164"/>
-      <c r="AJ44" s="164"/>
-      <c r="AK44" s="164"/>
-      <c r="AL44" s="164"/>
-      <c r="AM44" s="165"/>
+      <c r="C44" s="154"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="73"/>
+      <c r="S44" s="73"/>
+      <c r="T44" s="73"/>
+      <c r="U44" s="73"/>
+      <c r="V44" s="73"/>
+      <c r="W44" s="73"/>
+      <c r="X44" s="73"/>
+      <c r="Y44" s="73"/>
+      <c r="Z44" s="73"/>
+      <c r="AA44" s="73"/>
+      <c r="AB44" s="73"/>
+      <c r="AC44" s="73"/>
+      <c r="AD44" s="73"/>
+      <c r="AE44" s="73"/>
+      <c r="AF44" s="73"/>
+      <c r="AG44" s="73"/>
+      <c r="AH44" s="73"/>
+      <c r="AI44" s="73"/>
+      <c r="AJ44" s="73"/>
+      <c r="AK44" s="73"/>
+      <c r="AL44" s="73"/>
+      <c r="AM44" s="155"/>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="49"/>
       <c r="B45" s="50"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="164"/>
-      <c r="E45" s="164"/>
-      <c r="F45" s="164"/>
-      <c r="G45" s="164"/>
-      <c r="H45" s="164"/>
-      <c r="I45" s="164"/>
-      <c r="J45" s="164"/>
-      <c r="K45" s="164"/>
-      <c r="L45" s="164"/>
-      <c r="M45" s="164"/>
-      <c r="N45" s="164"/>
-      <c r="O45" s="164"/>
-      <c r="P45" s="164"/>
-      <c r="Q45" s="164"/>
-      <c r="R45" s="164"/>
-      <c r="S45" s="164"/>
-      <c r="T45" s="164"/>
-      <c r="U45" s="164"/>
-      <c r="V45" s="164"/>
-      <c r="W45" s="164"/>
-      <c r="X45" s="164"/>
-      <c r="Y45" s="164"/>
-      <c r="Z45" s="164"/>
-      <c r="AA45" s="164"/>
-      <c r="AB45" s="164"/>
-      <c r="AC45" s="164"/>
-      <c r="AD45" s="164"/>
-      <c r="AE45" s="164"/>
-      <c r="AF45" s="164"/>
-      <c r="AG45" s="164"/>
-      <c r="AH45" s="164"/>
-      <c r="AI45" s="164"/>
-      <c r="AJ45" s="164"/>
-      <c r="AK45" s="164"/>
-      <c r="AL45" s="164"/>
-      <c r="AM45" s="165"/>
+      <c r="C45" s="154"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="73"/>
+      <c r="W45" s="73"/>
+      <c r="X45" s="73"/>
+      <c r="Y45" s="73"/>
+      <c r="Z45" s="73"/>
+      <c r="AA45" s="73"/>
+      <c r="AB45" s="73"/>
+      <c r="AC45" s="73"/>
+      <c r="AD45" s="73"/>
+      <c r="AE45" s="73"/>
+      <c r="AF45" s="73"/>
+      <c r="AG45" s="73"/>
+      <c r="AH45" s="73"/>
+      <c r="AI45" s="73"/>
+      <c r="AJ45" s="73"/>
+      <c r="AK45" s="73"/>
+      <c r="AL45" s="73"/>
+      <c r="AM45" s="155"/>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="50"/>
-      <c r="C46" s="163"/>
-      <c r="D46" s="164"/>
-      <c r="E46" s="164"/>
-      <c r="F46" s="164"/>
-      <c r="G46" s="164"/>
-      <c r="H46" s="164"/>
-      <c r="I46" s="164"/>
-      <c r="J46" s="164"/>
-      <c r="K46" s="164"/>
-      <c r="L46" s="164"/>
-      <c r="M46" s="164"/>
-      <c r="N46" s="164"/>
-      <c r="O46" s="164"/>
-      <c r="P46" s="164"/>
-      <c r="Q46" s="164"/>
-      <c r="R46" s="164"/>
-      <c r="S46" s="164"/>
-      <c r="T46" s="164"/>
-      <c r="U46" s="164"/>
-      <c r="V46" s="164"/>
-      <c r="W46" s="164"/>
-      <c r="X46" s="164"/>
-      <c r="Y46" s="164"/>
-      <c r="Z46" s="164"/>
-      <c r="AA46" s="164"/>
-      <c r="AB46" s="164"/>
-      <c r="AC46" s="164"/>
-      <c r="AD46" s="164"/>
-      <c r="AE46" s="164"/>
-      <c r="AF46" s="164"/>
-      <c r="AG46" s="164"/>
-      <c r="AH46" s="164"/>
-      <c r="AI46" s="164"/>
-      <c r="AJ46" s="164"/>
-      <c r="AK46" s="164"/>
-      <c r="AL46" s="164"/>
-      <c r="AM46" s="165"/>
+      <c r="C46" s="154"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="73"/>
+      <c r="Q46" s="73"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="73"/>
+      <c r="T46" s="73"/>
+      <c r="U46" s="73"/>
+      <c r="V46" s="73"/>
+      <c r="W46" s="73"/>
+      <c r="X46" s="73"/>
+      <c r="Y46" s="73"/>
+      <c r="Z46" s="73"/>
+      <c r="AA46" s="73"/>
+      <c r="AB46" s="73"/>
+      <c r="AC46" s="73"/>
+      <c r="AD46" s="73"/>
+      <c r="AE46" s="73"/>
+      <c r="AF46" s="73"/>
+      <c r="AG46" s="73"/>
+      <c r="AH46" s="73"/>
+      <c r="AI46" s="73"/>
+      <c r="AJ46" s="73"/>
+      <c r="AK46" s="73"/>
+      <c r="AL46" s="73"/>
+      <c r="AM46" s="155"/>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="49"/>
       <c r="B47" s="50"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="164"/>
-      <c r="E47" s="164"/>
-      <c r="F47" s="164"/>
-      <c r="G47" s="164"/>
-      <c r="H47" s="164"/>
-      <c r="I47" s="164"/>
-      <c r="J47" s="164"/>
-      <c r="K47" s="164"/>
-      <c r="L47" s="164"/>
-      <c r="M47" s="164"/>
-      <c r="N47" s="164"/>
-      <c r="O47" s="164"/>
-      <c r="P47" s="164"/>
-      <c r="Q47" s="164"/>
-      <c r="R47" s="164"/>
-      <c r="S47" s="164"/>
-      <c r="T47" s="164"/>
-      <c r="U47" s="164"/>
-      <c r="V47" s="164"/>
-      <c r="W47" s="164"/>
-      <c r="X47" s="164"/>
-      <c r="Y47" s="164"/>
-      <c r="Z47" s="164"/>
-      <c r="AA47" s="164"/>
-      <c r="AB47" s="164"/>
-      <c r="AC47" s="164"/>
-      <c r="AD47" s="164"/>
-      <c r="AE47" s="164"/>
-      <c r="AF47" s="164"/>
-      <c r="AG47" s="164"/>
-      <c r="AH47" s="164"/>
-      <c r="AI47" s="164"/>
-      <c r="AJ47" s="164"/>
-      <c r="AK47" s="164"/>
-      <c r="AL47" s="164"/>
-      <c r="AM47" s="165"/>
+      <c r="C47" s="154"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="73"/>
+      <c r="S47" s="73"/>
+      <c r="T47" s="73"/>
+      <c r="U47" s="73"/>
+      <c r="V47" s="73"/>
+      <c r="W47" s="73"/>
+      <c r="X47" s="73"/>
+      <c r="Y47" s="73"/>
+      <c r="Z47" s="73"/>
+      <c r="AA47" s="73"/>
+      <c r="AB47" s="73"/>
+      <c r="AC47" s="73"/>
+      <c r="AD47" s="73"/>
+      <c r="AE47" s="73"/>
+      <c r="AF47" s="73"/>
+      <c r="AG47" s="73"/>
+      <c r="AH47" s="73"/>
+      <c r="AI47" s="73"/>
+      <c r="AJ47" s="73"/>
+      <c r="AK47" s="73"/>
+      <c r="AL47" s="73"/>
+      <c r="AM47" s="155"/>
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="49"/>
       <c r="B48" s="50"/>
-      <c r="C48" s="163"/>
-      <c r="D48" s="164"/>
-      <c r="E48" s="164"/>
-      <c r="F48" s="164"/>
-      <c r="G48" s="164"/>
-      <c r="H48" s="164"/>
-      <c r="I48" s="164"/>
-      <c r="J48" s="164"/>
-      <c r="K48" s="164"/>
-      <c r="L48" s="164"/>
-      <c r="M48" s="164"/>
-      <c r="N48" s="164"/>
-      <c r="O48" s="164"/>
-      <c r="P48" s="164"/>
-      <c r="Q48" s="164"/>
-      <c r="R48" s="164"/>
-      <c r="S48" s="164"/>
-      <c r="T48" s="164"/>
-      <c r="U48" s="164"/>
-      <c r="V48" s="164"/>
-      <c r="W48" s="164"/>
-      <c r="X48" s="164"/>
-      <c r="Y48" s="164"/>
-      <c r="Z48" s="164"/>
-      <c r="AA48" s="164"/>
-      <c r="AB48" s="164"/>
-      <c r="AC48" s="164"/>
-      <c r="AD48" s="164"/>
-      <c r="AE48" s="164"/>
-      <c r="AF48" s="164"/>
-      <c r="AG48" s="164"/>
-      <c r="AH48" s="164"/>
-      <c r="AI48" s="164"/>
-      <c r="AJ48" s="164"/>
-      <c r="AK48" s="164"/>
-      <c r="AL48" s="164"/>
-      <c r="AM48" s="165"/>
+      <c r="C48" s="154"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="73"/>
+      <c r="Q48" s="73"/>
+      <c r="R48" s="73"/>
+      <c r="S48" s="73"/>
+      <c r="T48" s="73"/>
+      <c r="U48" s="73"/>
+      <c r="V48" s="73"/>
+      <c r="W48" s="73"/>
+      <c r="X48" s="73"/>
+      <c r="Y48" s="73"/>
+      <c r="Z48" s="73"/>
+      <c r="AA48" s="73"/>
+      <c r="AB48" s="73"/>
+      <c r="AC48" s="73"/>
+      <c r="AD48" s="73"/>
+      <c r="AE48" s="73"/>
+      <c r="AF48" s="73"/>
+      <c r="AG48" s="73"/>
+      <c r="AH48" s="73"/>
+      <c r="AI48" s="73"/>
+      <c r="AJ48" s="73"/>
+      <c r="AK48" s="73"/>
+      <c r="AL48" s="73"/>
+      <c r="AM48" s="155"/>
     </row>
     <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="49"/>
       <c r="B49" s="50"/>
-      <c r="C49" s="163"/>
-      <c r="D49" s="164"/>
-      <c r="E49" s="164"/>
-      <c r="F49" s="164"/>
-      <c r="G49" s="164"/>
-      <c r="H49" s="164"/>
-      <c r="I49" s="164"/>
-      <c r="J49" s="164"/>
-      <c r="K49" s="164"/>
-      <c r="L49" s="164"/>
-      <c r="M49" s="164"/>
-      <c r="N49" s="164"/>
-      <c r="O49" s="164"/>
-      <c r="P49" s="164"/>
-      <c r="Q49" s="164"/>
-      <c r="R49" s="164"/>
-      <c r="S49" s="164"/>
-      <c r="T49" s="164"/>
-      <c r="U49" s="164"/>
-      <c r="V49" s="164"/>
-      <c r="W49" s="164"/>
-      <c r="X49" s="164"/>
-      <c r="Y49" s="164"/>
-      <c r="Z49" s="164"/>
-      <c r="AA49" s="164"/>
-      <c r="AB49" s="164"/>
-      <c r="AC49" s="164"/>
-      <c r="AD49" s="164"/>
-      <c r="AE49" s="164"/>
-      <c r="AF49" s="164"/>
-      <c r="AG49" s="164"/>
-      <c r="AH49" s="164"/>
-      <c r="AI49" s="164"/>
-      <c r="AJ49" s="164"/>
-      <c r="AK49" s="164"/>
-      <c r="AL49" s="164"/>
-      <c r="AM49" s="165"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="73"/>
+      <c r="O49" s="73"/>
+      <c r="P49" s="73"/>
+      <c r="Q49" s="73"/>
+      <c r="R49" s="73"/>
+      <c r="S49" s="73"/>
+      <c r="T49" s="73"/>
+      <c r="U49" s="73"/>
+      <c r="V49" s="73"/>
+      <c r="W49" s="73"/>
+      <c r="X49" s="73"/>
+      <c r="Y49" s="73"/>
+      <c r="Z49" s="73"/>
+      <c r="AA49" s="73"/>
+      <c r="AB49" s="73"/>
+      <c r="AC49" s="73"/>
+      <c r="AD49" s="73"/>
+      <c r="AE49" s="73"/>
+      <c r="AF49" s="73"/>
+      <c r="AG49" s="73"/>
+      <c r="AH49" s="73"/>
+      <c r="AI49" s="73"/>
+      <c r="AJ49" s="73"/>
+      <c r="AK49" s="73"/>
+      <c r="AL49" s="73"/>
+      <c r="AM49" s="155"/>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="49"/>
       <c r="B50" s="50"/>
-      <c r="C50" s="163"/>
-      <c r="D50" s="164"/>
-      <c r="E50" s="164"/>
-      <c r="F50" s="164"/>
-      <c r="G50" s="164"/>
-      <c r="H50" s="164"/>
-      <c r="I50" s="164"/>
-      <c r="J50" s="164"/>
-      <c r="K50" s="164"/>
-      <c r="L50" s="164"/>
-      <c r="M50" s="164"/>
-      <c r="N50" s="164"/>
-      <c r="O50" s="164"/>
-      <c r="P50" s="167"/>
-      <c r="Q50" s="167"/>
-      <c r="R50" s="167"/>
-      <c r="S50" s="167"/>
-      <c r="T50" s="167"/>
-      <c r="U50" s="167"/>
-      <c r="V50" s="167"/>
-      <c r="W50" s="167"/>
-      <c r="X50" s="167"/>
-      <c r="Y50" s="167"/>
-      <c r="Z50" s="167"/>
-      <c r="AA50" s="167"/>
-      <c r="AB50" s="167"/>
-      <c r="AC50" s="167"/>
-      <c r="AD50" s="167"/>
-      <c r="AE50" s="167"/>
-      <c r="AF50" s="167"/>
-      <c r="AG50" s="167"/>
-      <c r="AH50" s="167"/>
-      <c r="AI50" s="167"/>
-      <c r="AJ50" s="167"/>
-      <c r="AK50" s="164"/>
-      <c r="AL50" s="164"/>
-      <c r="AM50" s="168"/>
+      <c r="C50" s="154"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="73"/>
+      <c r="S50" s="73"/>
+      <c r="T50" s="73"/>
+      <c r="U50" s="73"/>
+      <c r="V50" s="73"/>
+      <c r="W50" s="73"/>
+      <c r="X50" s="73"/>
+      <c r="Y50" s="73"/>
+      <c r="Z50" s="73"/>
+      <c r="AA50" s="73"/>
+      <c r="AB50" s="73"/>
+      <c r="AC50" s="73"/>
+      <c r="AD50" s="73"/>
+      <c r="AE50" s="73"/>
+      <c r="AF50" s="73"/>
+      <c r="AG50" s="73"/>
+      <c r="AH50" s="73"/>
+      <c r="AI50" s="73"/>
+      <c r="AJ50" s="73"/>
+      <c r="AK50" s="73"/>
+      <c r="AL50" s="73"/>
+      <c r="AM50" s="155"/>
     </row>
     <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="49"/>
       <c r="B51" s="50"/>
-      <c r="C51" s="163"/>
-      <c r="D51" s="164"/>
-      <c r="E51" s="164"/>
-      <c r="F51" s="164"/>
-      <c r="G51" s="164"/>
-      <c r="H51" s="164"/>
-      <c r="I51" s="164"/>
-      <c r="J51" s="164"/>
-      <c r="K51" s="164"/>
-      <c r="L51" s="164"/>
-      <c r="M51" s="164"/>
-      <c r="N51" s="164"/>
-      <c r="O51" s="164"/>
-      <c r="P51" s="167"/>
-      <c r="Q51" s="167"/>
-      <c r="R51" s="167"/>
-      <c r="S51" s="167"/>
-      <c r="T51" s="167"/>
-      <c r="U51" s="167"/>
-      <c r="V51" s="167"/>
-      <c r="W51" s="167"/>
-      <c r="X51" s="167"/>
-      <c r="Y51" s="167"/>
-      <c r="Z51" s="167"/>
-      <c r="AA51" s="167"/>
-      <c r="AB51" s="167"/>
-      <c r="AC51" s="167"/>
-      <c r="AD51" s="167"/>
-      <c r="AE51" s="167"/>
-      <c r="AF51" s="167"/>
-      <c r="AG51" s="167"/>
-      <c r="AH51" s="167"/>
-      <c r="AI51" s="167"/>
-      <c r="AJ51" s="167"/>
-      <c r="AK51" s="164"/>
-      <c r="AL51" s="164"/>
-      <c r="AM51" s="168"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="73"/>
+      <c r="N51" s="73"/>
+      <c r="O51" s="73"/>
+      <c r="P51" s="73"/>
+      <c r="Q51" s="73"/>
+      <c r="R51" s="73"/>
+      <c r="S51" s="73"/>
+      <c r="T51" s="73"/>
+      <c r="U51" s="73"/>
+      <c r="V51" s="73"/>
+      <c r="W51" s="73"/>
+      <c r="X51" s="73"/>
+      <c r="Y51" s="73"/>
+      <c r="Z51" s="73"/>
+      <c r="AA51" s="73"/>
+      <c r="AB51" s="73"/>
+      <c r="AC51" s="73"/>
+      <c r="AD51" s="73"/>
+      <c r="AE51" s="73"/>
+      <c r="AF51" s="73"/>
+      <c r="AG51" s="73"/>
+      <c r="AH51" s="73"/>
+      <c r="AI51" s="73"/>
+      <c r="AJ51" s="73"/>
+      <c r="AK51" s="73"/>
+      <c r="AL51" s="73"/>
+      <c r="AM51" s="155"/>
     </row>
     <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="49"/>
       <c r="B52" s="50"/>
-      <c r="C52" s="163"/>
-      <c r="D52" s="164"/>
-      <c r="E52" s="164"/>
-      <c r="F52" s="164"/>
-      <c r="G52" s="164"/>
-      <c r="H52" s="164"/>
-      <c r="I52" s="164"/>
-      <c r="J52" s="164"/>
-      <c r="K52" s="164"/>
-      <c r="L52" s="164"/>
-      <c r="M52" s="164"/>
-      <c r="N52" s="164"/>
-      <c r="O52" s="164"/>
-      <c r="P52" s="167"/>
-      <c r="Q52" s="167"/>
-      <c r="R52" s="167"/>
-      <c r="S52" s="167"/>
-      <c r="T52" s="167"/>
-      <c r="U52" s="167"/>
-      <c r="V52" s="167"/>
-      <c r="W52" s="167"/>
-      <c r="X52" s="167"/>
-      <c r="Y52" s="167"/>
-      <c r="Z52" s="167"/>
-      <c r="AA52" s="167"/>
-      <c r="AB52" s="167"/>
-      <c r="AC52" s="167"/>
-      <c r="AD52" s="167"/>
-      <c r="AE52" s="167"/>
-      <c r="AF52" s="167"/>
-      <c r="AG52" s="167"/>
-      <c r="AH52" s="167"/>
-      <c r="AI52" s="167"/>
-      <c r="AJ52" s="167"/>
-      <c r="AK52" s="164"/>
-      <c r="AL52" s="164"/>
-      <c r="AM52" s="168"/>
+      <c r="C52" s="154"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="73"/>
+      <c r="M52" s="73"/>
+      <c r="N52" s="73"/>
+      <c r="O52" s="73"/>
+      <c r="P52" s="73"/>
+      <c r="Q52" s="73"/>
+      <c r="R52" s="73"/>
+      <c r="S52" s="73"/>
+      <c r="T52" s="73"/>
+      <c r="U52" s="73"/>
+      <c r="V52" s="73"/>
+      <c r="W52" s="73"/>
+      <c r="X52" s="73"/>
+      <c r="Y52" s="73"/>
+      <c r="Z52" s="73"/>
+      <c r="AA52" s="73"/>
+      <c r="AB52" s="73"/>
+      <c r="AC52" s="73"/>
+      <c r="AD52" s="73"/>
+      <c r="AE52" s="73"/>
+      <c r="AF52" s="73"/>
+      <c r="AG52" s="73"/>
+      <c r="AH52" s="73"/>
+      <c r="AI52" s="73"/>
+      <c r="AJ52" s="73"/>
+      <c r="AK52" s="73"/>
+      <c r="AL52" s="73"/>
+      <c r="AM52" s="155"/>
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="55"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="164"/>
-      <c r="E53" s="164"/>
-      <c r="F53" s="164"/>
-      <c r="G53" s="164"/>
-      <c r="H53" s="164"/>
-      <c r="I53" s="164"/>
-      <c r="J53" s="164"/>
-      <c r="K53" s="164"/>
-      <c r="L53" s="164"/>
-      <c r="M53" s="164"/>
-      <c r="N53" s="164"/>
-      <c r="O53" s="164"/>
-      <c r="P53" s="164"/>
-      <c r="Q53" s="164"/>
-      <c r="R53" s="164"/>
-      <c r="S53" s="164"/>
-      <c r="T53" s="164"/>
-      <c r="U53" s="164"/>
-      <c r="V53" s="164"/>
-      <c r="W53" s="164"/>
-      <c r="X53" s="164"/>
-      <c r="Y53" s="164"/>
-      <c r="Z53" s="164"/>
-      <c r="AA53" s="164"/>
-      <c r="AB53" s="164"/>
-      <c r="AC53" s="164"/>
-      <c r="AD53" s="164"/>
-      <c r="AE53" s="164"/>
-      <c r="AF53" s="164"/>
-      <c r="AG53" s="164"/>
-      <c r="AH53" s="164"/>
-      <c r="AI53" s="164"/>
-      <c r="AJ53" s="164"/>
-      <c r="AK53" s="164"/>
-      <c r="AL53" s="164"/>
-      <c r="AM53" s="165"/>
+      <c r="C53" s="154"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="73"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="73"/>
+      <c r="R53" s="73"/>
+      <c r="S53" s="73"/>
+      <c r="T53" s="73"/>
+      <c r="U53" s="73"/>
+      <c r="V53" s="73"/>
+      <c r="W53" s="73"/>
+      <c r="X53" s="73"/>
+      <c r="Y53" s="73"/>
+      <c r="Z53" s="73"/>
+      <c r="AA53" s="73"/>
+      <c r="AB53" s="73"/>
+      <c r="AC53" s="73"/>
+      <c r="AD53" s="73"/>
+      <c r="AE53" s="73"/>
+      <c r="AF53" s="73"/>
+      <c r="AG53" s="73"/>
+      <c r="AH53" s="73"/>
+      <c r="AI53" s="73"/>
+      <c r="AJ53" s="73"/>
+      <c r="AK53" s="73"/>
+      <c r="AL53" s="73"/>
+      <c r="AM53" s="155"/>
     </row>
     <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="49"/>
       <c r="B54" s="55"/>
-      <c r="C54" s="169"/>
-      <c r="D54" s="170"/>
-      <c r="E54" s="170"/>
-      <c r="F54" s="170"/>
-      <c r="G54" s="170"/>
-      <c r="H54" s="170"/>
-      <c r="I54" s="170"/>
-      <c r="J54" s="170"/>
-      <c r="K54" s="170"/>
-      <c r="L54" s="170"/>
-      <c r="M54" s="170"/>
-      <c r="N54" s="170"/>
-      <c r="O54" s="170"/>
-      <c r="P54" s="170"/>
-      <c r="Q54" s="170"/>
-      <c r="R54" s="170"/>
-      <c r="S54" s="170"/>
-      <c r="T54" s="170"/>
-      <c r="U54" s="170"/>
-      <c r="V54" s="170"/>
-      <c r="W54" s="170"/>
-      <c r="X54" s="170"/>
-      <c r="Y54" s="170"/>
-      <c r="Z54" s="170"/>
-      <c r="AA54" s="170"/>
-      <c r="AB54" s="170"/>
-      <c r="AC54" s="170"/>
-      <c r="AD54" s="170"/>
-      <c r="AE54" s="170"/>
-      <c r="AF54" s="170"/>
-      <c r="AG54" s="170"/>
-      <c r="AH54" s="170"/>
-      <c r="AI54" s="170"/>
-      <c r="AJ54" s="170"/>
-      <c r="AK54" s="170"/>
-      <c r="AL54" s="170"/>
-      <c r="AM54" s="171"/>
+      <c r="C54" s="156"/>
+      <c r="D54" s="157"/>
+      <c r="E54" s="157"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="157"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="157"/>
+      <c r="J54" s="157"/>
+      <c r="K54" s="157"/>
+      <c r="L54" s="157"/>
+      <c r="M54" s="157"/>
+      <c r="N54" s="157"/>
+      <c r="O54" s="157"/>
+      <c r="P54" s="157"/>
+      <c r="Q54" s="157"/>
+      <c r="R54" s="157"/>
+      <c r="S54" s="157"/>
+      <c r="T54" s="157"/>
+      <c r="U54" s="157"/>
+      <c r="V54" s="157"/>
+      <c r="W54" s="157"/>
+      <c r="X54" s="157"/>
+      <c r="Y54" s="157"/>
+      <c r="Z54" s="157"/>
+      <c r="AA54" s="157"/>
+      <c r="AB54" s="157"/>
+      <c r="AC54" s="157"/>
+      <c r="AD54" s="157"/>
+      <c r="AE54" s="157"/>
+      <c r="AF54" s="157"/>
+      <c r="AG54" s="157"/>
+      <c r="AH54" s="157"/>
+      <c r="AI54" s="157"/>
+      <c r="AJ54" s="157"/>
+      <c r="AK54" s="157"/>
+      <c r="AL54" s="157"/>
+      <c r="AM54" s="158"/>
     </row>
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="49"/>
@@ -10620,7 +10588,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="C1:AM54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10949,706 +10917,706 @@
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="40"/>
-      <c r="D8" s="172" t="s">
+      <c r="D8" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="172"/>
-      <c r="H8" s="172"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="172"/>
-      <c r="L8" s="172"/>
-      <c r="M8" s="172"/>
-      <c r="N8" s="172"/>
-      <c r="O8" s="172"/>
-      <c r="P8" s="172"/>
-      <c r="Q8" s="172"/>
-      <c r="R8" s="172"/>
-      <c r="S8" s="172"/>
-      <c r="T8" s="172"/>
-      <c r="U8" s="172"/>
-      <c r="V8" s="172"/>
-      <c r="W8" s="172"/>
-      <c r="X8" s="172"/>
-      <c r="Y8" s="172"/>
-      <c r="Z8" s="172"/>
-      <c r="AA8" s="172"/>
-      <c r="AB8" s="172"/>
-      <c r="AC8" s="172"/>
-      <c r="AD8" s="172"/>
-      <c r="AE8" s="172"/>
-      <c r="AF8" s="172"/>
-      <c r="AG8" s="172"/>
-      <c r="AH8" s="172"/>
-      <c r="AI8" s="172"/>
-      <c r="AJ8" s="172"/>
-      <c r="AK8" s="172"/>
-      <c r="AL8" s="172"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="164"/>
+      <c r="O8" s="164"/>
+      <c r="P8" s="164"/>
+      <c r="Q8" s="164"/>
+      <c r="R8" s="164"/>
+      <c r="S8" s="164"/>
+      <c r="T8" s="164"/>
+      <c r="U8" s="164"/>
+      <c r="V8" s="164"/>
+      <c r="W8" s="164"/>
+      <c r="X8" s="164"/>
+      <c r="Y8" s="164"/>
+      <c r="Z8" s="164"/>
+      <c r="AA8" s="164"/>
+      <c r="AB8" s="164"/>
+      <c r="AC8" s="164"/>
+      <c r="AD8" s="164"/>
+      <c r="AE8" s="164"/>
+      <c r="AF8" s="164"/>
+      <c r="AG8" s="164"/>
+      <c r="AH8" s="164"/>
+      <c r="AI8" s="164"/>
+      <c r="AJ8" s="164"/>
+      <c r="AK8" s="164"/>
+      <c r="AL8" s="164"/>
       <c r="AM8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C9" s="40"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
-      <c r="L9" s="172"/>
-      <c r="M9" s="172"/>
-      <c r="N9" s="172"/>
-      <c r="O9" s="172"/>
-      <c r="P9" s="172"/>
-      <c r="Q9" s="172"/>
-      <c r="R9" s="172"/>
-      <c r="S9" s="172"/>
-      <c r="T9" s="172"/>
-      <c r="U9" s="172"/>
-      <c r="V9" s="172"/>
-      <c r="W9" s="172"/>
-      <c r="X9" s="172"/>
-      <c r="Y9" s="172"/>
-      <c r="Z9" s="172"/>
-      <c r="AA9" s="172"/>
-      <c r="AB9" s="172"/>
-      <c r="AC9" s="172"/>
-      <c r="AD9" s="172"/>
-      <c r="AE9" s="172"/>
-      <c r="AF9" s="172"/>
-      <c r="AG9" s="172"/>
-      <c r="AH9" s="172"/>
-      <c r="AI9" s="172"/>
-      <c r="AJ9" s="172"/>
-      <c r="AK9" s="172"/>
-      <c r="AL9" s="172"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="164"/>
+      <c r="P9" s="164"/>
+      <c r="Q9" s="164"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="164"/>
+      <c r="T9" s="164"/>
+      <c r="U9" s="164"/>
+      <c r="V9" s="164"/>
+      <c r="W9" s="164"/>
+      <c r="X9" s="164"/>
+      <c r="Y9" s="164"/>
+      <c r="Z9" s="164"/>
+      <c r="AA9" s="164"/>
+      <c r="AB9" s="164"/>
+      <c r="AC9" s="164"/>
+      <c r="AD9" s="164"/>
+      <c r="AE9" s="164"/>
+      <c r="AF9" s="164"/>
+      <c r="AG9" s="164"/>
+      <c r="AH9" s="164"/>
+      <c r="AI9" s="164"/>
+      <c r="AJ9" s="164"/>
+      <c r="AK9" s="164"/>
+      <c r="AL9" s="164"/>
       <c r="AM9" s="41"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C10" s="46"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="172"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="172"/>
-      <c r="K10" s="172"/>
-      <c r="L10" s="172"/>
-      <c r="M10" s="172"/>
-      <c r="N10" s="172"/>
-      <c r="O10" s="172"/>
-      <c r="P10" s="172"/>
-      <c r="Q10" s="172"/>
-      <c r="R10" s="172"/>
-      <c r="S10" s="172"/>
-      <c r="T10" s="172"/>
-      <c r="U10" s="172"/>
-      <c r="V10" s="172"/>
-      <c r="W10" s="172"/>
-      <c r="X10" s="172"/>
-      <c r="Y10" s="172"/>
-      <c r="Z10" s="172"/>
-      <c r="AA10" s="172"/>
-      <c r="AB10" s="172"/>
-      <c r="AC10" s="172"/>
-      <c r="AD10" s="172"/>
-      <c r="AE10" s="172"/>
-      <c r="AF10" s="172"/>
-      <c r="AG10" s="172"/>
-      <c r="AH10" s="172"/>
-      <c r="AI10" s="172"/>
-      <c r="AJ10" s="172"/>
-      <c r="AK10" s="172"/>
-      <c r="AL10" s="172"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="164"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="164"/>
+      <c r="O10" s="164"/>
+      <c r="P10" s="164"/>
+      <c r="Q10" s="164"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="164"/>
+      <c r="T10" s="164"/>
+      <c r="U10" s="164"/>
+      <c r="V10" s="164"/>
+      <c r="W10" s="164"/>
+      <c r="X10" s="164"/>
+      <c r="Y10" s="164"/>
+      <c r="Z10" s="164"/>
+      <c r="AA10" s="164"/>
+      <c r="AB10" s="164"/>
+      <c r="AC10" s="164"/>
+      <c r="AD10" s="164"/>
+      <c r="AE10" s="164"/>
+      <c r="AF10" s="164"/>
+      <c r="AG10" s="164"/>
+      <c r="AH10" s="164"/>
+      <c r="AI10" s="164"/>
+      <c r="AJ10" s="164"/>
+      <c r="AK10" s="164"/>
+      <c r="AL10" s="164"/>
       <c r="AM10" s="47"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C11" s="46"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="172"/>
-      <c r="L11" s="172"/>
-      <c r="M11" s="172"/>
-      <c r="N11" s="172"/>
-      <c r="O11" s="172"/>
-      <c r="P11" s="172"/>
-      <c r="Q11" s="172"/>
-      <c r="R11" s="172"/>
-      <c r="S11" s="172"/>
-      <c r="T11" s="172"/>
-      <c r="U11" s="172"/>
-      <c r="V11" s="172"/>
-      <c r="W11" s="172"/>
-      <c r="X11" s="172"/>
-      <c r="Y11" s="172"/>
-      <c r="Z11" s="172"/>
-      <c r="AA11" s="172"/>
-      <c r="AB11" s="172"/>
-      <c r="AC11" s="172"/>
-      <c r="AD11" s="172"/>
-      <c r="AE11" s="172"/>
-      <c r="AF11" s="172"/>
-      <c r="AG11" s="172"/>
-      <c r="AH11" s="172"/>
-      <c r="AI11" s="172"/>
-      <c r="AJ11" s="172"/>
-      <c r="AK11" s="172"/>
-      <c r="AL11" s="172"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="164"/>
+      <c r="O11" s="164"/>
+      <c r="P11" s="164"/>
+      <c r="Q11" s="164"/>
+      <c r="R11" s="164"/>
+      <c r="S11" s="164"/>
+      <c r="T11" s="164"/>
+      <c r="U11" s="164"/>
+      <c r="V11" s="164"/>
+      <c r="W11" s="164"/>
+      <c r="X11" s="164"/>
+      <c r="Y11" s="164"/>
+      <c r="Z11" s="164"/>
+      <c r="AA11" s="164"/>
+      <c r="AB11" s="164"/>
+      <c r="AC11" s="164"/>
+      <c r="AD11" s="164"/>
+      <c r="AE11" s="164"/>
+      <c r="AF11" s="164"/>
+      <c r="AG11" s="164"/>
+      <c r="AH11" s="164"/>
+      <c r="AI11" s="164"/>
+      <c r="AJ11" s="164"/>
+      <c r="AK11" s="164"/>
+      <c r="AL11" s="164"/>
       <c r="AM11" s="47"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C12" s="46"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="172"/>
-      <c r="L12" s="172"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="172"/>
-      <c r="O12" s="172"/>
-      <c r="P12" s="172"/>
-      <c r="Q12" s="172"/>
-      <c r="R12" s="172"/>
-      <c r="S12" s="172"/>
-      <c r="T12" s="172"/>
-      <c r="U12" s="172"/>
-      <c r="V12" s="172"/>
-      <c r="W12" s="172"/>
-      <c r="X12" s="172"/>
-      <c r="Y12" s="172"/>
-      <c r="Z12" s="172"/>
-      <c r="AA12" s="172"/>
-      <c r="AB12" s="172"/>
-      <c r="AC12" s="172"/>
-      <c r="AD12" s="172"/>
-      <c r="AE12" s="172"/>
-      <c r="AF12" s="172"/>
-      <c r="AG12" s="172"/>
-      <c r="AH12" s="172"/>
-      <c r="AI12" s="172"/>
-      <c r="AJ12" s="172"/>
-      <c r="AK12" s="172"/>
-      <c r="AL12" s="172"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="164"/>
+      <c r="P12" s="164"/>
+      <c r="Q12" s="164"/>
+      <c r="R12" s="164"/>
+      <c r="S12" s="164"/>
+      <c r="T12" s="164"/>
+      <c r="U12" s="164"/>
+      <c r="V12" s="164"/>
+      <c r="W12" s="164"/>
+      <c r="X12" s="164"/>
+      <c r="Y12" s="164"/>
+      <c r="Z12" s="164"/>
+      <c r="AA12" s="164"/>
+      <c r="AB12" s="164"/>
+      <c r="AC12" s="164"/>
+      <c r="AD12" s="164"/>
+      <c r="AE12" s="164"/>
+      <c r="AF12" s="164"/>
+      <c r="AG12" s="164"/>
+      <c r="AH12" s="164"/>
+      <c r="AI12" s="164"/>
+      <c r="AJ12" s="164"/>
+      <c r="AK12" s="164"/>
+      <c r="AL12" s="164"/>
       <c r="AM12" s="47"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C13" s="46"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="172"/>
-      <c r="L13" s="172"/>
-      <c r="M13" s="172"/>
-      <c r="N13" s="172"/>
-      <c r="O13" s="172"/>
-      <c r="P13" s="172"/>
-      <c r="Q13" s="172"/>
-      <c r="R13" s="172"/>
-      <c r="S13" s="172"/>
-      <c r="T13" s="172"/>
-      <c r="U13" s="172"/>
-      <c r="V13" s="172"/>
-      <c r="W13" s="172"/>
-      <c r="X13" s="172"/>
-      <c r="Y13" s="172"/>
-      <c r="Z13" s="172"/>
-      <c r="AA13" s="172"/>
-      <c r="AB13" s="172"/>
-      <c r="AC13" s="172"/>
-      <c r="AD13" s="172"/>
-      <c r="AE13" s="172"/>
-      <c r="AF13" s="172"/>
-      <c r="AG13" s="172"/>
-      <c r="AH13" s="172"/>
-      <c r="AI13" s="172"/>
-      <c r="AJ13" s="172"/>
-      <c r="AK13" s="172"/>
-      <c r="AL13" s="172"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="164"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="164"/>
+      <c r="O13" s="164"/>
+      <c r="P13" s="164"/>
+      <c r="Q13" s="164"/>
+      <c r="R13" s="164"/>
+      <c r="S13" s="164"/>
+      <c r="T13" s="164"/>
+      <c r="U13" s="164"/>
+      <c r="V13" s="164"/>
+      <c r="W13" s="164"/>
+      <c r="X13" s="164"/>
+      <c r="Y13" s="164"/>
+      <c r="Z13" s="164"/>
+      <c r="AA13" s="164"/>
+      <c r="AB13" s="164"/>
+      <c r="AC13" s="164"/>
+      <c r="AD13" s="164"/>
+      <c r="AE13" s="164"/>
+      <c r="AF13" s="164"/>
+      <c r="AG13" s="164"/>
+      <c r="AH13" s="164"/>
+      <c r="AI13" s="164"/>
+      <c r="AJ13" s="164"/>
+      <c r="AK13" s="164"/>
+      <c r="AL13" s="164"/>
       <c r="AM13" s="47"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C14" s="46"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="172"/>
-      <c r="L14" s="172"/>
-      <c r="M14" s="172"/>
-      <c r="N14" s="172"/>
-      <c r="O14" s="172"/>
-      <c r="P14" s="172"/>
-      <c r="Q14" s="172"/>
-      <c r="R14" s="172"/>
-      <c r="S14" s="172"/>
-      <c r="T14" s="172"/>
-      <c r="U14" s="172"/>
-      <c r="V14" s="172"/>
-      <c r="W14" s="172"/>
-      <c r="X14" s="172"/>
-      <c r="Y14" s="172"/>
-      <c r="Z14" s="172"/>
-      <c r="AA14" s="172"/>
-      <c r="AB14" s="172"/>
-      <c r="AC14" s="172"/>
-      <c r="AD14" s="172"/>
-      <c r="AE14" s="172"/>
-      <c r="AF14" s="172"/>
-      <c r="AG14" s="172"/>
-      <c r="AH14" s="172"/>
-      <c r="AI14" s="172"/>
-      <c r="AJ14" s="172"/>
-      <c r="AK14" s="172"/>
-      <c r="AL14" s="172"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="164"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="164"/>
+      <c r="P14" s="164"/>
+      <c r="Q14" s="164"/>
+      <c r="R14" s="164"/>
+      <c r="S14" s="164"/>
+      <c r="T14" s="164"/>
+      <c r="U14" s="164"/>
+      <c r="V14" s="164"/>
+      <c r="W14" s="164"/>
+      <c r="X14" s="164"/>
+      <c r="Y14" s="164"/>
+      <c r="Z14" s="164"/>
+      <c r="AA14" s="164"/>
+      <c r="AB14" s="164"/>
+      <c r="AC14" s="164"/>
+      <c r="AD14" s="164"/>
+      <c r="AE14" s="164"/>
+      <c r="AF14" s="164"/>
+      <c r="AG14" s="164"/>
+      <c r="AH14" s="164"/>
+      <c r="AI14" s="164"/>
+      <c r="AJ14" s="164"/>
+      <c r="AK14" s="164"/>
+      <c r="AL14" s="164"/>
       <c r="AM14" s="47"/>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C15" s="40"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="172"/>
-      <c r="L15" s="172"/>
-      <c r="M15" s="172"/>
-      <c r="N15" s="172"/>
-      <c r="O15" s="172"/>
-      <c r="P15" s="172"/>
-      <c r="Q15" s="172"/>
-      <c r="R15" s="172"/>
-      <c r="S15" s="172"/>
-      <c r="T15" s="172"/>
-      <c r="U15" s="172"/>
-      <c r="V15" s="172"/>
-      <c r="W15" s="172"/>
-      <c r="X15" s="172"/>
-      <c r="Y15" s="172"/>
-      <c r="Z15" s="172"/>
-      <c r="AA15" s="172"/>
-      <c r="AB15" s="172"/>
-      <c r="AC15" s="172"/>
-      <c r="AD15" s="172"/>
-      <c r="AE15" s="172"/>
-      <c r="AF15" s="172"/>
-      <c r="AG15" s="172"/>
-      <c r="AH15" s="172"/>
-      <c r="AI15" s="172"/>
-      <c r="AJ15" s="172"/>
-      <c r="AK15" s="172"/>
-      <c r="AL15" s="172"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="164"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="164"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="164"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="164"/>
+      <c r="V15" s="164"/>
+      <c r="W15" s="164"/>
+      <c r="X15" s="164"/>
+      <c r="Y15" s="164"/>
+      <c r="Z15" s="164"/>
+      <c r="AA15" s="164"/>
+      <c r="AB15" s="164"/>
+      <c r="AC15" s="164"/>
+      <c r="AD15" s="164"/>
+      <c r="AE15" s="164"/>
+      <c r="AF15" s="164"/>
+      <c r="AG15" s="164"/>
+      <c r="AH15" s="164"/>
+      <c r="AI15" s="164"/>
+      <c r="AJ15" s="164"/>
+      <c r="AK15" s="164"/>
+      <c r="AL15" s="164"/>
       <c r="AM15" s="41"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="40"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="172"/>
-      <c r="K16" s="172"/>
-      <c r="L16" s="172"/>
-      <c r="M16" s="172"/>
-      <c r="N16" s="172"/>
-      <c r="O16" s="172"/>
-      <c r="P16" s="172"/>
-      <c r="Q16" s="172"/>
-      <c r="R16" s="172"/>
-      <c r="S16" s="172"/>
-      <c r="T16" s="172"/>
-      <c r="U16" s="172"/>
-      <c r="V16" s="172"/>
-      <c r="W16" s="172"/>
-      <c r="X16" s="172"/>
-      <c r="Y16" s="172"/>
-      <c r="Z16" s="172"/>
-      <c r="AA16" s="172"/>
-      <c r="AB16" s="172"/>
-      <c r="AC16" s="172"/>
-      <c r="AD16" s="172"/>
-      <c r="AE16" s="172"/>
-      <c r="AF16" s="172"/>
-      <c r="AG16" s="172"/>
-      <c r="AH16" s="172"/>
-      <c r="AI16" s="172"/>
-      <c r="AJ16" s="172"/>
-      <c r="AK16" s="172"/>
-      <c r="AL16" s="172"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="164"/>
+      <c r="R16" s="164"/>
+      <c r="S16" s="164"/>
+      <c r="T16" s="164"/>
+      <c r="U16" s="164"/>
+      <c r="V16" s="164"/>
+      <c r="W16" s="164"/>
+      <c r="X16" s="164"/>
+      <c r="Y16" s="164"/>
+      <c r="Z16" s="164"/>
+      <c r="AA16" s="164"/>
+      <c r="AB16" s="164"/>
+      <c r="AC16" s="164"/>
+      <c r="AD16" s="164"/>
+      <c r="AE16" s="164"/>
+      <c r="AF16" s="164"/>
+      <c r="AG16" s="164"/>
+      <c r="AH16" s="164"/>
+      <c r="AI16" s="164"/>
+      <c r="AJ16" s="164"/>
+      <c r="AK16" s="164"/>
+      <c r="AL16" s="164"/>
       <c r="AM16" s="41"/>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="40"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="172"/>
-      <c r="L17" s="172"/>
-      <c r="M17" s="172"/>
-      <c r="N17" s="172"/>
-      <c r="O17" s="172"/>
-      <c r="P17" s="172"/>
-      <c r="Q17" s="172"/>
-      <c r="R17" s="172"/>
-      <c r="S17" s="172"/>
-      <c r="T17" s="172"/>
-      <c r="U17" s="172"/>
-      <c r="V17" s="172"/>
-      <c r="W17" s="172"/>
-      <c r="X17" s="172"/>
-      <c r="Y17" s="172"/>
-      <c r="Z17" s="172"/>
-      <c r="AA17" s="172"/>
-      <c r="AB17" s="172"/>
-      <c r="AC17" s="172"/>
-      <c r="AD17" s="172"/>
-      <c r="AE17" s="172"/>
-      <c r="AF17" s="172"/>
-      <c r="AG17" s="172"/>
-      <c r="AH17" s="172"/>
-      <c r="AI17" s="172"/>
-      <c r="AJ17" s="172"/>
-      <c r="AK17" s="172"/>
-      <c r="AL17" s="172"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="164"/>
+      <c r="L17" s="164"/>
+      <c r="M17" s="164"/>
+      <c r="N17" s="164"/>
+      <c r="O17" s="164"/>
+      <c r="P17" s="164"/>
+      <c r="Q17" s="164"/>
+      <c r="R17" s="164"/>
+      <c r="S17" s="164"/>
+      <c r="T17" s="164"/>
+      <c r="U17" s="164"/>
+      <c r="V17" s="164"/>
+      <c r="W17" s="164"/>
+      <c r="X17" s="164"/>
+      <c r="Y17" s="164"/>
+      <c r="Z17" s="164"/>
+      <c r="AA17" s="164"/>
+      <c r="AB17" s="164"/>
+      <c r="AC17" s="164"/>
+      <c r="AD17" s="164"/>
+      <c r="AE17" s="164"/>
+      <c r="AF17" s="164"/>
+      <c r="AG17" s="164"/>
+      <c r="AH17" s="164"/>
+      <c r="AI17" s="164"/>
+      <c r="AJ17" s="164"/>
+      <c r="AK17" s="164"/>
+      <c r="AL17" s="164"/>
       <c r="AM17" s="41"/>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C18" s="40"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="172"/>
-      <c r="N18" s="172"/>
-      <c r="O18" s="172"/>
-      <c r="P18" s="172"/>
-      <c r="Q18" s="172"/>
-      <c r="R18" s="172"/>
-      <c r="S18" s="172"/>
-      <c r="T18" s="172"/>
-      <c r="U18" s="172"/>
-      <c r="V18" s="172"/>
-      <c r="W18" s="172"/>
-      <c r="X18" s="172"/>
-      <c r="Y18" s="172"/>
-      <c r="Z18" s="172"/>
-      <c r="AA18" s="172"/>
-      <c r="AB18" s="172"/>
-      <c r="AC18" s="172"/>
-      <c r="AD18" s="172"/>
-      <c r="AE18" s="172"/>
-      <c r="AF18" s="172"/>
-      <c r="AG18" s="172"/>
-      <c r="AH18" s="172"/>
-      <c r="AI18" s="172"/>
-      <c r="AJ18" s="172"/>
-      <c r="AK18" s="172"/>
-      <c r="AL18" s="172"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="164"/>
+      <c r="M18" s="164"/>
+      <c r="N18" s="164"/>
+      <c r="O18" s="164"/>
+      <c r="P18" s="164"/>
+      <c r="Q18" s="164"/>
+      <c r="R18" s="164"/>
+      <c r="S18" s="164"/>
+      <c r="T18" s="164"/>
+      <c r="U18" s="164"/>
+      <c r="V18" s="164"/>
+      <c r="W18" s="164"/>
+      <c r="X18" s="164"/>
+      <c r="Y18" s="164"/>
+      <c r="Z18" s="164"/>
+      <c r="AA18" s="164"/>
+      <c r="AB18" s="164"/>
+      <c r="AC18" s="164"/>
+      <c r="AD18" s="164"/>
+      <c r="AE18" s="164"/>
+      <c r="AF18" s="164"/>
+      <c r="AG18" s="164"/>
+      <c r="AH18" s="164"/>
+      <c r="AI18" s="164"/>
+      <c r="AJ18" s="164"/>
+      <c r="AK18" s="164"/>
+      <c r="AL18" s="164"/>
       <c r="AM18" s="41"/>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C19" s="40"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="172"/>
-      <c r="K19" s="172"/>
-      <c r="L19" s="172"/>
-      <c r="M19" s="172"/>
-      <c r="N19" s="172"/>
-      <c r="O19" s="172"/>
-      <c r="P19" s="172"/>
-      <c r="Q19" s="172"/>
-      <c r="R19" s="172"/>
-      <c r="S19" s="172"/>
-      <c r="T19" s="172"/>
-      <c r="U19" s="172"/>
-      <c r="V19" s="172"/>
-      <c r="W19" s="172"/>
-      <c r="X19" s="172"/>
-      <c r="Y19" s="172"/>
-      <c r="Z19" s="172"/>
-      <c r="AA19" s="172"/>
-      <c r="AB19" s="172"/>
-      <c r="AC19" s="172"/>
-      <c r="AD19" s="172"/>
-      <c r="AE19" s="172"/>
-      <c r="AF19" s="172"/>
-      <c r="AG19" s="172"/>
-      <c r="AH19" s="172"/>
-      <c r="AI19" s="172"/>
-      <c r="AJ19" s="172"/>
-      <c r="AK19" s="172"/>
-      <c r="AL19" s="172"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="164"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="164"/>
+      <c r="N19" s="164"/>
+      <c r="O19" s="164"/>
+      <c r="P19" s="164"/>
+      <c r="Q19" s="164"/>
+      <c r="R19" s="164"/>
+      <c r="S19" s="164"/>
+      <c r="T19" s="164"/>
+      <c r="U19" s="164"/>
+      <c r="V19" s="164"/>
+      <c r="W19" s="164"/>
+      <c r="X19" s="164"/>
+      <c r="Y19" s="164"/>
+      <c r="Z19" s="164"/>
+      <c r="AA19" s="164"/>
+      <c r="AB19" s="164"/>
+      <c r="AC19" s="164"/>
+      <c r="AD19" s="164"/>
+      <c r="AE19" s="164"/>
+      <c r="AF19" s="164"/>
+      <c r="AG19" s="164"/>
+      <c r="AH19" s="164"/>
+      <c r="AI19" s="164"/>
+      <c r="AJ19" s="164"/>
+      <c r="AK19" s="164"/>
+      <c r="AL19" s="164"/>
       <c r="AM19" s="41"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C20" s="40"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="172"/>
-      <c r="K20" s="172"/>
-      <c r="L20" s="172"/>
-      <c r="M20" s="172"/>
-      <c r="N20" s="172"/>
-      <c r="O20" s="172"/>
-      <c r="P20" s="172"/>
-      <c r="Q20" s="172"/>
-      <c r="R20" s="172"/>
-      <c r="S20" s="172"/>
-      <c r="T20" s="172"/>
-      <c r="U20" s="172"/>
-      <c r="V20" s="172"/>
-      <c r="W20" s="172"/>
-      <c r="X20" s="172"/>
-      <c r="Y20" s="172"/>
-      <c r="Z20" s="172"/>
-      <c r="AA20" s="172"/>
-      <c r="AB20" s="172"/>
-      <c r="AC20" s="172"/>
-      <c r="AD20" s="172"/>
-      <c r="AE20" s="172"/>
-      <c r="AF20" s="172"/>
-      <c r="AG20" s="172"/>
-      <c r="AH20" s="172"/>
-      <c r="AI20" s="172"/>
-      <c r="AJ20" s="172"/>
-      <c r="AK20" s="172"/>
-      <c r="AL20" s="172"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="164"/>
+      <c r="M20" s="164"/>
+      <c r="N20" s="164"/>
+      <c r="O20" s="164"/>
+      <c r="P20" s="164"/>
+      <c r="Q20" s="164"/>
+      <c r="R20" s="164"/>
+      <c r="S20" s="164"/>
+      <c r="T20" s="164"/>
+      <c r="U20" s="164"/>
+      <c r="V20" s="164"/>
+      <c r="W20" s="164"/>
+      <c r="X20" s="164"/>
+      <c r="Y20" s="164"/>
+      <c r="Z20" s="164"/>
+      <c r="AA20" s="164"/>
+      <c r="AB20" s="164"/>
+      <c r="AC20" s="164"/>
+      <c r="AD20" s="164"/>
+      <c r="AE20" s="164"/>
+      <c r="AF20" s="164"/>
+      <c r="AG20" s="164"/>
+      <c r="AH20" s="164"/>
+      <c r="AI20" s="164"/>
+      <c r="AJ20" s="164"/>
+      <c r="AK20" s="164"/>
+      <c r="AL20" s="164"/>
       <c r="AM20" s="41"/>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C21" s="40"/>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="172"/>
-      <c r="K21" s="172"/>
-      <c r="L21" s="172"/>
-      <c r="M21" s="172"/>
-      <c r="N21" s="172"/>
-      <c r="O21" s="172"/>
-      <c r="P21" s="172"/>
-      <c r="Q21" s="172"/>
-      <c r="R21" s="172"/>
-      <c r="S21" s="172"/>
-      <c r="T21" s="172"/>
-      <c r="U21" s="172"/>
-      <c r="V21" s="172"/>
-      <c r="W21" s="172"/>
-      <c r="X21" s="172"/>
-      <c r="Y21" s="172"/>
-      <c r="Z21" s="172"/>
-      <c r="AA21" s="172"/>
-      <c r="AB21" s="172"/>
-      <c r="AC21" s="172"/>
-      <c r="AD21" s="172"/>
-      <c r="AE21" s="172"/>
-      <c r="AF21" s="172"/>
-      <c r="AG21" s="172"/>
-      <c r="AH21" s="172"/>
-      <c r="AI21" s="172"/>
-      <c r="AJ21" s="172"/>
-      <c r="AK21" s="172"/>
-      <c r="AL21" s="172"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="164"/>
+      <c r="L21" s="164"/>
+      <c r="M21" s="164"/>
+      <c r="N21" s="164"/>
+      <c r="O21" s="164"/>
+      <c r="P21" s="164"/>
+      <c r="Q21" s="164"/>
+      <c r="R21" s="164"/>
+      <c r="S21" s="164"/>
+      <c r="T21" s="164"/>
+      <c r="U21" s="164"/>
+      <c r="V21" s="164"/>
+      <c r="W21" s="164"/>
+      <c r="X21" s="164"/>
+      <c r="Y21" s="164"/>
+      <c r="Z21" s="164"/>
+      <c r="AA21" s="164"/>
+      <c r="AB21" s="164"/>
+      <c r="AC21" s="164"/>
+      <c r="AD21" s="164"/>
+      <c r="AE21" s="164"/>
+      <c r="AF21" s="164"/>
+      <c r="AG21" s="164"/>
+      <c r="AH21" s="164"/>
+      <c r="AI21" s="164"/>
+      <c r="AJ21" s="164"/>
+      <c r="AK21" s="164"/>
+      <c r="AL21" s="164"/>
       <c r="AM21" s="41"/>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C22" s="40"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="172"/>
-      <c r="K22" s="172"/>
-      <c r="L22" s="172"/>
-      <c r="M22" s="172"/>
-      <c r="N22" s="172"/>
-      <c r="O22" s="172"/>
-      <c r="P22" s="172"/>
-      <c r="Q22" s="172"/>
-      <c r="R22" s="172"/>
-      <c r="S22" s="172"/>
-      <c r="T22" s="172"/>
-      <c r="U22" s="172"/>
-      <c r="V22" s="172"/>
-      <c r="W22" s="172"/>
-      <c r="X22" s="172"/>
-      <c r="Y22" s="172"/>
-      <c r="Z22" s="172"/>
-      <c r="AA22" s="172"/>
-      <c r="AB22" s="172"/>
-      <c r="AC22" s="172"/>
-      <c r="AD22" s="172"/>
-      <c r="AE22" s="172"/>
-      <c r="AF22" s="172"/>
-      <c r="AG22" s="172"/>
-      <c r="AH22" s="172"/>
-      <c r="AI22" s="172"/>
-      <c r="AJ22" s="172"/>
-      <c r="AK22" s="172"/>
-      <c r="AL22" s="172"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="164"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="164"/>
+      <c r="O22" s="164"/>
+      <c r="P22" s="164"/>
+      <c r="Q22" s="164"/>
+      <c r="R22" s="164"/>
+      <c r="S22" s="164"/>
+      <c r="T22" s="164"/>
+      <c r="U22" s="164"/>
+      <c r="V22" s="164"/>
+      <c r="W22" s="164"/>
+      <c r="X22" s="164"/>
+      <c r="Y22" s="164"/>
+      <c r="Z22" s="164"/>
+      <c r="AA22" s="164"/>
+      <c r="AB22" s="164"/>
+      <c r="AC22" s="164"/>
+      <c r="AD22" s="164"/>
+      <c r="AE22" s="164"/>
+      <c r="AF22" s="164"/>
+      <c r="AG22" s="164"/>
+      <c r="AH22" s="164"/>
+      <c r="AI22" s="164"/>
+      <c r="AJ22" s="164"/>
+      <c r="AK22" s="164"/>
+      <c r="AL22" s="164"/>
       <c r="AM22" s="41"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="40"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="172"/>
-      <c r="K23" s="172"/>
-      <c r="L23" s="172"/>
-      <c r="M23" s="172"/>
-      <c r="N23" s="172"/>
-      <c r="O23" s="172"/>
-      <c r="P23" s="172"/>
-      <c r="Q23" s="172"/>
-      <c r="R23" s="172"/>
-      <c r="S23" s="172"/>
-      <c r="T23" s="172"/>
-      <c r="U23" s="172"/>
-      <c r="V23" s="172"/>
-      <c r="W23" s="172"/>
-      <c r="X23" s="172"/>
-      <c r="Y23" s="172"/>
-      <c r="Z23" s="172"/>
-      <c r="AA23" s="172"/>
-      <c r="AB23" s="172"/>
-      <c r="AC23" s="172"/>
-      <c r="AD23" s="172"/>
-      <c r="AE23" s="172"/>
-      <c r="AF23" s="172"/>
-      <c r="AG23" s="172"/>
-      <c r="AH23" s="172"/>
-      <c r="AI23" s="172"/>
-      <c r="AJ23" s="172"/>
-      <c r="AK23" s="172"/>
-      <c r="AL23" s="172"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="164"/>
+      <c r="L23" s="164"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="164"/>
+      <c r="O23" s="164"/>
+      <c r="P23" s="164"/>
+      <c r="Q23" s="164"/>
+      <c r="R23" s="164"/>
+      <c r="S23" s="164"/>
+      <c r="T23" s="164"/>
+      <c r="U23" s="164"/>
+      <c r="V23" s="164"/>
+      <c r="W23" s="164"/>
+      <c r="X23" s="164"/>
+      <c r="Y23" s="164"/>
+      <c r="Z23" s="164"/>
+      <c r="AA23" s="164"/>
+      <c r="AB23" s="164"/>
+      <c r="AC23" s="164"/>
+      <c r="AD23" s="164"/>
+      <c r="AE23" s="164"/>
+      <c r="AF23" s="164"/>
+      <c r="AG23" s="164"/>
+      <c r="AH23" s="164"/>
+      <c r="AI23" s="164"/>
+      <c r="AJ23" s="164"/>
+      <c r="AK23" s="164"/>
+      <c r="AL23" s="164"/>
       <c r="AM23" s="41"/>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="40"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="172"/>
-      <c r="K24" s="172"/>
-      <c r="L24" s="172"/>
-      <c r="M24" s="172"/>
-      <c r="N24" s="172"/>
-      <c r="O24" s="172"/>
-      <c r="P24" s="172"/>
-      <c r="Q24" s="172"/>
-      <c r="R24" s="172"/>
-      <c r="S24" s="172"/>
-      <c r="T24" s="172"/>
-      <c r="U24" s="172"/>
-      <c r="V24" s="172"/>
-      <c r="W24" s="172"/>
-      <c r="X24" s="172"/>
-      <c r="Y24" s="172"/>
-      <c r="Z24" s="172"/>
-      <c r="AA24" s="172"/>
-      <c r="AB24" s="172"/>
-      <c r="AC24" s="172"/>
-      <c r="AD24" s="172"/>
-      <c r="AE24" s="172"/>
-      <c r="AF24" s="172"/>
-      <c r="AG24" s="172"/>
-      <c r="AH24" s="172"/>
-      <c r="AI24" s="172"/>
-      <c r="AJ24" s="172"/>
-      <c r="AK24" s="172"/>
-      <c r="AL24" s="172"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="164"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="164"/>
+      <c r="O24" s="164"/>
+      <c r="P24" s="164"/>
+      <c r="Q24" s="164"/>
+      <c r="R24" s="164"/>
+      <c r="S24" s="164"/>
+      <c r="T24" s="164"/>
+      <c r="U24" s="164"/>
+      <c r="V24" s="164"/>
+      <c r="W24" s="164"/>
+      <c r="X24" s="164"/>
+      <c r="Y24" s="164"/>
+      <c r="Z24" s="164"/>
+      <c r="AA24" s="164"/>
+      <c r="AB24" s="164"/>
+      <c r="AC24" s="164"/>
+      <c r="AD24" s="164"/>
+      <c r="AE24" s="164"/>
+      <c r="AF24" s="164"/>
+      <c r="AG24" s="164"/>
+      <c r="AH24" s="164"/>
+      <c r="AI24" s="164"/>
+      <c r="AJ24" s="164"/>
+      <c r="AK24" s="164"/>
+      <c r="AL24" s="164"/>
       <c r="AM24" s="41"/>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="40"/>
-      <c r="D25" s="172"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="172"/>
-      <c r="K25" s="172"/>
-      <c r="L25" s="172"/>
-      <c r="M25" s="172"/>
-      <c r="N25" s="172"/>
-      <c r="O25" s="172"/>
-      <c r="P25" s="172"/>
-      <c r="Q25" s="172"/>
-      <c r="R25" s="172"/>
-      <c r="S25" s="172"/>
-      <c r="T25" s="172"/>
-      <c r="U25" s="172"/>
-      <c r="V25" s="172"/>
-      <c r="W25" s="172"/>
-      <c r="X25" s="172"/>
-      <c r="Y25" s="172"/>
-      <c r="Z25" s="172"/>
-      <c r="AA25" s="172"/>
-      <c r="AB25" s="172"/>
-      <c r="AC25" s="172"/>
-      <c r="AD25" s="172"/>
-      <c r="AE25" s="172"/>
-      <c r="AF25" s="172"/>
-      <c r="AG25" s="172"/>
-      <c r="AH25" s="172"/>
-      <c r="AI25" s="172"/>
-      <c r="AJ25" s="172"/>
-      <c r="AK25" s="172"/>
-      <c r="AL25" s="172"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="164"/>
+      <c r="M25" s="164"/>
+      <c r="N25" s="164"/>
+      <c r="O25" s="164"/>
+      <c r="P25" s="164"/>
+      <c r="Q25" s="164"/>
+      <c r="R25" s="164"/>
+      <c r="S25" s="164"/>
+      <c r="T25" s="164"/>
+      <c r="U25" s="164"/>
+      <c r="V25" s="164"/>
+      <c r="W25" s="164"/>
+      <c r="X25" s="164"/>
+      <c r="Y25" s="164"/>
+      <c r="Z25" s="164"/>
+      <c r="AA25" s="164"/>
+      <c r="AB25" s="164"/>
+      <c r="AC25" s="164"/>
+      <c r="AD25" s="164"/>
+      <c r="AE25" s="164"/>
+      <c r="AF25" s="164"/>
+      <c r="AG25" s="164"/>
+      <c r="AH25" s="164"/>
+      <c r="AI25" s="164"/>
+      <c r="AJ25" s="164"/>
+      <c r="AK25" s="164"/>
+      <c r="AL25" s="164"/>
       <c r="AM25" s="41"/>
     </row>
     <row r="26" customFormat="false" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12394,7 +12362,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:AM54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13980,7 +13948,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="C1:AM54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14895,240 +14863,240 @@
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="40"/>
-      <c r="D23" s="173" t="str">
+      <c r="D23" s="165" t="str">
         <f aca="false">CHAR(10)&amp;IF(ISBLANK(Титульный!B8),"8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».",IFERROR(IF(OR(LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилое помещение",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилой дом",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Многоквартирный дом"),"8. ВСН 53-86(р) «Правила оценки физического износа зданий»;"&amp;CHAR(10)&amp;"9. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».","8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов»."),"8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов»."))</f>
         <v>
 8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».</v>
       </c>
-      <c r="E23" s="173"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="173"/>
-      <c r="K23" s="173"/>
-      <c r="L23" s="173"/>
-      <c r="M23" s="173"/>
-      <c r="N23" s="173"/>
-      <c r="O23" s="173"/>
-      <c r="P23" s="173"/>
-      <c r="Q23" s="173"/>
-      <c r="R23" s="173"/>
-      <c r="S23" s="173"/>
-      <c r="T23" s="173"/>
-      <c r="U23" s="173"/>
-      <c r="V23" s="173"/>
-      <c r="W23" s="173"/>
-      <c r="X23" s="173"/>
-      <c r="Y23" s="173"/>
-      <c r="Z23" s="173"/>
-      <c r="AA23" s="173"/>
-      <c r="AB23" s="173"/>
-      <c r="AC23" s="173"/>
-      <c r="AD23" s="173"/>
-      <c r="AE23" s="173"/>
-      <c r="AF23" s="173"/>
-      <c r="AG23" s="173"/>
-      <c r="AH23" s="173"/>
-      <c r="AI23" s="173"/>
-      <c r="AJ23" s="173"/>
-      <c r="AK23" s="173"/>
-      <c r="AL23" s="173"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="165"/>
+      <c r="O23" s="165"/>
+      <c r="P23" s="165"/>
+      <c r="Q23" s="165"/>
+      <c r="R23" s="165"/>
+      <c r="S23" s="165"/>
+      <c r="T23" s="165"/>
+      <c r="U23" s="165"/>
+      <c r="V23" s="165"/>
+      <c r="W23" s="165"/>
+      <c r="X23" s="165"/>
+      <c r="Y23" s="165"/>
+      <c r="Z23" s="165"/>
+      <c r="AA23" s="165"/>
+      <c r="AB23" s="165"/>
+      <c r="AC23" s="165"/>
+      <c r="AD23" s="165"/>
+      <c r="AE23" s="165"/>
+      <c r="AF23" s="165"/>
+      <c r="AG23" s="165"/>
+      <c r="AH23" s="165"/>
+      <c r="AI23" s="165"/>
+      <c r="AJ23" s="165"/>
+      <c r="AK23" s="165"/>
+      <c r="AL23" s="165"/>
       <c r="AM23" s="41"/>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="40"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="173"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="173"/>
-      <c r="M24" s="173"/>
-      <c r="N24" s="173"/>
-      <c r="O24" s="173"/>
-      <c r="P24" s="173"/>
-      <c r="Q24" s="173"/>
-      <c r="R24" s="173"/>
-      <c r="S24" s="173"/>
-      <c r="T24" s="173"/>
-      <c r="U24" s="173"/>
-      <c r="V24" s="173"/>
-      <c r="W24" s="173"/>
-      <c r="X24" s="173"/>
-      <c r="Y24" s="173"/>
-      <c r="Z24" s="173"/>
-      <c r="AA24" s="173"/>
-      <c r="AB24" s="173"/>
-      <c r="AC24" s="173"/>
-      <c r="AD24" s="173"/>
-      <c r="AE24" s="173"/>
-      <c r="AF24" s="173"/>
-      <c r="AG24" s="173"/>
-      <c r="AH24" s="173"/>
-      <c r="AI24" s="173"/>
-      <c r="AJ24" s="173"/>
-      <c r="AK24" s="173"/>
-      <c r="AL24" s="173"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="165"/>
+      <c r="L24" s="165"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="165"/>
+      <c r="O24" s="165"/>
+      <c r="P24" s="165"/>
+      <c r="Q24" s="165"/>
+      <c r="R24" s="165"/>
+      <c r="S24" s="165"/>
+      <c r="T24" s="165"/>
+      <c r="U24" s="165"/>
+      <c r="V24" s="165"/>
+      <c r="W24" s="165"/>
+      <c r="X24" s="165"/>
+      <c r="Y24" s="165"/>
+      <c r="Z24" s="165"/>
+      <c r="AA24" s="165"/>
+      <c r="AB24" s="165"/>
+      <c r="AC24" s="165"/>
+      <c r="AD24" s="165"/>
+      <c r="AE24" s="165"/>
+      <c r="AF24" s="165"/>
+      <c r="AG24" s="165"/>
+      <c r="AH24" s="165"/>
+      <c r="AI24" s="165"/>
+      <c r="AJ24" s="165"/>
+      <c r="AK24" s="165"/>
+      <c r="AL24" s="165"/>
       <c r="AM24" s="41"/>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="40"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="173"/>
-      <c r="K25" s="173"/>
-      <c r="L25" s="173"/>
-      <c r="M25" s="173"/>
-      <c r="N25" s="173"/>
-      <c r="O25" s="173"/>
-      <c r="P25" s="173"/>
-      <c r="Q25" s="173"/>
-      <c r="R25" s="173"/>
-      <c r="S25" s="173"/>
-      <c r="T25" s="173"/>
-      <c r="U25" s="173"/>
-      <c r="V25" s="173"/>
-      <c r="W25" s="173"/>
-      <c r="X25" s="173"/>
-      <c r="Y25" s="173"/>
-      <c r="Z25" s="173"/>
-      <c r="AA25" s="173"/>
-      <c r="AB25" s="173"/>
-      <c r="AC25" s="173"/>
-      <c r="AD25" s="173"/>
-      <c r="AE25" s="173"/>
-      <c r="AF25" s="173"/>
-      <c r="AG25" s="173"/>
-      <c r="AH25" s="173"/>
-      <c r="AI25" s="173"/>
-      <c r="AJ25" s="173"/>
-      <c r="AK25" s="173"/>
-      <c r="AL25" s="173"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="165"/>
+      <c r="O25" s="165"/>
+      <c r="P25" s="165"/>
+      <c r="Q25" s="165"/>
+      <c r="R25" s="165"/>
+      <c r="S25" s="165"/>
+      <c r="T25" s="165"/>
+      <c r="U25" s="165"/>
+      <c r="V25" s="165"/>
+      <c r="W25" s="165"/>
+      <c r="X25" s="165"/>
+      <c r="Y25" s="165"/>
+      <c r="Z25" s="165"/>
+      <c r="AA25" s="165"/>
+      <c r="AB25" s="165"/>
+      <c r="AC25" s="165"/>
+      <c r="AD25" s="165"/>
+      <c r="AE25" s="165"/>
+      <c r="AF25" s="165"/>
+      <c r="AG25" s="165"/>
+      <c r="AH25" s="165"/>
+      <c r="AI25" s="165"/>
+      <c r="AJ25" s="165"/>
+      <c r="AK25" s="165"/>
+      <c r="AL25" s="165"/>
       <c r="AM25" s="41"/>
     </row>
     <row r="26" customFormat="false" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="40"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="173"/>
-      <c r="K26" s="173"/>
-      <c r="L26" s="173"/>
-      <c r="M26" s="173"/>
-      <c r="N26" s="173"/>
-      <c r="O26" s="173"/>
-      <c r="P26" s="173"/>
-      <c r="Q26" s="173"/>
-      <c r="R26" s="173"/>
-      <c r="S26" s="173"/>
-      <c r="T26" s="173"/>
-      <c r="U26" s="173"/>
-      <c r="V26" s="173"/>
-      <c r="W26" s="173"/>
-      <c r="X26" s="173"/>
-      <c r="Y26" s="173"/>
-      <c r="Z26" s="173"/>
-      <c r="AA26" s="173"/>
-      <c r="AB26" s="173"/>
-      <c r="AC26" s="173"/>
-      <c r="AD26" s="173"/>
-      <c r="AE26" s="173"/>
-      <c r="AF26" s="173"/>
-      <c r="AG26" s="173"/>
-      <c r="AH26" s="173"/>
-      <c r="AI26" s="173"/>
-      <c r="AJ26" s="173"/>
-      <c r="AK26" s="173"/>
-      <c r="AL26" s="173"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="165"/>
+      <c r="L26" s="165"/>
+      <c r="M26" s="165"/>
+      <c r="N26" s="165"/>
+      <c r="O26" s="165"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="165"/>
+      <c r="R26" s="165"/>
+      <c r="S26" s="165"/>
+      <c r="T26" s="165"/>
+      <c r="U26" s="165"/>
+      <c r="V26" s="165"/>
+      <c r="W26" s="165"/>
+      <c r="X26" s="165"/>
+      <c r="Y26" s="165"/>
+      <c r="Z26" s="165"/>
+      <c r="AA26" s="165"/>
+      <c r="AB26" s="165"/>
+      <c r="AC26" s="165"/>
+      <c r="AD26" s="165"/>
+      <c r="AE26" s="165"/>
+      <c r="AF26" s="165"/>
+      <c r="AG26" s="165"/>
+      <c r="AH26" s="165"/>
+      <c r="AI26" s="165"/>
+      <c r="AJ26" s="165"/>
+      <c r="AK26" s="165"/>
+      <c r="AL26" s="165"/>
       <c r="AM26" s="41"/>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="40"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="173"/>
-      <c r="K27" s="173"/>
-      <c r="L27" s="173"/>
-      <c r="M27" s="173"/>
-      <c r="N27" s="173"/>
-      <c r="O27" s="173"/>
-      <c r="P27" s="173"/>
-      <c r="Q27" s="173"/>
-      <c r="R27" s="173"/>
-      <c r="S27" s="173"/>
-      <c r="T27" s="173"/>
-      <c r="U27" s="173"/>
-      <c r="V27" s="173"/>
-      <c r="W27" s="173"/>
-      <c r="X27" s="173"/>
-      <c r="Y27" s="173"/>
-      <c r="Z27" s="173"/>
-      <c r="AA27" s="173"/>
-      <c r="AB27" s="173"/>
-      <c r="AC27" s="173"/>
-      <c r="AD27" s="173"/>
-      <c r="AE27" s="173"/>
-      <c r="AF27" s="173"/>
-      <c r="AG27" s="173"/>
-      <c r="AH27" s="173"/>
-      <c r="AI27" s="173"/>
-      <c r="AJ27" s="173"/>
-      <c r="AK27" s="173"/>
-      <c r="AL27" s="173"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="165"/>
+      <c r="L27" s="165"/>
+      <c r="M27" s="165"/>
+      <c r="N27" s="165"/>
+      <c r="O27" s="165"/>
+      <c r="P27" s="165"/>
+      <c r="Q27" s="165"/>
+      <c r="R27" s="165"/>
+      <c r="S27" s="165"/>
+      <c r="T27" s="165"/>
+      <c r="U27" s="165"/>
+      <c r="V27" s="165"/>
+      <c r="W27" s="165"/>
+      <c r="X27" s="165"/>
+      <c r="Y27" s="165"/>
+      <c r="Z27" s="165"/>
+      <c r="AA27" s="165"/>
+      <c r="AB27" s="165"/>
+      <c r="AC27" s="165"/>
+      <c r="AD27" s="165"/>
+      <c r="AE27" s="165"/>
+      <c r="AF27" s="165"/>
+      <c r="AG27" s="165"/>
+      <c r="AH27" s="165"/>
+      <c r="AI27" s="165"/>
+      <c r="AJ27" s="165"/>
+      <c r="AK27" s="165"/>
+      <c r="AL27" s="165"/>
       <c r="AM27" s="41"/>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="40"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="173"/>
-      <c r="L28" s="173"/>
-      <c r="M28" s="173"/>
-      <c r="N28" s="173"/>
-      <c r="O28" s="173"/>
-      <c r="P28" s="173"/>
-      <c r="Q28" s="173"/>
-      <c r="R28" s="173"/>
-      <c r="S28" s="173"/>
-      <c r="T28" s="173"/>
-      <c r="U28" s="173"/>
-      <c r="V28" s="173"/>
-      <c r="W28" s="173"/>
-      <c r="X28" s="173"/>
-      <c r="Y28" s="173"/>
-      <c r="Z28" s="173"/>
-      <c r="AA28" s="173"/>
-      <c r="AB28" s="173"/>
-      <c r="AC28" s="173"/>
-      <c r="AD28" s="173"/>
-      <c r="AE28" s="173"/>
-      <c r="AF28" s="173"/>
-      <c r="AG28" s="173"/>
-      <c r="AH28" s="173"/>
-      <c r="AI28" s="173"/>
-      <c r="AJ28" s="173"/>
-      <c r="AK28" s="173"/>
-      <c r="AL28" s="173"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="165"/>
+      <c r="L28" s="165"/>
+      <c r="M28" s="165"/>
+      <c r="N28" s="165"/>
+      <c r="O28" s="165"/>
+      <c r="P28" s="165"/>
+      <c r="Q28" s="165"/>
+      <c r="R28" s="165"/>
+      <c r="S28" s="165"/>
+      <c r="T28" s="165"/>
+      <c r="U28" s="165"/>
+      <c r="V28" s="165"/>
+      <c r="W28" s="165"/>
+      <c r="X28" s="165"/>
+      <c r="Y28" s="165"/>
+      <c r="Z28" s="165"/>
+      <c r="AA28" s="165"/>
+      <c r="AB28" s="165"/>
+      <c r="AC28" s="165"/>
+      <c r="AD28" s="165"/>
+      <c r="AE28" s="165"/>
+      <c r="AF28" s="165"/>
+      <c r="AG28" s="165"/>
+      <c r="AH28" s="165"/>
+      <c r="AI28" s="165"/>
+      <c r="AJ28" s="165"/>
+      <c r="AK28" s="165"/>
+      <c r="AL28" s="165"/>
       <c r="AM28" s="41"/>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15137,164 +15105,164 @@
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="40"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="173"/>
-      <c r="K29" s="173"/>
-      <c r="L29" s="173"/>
-      <c r="M29" s="173"/>
-      <c r="N29" s="173"/>
-      <c r="O29" s="173"/>
-      <c r="P29" s="173"/>
-      <c r="Q29" s="173"/>
-      <c r="R29" s="173"/>
-      <c r="S29" s="173"/>
-      <c r="T29" s="173"/>
-      <c r="U29" s="173"/>
-      <c r="V29" s="173"/>
-      <c r="W29" s="173"/>
-      <c r="X29" s="173"/>
-      <c r="Y29" s="173"/>
-      <c r="Z29" s="173"/>
-      <c r="AA29" s="173"/>
-      <c r="AB29" s="173"/>
-      <c r="AC29" s="173"/>
-      <c r="AD29" s="173"/>
-      <c r="AE29" s="173"/>
-      <c r="AF29" s="173"/>
-      <c r="AG29" s="173"/>
-      <c r="AH29" s="173"/>
-      <c r="AI29" s="173"/>
-      <c r="AJ29" s="173"/>
-      <c r="AK29" s="173"/>
-      <c r="AL29" s="173"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="165"/>
+      <c r="N29" s="165"/>
+      <c r="O29" s="165"/>
+      <c r="P29" s="165"/>
+      <c r="Q29" s="165"/>
+      <c r="R29" s="165"/>
+      <c r="S29" s="165"/>
+      <c r="T29" s="165"/>
+      <c r="U29" s="165"/>
+      <c r="V29" s="165"/>
+      <c r="W29" s="165"/>
+      <c r="X29" s="165"/>
+      <c r="Y29" s="165"/>
+      <c r="Z29" s="165"/>
+      <c r="AA29" s="165"/>
+      <c r="AB29" s="165"/>
+      <c r="AC29" s="165"/>
+      <c r="AD29" s="165"/>
+      <c r="AE29" s="165"/>
+      <c r="AF29" s="165"/>
+      <c r="AG29" s="165"/>
+      <c r="AH29" s="165"/>
+      <c r="AI29" s="165"/>
+      <c r="AJ29" s="165"/>
+      <c r="AK29" s="165"/>
+      <c r="AL29" s="165"/>
       <c r="AM29" s="41"/>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
       <c r="C30" s="40"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="173"/>
-      <c r="K30" s="173"/>
-      <c r="L30" s="173"/>
-      <c r="M30" s="173"/>
-      <c r="N30" s="173"/>
-      <c r="O30" s="173"/>
-      <c r="P30" s="173"/>
-      <c r="Q30" s="173"/>
-      <c r="R30" s="173"/>
-      <c r="S30" s="173"/>
-      <c r="T30" s="173"/>
-      <c r="U30" s="173"/>
-      <c r="V30" s="173"/>
-      <c r="W30" s="173"/>
-      <c r="X30" s="173"/>
-      <c r="Y30" s="173"/>
-      <c r="Z30" s="173"/>
-      <c r="AA30" s="173"/>
-      <c r="AB30" s="173"/>
-      <c r="AC30" s="173"/>
-      <c r="AD30" s="173"/>
-      <c r="AE30" s="173"/>
-      <c r="AF30" s="173"/>
-      <c r="AG30" s="173"/>
-      <c r="AH30" s="173"/>
-      <c r="AI30" s="173"/>
-      <c r="AJ30" s="173"/>
-      <c r="AK30" s="173"/>
-      <c r="AL30" s="173"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="165"/>
+      <c r="L30" s="165"/>
+      <c r="M30" s="165"/>
+      <c r="N30" s="165"/>
+      <c r="O30" s="165"/>
+      <c r="P30" s="165"/>
+      <c r="Q30" s="165"/>
+      <c r="R30" s="165"/>
+      <c r="S30" s="165"/>
+      <c r="T30" s="165"/>
+      <c r="U30" s="165"/>
+      <c r="V30" s="165"/>
+      <c r="W30" s="165"/>
+      <c r="X30" s="165"/>
+      <c r="Y30" s="165"/>
+      <c r="Z30" s="165"/>
+      <c r="AA30" s="165"/>
+      <c r="AB30" s="165"/>
+      <c r="AC30" s="165"/>
+      <c r="AD30" s="165"/>
+      <c r="AE30" s="165"/>
+      <c r="AF30" s="165"/>
+      <c r="AG30" s="165"/>
+      <c r="AH30" s="165"/>
+      <c r="AI30" s="165"/>
+      <c r="AJ30" s="165"/>
+      <c r="AK30" s="165"/>
+      <c r="AL30" s="165"/>
       <c r="AM30" s="41"/>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
       <c r="C31" s="40"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="173"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="173"/>
-      <c r="I31" s="173"/>
-      <c r="J31" s="173"/>
-      <c r="K31" s="173"/>
-      <c r="L31" s="173"/>
-      <c r="M31" s="173"/>
-      <c r="N31" s="173"/>
-      <c r="O31" s="173"/>
-      <c r="P31" s="173"/>
-      <c r="Q31" s="173"/>
-      <c r="R31" s="173"/>
-      <c r="S31" s="173"/>
-      <c r="T31" s="173"/>
-      <c r="U31" s="173"/>
-      <c r="V31" s="173"/>
-      <c r="W31" s="173"/>
-      <c r="X31" s="173"/>
-      <c r="Y31" s="173"/>
-      <c r="Z31" s="173"/>
-      <c r="AA31" s="173"/>
-      <c r="AB31" s="173"/>
-      <c r="AC31" s="173"/>
-      <c r="AD31" s="173"/>
-      <c r="AE31" s="173"/>
-      <c r="AF31" s="173"/>
-      <c r="AG31" s="173"/>
-      <c r="AH31" s="173"/>
-      <c r="AI31" s="173"/>
-      <c r="AJ31" s="173"/>
-      <c r="AK31" s="173"/>
-      <c r="AL31" s="173"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="165"/>
+      <c r="L31" s="165"/>
+      <c r="M31" s="165"/>
+      <c r="N31" s="165"/>
+      <c r="O31" s="165"/>
+      <c r="P31" s="165"/>
+      <c r="Q31" s="165"/>
+      <c r="R31" s="165"/>
+      <c r="S31" s="165"/>
+      <c r="T31" s="165"/>
+      <c r="U31" s="165"/>
+      <c r="V31" s="165"/>
+      <c r="W31" s="165"/>
+      <c r="X31" s="165"/>
+      <c r="Y31" s="165"/>
+      <c r="Z31" s="165"/>
+      <c r="AA31" s="165"/>
+      <c r="AB31" s="165"/>
+      <c r="AC31" s="165"/>
+      <c r="AD31" s="165"/>
+      <c r="AE31" s="165"/>
+      <c r="AF31" s="165"/>
+      <c r="AG31" s="165"/>
+      <c r="AH31" s="165"/>
+      <c r="AI31" s="165"/>
+      <c r="AJ31" s="165"/>
+      <c r="AK31" s="165"/>
+      <c r="AL31" s="165"/>
       <c r="AM31" s="41"/>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
       <c r="C32" s="40"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="173"/>
-      <c r="K32" s="173"/>
-      <c r="L32" s="173"/>
-      <c r="M32" s="173"/>
-      <c r="N32" s="173"/>
-      <c r="O32" s="173"/>
-      <c r="P32" s="173"/>
-      <c r="Q32" s="173"/>
-      <c r="R32" s="173"/>
-      <c r="S32" s="173"/>
-      <c r="T32" s="173"/>
-      <c r="U32" s="173"/>
-      <c r="V32" s="173"/>
-      <c r="W32" s="173"/>
-      <c r="X32" s="173"/>
-      <c r="Y32" s="173"/>
-      <c r="Z32" s="173"/>
-      <c r="AA32" s="173"/>
-      <c r="AB32" s="173"/>
-      <c r="AC32" s="173"/>
-      <c r="AD32" s="173"/>
-      <c r="AE32" s="173"/>
-      <c r="AF32" s="173"/>
-      <c r="AG32" s="173"/>
-      <c r="AH32" s="173"/>
-      <c r="AI32" s="173"/>
-      <c r="AJ32" s="173"/>
-      <c r="AK32" s="173"/>
-      <c r="AL32" s="173"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="165"/>
+      <c r="L32" s="165"/>
+      <c r="M32" s="165"/>
+      <c r="N32" s="165"/>
+      <c r="O32" s="165"/>
+      <c r="P32" s="165"/>
+      <c r="Q32" s="165"/>
+      <c r="R32" s="165"/>
+      <c r="S32" s="165"/>
+      <c r="T32" s="165"/>
+      <c r="U32" s="165"/>
+      <c r="V32" s="165"/>
+      <c r="W32" s="165"/>
+      <c r="X32" s="165"/>
+      <c r="Y32" s="165"/>
+      <c r="Z32" s="165"/>
+      <c r="AA32" s="165"/>
+      <c r="AB32" s="165"/>
+      <c r="AC32" s="165"/>
+      <c r="AD32" s="165"/>
+      <c r="AE32" s="165"/>
+      <c r="AF32" s="165"/>
+      <c r="AG32" s="165"/>
+      <c r="AH32" s="165"/>
+      <c r="AI32" s="165"/>
+      <c r="AJ32" s="165"/>
+      <c r="AK32" s="165"/>
+      <c r="AL32" s="165"/>
       <c r="AM32" s="41"/>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16404,7 +16372,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK56" activeCellId="0" sqref="AK56"/>
+      <selection pane="topLeft" activeCell="AK56" activeCellId="1" sqref="C1:AM54 AK56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17986,7 +17954,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="C1:AM54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19634,7 +19602,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C1:AM54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22107,8 +22075,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C1:AM54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23780,7 +23748,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CL1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C1:AM54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26231,7 +26199,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AQ2" activeCellId="0" sqref="AQ2"/>
+      <selection pane="topLeft" activeCell="AQ2" activeCellId="1" sqref="C1:AM54 AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28702,7 +28670,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
+      <selection pane="topLeft" activeCell="P56" activeCellId="1" sqref="C1:AM54 P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31122,7 +31090,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="C1:AM54 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33612,7 +33580,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW13" activeCellId="0" sqref="AW13"/>
+      <selection pane="topLeft" activeCell="AW13" activeCellId="1" sqref="C1:AM54 AW13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/static/report.xlsx
+++ b/backend/static/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -637,7 +637,7 @@
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -742,13 +742,6 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -907,7 +900,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="165">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1500,32 +1493,16 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1533,7 +1510,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1544,7 +1525,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1560,11 +1541,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1655,9 +1644,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>116640</xdr:colOff>
+      <xdr:colOff>116280</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1671,7 +1660,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="281160" y="66240"/>
-          <a:ext cx="1349280" cy="569880"/>
+          <a:ext cx="1348920" cy="569520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1698,9 +1687,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>165960</xdr:colOff>
+      <xdr:colOff>165600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1714,7 +1703,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="510120" y="81360"/>
-          <a:ext cx="1349280" cy="569880"/>
+          <a:ext cx="1348920" cy="569520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1741,9 +1730,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>116280</xdr:colOff>
+      <xdr:colOff>115920</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1757,7 +1746,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5803920" y="10002240"/>
-          <a:ext cx="678240" cy="285480"/>
+          <a:ext cx="677880" cy="285120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1887,7 +1876,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AP41" activeCellId="1" sqref="C1:AM54 AP41"/>
+      <selection pane="topLeft" activeCell="AP41" activeCellId="1" sqref="T11:Y54 AP41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3536,8 +3525,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB16" activeCellId="0" sqref="C1:AM54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T11" activeCellId="0" sqref="T11:Y54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4005,87 +3994,87 @@
       <c r="AM11" s="150"/>
     </row>
     <row r="12" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="151"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="152"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="152"/>
-      <c r="R12" s="152"/>
-      <c r="S12" s="152"/>
-      <c r="T12" s="152"/>
-      <c r="U12" s="152"/>
-      <c r="V12" s="152"/>
-      <c r="W12" s="152"/>
-      <c r="X12" s="152"/>
-      <c r="Y12" s="152"/>
-      <c r="Z12" s="152"/>
-      <c r="AA12" s="152"/>
-      <c r="AB12" s="152"/>
-      <c r="AC12" s="152"/>
-      <c r="AD12" s="152"/>
-      <c r="AE12" s="152"/>
-      <c r="AF12" s="152"/>
-      <c r="AG12" s="152"/>
-      <c r="AH12" s="152"/>
-      <c r="AI12" s="152"/>
-      <c r="AJ12" s="152"/>
-      <c r="AK12" s="152"/>
-      <c r="AL12" s="152"/>
-      <c r="AM12" s="153"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="149"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="149"/>
+      <c r="M12" s="149"/>
+      <c r="N12" s="149"/>
+      <c r="O12" s="149"/>
+      <c r="P12" s="149"/>
+      <c r="Q12" s="149"/>
+      <c r="R12" s="149"/>
+      <c r="S12" s="149"/>
+      <c r="T12" s="149"/>
+      <c r="U12" s="149"/>
+      <c r="V12" s="149"/>
+      <c r="W12" s="149"/>
+      <c r="X12" s="149"/>
+      <c r="Y12" s="149"/>
+      <c r="Z12" s="149"/>
+      <c r="AA12" s="149"/>
+      <c r="AB12" s="149"/>
+      <c r="AC12" s="149"/>
+      <c r="AD12" s="149"/>
+      <c r="AE12" s="149"/>
+      <c r="AF12" s="149"/>
+      <c r="AG12" s="149"/>
+      <c r="AH12" s="149"/>
+      <c r="AI12" s="149"/>
+      <c r="AJ12" s="149"/>
+      <c r="AK12" s="149"/>
+      <c r="AL12" s="149"/>
+      <c r="AM12" s="150"/>
     </row>
     <row r="13" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="151"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="152"/>
-      <c r="N13" s="152"/>
-      <c r="O13" s="152"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="152"/>
-      <c r="R13" s="152"/>
-      <c r="S13" s="152"/>
-      <c r="T13" s="152"/>
-      <c r="U13" s="152"/>
-      <c r="V13" s="152"/>
-      <c r="W13" s="152"/>
-      <c r="X13" s="152"/>
-      <c r="Y13" s="152"/>
-      <c r="Z13" s="152"/>
-      <c r="AA13" s="152"/>
-      <c r="AB13" s="152"/>
-      <c r="AC13" s="152"/>
-      <c r="AD13" s="152"/>
-      <c r="AE13" s="152"/>
-      <c r="AF13" s="152"/>
-      <c r="AG13" s="152"/>
-      <c r="AH13" s="152"/>
-      <c r="AI13" s="152"/>
-      <c r="AJ13" s="152"/>
-      <c r="AK13" s="152"/>
-      <c r="AL13" s="152"/>
-      <c r="AM13" s="153"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="149"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="149"/>
+      <c r="Q13" s="149"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="149"/>
+      <c r="T13" s="149"/>
+      <c r="U13" s="149"/>
+      <c r="V13" s="149"/>
+      <c r="W13" s="149"/>
+      <c r="X13" s="149"/>
+      <c r="Y13" s="149"/>
+      <c r="Z13" s="149"/>
+      <c r="AA13" s="149"/>
+      <c r="AB13" s="149"/>
+      <c r="AC13" s="149"/>
+      <c r="AD13" s="149"/>
+      <c r="AE13" s="149"/>
+      <c r="AF13" s="149"/>
+      <c r="AG13" s="149"/>
+      <c r="AH13" s="149"/>
+      <c r="AI13" s="149"/>
+      <c r="AJ13" s="149"/>
+      <c r="AK13" s="149"/>
+      <c r="AL13" s="149"/>
+      <c r="AM13" s="150"/>
     </row>
     <row r="14" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="154"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
       <c r="F14" s="70"/>
       <c r="G14" s="70"/>
       <c r="H14" s="70"/>
@@ -4100,12 +4089,12 @@
       <c r="Q14" s="70"/>
       <c r="R14" s="70"/>
       <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
       <c r="Z14" s="70"/>
       <c r="AA14" s="70"/>
       <c r="AB14" s="70"/>
@@ -4119,12 +4108,12 @@
       <c r="AJ14" s="70"/>
       <c r="AK14" s="70"/>
       <c r="AL14" s="70"/>
-      <c r="AM14" s="155"/>
+      <c r="AM14" s="151"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="154"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="70"/>
       <c r="G15" s="70"/>
       <c r="H15" s="70"/>
@@ -4139,12 +4128,12 @@
       <c r="Q15" s="70"/>
       <c r="R15" s="70"/>
       <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
       <c r="Z15" s="70"/>
       <c r="AA15" s="70"/>
       <c r="AB15" s="70"/>
@@ -4158,12 +4147,12 @@
       <c r="AJ15" s="70"/>
       <c r="AK15" s="70"/>
       <c r="AL15" s="70"/>
-      <c r="AM15" s="155"/>
+      <c r="AM15" s="151"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="154"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
       <c r="F16" s="70"/>
       <c r="G16" s="70"/>
       <c r="H16" s="70"/>
@@ -4178,12 +4167,12 @@
       <c r="Q16" s="70"/>
       <c r="R16" s="70"/>
       <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
       <c r="Z16" s="70"/>
       <c r="AA16" s="70"/>
       <c r="AB16" s="70"/>
@@ -4197,12 +4186,12 @@
       <c r="AJ16" s="70"/>
       <c r="AK16" s="70"/>
       <c r="AL16" s="70"/>
-      <c r="AM16" s="155"/>
+      <c r="AM16" s="151"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C17" s="154"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
       <c r="F17" s="70"/>
       <c r="G17" s="70"/>
       <c r="H17" s="70"/>
@@ -4217,12 +4206,12 @@
       <c r="Q17" s="70"/>
       <c r="R17" s="70"/>
       <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
       <c r="Z17" s="70"/>
       <c r="AA17" s="70"/>
       <c r="AB17" s="70"/>
@@ -4236,12 +4225,12 @@
       <c r="AJ17" s="70"/>
       <c r="AK17" s="70"/>
       <c r="AL17" s="70"/>
-      <c r="AM17" s="155"/>
+      <c r="AM17" s="151"/>
     </row>
     <row r="18" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C18" s="154"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
       <c r="F18" s="70"/>
       <c r="G18" s="70"/>
       <c r="H18" s="70"/>
@@ -4256,12 +4245,12 @@
       <c r="Q18" s="70"/>
       <c r="R18" s="70"/>
       <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
       <c r="Z18" s="70"/>
       <c r="AA18" s="70"/>
       <c r="AB18" s="70"/>
@@ -4275,12 +4264,12 @@
       <c r="AJ18" s="70"/>
       <c r="AK18" s="70"/>
       <c r="AL18" s="70"/>
-      <c r="AM18" s="155"/>
+      <c r="AM18" s="151"/>
     </row>
     <row r="19" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C19" s="154"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
       <c r="F19" s="70"/>
       <c r="G19" s="70"/>
       <c r="H19" s="70"/>
@@ -4295,12 +4284,12 @@
       <c r="Q19" s="70"/>
       <c r="R19" s="70"/>
       <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="70"/>
-      <c r="Y19" s="70"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
       <c r="Z19" s="70"/>
       <c r="AA19" s="70"/>
       <c r="AB19" s="70"/>
@@ -4314,12 +4303,12 @@
       <c r="AJ19" s="70"/>
       <c r="AK19" s="70"/>
       <c r="AL19" s="70"/>
-      <c r="AM19" s="155"/>
+      <c r="AM19" s="151"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="154"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
       <c r="F20" s="70"/>
       <c r="G20" s="70"/>
       <c r="H20" s="70"/>
@@ -4334,12 +4323,12 @@
       <c r="Q20" s="70"/>
       <c r="R20" s="70"/>
       <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="70"/>
-      <c r="Y20" s="70"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="69"/>
+      <c r="Y20" s="69"/>
       <c r="Z20" s="70"/>
       <c r="AA20" s="70"/>
       <c r="AB20" s="70"/>
@@ -4353,12 +4342,12 @@
       <c r="AJ20" s="70"/>
       <c r="AK20" s="70"/>
       <c r="AL20" s="70"/>
-      <c r="AM20" s="155"/>
+      <c r="AM20" s="151"/>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="154"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
       <c r="F21" s="70"/>
       <c r="G21" s="70"/>
       <c r="H21" s="70"/>
@@ -4373,12 +4362,12 @@
       <c r="Q21" s="70"/>
       <c r="R21" s="70"/>
       <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="70"/>
-      <c r="Y21" s="70"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="69"/>
       <c r="Z21" s="70"/>
       <c r="AA21" s="70"/>
       <c r="AB21" s="70"/>
@@ -4392,12 +4381,12 @@
       <c r="AJ21" s="70"/>
       <c r="AK21" s="70"/>
       <c r="AL21" s="70"/>
-      <c r="AM21" s="155"/>
+      <c r="AM21" s="151"/>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="154"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
       <c r="F22" s="70"/>
       <c r="G22" s="70"/>
       <c r="H22" s="70"/>
@@ -4412,12 +4401,12 @@
       <c r="Q22" s="70"/>
       <c r="R22" s="70"/>
       <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
       <c r="Z22" s="70"/>
       <c r="AA22" s="70"/>
       <c r="AB22" s="70"/>
@@ -4431,12 +4420,12 @@
       <c r="AJ22" s="70"/>
       <c r="AK22" s="70"/>
       <c r="AL22" s="70"/>
-      <c r="AM22" s="155"/>
+      <c r="AM22" s="151"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="154"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
       <c r="F23" s="70"/>
       <c r="G23" s="70"/>
       <c r="H23" s="70"/>
@@ -4451,12 +4440,12 @@
       <c r="Q23" s="70"/>
       <c r="R23" s="70"/>
       <c r="S23" s="70"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="70"/>
-      <c r="W23" s="70"/>
-      <c r="X23" s="70"/>
-      <c r="Y23" s="70"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="69"/>
+      <c r="X23" s="69"/>
+      <c r="Y23" s="69"/>
       <c r="Z23" s="70"/>
       <c r="AA23" s="70"/>
       <c r="AB23" s="70"/>
@@ -4470,12 +4459,12 @@
       <c r="AJ23" s="70"/>
       <c r="AK23" s="70"/>
       <c r="AL23" s="70"/>
-      <c r="AM23" s="155"/>
+      <c r="AM23" s="151"/>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="154"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
       <c r="F24" s="70"/>
       <c r="G24" s="70"/>
       <c r="H24" s="70"/>
@@ -4490,12 +4479,12 @@
       <c r="Q24" s="70"/>
       <c r="R24" s="70"/>
       <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="70"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="70"/>
-      <c r="Y24" s="70"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="69"/>
       <c r="Z24" s="70"/>
       <c r="AA24" s="70"/>
       <c r="AB24" s="70"/>
@@ -4509,12 +4498,12 @@
       <c r="AJ24" s="70"/>
       <c r="AK24" s="70"/>
       <c r="AL24" s="70"/>
-      <c r="AM24" s="155"/>
+      <c r="AM24" s="151"/>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="154"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
       <c r="F25" s="70"/>
       <c r="G25" s="70"/>
       <c r="H25" s="70"/>
@@ -4529,12 +4518,12 @@
       <c r="Q25" s="70"/>
       <c r="R25" s="70"/>
       <c r="S25" s="70"/>
-      <c r="T25" s="70"/>
-      <c r="U25" s="70"/>
-      <c r="V25" s="70"/>
-      <c r="W25" s="70"/>
-      <c r="X25" s="70"/>
-      <c r="Y25" s="70"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="69"/>
       <c r="Z25" s="70"/>
       <c r="AA25" s="70"/>
       <c r="AB25" s="70"/>
@@ -4548,12 +4537,12 @@
       <c r="AJ25" s="70"/>
       <c r="AK25" s="70"/>
       <c r="AL25" s="70"/>
-      <c r="AM25" s="155"/>
+      <c r="AM25" s="151"/>
     </row>
     <row r="26" customFormat="false" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="154"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
       <c r="F26" s="70"/>
       <c r="G26" s="70"/>
       <c r="H26" s="70"/>
@@ -4568,12 +4557,12 @@
       <c r="Q26" s="70"/>
       <c r="R26" s="70"/>
       <c r="S26" s="70"/>
-      <c r="T26" s="70"/>
-      <c r="U26" s="70"/>
-      <c r="V26" s="70"/>
-      <c r="W26" s="70"/>
-      <c r="X26" s="70"/>
-      <c r="Y26" s="70"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="69"/>
+      <c r="Y26" s="69"/>
       <c r="Z26" s="70"/>
       <c r="AA26" s="70"/>
       <c r="AB26" s="70"/>
@@ -4587,12 +4576,12 @@
       <c r="AJ26" s="70"/>
       <c r="AK26" s="70"/>
       <c r="AL26" s="70"/>
-      <c r="AM26" s="155"/>
+      <c r="AM26" s="151"/>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C27" s="154"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
       <c r="F27" s="70"/>
       <c r="G27" s="70"/>
       <c r="H27" s="70"/>
@@ -4607,12 +4596,12 @@
       <c r="Q27" s="70"/>
       <c r="R27" s="70"/>
       <c r="S27" s="70"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
-      <c r="W27" s="70"/>
-      <c r="X27" s="70"/>
-      <c r="Y27" s="70"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
       <c r="Z27" s="70"/>
       <c r="AA27" s="70"/>
       <c r="AB27" s="70"/>
@@ -4626,12 +4615,12 @@
       <c r="AJ27" s="70"/>
       <c r="AK27" s="70"/>
       <c r="AL27" s="70"/>
-      <c r="AM27" s="155"/>
+      <c r="AM27" s="151"/>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C28" s="154"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
       <c r="F28" s="70"/>
       <c r="G28" s="70"/>
       <c r="H28" s="70"/>
@@ -4646,12 +4635,12 @@
       <c r="Q28" s="70"/>
       <c r="R28" s="70"/>
       <c r="S28" s="70"/>
-      <c r="T28" s="70"/>
-      <c r="U28" s="70"/>
-      <c r="V28" s="70"/>
-      <c r="W28" s="70"/>
-      <c r="X28" s="70"/>
-      <c r="Y28" s="70"/>
+      <c r="T28" s="69"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="69"/>
+      <c r="X28" s="69"/>
+      <c r="Y28" s="69"/>
       <c r="Z28" s="70"/>
       <c r="AA28" s="70"/>
       <c r="AB28" s="70"/>
@@ -4665,16 +4654,16 @@
       <c r="AJ28" s="70"/>
       <c r="AK28" s="70"/>
       <c r="AL28" s="70"/>
-      <c r="AM28" s="155"/>
+      <c r="AM28" s="151"/>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="50"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
       <c r="F29" s="70"/>
       <c r="G29" s="70"/>
       <c r="H29" s="70"/>
@@ -4689,12 +4678,12 @@
       <c r="Q29" s="70"/>
       <c r="R29" s="70"/>
       <c r="S29" s="70"/>
-      <c r="T29" s="70"/>
-      <c r="U29" s="70"/>
-      <c r="V29" s="70"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="70"/>
-      <c r="Y29" s="70"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="69"/>
+      <c r="Y29" s="69"/>
       <c r="Z29" s="70"/>
       <c r="AA29" s="70"/>
       <c r="AB29" s="70"/>
@@ -4708,14 +4697,14 @@
       <c r="AJ29" s="70"/>
       <c r="AK29" s="70"/>
       <c r="AL29" s="70"/>
-      <c r="AM29" s="155"/>
+      <c r="AM29" s="151"/>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
       <c r="F30" s="70"/>
       <c r="G30" s="70"/>
       <c r="H30" s="70"/>
@@ -4730,12 +4719,12 @@
       <c r="Q30" s="70"/>
       <c r="R30" s="70"/>
       <c r="S30" s="70"/>
-      <c r="T30" s="70"/>
-      <c r="U30" s="70"/>
-      <c r="V30" s="70"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="70"/>
-      <c r="Y30" s="70"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="69"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="69"/>
       <c r="Z30" s="70"/>
       <c r="AA30" s="70"/>
       <c r="AB30" s="70"/>
@@ -4749,14 +4738,14 @@
       <c r="AJ30" s="70"/>
       <c r="AK30" s="70"/>
       <c r="AL30" s="70"/>
-      <c r="AM30" s="155"/>
+      <c r="AM30" s="151"/>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
       <c r="F31" s="70"/>
       <c r="G31" s="70"/>
       <c r="H31" s="70"/>
@@ -4771,12 +4760,12 @@
       <c r="Q31" s="70"/>
       <c r="R31" s="70"/>
       <c r="S31" s="70"/>
-      <c r="T31" s="70"/>
-      <c r="U31" s="70"/>
-      <c r="V31" s="70"/>
-      <c r="W31" s="70"/>
-      <c r="X31" s="70"/>
-      <c r="Y31" s="70"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="69"/>
+      <c r="W31" s="69"/>
+      <c r="X31" s="69"/>
+      <c r="Y31" s="69"/>
       <c r="Z31" s="70"/>
       <c r="AA31" s="70"/>
       <c r="AB31" s="70"/>
@@ -4790,14 +4779,14 @@
       <c r="AJ31" s="70"/>
       <c r="AK31" s="70"/>
       <c r="AL31" s="70"/>
-      <c r="AM31" s="155"/>
+      <c r="AM31" s="151"/>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
       <c r="F32" s="70"/>
       <c r="G32" s="70"/>
       <c r="H32" s="70"/>
@@ -4812,12 +4801,12 @@
       <c r="Q32" s="70"/>
       <c r="R32" s="70"/>
       <c r="S32" s="70"/>
-      <c r="T32" s="70"/>
-      <c r="U32" s="70"/>
-      <c r="V32" s="70"/>
-      <c r="W32" s="70"/>
-      <c r="X32" s="70"/>
-      <c r="Y32" s="70"/>
+      <c r="T32" s="69"/>
+      <c r="U32" s="69"/>
+      <c r="V32" s="69"/>
+      <c r="W32" s="69"/>
+      <c r="X32" s="69"/>
+      <c r="Y32" s="69"/>
       <c r="Z32" s="70"/>
       <c r="AA32" s="70"/>
       <c r="AB32" s="70"/>
@@ -4831,14 +4820,14 @@
       <c r="AJ32" s="70"/>
       <c r="AK32" s="70"/>
       <c r="AL32" s="70"/>
-      <c r="AM32" s="155"/>
+      <c r="AM32" s="151"/>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
       <c r="F33" s="70"/>
       <c r="G33" s="70"/>
       <c r="H33" s="70"/>
@@ -4853,12 +4842,12 @@
       <c r="Q33" s="70"/>
       <c r="R33" s="70"/>
       <c r="S33" s="70"/>
-      <c r="T33" s="70"/>
-      <c r="U33" s="70"/>
-      <c r="V33" s="70"/>
-      <c r="W33" s="70"/>
-      <c r="X33" s="70"/>
-      <c r="Y33" s="70"/>
+      <c r="T33" s="69"/>
+      <c r="U33" s="69"/>
+      <c r="V33" s="69"/>
+      <c r="W33" s="69"/>
+      <c r="X33" s="69"/>
+      <c r="Y33" s="69"/>
       <c r="Z33" s="70"/>
       <c r="AA33" s="70"/>
       <c r="AB33" s="70"/>
@@ -4872,14 +4861,14 @@
       <c r="AJ33" s="70"/>
       <c r="AK33" s="70"/>
       <c r="AL33" s="70"/>
-      <c r="AM33" s="155"/>
+      <c r="AM33" s="151"/>
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
       <c r="F34" s="70"/>
       <c r="G34" s="70"/>
       <c r="H34" s="70"/>
@@ -4894,12 +4883,12 @@
       <c r="Q34" s="70"/>
       <c r="R34" s="70"/>
       <c r="S34" s="70"/>
-      <c r="T34" s="70"/>
-      <c r="U34" s="70"/>
-      <c r="V34" s="70"/>
-      <c r="W34" s="70"/>
-      <c r="X34" s="70"/>
-      <c r="Y34" s="70"/>
+      <c r="T34" s="69"/>
+      <c r="U34" s="69"/>
+      <c r="V34" s="69"/>
+      <c r="W34" s="69"/>
+      <c r="X34" s="69"/>
+      <c r="Y34" s="69"/>
       <c r="Z34" s="70"/>
       <c r="AA34" s="70"/>
       <c r="AB34" s="70"/>
@@ -4913,14 +4902,14 @@
       <c r="AJ34" s="70"/>
       <c r="AK34" s="70"/>
       <c r="AL34" s="70"/>
-      <c r="AM34" s="155"/>
+      <c r="AM34" s="151"/>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
       <c r="F35" s="70"/>
       <c r="G35" s="70"/>
       <c r="H35" s="70"/>
@@ -4935,12 +4924,12 @@
       <c r="Q35" s="70"/>
       <c r="R35" s="70"/>
       <c r="S35" s="70"/>
-      <c r="T35" s="70"/>
-      <c r="U35" s="70"/>
-      <c r="V35" s="70"/>
-      <c r="W35" s="70"/>
-      <c r="X35" s="70"/>
-      <c r="Y35" s="70"/>
+      <c r="T35" s="69"/>
+      <c r="U35" s="69"/>
+      <c r="V35" s="69"/>
+      <c r="W35" s="69"/>
+      <c r="X35" s="69"/>
+      <c r="Y35" s="69"/>
       <c r="Z35" s="70"/>
       <c r="AA35" s="70"/>
       <c r="AB35" s="70"/>
@@ -4954,16 +4943,16 @@
       <c r="AJ35" s="70"/>
       <c r="AK35" s="70"/>
       <c r="AL35" s="70"/>
-      <c r="AM35" s="155"/>
+      <c r="AM35" s="151"/>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="50"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
       <c r="F36" s="70"/>
       <c r="G36" s="70"/>
       <c r="H36" s="70"/>
@@ -4978,12 +4967,12 @@
       <c r="Q36" s="70"/>
       <c r="R36" s="70"/>
       <c r="S36" s="70"/>
-      <c r="T36" s="70"/>
-      <c r="U36" s="70"/>
-      <c r="V36" s="70"/>
-      <c r="W36" s="70"/>
-      <c r="X36" s="70"/>
-      <c r="Y36" s="70"/>
+      <c r="T36" s="69"/>
+      <c r="U36" s="69"/>
+      <c r="V36" s="69"/>
+      <c r="W36" s="69"/>
+      <c r="X36" s="69"/>
+      <c r="Y36" s="69"/>
       <c r="Z36" s="70"/>
       <c r="AA36" s="70"/>
       <c r="AB36" s="70"/>
@@ -4997,14 +4986,14 @@
       <c r="AJ36" s="70"/>
       <c r="AK36" s="70"/>
       <c r="AL36" s="70"/>
-      <c r="AM36" s="155"/>
+      <c r="AM36" s="151"/>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
       <c r="F37" s="70"/>
       <c r="G37" s="70"/>
       <c r="H37" s="70"/>
@@ -5019,12 +5008,12 @@
       <c r="Q37" s="70"/>
       <c r="R37" s="70"/>
       <c r="S37" s="70"/>
-      <c r="T37" s="70"/>
-      <c r="U37" s="70"/>
-      <c r="V37" s="70"/>
-      <c r="W37" s="70"/>
-      <c r="X37" s="70"/>
-      <c r="Y37" s="70"/>
+      <c r="T37" s="69"/>
+      <c r="U37" s="69"/>
+      <c r="V37" s="69"/>
+      <c r="W37" s="69"/>
+      <c r="X37" s="69"/>
+      <c r="Y37" s="69"/>
       <c r="Z37" s="70"/>
       <c r="AA37" s="70"/>
       <c r="AB37" s="70"/>
@@ -5038,14 +5027,14 @@
       <c r="AJ37" s="70"/>
       <c r="AK37" s="70"/>
       <c r="AL37" s="70"/>
-      <c r="AM37" s="155"/>
+      <c r="AM37" s="151"/>
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
       <c r="F38" s="70"/>
       <c r="G38" s="70"/>
       <c r="H38" s="70"/>
@@ -5060,12 +5049,12 @@
       <c r="Q38" s="70"/>
       <c r="R38" s="70"/>
       <c r="S38" s="70"/>
-      <c r="T38" s="70"/>
-      <c r="U38" s="70"/>
-      <c r="V38" s="70"/>
-      <c r="W38" s="70"/>
-      <c r="X38" s="70"/>
-      <c r="Y38" s="70"/>
+      <c r="T38" s="69"/>
+      <c r="U38" s="69"/>
+      <c r="V38" s="69"/>
+      <c r="W38" s="69"/>
+      <c r="X38" s="69"/>
+      <c r="Y38" s="69"/>
       <c r="Z38" s="70"/>
       <c r="AA38" s="70"/>
       <c r="AB38" s="70"/>
@@ -5079,14 +5068,14 @@
       <c r="AJ38" s="70"/>
       <c r="AK38" s="70"/>
       <c r="AL38" s="70"/>
-      <c r="AM38" s="155"/>
+      <c r="AM38" s="151"/>
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
       <c r="F39" s="70"/>
       <c r="G39" s="70"/>
       <c r="H39" s="70"/>
@@ -5101,12 +5090,12 @@
       <c r="Q39" s="70"/>
       <c r="R39" s="70"/>
       <c r="S39" s="70"/>
-      <c r="T39" s="70"/>
-      <c r="U39" s="70"/>
-      <c r="V39" s="70"/>
-      <c r="W39" s="70"/>
-      <c r="X39" s="70"/>
-      <c r="Y39" s="70"/>
+      <c r="T39" s="69"/>
+      <c r="U39" s="69"/>
+      <c r="V39" s="69"/>
+      <c r="W39" s="69"/>
+      <c r="X39" s="69"/>
+      <c r="Y39" s="69"/>
       <c r="Z39" s="70"/>
       <c r="AA39" s="70"/>
       <c r="AB39" s="70"/>
@@ -5120,14 +5109,14 @@
       <c r="AJ39" s="70"/>
       <c r="AK39" s="70"/>
       <c r="AL39" s="70"/>
-      <c r="AM39" s="155"/>
+      <c r="AM39" s="151"/>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
       <c r="B40" s="50"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
       <c r="F40" s="70"/>
       <c r="G40" s="70"/>
       <c r="H40" s="70"/>
@@ -5142,12 +5131,12 @@
       <c r="Q40" s="70"/>
       <c r="R40" s="70"/>
       <c r="S40" s="70"/>
-      <c r="T40" s="70"/>
-      <c r="U40" s="70"/>
-      <c r="V40" s="70"/>
-      <c r="W40" s="70"/>
-      <c r="X40" s="70"/>
-      <c r="Y40" s="70"/>
+      <c r="T40" s="69"/>
+      <c r="U40" s="69"/>
+      <c r="V40" s="69"/>
+      <c r="W40" s="69"/>
+      <c r="X40" s="69"/>
+      <c r="Y40" s="69"/>
       <c r="Z40" s="70"/>
       <c r="AA40" s="70"/>
       <c r="AB40" s="70"/>
@@ -5161,16 +5150,16 @@
       <c r="AJ40" s="70"/>
       <c r="AK40" s="70"/>
       <c r="AL40" s="70"/>
-      <c r="AM40" s="155"/>
+      <c r="AM40" s="151"/>
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="50"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
       <c r="F41" s="70"/>
       <c r="G41" s="70"/>
       <c r="H41" s="70"/>
@@ -5185,12 +5174,12 @@
       <c r="Q41" s="70"/>
       <c r="R41" s="70"/>
       <c r="S41" s="70"/>
-      <c r="T41" s="70"/>
-      <c r="U41" s="70"/>
-      <c r="V41" s="70"/>
-      <c r="W41" s="70"/>
-      <c r="X41" s="70"/>
-      <c r="Y41" s="70"/>
+      <c r="T41" s="69"/>
+      <c r="U41" s="69"/>
+      <c r="V41" s="69"/>
+      <c r="W41" s="69"/>
+      <c r="X41" s="69"/>
+      <c r="Y41" s="69"/>
       <c r="Z41" s="70"/>
       <c r="AA41" s="70"/>
       <c r="AB41" s="70"/>
@@ -5204,14 +5193,14 @@
       <c r="AJ41" s="70"/>
       <c r="AK41" s="70"/>
       <c r="AL41" s="70"/>
-      <c r="AM41" s="155"/>
+      <c r="AM41" s="151"/>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49"/>
       <c r="B42" s="50"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
       <c r="F42" s="70"/>
       <c r="G42" s="70"/>
       <c r="H42" s="70"/>
@@ -5226,12 +5215,12 @@
       <c r="Q42" s="70"/>
       <c r="R42" s="70"/>
       <c r="S42" s="70"/>
-      <c r="T42" s="70"/>
-      <c r="U42" s="70"/>
-      <c r="V42" s="70"/>
-      <c r="W42" s="70"/>
-      <c r="X42" s="70"/>
-      <c r="Y42" s="70"/>
+      <c r="T42" s="69"/>
+      <c r="U42" s="69"/>
+      <c r="V42" s="69"/>
+      <c r="W42" s="69"/>
+      <c r="X42" s="69"/>
+      <c r="Y42" s="69"/>
       <c r="Z42" s="70"/>
       <c r="AA42" s="70"/>
       <c r="AB42" s="70"/>
@@ -5245,14 +5234,14 @@
       <c r="AJ42" s="70"/>
       <c r="AK42" s="70"/>
       <c r="AL42" s="70"/>
-      <c r="AM42" s="155"/>
+      <c r="AM42" s="151"/>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="49"/>
       <c r="B43" s="50"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
       <c r="F43" s="70"/>
       <c r="G43" s="70"/>
       <c r="H43" s="70"/>
@@ -5267,12 +5256,12 @@
       <c r="Q43" s="70"/>
       <c r="R43" s="70"/>
       <c r="S43" s="70"/>
-      <c r="T43" s="70"/>
-      <c r="U43" s="70"/>
-      <c r="V43" s="70"/>
-      <c r="W43" s="70"/>
-      <c r="X43" s="70"/>
-      <c r="Y43" s="70"/>
+      <c r="T43" s="69"/>
+      <c r="U43" s="69"/>
+      <c r="V43" s="69"/>
+      <c r="W43" s="69"/>
+      <c r="X43" s="69"/>
+      <c r="Y43" s="69"/>
       <c r="Z43" s="70"/>
       <c r="AA43" s="70"/>
       <c r="AB43" s="70"/>
@@ -5286,14 +5275,14 @@
       <c r="AJ43" s="70"/>
       <c r="AK43" s="70"/>
       <c r="AL43" s="70"/>
-      <c r="AM43" s="155"/>
+      <c r="AM43" s="151"/>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="49"/>
       <c r="B44" s="50"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
       <c r="F44" s="70"/>
       <c r="G44" s="70"/>
       <c r="H44" s="70"/>
@@ -5308,12 +5297,12 @@
       <c r="Q44" s="70"/>
       <c r="R44" s="70"/>
       <c r="S44" s="70"/>
-      <c r="T44" s="70"/>
-      <c r="U44" s="70"/>
-      <c r="V44" s="70"/>
-      <c r="W44" s="70"/>
-      <c r="X44" s="70"/>
-      <c r="Y44" s="70"/>
+      <c r="T44" s="69"/>
+      <c r="U44" s="69"/>
+      <c r="V44" s="69"/>
+      <c r="W44" s="69"/>
+      <c r="X44" s="69"/>
+      <c r="Y44" s="69"/>
       <c r="Z44" s="70"/>
       <c r="AA44" s="70"/>
       <c r="AB44" s="70"/>
@@ -5327,14 +5316,14 @@
       <c r="AJ44" s="70"/>
       <c r="AK44" s="70"/>
       <c r="AL44" s="70"/>
-      <c r="AM44" s="155"/>
+      <c r="AM44" s="151"/>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="49"/>
       <c r="B45" s="50"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
       <c r="F45" s="70"/>
       <c r="G45" s="70"/>
       <c r="H45" s="70"/>
@@ -5349,12 +5338,12 @@
       <c r="Q45" s="70"/>
       <c r="R45" s="70"/>
       <c r="S45" s="70"/>
-      <c r="T45" s="70"/>
-      <c r="U45" s="70"/>
-      <c r="V45" s="70"/>
-      <c r="W45" s="70"/>
-      <c r="X45" s="70"/>
-      <c r="Y45" s="70"/>
+      <c r="T45" s="69"/>
+      <c r="U45" s="69"/>
+      <c r="V45" s="69"/>
+      <c r="W45" s="69"/>
+      <c r="X45" s="69"/>
+      <c r="Y45" s="69"/>
       <c r="Z45" s="70"/>
       <c r="AA45" s="70"/>
       <c r="AB45" s="70"/>
@@ -5368,16 +5357,16 @@
       <c r="AJ45" s="70"/>
       <c r="AK45" s="70"/>
       <c r="AL45" s="70"/>
-      <c r="AM45" s="155"/>
+      <c r="AM45" s="151"/>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="50"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
       <c r="F46" s="70"/>
       <c r="G46" s="70"/>
       <c r="H46" s="70"/>
@@ -5392,12 +5381,12 @@
       <c r="Q46" s="70"/>
       <c r="R46" s="70"/>
       <c r="S46" s="70"/>
-      <c r="T46" s="70"/>
-      <c r="U46" s="70"/>
-      <c r="V46" s="70"/>
-      <c r="W46" s="70"/>
-      <c r="X46" s="70"/>
-      <c r="Y46" s="70"/>
+      <c r="T46" s="69"/>
+      <c r="U46" s="69"/>
+      <c r="V46" s="69"/>
+      <c r="W46" s="69"/>
+      <c r="X46" s="69"/>
+      <c r="Y46" s="69"/>
       <c r="Z46" s="70"/>
       <c r="AA46" s="70"/>
       <c r="AB46" s="70"/>
@@ -5411,14 +5400,14 @@
       <c r="AJ46" s="70"/>
       <c r="AK46" s="70"/>
       <c r="AL46" s="70"/>
-      <c r="AM46" s="155"/>
+      <c r="AM46" s="151"/>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="49"/>
       <c r="B47" s="50"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
       <c r="F47" s="70"/>
       <c r="G47" s="70"/>
       <c r="H47" s="70"/>
@@ -5433,12 +5422,12 @@
       <c r="Q47" s="70"/>
       <c r="R47" s="70"/>
       <c r="S47" s="70"/>
-      <c r="T47" s="70"/>
-      <c r="U47" s="70"/>
-      <c r="V47" s="70"/>
-      <c r="W47" s="70"/>
-      <c r="X47" s="70"/>
-      <c r="Y47" s="70"/>
+      <c r="T47" s="69"/>
+      <c r="U47" s="69"/>
+      <c r="V47" s="69"/>
+      <c r="W47" s="69"/>
+      <c r="X47" s="69"/>
+      <c r="Y47" s="69"/>
       <c r="Z47" s="70"/>
       <c r="AA47" s="70"/>
       <c r="AB47" s="70"/>
@@ -5452,14 +5441,14 @@
       <c r="AJ47" s="70"/>
       <c r="AK47" s="70"/>
       <c r="AL47" s="70"/>
-      <c r="AM47" s="155"/>
+      <c r="AM47" s="151"/>
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="49"/>
       <c r="B48" s="50"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
       <c r="F48" s="70"/>
       <c r="G48" s="70"/>
       <c r="H48" s="70"/>
@@ -5474,12 +5463,12 @@
       <c r="Q48" s="70"/>
       <c r="R48" s="70"/>
       <c r="S48" s="70"/>
-      <c r="T48" s="70"/>
-      <c r="U48" s="70"/>
-      <c r="V48" s="70"/>
-      <c r="W48" s="70"/>
-      <c r="X48" s="70"/>
-      <c r="Y48" s="70"/>
+      <c r="T48" s="69"/>
+      <c r="U48" s="69"/>
+      <c r="V48" s="69"/>
+      <c r="W48" s="69"/>
+      <c r="X48" s="69"/>
+      <c r="Y48" s="69"/>
       <c r="Z48" s="70"/>
       <c r="AA48" s="70"/>
       <c r="AB48" s="70"/>
@@ -5493,14 +5482,14 @@
       <c r="AJ48" s="70"/>
       <c r="AK48" s="70"/>
       <c r="AL48" s="70"/>
-      <c r="AM48" s="155"/>
+      <c r="AM48" s="151"/>
     </row>
     <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="49"/>
       <c r="B49" s="50"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
       <c r="F49" s="70"/>
       <c r="G49" s="70"/>
       <c r="H49" s="70"/>
@@ -5515,12 +5504,12 @@
       <c r="Q49" s="70"/>
       <c r="R49" s="70"/>
       <c r="S49" s="70"/>
-      <c r="T49" s="70"/>
-      <c r="U49" s="70"/>
-      <c r="V49" s="70"/>
-      <c r="W49" s="70"/>
-      <c r="X49" s="70"/>
-      <c r="Y49" s="70"/>
+      <c r="T49" s="69"/>
+      <c r="U49" s="69"/>
+      <c r="V49" s="69"/>
+      <c r="W49" s="69"/>
+      <c r="X49" s="69"/>
+      <c r="Y49" s="69"/>
       <c r="Z49" s="70"/>
       <c r="AA49" s="70"/>
       <c r="AB49" s="70"/>
@@ -5534,14 +5523,14 @@
       <c r="AJ49" s="70"/>
       <c r="AK49" s="70"/>
       <c r="AL49" s="70"/>
-      <c r="AM49" s="155"/>
+      <c r="AM49" s="151"/>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="49"/>
       <c r="B50" s="50"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
       <c r="F50" s="70"/>
       <c r="G50" s="70"/>
       <c r="H50" s="70"/>
@@ -5556,12 +5545,12 @@
       <c r="Q50" s="70"/>
       <c r="R50" s="70"/>
       <c r="S50" s="70"/>
-      <c r="T50" s="70"/>
-      <c r="U50" s="70"/>
-      <c r="V50" s="70"/>
-      <c r="W50" s="70"/>
-      <c r="X50" s="70"/>
-      <c r="Y50" s="70"/>
+      <c r="T50" s="69"/>
+      <c r="U50" s="69"/>
+      <c r="V50" s="69"/>
+      <c r="W50" s="69"/>
+      <c r="X50" s="69"/>
+      <c r="Y50" s="69"/>
       <c r="Z50" s="70"/>
       <c r="AA50" s="70"/>
       <c r="AB50" s="70"/>
@@ -5575,14 +5564,14 @@
       <c r="AJ50" s="70"/>
       <c r="AK50" s="70"/>
       <c r="AL50" s="70"/>
-      <c r="AM50" s="155"/>
+      <c r="AM50" s="151"/>
     </row>
     <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="49"/>
       <c r="B51" s="50"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
       <c r="F51" s="70"/>
       <c r="G51" s="70"/>
       <c r="H51" s="70"/>
@@ -5597,12 +5586,12 @@
       <c r="Q51" s="70"/>
       <c r="R51" s="70"/>
       <c r="S51" s="70"/>
-      <c r="T51" s="70"/>
-      <c r="U51" s="70"/>
-      <c r="V51" s="70"/>
-      <c r="W51" s="70"/>
-      <c r="X51" s="70"/>
-      <c r="Y51" s="70"/>
+      <c r="T51" s="69"/>
+      <c r="U51" s="69"/>
+      <c r="V51" s="69"/>
+      <c r="W51" s="69"/>
+      <c r="X51" s="69"/>
+      <c r="Y51" s="69"/>
       <c r="Z51" s="70"/>
       <c r="AA51" s="70"/>
       <c r="AB51" s="70"/>
@@ -5616,14 +5605,14 @@
       <c r="AJ51" s="70"/>
       <c r="AK51" s="70"/>
       <c r="AL51" s="70"/>
-      <c r="AM51" s="155"/>
+      <c r="AM51" s="151"/>
     </row>
     <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="49"/>
       <c r="B52" s="50"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
       <c r="F52" s="70"/>
       <c r="G52" s="70"/>
       <c r="H52" s="70"/>
@@ -5638,12 +5627,12 @@
       <c r="Q52" s="70"/>
       <c r="R52" s="70"/>
       <c r="S52" s="70"/>
-      <c r="T52" s="70"/>
-      <c r="U52" s="70"/>
-      <c r="V52" s="70"/>
-      <c r="W52" s="70"/>
-      <c r="X52" s="70"/>
-      <c r="Y52" s="70"/>
+      <c r="T52" s="69"/>
+      <c r="U52" s="69"/>
+      <c r="V52" s="69"/>
+      <c r="W52" s="69"/>
+      <c r="X52" s="69"/>
+      <c r="Y52" s="69"/>
       <c r="Z52" s="70"/>
       <c r="AA52" s="70"/>
       <c r="AB52" s="70"/>
@@ -5657,16 +5646,16 @@
       <c r="AJ52" s="70"/>
       <c r="AK52" s="70"/>
       <c r="AL52" s="70"/>
-      <c r="AM52" s="155"/>
+      <c r="AM52" s="151"/>
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="55"/>
-      <c r="C53" s="154"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
       <c r="F53" s="73"/>
       <c r="G53" s="73"/>
       <c r="H53" s="73"/>
@@ -5681,12 +5670,12 @@
       <c r="Q53" s="73"/>
       <c r="R53" s="73"/>
       <c r="S53" s="73"/>
-      <c r="T53" s="73"/>
-      <c r="U53" s="73"/>
-      <c r="V53" s="73"/>
-      <c r="W53" s="73"/>
-      <c r="X53" s="73"/>
-      <c r="Y53" s="73"/>
+      <c r="T53" s="72"/>
+      <c r="U53" s="72"/>
+      <c r="V53" s="72"/>
+      <c r="W53" s="72"/>
+      <c r="X53" s="72"/>
+      <c r="Y53" s="72"/>
       <c r="Z53" s="73"/>
       <c r="AA53" s="73"/>
       <c r="AB53" s="73"/>
@@ -5700,48 +5689,48 @@
       <c r="AJ53" s="73"/>
       <c r="AK53" s="73"/>
       <c r="AL53" s="73"/>
-      <c r="AM53" s="155"/>
+      <c r="AM53" s="151"/>
     </row>
     <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="49"/>
       <c r="B54" s="55"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="157"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
-      <c r="H54" s="157"/>
-      <c r="I54" s="157"/>
-      <c r="J54" s="157"/>
-      <c r="K54" s="157"/>
-      <c r="L54" s="157"/>
-      <c r="M54" s="157"/>
-      <c r="N54" s="157"/>
-      <c r="O54" s="157"/>
-      <c r="P54" s="157"/>
-      <c r="Q54" s="157"/>
-      <c r="R54" s="157"/>
-      <c r="S54" s="157"/>
-      <c r="T54" s="157"/>
-      <c r="U54" s="157"/>
-      <c r="V54" s="157"/>
-      <c r="W54" s="157"/>
-      <c r="X54" s="157"/>
-      <c r="Y54" s="157"/>
-      <c r="Z54" s="157"/>
-      <c r="AA54" s="157"/>
-      <c r="AB54" s="157"/>
-      <c r="AC54" s="157"/>
-      <c r="AD54" s="157"/>
-      <c r="AE54" s="157"/>
-      <c r="AF54" s="157"/>
-      <c r="AG54" s="157"/>
-      <c r="AH54" s="157"/>
-      <c r="AI54" s="157"/>
-      <c r="AJ54" s="157"/>
-      <c r="AK54" s="157"/>
-      <c r="AL54" s="157"/>
-      <c r="AM54" s="158"/>
+      <c r="C54" s="152"/>
+      <c r="D54" s="153"/>
+      <c r="E54" s="153"/>
+      <c r="F54" s="154"/>
+      <c r="G54" s="154"/>
+      <c r="H54" s="154"/>
+      <c r="I54" s="154"/>
+      <c r="J54" s="154"/>
+      <c r="K54" s="154"/>
+      <c r="L54" s="154"/>
+      <c r="M54" s="154"/>
+      <c r="N54" s="154"/>
+      <c r="O54" s="154"/>
+      <c r="P54" s="154"/>
+      <c r="Q54" s="154"/>
+      <c r="R54" s="154"/>
+      <c r="S54" s="154"/>
+      <c r="T54" s="153"/>
+      <c r="U54" s="153"/>
+      <c r="V54" s="153"/>
+      <c r="W54" s="153"/>
+      <c r="X54" s="153"/>
+      <c r="Y54" s="153"/>
+      <c r="Z54" s="154"/>
+      <c r="AA54" s="154"/>
+      <c r="AB54" s="154"/>
+      <c r="AC54" s="154"/>
+      <c r="AD54" s="154"/>
+      <c r="AE54" s="154"/>
+      <c r="AF54" s="154"/>
+      <c r="AG54" s="154"/>
+      <c r="AH54" s="154"/>
+      <c r="AI54" s="154"/>
+      <c r="AJ54" s="154"/>
+      <c r="AK54" s="154"/>
+      <c r="AL54" s="154"/>
+      <c r="AM54" s="155"/>
     </row>
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="49"/>
@@ -5943,7 +5932,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH49" activeCellId="0" sqref="C1:AM54"/>
+      <selection pane="topLeft" activeCell="AH49" activeCellId="1" sqref="T11:Y54 AH49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6274,784 +6263,784 @@
     </row>
     <row r="8" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="40"/>
-      <c r="D8" s="159" t="s">
+      <c r="D8" s="156" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="159"/>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="159"/>
-      <c r="P8" s="159"/>
-      <c r="Q8" s="159"/>
-      <c r="R8" s="159"/>
-      <c r="S8" s="159"/>
-      <c r="T8" s="159"/>
-      <c r="U8" s="159"/>
-      <c r="V8" s="159"/>
-      <c r="W8" s="159"/>
-      <c r="X8" s="159"/>
-      <c r="Y8" s="159"/>
-      <c r="Z8" s="159"/>
-      <c r="AA8" s="159"/>
-      <c r="AB8" s="159"/>
-      <c r="AC8" s="159"/>
-      <c r="AD8" s="159"/>
-      <c r="AE8" s="159"/>
-      <c r="AF8" s="159"/>
-      <c r="AG8" s="159"/>
-      <c r="AH8" s="159"/>
-      <c r="AI8" s="159"/>
-      <c r="AJ8" s="159"/>
-      <c r="AK8" s="159"/>
-      <c r="AL8" s="159"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="156"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="156"/>
+      <c r="P8" s="156"/>
+      <c r="Q8" s="156"/>
+      <c r="R8" s="156"/>
+      <c r="S8" s="156"/>
+      <c r="T8" s="156"/>
+      <c r="U8" s="156"/>
+      <c r="V8" s="156"/>
+      <c r="W8" s="156"/>
+      <c r="X8" s="156"/>
+      <c r="Y8" s="156"/>
+      <c r="Z8" s="156"/>
+      <c r="AA8" s="156"/>
+      <c r="AB8" s="156"/>
+      <c r="AC8" s="156"/>
+      <c r="AD8" s="156"/>
+      <c r="AE8" s="156"/>
+      <c r="AF8" s="156"/>
+      <c r="AG8" s="156"/>
+      <c r="AH8" s="156"/>
+      <c r="AI8" s="156"/>
+      <c r="AJ8" s="156"/>
+      <c r="AK8" s="156"/>
+      <c r="AL8" s="156"/>
       <c r="AM8" s="41"/>
     </row>
     <row r="9" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C9" s="40"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="159"/>
-      <c r="K9" s="159"/>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="159"/>
-      <c r="Q9" s="159"/>
-      <c r="R9" s="159"/>
-      <c r="S9" s="159"/>
-      <c r="T9" s="159"/>
-      <c r="U9" s="159"/>
-      <c r="V9" s="159"/>
-      <c r="W9" s="159"/>
-      <c r="X9" s="159"/>
-      <c r="Y9" s="159"/>
-      <c r="Z9" s="159"/>
-      <c r="AA9" s="159"/>
-      <c r="AB9" s="159"/>
-      <c r="AC9" s="159"/>
-      <c r="AD9" s="159"/>
-      <c r="AE9" s="159"/>
-      <c r="AF9" s="159"/>
-      <c r="AG9" s="159"/>
-      <c r="AH9" s="159"/>
-      <c r="AI9" s="159"/>
-      <c r="AJ9" s="159"/>
-      <c r="AK9" s="159"/>
-      <c r="AL9" s="159"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="156"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="156"/>
+      <c r="Q9" s="156"/>
+      <c r="R9" s="156"/>
+      <c r="S9" s="156"/>
+      <c r="T9" s="156"/>
+      <c r="U9" s="156"/>
+      <c r="V9" s="156"/>
+      <c r="W9" s="156"/>
+      <c r="X9" s="156"/>
+      <c r="Y9" s="156"/>
+      <c r="Z9" s="156"/>
+      <c r="AA9" s="156"/>
+      <c r="AB9" s="156"/>
+      <c r="AC9" s="156"/>
+      <c r="AD9" s="156"/>
+      <c r="AE9" s="156"/>
+      <c r="AF9" s="156"/>
+      <c r="AG9" s="156"/>
+      <c r="AH9" s="156"/>
+      <c r="AI9" s="156"/>
+      <c r="AJ9" s="156"/>
+      <c r="AK9" s="156"/>
+      <c r="AL9" s="156"/>
       <c r="AM9" s="41"/>
     </row>
     <row r="10" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C10" s="46"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="159"/>
-      <c r="K10" s="159"/>
-      <c r="L10" s="159"/>
-      <c r="M10" s="159"/>
-      <c r="N10" s="159"/>
-      <c r="O10" s="159"/>
-      <c r="P10" s="159"/>
-      <c r="Q10" s="159"/>
-      <c r="R10" s="159"/>
-      <c r="S10" s="159"/>
-      <c r="T10" s="159"/>
-      <c r="U10" s="159"/>
-      <c r="V10" s="159"/>
-      <c r="W10" s="159"/>
-      <c r="X10" s="159"/>
-      <c r="Y10" s="159"/>
-      <c r="Z10" s="159"/>
-      <c r="AA10" s="159"/>
-      <c r="AB10" s="159"/>
-      <c r="AC10" s="159"/>
-      <c r="AD10" s="159"/>
-      <c r="AE10" s="159"/>
-      <c r="AF10" s="159"/>
-      <c r="AG10" s="159"/>
-      <c r="AH10" s="159"/>
-      <c r="AI10" s="159"/>
-      <c r="AJ10" s="159"/>
-      <c r="AK10" s="159"/>
-      <c r="AL10" s="159"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="156"/>
+      <c r="M10" s="156"/>
+      <c r="N10" s="156"/>
+      <c r="O10" s="156"/>
+      <c r="P10" s="156"/>
+      <c r="Q10" s="156"/>
+      <c r="R10" s="156"/>
+      <c r="S10" s="156"/>
+      <c r="T10" s="156"/>
+      <c r="U10" s="156"/>
+      <c r="V10" s="156"/>
+      <c r="W10" s="156"/>
+      <c r="X10" s="156"/>
+      <c r="Y10" s="156"/>
+      <c r="Z10" s="156"/>
+      <c r="AA10" s="156"/>
+      <c r="AB10" s="156"/>
+      <c r="AC10" s="156"/>
+      <c r="AD10" s="156"/>
+      <c r="AE10" s="156"/>
+      <c r="AF10" s="156"/>
+      <c r="AG10" s="156"/>
+      <c r="AH10" s="156"/>
+      <c r="AI10" s="156"/>
+      <c r="AJ10" s="156"/>
+      <c r="AK10" s="156"/>
+      <c r="AL10" s="156"/>
       <c r="AM10" s="47"/>
     </row>
     <row r="11" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C11" s="46"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="159"/>
-      <c r="M11" s="159"/>
-      <c r="N11" s="159"/>
-      <c r="O11" s="159"/>
-      <c r="P11" s="159"/>
-      <c r="Q11" s="159"/>
-      <c r="R11" s="159"/>
-      <c r="S11" s="159"/>
-      <c r="T11" s="159"/>
-      <c r="U11" s="159"/>
-      <c r="V11" s="159"/>
-      <c r="W11" s="159"/>
-      <c r="X11" s="159"/>
-      <c r="Y11" s="159"/>
-      <c r="Z11" s="159"/>
-      <c r="AA11" s="159"/>
-      <c r="AB11" s="159"/>
-      <c r="AC11" s="159"/>
-      <c r="AD11" s="159"/>
-      <c r="AE11" s="159"/>
-      <c r="AF11" s="159"/>
-      <c r="AG11" s="159"/>
-      <c r="AH11" s="159"/>
-      <c r="AI11" s="159"/>
-      <c r="AJ11" s="159"/>
-      <c r="AK11" s="159"/>
-      <c r="AL11" s="159"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="156"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="156"/>
+      <c r="Q11" s="156"/>
+      <c r="R11" s="156"/>
+      <c r="S11" s="156"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="156"/>
+      <c r="V11" s="156"/>
+      <c r="W11" s="156"/>
+      <c r="X11" s="156"/>
+      <c r="Y11" s="156"/>
+      <c r="Z11" s="156"/>
+      <c r="AA11" s="156"/>
+      <c r="AB11" s="156"/>
+      <c r="AC11" s="156"/>
+      <c r="AD11" s="156"/>
+      <c r="AE11" s="156"/>
+      <c r="AF11" s="156"/>
+      <c r="AG11" s="156"/>
+      <c r="AH11" s="156"/>
+      <c r="AI11" s="156"/>
+      <c r="AJ11" s="156"/>
+      <c r="AK11" s="156"/>
+      <c r="AL11" s="156"/>
       <c r="AM11" s="47"/>
     </row>
     <row r="12" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C12" s="46"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
-      <c r="O12" s="159"/>
-      <c r="P12" s="159"/>
-      <c r="Q12" s="159"/>
-      <c r="R12" s="159"/>
-      <c r="S12" s="159"/>
-      <c r="T12" s="159"/>
-      <c r="U12" s="159"/>
-      <c r="V12" s="159"/>
-      <c r="W12" s="159"/>
-      <c r="X12" s="159"/>
-      <c r="Y12" s="159"/>
-      <c r="Z12" s="159"/>
-      <c r="AA12" s="159"/>
-      <c r="AB12" s="159"/>
-      <c r="AC12" s="159"/>
-      <c r="AD12" s="159"/>
-      <c r="AE12" s="159"/>
-      <c r="AF12" s="159"/>
-      <c r="AG12" s="159"/>
-      <c r="AH12" s="159"/>
-      <c r="AI12" s="159"/>
-      <c r="AJ12" s="159"/>
-      <c r="AK12" s="159"/>
-      <c r="AL12" s="159"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="156"/>
+      <c r="R12" s="156"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="156"/>
+      <c r="U12" s="156"/>
+      <c r="V12" s="156"/>
+      <c r="W12" s="156"/>
+      <c r="X12" s="156"/>
+      <c r="Y12" s="156"/>
+      <c r="Z12" s="156"/>
+      <c r="AA12" s="156"/>
+      <c r="AB12" s="156"/>
+      <c r="AC12" s="156"/>
+      <c r="AD12" s="156"/>
+      <c r="AE12" s="156"/>
+      <c r="AF12" s="156"/>
+      <c r="AG12" s="156"/>
+      <c r="AH12" s="156"/>
+      <c r="AI12" s="156"/>
+      <c r="AJ12" s="156"/>
+      <c r="AK12" s="156"/>
+      <c r="AL12" s="156"/>
       <c r="AM12" s="47"/>
     </row>
     <row r="13" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C13" s="46"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
-      <c r="L13" s="159"/>
-      <c r="M13" s="159"/>
-      <c r="N13" s="159"/>
-      <c r="O13" s="159"/>
-      <c r="P13" s="159"/>
-      <c r="Q13" s="159"/>
-      <c r="R13" s="159"/>
-      <c r="S13" s="159"/>
-      <c r="T13" s="159"/>
-      <c r="U13" s="159"/>
-      <c r="V13" s="159"/>
-      <c r="W13" s="159"/>
-      <c r="X13" s="159"/>
-      <c r="Y13" s="159"/>
-      <c r="Z13" s="159"/>
-      <c r="AA13" s="159"/>
-      <c r="AB13" s="159"/>
-      <c r="AC13" s="159"/>
-      <c r="AD13" s="159"/>
-      <c r="AE13" s="159"/>
-      <c r="AF13" s="159"/>
-      <c r="AG13" s="159"/>
-      <c r="AH13" s="159"/>
-      <c r="AI13" s="159"/>
-      <c r="AJ13" s="159"/>
-      <c r="AK13" s="159"/>
-      <c r="AL13" s="159"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="156"/>
+      <c r="N13" s="156"/>
+      <c r="O13" s="156"/>
+      <c r="P13" s="156"/>
+      <c r="Q13" s="156"/>
+      <c r="R13" s="156"/>
+      <c r="S13" s="156"/>
+      <c r="T13" s="156"/>
+      <c r="U13" s="156"/>
+      <c r="V13" s="156"/>
+      <c r="W13" s="156"/>
+      <c r="X13" s="156"/>
+      <c r="Y13" s="156"/>
+      <c r="Z13" s="156"/>
+      <c r="AA13" s="156"/>
+      <c r="AB13" s="156"/>
+      <c r="AC13" s="156"/>
+      <c r="AD13" s="156"/>
+      <c r="AE13" s="156"/>
+      <c r="AF13" s="156"/>
+      <c r="AG13" s="156"/>
+      <c r="AH13" s="156"/>
+      <c r="AI13" s="156"/>
+      <c r="AJ13" s="156"/>
+      <c r="AK13" s="156"/>
+      <c r="AL13" s="156"/>
       <c r="AM13" s="47"/>
     </row>
     <row r="14" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C14" s="46"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
-      <c r="O14" s="159"/>
-      <c r="P14" s="159"/>
-      <c r="Q14" s="159"/>
-      <c r="R14" s="159"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="159"/>
-      <c r="V14" s="159"/>
-      <c r="W14" s="159"/>
-      <c r="X14" s="159"/>
-      <c r="Y14" s="159"/>
-      <c r="Z14" s="159"/>
-      <c r="AA14" s="159"/>
-      <c r="AB14" s="159"/>
-      <c r="AC14" s="159"/>
-      <c r="AD14" s="159"/>
-      <c r="AE14" s="159"/>
-      <c r="AF14" s="159"/>
-      <c r="AG14" s="159"/>
-      <c r="AH14" s="159"/>
-      <c r="AI14" s="159"/>
-      <c r="AJ14" s="159"/>
-      <c r="AK14" s="159"/>
-      <c r="AL14" s="159"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="156"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="156"/>
+      <c r="U14" s="156"/>
+      <c r="V14" s="156"/>
+      <c r="W14" s="156"/>
+      <c r="X14" s="156"/>
+      <c r="Y14" s="156"/>
+      <c r="Z14" s="156"/>
+      <c r="AA14" s="156"/>
+      <c r="AB14" s="156"/>
+      <c r="AC14" s="156"/>
+      <c r="AD14" s="156"/>
+      <c r="AE14" s="156"/>
+      <c r="AF14" s="156"/>
+      <c r="AG14" s="156"/>
+      <c r="AH14" s="156"/>
+      <c r="AI14" s="156"/>
+      <c r="AJ14" s="156"/>
+      <c r="AK14" s="156"/>
+      <c r="AL14" s="156"/>
       <c r="AM14" s="47"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C15" s="40"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
-      <c r="L15" s="159"/>
-      <c r="M15" s="159"/>
-      <c r="N15" s="159"/>
-      <c r="O15" s="159"/>
-      <c r="P15" s="159"/>
-      <c r="Q15" s="159"/>
-      <c r="R15" s="159"/>
-      <c r="S15" s="159"/>
-      <c r="T15" s="159"/>
-      <c r="U15" s="159"/>
-      <c r="V15" s="159"/>
-      <c r="W15" s="159"/>
-      <c r="X15" s="159"/>
-      <c r="Y15" s="159"/>
-      <c r="Z15" s="159"/>
-      <c r="AA15" s="159"/>
-      <c r="AB15" s="159"/>
-      <c r="AC15" s="159"/>
-      <c r="AD15" s="159"/>
-      <c r="AE15" s="159"/>
-      <c r="AF15" s="159"/>
-      <c r="AG15" s="159"/>
-      <c r="AH15" s="159"/>
-      <c r="AI15" s="159"/>
-      <c r="AJ15" s="159"/>
-      <c r="AK15" s="159"/>
-      <c r="AL15" s="159"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="156"/>
+      <c r="M15" s="156"/>
+      <c r="N15" s="156"/>
+      <c r="O15" s="156"/>
+      <c r="P15" s="156"/>
+      <c r="Q15" s="156"/>
+      <c r="R15" s="156"/>
+      <c r="S15" s="156"/>
+      <c r="T15" s="156"/>
+      <c r="U15" s="156"/>
+      <c r="V15" s="156"/>
+      <c r="W15" s="156"/>
+      <c r="X15" s="156"/>
+      <c r="Y15" s="156"/>
+      <c r="Z15" s="156"/>
+      <c r="AA15" s="156"/>
+      <c r="AB15" s="156"/>
+      <c r="AC15" s="156"/>
+      <c r="AD15" s="156"/>
+      <c r="AE15" s="156"/>
+      <c r="AF15" s="156"/>
+      <c r="AG15" s="156"/>
+      <c r="AH15" s="156"/>
+      <c r="AI15" s="156"/>
+      <c r="AJ15" s="156"/>
+      <c r="AK15" s="156"/>
+      <c r="AL15" s="156"/>
       <c r="AM15" s="41"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="40"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
-      <c r="M16" s="159"/>
-      <c r="N16" s="159"/>
-      <c r="O16" s="159"/>
-      <c r="P16" s="159"/>
-      <c r="Q16" s="159"/>
-      <c r="R16" s="159"/>
-      <c r="S16" s="159"/>
-      <c r="T16" s="159"/>
-      <c r="U16" s="159"/>
-      <c r="V16" s="159"/>
-      <c r="W16" s="159"/>
-      <c r="X16" s="159"/>
-      <c r="Y16" s="159"/>
-      <c r="Z16" s="159"/>
-      <c r="AA16" s="159"/>
-      <c r="AB16" s="159"/>
-      <c r="AC16" s="159"/>
-      <c r="AD16" s="159"/>
-      <c r="AE16" s="159"/>
-      <c r="AF16" s="159"/>
-      <c r="AG16" s="159"/>
-      <c r="AH16" s="159"/>
-      <c r="AI16" s="159"/>
-      <c r="AJ16" s="159"/>
-      <c r="AK16" s="159"/>
-      <c r="AL16" s="159"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="156"/>
+      <c r="L16" s="156"/>
+      <c r="M16" s="156"/>
+      <c r="N16" s="156"/>
+      <c r="O16" s="156"/>
+      <c r="P16" s="156"/>
+      <c r="Q16" s="156"/>
+      <c r="R16" s="156"/>
+      <c r="S16" s="156"/>
+      <c r="T16" s="156"/>
+      <c r="U16" s="156"/>
+      <c r="V16" s="156"/>
+      <c r="W16" s="156"/>
+      <c r="X16" s="156"/>
+      <c r="Y16" s="156"/>
+      <c r="Z16" s="156"/>
+      <c r="AA16" s="156"/>
+      <c r="AB16" s="156"/>
+      <c r="AC16" s="156"/>
+      <c r="AD16" s="156"/>
+      <c r="AE16" s="156"/>
+      <c r="AF16" s="156"/>
+      <c r="AG16" s="156"/>
+      <c r="AH16" s="156"/>
+      <c r="AI16" s="156"/>
+      <c r="AJ16" s="156"/>
+      <c r="AK16" s="156"/>
+      <c r="AL16" s="156"/>
       <c r="AM16" s="41"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="40"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="159"/>
-      <c r="M17" s="159"/>
-      <c r="N17" s="159"/>
-      <c r="O17" s="159"/>
-      <c r="P17" s="159"/>
-      <c r="Q17" s="159"/>
-      <c r="R17" s="159"/>
-      <c r="S17" s="159"/>
-      <c r="T17" s="159"/>
-      <c r="U17" s="159"/>
-      <c r="V17" s="159"/>
-      <c r="W17" s="159"/>
-      <c r="X17" s="159"/>
-      <c r="Y17" s="159"/>
-      <c r="Z17" s="159"/>
-      <c r="AA17" s="159"/>
-      <c r="AB17" s="159"/>
-      <c r="AC17" s="159"/>
-      <c r="AD17" s="159"/>
-      <c r="AE17" s="159"/>
-      <c r="AF17" s="159"/>
-      <c r="AG17" s="159"/>
-      <c r="AH17" s="159"/>
-      <c r="AI17" s="159"/>
-      <c r="AJ17" s="159"/>
-      <c r="AK17" s="159"/>
-      <c r="AL17" s="159"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="156"/>
+      <c r="N17" s="156"/>
+      <c r="O17" s="156"/>
+      <c r="P17" s="156"/>
+      <c r="Q17" s="156"/>
+      <c r="R17" s="156"/>
+      <c r="S17" s="156"/>
+      <c r="T17" s="156"/>
+      <c r="U17" s="156"/>
+      <c r="V17" s="156"/>
+      <c r="W17" s="156"/>
+      <c r="X17" s="156"/>
+      <c r="Y17" s="156"/>
+      <c r="Z17" s="156"/>
+      <c r="AA17" s="156"/>
+      <c r="AB17" s="156"/>
+      <c r="AC17" s="156"/>
+      <c r="AD17" s="156"/>
+      <c r="AE17" s="156"/>
+      <c r="AF17" s="156"/>
+      <c r="AG17" s="156"/>
+      <c r="AH17" s="156"/>
+      <c r="AI17" s="156"/>
+      <c r="AJ17" s="156"/>
+      <c r="AK17" s="156"/>
+      <c r="AL17" s="156"/>
       <c r="AM17" s="41"/>
     </row>
     <row r="18" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C18" s="40"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="159"/>
-      <c r="L18" s="159"/>
-      <c r="M18" s="159"/>
-      <c r="N18" s="159"/>
-      <c r="O18" s="159"/>
-      <c r="P18" s="159"/>
-      <c r="Q18" s="159"/>
-      <c r="R18" s="159"/>
-      <c r="S18" s="159"/>
-      <c r="T18" s="159"/>
-      <c r="U18" s="159"/>
-      <c r="V18" s="159"/>
-      <c r="W18" s="159"/>
-      <c r="X18" s="159"/>
-      <c r="Y18" s="159"/>
-      <c r="Z18" s="159"/>
-      <c r="AA18" s="159"/>
-      <c r="AB18" s="159"/>
-      <c r="AC18" s="159"/>
-      <c r="AD18" s="159"/>
-      <c r="AE18" s="159"/>
-      <c r="AF18" s="159"/>
-      <c r="AG18" s="159"/>
-      <c r="AH18" s="159"/>
-      <c r="AI18" s="159"/>
-      <c r="AJ18" s="159"/>
-      <c r="AK18" s="159"/>
-      <c r="AL18" s="159"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="156"/>
+      <c r="M18" s="156"/>
+      <c r="N18" s="156"/>
+      <c r="O18" s="156"/>
+      <c r="P18" s="156"/>
+      <c r="Q18" s="156"/>
+      <c r="R18" s="156"/>
+      <c r="S18" s="156"/>
+      <c r="T18" s="156"/>
+      <c r="U18" s="156"/>
+      <c r="V18" s="156"/>
+      <c r="W18" s="156"/>
+      <c r="X18" s="156"/>
+      <c r="Y18" s="156"/>
+      <c r="Z18" s="156"/>
+      <c r="AA18" s="156"/>
+      <c r="AB18" s="156"/>
+      <c r="AC18" s="156"/>
+      <c r="AD18" s="156"/>
+      <c r="AE18" s="156"/>
+      <c r="AF18" s="156"/>
+      <c r="AG18" s="156"/>
+      <c r="AH18" s="156"/>
+      <c r="AI18" s="156"/>
+      <c r="AJ18" s="156"/>
+      <c r="AK18" s="156"/>
+      <c r="AL18" s="156"/>
       <c r="AM18" s="41"/>
     </row>
     <row r="19" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C19" s="40"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="159"/>
-      <c r="L19" s="159"/>
-      <c r="M19" s="159"/>
-      <c r="N19" s="159"/>
-      <c r="O19" s="159"/>
-      <c r="P19" s="159"/>
-      <c r="Q19" s="159"/>
-      <c r="R19" s="159"/>
-      <c r="S19" s="159"/>
-      <c r="T19" s="159"/>
-      <c r="U19" s="159"/>
-      <c r="V19" s="159"/>
-      <c r="W19" s="159"/>
-      <c r="X19" s="159"/>
-      <c r="Y19" s="159"/>
-      <c r="Z19" s="159"/>
-      <c r="AA19" s="159"/>
-      <c r="AB19" s="159"/>
-      <c r="AC19" s="159"/>
-      <c r="AD19" s="159"/>
-      <c r="AE19" s="159"/>
-      <c r="AF19" s="159"/>
-      <c r="AG19" s="159"/>
-      <c r="AH19" s="159"/>
-      <c r="AI19" s="159"/>
-      <c r="AJ19" s="159"/>
-      <c r="AK19" s="159"/>
-      <c r="AL19" s="159"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="156"/>
+      <c r="O19" s="156"/>
+      <c r="P19" s="156"/>
+      <c r="Q19" s="156"/>
+      <c r="R19" s="156"/>
+      <c r="S19" s="156"/>
+      <c r="T19" s="156"/>
+      <c r="U19" s="156"/>
+      <c r="V19" s="156"/>
+      <c r="W19" s="156"/>
+      <c r="X19" s="156"/>
+      <c r="Y19" s="156"/>
+      <c r="Z19" s="156"/>
+      <c r="AA19" s="156"/>
+      <c r="AB19" s="156"/>
+      <c r="AC19" s="156"/>
+      <c r="AD19" s="156"/>
+      <c r="AE19" s="156"/>
+      <c r="AF19" s="156"/>
+      <c r="AG19" s="156"/>
+      <c r="AH19" s="156"/>
+      <c r="AI19" s="156"/>
+      <c r="AJ19" s="156"/>
+      <c r="AK19" s="156"/>
+      <c r="AL19" s="156"/>
       <c r="AM19" s="41"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C20" s="40"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="159"/>
-      <c r="K20" s="159"/>
-      <c r="L20" s="159"/>
-      <c r="M20" s="159"/>
-      <c r="N20" s="159"/>
-      <c r="O20" s="159"/>
-      <c r="P20" s="159"/>
-      <c r="Q20" s="159"/>
-      <c r="R20" s="159"/>
-      <c r="S20" s="159"/>
-      <c r="T20" s="159"/>
-      <c r="U20" s="159"/>
-      <c r="V20" s="159"/>
-      <c r="W20" s="159"/>
-      <c r="X20" s="159"/>
-      <c r="Y20" s="159"/>
-      <c r="Z20" s="159"/>
-      <c r="AA20" s="159"/>
-      <c r="AB20" s="159"/>
-      <c r="AC20" s="159"/>
-      <c r="AD20" s="159"/>
-      <c r="AE20" s="159"/>
-      <c r="AF20" s="159"/>
-      <c r="AG20" s="159"/>
-      <c r="AH20" s="159"/>
-      <c r="AI20" s="159"/>
-      <c r="AJ20" s="159"/>
-      <c r="AK20" s="159"/>
-      <c r="AL20" s="159"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="156"/>
+      <c r="L20" s="156"/>
+      <c r="M20" s="156"/>
+      <c r="N20" s="156"/>
+      <c r="O20" s="156"/>
+      <c r="P20" s="156"/>
+      <c r="Q20" s="156"/>
+      <c r="R20" s="156"/>
+      <c r="S20" s="156"/>
+      <c r="T20" s="156"/>
+      <c r="U20" s="156"/>
+      <c r="V20" s="156"/>
+      <c r="W20" s="156"/>
+      <c r="X20" s="156"/>
+      <c r="Y20" s="156"/>
+      <c r="Z20" s="156"/>
+      <c r="AA20" s="156"/>
+      <c r="AB20" s="156"/>
+      <c r="AC20" s="156"/>
+      <c r="AD20" s="156"/>
+      <c r="AE20" s="156"/>
+      <c r="AF20" s="156"/>
+      <c r="AG20" s="156"/>
+      <c r="AH20" s="156"/>
+      <c r="AI20" s="156"/>
+      <c r="AJ20" s="156"/>
+      <c r="AK20" s="156"/>
+      <c r="AL20" s="156"/>
       <c r="AM20" s="41"/>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C21" s="40"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="159"/>
-      <c r="K21" s="159"/>
-      <c r="L21" s="159"/>
-      <c r="M21" s="159"/>
-      <c r="N21" s="159"/>
-      <c r="O21" s="159"/>
-      <c r="P21" s="159"/>
-      <c r="Q21" s="159"/>
-      <c r="R21" s="159"/>
-      <c r="S21" s="159"/>
-      <c r="T21" s="159"/>
-      <c r="U21" s="159"/>
-      <c r="V21" s="159"/>
-      <c r="W21" s="159"/>
-      <c r="X21" s="159"/>
-      <c r="Y21" s="159"/>
-      <c r="Z21" s="159"/>
-      <c r="AA21" s="159"/>
-      <c r="AB21" s="159"/>
-      <c r="AC21" s="159"/>
-      <c r="AD21" s="159"/>
-      <c r="AE21" s="159"/>
-      <c r="AF21" s="159"/>
-      <c r="AG21" s="159"/>
-      <c r="AH21" s="159"/>
-      <c r="AI21" s="159"/>
-      <c r="AJ21" s="159"/>
-      <c r="AK21" s="159"/>
-      <c r="AL21" s="159"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="156"/>
+      <c r="O21" s="156"/>
+      <c r="P21" s="156"/>
+      <c r="Q21" s="156"/>
+      <c r="R21" s="156"/>
+      <c r="S21" s="156"/>
+      <c r="T21" s="156"/>
+      <c r="U21" s="156"/>
+      <c r="V21" s="156"/>
+      <c r="W21" s="156"/>
+      <c r="X21" s="156"/>
+      <c r="Y21" s="156"/>
+      <c r="Z21" s="156"/>
+      <c r="AA21" s="156"/>
+      <c r="AB21" s="156"/>
+      <c r="AC21" s="156"/>
+      <c r="AD21" s="156"/>
+      <c r="AE21" s="156"/>
+      <c r="AF21" s="156"/>
+      <c r="AG21" s="156"/>
+      <c r="AH21" s="156"/>
+      <c r="AI21" s="156"/>
+      <c r="AJ21" s="156"/>
+      <c r="AK21" s="156"/>
+      <c r="AL21" s="156"/>
       <c r="AM21" s="41"/>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C22" s="40"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="159"/>
-      <c r="K22" s="159"/>
-      <c r="L22" s="159"/>
-      <c r="M22" s="159"/>
-      <c r="N22" s="159"/>
-      <c r="O22" s="159"/>
-      <c r="P22" s="159"/>
-      <c r="Q22" s="159"/>
-      <c r="R22" s="159"/>
-      <c r="S22" s="159"/>
-      <c r="T22" s="159"/>
-      <c r="U22" s="159"/>
-      <c r="V22" s="159"/>
-      <c r="W22" s="159"/>
-      <c r="X22" s="159"/>
-      <c r="Y22" s="159"/>
-      <c r="Z22" s="159"/>
-      <c r="AA22" s="159"/>
-      <c r="AB22" s="159"/>
-      <c r="AC22" s="159"/>
-      <c r="AD22" s="159"/>
-      <c r="AE22" s="159"/>
-      <c r="AF22" s="159"/>
-      <c r="AG22" s="159"/>
-      <c r="AH22" s="159"/>
-      <c r="AI22" s="159"/>
-      <c r="AJ22" s="159"/>
-      <c r="AK22" s="159"/>
-      <c r="AL22" s="159"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="156"/>
+      <c r="O22" s="156"/>
+      <c r="P22" s="156"/>
+      <c r="Q22" s="156"/>
+      <c r="R22" s="156"/>
+      <c r="S22" s="156"/>
+      <c r="T22" s="156"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="156"/>
+      <c r="W22" s="156"/>
+      <c r="X22" s="156"/>
+      <c r="Y22" s="156"/>
+      <c r="Z22" s="156"/>
+      <c r="AA22" s="156"/>
+      <c r="AB22" s="156"/>
+      <c r="AC22" s="156"/>
+      <c r="AD22" s="156"/>
+      <c r="AE22" s="156"/>
+      <c r="AF22" s="156"/>
+      <c r="AG22" s="156"/>
+      <c r="AH22" s="156"/>
+      <c r="AI22" s="156"/>
+      <c r="AJ22" s="156"/>
+      <c r="AK22" s="156"/>
+      <c r="AL22" s="156"/>
       <c r="AM22" s="41"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="40"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="159"/>
-      <c r="K23" s="159"/>
-      <c r="L23" s="159"/>
-      <c r="M23" s="159"/>
-      <c r="N23" s="159"/>
-      <c r="O23" s="159"/>
-      <c r="P23" s="159"/>
-      <c r="Q23" s="159"/>
-      <c r="R23" s="159"/>
-      <c r="S23" s="159"/>
-      <c r="T23" s="159"/>
-      <c r="U23" s="159"/>
-      <c r="V23" s="159"/>
-      <c r="W23" s="159"/>
-      <c r="X23" s="159"/>
-      <c r="Y23" s="159"/>
-      <c r="Z23" s="159"/>
-      <c r="AA23" s="159"/>
-      <c r="AB23" s="159"/>
-      <c r="AC23" s="159"/>
-      <c r="AD23" s="159"/>
-      <c r="AE23" s="159"/>
-      <c r="AF23" s="159"/>
-      <c r="AG23" s="159"/>
-      <c r="AH23" s="159"/>
-      <c r="AI23" s="159"/>
-      <c r="AJ23" s="159"/>
-      <c r="AK23" s="159"/>
-      <c r="AL23" s="159"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="156"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="156"/>
+      <c r="O23" s="156"/>
+      <c r="P23" s="156"/>
+      <c r="Q23" s="156"/>
+      <c r="R23" s="156"/>
+      <c r="S23" s="156"/>
+      <c r="T23" s="156"/>
+      <c r="U23" s="156"/>
+      <c r="V23" s="156"/>
+      <c r="W23" s="156"/>
+      <c r="X23" s="156"/>
+      <c r="Y23" s="156"/>
+      <c r="Z23" s="156"/>
+      <c r="AA23" s="156"/>
+      <c r="AB23" s="156"/>
+      <c r="AC23" s="156"/>
+      <c r="AD23" s="156"/>
+      <c r="AE23" s="156"/>
+      <c r="AF23" s="156"/>
+      <c r="AG23" s="156"/>
+      <c r="AH23" s="156"/>
+      <c r="AI23" s="156"/>
+      <c r="AJ23" s="156"/>
+      <c r="AK23" s="156"/>
+      <c r="AL23" s="156"/>
       <c r="AM23" s="41"/>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="40"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="159"/>
-      <c r="K24" s="159"/>
-      <c r="L24" s="159"/>
-      <c r="M24" s="159"/>
-      <c r="N24" s="159"/>
-      <c r="O24" s="159"/>
-      <c r="P24" s="159"/>
-      <c r="Q24" s="159"/>
-      <c r="R24" s="159"/>
-      <c r="S24" s="159"/>
-      <c r="T24" s="159"/>
-      <c r="U24" s="159"/>
-      <c r="V24" s="159"/>
-      <c r="W24" s="159"/>
-      <c r="X24" s="159"/>
-      <c r="Y24" s="159"/>
-      <c r="Z24" s="159"/>
-      <c r="AA24" s="159"/>
-      <c r="AB24" s="159"/>
-      <c r="AC24" s="159"/>
-      <c r="AD24" s="159"/>
-      <c r="AE24" s="159"/>
-      <c r="AF24" s="159"/>
-      <c r="AG24" s="159"/>
-      <c r="AH24" s="159"/>
-      <c r="AI24" s="159"/>
-      <c r="AJ24" s="159"/>
-      <c r="AK24" s="159"/>
-      <c r="AL24" s="159"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="156"/>
+      <c r="L24" s="156"/>
+      <c r="M24" s="156"/>
+      <c r="N24" s="156"/>
+      <c r="O24" s="156"/>
+      <c r="P24" s="156"/>
+      <c r="Q24" s="156"/>
+      <c r="R24" s="156"/>
+      <c r="S24" s="156"/>
+      <c r="T24" s="156"/>
+      <c r="U24" s="156"/>
+      <c r="V24" s="156"/>
+      <c r="W24" s="156"/>
+      <c r="X24" s="156"/>
+      <c r="Y24" s="156"/>
+      <c r="Z24" s="156"/>
+      <c r="AA24" s="156"/>
+      <c r="AB24" s="156"/>
+      <c r="AC24" s="156"/>
+      <c r="AD24" s="156"/>
+      <c r="AE24" s="156"/>
+      <c r="AF24" s="156"/>
+      <c r="AG24" s="156"/>
+      <c r="AH24" s="156"/>
+      <c r="AI24" s="156"/>
+      <c r="AJ24" s="156"/>
+      <c r="AK24" s="156"/>
+      <c r="AL24" s="156"/>
       <c r="AM24" s="41"/>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="40"/>
-      <c r="D25" s="159"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="159"/>
-      <c r="K25" s="159"/>
-      <c r="L25" s="159"/>
-      <c r="M25" s="159"/>
-      <c r="N25" s="159"/>
-      <c r="O25" s="159"/>
-      <c r="P25" s="159"/>
-      <c r="Q25" s="159"/>
-      <c r="R25" s="159"/>
-      <c r="S25" s="159"/>
-      <c r="T25" s="159"/>
-      <c r="U25" s="159"/>
-      <c r="V25" s="159"/>
-      <c r="W25" s="159"/>
-      <c r="X25" s="159"/>
-      <c r="Y25" s="159"/>
-      <c r="Z25" s="159"/>
-      <c r="AA25" s="159"/>
-      <c r="AB25" s="159"/>
-      <c r="AC25" s="159"/>
-      <c r="AD25" s="159"/>
-      <c r="AE25" s="159"/>
-      <c r="AF25" s="159"/>
-      <c r="AG25" s="159"/>
-      <c r="AH25" s="159"/>
-      <c r="AI25" s="159"/>
-      <c r="AJ25" s="159"/>
-      <c r="AK25" s="159"/>
-      <c r="AL25" s="159"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="156"/>
+      <c r="P25" s="156"/>
+      <c r="Q25" s="156"/>
+      <c r="R25" s="156"/>
+      <c r="S25" s="156"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="156"/>
+      <c r="V25" s="156"/>
+      <c r="W25" s="156"/>
+      <c r="X25" s="156"/>
+      <c r="Y25" s="156"/>
+      <c r="Z25" s="156"/>
+      <c r="AA25" s="156"/>
+      <c r="AB25" s="156"/>
+      <c r="AC25" s="156"/>
+      <c r="AD25" s="156"/>
+      <c r="AE25" s="156"/>
+      <c r="AF25" s="156"/>
+      <c r="AG25" s="156"/>
+      <c r="AH25" s="156"/>
+      <c r="AI25" s="156"/>
+      <c r="AJ25" s="156"/>
+      <c r="AK25" s="156"/>
+      <c r="AL25" s="156"/>
       <c r="AM25" s="41"/>
     </row>
     <row r="26" customFormat="false" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="40"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="159"/>
-      <c r="K26" s="159"/>
-      <c r="L26" s="159"/>
-      <c r="M26" s="159"/>
-      <c r="N26" s="159"/>
-      <c r="O26" s="159"/>
-      <c r="P26" s="159"/>
-      <c r="Q26" s="159"/>
-      <c r="R26" s="159"/>
-      <c r="S26" s="159"/>
-      <c r="T26" s="159"/>
-      <c r="U26" s="159"/>
-      <c r="V26" s="159"/>
-      <c r="W26" s="159"/>
-      <c r="X26" s="159"/>
-      <c r="Y26" s="159"/>
-      <c r="Z26" s="159"/>
-      <c r="AA26" s="159"/>
-      <c r="AB26" s="159"/>
-      <c r="AC26" s="159"/>
-      <c r="AD26" s="159"/>
-      <c r="AE26" s="159"/>
-      <c r="AF26" s="159"/>
-      <c r="AG26" s="159"/>
-      <c r="AH26" s="159"/>
-      <c r="AI26" s="159"/>
-      <c r="AJ26" s="159"/>
-      <c r="AK26" s="159"/>
-      <c r="AL26" s="159"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="156"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="156"/>
+      <c r="P26" s="156"/>
+      <c r="Q26" s="156"/>
+      <c r="R26" s="156"/>
+      <c r="S26" s="156"/>
+      <c r="T26" s="156"/>
+      <c r="U26" s="156"/>
+      <c r="V26" s="156"/>
+      <c r="W26" s="156"/>
+      <c r="X26" s="156"/>
+      <c r="Y26" s="156"/>
+      <c r="Z26" s="156"/>
+      <c r="AA26" s="156"/>
+      <c r="AB26" s="156"/>
+      <c r="AC26" s="156"/>
+      <c r="AD26" s="156"/>
+      <c r="AE26" s="156"/>
+      <c r="AF26" s="156"/>
+      <c r="AG26" s="156"/>
+      <c r="AH26" s="156"/>
+      <c r="AI26" s="156"/>
+      <c r="AJ26" s="156"/>
+      <c r="AK26" s="156"/>
+      <c r="AL26" s="156"/>
       <c r="AM26" s="41"/>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="40"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="159"/>
-      <c r="K27" s="159"/>
-      <c r="L27" s="159"/>
-      <c r="M27" s="159"/>
-      <c r="N27" s="159"/>
-      <c r="O27" s="159"/>
-      <c r="P27" s="159"/>
-      <c r="Q27" s="159"/>
-      <c r="R27" s="159"/>
-      <c r="S27" s="159"/>
-      <c r="T27" s="159"/>
-      <c r="U27" s="159"/>
-      <c r="V27" s="159"/>
-      <c r="W27" s="159"/>
-      <c r="X27" s="159"/>
-      <c r="Y27" s="159"/>
-      <c r="Z27" s="159"/>
-      <c r="AA27" s="159"/>
-      <c r="AB27" s="159"/>
-      <c r="AC27" s="159"/>
-      <c r="AD27" s="159"/>
-      <c r="AE27" s="159"/>
-      <c r="AF27" s="159"/>
-      <c r="AG27" s="159"/>
-      <c r="AH27" s="159"/>
-      <c r="AI27" s="159"/>
-      <c r="AJ27" s="159"/>
-      <c r="AK27" s="159"/>
-      <c r="AL27" s="159"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="156"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="156"/>
+      <c r="N27" s="156"/>
+      <c r="O27" s="156"/>
+      <c r="P27" s="156"/>
+      <c r="Q27" s="156"/>
+      <c r="R27" s="156"/>
+      <c r="S27" s="156"/>
+      <c r="T27" s="156"/>
+      <c r="U27" s="156"/>
+      <c r="V27" s="156"/>
+      <c r="W27" s="156"/>
+      <c r="X27" s="156"/>
+      <c r="Y27" s="156"/>
+      <c r="Z27" s="156"/>
+      <c r="AA27" s="156"/>
+      <c r="AB27" s="156"/>
+      <c r="AC27" s="156"/>
+      <c r="AD27" s="156"/>
+      <c r="AE27" s="156"/>
+      <c r="AF27" s="156"/>
+      <c r="AG27" s="156"/>
+      <c r="AH27" s="156"/>
+      <c r="AI27" s="156"/>
+      <c r="AJ27" s="156"/>
+      <c r="AK27" s="156"/>
+      <c r="AL27" s="156"/>
       <c r="AM27" s="41"/>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8172,8 +8161,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:AM54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="T11:Y54 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8189,43 +8178,43 @@
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="161"/>
-      <c r="S1" s="161"/>
-      <c r="T1" s="161"/>
-      <c r="U1" s="161"/>
-      <c r="V1" s="161"/>
-      <c r="W1" s="161"/>
-      <c r="X1" s="161"/>
-      <c r="Y1" s="161"/>
-      <c r="Z1" s="161"/>
-      <c r="AA1" s="161"/>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="161"/>
-      <c r="AD1" s="161"/>
-      <c r="AE1" s="161"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="161"/>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="161"/>
-      <c r="AJ1" s="161"/>
-      <c r="AK1" s="161"/>
-      <c r="AL1" s="161"/>
-      <c r="AM1" s="162"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="158"/>
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
+      <c r="AF1" s="158"/>
+      <c r="AG1" s="158"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="158"/>
+      <c r="AJ1" s="158"/>
+      <c r="AK1" s="158"/>
+      <c r="AL1" s="158"/>
+      <c r="AM1" s="159"/>
       <c r="AN1" s="4"/>
       <c r="AO1" s="4"/>
       <c r="AP1" s="4"/>
@@ -8264,7 +8253,7 @@
       <c r="BW1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="154"/>
+      <c r="C2" s="160"/>
       <c r="D2" s="73"/>
       <c r="E2" s="73"/>
       <c r="F2" s="73"/>
@@ -8300,10 +8289,10 @@
       <c r="AJ2" s="73"/>
       <c r="AK2" s="73"/>
       <c r="AL2" s="73"/>
-      <c r="AM2" s="155"/>
+      <c r="AM2" s="151"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C3" s="154"/>
+      <c r="C3" s="160"/>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
       <c r="F3" s="73"/>
@@ -8339,10 +8328,10 @@
       <c r="AJ3" s="73"/>
       <c r="AK3" s="73"/>
       <c r="AL3" s="73"/>
-      <c r="AM3" s="155"/>
+      <c r="AM3" s="151"/>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C4" s="154"/>
+      <c r="C4" s="160"/>
       <c r="D4" s="73"/>
       <c r="E4" s="73"/>
       <c r="F4" s="73"/>
@@ -8378,14 +8367,14 @@
       <c r="AJ4" s="73"/>
       <c r="AK4" s="73"/>
       <c r="AL4" s="73"/>
-      <c r="AM4" s="155"/>
+      <c r="AM4" s="151"/>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="154"/>
+      <c r="C5" s="160"/>
       <c r="D5" s="73"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
       <c r="H5" s="73"/>
       <c r="I5" s="73"/>
       <c r="J5" s="73"/>
@@ -8417,11 +8406,11 @@
       <c r="AJ5" s="73"/>
       <c r="AK5" s="73"/>
       <c r="AL5" s="73"/>
-      <c r="AM5" s="155"/>
+      <c r="AM5" s="151"/>
       <c r="AQ5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C6" s="154"/>
+      <c r="C6" s="160"/>
       <c r="D6" s="73"/>
       <c r="E6" s="73"/>
       <c r="F6" s="73"/>
@@ -8457,10 +8446,10 @@
       <c r="AJ6" s="73"/>
       <c r="AK6" s="73"/>
       <c r="AL6" s="73"/>
-      <c r="AM6" s="155"/>
+      <c r="AM6" s="151"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="154"/>
+      <c r="C7" s="160"/>
       <c r="D7" s="73"/>
       <c r="E7" s="73"/>
       <c r="F7" s="73"/>
@@ -8496,10 +8485,10 @@
       <c r="AJ7" s="73"/>
       <c r="AK7" s="73"/>
       <c r="AL7" s="73"/>
-      <c r="AM7" s="155"/>
+      <c r="AM7" s="151"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C8" s="154"/>
+      <c r="C8" s="160"/>
       <c r="D8" s="73"/>
       <c r="E8" s="73"/>
       <c r="F8" s="73"/>
@@ -8535,10 +8524,10 @@
       <c r="AJ8" s="73"/>
       <c r="AK8" s="73"/>
       <c r="AL8" s="73"/>
-      <c r="AM8" s="155"/>
+      <c r="AM8" s="151"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="154"/>
+      <c r="C9" s="160"/>
       <c r="D9" s="73"/>
       <c r="E9" s="73"/>
       <c r="F9" s="73"/>
@@ -8574,10 +8563,10 @@
       <c r="AJ9" s="73"/>
       <c r="AK9" s="73"/>
       <c r="AL9" s="73"/>
-      <c r="AM9" s="155"/>
+      <c r="AM9" s="151"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="154"/>
+      <c r="C10" s="160"/>
       <c r="D10" s="73"/>
       <c r="E10" s="73"/>
       <c r="F10" s="73"/>
@@ -8613,10 +8602,10 @@
       <c r="AJ10" s="73"/>
       <c r="AK10" s="73"/>
       <c r="AL10" s="73"/>
-      <c r="AM10" s="155"/>
+      <c r="AM10" s="151"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="154"/>
+      <c r="C11" s="160"/>
       <c r="D11" s="73"/>
       <c r="E11" s="73"/>
       <c r="F11" s="73"/>
@@ -8652,10 +8641,10 @@
       <c r="AJ11" s="73"/>
       <c r="AK11" s="73"/>
       <c r="AL11" s="73"/>
-      <c r="AM11" s="155"/>
+      <c r="AM11" s="151"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="154"/>
+      <c r="C12" s="160"/>
       <c r="D12" s="73"/>
       <c r="E12" s="73"/>
       <c r="F12" s="73"/>
@@ -8691,10 +8680,10 @@
       <c r="AJ12" s="73"/>
       <c r="AK12" s="73"/>
       <c r="AL12" s="73"/>
-      <c r="AM12" s="155"/>
+      <c r="AM12" s="151"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="154"/>
+      <c r="C13" s="160"/>
       <c r="D13" s="73"/>
       <c r="E13" s="73"/>
       <c r="F13" s="73"/>
@@ -8730,10 +8719,10 @@
       <c r="AJ13" s="73"/>
       <c r="AK13" s="73"/>
       <c r="AL13" s="73"/>
-      <c r="AM13" s="155"/>
+      <c r="AM13" s="151"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="154"/>
+      <c r="C14" s="160"/>
       <c r="D14" s="73"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
@@ -8769,10 +8758,10 @@
       <c r="AJ14" s="73"/>
       <c r="AK14" s="73"/>
       <c r="AL14" s="73"/>
-      <c r="AM14" s="155"/>
+      <c r="AM14" s="151"/>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="154"/>
+      <c r="C15" s="160"/>
       <c r="D15" s="73"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
@@ -8808,10 +8797,10 @@
       <c r="AJ15" s="73"/>
       <c r="AK15" s="73"/>
       <c r="AL15" s="73"/>
-      <c r="AM15" s="155"/>
+      <c r="AM15" s="151"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="154"/>
+      <c r="C16" s="160"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
@@ -8847,10 +8836,10 @@
       <c r="AJ16" s="73"/>
       <c r="AK16" s="73"/>
       <c r="AL16" s="73"/>
-      <c r="AM16" s="155"/>
+      <c r="AM16" s="151"/>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C17" s="154"/>
+      <c r="C17" s="160"/>
       <c r="D17" s="73"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
@@ -8886,10 +8875,10 @@
       <c r="AJ17" s="73"/>
       <c r="AK17" s="73"/>
       <c r="AL17" s="73"/>
-      <c r="AM17" s="155"/>
+      <c r="AM17" s="151"/>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C18" s="154"/>
+      <c r="C18" s="160"/>
       <c r="D18" s="73"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
@@ -8925,10 +8914,10 @@
       <c r="AJ18" s="73"/>
       <c r="AK18" s="73"/>
       <c r="AL18" s="73"/>
-      <c r="AM18" s="155"/>
+      <c r="AM18" s="151"/>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C19" s="154"/>
+      <c r="C19" s="160"/>
       <c r="D19" s="73"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
@@ -8964,10 +8953,10 @@
       <c r="AJ19" s="73"/>
       <c r="AK19" s="73"/>
       <c r="AL19" s="73"/>
-      <c r="AM19" s="155"/>
+      <c r="AM19" s="151"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="154"/>
+      <c r="C20" s="160"/>
       <c r="D20" s="73"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
@@ -9003,10 +8992,10 @@
       <c r="AJ20" s="73"/>
       <c r="AK20" s="73"/>
       <c r="AL20" s="73"/>
-      <c r="AM20" s="155"/>
+      <c r="AM20" s="151"/>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="154"/>
+      <c r="C21" s="160"/>
       <c r="D21" s="73"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
@@ -9042,10 +9031,10 @@
       <c r="AJ21" s="73"/>
       <c r="AK21" s="73"/>
       <c r="AL21" s="73"/>
-      <c r="AM21" s="155"/>
+      <c r="AM21" s="151"/>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="154"/>
+      <c r="C22" s="160"/>
       <c r="D22" s="73"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
@@ -9081,10 +9070,10 @@
       <c r="AJ22" s="73"/>
       <c r="AK22" s="73"/>
       <c r="AL22" s="73"/>
-      <c r="AM22" s="155"/>
+      <c r="AM22" s="151"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="154"/>
+      <c r="C23" s="160"/>
       <c r="D23" s="73"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
@@ -9120,10 +9109,10 @@
       <c r="AJ23" s="73"/>
       <c r="AK23" s="73"/>
       <c r="AL23" s="73"/>
-      <c r="AM23" s="155"/>
+      <c r="AM23" s="151"/>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="154"/>
+      <c r="C24" s="160"/>
       <c r="D24" s="73"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
@@ -9159,10 +9148,10 @@
       <c r="AJ24" s="73"/>
       <c r="AK24" s="73"/>
       <c r="AL24" s="73"/>
-      <c r="AM24" s="155"/>
+      <c r="AM24" s="151"/>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="154"/>
+      <c r="C25" s="160"/>
       <c r="D25" s="73"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
@@ -9198,10 +9187,10 @@
       <c r="AJ25" s="73"/>
       <c r="AK25" s="73"/>
       <c r="AL25" s="73"/>
-      <c r="AM25" s="155"/>
+      <c r="AM25" s="151"/>
     </row>
     <row r="26" customFormat="false" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="154"/>
+      <c r="C26" s="160"/>
       <c r="D26" s="73"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
@@ -9237,10 +9226,10 @@
       <c r="AJ26" s="73"/>
       <c r="AK26" s="73"/>
       <c r="AL26" s="73"/>
-      <c r="AM26" s="155"/>
+      <c r="AM26" s="151"/>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C27" s="154"/>
+      <c r="C27" s="160"/>
       <c r="D27" s="73"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
@@ -9276,10 +9265,10 @@
       <c r="AJ27" s="73"/>
       <c r="AK27" s="73"/>
       <c r="AL27" s="73"/>
-      <c r="AM27" s="155"/>
+      <c r="AM27" s="151"/>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C28" s="154"/>
+      <c r="C28" s="160"/>
       <c r="D28" s="73"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
@@ -9315,14 +9304,14 @@
       <c r="AJ28" s="73"/>
       <c r="AK28" s="73"/>
       <c r="AL28" s="73"/>
-      <c r="AM28" s="155"/>
+      <c r="AM28" s="151"/>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="50"/>
-      <c r="C29" s="154"/>
+      <c r="C29" s="160"/>
       <c r="D29" s="73"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
@@ -9358,12 +9347,12 @@
       <c r="AJ29" s="73"/>
       <c r="AK29" s="73"/>
       <c r="AL29" s="73"/>
-      <c r="AM29" s="155"/>
+      <c r="AM29" s="151"/>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
-      <c r="C30" s="154"/>
+      <c r="C30" s="160"/>
       <c r="D30" s="73"/>
       <c r="E30" s="73"/>
       <c r="F30" s="73"/>
@@ -9399,12 +9388,12 @@
       <c r="AJ30" s="73"/>
       <c r="AK30" s="73"/>
       <c r="AL30" s="73"/>
-      <c r="AM30" s="155"/>
+      <c r="AM30" s="151"/>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
-      <c r="C31" s="154"/>
+      <c r="C31" s="160"/>
       <c r="D31" s="73"/>
       <c r="E31" s="73"/>
       <c r="F31" s="73"/>
@@ -9440,12 +9429,12 @@
       <c r="AJ31" s="73"/>
       <c r="AK31" s="73"/>
       <c r="AL31" s="73"/>
-      <c r="AM31" s="155"/>
+      <c r="AM31" s="151"/>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
-      <c r="C32" s="154"/>
+      <c r="C32" s="160"/>
       <c r="D32" s="73"/>
       <c r="E32" s="73"/>
       <c r="F32" s="73"/>
@@ -9481,12 +9470,12 @@
       <c r="AJ32" s="73"/>
       <c r="AK32" s="73"/>
       <c r="AL32" s="73"/>
-      <c r="AM32" s="155"/>
+      <c r="AM32" s="151"/>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
-      <c r="C33" s="154"/>
+      <c r="C33" s="160"/>
       <c r="D33" s="73"/>
       <c r="E33" s="73"/>
       <c r="F33" s="73"/>
@@ -9522,12 +9511,12 @@
       <c r="AJ33" s="73"/>
       <c r="AK33" s="73"/>
       <c r="AL33" s="73"/>
-      <c r="AM33" s="155"/>
+      <c r="AM33" s="151"/>
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
-      <c r="C34" s="154"/>
+      <c r="C34" s="160"/>
       <c r="D34" s="73"/>
       <c r="E34" s="73"/>
       <c r="F34" s="73"/>
@@ -9563,12 +9552,12 @@
       <c r="AJ34" s="73"/>
       <c r="AK34" s="73"/>
       <c r="AL34" s="73"/>
-      <c r="AM34" s="155"/>
+      <c r="AM34" s="151"/>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
-      <c r="C35" s="154"/>
+      <c r="C35" s="160"/>
       <c r="D35" s="73"/>
       <c r="E35" s="73"/>
       <c r="F35" s="73"/>
@@ -9604,14 +9593,14 @@
       <c r="AJ35" s="73"/>
       <c r="AK35" s="73"/>
       <c r="AL35" s="73"/>
-      <c r="AM35" s="155"/>
+      <c r="AM35" s="151"/>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="50"/>
-      <c r="C36" s="154"/>
+      <c r="C36" s="160"/>
       <c r="D36" s="73"/>
       <c r="E36" s="73"/>
       <c r="F36" s="73"/>
@@ -9647,12 +9636,12 @@
       <c r="AJ36" s="73"/>
       <c r="AK36" s="73"/>
       <c r="AL36" s="73"/>
-      <c r="AM36" s="155"/>
+      <c r="AM36" s="151"/>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
-      <c r="C37" s="154"/>
+      <c r="C37" s="160"/>
       <c r="D37" s="73"/>
       <c r="E37" s="73"/>
       <c r="F37" s="73"/>
@@ -9688,12 +9677,12 @@
       <c r="AJ37" s="73"/>
       <c r="AK37" s="73"/>
       <c r="AL37" s="73"/>
-      <c r="AM37" s="155"/>
+      <c r="AM37" s="151"/>
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
-      <c r="C38" s="154"/>
+      <c r="C38" s="160"/>
       <c r="D38" s="73"/>
       <c r="E38" s="73"/>
       <c r="F38" s="73"/>
@@ -9729,12 +9718,12 @@
       <c r="AJ38" s="73"/>
       <c r="AK38" s="73"/>
       <c r="AL38" s="73"/>
-      <c r="AM38" s="155"/>
+      <c r="AM38" s="151"/>
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
-      <c r="C39" s="154"/>
+      <c r="C39" s="160"/>
       <c r="D39" s="73"/>
       <c r="E39" s="73"/>
       <c r="F39" s="73"/>
@@ -9770,12 +9759,12 @@
       <c r="AJ39" s="73"/>
       <c r="AK39" s="73"/>
       <c r="AL39" s="73"/>
-      <c r="AM39" s="155"/>
+      <c r="AM39" s="151"/>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
       <c r="B40" s="50"/>
-      <c r="C40" s="154"/>
+      <c r="C40" s="160"/>
       <c r="D40" s="73"/>
       <c r="E40" s="73"/>
       <c r="F40" s="73"/>
@@ -9811,14 +9800,14 @@
       <c r="AJ40" s="73"/>
       <c r="AK40" s="73"/>
       <c r="AL40" s="73"/>
-      <c r="AM40" s="155"/>
+      <c r="AM40" s="151"/>
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="50"/>
-      <c r="C41" s="154"/>
+      <c r="C41" s="160"/>
       <c r="D41" s="73"/>
       <c r="E41" s="73"/>
       <c r="F41" s="73"/>
@@ -9854,12 +9843,12 @@
       <c r="AJ41" s="73"/>
       <c r="AK41" s="73"/>
       <c r="AL41" s="73"/>
-      <c r="AM41" s="155"/>
+      <c r="AM41" s="151"/>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49"/>
       <c r="B42" s="50"/>
-      <c r="C42" s="154"/>
+      <c r="C42" s="160"/>
       <c r="D42" s="73"/>
       <c r="E42" s="73"/>
       <c r="F42" s="73"/>
@@ -9895,12 +9884,12 @@
       <c r="AJ42" s="73"/>
       <c r="AK42" s="73"/>
       <c r="AL42" s="73"/>
-      <c r="AM42" s="155"/>
+      <c r="AM42" s="151"/>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="49"/>
       <c r="B43" s="50"/>
-      <c r="C43" s="154"/>
+      <c r="C43" s="160"/>
       <c r="D43" s="73"/>
       <c r="E43" s="73"/>
       <c r="F43" s="73"/>
@@ -9936,12 +9925,12 @@
       <c r="AJ43" s="73"/>
       <c r="AK43" s="73"/>
       <c r="AL43" s="73"/>
-      <c r="AM43" s="155"/>
+      <c r="AM43" s="151"/>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="49"/>
       <c r="B44" s="50"/>
-      <c r="C44" s="154"/>
+      <c r="C44" s="160"/>
       <c r="D44" s="73"/>
       <c r="E44" s="73"/>
       <c r="F44" s="73"/>
@@ -9977,12 +9966,12 @@
       <c r="AJ44" s="73"/>
       <c r="AK44" s="73"/>
       <c r="AL44" s="73"/>
-      <c r="AM44" s="155"/>
+      <c r="AM44" s="151"/>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="49"/>
       <c r="B45" s="50"/>
-      <c r="C45" s="154"/>
+      <c r="C45" s="160"/>
       <c r="D45" s="73"/>
       <c r="E45" s="73"/>
       <c r="F45" s="73"/>
@@ -10018,14 +10007,14 @@
       <c r="AJ45" s="73"/>
       <c r="AK45" s="73"/>
       <c r="AL45" s="73"/>
-      <c r="AM45" s="155"/>
+      <c r="AM45" s="151"/>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="50"/>
-      <c r="C46" s="154"/>
+      <c r="C46" s="160"/>
       <c r="D46" s="73"/>
       <c r="E46" s="73"/>
       <c r="F46" s="73"/>
@@ -10061,12 +10050,12 @@
       <c r="AJ46" s="73"/>
       <c r="AK46" s="73"/>
       <c r="AL46" s="73"/>
-      <c r="AM46" s="155"/>
+      <c r="AM46" s="151"/>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="49"/>
       <c r="B47" s="50"/>
-      <c r="C47" s="154"/>
+      <c r="C47" s="160"/>
       <c r="D47" s="73"/>
       <c r="E47" s="73"/>
       <c r="F47" s="73"/>
@@ -10102,12 +10091,12 @@
       <c r="AJ47" s="73"/>
       <c r="AK47" s="73"/>
       <c r="AL47" s="73"/>
-      <c r="AM47" s="155"/>
+      <c r="AM47" s="151"/>
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="49"/>
       <c r="B48" s="50"/>
-      <c r="C48" s="154"/>
+      <c r="C48" s="160"/>
       <c r="D48" s="73"/>
       <c r="E48" s="73"/>
       <c r="F48" s="73"/>
@@ -10143,12 +10132,12 @@
       <c r="AJ48" s="73"/>
       <c r="AK48" s="73"/>
       <c r="AL48" s="73"/>
-      <c r="AM48" s="155"/>
+      <c r="AM48" s="151"/>
     </row>
     <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="49"/>
       <c r="B49" s="50"/>
-      <c r="C49" s="154"/>
+      <c r="C49" s="160"/>
       <c r="D49" s="73"/>
       <c r="E49" s="73"/>
       <c r="F49" s="73"/>
@@ -10184,12 +10173,12 @@
       <c r="AJ49" s="73"/>
       <c r="AK49" s="73"/>
       <c r="AL49" s="73"/>
-      <c r="AM49" s="155"/>
+      <c r="AM49" s="151"/>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="49"/>
       <c r="B50" s="50"/>
-      <c r="C50" s="154"/>
+      <c r="C50" s="160"/>
       <c r="D50" s="73"/>
       <c r="E50" s="73"/>
       <c r="F50" s="73"/>
@@ -10225,12 +10214,12 @@
       <c r="AJ50" s="73"/>
       <c r="AK50" s="73"/>
       <c r="AL50" s="73"/>
-      <c r="AM50" s="155"/>
+      <c r="AM50" s="151"/>
     </row>
     <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="49"/>
       <c r="B51" s="50"/>
-      <c r="C51" s="154"/>
+      <c r="C51" s="160"/>
       <c r="D51" s="73"/>
       <c r="E51" s="73"/>
       <c r="F51" s="73"/>
@@ -10266,12 +10255,12 @@
       <c r="AJ51" s="73"/>
       <c r="AK51" s="73"/>
       <c r="AL51" s="73"/>
-      <c r="AM51" s="155"/>
+      <c r="AM51" s="151"/>
     </row>
     <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="49"/>
       <c r="B52" s="50"/>
-      <c r="C52" s="154"/>
+      <c r="C52" s="160"/>
       <c r="D52" s="73"/>
       <c r="E52" s="73"/>
       <c r="F52" s="73"/>
@@ -10307,14 +10296,14 @@
       <c r="AJ52" s="73"/>
       <c r="AK52" s="73"/>
       <c r="AL52" s="73"/>
-      <c r="AM52" s="155"/>
+      <c r="AM52" s="151"/>
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="55"/>
-      <c r="C53" s="154"/>
+      <c r="C53" s="160"/>
       <c r="D53" s="73"/>
       <c r="E53" s="73"/>
       <c r="F53" s="73"/>
@@ -10350,48 +10339,48 @@
       <c r="AJ53" s="73"/>
       <c r="AK53" s="73"/>
       <c r="AL53" s="73"/>
-      <c r="AM53" s="155"/>
+      <c r="AM53" s="151"/>
     </row>
     <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="49"/>
       <c r="B54" s="55"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="157"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
-      <c r="H54" s="157"/>
-      <c r="I54" s="157"/>
-      <c r="J54" s="157"/>
-      <c r="K54" s="157"/>
-      <c r="L54" s="157"/>
-      <c r="M54" s="157"/>
-      <c r="N54" s="157"/>
-      <c r="O54" s="157"/>
-      <c r="P54" s="157"/>
-      <c r="Q54" s="157"/>
-      <c r="R54" s="157"/>
-      <c r="S54" s="157"/>
-      <c r="T54" s="157"/>
-      <c r="U54" s="157"/>
-      <c r="V54" s="157"/>
-      <c r="W54" s="157"/>
-      <c r="X54" s="157"/>
-      <c r="Y54" s="157"/>
-      <c r="Z54" s="157"/>
-      <c r="AA54" s="157"/>
-      <c r="AB54" s="157"/>
-      <c r="AC54" s="157"/>
-      <c r="AD54" s="157"/>
-      <c r="AE54" s="157"/>
-      <c r="AF54" s="157"/>
-      <c r="AG54" s="157"/>
-      <c r="AH54" s="157"/>
-      <c r="AI54" s="157"/>
-      <c r="AJ54" s="157"/>
-      <c r="AK54" s="157"/>
-      <c r="AL54" s="157"/>
-      <c r="AM54" s="158"/>
+      <c r="C54" s="162"/>
+      <c r="D54" s="154"/>
+      <c r="E54" s="154"/>
+      <c r="F54" s="154"/>
+      <c r="G54" s="154"/>
+      <c r="H54" s="154"/>
+      <c r="I54" s="154"/>
+      <c r="J54" s="154"/>
+      <c r="K54" s="154"/>
+      <c r="L54" s="154"/>
+      <c r="M54" s="154"/>
+      <c r="N54" s="154"/>
+      <c r="O54" s="154"/>
+      <c r="P54" s="154"/>
+      <c r="Q54" s="154"/>
+      <c r="R54" s="154"/>
+      <c r="S54" s="154"/>
+      <c r="T54" s="154"/>
+      <c r="U54" s="154"/>
+      <c r="V54" s="154"/>
+      <c r="W54" s="154"/>
+      <c r="X54" s="154"/>
+      <c r="Y54" s="154"/>
+      <c r="Z54" s="154"/>
+      <c r="AA54" s="154"/>
+      <c r="AB54" s="154"/>
+      <c r="AC54" s="154"/>
+      <c r="AD54" s="154"/>
+      <c r="AE54" s="154"/>
+      <c r="AF54" s="154"/>
+      <c r="AG54" s="154"/>
+      <c r="AH54" s="154"/>
+      <c r="AI54" s="154"/>
+      <c r="AJ54" s="154"/>
+      <c r="AK54" s="154"/>
+      <c r="AL54" s="154"/>
+      <c r="AM54" s="155"/>
     </row>
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="49"/>
@@ -10588,7 +10577,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="C1:AM54"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="1" sqref="T11:Y54 D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10917,706 +10906,706 @@
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="40"/>
-      <c r="D8" s="164" t="s">
+      <c r="D8" s="163" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
-      <c r="L8" s="164"/>
-      <c r="M8" s="164"/>
-      <c r="N8" s="164"/>
-      <c r="O8" s="164"/>
-      <c r="P8" s="164"/>
-      <c r="Q8" s="164"/>
-      <c r="R8" s="164"/>
-      <c r="S8" s="164"/>
-      <c r="T8" s="164"/>
-      <c r="U8" s="164"/>
-      <c r="V8" s="164"/>
-      <c r="W8" s="164"/>
-      <c r="X8" s="164"/>
-      <c r="Y8" s="164"/>
-      <c r="Z8" s="164"/>
-      <c r="AA8" s="164"/>
-      <c r="AB8" s="164"/>
-      <c r="AC8" s="164"/>
-      <c r="AD8" s="164"/>
-      <c r="AE8" s="164"/>
-      <c r="AF8" s="164"/>
-      <c r="AG8" s="164"/>
-      <c r="AH8" s="164"/>
-      <c r="AI8" s="164"/>
-      <c r="AJ8" s="164"/>
-      <c r="AK8" s="164"/>
-      <c r="AL8" s="164"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="163"/>
+      <c r="R8" s="163"/>
+      <c r="S8" s="163"/>
+      <c r="T8" s="163"/>
+      <c r="U8" s="163"/>
+      <c r="V8" s="163"/>
+      <c r="W8" s="163"/>
+      <c r="X8" s="163"/>
+      <c r="Y8" s="163"/>
+      <c r="Z8" s="163"/>
+      <c r="AA8" s="163"/>
+      <c r="AB8" s="163"/>
+      <c r="AC8" s="163"/>
+      <c r="AD8" s="163"/>
+      <c r="AE8" s="163"/>
+      <c r="AF8" s="163"/>
+      <c r="AG8" s="163"/>
+      <c r="AH8" s="163"/>
+      <c r="AI8" s="163"/>
+      <c r="AJ8" s="163"/>
+      <c r="AK8" s="163"/>
+      <c r="AL8" s="163"/>
       <c r="AM8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C9" s="40"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
-      <c r="L9" s="164"/>
-      <c r="M9" s="164"/>
-      <c r="N9" s="164"/>
-      <c r="O9" s="164"/>
-      <c r="P9" s="164"/>
-      <c r="Q9" s="164"/>
-      <c r="R9" s="164"/>
-      <c r="S9" s="164"/>
-      <c r="T9" s="164"/>
-      <c r="U9" s="164"/>
-      <c r="V9" s="164"/>
-      <c r="W9" s="164"/>
-      <c r="X9" s="164"/>
-      <c r="Y9" s="164"/>
-      <c r="Z9" s="164"/>
-      <c r="AA9" s="164"/>
-      <c r="AB9" s="164"/>
-      <c r="AC9" s="164"/>
-      <c r="AD9" s="164"/>
-      <c r="AE9" s="164"/>
-      <c r="AF9" s="164"/>
-      <c r="AG9" s="164"/>
-      <c r="AH9" s="164"/>
-      <c r="AI9" s="164"/>
-      <c r="AJ9" s="164"/>
-      <c r="AK9" s="164"/>
-      <c r="AL9" s="164"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="163"/>
+      <c r="Q9" s="163"/>
+      <c r="R9" s="163"/>
+      <c r="S9" s="163"/>
+      <c r="T9" s="163"/>
+      <c r="U9" s="163"/>
+      <c r="V9" s="163"/>
+      <c r="W9" s="163"/>
+      <c r="X9" s="163"/>
+      <c r="Y9" s="163"/>
+      <c r="Z9" s="163"/>
+      <c r="AA9" s="163"/>
+      <c r="AB9" s="163"/>
+      <c r="AC9" s="163"/>
+      <c r="AD9" s="163"/>
+      <c r="AE9" s="163"/>
+      <c r="AF9" s="163"/>
+      <c r="AG9" s="163"/>
+      <c r="AH9" s="163"/>
+      <c r="AI9" s="163"/>
+      <c r="AJ9" s="163"/>
+      <c r="AK9" s="163"/>
+      <c r="AL9" s="163"/>
       <c r="AM9" s="41"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C10" s="46"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="164"/>
-      <c r="M10" s="164"/>
-      <c r="N10" s="164"/>
-      <c r="O10" s="164"/>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="164"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="164"/>
-      <c r="T10" s="164"/>
-      <c r="U10" s="164"/>
-      <c r="V10" s="164"/>
-      <c r="W10" s="164"/>
-      <c r="X10" s="164"/>
-      <c r="Y10" s="164"/>
-      <c r="Z10" s="164"/>
-      <c r="AA10" s="164"/>
-      <c r="AB10" s="164"/>
-      <c r="AC10" s="164"/>
-      <c r="AD10" s="164"/>
-      <c r="AE10" s="164"/>
-      <c r="AF10" s="164"/>
-      <c r="AG10" s="164"/>
-      <c r="AH10" s="164"/>
-      <c r="AI10" s="164"/>
-      <c r="AJ10" s="164"/>
-      <c r="AK10" s="164"/>
-      <c r="AL10" s="164"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="163"/>
+      <c r="R10" s="163"/>
+      <c r="S10" s="163"/>
+      <c r="T10" s="163"/>
+      <c r="U10" s="163"/>
+      <c r="V10" s="163"/>
+      <c r="W10" s="163"/>
+      <c r="X10" s="163"/>
+      <c r="Y10" s="163"/>
+      <c r="Z10" s="163"/>
+      <c r="AA10" s="163"/>
+      <c r="AB10" s="163"/>
+      <c r="AC10" s="163"/>
+      <c r="AD10" s="163"/>
+      <c r="AE10" s="163"/>
+      <c r="AF10" s="163"/>
+      <c r="AG10" s="163"/>
+      <c r="AH10" s="163"/>
+      <c r="AI10" s="163"/>
+      <c r="AJ10" s="163"/>
+      <c r="AK10" s="163"/>
+      <c r="AL10" s="163"/>
       <c r="AM10" s="47"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C11" s="46"/>
-      <c r="D11" s="164"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="164"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="164"/>
-      <c r="N11" s="164"/>
-      <c r="O11" s="164"/>
-      <c r="P11" s="164"/>
-      <c r="Q11" s="164"/>
-      <c r="R11" s="164"/>
-      <c r="S11" s="164"/>
-      <c r="T11" s="164"/>
-      <c r="U11" s="164"/>
-      <c r="V11" s="164"/>
-      <c r="W11" s="164"/>
-      <c r="X11" s="164"/>
-      <c r="Y11" s="164"/>
-      <c r="Z11" s="164"/>
-      <c r="AA11" s="164"/>
-      <c r="AB11" s="164"/>
-      <c r="AC11" s="164"/>
-      <c r="AD11" s="164"/>
-      <c r="AE11" s="164"/>
-      <c r="AF11" s="164"/>
-      <c r="AG11" s="164"/>
-      <c r="AH11" s="164"/>
-      <c r="AI11" s="164"/>
-      <c r="AJ11" s="164"/>
-      <c r="AK11" s="164"/>
-      <c r="AL11" s="164"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="163"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="163"/>
+      <c r="O11" s="163"/>
+      <c r="P11" s="163"/>
+      <c r="Q11" s="163"/>
+      <c r="R11" s="163"/>
+      <c r="S11" s="163"/>
+      <c r="T11" s="163"/>
+      <c r="U11" s="163"/>
+      <c r="V11" s="163"/>
+      <c r="W11" s="163"/>
+      <c r="X11" s="163"/>
+      <c r="Y11" s="163"/>
+      <c r="Z11" s="163"/>
+      <c r="AA11" s="163"/>
+      <c r="AB11" s="163"/>
+      <c r="AC11" s="163"/>
+      <c r="AD11" s="163"/>
+      <c r="AE11" s="163"/>
+      <c r="AF11" s="163"/>
+      <c r="AG11" s="163"/>
+      <c r="AH11" s="163"/>
+      <c r="AI11" s="163"/>
+      <c r="AJ11" s="163"/>
+      <c r="AK11" s="163"/>
+      <c r="AL11" s="163"/>
       <c r="AM11" s="47"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C12" s="46"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="164"/>
-      <c r="O12" s="164"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="164"/>
-      <c r="R12" s="164"/>
-      <c r="S12" s="164"/>
-      <c r="T12" s="164"/>
-      <c r="U12" s="164"/>
-      <c r="V12" s="164"/>
-      <c r="W12" s="164"/>
-      <c r="X12" s="164"/>
-      <c r="Y12" s="164"/>
-      <c r="Z12" s="164"/>
-      <c r="AA12" s="164"/>
-      <c r="AB12" s="164"/>
-      <c r="AC12" s="164"/>
-      <c r="AD12" s="164"/>
-      <c r="AE12" s="164"/>
-      <c r="AF12" s="164"/>
-      <c r="AG12" s="164"/>
-      <c r="AH12" s="164"/>
-      <c r="AI12" s="164"/>
-      <c r="AJ12" s="164"/>
-      <c r="AK12" s="164"/>
-      <c r="AL12" s="164"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="163"/>
+      <c r="O12" s="163"/>
+      <c r="P12" s="163"/>
+      <c r="Q12" s="163"/>
+      <c r="R12" s="163"/>
+      <c r="S12" s="163"/>
+      <c r="T12" s="163"/>
+      <c r="U12" s="163"/>
+      <c r="V12" s="163"/>
+      <c r="W12" s="163"/>
+      <c r="X12" s="163"/>
+      <c r="Y12" s="163"/>
+      <c r="Z12" s="163"/>
+      <c r="AA12" s="163"/>
+      <c r="AB12" s="163"/>
+      <c r="AC12" s="163"/>
+      <c r="AD12" s="163"/>
+      <c r="AE12" s="163"/>
+      <c r="AF12" s="163"/>
+      <c r="AG12" s="163"/>
+      <c r="AH12" s="163"/>
+      <c r="AI12" s="163"/>
+      <c r="AJ12" s="163"/>
+      <c r="AK12" s="163"/>
+      <c r="AL12" s="163"/>
       <c r="AM12" s="47"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C13" s="46"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
-      <c r="L13" s="164"/>
-      <c r="M13" s="164"/>
-      <c r="N13" s="164"/>
-      <c r="O13" s="164"/>
-      <c r="P13" s="164"/>
-      <c r="Q13" s="164"/>
-      <c r="R13" s="164"/>
-      <c r="S13" s="164"/>
-      <c r="T13" s="164"/>
-      <c r="U13" s="164"/>
-      <c r="V13" s="164"/>
-      <c r="W13" s="164"/>
-      <c r="X13" s="164"/>
-      <c r="Y13" s="164"/>
-      <c r="Z13" s="164"/>
-      <c r="AA13" s="164"/>
-      <c r="AB13" s="164"/>
-      <c r="AC13" s="164"/>
-      <c r="AD13" s="164"/>
-      <c r="AE13" s="164"/>
-      <c r="AF13" s="164"/>
-      <c r="AG13" s="164"/>
-      <c r="AH13" s="164"/>
-      <c r="AI13" s="164"/>
-      <c r="AJ13" s="164"/>
-      <c r="AK13" s="164"/>
-      <c r="AL13" s="164"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
+      <c r="L13" s="163"/>
+      <c r="M13" s="163"/>
+      <c r="N13" s="163"/>
+      <c r="O13" s="163"/>
+      <c r="P13" s="163"/>
+      <c r="Q13" s="163"/>
+      <c r="R13" s="163"/>
+      <c r="S13" s="163"/>
+      <c r="T13" s="163"/>
+      <c r="U13" s="163"/>
+      <c r="V13" s="163"/>
+      <c r="W13" s="163"/>
+      <c r="X13" s="163"/>
+      <c r="Y13" s="163"/>
+      <c r="Z13" s="163"/>
+      <c r="AA13" s="163"/>
+      <c r="AB13" s="163"/>
+      <c r="AC13" s="163"/>
+      <c r="AD13" s="163"/>
+      <c r="AE13" s="163"/>
+      <c r="AF13" s="163"/>
+      <c r="AG13" s="163"/>
+      <c r="AH13" s="163"/>
+      <c r="AI13" s="163"/>
+      <c r="AJ13" s="163"/>
+      <c r="AK13" s="163"/>
+      <c r="AL13" s="163"/>
       <c r="AM13" s="47"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C14" s="46"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
-      <c r="L14" s="164"/>
-      <c r="M14" s="164"/>
-      <c r="N14" s="164"/>
-      <c r="O14" s="164"/>
-      <c r="P14" s="164"/>
-      <c r="Q14" s="164"/>
-      <c r="R14" s="164"/>
-      <c r="S14" s="164"/>
-      <c r="T14" s="164"/>
-      <c r="U14" s="164"/>
-      <c r="V14" s="164"/>
-      <c r="W14" s="164"/>
-      <c r="X14" s="164"/>
-      <c r="Y14" s="164"/>
-      <c r="Z14" s="164"/>
-      <c r="AA14" s="164"/>
-      <c r="AB14" s="164"/>
-      <c r="AC14" s="164"/>
-      <c r="AD14" s="164"/>
-      <c r="AE14" s="164"/>
-      <c r="AF14" s="164"/>
-      <c r="AG14" s="164"/>
-      <c r="AH14" s="164"/>
-      <c r="AI14" s="164"/>
-      <c r="AJ14" s="164"/>
-      <c r="AK14" s="164"/>
-      <c r="AL14" s="164"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="163"/>
+      <c r="O14" s="163"/>
+      <c r="P14" s="163"/>
+      <c r="Q14" s="163"/>
+      <c r="R14" s="163"/>
+      <c r="S14" s="163"/>
+      <c r="T14" s="163"/>
+      <c r="U14" s="163"/>
+      <c r="V14" s="163"/>
+      <c r="W14" s="163"/>
+      <c r="X14" s="163"/>
+      <c r="Y14" s="163"/>
+      <c r="Z14" s="163"/>
+      <c r="AA14" s="163"/>
+      <c r="AB14" s="163"/>
+      <c r="AC14" s="163"/>
+      <c r="AD14" s="163"/>
+      <c r="AE14" s="163"/>
+      <c r="AF14" s="163"/>
+      <c r="AG14" s="163"/>
+      <c r="AH14" s="163"/>
+      <c r="AI14" s="163"/>
+      <c r="AJ14" s="163"/>
+      <c r="AK14" s="163"/>
+      <c r="AL14" s="163"/>
       <c r="AM14" s="47"/>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C15" s="40"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="164"/>
-      <c r="Q15" s="164"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="164"/>
-      <c r="V15" s="164"/>
-      <c r="W15" s="164"/>
-      <c r="X15" s="164"/>
-      <c r="Y15" s="164"/>
-      <c r="Z15" s="164"/>
-      <c r="AA15" s="164"/>
-      <c r="AB15" s="164"/>
-      <c r="AC15" s="164"/>
-      <c r="AD15" s="164"/>
-      <c r="AE15" s="164"/>
-      <c r="AF15" s="164"/>
-      <c r="AG15" s="164"/>
-      <c r="AH15" s="164"/>
-      <c r="AI15" s="164"/>
-      <c r="AJ15" s="164"/>
-      <c r="AK15" s="164"/>
-      <c r="AL15" s="164"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="163"/>
+      <c r="O15" s="163"/>
+      <c r="P15" s="163"/>
+      <c r="Q15" s="163"/>
+      <c r="R15" s="163"/>
+      <c r="S15" s="163"/>
+      <c r="T15" s="163"/>
+      <c r="U15" s="163"/>
+      <c r="V15" s="163"/>
+      <c r="W15" s="163"/>
+      <c r="X15" s="163"/>
+      <c r="Y15" s="163"/>
+      <c r="Z15" s="163"/>
+      <c r="AA15" s="163"/>
+      <c r="AB15" s="163"/>
+      <c r="AC15" s="163"/>
+      <c r="AD15" s="163"/>
+      <c r="AE15" s="163"/>
+      <c r="AF15" s="163"/>
+      <c r="AG15" s="163"/>
+      <c r="AH15" s="163"/>
+      <c r="AI15" s="163"/>
+      <c r="AJ15" s="163"/>
+      <c r="AK15" s="163"/>
+      <c r="AL15" s="163"/>
       <c r="AM15" s="41"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="40"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="164"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="164"/>
-      <c r="N16" s="164"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="164"/>
-      <c r="R16" s="164"/>
-      <c r="S16" s="164"/>
-      <c r="T16" s="164"/>
-      <c r="U16" s="164"/>
-      <c r="V16" s="164"/>
-      <c r="W16" s="164"/>
-      <c r="X16" s="164"/>
-      <c r="Y16" s="164"/>
-      <c r="Z16" s="164"/>
-      <c r="AA16" s="164"/>
-      <c r="AB16" s="164"/>
-      <c r="AC16" s="164"/>
-      <c r="AD16" s="164"/>
-      <c r="AE16" s="164"/>
-      <c r="AF16" s="164"/>
-      <c r="AG16" s="164"/>
-      <c r="AH16" s="164"/>
-      <c r="AI16" s="164"/>
-      <c r="AJ16" s="164"/>
-      <c r="AK16" s="164"/>
-      <c r="AL16" s="164"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="163"/>
+      <c r="O16" s="163"/>
+      <c r="P16" s="163"/>
+      <c r="Q16" s="163"/>
+      <c r="R16" s="163"/>
+      <c r="S16" s="163"/>
+      <c r="T16" s="163"/>
+      <c r="U16" s="163"/>
+      <c r="V16" s="163"/>
+      <c r="W16" s="163"/>
+      <c r="X16" s="163"/>
+      <c r="Y16" s="163"/>
+      <c r="Z16" s="163"/>
+      <c r="AA16" s="163"/>
+      <c r="AB16" s="163"/>
+      <c r="AC16" s="163"/>
+      <c r="AD16" s="163"/>
+      <c r="AE16" s="163"/>
+      <c r="AF16" s="163"/>
+      <c r="AG16" s="163"/>
+      <c r="AH16" s="163"/>
+      <c r="AI16" s="163"/>
+      <c r="AJ16" s="163"/>
+      <c r="AK16" s="163"/>
+      <c r="AL16" s="163"/>
       <c r="AM16" s="41"/>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="40"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="164"/>
-      <c r="L17" s="164"/>
-      <c r="M17" s="164"/>
-      <c r="N17" s="164"/>
-      <c r="O17" s="164"/>
-      <c r="P17" s="164"/>
-      <c r="Q17" s="164"/>
-      <c r="R17" s="164"/>
-      <c r="S17" s="164"/>
-      <c r="T17" s="164"/>
-      <c r="U17" s="164"/>
-      <c r="V17" s="164"/>
-      <c r="W17" s="164"/>
-      <c r="X17" s="164"/>
-      <c r="Y17" s="164"/>
-      <c r="Z17" s="164"/>
-      <c r="AA17" s="164"/>
-      <c r="AB17" s="164"/>
-      <c r="AC17" s="164"/>
-      <c r="AD17" s="164"/>
-      <c r="AE17" s="164"/>
-      <c r="AF17" s="164"/>
-      <c r="AG17" s="164"/>
-      <c r="AH17" s="164"/>
-      <c r="AI17" s="164"/>
-      <c r="AJ17" s="164"/>
-      <c r="AK17" s="164"/>
-      <c r="AL17" s="164"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="163"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="163"/>
+      <c r="O17" s="163"/>
+      <c r="P17" s="163"/>
+      <c r="Q17" s="163"/>
+      <c r="R17" s="163"/>
+      <c r="S17" s="163"/>
+      <c r="T17" s="163"/>
+      <c r="U17" s="163"/>
+      <c r="V17" s="163"/>
+      <c r="W17" s="163"/>
+      <c r="X17" s="163"/>
+      <c r="Y17" s="163"/>
+      <c r="Z17" s="163"/>
+      <c r="AA17" s="163"/>
+      <c r="AB17" s="163"/>
+      <c r="AC17" s="163"/>
+      <c r="AD17" s="163"/>
+      <c r="AE17" s="163"/>
+      <c r="AF17" s="163"/>
+      <c r="AG17" s="163"/>
+      <c r="AH17" s="163"/>
+      <c r="AI17" s="163"/>
+      <c r="AJ17" s="163"/>
+      <c r="AK17" s="163"/>
+      <c r="AL17" s="163"/>
       <c r="AM17" s="41"/>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C18" s="40"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="164"/>
-      <c r="I18" s="164"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="164"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="164"/>
-      <c r="N18" s="164"/>
-      <c r="O18" s="164"/>
-      <c r="P18" s="164"/>
-      <c r="Q18" s="164"/>
-      <c r="R18" s="164"/>
-      <c r="S18" s="164"/>
-      <c r="T18" s="164"/>
-      <c r="U18" s="164"/>
-      <c r="V18" s="164"/>
-      <c r="W18" s="164"/>
-      <c r="X18" s="164"/>
-      <c r="Y18" s="164"/>
-      <c r="Z18" s="164"/>
-      <c r="AA18" s="164"/>
-      <c r="AB18" s="164"/>
-      <c r="AC18" s="164"/>
-      <c r="AD18" s="164"/>
-      <c r="AE18" s="164"/>
-      <c r="AF18" s="164"/>
-      <c r="AG18" s="164"/>
-      <c r="AH18" s="164"/>
-      <c r="AI18" s="164"/>
-      <c r="AJ18" s="164"/>
-      <c r="AK18" s="164"/>
-      <c r="AL18" s="164"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="163"/>
+      <c r="P18" s="163"/>
+      <c r="Q18" s="163"/>
+      <c r="R18" s="163"/>
+      <c r="S18" s="163"/>
+      <c r="T18" s="163"/>
+      <c r="U18" s="163"/>
+      <c r="V18" s="163"/>
+      <c r="W18" s="163"/>
+      <c r="X18" s="163"/>
+      <c r="Y18" s="163"/>
+      <c r="Z18" s="163"/>
+      <c r="AA18" s="163"/>
+      <c r="AB18" s="163"/>
+      <c r="AC18" s="163"/>
+      <c r="AD18" s="163"/>
+      <c r="AE18" s="163"/>
+      <c r="AF18" s="163"/>
+      <c r="AG18" s="163"/>
+      <c r="AH18" s="163"/>
+      <c r="AI18" s="163"/>
+      <c r="AJ18" s="163"/>
+      <c r="AK18" s="163"/>
+      <c r="AL18" s="163"/>
       <c r="AM18" s="41"/>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C19" s="40"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="164"/>
-      <c r="J19" s="164"/>
-      <c r="K19" s="164"/>
-      <c r="L19" s="164"/>
-      <c r="M19" s="164"/>
-      <c r="N19" s="164"/>
-      <c r="O19" s="164"/>
-      <c r="P19" s="164"/>
-      <c r="Q19" s="164"/>
-      <c r="R19" s="164"/>
-      <c r="S19" s="164"/>
-      <c r="T19" s="164"/>
-      <c r="U19" s="164"/>
-      <c r="V19" s="164"/>
-      <c r="W19" s="164"/>
-      <c r="X19" s="164"/>
-      <c r="Y19" s="164"/>
-      <c r="Z19" s="164"/>
-      <c r="AA19" s="164"/>
-      <c r="AB19" s="164"/>
-      <c r="AC19" s="164"/>
-      <c r="AD19" s="164"/>
-      <c r="AE19" s="164"/>
-      <c r="AF19" s="164"/>
-      <c r="AG19" s="164"/>
-      <c r="AH19" s="164"/>
-      <c r="AI19" s="164"/>
-      <c r="AJ19" s="164"/>
-      <c r="AK19" s="164"/>
-      <c r="AL19" s="164"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="163"/>
+      <c r="O19" s="163"/>
+      <c r="P19" s="163"/>
+      <c r="Q19" s="163"/>
+      <c r="R19" s="163"/>
+      <c r="S19" s="163"/>
+      <c r="T19" s="163"/>
+      <c r="U19" s="163"/>
+      <c r="V19" s="163"/>
+      <c r="W19" s="163"/>
+      <c r="X19" s="163"/>
+      <c r="Y19" s="163"/>
+      <c r="Z19" s="163"/>
+      <c r="AA19" s="163"/>
+      <c r="AB19" s="163"/>
+      <c r="AC19" s="163"/>
+      <c r="AD19" s="163"/>
+      <c r="AE19" s="163"/>
+      <c r="AF19" s="163"/>
+      <c r="AG19" s="163"/>
+      <c r="AH19" s="163"/>
+      <c r="AI19" s="163"/>
+      <c r="AJ19" s="163"/>
+      <c r="AK19" s="163"/>
+      <c r="AL19" s="163"/>
       <c r="AM19" s="41"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C20" s="40"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="164"/>
-      <c r="J20" s="164"/>
-      <c r="K20" s="164"/>
-      <c r="L20" s="164"/>
-      <c r="M20" s="164"/>
-      <c r="N20" s="164"/>
-      <c r="O20" s="164"/>
-      <c r="P20" s="164"/>
-      <c r="Q20" s="164"/>
-      <c r="R20" s="164"/>
-      <c r="S20" s="164"/>
-      <c r="T20" s="164"/>
-      <c r="U20" s="164"/>
-      <c r="V20" s="164"/>
-      <c r="W20" s="164"/>
-      <c r="X20" s="164"/>
-      <c r="Y20" s="164"/>
-      <c r="Z20" s="164"/>
-      <c r="AA20" s="164"/>
-      <c r="AB20" s="164"/>
-      <c r="AC20" s="164"/>
-      <c r="AD20" s="164"/>
-      <c r="AE20" s="164"/>
-      <c r="AF20" s="164"/>
-      <c r="AG20" s="164"/>
-      <c r="AH20" s="164"/>
-      <c r="AI20" s="164"/>
-      <c r="AJ20" s="164"/>
-      <c r="AK20" s="164"/>
-      <c r="AL20" s="164"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="163"/>
+      <c r="N20" s="163"/>
+      <c r="O20" s="163"/>
+      <c r="P20" s="163"/>
+      <c r="Q20" s="163"/>
+      <c r="R20" s="163"/>
+      <c r="S20" s="163"/>
+      <c r="T20" s="163"/>
+      <c r="U20" s="163"/>
+      <c r="V20" s="163"/>
+      <c r="W20" s="163"/>
+      <c r="X20" s="163"/>
+      <c r="Y20" s="163"/>
+      <c r="Z20" s="163"/>
+      <c r="AA20" s="163"/>
+      <c r="AB20" s="163"/>
+      <c r="AC20" s="163"/>
+      <c r="AD20" s="163"/>
+      <c r="AE20" s="163"/>
+      <c r="AF20" s="163"/>
+      <c r="AG20" s="163"/>
+      <c r="AH20" s="163"/>
+      <c r="AI20" s="163"/>
+      <c r="AJ20" s="163"/>
+      <c r="AK20" s="163"/>
+      <c r="AL20" s="163"/>
       <c r="AM20" s="41"/>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C21" s="40"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="164"/>
-      <c r="K21" s="164"/>
-      <c r="L21" s="164"/>
-      <c r="M21" s="164"/>
-      <c r="N21" s="164"/>
-      <c r="O21" s="164"/>
-      <c r="P21" s="164"/>
-      <c r="Q21" s="164"/>
-      <c r="R21" s="164"/>
-      <c r="S21" s="164"/>
-      <c r="T21" s="164"/>
-      <c r="U21" s="164"/>
-      <c r="V21" s="164"/>
-      <c r="W21" s="164"/>
-      <c r="X21" s="164"/>
-      <c r="Y21" s="164"/>
-      <c r="Z21" s="164"/>
-      <c r="AA21" s="164"/>
-      <c r="AB21" s="164"/>
-      <c r="AC21" s="164"/>
-      <c r="AD21" s="164"/>
-      <c r="AE21" s="164"/>
-      <c r="AF21" s="164"/>
-      <c r="AG21" s="164"/>
-      <c r="AH21" s="164"/>
-      <c r="AI21" s="164"/>
-      <c r="AJ21" s="164"/>
-      <c r="AK21" s="164"/>
-      <c r="AL21" s="164"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="163"/>
+      <c r="L21" s="163"/>
+      <c r="M21" s="163"/>
+      <c r="N21" s="163"/>
+      <c r="O21" s="163"/>
+      <c r="P21" s="163"/>
+      <c r="Q21" s="163"/>
+      <c r="R21" s="163"/>
+      <c r="S21" s="163"/>
+      <c r="T21" s="163"/>
+      <c r="U21" s="163"/>
+      <c r="V21" s="163"/>
+      <c r="W21" s="163"/>
+      <c r="X21" s="163"/>
+      <c r="Y21" s="163"/>
+      <c r="Z21" s="163"/>
+      <c r="AA21" s="163"/>
+      <c r="AB21" s="163"/>
+      <c r="AC21" s="163"/>
+      <c r="AD21" s="163"/>
+      <c r="AE21" s="163"/>
+      <c r="AF21" s="163"/>
+      <c r="AG21" s="163"/>
+      <c r="AH21" s="163"/>
+      <c r="AI21" s="163"/>
+      <c r="AJ21" s="163"/>
+      <c r="AK21" s="163"/>
+      <c r="AL21" s="163"/>
       <c r="AM21" s="41"/>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C22" s="40"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="164"/>
-      <c r="L22" s="164"/>
-      <c r="M22" s="164"/>
-      <c r="N22" s="164"/>
-      <c r="O22" s="164"/>
-      <c r="P22" s="164"/>
-      <c r="Q22" s="164"/>
-      <c r="R22" s="164"/>
-      <c r="S22" s="164"/>
-      <c r="T22" s="164"/>
-      <c r="U22" s="164"/>
-      <c r="V22" s="164"/>
-      <c r="W22" s="164"/>
-      <c r="X22" s="164"/>
-      <c r="Y22" s="164"/>
-      <c r="Z22" s="164"/>
-      <c r="AA22" s="164"/>
-      <c r="AB22" s="164"/>
-      <c r="AC22" s="164"/>
-      <c r="AD22" s="164"/>
-      <c r="AE22" s="164"/>
-      <c r="AF22" s="164"/>
-      <c r="AG22" s="164"/>
-      <c r="AH22" s="164"/>
-      <c r="AI22" s="164"/>
-      <c r="AJ22" s="164"/>
-      <c r="AK22" s="164"/>
-      <c r="AL22" s="164"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="163"/>
+      <c r="O22" s="163"/>
+      <c r="P22" s="163"/>
+      <c r="Q22" s="163"/>
+      <c r="R22" s="163"/>
+      <c r="S22" s="163"/>
+      <c r="T22" s="163"/>
+      <c r="U22" s="163"/>
+      <c r="V22" s="163"/>
+      <c r="W22" s="163"/>
+      <c r="X22" s="163"/>
+      <c r="Y22" s="163"/>
+      <c r="Z22" s="163"/>
+      <c r="AA22" s="163"/>
+      <c r="AB22" s="163"/>
+      <c r="AC22" s="163"/>
+      <c r="AD22" s="163"/>
+      <c r="AE22" s="163"/>
+      <c r="AF22" s="163"/>
+      <c r="AG22" s="163"/>
+      <c r="AH22" s="163"/>
+      <c r="AI22" s="163"/>
+      <c r="AJ22" s="163"/>
+      <c r="AK22" s="163"/>
+      <c r="AL22" s="163"/>
       <c r="AM22" s="41"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="40"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="164"/>
-      <c r="L23" s="164"/>
-      <c r="M23" s="164"/>
-      <c r="N23" s="164"/>
-      <c r="O23" s="164"/>
-      <c r="P23" s="164"/>
-      <c r="Q23" s="164"/>
-      <c r="R23" s="164"/>
-      <c r="S23" s="164"/>
-      <c r="T23" s="164"/>
-      <c r="U23" s="164"/>
-      <c r="V23" s="164"/>
-      <c r="W23" s="164"/>
-      <c r="X23" s="164"/>
-      <c r="Y23" s="164"/>
-      <c r="Z23" s="164"/>
-      <c r="AA23" s="164"/>
-      <c r="AB23" s="164"/>
-      <c r="AC23" s="164"/>
-      <c r="AD23" s="164"/>
-      <c r="AE23" s="164"/>
-      <c r="AF23" s="164"/>
-      <c r="AG23" s="164"/>
-      <c r="AH23" s="164"/>
-      <c r="AI23" s="164"/>
-      <c r="AJ23" s="164"/>
-      <c r="AK23" s="164"/>
-      <c r="AL23" s="164"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="163"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
+      <c r="O23" s="163"/>
+      <c r="P23" s="163"/>
+      <c r="Q23" s="163"/>
+      <c r="R23" s="163"/>
+      <c r="S23" s="163"/>
+      <c r="T23" s="163"/>
+      <c r="U23" s="163"/>
+      <c r="V23" s="163"/>
+      <c r="W23" s="163"/>
+      <c r="X23" s="163"/>
+      <c r="Y23" s="163"/>
+      <c r="Z23" s="163"/>
+      <c r="AA23" s="163"/>
+      <c r="AB23" s="163"/>
+      <c r="AC23" s="163"/>
+      <c r="AD23" s="163"/>
+      <c r="AE23" s="163"/>
+      <c r="AF23" s="163"/>
+      <c r="AG23" s="163"/>
+      <c r="AH23" s="163"/>
+      <c r="AI23" s="163"/>
+      <c r="AJ23" s="163"/>
+      <c r="AK23" s="163"/>
+      <c r="AL23" s="163"/>
       <c r="AM23" s="41"/>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="40"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="164"/>
-      <c r="K24" s="164"/>
-      <c r="L24" s="164"/>
-      <c r="M24" s="164"/>
-      <c r="N24" s="164"/>
-      <c r="O24" s="164"/>
-      <c r="P24" s="164"/>
-      <c r="Q24" s="164"/>
-      <c r="R24" s="164"/>
-      <c r="S24" s="164"/>
-      <c r="T24" s="164"/>
-      <c r="U24" s="164"/>
-      <c r="V24" s="164"/>
-      <c r="W24" s="164"/>
-      <c r="X24" s="164"/>
-      <c r="Y24" s="164"/>
-      <c r="Z24" s="164"/>
-      <c r="AA24" s="164"/>
-      <c r="AB24" s="164"/>
-      <c r="AC24" s="164"/>
-      <c r="AD24" s="164"/>
-      <c r="AE24" s="164"/>
-      <c r="AF24" s="164"/>
-      <c r="AG24" s="164"/>
-      <c r="AH24" s="164"/>
-      <c r="AI24" s="164"/>
-      <c r="AJ24" s="164"/>
-      <c r="AK24" s="164"/>
-      <c r="AL24" s="164"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="163"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="163"/>
+      <c r="O24" s="163"/>
+      <c r="P24" s="163"/>
+      <c r="Q24" s="163"/>
+      <c r="R24" s="163"/>
+      <c r="S24" s="163"/>
+      <c r="T24" s="163"/>
+      <c r="U24" s="163"/>
+      <c r="V24" s="163"/>
+      <c r="W24" s="163"/>
+      <c r="X24" s="163"/>
+      <c r="Y24" s="163"/>
+      <c r="Z24" s="163"/>
+      <c r="AA24" s="163"/>
+      <c r="AB24" s="163"/>
+      <c r="AC24" s="163"/>
+      <c r="AD24" s="163"/>
+      <c r="AE24" s="163"/>
+      <c r="AF24" s="163"/>
+      <c r="AG24" s="163"/>
+      <c r="AH24" s="163"/>
+      <c r="AI24" s="163"/>
+      <c r="AJ24" s="163"/>
+      <c r="AK24" s="163"/>
+      <c r="AL24" s="163"/>
       <c r="AM24" s="41"/>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="40"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="164"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="164"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="164"/>
-      <c r="K25" s="164"/>
-      <c r="L25" s="164"/>
-      <c r="M25" s="164"/>
-      <c r="N25" s="164"/>
-      <c r="O25" s="164"/>
-      <c r="P25" s="164"/>
-      <c r="Q25" s="164"/>
-      <c r="R25" s="164"/>
-      <c r="S25" s="164"/>
-      <c r="T25" s="164"/>
-      <c r="U25" s="164"/>
-      <c r="V25" s="164"/>
-      <c r="W25" s="164"/>
-      <c r="X25" s="164"/>
-      <c r="Y25" s="164"/>
-      <c r="Z25" s="164"/>
-      <c r="AA25" s="164"/>
-      <c r="AB25" s="164"/>
-      <c r="AC25" s="164"/>
-      <c r="AD25" s="164"/>
-      <c r="AE25" s="164"/>
-      <c r="AF25" s="164"/>
-      <c r="AG25" s="164"/>
-      <c r="AH25" s="164"/>
-      <c r="AI25" s="164"/>
-      <c r="AJ25" s="164"/>
-      <c r="AK25" s="164"/>
-      <c r="AL25" s="164"/>
+      <c r="D25" s="163"/>
+      <c r="E25" s="163"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="163"/>
+      <c r="K25" s="163"/>
+      <c r="L25" s="163"/>
+      <c r="M25" s="163"/>
+      <c r="N25" s="163"/>
+      <c r="O25" s="163"/>
+      <c r="P25" s="163"/>
+      <c r="Q25" s="163"/>
+      <c r="R25" s="163"/>
+      <c r="S25" s="163"/>
+      <c r="T25" s="163"/>
+      <c r="U25" s="163"/>
+      <c r="V25" s="163"/>
+      <c r="W25" s="163"/>
+      <c r="X25" s="163"/>
+      <c r="Y25" s="163"/>
+      <c r="Z25" s="163"/>
+      <c r="AA25" s="163"/>
+      <c r="AB25" s="163"/>
+      <c r="AC25" s="163"/>
+      <c r="AD25" s="163"/>
+      <c r="AE25" s="163"/>
+      <c r="AF25" s="163"/>
+      <c r="AG25" s="163"/>
+      <c r="AH25" s="163"/>
+      <c r="AI25" s="163"/>
+      <c r="AJ25" s="163"/>
+      <c r="AK25" s="163"/>
+      <c r="AL25" s="163"/>
       <c r="AM25" s="41"/>
     </row>
     <row r="26" customFormat="false" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12362,7 +12351,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:AM54"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="T11:Y54 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13948,7 +13937,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="C1:AM54"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="T11:Y54 D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14863,240 +14852,240 @@
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="40"/>
-      <c r="D23" s="165" t="str">
+      <c r="D23" s="164" t="str">
         <f aca="false">CHAR(10)&amp;IF(ISBLANK(Титульный!B8),"8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».",IFERROR(IF(OR(LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилое помещение",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилой дом",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Многоквартирный дом"),"8. ВСН 53-86(р) «Правила оценки физического износа зданий»;"&amp;CHAR(10)&amp;"9. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».","8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов»."),"8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов»."))</f>
         <v>
 8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».</v>
       </c>
-      <c r="E23" s="165"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="165"/>
-      <c r="L23" s="165"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="165"/>
-      <c r="O23" s="165"/>
-      <c r="P23" s="165"/>
-      <c r="Q23" s="165"/>
-      <c r="R23" s="165"/>
-      <c r="S23" s="165"/>
-      <c r="T23" s="165"/>
-      <c r="U23" s="165"/>
-      <c r="V23" s="165"/>
-      <c r="W23" s="165"/>
-      <c r="X23" s="165"/>
-      <c r="Y23" s="165"/>
-      <c r="Z23" s="165"/>
-      <c r="AA23" s="165"/>
-      <c r="AB23" s="165"/>
-      <c r="AC23" s="165"/>
-      <c r="AD23" s="165"/>
-      <c r="AE23" s="165"/>
-      <c r="AF23" s="165"/>
-      <c r="AG23" s="165"/>
-      <c r="AH23" s="165"/>
-      <c r="AI23" s="165"/>
-      <c r="AJ23" s="165"/>
-      <c r="AK23" s="165"/>
-      <c r="AL23" s="165"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="164"/>
+      <c r="L23" s="164"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="164"/>
+      <c r="O23" s="164"/>
+      <c r="P23" s="164"/>
+      <c r="Q23" s="164"/>
+      <c r="R23" s="164"/>
+      <c r="S23" s="164"/>
+      <c r="T23" s="164"/>
+      <c r="U23" s="164"/>
+      <c r="V23" s="164"/>
+      <c r="W23" s="164"/>
+      <c r="X23" s="164"/>
+      <c r="Y23" s="164"/>
+      <c r="Z23" s="164"/>
+      <c r="AA23" s="164"/>
+      <c r="AB23" s="164"/>
+      <c r="AC23" s="164"/>
+      <c r="AD23" s="164"/>
+      <c r="AE23" s="164"/>
+      <c r="AF23" s="164"/>
+      <c r="AG23" s="164"/>
+      <c r="AH23" s="164"/>
+      <c r="AI23" s="164"/>
+      <c r="AJ23" s="164"/>
+      <c r="AK23" s="164"/>
+      <c r="AL23" s="164"/>
       <c r="AM23" s="41"/>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="40"/>
-      <c r="D24" s="165"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="165"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="165"/>
-      <c r="K24" s="165"/>
-      <c r="L24" s="165"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="165"/>
-      <c r="O24" s="165"/>
-      <c r="P24" s="165"/>
-      <c r="Q24" s="165"/>
-      <c r="R24" s="165"/>
-      <c r="S24" s="165"/>
-      <c r="T24" s="165"/>
-      <c r="U24" s="165"/>
-      <c r="V24" s="165"/>
-      <c r="W24" s="165"/>
-      <c r="X24" s="165"/>
-      <c r="Y24" s="165"/>
-      <c r="Z24" s="165"/>
-      <c r="AA24" s="165"/>
-      <c r="AB24" s="165"/>
-      <c r="AC24" s="165"/>
-      <c r="AD24" s="165"/>
-      <c r="AE24" s="165"/>
-      <c r="AF24" s="165"/>
-      <c r="AG24" s="165"/>
-      <c r="AH24" s="165"/>
-      <c r="AI24" s="165"/>
-      <c r="AJ24" s="165"/>
-      <c r="AK24" s="165"/>
-      <c r="AL24" s="165"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="164"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="164"/>
+      <c r="O24" s="164"/>
+      <c r="P24" s="164"/>
+      <c r="Q24" s="164"/>
+      <c r="R24" s="164"/>
+      <c r="S24" s="164"/>
+      <c r="T24" s="164"/>
+      <c r="U24" s="164"/>
+      <c r="V24" s="164"/>
+      <c r="W24" s="164"/>
+      <c r="X24" s="164"/>
+      <c r="Y24" s="164"/>
+      <c r="Z24" s="164"/>
+      <c r="AA24" s="164"/>
+      <c r="AB24" s="164"/>
+      <c r="AC24" s="164"/>
+      <c r="AD24" s="164"/>
+      <c r="AE24" s="164"/>
+      <c r="AF24" s="164"/>
+      <c r="AG24" s="164"/>
+      <c r="AH24" s="164"/>
+      <c r="AI24" s="164"/>
+      <c r="AJ24" s="164"/>
+      <c r="AK24" s="164"/>
+      <c r="AL24" s="164"/>
       <c r="AM24" s="41"/>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="40"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
-      <c r="H25" s="165"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="165"/>
-      <c r="K25" s="165"/>
-      <c r="L25" s="165"/>
-      <c r="M25" s="165"/>
-      <c r="N25" s="165"/>
-      <c r="O25" s="165"/>
-      <c r="P25" s="165"/>
-      <c r="Q25" s="165"/>
-      <c r="R25" s="165"/>
-      <c r="S25" s="165"/>
-      <c r="T25" s="165"/>
-      <c r="U25" s="165"/>
-      <c r="V25" s="165"/>
-      <c r="W25" s="165"/>
-      <c r="X25" s="165"/>
-      <c r="Y25" s="165"/>
-      <c r="Z25" s="165"/>
-      <c r="AA25" s="165"/>
-      <c r="AB25" s="165"/>
-      <c r="AC25" s="165"/>
-      <c r="AD25" s="165"/>
-      <c r="AE25" s="165"/>
-      <c r="AF25" s="165"/>
-      <c r="AG25" s="165"/>
-      <c r="AH25" s="165"/>
-      <c r="AI25" s="165"/>
-      <c r="AJ25" s="165"/>
-      <c r="AK25" s="165"/>
-      <c r="AL25" s="165"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="164"/>
+      <c r="M25" s="164"/>
+      <c r="N25" s="164"/>
+      <c r="O25" s="164"/>
+      <c r="P25" s="164"/>
+      <c r="Q25" s="164"/>
+      <c r="R25" s="164"/>
+      <c r="S25" s="164"/>
+      <c r="T25" s="164"/>
+      <c r="U25" s="164"/>
+      <c r="V25" s="164"/>
+      <c r="W25" s="164"/>
+      <c r="X25" s="164"/>
+      <c r="Y25" s="164"/>
+      <c r="Z25" s="164"/>
+      <c r="AA25" s="164"/>
+      <c r="AB25" s="164"/>
+      <c r="AC25" s="164"/>
+      <c r="AD25" s="164"/>
+      <c r="AE25" s="164"/>
+      <c r="AF25" s="164"/>
+      <c r="AG25" s="164"/>
+      <c r="AH25" s="164"/>
+      <c r="AI25" s="164"/>
+      <c r="AJ25" s="164"/>
+      <c r="AK25" s="164"/>
+      <c r="AL25" s="164"/>
       <c r="AM25" s="41"/>
     </row>
     <row r="26" customFormat="false" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="40"/>
-      <c r="D26" s="165"/>
-      <c r="E26" s="165"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="165"/>
-      <c r="I26" s="165"/>
-      <c r="J26" s="165"/>
-      <c r="K26" s="165"/>
-      <c r="L26" s="165"/>
-      <c r="M26" s="165"/>
-      <c r="N26" s="165"/>
-      <c r="O26" s="165"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="165"/>
-      <c r="R26" s="165"/>
-      <c r="S26" s="165"/>
-      <c r="T26" s="165"/>
-      <c r="U26" s="165"/>
-      <c r="V26" s="165"/>
-      <c r="W26" s="165"/>
-      <c r="X26" s="165"/>
-      <c r="Y26" s="165"/>
-      <c r="Z26" s="165"/>
-      <c r="AA26" s="165"/>
-      <c r="AB26" s="165"/>
-      <c r="AC26" s="165"/>
-      <c r="AD26" s="165"/>
-      <c r="AE26" s="165"/>
-      <c r="AF26" s="165"/>
-      <c r="AG26" s="165"/>
-      <c r="AH26" s="165"/>
-      <c r="AI26" s="165"/>
-      <c r="AJ26" s="165"/>
-      <c r="AK26" s="165"/>
-      <c r="AL26" s="165"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="164"/>
+      <c r="L26" s="164"/>
+      <c r="M26" s="164"/>
+      <c r="N26" s="164"/>
+      <c r="O26" s="164"/>
+      <c r="P26" s="164"/>
+      <c r="Q26" s="164"/>
+      <c r="R26" s="164"/>
+      <c r="S26" s="164"/>
+      <c r="T26" s="164"/>
+      <c r="U26" s="164"/>
+      <c r="V26" s="164"/>
+      <c r="W26" s="164"/>
+      <c r="X26" s="164"/>
+      <c r="Y26" s="164"/>
+      <c r="Z26" s="164"/>
+      <c r="AA26" s="164"/>
+      <c r="AB26" s="164"/>
+      <c r="AC26" s="164"/>
+      <c r="AD26" s="164"/>
+      <c r="AE26" s="164"/>
+      <c r="AF26" s="164"/>
+      <c r="AG26" s="164"/>
+      <c r="AH26" s="164"/>
+      <c r="AI26" s="164"/>
+      <c r="AJ26" s="164"/>
+      <c r="AK26" s="164"/>
+      <c r="AL26" s="164"/>
       <c r="AM26" s="41"/>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="40"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="165"/>
-      <c r="L27" s="165"/>
-      <c r="M27" s="165"/>
-      <c r="N27" s="165"/>
-      <c r="O27" s="165"/>
-      <c r="P27" s="165"/>
-      <c r="Q27" s="165"/>
-      <c r="R27" s="165"/>
-      <c r="S27" s="165"/>
-      <c r="T27" s="165"/>
-      <c r="U27" s="165"/>
-      <c r="V27" s="165"/>
-      <c r="W27" s="165"/>
-      <c r="X27" s="165"/>
-      <c r="Y27" s="165"/>
-      <c r="Z27" s="165"/>
-      <c r="AA27" s="165"/>
-      <c r="AB27" s="165"/>
-      <c r="AC27" s="165"/>
-      <c r="AD27" s="165"/>
-      <c r="AE27" s="165"/>
-      <c r="AF27" s="165"/>
-      <c r="AG27" s="165"/>
-      <c r="AH27" s="165"/>
-      <c r="AI27" s="165"/>
-      <c r="AJ27" s="165"/>
-      <c r="AK27" s="165"/>
-      <c r="AL27" s="165"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="164"/>
+      <c r="L27" s="164"/>
+      <c r="M27" s="164"/>
+      <c r="N27" s="164"/>
+      <c r="O27" s="164"/>
+      <c r="P27" s="164"/>
+      <c r="Q27" s="164"/>
+      <c r="R27" s="164"/>
+      <c r="S27" s="164"/>
+      <c r="T27" s="164"/>
+      <c r="U27" s="164"/>
+      <c r="V27" s="164"/>
+      <c r="W27" s="164"/>
+      <c r="X27" s="164"/>
+      <c r="Y27" s="164"/>
+      <c r="Z27" s="164"/>
+      <c r="AA27" s="164"/>
+      <c r="AB27" s="164"/>
+      <c r="AC27" s="164"/>
+      <c r="AD27" s="164"/>
+      <c r="AE27" s="164"/>
+      <c r="AF27" s="164"/>
+      <c r="AG27" s="164"/>
+      <c r="AH27" s="164"/>
+      <c r="AI27" s="164"/>
+      <c r="AJ27" s="164"/>
+      <c r="AK27" s="164"/>
+      <c r="AL27" s="164"/>
       <c r="AM27" s="41"/>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="40"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="165"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="165"/>
-      <c r="L28" s="165"/>
-      <c r="M28" s="165"/>
-      <c r="N28" s="165"/>
-      <c r="O28" s="165"/>
-      <c r="P28" s="165"/>
-      <c r="Q28" s="165"/>
-      <c r="R28" s="165"/>
-      <c r="S28" s="165"/>
-      <c r="T28" s="165"/>
-      <c r="U28" s="165"/>
-      <c r="V28" s="165"/>
-      <c r="W28" s="165"/>
-      <c r="X28" s="165"/>
-      <c r="Y28" s="165"/>
-      <c r="Z28" s="165"/>
-      <c r="AA28" s="165"/>
-      <c r="AB28" s="165"/>
-      <c r="AC28" s="165"/>
-      <c r="AD28" s="165"/>
-      <c r="AE28" s="165"/>
-      <c r="AF28" s="165"/>
-      <c r="AG28" s="165"/>
-      <c r="AH28" s="165"/>
-      <c r="AI28" s="165"/>
-      <c r="AJ28" s="165"/>
-      <c r="AK28" s="165"/>
-      <c r="AL28" s="165"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="164"/>
+      <c r="L28" s="164"/>
+      <c r="M28" s="164"/>
+      <c r="N28" s="164"/>
+      <c r="O28" s="164"/>
+      <c r="P28" s="164"/>
+      <c r="Q28" s="164"/>
+      <c r="R28" s="164"/>
+      <c r="S28" s="164"/>
+      <c r="T28" s="164"/>
+      <c r="U28" s="164"/>
+      <c r="V28" s="164"/>
+      <c r="W28" s="164"/>
+      <c r="X28" s="164"/>
+      <c r="Y28" s="164"/>
+      <c r="Z28" s="164"/>
+      <c r="AA28" s="164"/>
+      <c r="AB28" s="164"/>
+      <c r="AC28" s="164"/>
+      <c r="AD28" s="164"/>
+      <c r="AE28" s="164"/>
+      <c r="AF28" s="164"/>
+      <c r="AG28" s="164"/>
+      <c r="AH28" s="164"/>
+      <c r="AI28" s="164"/>
+      <c r="AJ28" s="164"/>
+      <c r="AK28" s="164"/>
+      <c r="AL28" s="164"/>
       <c r="AM28" s="41"/>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15105,164 +15094,164 @@
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="40"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="165"/>
-      <c r="K29" s="165"/>
-      <c r="L29" s="165"/>
-      <c r="M29" s="165"/>
-      <c r="N29" s="165"/>
-      <c r="O29" s="165"/>
-      <c r="P29" s="165"/>
-      <c r="Q29" s="165"/>
-      <c r="R29" s="165"/>
-      <c r="S29" s="165"/>
-      <c r="T29" s="165"/>
-      <c r="U29" s="165"/>
-      <c r="V29" s="165"/>
-      <c r="W29" s="165"/>
-      <c r="X29" s="165"/>
-      <c r="Y29" s="165"/>
-      <c r="Z29" s="165"/>
-      <c r="AA29" s="165"/>
-      <c r="AB29" s="165"/>
-      <c r="AC29" s="165"/>
-      <c r="AD29" s="165"/>
-      <c r="AE29" s="165"/>
-      <c r="AF29" s="165"/>
-      <c r="AG29" s="165"/>
-      <c r="AH29" s="165"/>
-      <c r="AI29" s="165"/>
-      <c r="AJ29" s="165"/>
-      <c r="AK29" s="165"/>
-      <c r="AL29" s="165"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="164"/>
+      <c r="L29" s="164"/>
+      <c r="M29" s="164"/>
+      <c r="N29" s="164"/>
+      <c r="O29" s="164"/>
+      <c r="P29" s="164"/>
+      <c r="Q29" s="164"/>
+      <c r="R29" s="164"/>
+      <c r="S29" s="164"/>
+      <c r="T29" s="164"/>
+      <c r="U29" s="164"/>
+      <c r="V29" s="164"/>
+      <c r="W29" s="164"/>
+      <c r="X29" s="164"/>
+      <c r="Y29" s="164"/>
+      <c r="Z29" s="164"/>
+      <c r="AA29" s="164"/>
+      <c r="AB29" s="164"/>
+      <c r="AC29" s="164"/>
+      <c r="AD29" s="164"/>
+      <c r="AE29" s="164"/>
+      <c r="AF29" s="164"/>
+      <c r="AG29" s="164"/>
+      <c r="AH29" s="164"/>
+      <c r="AI29" s="164"/>
+      <c r="AJ29" s="164"/>
+      <c r="AK29" s="164"/>
+      <c r="AL29" s="164"/>
       <c r="AM29" s="41"/>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
       <c r="C30" s="40"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="165"/>
-      <c r="I30" s="165"/>
-      <c r="J30" s="165"/>
-      <c r="K30" s="165"/>
-      <c r="L30" s="165"/>
-      <c r="M30" s="165"/>
-      <c r="N30" s="165"/>
-      <c r="O30" s="165"/>
-      <c r="P30" s="165"/>
-      <c r="Q30" s="165"/>
-      <c r="R30" s="165"/>
-      <c r="S30" s="165"/>
-      <c r="T30" s="165"/>
-      <c r="U30" s="165"/>
-      <c r="V30" s="165"/>
-      <c r="W30" s="165"/>
-      <c r="X30" s="165"/>
-      <c r="Y30" s="165"/>
-      <c r="Z30" s="165"/>
-      <c r="AA30" s="165"/>
-      <c r="AB30" s="165"/>
-      <c r="AC30" s="165"/>
-      <c r="AD30" s="165"/>
-      <c r="AE30" s="165"/>
-      <c r="AF30" s="165"/>
-      <c r="AG30" s="165"/>
-      <c r="AH30" s="165"/>
-      <c r="AI30" s="165"/>
-      <c r="AJ30" s="165"/>
-      <c r="AK30" s="165"/>
-      <c r="AL30" s="165"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="164"/>
+      <c r="K30" s="164"/>
+      <c r="L30" s="164"/>
+      <c r="M30" s="164"/>
+      <c r="N30" s="164"/>
+      <c r="O30" s="164"/>
+      <c r="P30" s="164"/>
+      <c r="Q30" s="164"/>
+      <c r="R30" s="164"/>
+      <c r="S30" s="164"/>
+      <c r="T30" s="164"/>
+      <c r="U30" s="164"/>
+      <c r="V30" s="164"/>
+      <c r="W30" s="164"/>
+      <c r="X30" s="164"/>
+      <c r="Y30" s="164"/>
+      <c r="Z30" s="164"/>
+      <c r="AA30" s="164"/>
+      <c r="AB30" s="164"/>
+      <c r="AC30" s="164"/>
+      <c r="AD30" s="164"/>
+      <c r="AE30" s="164"/>
+      <c r="AF30" s="164"/>
+      <c r="AG30" s="164"/>
+      <c r="AH30" s="164"/>
+      <c r="AI30" s="164"/>
+      <c r="AJ30" s="164"/>
+      <c r="AK30" s="164"/>
+      <c r="AL30" s="164"/>
       <c r="AM30" s="41"/>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
       <c r="C31" s="40"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="165"/>
-      <c r="H31" s="165"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="165"/>
-      <c r="K31" s="165"/>
-      <c r="L31" s="165"/>
-      <c r="M31" s="165"/>
-      <c r="N31" s="165"/>
-      <c r="O31" s="165"/>
-      <c r="P31" s="165"/>
-      <c r="Q31" s="165"/>
-      <c r="R31" s="165"/>
-      <c r="S31" s="165"/>
-      <c r="T31" s="165"/>
-      <c r="U31" s="165"/>
-      <c r="V31" s="165"/>
-      <c r="W31" s="165"/>
-      <c r="X31" s="165"/>
-      <c r="Y31" s="165"/>
-      <c r="Z31" s="165"/>
-      <c r="AA31" s="165"/>
-      <c r="AB31" s="165"/>
-      <c r="AC31" s="165"/>
-      <c r="AD31" s="165"/>
-      <c r="AE31" s="165"/>
-      <c r="AF31" s="165"/>
-      <c r="AG31" s="165"/>
-      <c r="AH31" s="165"/>
-      <c r="AI31" s="165"/>
-      <c r="AJ31" s="165"/>
-      <c r="AK31" s="165"/>
-      <c r="AL31" s="165"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="164"/>
+      <c r="L31" s="164"/>
+      <c r="M31" s="164"/>
+      <c r="N31" s="164"/>
+      <c r="O31" s="164"/>
+      <c r="P31" s="164"/>
+      <c r="Q31" s="164"/>
+      <c r="R31" s="164"/>
+      <c r="S31" s="164"/>
+      <c r="T31" s="164"/>
+      <c r="U31" s="164"/>
+      <c r="V31" s="164"/>
+      <c r="W31" s="164"/>
+      <c r="X31" s="164"/>
+      <c r="Y31" s="164"/>
+      <c r="Z31" s="164"/>
+      <c r="AA31" s="164"/>
+      <c r="AB31" s="164"/>
+      <c r="AC31" s="164"/>
+      <c r="AD31" s="164"/>
+      <c r="AE31" s="164"/>
+      <c r="AF31" s="164"/>
+      <c r="AG31" s="164"/>
+      <c r="AH31" s="164"/>
+      <c r="AI31" s="164"/>
+      <c r="AJ31" s="164"/>
+      <c r="AK31" s="164"/>
+      <c r="AL31" s="164"/>
       <c r="AM31" s="41"/>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
       <c r="C32" s="40"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
-      <c r="H32" s="165"/>
-      <c r="I32" s="165"/>
-      <c r="J32" s="165"/>
-      <c r="K32" s="165"/>
-      <c r="L32" s="165"/>
-      <c r="M32" s="165"/>
-      <c r="N32" s="165"/>
-      <c r="O32" s="165"/>
-      <c r="P32" s="165"/>
-      <c r="Q32" s="165"/>
-      <c r="R32" s="165"/>
-      <c r="S32" s="165"/>
-      <c r="T32" s="165"/>
-      <c r="U32" s="165"/>
-      <c r="V32" s="165"/>
-      <c r="W32" s="165"/>
-      <c r="X32" s="165"/>
-      <c r="Y32" s="165"/>
-      <c r="Z32" s="165"/>
-      <c r="AA32" s="165"/>
-      <c r="AB32" s="165"/>
-      <c r="AC32" s="165"/>
-      <c r="AD32" s="165"/>
-      <c r="AE32" s="165"/>
-      <c r="AF32" s="165"/>
-      <c r="AG32" s="165"/>
-      <c r="AH32" s="165"/>
-      <c r="AI32" s="165"/>
-      <c r="AJ32" s="165"/>
-      <c r="AK32" s="165"/>
-      <c r="AL32" s="165"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="164"/>
+      <c r="L32" s="164"/>
+      <c r="M32" s="164"/>
+      <c r="N32" s="164"/>
+      <c r="O32" s="164"/>
+      <c r="P32" s="164"/>
+      <c r="Q32" s="164"/>
+      <c r="R32" s="164"/>
+      <c r="S32" s="164"/>
+      <c r="T32" s="164"/>
+      <c r="U32" s="164"/>
+      <c r="V32" s="164"/>
+      <c r="W32" s="164"/>
+      <c r="X32" s="164"/>
+      <c r="Y32" s="164"/>
+      <c r="Z32" s="164"/>
+      <c r="AA32" s="164"/>
+      <c r="AB32" s="164"/>
+      <c r="AC32" s="164"/>
+      <c r="AD32" s="164"/>
+      <c r="AE32" s="164"/>
+      <c r="AF32" s="164"/>
+      <c r="AG32" s="164"/>
+      <c r="AH32" s="164"/>
+      <c r="AI32" s="164"/>
+      <c r="AJ32" s="164"/>
+      <c r="AK32" s="164"/>
+      <c r="AL32" s="164"/>
       <c r="AM32" s="41"/>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16372,7 +16361,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK56" activeCellId="1" sqref="C1:AM54 AK56"/>
+      <selection pane="topLeft" activeCell="AK56" activeCellId="1" sqref="T11:Y54 AK56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17954,7 +17943,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="C1:AM54"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="T11:Y54 F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19602,7 +19591,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C1:AM54"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="T11:Y54 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22076,7 +22065,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C1:AM54"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="T11:Y54 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23748,7 +23737,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CL1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C1:AM54"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="T11:Y54 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26199,7 +26188,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AQ2" activeCellId="1" sqref="C1:AM54 AQ2"/>
+      <selection pane="topLeft" activeCell="AQ2" activeCellId="1" sqref="T11:Y54 AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28670,7 +28659,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P56" activeCellId="1" sqref="C1:AM54 P56"/>
+      <selection pane="topLeft" activeCell="P56" activeCellId="1" sqref="T11:Y54 P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31090,7 +31079,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="C1:AM54 B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="T11:Y54 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33580,7 +33569,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW13" activeCellId="1" sqref="C1:AM54 AW13"/>
+      <selection pane="topLeft" activeCell="AW13" activeCellId="1" sqref="T11:Y54 AW13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/static/report.xlsx
+++ b/backend/static/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -155,8 +155,8 @@
     <t xml:space="preserve">М.  А. Трубочкин</t>
   </si>
   <si>
-    <t xml:space="preserve">ЗАКЛЮЧЕНИЕ ПО ОБСЛЕДОВАНИЮ
-ТЕХНИЧЕСКОГО СОСТОЯНИЯ ОБЪЕКТА</t>
+    <t xml:space="preserve">Заключение по обследованию
+технического состояния объекта</t>
   </si>
   <si>
     <t xml:space="preserve">1. Адрес объекта</t>
@@ -648,19 +648,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1644,9 +1641,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>116280</xdr:colOff>
+      <xdr:colOff>115920</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>96120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1660,7 +1657,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="281160" y="66240"/>
-          <a:ext cx="1348920" cy="569520"/>
+          <a:ext cx="1348560" cy="569160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1687,9 +1684,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>165600</xdr:colOff>
+      <xdr:colOff>165240</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1703,7 +1700,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="510120" y="81360"/>
-          <a:ext cx="1348920" cy="569520"/>
+          <a:ext cx="1348560" cy="569160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1730,9 +1727,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>115920</xdr:colOff>
+      <xdr:colOff>115560</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1746,7 +1743,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5803920" y="10002240"/>
-          <a:ext cx="677880" cy="285120"/>
+          <a:ext cx="677520" cy="284760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1875,8 +1872,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AP41" activeCellId="1" sqref="T11:Y54 AP41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AP41" activeCellId="0" sqref="AP41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3525,8 +3522,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T11" activeCellId="0" sqref="T11:Y54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T11" activeCellId="0" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5931,8 +5928,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH49" activeCellId="1" sqref="T11:Y54 AH49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AH49" activeCellId="0" sqref="AH49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8161,8 +8158,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="T11:Y54 C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10576,8 +10573,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="1" sqref="T11:Y54 D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12350,8 +12347,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="T11:Y54 D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13936,8 +13933,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="T11:Y54 D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16360,8 +16357,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK56" activeCellId="1" sqref="T11:Y54 AK56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AK56" activeCellId="0" sqref="AK56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17942,8 +17939,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="T11:Y54 F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19590,8 +19587,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="T11:Y54 C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22064,8 +22061,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="T11:Y54 C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23736,8 +23733,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CL1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="T11:Y54 C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AV7" activeCellId="0" sqref="AV7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26187,8 +26184,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AQ2" activeCellId="1" sqref="T11:Y54 AQ2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AQ2" activeCellId="0" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28658,8 +28655,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P56" activeCellId="1" sqref="T11:Y54 P56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31078,8 +31075,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="T11:Y54 B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AR34" activeCellId="0" sqref="AR34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33568,8 +33565,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW13" activeCellId="1" sqref="T11:Y54 AW13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AW13" activeCellId="0" sqref="AW13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/static/report.xlsx
+++ b/backend/static/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -648,16 +648,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1641,9 +1644,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>115920</xdr:colOff>
+      <xdr:colOff>115560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>96120</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1657,7 +1660,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="281160" y="66240"/>
-          <a:ext cx="1348560" cy="569160"/>
+          <a:ext cx="1348200" cy="568800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1684,9 +1687,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>165240</xdr:colOff>
+      <xdr:colOff>164880</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1700,7 +1703,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="510120" y="81360"/>
-          <a:ext cx="1348560" cy="569160"/>
+          <a:ext cx="1348200" cy="568800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1727,9 +1730,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>115560</xdr:colOff>
+      <xdr:colOff>115200</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1743,7 +1746,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5803920" y="10002240"/>
-          <a:ext cx="677520" cy="284760"/>
+          <a:ext cx="677160" cy="284400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1872,7 +1875,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AP41" activeCellId="0" sqref="AP41"/>
     </sheetView>
   </sheetViews>
@@ -3522,7 +3525,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T11" activeCellId="0" sqref="T11"/>
     </sheetView>
   </sheetViews>
@@ -5928,7 +5931,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AH49" activeCellId="0" sqref="AH49"/>
     </sheetView>
   </sheetViews>
@@ -8158,7 +8161,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -10573,7 +10576,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -12347,7 +12350,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -13933,8 +13936,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AR17" activeCellId="0" sqref="AR17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14849,89 +14852,89 @@
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="40"/>
-      <c r="D23" s="164" t="str">
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="139"/>
+      <c r="R23" s="139"/>
+      <c r="S23" s="139"/>
+      <c r="T23" s="139"/>
+      <c r="U23" s="139"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="139"/>
+      <c r="X23" s="139"/>
+      <c r="Y23" s="139"/>
+      <c r="Z23" s="139"/>
+      <c r="AA23" s="139"/>
+      <c r="AB23" s="139"/>
+      <c r="AC23" s="139"/>
+      <c r="AD23" s="139"/>
+      <c r="AE23" s="139"/>
+      <c r="AF23" s="139"/>
+      <c r="AG23" s="139"/>
+      <c r="AH23" s="139"/>
+      <c r="AI23" s="139"/>
+      <c r="AJ23" s="139"/>
+      <c r="AK23" s="139"/>
+      <c r="AL23" s="139"/>
+      <c r="AM23" s="41"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C24" s="40"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="139"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="139"/>
+      <c r="N24" s="139"/>
+      <c r="O24" s="139"/>
+      <c r="P24" s="139"/>
+      <c r="Q24" s="139"/>
+      <c r="R24" s="139"/>
+      <c r="S24" s="139"/>
+      <c r="T24" s="139"/>
+      <c r="U24" s="139"/>
+      <c r="V24" s="139"/>
+      <c r="W24" s="139"/>
+      <c r="X24" s="139"/>
+      <c r="Y24" s="139"/>
+      <c r="Z24" s="139"/>
+      <c r="AA24" s="139"/>
+      <c r="AB24" s="139"/>
+      <c r="AC24" s="139"/>
+      <c r="AD24" s="139"/>
+      <c r="AE24" s="139"/>
+      <c r="AF24" s="139"/>
+      <c r="AG24" s="139"/>
+      <c r="AH24" s="139"/>
+      <c r="AI24" s="139"/>
+      <c r="AJ24" s="139"/>
+      <c r="AK24" s="139"/>
+      <c r="AL24" s="139"/>
+      <c r="AM24" s="41"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C25" s="40"/>
+      <c r="D25" s="164" t="str">
         <f aca="false">CHAR(10)&amp;IF(ISBLANK(Титульный!B8),"8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».",IFERROR(IF(OR(LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилое помещение",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилой дом",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Многоквартирный дом"),"8. ВСН 53-86(р) «Правила оценки физического износа зданий»;"&amp;CHAR(10)&amp;"9. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».","8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов»."),"8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов»."))</f>
         <v>
 8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».</v>
       </c>
-      <c r="E23" s="164"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="164"/>
-      <c r="L23" s="164"/>
-      <c r="M23" s="164"/>
-      <c r="N23" s="164"/>
-      <c r="O23" s="164"/>
-      <c r="P23" s="164"/>
-      <c r="Q23" s="164"/>
-      <c r="R23" s="164"/>
-      <c r="S23" s="164"/>
-      <c r="T23" s="164"/>
-      <c r="U23" s="164"/>
-      <c r="V23" s="164"/>
-      <c r="W23" s="164"/>
-      <c r="X23" s="164"/>
-      <c r="Y23" s="164"/>
-      <c r="Z23" s="164"/>
-      <c r="AA23" s="164"/>
-      <c r="AB23" s="164"/>
-      <c r="AC23" s="164"/>
-      <c r="AD23" s="164"/>
-      <c r="AE23" s="164"/>
-      <c r="AF23" s="164"/>
-      <c r="AG23" s="164"/>
-      <c r="AH23" s="164"/>
-      <c r="AI23" s="164"/>
-      <c r="AJ23" s="164"/>
-      <c r="AK23" s="164"/>
-      <c r="AL23" s="164"/>
-      <c r="AM23" s="41"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="40"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="164"/>
-      <c r="K24" s="164"/>
-      <c r="L24" s="164"/>
-      <c r="M24" s="164"/>
-      <c r="N24" s="164"/>
-      <c r="O24" s="164"/>
-      <c r="P24" s="164"/>
-      <c r="Q24" s="164"/>
-      <c r="R24" s="164"/>
-      <c r="S24" s="164"/>
-      <c r="T24" s="164"/>
-      <c r="U24" s="164"/>
-      <c r="V24" s="164"/>
-      <c r="W24" s="164"/>
-      <c r="X24" s="164"/>
-      <c r="Y24" s="164"/>
-      <c r="Z24" s="164"/>
-      <c r="AA24" s="164"/>
-      <c r="AB24" s="164"/>
-      <c r="AC24" s="164"/>
-      <c r="AD24" s="164"/>
-      <c r="AE24" s="164"/>
-      <c r="AF24" s="164"/>
-      <c r="AG24" s="164"/>
-      <c r="AH24" s="164"/>
-      <c r="AI24" s="164"/>
-      <c r="AJ24" s="164"/>
-      <c r="AK24" s="164"/>
-      <c r="AL24" s="164"/>
-      <c r="AM24" s="41"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="40"/>
-      <c r="D25" s="164"/>
       <c r="E25" s="164"/>
       <c r="F25" s="164"/>
       <c r="G25" s="164"/>
@@ -15255,82 +15258,82 @@
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8"/>
-      <c r="AG33" s="8"/>
-      <c r="AH33" s="8"/>
-      <c r="AI33" s="8"/>
-      <c r="AJ33" s="8"/>
-      <c r="AK33" s="8"/>
-      <c r="AL33" s="8"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="164"/>
+      <c r="L33" s="164"/>
+      <c r="M33" s="164"/>
+      <c r="N33" s="164"/>
+      <c r="O33" s="164"/>
+      <c r="P33" s="164"/>
+      <c r="Q33" s="164"/>
+      <c r="R33" s="164"/>
+      <c r="S33" s="164"/>
+      <c r="T33" s="164"/>
+      <c r="U33" s="164"/>
+      <c r="V33" s="164"/>
+      <c r="W33" s="164"/>
+      <c r="X33" s="164"/>
+      <c r="Y33" s="164"/>
+      <c r="Z33" s="164"/>
+      <c r="AA33" s="164"/>
+      <c r="AB33" s="164"/>
+      <c r="AC33" s="164"/>
+      <c r="AD33" s="164"/>
+      <c r="AE33" s="164"/>
+      <c r="AF33" s="164"/>
+      <c r="AG33" s="164"/>
+      <c r="AH33" s="164"/>
+      <c r="AI33" s="164"/>
+      <c r="AJ33" s="164"/>
+      <c r="AK33" s="164"/>
+      <c r="AL33" s="164"/>
       <c r="AM33" s="41"/>
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
       <c r="C34" s="40"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="8"/>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="8"/>
-      <c r="AG34" s="8"/>
-      <c r="AH34" s="8"/>
-      <c r="AI34" s="8"/>
-      <c r="AJ34" s="8"/>
-      <c r="AK34" s="8"/>
-      <c r="AL34" s="8"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="164"/>
+      <c r="F34" s="164"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="164"/>
+      <c r="K34" s="164"/>
+      <c r="L34" s="164"/>
+      <c r="M34" s="164"/>
+      <c r="N34" s="164"/>
+      <c r="O34" s="164"/>
+      <c r="P34" s="164"/>
+      <c r="Q34" s="164"/>
+      <c r="R34" s="164"/>
+      <c r="S34" s="164"/>
+      <c r="T34" s="164"/>
+      <c r="U34" s="164"/>
+      <c r="V34" s="164"/>
+      <c r="W34" s="164"/>
+      <c r="X34" s="164"/>
+      <c r="Y34" s="164"/>
+      <c r="Z34" s="164"/>
+      <c r="AA34" s="164"/>
+      <c r="AB34" s="164"/>
+      <c r="AC34" s="164"/>
+      <c r="AD34" s="164"/>
+      <c r="AE34" s="164"/>
+      <c r="AF34" s="164"/>
+      <c r="AG34" s="164"/>
+      <c r="AH34" s="164"/>
+      <c r="AI34" s="164"/>
+      <c r="AJ34" s="164"/>
+      <c r="AK34" s="164"/>
+      <c r="AL34" s="164"/>
       <c r="AM34" s="41"/>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16306,8 +16309,8 @@
   </sheetData>
   <mergeCells count="34">
     <mergeCell ref="D2:AL3"/>
-    <mergeCell ref="D5:AL22"/>
-    <mergeCell ref="D23:AL32"/>
+    <mergeCell ref="D5:AL24"/>
+    <mergeCell ref="D25:AL34"/>
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="B29:B35"/>
     <mergeCell ref="A36:A40"/>
@@ -16357,7 +16360,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AK56" activeCellId="0" sqref="AK56"/>
     </sheetView>
   </sheetViews>
@@ -17939,7 +17942,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -19587,7 +19590,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -22061,7 +22064,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -23733,7 +23736,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AV7" activeCellId="0" sqref="AV7"/>
     </sheetView>
   </sheetViews>
@@ -26184,7 +26187,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AQ2" activeCellId="0" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
@@ -28655,7 +28658,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>
@@ -31075,7 +31078,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AR34" activeCellId="0" sqref="AR34"/>
     </sheetView>
   </sheetViews>
@@ -33565,7 +33568,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AW13" activeCellId="0" sqref="AW13"/>
     </sheetView>
   </sheetViews>

--- a/backend/static/report.xlsx
+++ b/backend/static/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,8 @@
     <sheet name="Заключительная часть" sheetId="13" state="visible" r:id="rId15"/>
     <sheet name="Выводы и рекомендации" sheetId="14" state="visible" r:id="rId16"/>
     <sheet name="Перечень документации" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="Шаблон" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="Приложение А" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="Шаблон" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="169">
   <si>
     <t xml:space="preserve">ООО «Строительно-производственно объединение «УРАЛ»</t>
   </si>
@@ -626,6 +627,9 @@
 6. СП 131.13330.2020 «Строительная климатология. Актуализированная редакция СНиП 23-01-99*» (с Изменениями № 1, 2);
 7. СП 50.13330.2012 «Тепловая защита зданий. Актуализированная редакция СНиП 23-02-2003» (с Изменением № 1);</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Приложение А. Выписки из реестра членов саморегулируемой организации</t>
   </si>
 </sst>
 </file>
@@ -1644,9 +1648,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>115560</xdr:colOff>
+      <xdr:colOff>115200</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1660,7 +1664,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="281160" y="66240"/>
-          <a:ext cx="1348200" cy="568800"/>
+          <a:ext cx="1347840" cy="568440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1687,9 +1691,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>164880</xdr:colOff>
+      <xdr:colOff>164520</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1703,7 +1707,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="510120" y="81360"/>
-          <a:ext cx="1348200" cy="568800"/>
+          <a:ext cx="1347840" cy="568440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1730,9 +1734,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>114840</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>136080</xdr:rowOff>
+      <xdr:rowOff>135720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1746,7 +1750,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5803920" y="10002240"/>
-          <a:ext cx="677160" cy="284400"/>
+          <a:ext cx="676800" cy="284040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12350,6 +12354,1592 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="2.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="38" min="4" style="1" width="2.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="2.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="75" min="40" style="1" width="2.55"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="110"/>
+      <c r="AH1" s="110"/>
+      <c r="AI1" s="110"/>
+      <c r="AJ1" s="110"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="113"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C2" s="51"/>
+      <c r="D2" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="52"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C3" s="51"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="52"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="51"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="8"/>
+      <c r="AM4" s="52"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C5" s="40"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="AK5" s="8"/>
+      <c r="AM5" s="41"/>
+      <c r="AQ5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="42"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="8"/>
+      <c r="AM6" s="43"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C7" s="44"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="8"/>
+      <c r="AM7" s="43"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C8" s="40"/>
+      <c r="AK8" s="8"/>
+      <c r="AM8" s="41"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C9" s="40"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="8"/>
+      <c r="AM9" s="41"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C10" s="46"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="8"/>
+      <c r="AM10" s="47"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C11" s="46"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="8"/>
+      <c r="AM11" s="47"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C12" s="46"/>
+      <c r="AK12" s="8"/>
+      <c r="AM12" s="47"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C13" s="46"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="8"/>
+      <c r="AM13" s="47"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C14" s="46"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="8"/>
+      <c r="AM14" s="47"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C15" s="40"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16"/>
+      <c r="AK15" s="8"/>
+      <c r="AM15" s="41"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C16" s="40"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="16"/>
+      <c r="AJ16" s="16"/>
+      <c r="AK16" s="8"/>
+      <c r="AM16" s="41"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C17" s="40"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="8"/>
+      <c r="AM17" s="41"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C18" s="40"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="8"/>
+      <c r="AM18" s="41"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C19" s="40"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="16"/>
+      <c r="AK19" s="8"/>
+      <c r="AM19" s="41"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C20" s="40"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="8"/>
+      <c r="AM20" s="41"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C21" s="40"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="16"/>
+      <c r="AJ21" s="16"/>
+      <c r="AK21" s="8"/>
+      <c r="AM21" s="41"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C22" s="40"/>
+      <c r="AK22" s="8"/>
+      <c r="AM22" s="41"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C23" s="40"/>
+      <c r="AK23" s="8"/>
+      <c r="AM23" s="41"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C24" s="40"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="95"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="95"/>
+      <c r="AF24" s="95"/>
+      <c r="AG24" s="95"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="95"/>
+      <c r="AJ24" s="95"/>
+      <c r="AK24" s="8"/>
+      <c r="AM24" s="41"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C25" s="40"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="95"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="95"/>
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="95"/>
+      <c r="AF25" s="95"/>
+      <c r="AG25" s="95"/>
+      <c r="AH25" s="95"/>
+      <c r="AI25" s="95"/>
+      <c r="AJ25" s="95"/>
+      <c r="AK25" s="8"/>
+      <c r="AM25" s="41"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C26" s="40"/>
+      <c r="AK26" s="8"/>
+      <c r="AM26" s="41"/>
+    </row>
+    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C27" s="40"/>
+      <c r="AK27" s="8"/>
+      <c r="AM27" s="41"/>
+    </row>
+    <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C28" s="40"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="16"/>
+      <c r="AG28" s="16"/>
+      <c r="AH28" s="16"/>
+      <c r="AI28" s="16"/>
+      <c r="AJ28" s="16"/>
+      <c r="AK28" s="8"/>
+      <c r="AM28" s="41"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="50"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="16"/>
+      <c r="AI29" s="16"/>
+      <c r="AJ29" s="16"/>
+      <c r="AK29" s="8"/>
+      <c r="AM29" s="41"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="40"/>
+      <c r="AK30" s="8"/>
+      <c r="AM30" s="41"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="95"/>
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="95"/>
+      <c r="AF31" s="95"/>
+      <c r="AG31" s="95"/>
+      <c r="AH31" s="95"/>
+      <c r="AI31" s="95"/>
+      <c r="AJ31" s="95"/>
+      <c r="AK31" s="8"/>
+      <c r="AM31" s="41"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="49"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="95"/>
+      <c r="W32" s="95"/>
+      <c r="X32" s="95"/>
+      <c r="Y32" s="95"/>
+      <c r="Z32" s="95"/>
+      <c r="AA32" s="95"/>
+      <c r="AB32" s="95"/>
+      <c r="AC32" s="95"/>
+      <c r="AD32" s="95"/>
+      <c r="AE32" s="95"/>
+      <c r="AF32" s="95"/>
+      <c r="AG32" s="95"/>
+      <c r="AH32" s="95"/>
+      <c r="AI32" s="95"/>
+      <c r="AJ32" s="95"/>
+      <c r="AK32" s="8"/>
+      <c r="AM32" s="41"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="40"/>
+      <c r="AK33" s="8"/>
+      <c r="AM33" s="41"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="49"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="40"/>
+      <c r="AK34" s="8"/>
+      <c r="AM34" s="41"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="49"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="40"/>
+      <c r="AK35" s="8"/>
+      <c r="AM35" s="41"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="50"/>
+      <c r="C36" s="40"/>
+      <c r="AK36" s="8"/>
+      <c r="AM36" s="41"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="49"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="40"/>
+      <c r="AK37" s="8"/>
+      <c r="AM37" s="41"/>
+    </row>
+    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="40"/>
+      <c r="AK38" s="8"/>
+      <c r="AM38" s="41"/>
+    </row>
+    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="49"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="40"/>
+      <c r="AK39" s="8"/>
+      <c r="AM39" s="41"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="49"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="40"/>
+      <c r="AK40" s="8"/>
+      <c r="AM40" s="41"/>
+    </row>
+    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="50"/>
+      <c r="C41" s="40"/>
+      <c r="AK41" s="8"/>
+      <c r="AM41" s="41"/>
+    </row>
+    <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="49"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="40"/>
+      <c r="AK42" s="8"/>
+      <c r="AM42" s="41"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="49"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="40"/>
+      <c r="AK43" s="8"/>
+      <c r="AM43" s="41"/>
+    </row>
+    <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="49"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="40"/>
+      <c r="AK44" s="8"/>
+      <c r="AM44" s="41"/>
+    </row>
+    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="49"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="51"/>
+      <c r="AK45" s="8"/>
+      <c r="AM45" s="52"/>
+    </row>
+    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="50"/>
+      <c r="C46" s="51"/>
+      <c r="AK46" s="8"/>
+      <c r="AM46" s="52"/>
+    </row>
+    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="49"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="28"/>
+      <c r="AC47" s="28"/>
+      <c r="AD47" s="28"/>
+      <c r="AE47" s="28"/>
+      <c r="AF47" s="28"/>
+      <c r="AG47" s="28"/>
+      <c r="AH47" s="28"/>
+      <c r="AI47" s="28"/>
+      <c r="AJ47" s="28"/>
+      <c r="AK47" s="8"/>
+      <c r="AM47" s="52"/>
+    </row>
+    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="49"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="28"/>
+      <c r="AC48" s="28"/>
+      <c r="AD48" s="28"/>
+      <c r="AE48" s="28"/>
+      <c r="AF48" s="28"/>
+      <c r="AG48" s="28"/>
+      <c r="AH48" s="28"/>
+      <c r="AI48" s="28"/>
+      <c r="AJ48" s="28"/>
+      <c r="AK48" s="8"/>
+      <c r="AM48" s="41"/>
+    </row>
+    <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="49"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="40"/>
+      <c r="AK49" s="8"/>
+      <c r="AM49" s="41"/>
+    </row>
+    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="49"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="40"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="29"/>
+      <c r="AB50" s="29"/>
+      <c r="AC50" s="29"/>
+      <c r="AD50" s="29"/>
+      <c r="AE50" s="29"/>
+      <c r="AF50" s="29"/>
+      <c r="AG50" s="29"/>
+      <c r="AH50" s="29"/>
+      <c r="AI50" s="29"/>
+      <c r="AJ50" s="29"/>
+      <c r="AK50" s="8"/>
+      <c r="AM50" s="53"/>
+    </row>
+    <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="49"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="29"/>
+      <c r="AA51" s="29"/>
+      <c r="AB51" s="29"/>
+      <c r="AC51" s="29"/>
+      <c r="AD51" s="29"/>
+      <c r="AE51" s="29"/>
+      <c r="AF51" s="29"/>
+      <c r="AG51" s="29"/>
+      <c r="AH51" s="29"/>
+      <c r="AI51" s="29"/>
+      <c r="AJ51" s="29"/>
+      <c r="AK51" s="8"/>
+      <c r="AM51" s="53"/>
+    </row>
+    <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="49"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="40"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="29"/>
+      <c r="AA52" s="29"/>
+      <c r="AB52" s="29"/>
+      <c r="AC52" s="29"/>
+      <c r="AD52" s="29"/>
+      <c r="AE52" s="29"/>
+      <c r="AF52" s="29"/>
+      <c r="AG52" s="29"/>
+      <c r="AH52" s="29"/>
+      <c r="AI52" s="29"/>
+      <c r="AJ52" s="29"/>
+      <c r="AK52" s="8"/>
+      <c r="AM52" s="53"/>
+    </row>
+    <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="55"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="11"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11"/>
+      <c r="AJ53" s="11"/>
+      <c r="AK53" s="8"/>
+      <c r="AM53" s="43"/>
+    </row>
+    <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="49"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="97"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="97"/>
+      <c r="I54" s="97"/>
+      <c r="J54" s="97"/>
+      <c r="K54" s="97"/>
+      <c r="L54" s="97"/>
+      <c r="M54" s="97"/>
+      <c r="N54" s="97"/>
+      <c r="O54" s="97"/>
+      <c r="P54" s="98"/>
+      <c r="Q54" s="98"/>
+      <c r="R54" s="98"/>
+      <c r="S54" s="98"/>
+      <c r="T54" s="98"/>
+      <c r="U54" s="98"/>
+      <c r="V54" s="98"/>
+      <c r="W54" s="98"/>
+      <c r="X54" s="98"/>
+      <c r="Y54" s="98"/>
+      <c r="Z54" s="98"/>
+      <c r="AA54" s="98"/>
+      <c r="AB54" s="98"/>
+      <c r="AC54" s="98"/>
+      <c r="AD54" s="98"/>
+      <c r="AE54" s="98"/>
+      <c r="AF54" s="98"/>
+      <c r="AG54" s="98"/>
+      <c r="AH54" s="98"/>
+      <c r="AI54" s="98"/>
+      <c r="AJ54" s="98"/>
+      <c r="AK54" s="24"/>
+      <c r="AL54" s="25"/>
+      <c r="AM54" s="99"/>
+    </row>
+    <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="49"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="77"/>
+      <c r="K55" s="77"/>
+      <c r="L55" s="77"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="76"/>
+      <c r="O55" s="76"/>
+      <c r="P55" s="125"/>
+      <c r="Q55" s="125"/>
+      <c r="R55" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="S55" s="100"/>
+      <c r="T55" s="100"/>
+      <c r="U55" s="100"/>
+      <c r="V55" s="100"/>
+      <c r="W55" s="100"/>
+      <c r="X55" s="100"/>
+      <c r="Y55" s="100"/>
+      <c r="Z55" s="100"/>
+      <c r="AA55" s="100"/>
+      <c r="AB55" s="100"/>
+      <c r="AC55" s="100"/>
+      <c r="AD55" s="100"/>
+      <c r="AE55" s="100"/>
+      <c r="AF55" s="100"/>
+      <c r="AG55" s="100"/>
+      <c r="AH55" s="100"/>
+      <c r="AI55" s="100"/>
+      <c r="AJ55" s="100"/>
+      <c r="AK55" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL55" s="85"/>
+      <c r="AM55" s="85"/>
+    </row>
+    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="49"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="127"/>
+      <c r="I56" s="127"/>
+      <c r="J56" s="102"/>
+      <c r="K56" s="102"/>
+      <c r="L56" s="102"/>
+      <c r="M56" s="126"/>
+      <c r="N56" s="126"/>
+      <c r="O56" s="126"/>
+      <c r="P56" s="79"/>
+      <c r="Q56" s="79"/>
+      <c r="R56" s="100"/>
+      <c r="S56" s="100"/>
+      <c r="T56" s="100"/>
+      <c r="U56" s="100"/>
+      <c r="V56" s="100"/>
+      <c r="W56" s="100"/>
+      <c r="X56" s="100"/>
+      <c r="Y56" s="100"/>
+      <c r="Z56" s="100"/>
+      <c r="AA56" s="100"/>
+      <c r="AB56" s="100"/>
+      <c r="AC56" s="100"/>
+      <c r="AD56" s="100"/>
+      <c r="AE56" s="100"/>
+      <c r="AF56" s="100"/>
+      <c r="AG56" s="100"/>
+      <c r="AH56" s="100"/>
+      <c r="AI56" s="100"/>
+      <c r="AJ56" s="100"/>
+      <c r="AK56" s="77"/>
+      <c r="AL56" s="77"/>
+      <c r="AM56" s="77"/>
+    </row>
+    <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="49"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="79"/>
+      <c r="E57" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="80"/>
+      <c r="G57" s="80"/>
+      <c r="H57" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="81"/>
+      <c r="J57" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" s="82"/>
+      <c r="L57" s="82"/>
+      <c r="M57" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="N57" s="81"/>
+      <c r="O57" s="81"/>
+      <c r="P57" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q57" s="81"/>
+      <c r="R57" s="100"/>
+      <c r="S57" s="100"/>
+      <c r="T57" s="100"/>
+      <c r="U57" s="100"/>
+      <c r="V57" s="100"/>
+      <c r="W57" s="100"/>
+      <c r="X57" s="100"/>
+      <c r="Y57" s="100"/>
+      <c r="Z57" s="100"/>
+      <c r="AA57" s="100"/>
+      <c r="AB57" s="100"/>
+      <c r="AC57" s="100"/>
+      <c r="AD57" s="100"/>
+      <c r="AE57" s="100"/>
+      <c r="AF57" s="100"/>
+      <c r="AG57" s="100"/>
+      <c r="AH57" s="100"/>
+      <c r="AI57" s="100"/>
+      <c r="AJ57" s="100"/>
+      <c r="AK57" s="77"/>
+      <c r="AL57" s="77"/>
+      <c r="AM57" s="77"/>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="D2:AL3"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="R55:AJ57"/>
+    <mergeCell ref="AK55:AM55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="AK56:AM57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.315277777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:BW1048576"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
@@ -12444,7 +14034,7 @@
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="51"/>
       <c r="D2" s="66" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
@@ -12561,687 +14151,945 @@
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="40"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="AK5" s="8"/>
+      <c r="D5" s="139" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="139"/>
+      <c r="T5" s="139"/>
+      <c r="U5" s="139"/>
+      <c r="V5" s="139"/>
+      <c r="W5" s="139"/>
+      <c r="X5" s="139"/>
+      <c r="Y5" s="139"/>
+      <c r="Z5" s="139"/>
+      <c r="AA5" s="139"/>
+      <c r="AB5" s="139"/>
+      <c r="AC5" s="139"/>
+      <c r="AD5" s="139"/>
+      <c r="AE5" s="139"/>
+      <c r="AF5" s="139"/>
+      <c r="AG5" s="139"/>
+      <c r="AH5" s="139"/>
+      <c r="AI5" s="139"/>
+      <c r="AJ5" s="139"/>
+      <c r="AK5" s="139"/>
+      <c r="AL5" s="139"/>
       <c r="AM5" s="41"/>
       <c r="AQ5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="42"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="8"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="139"/>
+      <c r="R6" s="139"/>
+      <c r="S6" s="139"/>
+      <c r="T6" s="139"/>
+      <c r="U6" s="139"/>
+      <c r="V6" s="139"/>
+      <c r="W6" s="139"/>
+      <c r="X6" s="139"/>
+      <c r="Y6" s="139"/>
+      <c r="Z6" s="139"/>
+      <c r="AA6" s="139"/>
+      <c r="AB6" s="139"/>
+      <c r="AC6" s="139"/>
+      <c r="AD6" s="139"/>
+      <c r="AE6" s="139"/>
+      <c r="AF6" s="139"/>
+      <c r="AG6" s="139"/>
+      <c r="AH6" s="139"/>
+      <c r="AI6" s="139"/>
+      <c r="AJ6" s="139"/>
+      <c r="AK6" s="139"/>
+      <c r="AL6" s="139"/>
       <c r="AM6" s="43"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="44"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="8"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="139"/>
+      <c r="R7" s="139"/>
+      <c r="S7" s="139"/>
+      <c r="T7" s="139"/>
+      <c r="U7" s="139"/>
+      <c r="V7" s="139"/>
+      <c r="W7" s="139"/>
+      <c r="X7" s="139"/>
+      <c r="Y7" s="139"/>
+      <c r="Z7" s="139"/>
+      <c r="AA7" s="139"/>
+      <c r="AB7" s="139"/>
+      <c r="AC7" s="139"/>
+      <c r="AD7" s="139"/>
+      <c r="AE7" s="139"/>
+      <c r="AF7" s="139"/>
+      <c r="AG7" s="139"/>
+      <c r="AH7" s="139"/>
+      <c r="AI7" s="139"/>
+      <c r="AJ7" s="139"/>
+      <c r="AK7" s="139"/>
+      <c r="AL7" s="139"/>
       <c r="AM7" s="43"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="40"/>
-      <c r="AK8" s="8"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="139"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="139"/>
+      <c r="S8" s="139"/>
+      <c r="T8" s="139"/>
+      <c r="U8" s="139"/>
+      <c r="V8" s="139"/>
+      <c r="W8" s="139"/>
+      <c r="X8" s="139"/>
+      <c r="Y8" s="139"/>
+      <c r="Z8" s="139"/>
+      <c r="AA8" s="139"/>
+      <c r="AB8" s="139"/>
+      <c r="AC8" s="139"/>
+      <c r="AD8" s="139"/>
+      <c r="AE8" s="139"/>
+      <c r="AF8" s="139"/>
+      <c r="AG8" s="139"/>
+      <c r="AH8" s="139"/>
+      <c r="AI8" s="139"/>
+      <c r="AJ8" s="139"/>
+      <c r="AK8" s="139"/>
+      <c r="AL8" s="139"/>
       <c r="AM8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C9" s="40"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="8"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="139"/>
+      <c r="O9" s="139"/>
+      <c r="P9" s="139"/>
+      <c r="Q9" s="139"/>
+      <c r="R9" s="139"/>
+      <c r="S9" s="139"/>
+      <c r="T9" s="139"/>
+      <c r="U9" s="139"/>
+      <c r="V9" s="139"/>
+      <c r="W9" s="139"/>
+      <c r="X9" s="139"/>
+      <c r="Y9" s="139"/>
+      <c r="Z9" s="139"/>
+      <c r="AA9" s="139"/>
+      <c r="AB9" s="139"/>
+      <c r="AC9" s="139"/>
+      <c r="AD9" s="139"/>
+      <c r="AE9" s="139"/>
+      <c r="AF9" s="139"/>
+      <c r="AG9" s="139"/>
+      <c r="AH9" s="139"/>
+      <c r="AI9" s="139"/>
+      <c r="AJ9" s="139"/>
+      <c r="AK9" s="139"/>
+      <c r="AL9" s="139"/>
       <c r="AM9" s="41"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C10" s="46"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="8"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="139"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="139"/>
+      <c r="R10" s="139"/>
+      <c r="S10" s="139"/>
+      <c r="T10" s="139"/>
+      <c r="U10" s="139"/>
+      <c r="V10" s="139"/>
+      <c r="W10" s="139"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="139"/>
+      <c r="Z10" s="139"/>
+      <c r="AA10" s="139"/>
+      <c r="AB10" s="139"/>
+      <c r="AC10" s="139"/>
+      <c r="AD10" s="139"/>
+      <c r="AE10" s="139"/>
+      <c r="AF10" s="139"/>
+      <c r="AG10" s="139"/>
+      <c r="AH10" s="139"/>
+      <c r="AI10" s="139"/>
+      <c r="AJ10" s="139"/>
+      <c r="AK10" s="139"/>
+      <c r="AL10" s="139"/>
       <c r="AM10" s="47"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C11" s="46"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="8"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="139"/>
+      <c r="N11" s="139"/>
+      <c r="O11" s="139"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="139"/>
+      <c r="R11" s="139"/>
+      <c r="S11" s="139"/>
+      <c r="T11" s="139"/>
+      <c r="U11" s="139"/>
+      <c r="V11" s="139"/>
+      <c r="W11" s="139"/>
+      <c r="X11" s="139"/>
+      <c r="Y11" s="139"/>
+      <c r="Z11" s="139"/>
+      <c r="AA11" s="139"/>
+      <c r="AB11" s="139"/>
+      <c r="AC11" s="139"/>
+      <c r="AD11" s="139"/>
+      <c r="AE11" s="139"/>
+      <c r="AF11" s="139"/>
+      <c r="AG11" s="139"/>
+      <c r="AH11" s="139"/>
+      <c r="AI11" s="139"/>
+      <c r="AJ11" s="139"/>
+      <c r="AK11" s="139"/>
+      <c r="AL11" s="139"/>
       <c r="AM11" s="47"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C12" s="46"/>
-      <c r="AK12" s="8"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="139"/>
+      <c r="N12" s="139"/>
+      <c r="O12" s="139"/>
+      <c r="P12" s="139"/>
+      <c r="Q12" s="139"/>
+      <c r="R12" s="139"/>
+      <c r="S12" s="139"/>
+      <c r="T12" s="139"/>
+      <c r="U12" s="139"/>
+      <c r="V12" s="139"/>
+      <c r="W12" s="139"/>
+      <c r="X12" s="139"/>
+      <c r="Y12" s="139"/>
+      <c r="Z12" s="139"/>
+      <c r="AA12" s="139"/>
+      <c r="AB12" s="139"/>
+      <c r="AC12" s="139"/>
+      <c r="AD12" s="139"/>
+      <c r="AE12" s="139"/>
+      <c r="AF12" s="139"/>
+      <c r="AG12" s="139"/>
+      <c r="AH12" s="139"/>
+      <c r="AI12" s="139"/>
+      <c r="AJ12" s="139"/>
+      <c r="AK12" s="139"/>
+      <c r="AL12" s="139"/>
       <c r="AM12" s="47"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C13" s="46"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="8"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="139"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="139"/>
+      <c r="R13" s="139"/>
+      <c r="S13" s="139"/>
+      <c r="T13" s="139"/>
+      <c r="U13" s="139"/>
+      <c r="V13" s="139"/>
+      <c r="W13" s="139"/>
+      <c r="X13" s="139"/>
+      <c r="Y13" s="139"/>
+      <c r="Z13" s="139"/>
+      <c r="AA13" s="139"/>
+      <c r="AB13" s="139"/>
+      <c r="AC13" s="139"/>
+      <c r="AD13" s="139"/>
+      <c r="AE13" s="139"/>
+      <c r="AF13" s="139"/>
+      <c r="AG13" s="139"/>
+      <c r="AH13" s="139"/>
+      <c r="AI13" s="139"/>
+      <c r="AJ13" s="139"/>
+      <c r="AK13" s="139"/>
+      <c r="AL13" s="139"/>
       <c r="AM13" s="47"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C14" s="46"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="8"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="139"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="139"/>
+      <c r="N14" s="139"/>
+      <c r="O14" s="139"/>
+      <c r="P14" s="139"/>
+      <c r="Q14" s="139"/>
+      <c r="R14" s="139"/>
+      <c r="S14" s="139"/>
+      <c r="T14" s="139"/>
+      <c r="U14" s="139"/>
+      <c r="V14" s="139"/>
+      <c r="W14" s="139"/>
+      <c r="X14" s="139"/>
+      <c r="Y14" s="139"/>
+      <c r="Z14" s="139"/>
+      <c r="AA14" s="139"/>
+      <c r="AB14" s="139"/>
+      <c r="AC14" s="139"/>
+      <c r="AD14" s="139"/>
+      <c r="AE14" s="139"/>
+      <c r="AF14" s="139"/>
+      <c r="AG14" s="139"/>
+      <c r="AH14" s="139"/>
+      <c r="AI14" s="139"/>
+      <c r="AJ14" s="139"/>
+      <c r="AK14" s="139"/>
+      <c r="AL14" s="139"/>
       <c r="AM14" s="47"/>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C15" s="40"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="16"/>
-      <c r="AJ15" s="16"/>
-      <c r="AK15" s="8"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="139"/>
+      <c r="R15" s="139"/>
+      <c r="S15" s="139"/>
+      <c r="T15" s="139"/>
+      <c r="U15" s="139"/>
+      <c r="V15" s="139"/>
+      <c r="W15" s="139"/>
+      <c r="X15" s="139"/>
+      <c r="Y15" s="139"/>
+      <c r="Z15" s="139"/>
+      <c r="AA15" s="139"/>
+      <c r="AB15" s="139"/>
+      <c r="AC15" s="139"/>
+      <c r="AD15" s="139"/>
+      <c r="AE15" s="139"/>
+      <c r="AF15" s="139"/>
+      <c r="AG15" s="139"/>
+      <c r="AH15" s="139"/>
+      <c r="AI15" s="139"/>
+      <c r="AJ15" s="139"/>
+      <c r="AK15" s="139"/>
+      <c r="AL15" s="139"/>
       <c r="AM15" s="41"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="40"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="16"/>
-      <c r="AJ16" s="16"/>
-      <c r="AK16" s="8"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="139"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="139"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="139"/>
+      <c r="T16" s="139"/>
+      <c r="U16" s="139"/>
+      <c r="V16" s="139"/>
+      <c r="W16" s="139"/>
+      <c r="X16" s="139"/>
+      <c r="Y16" s="139"/>
+      <c r="Z16" s="139"/>
+      <c r="AA16" s="139"/>
+      <c r="AB16" s="139"/>
+      <c r="AC16" s="139"/>
+      <c r="AD16" s="139"/>
+      <c r="AE16" s="139"/>
+      <c r="AF16" s="139"/>
+      <c r="AG16" s="139"/>
+      <c r="AH16" s="139"/>
+      <c r="AI16" s="139"/>
+      <c r="AJ16" s="139"/>
+      <c r="AK16" s="139"/>
+      <c r="AL16" s="139"/>
       <c r="AM16" s="41"/>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="40"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="8"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="139"/>
+      <c r="N17" s="139"/>
+      <c r="O17" s="139"/>
+      <c r="P17" s="139"/>
+      <c r="Q17" s="139"/>
+      <c r="R17" s="139"/>
+      <c r="S17" s="139"/>
+      <c r="T17" s="139"/>
+      <c r="U17" s="139"/>
+      <c r="V17" s="139"/>
+      <c r="W17" s="139"/>
+      <c r="X17" s="139"/>
+      <c r="Y17" s="139"/>
+      <c r="Z17" s="139"/>
+      <c r="AA17" s="139"/>
+      <c r="AB17" s="139"/>
+      <c r="AC17" s="139"/>
+      <c r="AD17" s="139"/>
+      <c r="AE17" s="139"/>
+      <c r="AF17" s="139"/>
+      <c r="AG17" s="139"/>
+      <c r="AH17" s="139"/>
+      <c r="AI17" s="139"/>
+      <c r="AJ17" s="139"/>
+      <c r="AK17" s="139"/>
+      <c r="AL17" s="139"/>
       <c r="AM17" s="41"/>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C18" s="40"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="8"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="139"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="139"/>
+      <c r="R18" s="139"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="139"/>
+      <c r="U18" s="139"/>
+      <c r="V18" s="139"/>
+      <c r="W18" s="139"/>
+      <c r="X18" s="139"/>
+      <c r="Y18" s="139"/>
+      <c r="Z18" s="139"/>
+      <c r="AA18" s="139"/>
+      <c r="AB18" s="139"/>
+      <c r="AC18" s="139"/>
+      <c r="AD18" s="139"/>
+      <c r="AE18" s="139"/>
+      <c r="AF18" s="139"/>
+      <c r="AG18" s="139"/>
+      <c r="AH18" s="139"/>
+      <c r="AI18" s="139"/>
+      <c r="AJ18" s="139"/>
+      <c r="AK18" s="139"/>
+      <c r="AL18" s="139"/>
       <c r="AM18" s="41"/>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C19" s="40"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="16"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="16"/>
-      <c r="AK19" s="8"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="139"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="139"/>
+      <c r="O19" s="139"/>
+      <c r="P19" s="139"/>
+      <c r="Q19" s="139"/>
+      <c r="R19" s="139"/>
+      <c r="S19" s="139"/>
+      <c r="T19" s="139"/>
+      <c r="U19" s="139"/>
+      <c r="V19" s="139"/>
+      <c r="W19" s="139"/>
+      <c r="X19" s="139"/>
+      <c r="Y19" s="139"/>
+      <c r="Z19" s="139"/>
+      <c r="AA19" s="139"/>
+      <c r="AB19" s="139"/>
+      <c r="AC19" s="139"/>
+      <c r="AD19" s="139"/>
+      <c r="AE19" s="139"/>
+      <c r="AF19" s="139"/>
+      <c r="AG19" s="139"/>
+      <c r="AH19" s="139"/>
+      <c r="AI19" s="139"/>
+      <c r="AJ19" s="139"/>
+      <c r="AK19" s="139"/>
+      <c r="AL19" s="139"/>
       <c r="AM19" s="41"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C20" s="40"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="16"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="8"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="139"/>
+      <c r="N20" s="139"/>
+      <c r="O20" s="139"/>
+      <c r="P20" s="139"/>
+      <c r="Q20" s="139"/>
+      <c r="R20" s="139"/>
+      <c r="S20" s="139"/>
+      <c r="T20" s="139"/>
+      <c r="U20" s="139"/>
+      <c r="V20" s="139"/>
+      <c r="W20" s="139"/>
+      <c r="X20" s="139"/>
+      <c r="Y20" s="139"/>
+      <c r="Z20" s="139"/>
+      <c r="AA20" s="139"/>
+      <c r="AB20" s="139"/>
+      <c r="AC20" s="139"/>
+      <c r="AD20" s="139"/>
+      <c r="AE20" s="139"/>
+      <c r="AF20" s="139"/>
+      <c r="AG20" s="139"/>
+      <c r="AH20" s="139"/>
+      <c r="AI20" s="139"/>
+      <c r="AJ20" s="139"/>
+      <c r="AK20" s="139"/>
+      <c r="AL20" s="139"/>
       <c r="AM20" s="41"/>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C21" s="40"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="16"/>
-      <c r="AH21" s="16"/>
-      <c r="AI21" s="16"/>
-      <c r="AJ21" s="16"/>
-      <c r="AK21" s="8"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="139"/>
+      <c r="R21" s="139"/>
+      <c r="S21" s="139"/>
+      <c r="T21" s="139"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="139"/>
+      <c r="X21" s="139"/>
+      <c r="Y21" s="139"/>
+      <c r="Z21" s="139"/>
+      <c r="AA21" s="139"/>
+      <c r="AB21" s="139"/>
+      <c r="AC21" s="139"/>
+      <c r="AD21" s="139"/>
+      <c r="AE21" s="139"/>
+      <c r="AF21" s="139"/>
+      <c r="AG21" s="139"/>
+      <c r="AH21" s="139"/>
+      <c r="AI21" s="139"/>
+      <c r="AJ21" s="139"/>
+      <c r="AK21" s="139"/>
+      <c r="AL21" s="139"/>
       <c r="AM21" s="41"/>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C22" s="40"/>
-      <c r="AK22" s="8"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="139"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="139"/>
+      <c r="N22" s="139"/>
+      <c r="O22" s="139"/>
+      <c r="P22" s="139"/>
+      <c r="Q22" s="139"/>
+      <c r="R22" s="139"/>
+      <c r="S22" s="139"/>
+      <c r="T22" s="139"/>
+      <c r="U22" s="139"/>
+      <c r="V22" s="139"/>
+      <c r="W22" s="139"/>
+      <c r="X22" s="139"/>
+      <c r="Y22" s="139"/>
+      <c r="Z22" s="139"/>
+      <c r="AA22" s="139"/>
+      <c r="AB22" s="139"/>
+      <c r="AC22" s="139"/>
+      <c r="AD22" s="139"/>
+      <c r="AE22" s="139"/>
+      <c r="AF22" s="139"/>
+      <c r="AG22" s="139"/>
+      <c r="AH22" s="139"/>
+      <c r="AI22" s="139"/>
+      <c r="AJ22" s="139"/>
+      <c r="AK22" s="139"/>
+      <c r="AL22" s="139"/>
       <c r="AM22" s="41"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="40"/>
-      <c r="AK23" s="8"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="139"/>
+      <c r="R23" s="139"/>
+      <c r="S23" s="139"/>
+      <c r="T23" s="139"/>
+      <c r="U23" s="139"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="139"/>
+      <c r="X23" s="139"/>
+      <c r="Y23" s="139"/>
+      <c r="Z23" s="139"/>
+      <c r="AA23" s="139"/>
+      <c r="AB23" s="139"/>
+      <c r="AC23" s="139"/>
+      <c r="AD23" s="139"/>
+      <c r="AE23" s="139"/>
+      <c r="AF23" s="139"/>
+      <c r="AG23" s="139"/>
+      <c r="AH23" s="139"/>
+      <c r="AI23" s="139"/>
+      <c r="AJ23" s="139"/>
+      <c r="AK23" s="139"/>
+      <c r="AL23" s="139"/>
       <c r="AM23" s="41"/>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="40"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="95"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="95"/>
-      <c r="AE24" s="95"/>
-      <c r="AF24" s="95"/>
-      <c r="AG24" s="95"/>
-      <c r="AH24" s="95"/>
-      <c r="AI24" s="95"/>
-      <c r="AJ24" s="95"/>
-      <c r="AK24" s="8"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="139"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="139"/>
+      <c r="N24" s="139"/>
+      <c r="O24" s="139"/>
+      <c r="P24" s="139"/>
+      <c r="Q24" s="139"/>
+      <c r="R24" s="139"/>
+      <c r="S24" s="139"/>
+      <c r="T24" s="139"/>
+      <c r="U24" s="139"/>
+      <c r="V24" s="139"/>
+      <c r="W24" s="139"/>
+      <c r="X24" s="139"/>
+      <c r="Y24" s="139"/>
+      <c r="Z24" s="139"/>
+      <c r="AA24" s="139"/>
+      <c r="AB24" s="139"/>
+      <c r="AC24" s="139"/>
+      <c r="AD24" s="139"/>
+      <c r="AE24" s="139"/>
+      <c r="AF24" s="139"/>
+      <c r="AG24" s="139"/>
+      <c r="AH24" s="139"/>
+      <c r="AI24" s="139"/>
+      <c r="AJ24" s="139"/>
+      <c r="AK24" s="139"/>
+      <c r="AL24" s="139"/>
       <c r="AM24" s="41"/>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="40"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="95"/>
-      <c r="W25" s="95"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="95"/>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95"/>
-      <c r="AE25" s="95"/>
-      <c r="AF25" s="95"/>
-      <c r="AG25" s="95"/>
-      <c r="AH25" s="95"/>
-      <c r="AI25" s="95"/>
-      <c r="AJ25" s="95"/>
-      <c r="AK25" s="8"/>
+      <c r="D25" s="164" t="str">
+        <f aca="false">CHAR(10)&amp;IF(ISBLANK(Титульный!B8),"8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».",IFERROR(IF(OR(LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилое помещение",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилой дом",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Многоквартирный дом"),"8. ВСН 53-86(р) «Правила оценки физического износа зданий»;"&amp;CHAR(10)&amp;"9. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».","8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов»."),"8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов»."))</f>
+        <v>
+8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».</v>
+      </c>
+      <c r="E25" s="164"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="164"/>
+      <c r="M25" s="164"/>
+      <c r="N25" s="164"/>
+      <c r="O25" s="164"/>
+      <c r="P25" s="164"/>
+      <c r="Q25" s="164"/>
+      <c r="R25" s="164"/>
+      <c r="S25" s="164"/>
+      <c r="T25" s="164"/>
+      <c r="U25" s="164"/>
+      <c r="V25" s="164"/>
+      <c r="W25" s="164"/>
+      <c r="X25" s="164"/>
+      <c r="Y25" s="164"/>
+      <c r="Z25" s="164"/>
+      <c r="AA25" s="164"/>
+      <c r="AB25" s="164"/>
+      <c r="AC25" s="164"/>
+      <c r="AD25" s="164"/>
+      <c r="AE25" s="164"/>
+      <c r="AF25" s="164"/>
+      <c r="AG25" s="164"/>
+      <c r="AH25" s="164"/>
+      <c r="AI25" s="164"/>
+      <c r="AJ25" s="164"/>
+      <c r="AK25" s="164"/>
+      <c r="AL25" s="164"/>
       <c r="AM25" s="41"/>
     </row>
     <row r="26" customFormat="false" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="40"/>
-      <c r="AK26" s="8"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="164"/>
+      <c r="L26" s="164"/>
+      <c r="M26" s="164"/>
+      <c r="N26" s="164"/>
+      <c r="O26" s="164"/>
+      <c r="P26" s="164"/>
+      <c r="Q26" s="164"/>
+      <c r="R26" s="164"/>
+      <c r="S26" s="164"/>
+      <c r="T26" s="164"/>
+      <c r="U26" s="164"/>
+      <c r="V26" s="164"/>
+      <c r="W26" s="164"/>
+      <c r="X26" s="164"/>
+      <c r="Y26" s="164"/>
+      <c r="Z26" s="164"/>
+      <c r="AA26" s="164"/>
+      <c r="AB26" s="164"/>
+      <c r="AC26" s="164"/>
+      <c r="AD26" s="164"/>
+      <c r="AE26" s="164"/>
+      <c r="AF26" s="164"/>
+      <c r="AG26" s="164"/>
+      <c r="AH26" s="164"/>
+      <c r="AI26" s="164"/>
+      <c r="AJ26" s="164"/>
+      <c r="AK26" s="164"/>
+      <c r="AL26" s="164"/>
       <c r="AM26" s="41"/>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="40"/>
-      <c r="AK27" s="8"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="164"/>
+      <c r="L27" s="164"/>
+      <c r="M27" s="164"/>
+      <c r="N27" s="164"/>
+      <c r="O27" s="164"/>
+      <c r="P27" s="164"/>
+      <c r="Q27" s="164"/>
+      <c r="R27" s="164"/>
+      <c r="S27" s="164"/>
+      <c r="T27" s="164"/>
+      <c r="U27" s="164"/>
+      <c r="V27" s="164"/>
+      <c r="W27" s="164"/>
+      <c r="X27" s="164"/>
+      <c r="Y27" s="164"/>
+      <c r="Z27" s="164"/>
+      <c r="AA27" s="164"/>
+      <c r="AB27" s="164"/>
+      <c r="AC27" s="164"/>
+      <c r="AD27" s="164"/>
+      <c r="AE27" s="164"/>
+      <c r="AF27" s="164"/>
+      <c r="AG27" s="164"/>
+      <c r="AH27" s="164"/>
+      <c r="AI27" s="164"/>
+      <c r="AJ27" s="164"/>
+      <c r="AK27" s="164"/>
+      <c r="AL27" s="164"/>
       <c r="AM27" s="41"/>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="40"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="16"/>
-      <c r="AG28" s="16"/>
-      <c r="AH28" s="16"/>
-      <c r="AI28" s="16"/>
-      <c r="AJ28" s="16"/>
-      <c r="AK28" s="8"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="164"/>
+      <c r="L28" s="164"/>
+      <c r="M28" s="164"/>
+      <c r="N28" s="164"/>
+      <c r="O28" s="164"/>
+      <c r="P28" s="164"/>
+      <c r="Q28" s="164"/>
+      <c r="R28" s="164"/>
+      <c r="S28" s="164"/>
+      <c r="T28" s="164"/>
+      <c r="U28" s="164"/>
+      <c r="V28" s="164"/>
+      <c r="W28" s="164"/>
+      <c r="X28" s="164"/>
+      <c r="Y28" s="164"/>
+      <c r="Z28" s="164"/>
+      <c r="AA28" s="164"/>
+      <c r="AB28" s="164"/>
+      <c r="AC28" s="164"/>
+      <c r="AD28" s="164"/>
+      <c r="AE28" s="164"/>
+      <c r="AF28" s="164"/>
+      <c r="AG28" s="164"/>
+      <c r="AH28" s="164"/>
+      <c r="AI28" s="164"/>
+      <c r="AJ28" s="164"/>
+      <c r="AK28" s="164"/>
+      <c r="AL28" s="164"/>
       <c r="AM28" s="41"/>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13250,148 +15098,287 @@
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="40"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="16"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="16"/>
-      <c r="AG29" s="16"/>
-      <c r="AH29" s="16"/>
-      <c r="AI29" s="16"/>
-      <c r="AJ29" s="16"/>
-      <c r="AK29" s="8"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="164"/>
+      <c r="L29" s="164"/>
+      <c r="M29" s="164"/>
+      <c r="N29" s="164"/>
+      <c r="O29" s="164"/>
+      <c r="P29" s="164"/>
+      <c r="Q29" s="164"/>
+      <c r="R29" s="164"/>
+      <c r="S29" s="164"/>
+      <c r="T29" s="164"/>
+      <c r="U29" s="164"/>
+      <c r="V29" s="164"/>
+      <c r="W29" s="164"/>
+      <c r="X29" s="164"/>
+      <c r="Y29" s="164"/>
+      <c r="Z29" s="164"/>
+      <c r="AA29" s="164"/>
+      <c r="AB29" s="164"/>
+      <c r="AC29" s="164"/>
+      <c r="AD29" s="164"/>
+      <c r="AE29" s="164"/>
+      <c r="AF29" s="164"/>
+      <c r="AG29" s="164"/>
+      <c r="AH29" s="164"/>
+      <c r="AI29" s="164"/>
+      <c r="AJ29" s="164"/>
+      <c r="AK29" s="164"/>
+      <c r="AL29" s="164"/>
       <c r="AM29" s="41"/>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
       <c r="C30" s="40"/>
-      <c r="AK30" s="8"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="164"/>
+      <c r="K30" s="164"/>
+      <c r="L30" s="164"/>
+      <c r="M30" s="164"/>
+      <c r="N30" s="164"/>
+      <c r="O30" s="164"/>
+      <c r="P30" s="164"/>
+      <c r="Q30" s="164"/>
+      <c r="R30" s="164"/>
+      <c r="S30" s="164"/>
+      <c r="T30" s="164"/>
+      <c r="U30" s="164"/>
+      <c r="V30" s="164"/>
+      <c r="W30" s="164"/>
+      <c r="X30" s="164"/>
+      <c r="Y30" s="164"/>
+      <c r="Z30" s="164"/>
+      <c r="AA30" s="164"/>
+      <c r="AB30" s="164"/>
+      <c r="AC30" s="164"/>
+      <c r="AD30" s="164"/>
+      <c r="AE30" s="164"/>
+      <c r="AF30" s="164"/>
+      <c r="AG30" s="164"/>
+      <c r="AH30" s="164"/>
+      <c r="AI30" s="164"/>
+      <c r="AJ30" s="164"/>
+      <c r="AK30" s="164"/>
+      <c r="AL30" s="164"/>
       <c r="AM30" s="41"/>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
       <c r="C31" s="40"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="95"/>
-      <c r="AF31" s="95"/>
-      <c r="AG31" s="95"/>
-      <c r="AH31" s="95"/>
-      <c r="AI31" s="95"/>
-      <c r="AJ31" s="95"/>
-      <c r="AK31" s="8"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="164"/>
+      <c r="L31" s="164"/>
+      <c r="M31" s="164"/>
+      <c r="N31" s="164"/>
+      <c r="O31" s="164"/>
+      <c r="P31" s="164"/>
+      <c r="Q31" s="164"/>
+      <c r="R31" s="164"/>
+      <c r="S31" s="164"/>
+      <c r="T31" s="164"/>
+      <c r="U31" s="164"/>
+      <c r="V31" s="164"/>
+      <c r="W31" s="164"/>
+      <c r="X31" s="164"/>
+      <c r="Y31" s="164"/>
+      <c r="Z31" s="164"/>
+      <c r="AA31" s="164"/>
+      <c r="AB31" s="164"/>
+      <c r="AC31" s="164"/>
+      <c r="AD31" s="164"/>
+      <c r="AE31" s="164"/>
+      <c r="AF31" s="164"/>
+      <c r="AG31" s="164"/>
+      <c r="AH31" s="164"/>
+      <c r="AI31" s="164"/>
+      <c r="AJ31" s="164"/>
+      <c r="AK31" s="164"/>
+      <c r="AL31" s="164"/>
       <c r="AM31" s="41"/>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
       <c r="C32" s="40"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="95"/>
-      <c r="AA32" s="95"/>
-      <c r="AB32" s="95"/>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="95"/>
-      <c r="AE32" s="95"/>
-      <c r="AF32" s="95"/>
-      <c r="AG32" s="95"/>
-      <c r="AH32" s="95"/>
-      <c r="AI32" s="95"/>
-      <c r="AJ32" s="95"/>
-      <c r="AK32" s="8"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="164"/>
+      <c r="L32" s="164"/>
+      <c r="M32" s="164"/>
+      <c r="N32" s="164"/>
+      <c r="O32" s="164"/>
+      <c r="P32" s="164"/>
+      <c r="Q32" s="164"/>
+      <c r="R32" s="164"/>
+      <c r="S32" s="164"/>
+      <c r="T32" s="164"/>
+      <c r="U32" s="164"/>
+      <c r="V32" s="164"/>
+      <c r="W32" s="164"/>
+      <c r="X32" s="164"/>
+      <c r="Y32" s="164"/>
+      <c r="Z32" s="164"/>
+      <c r="AA32" s="164"/>
+      <c r="AB32" s="164"/>
+      <c r="AC32" s="164"/>
+      <c r="AD32" s="164"/>
+      <c r="AE32" s="164"/>
+      <c r="AF32" s="164"/>
+      <c r="AG32" s="164"/>
+      <c r="AH32" s="164"/>
+      <c r="AI32" s="164"/>
+      <c r="AJ32" s="164"/>
+      <c r="AK32" s="164"/>
+      <c r="AL32" s="164"/>
       <c r="AM32" s="41"/>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
       <c r="C33" s="40"/>
-      <c r="AK33" s="8"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="164"/>
+      <c r="L33" s="164"/>
+      <c r="M33" s="164"/>
+      <c r="N33" s="164"/>
+      <c r="O33" s="164"/>
+      <c r="P33" s="164"/>
+      <c r="Q33" s="164"/>
+      <c r="R33" s="164"/>
+      <c r="S33" s="164"/>
+      <c r="T33" s="164"/>
+      <c r="U33" s="164"/>
+      <c r="V33" s="164"/>
+      <c r="W33" s="164"/>
+      <c r="X33" s="164"/>
+      <c r="Y33" s="164"/>
+      <c r="Z33" s="164"/>
+      <c r="AA33" s="164"/>
+      <c r="AB33" s="164"/>
+      <c r="AC33" s="164"/>
+      <c r="AD33" s="164"/>
+      <c r="AE33" s="164"/>
+      <c r="AF33" s="164"/>
+      <c r="AG33" s="164"/>
+      <c r="AH33" s="164"/>
+      <c r="AI33" s="164"/>
+      <c r="AJ33" s="164"/>
+      <c r="AK33" s="164"/>
+      <c r="AL33" s="164"/>
       <c r="AM33" s="41"/>
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
       <c r="C34" s="40"/>
-      <c r="AK34" s="8"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="164"/>
+      <c r="F34" s="164"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="164"/>
+      <c r="K34" s="164"/>
+      <c r="L34" s="164"/>
+      <c r="M34" s="164"/>
+      <c r="N34" s="164"/>
+      <c r="O34" s="164"/>
+      <c r="P34" s="164"/>
+      <c r="Q34" s="164"/>
+      <c r="R34" s="164"/>
+      <c r="S34" s="164"/>
+      <c r="T34" s="164"/>
+      <c r="U34" s="164"/>
+      <c r="V34" s="164"/>
+      <c r="W34" s="164"/>
+      <c r="X34" s="164"/>
+      <c r="Y34" s="164"/>
+      <c r="Z34" s="164"/>
+      <c r="AA34" s="164"/>
+      <c r="AB34" s="164"/>
+      <c r="AC34" s="164"/>
+      <c r="AD34" s="164"/>
+      <c r="AE34" s="164"/>
+      <c r="AF34" s="164"/>
+      <c r="AG34" s="164"/>
+      <c r="AH34" s="164"/>
+      <c r="AI34" s="164"/>
+      <c r="AJ34" s="164"/>
+      <c r="AK34" s="164"/>
+      <c r="AL34" s="164"/>
       <c r="AM34" s="41"/>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="49"/>
       <c r="B35" s="50"/>
       <c r="C35" s="40"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
       <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
       <c r="AM35" s="41"/>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13400,35 +15387,205 @@
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="40"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
       <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
       <c r="AM36" s="41"/>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
       <c r="C37" s="40"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
       <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
       <c r="AM37" s="41"/>
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
       <c r="C38" s="40"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
       <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
       <c r="AM38" s="41"/>
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
       <c r="C39" s="40"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
       <c r="AK39" s="8"/>
+      <c r="AL39" s="8"/>
       <c r="AM39" s="41"/>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
       <c r="B40" s="50"/>
       <c r="C40" s="40"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
       <c r="AK40" s="8"/>
+      <c r="AL40" s="8"/>
       <c r="AM40" s="41"/>
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13437,35 +15594,205 @@
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="40"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
       <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
       <c r="AM41" s="41"/>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49"/>
       <c r="B42" s="50"/>
       <c r="C42" s="40"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
       <c r="AK42" s="8"/>
+      <c r="AL42" s="8"/>
       <c r="AM42" s="41"/>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="49"/>
       <c r="B43" s="50"/>
       <c r="C43" s="40"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
       <c r="AK43" s="8"/>
+      <c r="AL43" s="8"/>
       <c r="AM43" s="41"/>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="49"/>
       <c r="B44" s="50"/>
       <c r="C44" s="40"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="8"/>
+      <c r="AH44" s="8"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="8"/>
       <c r="AK44" s="8"/>
+      <c r="AL44" s="8"/>
       <c r="AM44" s="41"/>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="49"/>
       <c r="B45" s="50"/>
       <c r="C45" s="51"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
       <c r="AK45" s="8"/>
+      <c r="AL45" s="8"/>
       <c r="AM45" s="52"/>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13474,188 +15801,287 @@
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="51"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
       <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
       <c r="AM46" s="52"/>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="49"/>
       <c r="B47" s="50"/>
       <c r="C47" s="40"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="28"/>
-      <c r="AC47" s="28"/>
-      <c r="AD47" s="28"/>
-      <c r="AE47" s="28"/>
-      <c r="AF47" s="28"/>
-      <c r="AG47" s="28"/>
-      <c r="AH47" s="28"/>
-      <c r="AI47" s="28"/>
-      <c r="AJ47" s="28"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="8"/>
       <c r="AK47" s="8"/>
+      <c r="AL47" s="8"/>
       <c r="AM47" s="52"/>
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="49"/>
       <c r="B48" s="50"/>
       <c r="C48" s="40"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="28"/>
-      <c r="AA48" s="28"/>
-      <c r="AB48" s="28"/>
-      <c r="AC48" s="28"/>
-      <c r="AD48" s="28"/>
-      <c r="AE48" s="28"/>
-      <c r="AF48" s="28"/>
-      <c r="AG48" s="28"/>
-      <c r="AH48" s="28"/>
-      <c r="AI48" s="28"/>
-      <c r="AJ48" s="28"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="8"/>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="8"/>
       <c r="AK48" s="8"/>
+      <c r="AL48" s="8"/>
       <c r="AM48" s="41"/>
     </row>
     <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="49"/>
       <c r="B49" s="50"/>
       <c r="C49" s="40"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="8"/>
       <c r="AK49" s="8"/>
+      <c r="AL49" s="8"/>
       <c r="AM49" s="41"/>
     </row>
     <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="49"/>
       <c r="B50" s="50"/>
       <c r="C50" s="40"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="29"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="29"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="29"/>
-      <c r="AA50" s="29"/>
-      <c r="AB50" s="29"/>
-      <c r="AC50" s="29"/>
-      <c r="AD50" s="29"/>
-      <c r="AE50" s="29"/>
-      <c r="AF50" s="29"/>
-      <c r="AG50" s="29"/>
-      <c r="AH50" s="29"/>
-      <c r="AI50" s="29"/>
-      <c r="AJ50" s="29"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
       <c r="AK50" s="8"/>
+      <c r="AL50" s="8"/>
       <c r="AM50" s="53"/>
     </row>
     <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="49"/>
       <c r="B51" s="50"/>
       <c r="C51" s="54"/>
-      <c r="D51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="29"/>
-      <c r="AB51" s="29"/>
-      <c r="AC51" s="29"/>
-      <c r="AD51" s="29"/>
-      <c r="AE51" s="29"/>
-      <c r="AF51" s="29"/>
-      <c r="AG51" s="29"/>
-      <c r="AH51" s="29"/>
-      <c r="AI51" s="29"/>
-      <c r="AJ51" s="29"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8"/>
       <c r="AK51" s="8"/>
+      <c r="AL51" s="8"/>
       <c r="AM51" s="53"/>
     </row>
     <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="49"/>
       <c r="B52" s="50"/>
       <c r="C52" s="40"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="29"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="29"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="29"/>
-      <c r="Z52" s="29"/>
-      <c r="AA52" s="29"/>
-      <c r="AB52" s="29"/>
-      <c r="AC52" s="29"/>
-      <c r="AD52" s="29"/>
-      <c r="AE52" s="29"/>
-      <c r="AF52" s="29"/>
-      <c r="AG52" s="29"/>
-      <c r="AH52" s="29"/>
-      <c r="AI52" s="29"/>
-      <c r="AJ52" s="29"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8"/>
       <c r="AK52" s="8"/>
+      <c r="AL52" s="8"/>
       <c r="AM52" s="53"/>
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13885,8 +16311,10 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="34">
     <mergeCell ref="D2:AL3"/>
+    <mergeCell ref="D5:AL24"/>
+    <mergeCell ref="D25:AL34"/>
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="B29:B35"/>
     <mergeCell ref="A36:A40"/>
@@ -13929,15 +16357,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AR17" activeCellId="0" sqref="AR17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y8" activeCellId="0" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14030,7 +16458,7 @@
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="51"/>
       <c r="D2" s="66" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
@@ -14147,9 +16575,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="40"/>
-      <c r="D5" s="139" t="s">
-        <v>167</v>
-      </c>
+      <c r="D5" s="139"/>
       <c r="E5" s="139"/>
       <c r="F5" s="139"/>
       <c r="G5" s="139"/>
@@ -14930,11 +17356,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="40"/>
-      <c r="D25" s="164" t="str">
-        <f aca="false">CHAR(10)&amp;IF(ISBLANK(Титульный!B8),"8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».",IFERROR(IF(OR(LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилое помещение",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилой дом",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Многоквартирный дом"),"8. ВСН 53-86(р) «Правила оценки физического износа зданий»;"&amp;CHAR(10)&amp;"9. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».","8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов»."),"8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов»."))</f>
-        <v>
-8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».</v>
-      </c>
+      <c r="D25" s="164"/>
       <c r="E25" s="164"/>
       <c r="F25" s="164"/>
       <c r="G25" s="164"/>
@@ -16307,10 +18729,8 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="32">
     <mergeCell ref="D2:AL3"/>
-    <mergeCell ref="D5:AL24"/>
-    <mergeCell ref="D25:AL34"/>
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="B29:B35"/>
     <mergeCell ref="A36:A40"/>
@@ -16353,14 +18773,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AK56" activeCellId="0" sqref="AK56"/>
     </sheetView>
   </sheetViews>

--- a/backend/static/report.xlsx
+++ b/backend/static/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -181,7 +181,7 @@
     <t xml:space="preserve">4. Статус объекта (памятник архитектуры, исторический памятник и т.д.) </t>
   </si>
   <si>
-    <t xml:space="preserve">{Статус объекта} || Не устанавливается</t>
+    <t xml:space="preserve">{Статус объекта} || Не устанавливался</t>
   </si>
   <si>
     <t xml:space="preserve">5. Тип проекта объекта</t>
@@ -1648,9 +1648,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>114840</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1664,7 +1664,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="281160" y="66240"/>
-          <a:ext cx="1347840" cy="568440"/>
+          <a:ext cx="1347480" cy="568080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1691,9 +1691,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>164520</xdr:colOff>
+      <xdr:colOff>164160</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1707,7 +1707,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="510120" y="81360"/>
-          <a:ext cx="1347840" cy="568440"/>
+          <a:ext cx="1347480" cy="568080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1734,9 +1734,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>114840</xdr:colOff>
+      <xdr:colOff>114480</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>135360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1750,7 +1750,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5803920" y="10002240"/>
-          <a:ext cx="676800" cy="284040"/>
+          <a:ext cx="676440" cy="283680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12354,7 +12354,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -26156,8 +26156,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AV7" activeCellId="0" sqref="AV7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U16" activeCellId="0" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/static/report.xlsx
+++ b/backend/static/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -1057,7 +1057,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1648,9 +1648,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>114840</xdr:colOff>
+      <xdr:colOff>114480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1664,7 +1664,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="281160" y="66240"/>
-          <a:ext cx="1347480" cy="568080"/>
+          <a:ext cx="1347120" cy="567720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1691,9 +1691,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>164160</xdr:colOff>
+      <xdr:colOff>163800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1707,7 +1707,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="510120" y="81360"/>
-          <a:ext cx="1347480" cy="568080"/>
+          <a:ext cx="1347120" cy="567720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1734,9 +1734,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>114480</xdr:colOff>
+      <xdr:colOff>114120</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1750,7 +1750,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5803920" y="10002240"/>
-          <a:ext cx="676440" cy="283680"/>
+          <a:ext cx="676080" cy="283320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1880,7 +1880,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AP41" activeCellId="0" sqref="AP41"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8165,8 +8165,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BG36" activeCellId="0" sqref="BG36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13940,7 +13940,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="IL1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -16365,7 +16365,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y8" activeCellId="0" sqref="Y8"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20362,8 +20362,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R6" activeCellId="0" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26156,7 +26156,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U16" activeCellId="0" sqref="U16"/>
     </sheetView>
   </sheetViews>
@@ -31078,7 +31078,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56"/>
     </sheetView>
   </sheetViews>

--- a/backend/static/report.xlsx
+++ b/backend/static/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -263,7 +263,7 @@
     <t xml:space="preserve">1. Введение</t>
   </si>
   <si>
-    <t xml:space="preserve">Работы по обследованию и оценке технического состояния строительных конструкции {Тип Помещения.Родительный}, расположенного по адресу: {Адрес}, выполнены на основании {Договор/Муниципальный контракт.родительный} {№ Договора / Муниципального контракта}.
+    <t xml:space="preserve">Работы по обследованию и оценке технического состояния строительных конструкции {Тип Помещения.Родительный}, расположенного по адресу: {Адрес}, выполнены на основании {Договор/Муниципальный контракт.родительный} {№ Договора / Муниципального контракта} от {Дата договора}.
 Работы выполнены в соответствии с ГОСТ 31937-2011 «Здания и сооружения. Правила обследования и мониторинга технического состояния», СП 454.1325800.2019 «Здания жилые многоквартирные. Правила оценки аварийного и ограниченно-работоспособного технического состояния», действующими строительными нормами и правилами, с использованием приборов и оборудования, отвечающих требованиям действующих государственных стандартов. Сведения о приборах и оборудовании, применяемом в процессе обследования строительных конструкций дома, см. Таблица 1.
 Цель проведения обследования - определение фактического технического состояния элементов ограждающих и несущих конструкции {Тип помещения.Родительный}, расположенного по адресу: {Адрес}, с выявлением возможности дальнейшей безопасной эксплуатации</t>
   </si>
@@ -372,7 +372,7 @@
     <t xml:space="preserve">Климатический район площадки в соответствии с СП 131.13330.2020 «Строительная климатология. Актуализированная редакция СНиП 23-01-99*»</t>
   </si>
   <si>
-    <t xml:space="preserve">{Климатический район}</t>
+    <t xml:space="preserve">{Климатическая зона}{Климатический район}</t>
   </si>
   <si>
     <t xml:space="preserve">Зона влажности площадки в соответствии с Приложением В СП 50.13330.2012</t>
@@ -1637,9 +1637,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>114120</xdr:colOff>
+      <xdr:colOff>113760</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1653,7 +1653,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="281160" y="66240"/>
-          <a:ext cx="1346760" cy="567360"/>
+          <a:ext cx="1346400" cy="567000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1680,9 +1680,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>163440</xdr:colOff>
+      <xdr:colOff>163080</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>109440</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1696,7 +1696,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="510120" y="81360"/>
-          <a:ext cx="1346760" cy="567360"/>
+          <a:ext cx="1346400" cy="567000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1723,9 +1723,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>113760</xdr:colOff>
+      <xdr:colOff>113400</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>134640</xdr:rowOff>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1739,7 +1739,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5803920" y="10002240"/>
-          <a:ext cx="675720" cy="282960"/>
+          <a:ext cx="675360" cy="282600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -28596,8 +28596,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33487,8 +33487,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AP14" activeCellId="0" sqref="AP14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35977,8 +35977,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/static/report.xlsx
+++ b/backend/static/report.xlsx
@@ -21334,7 +21334,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="AF15" activeCellId="0" sqref="AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/static/report.xlsx
+++ b/backend/static/report.xlsx
@@ -1786,9 +1786,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>113040</xdr:colOff>
+      <xdr:colOff>112680</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1802,7 +1802,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="281160" y="66240"/>
-          <a:ext cx="1345680" cy="566280"/>
+          <a:ext cx="1345320" cy="565920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1829,9 +1829,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>162360</xdr:colOff>
+      <xdr:colOff>162000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1845,7 +1845,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="510120" y="81360"/>
-          <a:ext cx="1345680" cy="566280"/>
+          <a:ext cx="1345320" cy="565920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1872,9 +1872,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>112680</xdr:colOff>
+      <xdr:colOff>112320</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1888,7 +1888,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5803920" y="10002240"/>
-          <a:ext cx="674640" cy="281880"/>
+          <a:ext cx="674280" cy="281520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21334,7 +21334,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF15" activeCellId="0" sqref="AF15"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/static/report.xlsx
+++ b/backend/static/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -1786,9 +1786,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>112680</xdr:colOff>
+      <xdr:colOff>112320</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1802,7 +1802,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="281160" y="66240"/>
-          <a:ext cx="1345320" cy="565920"/>
+          <a:ext cx="1344960" cy="565560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1829,9 +1829,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>162000</xdr:colOff>
+      <xdr:colOff>161640</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1845,7 +1845,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="510120" y="81360"/>
-          <a:ext cx="1345320" cy="565920"/>
+          <a:ext cx="1344960" cy="565560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1872,9 +1872,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>112320</xdr:colOff>
+      <xdr:colOff>111960</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1888,7 +1888,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5803920" y="10002240"/>
-          <a:ext cx="674280" cy="281520"/>
+          <a:ext cx="673920" cy="281160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21333,7 +21333,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -23751,8 +23751,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA23" activeCellId="0" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24716,10 +24716,7 @@
       <c r="AC22" s="130"/>
       <c r="AD22" s="130"/>
       <c r="AE22" s="130"/>
-      <c r="AF22" s="130" t="n">
-        <f aca="false">AA22*R22/100</f>
-        <v>0</v>
-      </c>
+      <c r="AF22" s="130"/>
       <c r="AG22" s="130"/>
       <c r="AH22" s="130"/>
       <c r="AI22" s="130"/>
@@ -26213,7 +26210,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="93">
+  <mergeCells count="92">
     <mergeCell ref="D2:AL3"/>
     <mergeCell ref="C5:D8"/>
     <mergeCell ref="E5:Q8"/>
@@ -26256,7 +26253,6 @@
     <mergeCell ref="R21:Z22"/>
     <mergeCell ref="AA21:AE22"/>
     <mergeCell ref="AF21:AM22"/>
-    <mergeCell ref="AF22:AM23"/>
     <mergeCell ref="C23:D25"/>
     <mergeCell ref="E23:Q25"/>
     <mergeCell ref="R23:Z25"/>

--- a/backend/static/report.xlsx
+++ b/backend/static/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="19"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -663,7 +663,7 @@
     <t xml:space="preserve">Крыша и кровля</t>
   </si>
   <si>
-    <t xml:space="preserve">Внутренние саниторно-технические и электрические устройства</t>
+    <t xml:space="preserve">Внутренние саниторно‑технические и электрические устройства</t>
   </si>
   <si>
     <t xml:space="preserve">Отделочные работы</t>
@@ -946,7 +946,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="191">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1596,10 +1596,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1798,9 +1794,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>111600</xdr:colOff>
+      <xdr:colOff>111240</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1814,7 +1810,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="281160" y="66240"/>
-          <a:ext cx="1344240" cy="564840"/>
+          <a:ext cx="1343880" cy="564480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1841,9 +1837,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>160920</xdr:colOff>
+      <xdr:colOff>160560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1857,7 +1853,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="510120" y="81360"/>
-          <a:ext cx="1344240" cy="564840"/>
+          <a:ext cx="1343880" cy="564480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1884,9 +1880,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>111240</xdr:colOff>
+      <xdr:colOff>110880</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1900,7 +1896,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5803920" y="10002240"/>
-          <a:ext cx="673200" cy="280440"/>
+          <a:ext cx="672840" cy="280080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2030,7 +2026,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="1" sqref="C1:AM54 B31"/>
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3680,7 +3676,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:AM54"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6085,8 +6081,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG46" activeCellId="0" sqref="C1:AM54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG46" activeCellId="0" sqref="AG46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8316,7 +8312,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BG36" activeCellId="1" sqref="C1:AM54 BG36"/>
+      <selection pane="topLeft" activeCell="BG36" activeCellId="0" sqref="BG36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10731,7 +10727,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="C1:AM54"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12505,7 +12501,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:AM54"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14091,7 +14087,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:AM54"/>
+      <selection pane="topLeft" activeCell="AM21" activeCellId="0" sqref="AM21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15006,7 +15002,11 @@
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="40"/>
-      <c r="D23" s="162"/>
+      <c r="D23" s="162" t="str">
+        <f aca="false">CHAR(10)&amp;IF(ISBLANK(Титульный!B8),"8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».",IFERROR(IF(OR(LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилое помещение",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилой дом",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Многоквартирный дом"),"8. ВСН 53-86(р) «Правила оценки физического износа зданий»;"&amp;CHAR(10)&amp;"9. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».","8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов»."),"8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов»."))</f>
+        <v>
+8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».</v>
+      </c>
       <c r="E23" s="162"/>
       <c r="F23" s="162"/>
       <c r="G23" s="162"/>
@@ -15084,162 +15084,158 @@
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="40"/>
-      <c r="D25" s="163" t="str">
-        <f aca="false">CHAR(10)&amp;IF(ISBLANK(Титульный!B8),"8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».",IFERROR(IF(OR(LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилое помещение",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Жилой дом",LEFTB(Титульный!B8,FIND(",",Титульный!B8)-1)="Многоквартирный дом"),"8. ВСН 53-86(р) «Правила оценки физического износа зданий»;"&amp;CHAR(10)&amp;"9. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».","8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов»."),"8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов»."))</f>
-        <v>
-8. Сборник № 28 «Укрупненные показатели восстановительной стоимости жилых, общественных зданий и зданий коммунально-бытового назначения для переоценки основных фондов».</v>
-      </c>
-      <c r="E25" s="163"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="163"/>
-      <c r="K25" s="163"/>
-      <c r="L25" s="163"/>
-      <c r="M25" s="163"/>
-      <c r="N25" s="163"/>
-      <c r="O25" s="163"/>
-      <c r="P25" s="163"/>
-      <c r="Q25" s="163"/>
-      <c r="R25" s="163"/>
-      <c r="S25" s="163"/>
-      <c r="T25" s="163"/>
-      <c r="U25" s="163"/>
-      <c r="V25" s="163"/>
-      <c r="W25" s="163"/>
-      <c r="X25" s="163"/>
-      <c r="Y25" s="163"/>
-      <c r="Z25" s="163"/>
-      <c r="AA25" s="163"/>
-      <c r="AB25" s="163"/>
-      <c r="AC25" s="163"/>
-      <c r="AD25" s="163"/>
-      <c r="AE25" s="163"/>
-      <c r="AF25" s="163"/>
-      <c r="AG25" s="163"/>
-      <c r="AH25" s="163"/>
-      <c r="AI25" s="163"/>
-      <c r="AJ25" s="163"/>
-      <c r="AK25" s="163"/>
-      <c r="AL25" s="163"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="162"/>
+      <c r="J25" s="162"/>
+      <c r="K25" s="162"/>
+      <c r="L25" s="162"/>
+      <c r="M25" s="162"/>
+      <c r="N25" s="162"/>
+      <c r="O25" s="162"/>
+      <c r="P25" s="162"/>
+      <c r="Q25" s="162"/>
+      <c r="R25" s="162"/>
+      <c r="S25" s="162"/>
+      <c r="T25" s="162"/>
+      <c r="U25" s="162"/>
+      <c r="V25" s="162"/>
+      <c r="W25" s="162"/>
+      <c r="X25" s="162"/>
+      <c r="Y25" s="162"/>
+      <c r="Z25" s="162"/>
+      <c r="AA25" s="162"/>
+      <c r="AB25" s="162"/>
+      <c r="AC25" s="162"/>
+      <c r="AD25" s="162"/>
+      <c r="AE25" s="162"/>
+      <c r="AF25" s="162"/>
+      <c r="AG25" s="162"/>
+      <c r="AH25" s="162"/>
+      <c r="AI25" s="162"/>
+      <c r="AJ25" s="162"/>
+      <c r="AK25" s="162"/>
+      <c r="AL25" s="162"/>
       <c r="AM25" s="41"/>
     </row>
     <row r="26" customFormat="false" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="40"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="163"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="163"/>
-      <c r="M26" s="163"/>
-      <c r="N26" s="163"/>
-      <c r="O26" s="163"/>
-      <c r="P26" s="163"/>
-      <c r="Q26" s="163"/>
-      <c r="R26" s="163"/>
-      <c r="S26" s="163"/>
-      <c r="T26" s="163"/>
-      <c r="U26" s="163"/>
-      <c r="V26" s="163"/>
-      <c r="W26" s="163"/>
-      <c r="X26" s="163"/>
-      <c r="Y26" s="163"/>
-      <c r="Z26" s="163"/>
-      <c r="AA26" s="163"/>
-      <c r="AB26" s="163"/>
-      <c r="AC26" s="163"/>
-      <c r="AD26" s="163"/>
-      <c r="AE26" s="163"/>
-      <c r="AF26" s="163"/>
-      <c r="AG26" s="163"/>
-      <c r="AH26" s="163"/>
-      <c r="AI26" s="163"/>
-      <c r="AJ26" s="163"/>
-      <c r="AK26" s="163"/>
-      <c r="AL26" s="163"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="162"/>
+      <c r="J26" s="162"/>
+      <c r="K26" s="162"/>
+      <c r="L26" s="162"/>
+      <c r="M26" s="162"/>
+      <c r="N26" s="162"/>
+      <c r="O26" s="162"/>
+      <c r="P26" s="162"/>
+      <c r="Q26" s="162"/>
+      <c r="R26" s="162"/>
+      <c r="S26" s="162"/>
+      <c r="T26" s="162"/>
+      <c r="U26" s="162"/>
+      <c r="V26" s="162"/>
+      <c r="W26" s="162"/>
+      <c r="X26" s="162"/>
+      <c r="Y26" s="162"/>
+      <c r="Z26" s="162"/>
+      <c r="AA26" s="162"/>
+      <c r="AB26" s="162"/>
+      <c r="AC26" s="162"/>
+      <c r="AD26" s="162"/>
+      <c r="AE26" s="162"/>
+      <c r="AF26" s="162"/>
+      <c r="AG26" s="162"/>
+      <c r="AH26" s="162"/>
+      <c r="AI26" s="162"/>
+      <c r="AJ26" s="162"/>
+      <c r="AK26" s="162"/>
+      <c r="AL26" s="162"/>
       <c r="AM26" s="41"/>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="40"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="163"/>
-      <c r="K27" s="163"/>
-      <c r="L27" s="163"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="163"/>
-      <c r="O27" s="163"/>
-      <c r="P27" s="163"/>
-      <c r="Q27" s="163"/>
-      <c r="R27" s="163"/>
-      <c r="S27" s="163"/>
-      <c r="T27" s="163"/>
-      <c r="U27" s="163"/>
-      <c r="V27" s="163"/>
-      <c r="W27" s="163"/>
-      <c r="X27" s="163"/>
-      <c r="Y27" s="163"/>
-      <c r="Z27" s="163"/>
-      <c r="AA27" s="163"/>
-      <c r="AB27" s="163"/>
-      <c r="AC27" s="163"/>
-      <c r="AD27" s="163"/>
-      <c r="AE27" s="163"/>
-      <c r="AF27" s="163"/>
-      <c r="AG27" s="163"/>
-      <c r="AH27" s="163"/>
-      <c r="AI27" s="163"/>
-      <c r="AJ27" s="163"/>
-      <c r="AK27" s="163"/>
-      <c r="AL27" s="163"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="162"/>
+      <c r="K27" s="162"/>
+      <c r="L27" s="162"/>
+      <c r="M27" s="162"/>
+      <c r="N27" s="162"/>
+      <c r="O27" s="162"/>
+      <c r="P27" s="162"/>
+      <c r="Q27" s="162"/>
+      <c r="R27" s="162"/>
+      <c r="S27" s="162"/>
+      <c r="T27" s="162"/>
+      <c r="U27" s="162"/>
+      <c r="V27" s="162"/>
+      <c r="W27" s="162"/>
+      <c r="X27" s="162"/>
+      <c r="Y27" s="162"/>
+      <c r="Z27" s="162"/>
+      <c r="AA27" s="162"/>
+      <c r="AB27" s="162"/>
+      <c r="AC27" s="162"/>
+      <c r="AD27" s="162"/>
+      <c r="AE27" s="162"/>
+      <c r="AF27" s="162"/>
+      <c r="AG27" s="162"/>
+      <c r="AH27" s="162"/>
+      <c r="AI27" s="162"/>
+      <c r="AJ27" s="162"/>
+      <c r="AK27" s="162"/>
+      <c r="AL27" s="162"/>
       <c r="AM27" s="41"/>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="40"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="163"/>
-      <c r="L28" s="163"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="163"/>
-      <c r="O28" s="163"/>
-      <c r="P28" s="163"/>
-      <c r="Q28" s="163"/>
-      <c r="R28" s="163"/>
-      <c r="S28" s="163"/>
-      <c r="T28" s="163"/>
-      <c r="U28" s="163"/>
-      <c r="V28" s="163"/>
-      <c r="W28" s="163"/>
-      <c r="X28" s="163"/>
-      <c r="Y28" s="163"/>
-      <c r="Z28" s="163"/>
-      <c r="AA28" s="163"/>
-      <c r="AB28" s="163"/>
-      <c r="AC28" s="163"/>
-      <c r="AD28" s="163"/>
-      <c r="AE28" s="163"/>
-      <c r="AF28" s="163"/>
-      <c r="AG28" s="163"/>
-      <c r="AH28" s="163"/>
-      <c r="AI28" s="163"/>
-      <c r="AJ28" s="163"/>
-      <c r="AK28" s="163"/>
-      <c r="AL28" s="163"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="162"/>
+      <c r="K28" s="162"/>
+      <c r="L28" s="162"/>
+      <c r="M28" s="162"/>
+      <c r="N28" s="162"/>
+      <c r="O28" s="162"/>
+      <c r="P28" s="162"/>
+      <c r="Q28" s="162"/>
+      <c r="R28" s="162"/>
+      <c r="S28" s="162"/>
+      <c r="T28" s="162"/>
+      <c r="U28" s="162"/>
+      <c r="V28" s="162"/>
+      <c r="W28" s="162"/>
+      <c r="X28" s="162"/>
+      <c r="Y28" s="162"/>
+      <c r="Z28" s="162"/>
+      <c r="AA28" s="162"/>
+      <c r="AB28" s="162"/>
+      <c r="AC28" s="162"/>
+      <c r="AD28" s="162"/>
+      <c r="AE28" s="162"/>
+      <c r="AF28" s="162"/>
+      <c r="AG28" s="162"/>
+      <c r="AH28" s="162"/>
+      <c r="AI28" s="162"/>
+      <c r="AJ28" s="162"/>
+      <c r="AK28" s="162"/>
+      <c r="AL28" s="162"/>
       <c r="AM28" s="41"/>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15248,246 +15244,246 @@
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="40"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="163"/>
-      <c r="J29" s="163"/>
-      <c r="K29" s="163"/>
-      <c r="L29" s="163"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="163"/>
-      <c r="O29" s="163"/>
-      <c r="P29" s="163"/>
-      <c r="Q29" s="163"/>
-      <c r="R29" s="163"/>
-      <c r="S29" s="163"/>
-      <c r="T29" s="163"/>
-      <c r="U29" s="163"/>
-      <c r="V29" s="163"/>
-      <c r="W29" s="163"/>
-      <c r="X29" s="163"/>
-      <c r="Y29" s="163"/>
-      <c r="Z29" s="163"/>
-      <c r="AA29" s="163"/>
-      <c r="AB29" s="163"/>
-      <c r="AC29" s="163"/>
-      <c r="AD29" s="163"/>
-      <c r="AE29" s="163"/>
-      <c r="AF29" s="163"/>
-      <c r="AG29" s="163"/>
-      <c r="AH29" s="163"/>
-      <c r="AI29" s="163"/>
-      <c r="AJ29" s="163"/>
-      <c r="AK29" s="163"/>
-      <c r="AL29" s="163"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="162"/>
+      <c r="K29" s="162"/>
+      <c r="L29" s="162"/>
+      <c r="M29" s="162"/>
+      <c r="N29" s="162"/>
+      <c r="O29" s="162"/>
+      <c r="P29" s="162"/>
+      <c r="Q29" s="162"/>
+      <c r="R29" s="162"/>
+      <c r="S29" s="162"/>
+      <c r="T29" s="162"/>
+      <c r="U29" s="162"/>
+      <c r="V29" s="162"/>
+      <c r="W29" s="162"/>
+      <c r="X29" s="162"/>
+      <c r="Y29" s="162"/>
+      <c r="Z29" s="162"/>
+      <c r="AA29" s="162"/>
+      <c r="AB29" s="162"/>
+      <c r="AC29" s="162"/>
+      <c r="AD29" s="162"/>
+      <c r="AE29" s="162"/>
+      <c r="AF29" s="162"/>
+      <c r="AG29" s="162"/>
+      <c r="AH29" s="162"/>
+      <c r="AI29" s="162"/>
+      <c r="AJ29" s="162"/>
+      <c r="AK29" s="162"/>
+      <c r="AL29" s="162"/>
       <c r="AM29" s="41"/>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
       <c r="C30" s="40"/>
-      <c r="D30" s="163"/>
-      <c r="E30" s="163"/>
-      <c r="F30" s="163"/>
-      <c r="G30" s="163"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="163"/>
-      <c r="K30" s="163"/>
-      <c r="L30" s="163"/>
-      <c r="M30" s="163"/>
-      <c r="N30" s="163"/>
-      <c r="O30" s="163"/>
-      <c r="P30" s="163"/>
-      <c r="Q30" s="163"/>
-      <c r="R30" s="163"/>
-      <c r="S30" s="163"/>
-      <c r="T30" s="163"/>
-      <c r="U30" s="163"/>
-      <c r="V30" s="163"/>
-      <c r="W30" s="163"/>
-      <c r="X30" s="163"/>
-      <c r="Y30" s="163"/>
-      <c r="Z30" s="163"/>
-      <c r="AA30" s="163"/>
-      <c r="AB30" s="163"/>
-      <c r="AC30" s="163"/>
-      <c r="AD30" s="163"/>
-      <c r="AE30" s="163"/>
-      <c r="AF30" s="163"/>
-      <c r="AG30" s="163"/>
-      <c r="AH30" s="163"/>
-      <c r="AI30" s="163"/>
-      <c r="AJ30" s="163"/>
-      <c r="AK30" s="163"/>
-      <c r="AL30" s="163"/>
+      <c r="D30" s="162"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="162"/>
+      <c r="G30" s="162"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="162"/>
+      <c r="K30" s="162"/>
+      <c r="L30" s="162"/>
+      <c r="M30" s="162"/>
+      <c r="N30" s="162"/>
+      <c r="O30" s="162"/>
+      <c r="P30" s="162"/>
+      <c r="Q30" s="162"/>
+      <c r="R30" s="162"/>
+      <c r="S30" s="162"/>
+      <c r="T30" s="162"/>
+      <c r="U30" s="162"/>
+      <c r="V30" s="162"/>
+      <c r="W30" s="162"/>
+      <c r="X30" s="162"/>
+      <c r="Y30" s="162"/>
+      <c r="Z30" s="162"/>
+      <c r="AA30" s="162"/>
+      <c r="AB30" s="162"/>
+      <c r="AC30" s="162"/>
+      <c r="AD30" s="162"/>
+      <c r="AE30" s="162"/>
+      <c r="AF30" s="162"/>
+      <c r="AG30" s="162"/>
+      <c r="AH30" s="162"/>
+      <c r="AI30" s="162"/>
+      <c r="AJ30" s="162"/>
+      <c r="AK30" s="162"/>
+      <c r="AL30" s="162"/>
       <c r="AM30" s="41"/>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
       <c r="C31" s="40"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="163"/>
-      <c r="K31" s="163"/>
-      <c r="L31" s="163"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="163"/>
-      <c r="P31" s="163"/>
-      <c r="Q31" s="163"/>
-      <c r="R31" s="163"/>
-      <c r="S31" s="163"/>
-      <c r="T31" s="163"/>
-      <c r="U31" s="163"/>
-      <c r="V31" s="163"/>
-      <c r="W31" s="163"/>
-      <c r="X31" s="163"/>
-      <c r="Y31" s="163"/>
-      <c r="Z31" s="163"/>
-      <c r="AA31" s="163"/>
-      <c r="AB31" s="163"/>
-      <c r="AC31" s="163"/>
-      <c r="AD31" s="163"/>
-      <c r="AE31" s="163"/>
-      <c r="AF31" s="163"/>
-      <c r="AG31" s="163"/>
-      <c r="AH31" s="163"/>
-      <c r="AI31" s="163"/>
-      <c r="AJ31" s="163"/>
-      <c r="AK31" s="163"/>
-      <c r="AL31" s="163"/>
+      <c r="D31" s="162"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="162"/>
+      <c r="K31" s="162"/>
+      <c r="L31" s="162"/>
+      <c r="M31" s="162"/>
+      <c r="N31" s="162"/>
+      <c r="O31" s="162"/>
+      <c r="P31" s="162"/>
+      <c r="Q31" s="162"/>
+      <c r="R31" s="162"/>
+      <c r="S31" s="162"/>
+      <c r="T31" s="162"/>
+      <c r="U31" s="162"/>
+      <c r="V31" s="162"/>
+      <c r="W31" s="162"/>
+      <c r="X31" s="162"/>
+      <c r="Y31" s="162"/>
+      <c r="Z31" s="162"/>
+      <c r="AA31" s="162"/>
+      <c r="AB31" s="162"/>
+      <c r="AC31" s="162"/>
+      <c r="AD31" s="162"/>
+      <c r="AE31" s="162"/>
+      <c r="AF31" s="162"/>
+      <c r="AG31" s="162"/>
+      <c r="AH31" s="162"/>
+      <c r="AI31" s="162"/>
+      <c r="AJ31" s="162"/>
+      <c r="AK31" s="162"/>
+      <c r="AL31" s="162"/>
       <c r="AM31" s="41"/>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
       <c r="C32" s="40"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="163"/>
-      <c r="F32" s="163"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="163"/>
-      <c r="K32" s="163"/>
-      <c r="L32" s="163"/>
-      <c r="M32" s="163"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="163"/>
-      <c r="P32" s="163"/>
-      <c r="Q32" s="163"/>
-      <c r="R32" s="163"/>
-      <c r="S32" s="163"/>
-      <c r="T32" s="163"/>
-      <c r="U32" s="163"/>
-      <c r="V32" s="163"/>
-      <c r="W32" s="163"/>
-      <c r="X32" s="163"/>
-      <c r="Y32" s="163"/>
-      <c r="Z32" s="163"/>
-      <c r="AA32" s="163"/>
-      <c r="AB32" s="163"/>
-      <c r="AC32" s="163"/>
-      <c r="AD32" s="163"/>
-      <c r="AE32" s="163"/>
-      <c r="AF32" s="163"/>
-      <c r="AG32" s="163"/>
-      <c r="AH32" s="163"/>
-      <c r="AI32" s="163"/>
-      <c r="AJ32" s="163"/>
-      <c r="AK32" s="163"/>
-      <c r="AL32" s="163"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="162"/>
+      <c r="J32" s="162"/>
+      <c r="K32" s="162"/>
+      <c r="L32" s="162"/>
+      <c r="M32" s="162"/>
+      <c r="N32" s="162"/>
+      <c r="O32" s="162"/>
+      <c r="P32" s="162"/>
+      <c r="Q32" s="162"/>
+      <c r="R32" s="162"/>
+      <c r="S32" s="162"/>
+      <c r="T32" s="162"/>
+      <c r="U32" s="162"/>
+      <c r="V32" s="162"/>
+      <c r="W32" s="162"/>
+      <c r="X32" s="162"/>
+      <c r="Y32" s="162"/>
+      <c r="Z32" s="162"/>
+      <c r="AA32" s="162"/>
+      <c r="AB32" s="162"/>
+      <c r="AC32" s="162"/>
+      <c r="AD32" s="162"/>
+      <c r="AE32" s="162"/>
+      <c r="AF32" s="162"/>
+      <c r="AG32" s="162"/>
+      <c r="AH32" s="162"/>
+      <c r="AI32" s="162"/>
+      <c r="AJ32" s="162"/>
+      <c r="AK32" s="162"/>
+      <c r="AL32" s="162"/>
       <c r="AM32" s="41"/>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="163"/>
-      <c r="F33" s="163"/>
-      <c r="G33" s="163"/>
-      <c r="H33" s="163"/>
-      <c r="I33" s="163"/>
-      <c r="J33" s="163"/>
-      <c r="K33" s="163"/>
-      <c r="L33" s="163"/>
-      <c r="M33" s="163"/>
-      <c r="N33" s="163"/>
-      <c r="O33" s="163"/>
-      <c r="P33" s="163"/>
-      <c r="Q33" s="163"/>
-      <c r="R33" s="163"/>
-      <c r="S33" s="163"/>
-      <c r="T33" s="163"/>
-      <c r="U33" s="163"/>
-      <c r="V33" s="163"/>
-      <c r="W33" s="163"/>
-      <c r="X33" s="163"/>
-      <c r="Y33" s="163"/>
-      <c r="Z33" s="163"/>
-      <c r="AA33" s="163"/>
-      <c r="AB33" s="163"/>
-      <c r="AC33" s="163"/>
-      <c r="AD33" s="163"/>
-      <c r="AE33" s="163"/>
-      <c r="AF33" s="163"/>
-      <c r="AG33" s="163"/>
-      <c r="AH33" s="163"/>
-      <c r="AI33" s="163"/>
-      <c r="AJ33" s="163"/>
-      <c r="AK33" s="163"/>
-      <c r="AL33" s="163"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="0"/>
+      <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
+      <c r="S33" s="0"/>
+      <c r="T33" s="0"/>
+      <c r="U33" s="0"/>
+      <c r="V33" s="0"/>
+      <c r="W33" s="0"/>
+      <c r="X33" s="0"/>
+      <c r="Y33" s="0"/>
+      <c r="Z33" s="0"/>
+      <c r="AA33" s="0"/>
+      <c r="AB33" s="0"/>
+      <c r="AC33" s="0"/>
+      <c r="AD33" s="0"/>
+      <c r="AE33" s="0"/>
+      <c r="AF33" s="0"/>
+      <c r="AG33" s="0"/>
+      <c r="AH33" s="0"/>
+      <c r="AI33" s="0"/>
+      <c r="AJ33" s="0"/>
+      <c r="AK33" s="0"/>
+      <c r="AL33" s="0"/>
       <c r="AM33" s="41"/>
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
       <c r="C34" s="40"/>
-      <c r="D34" s="163"/>
-      <c r="E34" s="163"/>
-      <c r="F34" s="163"/>
-      <c r="G34" s="163"/>
-      <c r="H34" s="163"/>
-      <c r="I34" s="163"/>
-      <c r="J34" s="163"/>
-      <c r="K34" s="163"/>
-      <c r="L34" s="163"/>
-      <c r="M34" s="163"/>
-      <c r="N34" s="163"/>
-      <c r="O34" s="163"/>
-      <c r="P34" s="163"/>
-      <c r="Q34" s="163"/>
-      <c r="R34" s="163"/>
-      <c r="S34" s="163"/>
-      <c r="T34" s="163"/>
-      <c r="U34" s="163"/>
-      <c r="V34" s="163"/>
-      <c r="W34" s="163"/>
-      <c r="X34" s="163"/>
-      <c r="Y34" s="163"/>
-      <c r="Z34" s="163"/>
-      <c r="AA34" s="163"/>
-      <c r="AB34" s="163"/>
-      <c r="AC34" s="163"/>
-      <c r="AD34" s="163"/>
-      <c r="AE34" s="163"/>
-      <c r="AF34" s="163"/>
-      <c r="AG34" s="163"/>
-      <c r="AH34" s="163"/>
-      <c r="AI34" s="163"/>
-      <c r="AJ34" s="163"/>
-      <c r="AK34" s="163"/>
-      <c r="AL34" s="163"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
+      <c r="L34" s="0"/>
+      <c r="M34" s="0"/>
+      <c r="N34" s="0"/>
+      <c r="O34" s="0"/>
+      <c r="P34" s="0"/>
+      <c r="Q34" s="0"/>
+      <c r="R34" s="0"/>
+      <c r="S34" s="0"/>
+      <c r="T34" s="0"/>
+      <c r="U34" s="0"/>
+      <c r="V34" s="0"/>
+      <c r="W34" s="0"/>
+      <c r="X34" s="0"/>
+      <c r="Y34" s="0"/>
+      <c r="Z34" s="0"/>
+      <c r="AA34" s="0"/>
+      <c r="AB34" s="0"/>
+      <c r="AC34" s="0"/>
+      <c r="AD34" s="0"/>
+      <c r="AE34" s="0"/>
+      <c r="AF34" s="0"/>
+      <c r="AG34" s="0"/>
+      <c r="AH34" s="0"/>
+      <c r="AI34" s="0"/>
+      <c r="AJ34" s="0"/>
+      <c r="AK34" s="0"/>
+      <c r="AL34" s="0"/>
       <c r="AM34" s="41"/>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16463,8 +16459,8 @@
   </sheetData>
   <mergeCells count="34">
     <mergeCell ref="D2:AL3"/>
-    <mergeCell ref="D5:AL24"/>
-    <mergeCell ref="D25:AL34"/>
+    <mergeCell ref="D5:AL22"/>
+    <mergeCell ref="D23:AL32"/>
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="B29:B35"/>
     <mergeCell ref="A36:A40"/>
@@ -16515,7 +16511,7 @@
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="C1:AM54"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16724,940 +16720,940 @@
       <c r="AM4" s="52"/>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="164"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="165"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="165"/>
-      <c r="K5" s="165"/>
-      <c r="L5" s="165"/>
-      <c r="M5" s="165"/>
-      <c r="N5" s="165"/>
-      <c r="O5" s="165"/>
-      <c r="P5" s="165"/>
-      <c r="Q5" s="165"/>
-      <c r="R5" s="165"/>
-      <c r="S5" s="165"/>
-      <c r="T5" s="165"/>
-      <c r="U5" s="165"/>
-      <c r="V5" s="165"/>
-      <c r="W5" s="165"/>
-      <c r="X5" s="165"/>
-      <c r="Y5" s="165"/>
-      <c r="Z5" s="165"/>
-      <c r="AA5" s="165"/>
-      <c r="AB5" s="165"/>
-      <c r="AC5" s="165"/>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="165"/>
-      <c r="AF5" s="165"/>
-      <c r="AG5" s="165"/>
-      <c r="AH5" s="165"/>
-      <c r="AI5" s="165"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="165"/>
-      <c r="AL5" s="165"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="164"/>
+      <c r="Q5" s="164"/>
+      <c r="R5" s="164"/>
+      <c r="S5" s="164"/>
+      <c r="T5" s="164"/>
+      <c r="U5" s="164"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="164"/>
+      <c r="X5" s="164"/>
+      <c r="Y5" s="164"/>
+      <c r="Z5" s="164"/>
+      <c r="AA5" s="164"/>
+      <c r="AB5" s="164"/>
+      <c r="AC5" s="164"/>
+      <c r="AD5" s="164"/>
+      <c r="AE5" s="164"/>
+      <c r="AF5" s="164"/>
+      <c r="AG5" s="164"/>
+      <c r="AH5" s="164"/>
+      <c r="AI5" s="164"/>
+      <c r="AJ5" s="164"/>
+      <c r="AK5" s="164"/>
+      <c r="AL5" s="164"/>
       <c r="AM5" s="75"/>
       <c r="AQ5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C6" s="164"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="165"/>
-      <c r="K6" s="165"/>
-      <c r="L6" s="165"/>
-      <c r="M6" s="165"/>
-      <c r="N6" s="165"/>
-      <c r="O6" s="165"/>
-      <c r="P6" s="165"/>
-      <c r="Q6" s="165"/>
-      <c r="R6" s="165"/>
-      <c r="S6" s="165"/>
-      <c r="T6" s="165"/>
-      <c r="U6" s="165"/>
-      <c r="V6" s="165"/>
-      <c r="W6" s="165"/>
-      <c r="X6" s="165"/>
-      <c r="Y6" s="165"/>
-      <c r="Z6" s="165"/>
-      <c r="AA6" s="165"/>
-      <c r="AB6" s="165"/>
-      <c r="AC6" s="165"/>
-      <c r="AD6" s="165"/>
-      <c r="AE6" s="165"/>
-      <c r="AF6" s="165"/>
-      <c r="AG6" s="165"/>
-      <c r="AH6" s="165"/>
-      <c r="AI6" s="165"/>
-      <c r="AJ6" s="165"/>
-      <c r="AK6" s="165"/>
-      <c r="AL6" s="165"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="164"/>
+      <c r="L6" s="164"/>
+      <c r="M6" s="164"/>
+      <c r="N6" s="164"/>
+      <c r="O6" s="164"/>
+      <c r="P6" s="164"/>
+      <c r="Q6" s="164"/>
+      <c r="R6" s="164"/>
+      <c r="S6" s="164"/>
+      <c r="T6" s="164"/>
+      <c r="U6" s="164"/>
+      <c r="V6" s="164"/>
+      <c r="W6" s="164"/>
+      <c r="X6" s="164"/>
+      <c r="Y6" s="164"/>
+      <c r="Z6" s="164"/>
+      <c r="AA6" s="164"/>
+      <c r="AB6" s="164"/>
+      <c r="AC6" s="164"/>
+      <c r="AD6" s="164"/>
+      <c r="AE6" s="164"/>
+      <c r="AF6" s="164"/>
+      <c r="AG6" s="164"/>
+      <c r="AH6" s="164"/>
+      <c r="AI6" s="164"/>
+      <c r="AJ6" s="164"/>
+      <c r="AK6" s="164"/>
+      <c r="AL6" s="164"/>
       <c r="AM6" s="75"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="164"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="165"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="165"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="165"/>
-      <c r="R7" s="165"/>
-      <c r="S7" s="165"/>
-      <c r="T7" s="165"/>
-      <c r="U7" s="165"/>
-      <c r="V7" s="165"/>
-      <c r="W7" s="165"/>
-      <c r="X7" s="165"/>
-      <c r="Y7" s="165"/>
-      <c r="Z7" s="165"/>
-      <c r="AA7" s="165"/>
-      <c r="AB7" s="165"/>
-      <c r="AC7" s="165"/>
-      <c r="AD7" s="165"/>
-      <c r="AE7" s="165"/>
-      <c r="AF7" s="165"/>
-      <c r="AG7" s="165"/>
-      <c r="AH7" s="165"/>
-      <c r="AI7" s="165"/>
-      <c r="AJ7" s="165"/>
-      <c r="AK7" s="165"/>
-      <c r="AL7" s="165"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="164"/>
+      <c r="M7" s="164"/>
+      <c r="N7" s="164"/>
+      <c r="O7" s="164"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="164"/>
+      <c r="R7" s="164"/>
+      <c r="S7" s="164"/>
+      <c r="T7" s="164"/>
+      <c r="U7" s="164"/>
+      <c r="V7" s="164"/>
+      <c r="W7" s="164"/>
+      <c r="X7" s="164"/>
+      <c r="Y7" s="164"/>
+      <c r="Z7" s="164"/>
+      <c r="AA7" s="164"/>
+      <c r="AB7" s="164"/>
+      <c r="AC7" s="164"/>
+      <c r="AD7" s="164"/>
+      <c r="AE7" s="164"/>
+      <c r="AF7" s="164"/>
+      <c r="AG7" s="164"/>
+      <c r="AH7" s="164"/>
+      <c r="AI7" s="164"/>
+      <c r="AJ7" s="164"/>
+      <c r="AK7" s="164"/>
+      <c r="AL7" s="164"/>
       <c r="AM7" s="75"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C8" s="164"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="165"/>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="165"/>
-      <c r="N8" s="165"/>
-      <c r="O8" s="165"/>
-      <c r="P8" s="165"/>
-      <c r="Q8" s="165"/>
-      <c r="R8" s="165"/>
-      <c r="S8" s="165"/>
-      <c r="T8" s="165"/>
-      <c r="U8" s="165"/>
-      <c r="V8" s="165"/>
-      <c r="W8" s="165"/>
-      <c r="X8" s="165"/>
-      <c r="Y8" s="165"/>
-      <c r="Z8" s="165"/>
-      <c r="AA8" s="165"/>
-      <c r="AB8" s="165"/>
-      <c r="AC8" s="165"/>
-      <c r="AD8" s="165"/>
-      <c r="AE8" s="165"/>
-      <c r="AF8" s="165"/>
-      <c r="AG8" s="165"/>
-      <c r="AH8" s="165"/>
-      <c r="AI8" s="165"/>
-      <c r="AJ8" s="165"/>
-      <c r="AK8" s="165"/>
-      <c r="AL8" s="165"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="164"/>
+      <c r="O8" s="164"/>
+      <c r="P8" s="164"/>
+      <c r="Q8" s="164"/>
+      <c r="R8" s="164"/>
+      <c r="S8" s="164"/>
+      <c r="T8" s="164"/>
+      <c r="U8" s="164"/>
+      <c r="V8" s="164"/>
+      <c r="W8" s="164"/>
+      <c r="X8" s="164"/>
+      <c r="Y8" s="164"/>
+      <c r="Z8" s="164"/>
+      <c r="AA8" s="164"/>
+      <c r="AB8" s="164"/>
+      <c r="AC8" s="164"/>
+      <c r="AD8" s="164"/>
+      <c r="AE8" s="164"/>
+      <c r="AF8" s="164"/>
+      <c r="AG8" s="164"/>
+      <c r="AH8" s="164"/>
+      <c r="AI8" s="164"/>
+      <c r="AJ8" s="164"/>
+      <c r="AK8" s="164"/>
+      <c r="AL8" s="164"/>
       <c r="AM8" s="75"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="164"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="165"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="165"/>
-      <c r="M9" s="165"/>
-      <c r="N9" s="165"/>
-      <c r="O9" s="165"/>
-      <c r="P9" s="165"/>
-      <c r="Q9" s="165"/>
-      <c r="R9" s="165"/>
-      <c r="S9" s="165"/>
-      <c r="T9" s="165"/>
-      <c r="U9" s="165"/>
-      <c r="V9" s="165"/>
-      <c r="W9" s="165"/>
-      <c r="X9" s="165"/>
-      <c r="Y9" s="165"/>
-      <c r="Z9" s="165"/>
-      <c r="AA9" s="165"/>
-      <c r="AB9" s="165"/>
-      <c r="AC9" s="165"/>
-      <c r="AD9" s="165"/>
-      <c r="AE9" s="165"/>
-      <c r="AF9" s="165"/>
-      <c r="AG9" s="165"/>
-      <c r="AH9" s="165"/>
-      <c r="AI9" s="165"/>
-      <c r="AJ9" s="165"/>
-      <c r="AK9" s="165"/>
-      <c r="AL9" s="165"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="164"/>
+      <c r="P9" s="164"/>
+      <c r="Q9" s="164"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="164"/>
+      <c r="T9" s="164"/>
+      <c r="U9" s="164"/>
+      <c r="V9" s="164"/>
+      <c r="W9" s="164"/>
+      <c r="X9" s="164"/>
+      <c r="Y9" s="164"/>
+      <c r="Z9" s="164"/>
+      <c r="AA9" s="164"/>
+      <c r="AB9" s="164"/>
+      <c r="AC9" s="164"/>
+      <c r="AD9" s="164"/>
+      <c r="AE9" s="164"/>
+      <c r="AF9" s="164"/>
+      <c r="AG9" s="164"/>
+      <c r="AH9" s="164"/>
+      <c r="AI9" s="164"/>
+      <c r="AJ9" s="164"/>
+      <c r="AK9" s="164"/>
+      <c r="AL9" s="164"/>
       <c r="AM9" s="75"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="164"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="165"/>
-      <c r="N10" s="165"/>
-      <c r="O10" s="165"/>
-      <c r="P10" s="165"/>
-      <c r="Q10" s="165"/>
-      <c r="R10" s="165"/>
-      <c r="S10" s="165"/>
-      <c r="T10" s="165"/>
-      <c r="U10" s="165"/>
-      <c r="V10" s="165"/>
-      <c r="W10" s="165"/>
-      <c r="X10" s="165"/>
-      <c r="Y10" s="165"/>
-      <c r="Z10" s="165"/>
-      <c r="AA10" s="165"/>
-      <c r="AB10" s="165"/>
-      <c r="AC10" s="165"/>
-      <c r="AD10" s="165"/>
-      <c r="AE10" s="165"/>
-      <c r="AF10" s="165"/>
-      <c r="AG10" s="165"/>
-      <c r="AH10" s="165"/>
-      <c r="AI10" s="165"/>
-      <c r="AJ10" s="165"/>
-      <c r="AK10" s="165"/>
-      <c r="AL10" s="165"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="164"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="164"/>
+      <c r="O10" s="164"/>
+      <c r="P10" s="164"/>
+      <c r="Q10" s="164"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="164"/>
+      <c r="T10" s="164"/>
+      <c r="U10" s="164"/>
+      <c r="V10" s="164"/>
+      <c r="W10" s="164"/>
+      <c r="X10" s="164"/>
+      <c r="Y10" s="164"/>
+      <c r="Z10" s="164"/>
+      <c r="AA10" s="164"/>
+      <c r="AB10" s="164"/>
+      <c r="AC10" s="164"/>
+      <c r="AD10" s="164"/>
+      <c r="AE10" s="164"/>
+      <c r="AF10" s="164"/>
+      <c r="AG10" s="164"/>
+      <c r="AH10" s="164"/>
+      <c r="AI10" s="164"/>
+      <c r="AJ10" s="164"/>
+      <c r="AK10" s="164"/>
+      <c r="AL10" s="164"/>
       <c r="AM10" s="75"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="164"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="165"/>
-      <c r="L11" s="165"/>
-      <c r="M11" s="165"/>
-      <c r="N11" s="165"/>
-      <c r="O11" s="165"/>
-      <c r="P11" s="165"/>
-      <c r="Q11" s="165"/>
-      <c r="R11" s="165"/>
-      <c r="S11" s="165"/>
-      <c r="T11" s="165"/>
-      <c r="U11" s="165"/>
-      <c r="V11" s="165"/>
-      <c r="W11" s="165"/>
-      <c r="X11" s="165"/>
-      <c r="Y11" s="165"/>
-      <c r="Z11" s="165"/>
-      <c r="AA11" s="165"/>
-      <c r="AB11" s="165"/>
-      <c r="AC11" s="165"/>
-      <c r="AD11" s="165"/>
-      <c r="AE11" s="165"/>
-      <c r="AF11" s="165"/>
-      <c r="AG11" s="165"/>
-      <c r="AH11" s="165"/>
-      <c r="AI11" s="165"/>
-      <c r="AJ11" s="165"/>
-      <c r="AK11" s="165"/>
-      <c r="AL11" s="165"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="164"/>
+      <c r="O11" s="164"/>
+      <c r="P11" s="164"/>
+      <c r="Q11" s="164"/>
+      <c r="R11" s="164"/>
+      <c r="S11" s="164"/>
+      <c r="T11" s="164"/>
+      <c r="U11" s="164"/>
+      <c r="V11" s="164"/>
+      <c r="W11" s="164"/>
+      <c r="X11" s="164"/>
+      <c r="Y11" s="164"/>
+      <c r="Z11" s="164"/>
+      <c r="AA11" s="164"/>
+      <c r="AB11" s="164"/>
+      <c r="AC11" s="164"/>
+      <c r="AD11" s="164"/>
+      <c r="AE11" s="164"/>
+      <c r="AF11" s="164"/>
+      <c r="AG11" s="164"/>
+      <c r="AH11" s="164"/>
+      <c r="AI11" s="164"/>
+      <c r="AJ11" s="164"/>
+      <c r="AK11" s="164"/>
+      <c r="AL11" s="164"/>
       <c r="AM11" s="75"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="164"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="165"/>
-      <c r="P12" s="165"/>
-      <c r="Q12" s="165"/>
-      <c r="R12" s="165"/>
-      <c r="S12" s="165"/>
-      <c r="T12" s="165"/>
-      <c r="U12" s="165"/>
-      <c r="V12" s="165"/>
-      <c r="W12" s="165"/>
-      <c r="X12" s="165"/>
-      <c r="Y12" s="165"/>
-      <c r="Z12" s="165"/>
-      <c r="AA12" s="165"/>
-      <c r="AB12" s="165"/>
-      <c r="AC12" s="165"/>
-      <c r="AD12" s="165"/>
-      <c r="AE12" s="165"/>
-      <c r="AF12" s="165"/>
-      <c r="AG12" s="165"/>
-      <c r="AH12" s="165"/>
-      <c r="AI12" s="165"/>
-      <c r="AJ12" s="165"/>
-      <c r="AK12" s="165"/>
-      <c r="AL12" s="165"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="164"/>
+      <c r="P12" s="164"/>
+      <c r="Q12" s="164"/>
+      <c r="R12" s="164"/>
+      <c r="S12" s="164"/>
+      <c r="T12" s="164"/>
+      <c r="U12" s="164"/>
+      <c r="V12" s="164"/>
+      <c r="W12" s="164"/>
+      <c r="X12" s="164"/>
+      <c r="Y12" s="164"/>
+      <c r="Z12" s="164"/>
+      <c r="AA12" s="164"/>
+      <c r="AB12" s="164"/>
+      <c r="AC12" s="164"/>
+      <c r="AD12" s="164"/>
+      <c r="AE12" s="164"/>
+      <c r="AF12" s="164"/>
+      <c r="AG12" s="164"/>
+      <c r="AH12" s="164"/>
+      <c r="AI12" s="164"/>
+      <c r="AJ12" s="164"/>
+      <c r="AK12" s="164"/>
+      <c r="AL12" s="164"/>
       <c r="AM12" s="75"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="164"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="165"/>
-      <c r="K13" s="165"/>
-      <c r="L13" s="165"/>
-      <c r="M13" s="165"/>
-      <c r="N13" s="165"/>
-      <c r="O13" s="165"/>
-      <c r="P13" s="165"/>
-      <c r="Q13" s="165"/>
-      <c r="R13" s="165"/>
-      <c r="S13" s="165"/>
-      <c r="T13" s="165"/>
-      <c r="U13" s="165"/>
-      <c r="V13" s="165"/>
-      <c r="W13" s="165"/>
-      <c r="X13" s="165"/>
-      <c r="Y13" s="165"/>
-      <c r="Z13" s="165"/>
-      <c r="AA13" s="165"/>
-      <c r="AB13" s="165"/>
-      <c r="AC13" s="165"/>
-      <c r="AD13" s="165"/>
-      <c r="AE13" s="165"/>
-      <c r="AF13" s="165"/>
-      <c r="AG13" s="165"/>
-      <c r="AH13" s="165"/>
-      <c r="AI13" s="165"/>
-      <c r="AJ13" s="165"/>
-      <c r="AK13" s="165"/>
-      <c r="AL13" s="165"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="164"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="164"/>
+      <c r="O13" s="164"/>
+      <c r="P13" s="164"/>
+      <c r="Q13" s="164"/>
+      <c r="R13" s="164"/>
+      <c r="S13" s="164"/>
+      <c r="T13" s="164"/>
+      <c r="U13" s="164"/>
+      <c r="V13" s="164"/>
+      <c r="W13" s="164"/>
+      <c r="X13" s="164"/>
+      <c r="Y13" s="164"/>
+      <c r="Z13" s="164"/>
+      <c r="AA13" s="164"/>
+      <c r="AB13" s="164"/>
+      <c r="AC13" s="164"/>
+      <c r="AD13" s="164"/>
+      <c r="AE13" s="164"/>
+      <c r="AF13" s="164"/>
+      <c r="AG13" s="164"/>
+      <c r="AH13" s="164"/>
+      <c r="AI13" s="164"/>
+      <c r="AJ13" s="164"/>
+      <c r="AK13" s="164"/>
+      <c r="AL13" s="164"/>
       <c r="AM13" s="75"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="164"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="165"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="165"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="165"/>
-      <c r="P14" s="165"/>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="165"/>
-      <c r="S14" s="165"/>
-      <c r="T14" s="165"/>
-      <c r="U14" s="165"/>
-      <c r="V14" s="165"/>
-      <c r="W14" s="165"/>
-      <c r="X14" s="165"/>
-      <c r="Y14" s="165"/>
-      <c r="Z14" s="165"/>
-      <c r="AA14" s="165"/>
-      <c r="AB14" s="165"/>
-      <c r="AC14" s="165"/>
-      <c r="AD14" s="165"/>
-      <c r="AE14" s="165"/>
-      <c r="AF14" s="165"/>
-      <c r="AG14" s="165"/>
-      <c r="AH14" s="165"/>
-      <c r="AI14" s="165"/>
-      <c r="AJ14" s="165"/>
-      <c r="AK14" s="165"/>
-      <c r="AL14" s="165"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="164"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="164"/>
+      <c r="P14" s="164"/>
+      <c r="Q14" s="164"/>
+      <c r="R14" s="164"/>
+      <c r="S14" s="164"/>
+      <c r="T14" s="164"/>
+      <c r="U14" s="164"/>
+      <c r="V14" s="164"/>
+      <c r="W14" s="164"/>
+      <c r="X14" s="164"/>
+      <c r="Y14" s="164"/>
+      <c r="Z14" s="164"/>
+      <c r="AA14" s="164"/>
+      <c r="AB14" s="164"/>
+      <c r="AC14" s="164"/>
+      <c r="AD14" s="164"/>
+      <c r="AE14" s="164"/>
+      <c r="AF14" s="164"/>
+      <c r="AG14" s="164"/>
+      <c r="AH14" s="164"/>
+      <c r="AI14" s="164"/>
+      <c r="AJ14" s="164"/>
+      <c r="AK14" s="164"/>
+      <c r="AL14" s="164"/>
       <c r="AM14" s="75"/>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="164"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="165"/>
-      <c r="M15" s="165"/>
-      <c r="N15" s="165"/>
-      <c r="O15" s="165"/>
-      <c r="P15" s="165"/>
-      <c r="Q15" s="165"/>
-      <c r="R15" s="165"/>
-      <c r="S15" s="165"/>
-      <c r="T15" s="165"/>
-      <c r="U15" s="165"/>
-      <c r="V15" s="165"/>
-      <c r="W15" s="165"/>
-      <c r="X15" s="165"/>
-      <c r="Y15" s="165"/>
-      <c r="Z15" s="165"/>
-      <c r="AA15" s="165"/>
-      <c r="AB15" s="165"/>
-      <c r="AC15" s="165"/>
-      <c r="AD15" s="165"/>
-      <c r="AE15" s="165"/>
-      <c r="AF15" s="165"/>
-      <c r="AG15" s="165"/>
-      <c r="AH15" s="165"/>
-      <c r="AI15" s="165"/>
-      <c r="AJ15" s="165"/>
-      <c r="AK15" s="165"/>
-      <c r="AL15" s="165"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="164"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="164"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="164"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="164"/>
+      <c r="V15" s="164"/>
+      <c r="W15" s="164"/>
+      <c r="X15" s="164"/>
+      <c r="Y15" s="164"/>
+      <c r="Z15" s="164"/>
+      <c r="AA15" s="164"/>
+      <c r="AB15" s="164"/>
+      <c r="AC15" s="164"/>
+      <c r="AD15" s="164"/>
+      <c r="AE15" s="164"/>
+      <c r="AF15" s="164"/>
+      <c r="AG15" s="164"/>
+      <c r="AH15" s="164"/>
+      <c r="AI15" s="164"/>
+      <c r="AJ15" s="164"/>
+      <c r="AK15" s="164"/>
+      <c r="AL15" s="164"/>
       <c r="AM15" s="75"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="164"/>
-      <c r="D16" s="165"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="165"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="165"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="165"/>
-      <c r="M16" s="165"/>
-      <c r="N16" s="165"/>
-      <c r="O16" s="165"/>
-      <c r="P16" s="165"/>
-      <c r="Q16" s="165"/>
-      <c r="R16" s="165"/>
-      <c r="S16" s="165"/>
-      <c r="T16" s="165"/>
-      <c r="U16" s="165"/>
-      <c r="V16" s="165"/>
-      <c r="W16" s="165"/>
-      <c r="X16" s="165"/>
-      <c r="Y16" s="165"/>
-      <c r="Z16" s="165"/>
-      <c r="AA16" s="165"/>
-      <c r="AB16" s="165"/>
-      <c r="AC16" s="165"/>
-      <c r="AD16" s="165"/>
-      <c r="AE16" s="165"/>
-      <c r="AF16" s="165"/>
-      <c r="AG16" s="165"/>
-      <c r="AH16" s="165"/>
-      <c r="AI16" s="165"/>
-      <c r="AJ16" s="165"/>
-      <c r="AK16" s="165"/>
-      <c r="AL16" s="165"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="164"/>
+      <c r="R16" s="164"/>
+      <c r="S16" s="164"/>
+      <c r="T16" s="164"/>
+      <c r="U16" s="164"/>
+      <c r="V16" s="164"/>
+      <c r="W16" s="164"/>
+      <c r="X16" s="164"/>
+      <c r="Y16" s="164"/>
+      <c r="Z16" s="164"/>
+      <c r="AA16" s="164"/>
+      <c r="AB16" s="164"/>
+      <c r="AC16" s="164"/>
+      <c r="AD16" s="164"/>
+      <c r="AE16" s="164"/>
+      <c r="AF16" s="164"/>
+      <c r="AG16" s="164"/>
+      <c r="AH16" s="164"/>
+      <c r="AI16" s="164"/>
+      <c r="AJ16" s="164"/>
+      <c r="AK16" s="164"/>
+      <c r="AL16" s="164"/>
       <c r="AM16" s="75"/>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C17" s="164"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="165"/>
-      <c r="K17" s="165"/>
-      <c r="L17" s="165"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="165"/>
-      <c r="P17" s="165"/>
-      <c r="Q17" s="165"/>
-      <c r="R17" s="165"/>
-      <c r="S17" s="165"/>
-      <c r="T17" s="165"/>
-      <c r="U17" s="165"/>
-      <c r="V17" s="165"/>
-      <c r="W17" s="165"/>
-      <c r="X17" s="165"/>
-      <c r="Y17" s="165"/>
-      <c r="Z17" s="165"/>
-      <c r="AA17" s="165"/>
-      <c r="AB17" s="165"/>
-      <c r="AC17" s="165"/>
-      <c r="AD17" s="165"/>
-      <c r="AE17" s="165"/>
-      <c r="AF17" s="165"/>
-      <c r="AG17" s="165"/>
-      <c r="AH17" s="165"/>
-      <c r="AI17" s="165"/>
-      <c r="AJ17" s="165"/>
-      <c r="AK17" s="165"/>
-      <c r="AL17" s="165"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="164"/>
+      <c r="L17" s="164"/>
+      <c r="M17" s="164"/>
+      <c r="N17" s="164"/>
+      <c r="O17" s="164"/>
+      <c r="P17" s="164"/>
+      <c r="Q17" s="164"/>
+      <c r="R17" s="164"/>
+      <c r="S17" s="164"/>
+      <c r="T17" s="164"/>
+      <c r="U17" s="164"/>
+      <c r="V17" s="164"/>
+      <c r="W17" s="164"/>
+      <c r="X17" s="164"/>
+      <c r="Y17" s="164"/>
+      <c r="Z17" s="164"/>
+      <c r="AA17" s="164"/>
+      <c r="AB17" s="164"/>
+      <c r="AC17" s="164"/>
+      <c r="AD17" s="164"/>
+      <c r="AE17" s="164"/>
+      <c r="AF17" s="164"/>
+      <c r="AG17" s="164"/>
+      <c r="AH17" s="164"/>
+      <c r="AI17" s="164"/>
+      <c r="AJ17" s="164"/>
+      <c r="AK17" s="164"/>
+      <c r="AL17" s="164"/>
       <c r="AM17" s="75"/>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C18" s="164"/>
-      <c r="D18" s="165"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="165"/>
-      <c r="L18" s="165"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="165"/>
-      <c r="P18" s="165"/>
-      <c r="Q18" s="165"/>
-      <c r="R18" s="165"/>
-      <c r="S18" s="165"/>
-      <c r="T18" s="165"/>
-      <c r="U18" s="165"/>
-      <c r="V18" s="165"/>
-      <c r="W18" s="165"/>
-      <c r="X18" s="165"/>
-      <c r="Y18" s="165"/>
-      <c r="Z18" s="165"/>
-      <c r="AA18" s="165"/>
-      <c r="AB18" s="165"/>
-      <c r="AC18" s="165"/>
-      <c r="AD18" s="165"/>
-      <c r="AE18" s="165"/>
-      <c r="AF18" s="165"/>
-      <c r="AG18" s="165"/>
-      <c r="AH18" s="165"/>
-      <c r="AI18" s="165"/>
-      <c r="AJ18" s="165"/>
-      <c r="AK18" s="165"/>
-      <c r="AL18" s="165"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="164"/>
+      <c r="M18" s="164"/>
+      <c r="N18" s="164"/>
+      <c r="O18" s="164"/>
+      <c r="P18" s="164"/>
+      <c r="Q18" s="164"/>
+      <c r="R18" s="164"/>
+      <c r="S18" s="164"/>
+      <c r="T18" s="164"/>
+      <c r="U18" s="164"/>
+      <c r="V18" s="164"/>
+      <c r="W18" s="164"/>
+      <c r="X18" s="164"/>
+      <c r="Y18" s="164"/>
+      <c r="Z18" s="164"/>
+      <c r="AA18" s="164"/>
+      <c r="AB18" s="164"/>
+      <c r="AC18" s="164"/>
+      <c r="AD18" s="164"/>
+      <c r="AE18" s="164"/>
+      <c r="AF18" s="164"/>
+      <c r="AG18" s="164"/>
+      <c r="AH18" s="164"/>
+      <c r="AI18" s="164"/>
+      <c r="AJ18" s="164"/>
+      <c r="AK18" s="164"/>
+      <c r="AL18" s="164"/>
       <c r="AM18" s="75"/>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C19" s="164"/>
-      <c r="D19" s="165"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="165"/>
-      <c r="G19" s="165"/>
-      <c r="H19" s="165"/>
-      <c r="I19" s="165"/>
-      <c r="J19" s="165"/>
-      <c r="K19" s="165"/>
-      <c r="L19" s="165"/>
-      <c r="M19" s="165"/>
-      <c r="N19" s="165"/>
-      <c r="O19" s="165"/>
-      <c r="P19" s="165"/>
-      <c r="Q19" s="165"/>
-      <c r="R19" s="165"/>
-      <c r="S19" s="165"/>
-      <c r="T19" s="165"/>
-      <c r="U19" s="165"/>
-      <c r="V19" s="165"/>
-      <c r="W19" s="165"/>
-      <c r="X19" s="165"/>
-      <c r="Y19" s="165"/>
-      <c r="Z19" s="165"/>
-      <c r="AA19" s="165"/>
-      <c r="AB19" s="165"/>
-      <c r="AC19" s="165"/>
-      <c r="AD19" s="165"/>
-      <c r="AE19" s="165"/>
-      <c r="AF19" s="165"/>
-      <c r="AG19" s="165"/>
-      <c r="AH19" s="165"/>
-      <c r="AI19" s="165"/>
-      <c r="AJ19" s="165"/>
-      <c r="AK19" s="165"/>
-      <c r="AL19" s="165"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="164"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="164"/>
+      <c r="N19" s="164"/>
+      <c r="O19" s="164"/>
+      <c r="P19" s="164"/>
+      <c r="Q19" s="164"/>
+      <c r="R19" s="164"/>
+      <c r="S19" s="164"/>
+      <c r="T19" s="164"/>
+      <c r="U19" s="164"/>
+      <c r="V19" s="164"/>
+      <c r="W19" s="164"/>
+      <c r="X19" s="164"/>
+      <c r="Y19" s="164"/>
+      <c r="Z19" s="164"/>
+      <c r="AA19" s="164"/>
+      <c r="AB19" s="164"/>
+      <c r="AC19" s="164"/>
+      <c r="AD19" s="164"/>
+      <c r="AE19" s="164"/>
+      <c r="AF19" s="164"/>
+      <c r="AG19" s="164"/>
+      <c r="AH19" s="164"/>
+      <c r="AI19" s="164"/>
+      <c r="AJ19" s="164"/>
+      <c r="AK19" s="164"/>
+      <c r="AL19" s="164"/>
       <c r="AM19" s="75"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="164"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="165"/>
-      <c r="K20" s="165"/>
-      <c r="L20" s="165"/>
-      <c r="M20" s="165"/>
-      <c r="N20" s="165"/>
-      <c r="O20" s="165"/>
-      <c r="P20" s="165"/>
-      <c r="Q20" s="165"/>
-      <c r="R20" s="165"/>
-      <c r="S20" s="165"/>
-      <c r="T20" s="165"/>
-      <c r="U20" s="165"/>
-      <c r="V20" s="165"/>
-      <c r="W20" s="165"/>
-      <c r="X20" s="165"/>
-      <c r="Y20" s="165"/>
-      <c r="Z20" s="165"/>
-      <c r="AA20" s="165"/>
-      <c r="AB20" s="165"/>
-      <c r="AC20" s="165"/>
-      <c r="AD20" s="165"/>
-      <c r="AE20" s="165"/>
-      <c r="AF20" s="165"/>
-      <c r="AG20" s="165"/>
-      <c r="AH20" s="165"/>
-      <c r="AI20" s="165"/>
-      <c r="AJ20" s="165"/>
-      <c r="AK20" s="165"/>
-      <c r="AL20" s="165"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="164"/>
+      <c r="M20" s="164"/>
+      <c r="N20" s="164"/>
+      <c r="O20" s="164"/>
+      <c r="P20" s="164"/>
+      <c r="Q20" s="164"/>
+      <c r="R20" s="164"/>
+      <c r="S20" s="164"/>
+      <c r="T20" s="164"/>
+      <c r="U20" s="164"/>
+      <c r="V20" s="164"/>
+      <c r="W20" s="164"/>
+      <c r="X20" s="164"/>
+      <c r="Y20" s="164"/>
+      <c r="Z20" s="164"/>
+      <c r="AA20" s="164"/>
+      <c r="AB20" s="164"/>
+      <c r="AC20" s="164"/>
+      <c r="AD20" s="164"/>
+      <c r="AE20" s="164"/>
+      <c r="AF20" s="164"/>
+      <c r="AG20" s="164"/>
+      <c r="AH20" s="164"/>
+      <c r="AI20" s="164"/>
+      <c r="AJ20" s="164"/>
+      <c r="AK20" s="164"/>
+      <c r="AL20" s="164"/>
       <c r="AM20" s="75"/>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="164"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="165"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="165"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="165"/>
-      <c r="O21" s="165"/>
-      <c r="P21" s="165"/>
-      <c r="Q21" s="165"/>
-      <c r="R21" s="165"/>
-      <c r="S21" s="165"/>
-      <c r="T21" s="165"/>
-      <c r="U21" s="165"/>
-      <c r="V21" s="165"/>
-      <c r="W21" s="165"/>
-      <c r="X21" s="165"/>
-      <c r="Y21" s="165"/>
-      <c r="Z21" s="165"/>
-      <c r="AA21" s="165"/>
-      <c r="AB21" s="165"/>
-      <c r="AC21" s="165"/>
-      <c r="AD21" s="165"/>
-      <c r="AE21" s="165"/>
-      <c r="AF21" s="165"/>
-      <c r="AG21" s="165"/>
-      <c r="AH21" s="165"/>
-      <c r="AI21" s="165"/>
-      <c r="AJ21" s="165"/>
-      <c r="AK21" s="165"/>
-      <c r="AL21" s="165"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="164"/>
+      <c r="L21" s="164"/>
+      <c r="M21" s="164"/>
+      <c r="N21" s="164"/>
+      <c r="O21" s="164"/>
+      <c r="P21" s="164"/>
+      <c r="Q21" s="164"/>
+      <c r="R21" s="164"/>
+      <c r="S21" s="164"/>
+      <c r="T21" s="164"/>
+      <c r="U21" s="164"/>
+      <c r="V21" s="164"/>
+      <c r="W21" s="164"/>
+      <c r="X21" s="164"/>
+      <c r="Y21" s="164"/>
+      <c r="Z21" s="164"/>
+      <c r="AA21" s="164"/>
+      <c r="AB21" s="164"/>
+      <c r="AC21" s="164"/>
+      <c r="AD21" s="164"/>
+      <c r="AE21" s="164"/>
+      <c r="AF21" s="164"/>
+      <c r="AG21" s="164"/>
+      <c r="AH21" s="164"/>
+      <c r="AI21" s="164"/>
+      <c r="AJ21" s="164"/>
+      <c r="AK21" s="164"/>
+      <c r="AL21" s="164"/>
       <c r="AM21" s="75"/>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="164"/>
-      <c r="D22" s="165"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="165"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="165"/>
-      <c r="L22" s="165"/>
-      <c r="M22" s="165"/>
-      <c r="N22" s="165"/>
-      <c r="O22" s="165"/>
-      <c r="P22" s="165"/>
-      <c r="Q22" s="165"/>
-      <c r="R22" s="165"/>
-      <c r="S22" s="165"/>
-      <c r="T22" s="165"/>
-      <c r="U22" s="165"/>
-      <c r="V22" s="165"/>
-      <c r="W22" s="165"/>
-      <c r="X22" s="165"/>
-      <c r="Y22" s="165"/>
-      <c r="Z22" s="165"/>
-      <c r="AA22" s="165"/>
-      <c r="AB22" s="165"/>
-      <c r="AC22" s="165"/>
-      <c r="AD22" s="165"/>
-      <c r="AE22" s="165"/>
-      <c r="AF22" s="165"/>
-      <c r="AG22" s="165"/>
-      <c r="AH22" s="165"/>
-      <c r="AI22" s="165"/>
-      <c r="AJ22" s="165"/>
-      <c r="AK22" s="165"/>
-      <c r="AL22" s="165"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="164"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="164"/>
+      <c r="O22" s="164"/>
+      <c r="P22" s="164"/>
+      <c r="Q22" s="164"/>
+      <c r="R22" s="164"/>
+      <c r="S22" s="164"/>
+      <c r="T22" s="164"/>
+      <c r="U22" s="164"/>
+      <c r="V22" s="164"/>
+      <c r="W22" s="164"/>
+      <c r="X22" s="164"/>
+      <c r="Y22" s="164"/>
+      <c r="Z22" s="164"/>
+      <c r="AA22" s="164"/>
+      <c r="AB22" s="164"/>
+      <c r="AC22" s="164"/>
+      <c r="AD22" s="164"/>
+      <c r="AE22" s="164"/>
+      <c r="AF22" s="164"/>
+      <c r="AG22" s="164"/>
+      <c r="AH22" s="164"/>
+      <c r="AI22" s="164"/>
+      <c r="AJ22" s="164"/>
+      <c r="AK22" s="164"/>
+      <c r="AL22" s="164"/>
       <c r="AM22" s="75"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="164"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="165"/>
-      <c r="L23" s="165"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="165"/>
-      <c r="O23" s="165"/>
-      <c r="P23" s="165"/>
-      <c r="Q23" s="165"/>
-      <c r="R23" s="165"/>
-      <c r="S23" s="165"/>
-      <c r="T23" s="165"/>
-      <c r="U23" s="165"/>
-      <c r="V23" s="165"/>
-      <c r="W23" s="165"/>
-      <c r="X23" s="165"/>
-      <c r="Y23" s="165"/>
-      <c r="Z23" s="165"/>
-      <c r="AA23" s="165"/>
-      <c r="AB23" s="165"/>
-      <c r="AC23" s="165"/>
-      <c r="AD23" s="165"/>
-      <c r="AE23" s="165"/>
-      <c r="AF23" s="165"/>
-      <c r="AG23" s="165"/>
-      <c r="AH23" s="165"/>
-      <c r="AI23" s="165"/>
-      <c r="AJ23" s="165"/>
-      <c r="AK23" s="165"/>
-      <c r="AL23" s="165"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="164"/>
+      <c r="L23" s="164"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="164"/>
+      <c r="O23" s="164"/>
+      <c r="P23" s="164"/>
+      <c r="Q23" s="164"/>
+      <c r="R23" s="164"/>
+      <c r="S23" s="164"/>
+      <c r="T23" s="164"/>
+      <c r="U23" s="164"/>
+      <c r="V23" s="164"/>
+      <c r="W23" s="164"/>
+      <c r="X23" s="164"/>
+      <c r="Y23" s="164"/>
+      <c r="Z23" s="164"/>
+      <c r="AA23" s="164"/>
+      <c r="AB23" s="164"/>
+      <c r="AC23" s="164"/>
+      <c r="AD23" s="164"/>
+      <c r="AE23" s="164"/>
+      <c r="AF23" s="164"/>
+      <c r="AG23" s="164"/>
+      <c r="AH23" s="164"/>
+      <c r="AI23" s="164"/>
+      <c r="AJ23" s="164"/>
+      <c r="AK23" s="164"/>
+      <c r="AL23" s="164"/>
       <c r="AM23" s="75"/>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="164"/>
-      <c r="D24" s="165"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="165"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="165"/>
-      <c r="K24" s="165"/>
-      <c r="L24" s="165"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="165"/>
-      <c r="O24" s="165"/>
-      <c r="P24" s="165"/>
-      <c r="Q24" s="165"/>
-      <c r="R24" s="165"/>
-      <c r="S24" s="165"/>
-      <c r="T24" s="165"/>
-      <c r="U24" s="165"/>
-      <c r="V24" s="165"/>
-      <c r="W24" s="165"/>
-      <c r="X24" s="165"/>
-      <c r="Y24" s="165"/>
-      <c r="Z24" s="165"/>
-      <c r="AA24" s="165"/>
-      <c r="AB24" s="165"/>
-      <c r="AC24" s="165"/>
-      <c r="AD24" s="165"/>
-      <c r="AE24" s="165"/>
-      <c r="AF24" s="165"/>
-      <c r="AG24" s="165"/>
-      <c r="AH24" s="165"/>
-      <c r="AI24" s="165"/>
-      <c r="AJ24" s="165"/>
-      <c r="AK24" s="165"/>
-      <c r="AL24" s="165"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="164"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="164"/>
+      <c r="O24" s="164"/>
+      <c r="P24" s="164"/>
+      <c r="Q24" s="164"/>
+      <c r="R24" s="164"/>
+      <c r="S24" s="164"/>
+      <c r="T24" s="164"/>
+      <c r="U24" s="164"/>
+      <c r="V24" s="164"/>
+      <c r="W24" s="164"/>
+      <c r="X24" s="164"/>
+      <c r="Y24" s="164"/>
+      <c r="Z24" s="164"/>
+      <c r="AA24" s="164"/>
+      <c r="AB24" s="164"/>
+      <c r="AC24" s="164"/>
+      <c r="AD24" s="164"/>
+      <c r="AE24" s="164"/>
+      <c r="AF24" s="164"/>
+      <c r="AG24" s="164"/>
+      <c r="AH24" s="164"/>
+      <c r="AI24" s="164"/>
+      <c r="AJ24" s="164"/>
+      <c r="AK24" s="164"/>
+      <c r="AL24" s="164"/>
       <c r="AM24" s="75"/>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="164"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
-      <c r="H25" s="165"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="165"/>
-      <c r="K25" s="165"/>
-      <c r="L25" s="165"/>
-      <c r="M25" s="165"/>
-      <c r="N25" s="165"/>
-      <c r="O25" s="165"/>
-      <c r="P25" s="165"/>
-      <c r="Q25" s="165"/>
-      <c r="R25" s="165"/>
-      <c r="S25" s="165"/>
-      <c r="T25" s="165"/>
-      <c r="U25" s="165"/>
-      <c r="V25" s="165"/>
-      <c r="W25" s="165"/>
-      <c r="X25" s="165"/>
-      <c r="Y25" s="165"/>
-      <c r="Z25" s="165"/>
-      <c r="AA25" s="165"/>
-      <c r="AB25" s="165"/>
-      <c r="AC25" s="165"/>
-      <c r="AD25" s="165"/>
-      <c r="AE25" s="165"/>
-      <c r="AF25" s="165"/>
-      <c r="AG25" s="165"/>
-      <c r="AH25" s="165"/>
-      <c r="AI25" s="165"/>
-      <c r="AJ25" s="165"/>
-      <c r="AK25" s="165"/>
-      <c r="AL25" s="165"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="164"/>
+      <c r="L25" s="164"/>
+      <c r="M25" s="164"/>
+      <c r="N25" s="164"/>
+      <c r="O25" s="164"/>
+      <c r="P25" s="164"/>
+      <c r="Q25" s="164"/>
+      <c r="R25" s="164"/>
+      <c r="S25" s="164"/>
+      <c r="T25" s="164"/>
+      <c r="U25" s="164"/>
+      <c r="V25" s="164"/>
+      <c r="W25" s="164"/>
+      <c r="X25" s="164"/>
+      <c r="Y25" s="164"/>
+      <c r="Z25" s="164"/>
+      <c r="AA25" s="164"/>
+      <c r="AB25" s="164"/>
+      <c r="AC25" s="164"/>
+      <c r="AD25" s="164"/>
+      <c r="AE25" s="164"/>
+      <c r="AF25" s="164"/>
+      <c r="AG25" s="164"/>
+      <c r="AH25" s="164"/>
+      <c r="AI25" s="164"/>
+      <c r="AJ25" s="164"/>
+      <c r="AK25" s="164"/>
+      <c r="AL25" s="164"/>
       <c r="AM25" s="75"/>
     </row>
     <row r="26" customFormat="false" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="164"/>
-      <c r="D26" s="165"/>
-      <c r="E26" s="165"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="165"/>
-      <c r="I26" s="165"/>
-      <c r="J26" s="165"/>
-      <c r="K26" s="165"/>
-      <c r="L26" s="165"/>
-      <c r="M26" s="165"/>
-      <c r="N26" s="165"/>
-      <c r="O26" s="165"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="165"/>
-      <c r="R26" s="165"/>
-      <c r="S26" s="165"/>
-      <c r="T26" s="165"/>
-      <c r="U26" s="165"/>
-      <c r="V26" s="165"/>
-      <c r="W26" s="165"/>
-      <c r="X26" s="165"/>
-      <c r="Y26" s="165"/>
-      <c r="Z26" s="165"/>
-      <c r="AA26" s="165"/>
-      <c r="AB26" s="165"/>
-      <c r="AC26" s="165"/>
-      <c r="AD26" s="165"/>
-      <c r="AE26" s="165"/>
-      <c r="AF26" s="165"/>
-      <c r="AG26" s="165"/>
-      <c r="AH26" s="165"/>
-      <c r="AI26" s="165"/>
-      <c r="AJ26" s="165"/>
-      <c r="AK26" s="165"/>
-      <c r="AL26" s="165"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="164"/>
+      <c r="L26" s="164"/>
+      <c r="M26" s="164"/>
+      <c r="N26" s="164"/>
+      <c r="O26" s="164"/>
+      <c r="P26" s="164"/>
+      <c r="Q26" s="164"/>
+      <c r="R26" s="164"/>
+      <c r="S26" s="164"/>
+      <c r="T26" s="164"/>
+      <c r="U26" s="164"/>
+      <c r="V26" s="164"/>
+      <c r="W26" s="164"/>
+      <c r="X26" s="164"/>
+      <c r="Y26" s="164"/>
+      <c r="Z26" s="164"/>
+      <c r="AA26" s="164"/>
+      <c r="AB26" s="164"/>
+      <c r="AC26" s="164"/>
+      <c r="AD26" s="164"/>
+      <c r="AE26" s="164"/>
+      <c r="AF26" s="164"/>
+      <c r="AG26" s="164"/>
+      <c r="AH26" s="164"/>
+      <c r="AI26" s="164"/>
+      <c r="AJ26" s="164"/>
+      <c r="AK26" s="164"/>
+      <c r="AL26" s="164"/>
       <c r="AM26" s="75"/>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C27" s="164"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="165"/>
-      <c r="L27" s="165"/>
-      <c r="M27" s="165"/>
-      <c r="N27" s="165"/>
-      <c r="O27" s="165"/>
-      <c r="P27" s="165"/>
-      <c r="Q27" s="165"/>
-      <c r="R27" s="165"/>
-      <c r="S27" s="165"/>
-      <c r="T27" s="165"/>
-      <c r="U27" s="165"/>
-      <c r="V27" s="165"/>
-      <c r="W27" s="165"/>
-      <c r="X27" s="165"/>
-      <c r="Y27" s="165"/>
-      <c r="Z27" s="165"/>
-      <c r="AA27" s="165"/>
-      <c r="AB27" s="165"/>
-      <c r="AC27" s="165"/>
-      <c r="AD27" s="165"/>
-      <c r="AE27" s="165"/>
-      <c r="AF27" s="165"/>
-      <c r="AG27" s="165"/>
-      <c r="AH27" s="165"/>
-      <c r="AI27" s="165"/>
-      <c r="AJ27" s="165"/>
-      <c r="AK27" s="165"/>
-      <c r="AL27" s="165"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="164"/>
+      <c r="L27" s="164"/>
+      <c r="M27" s="164"/>
+      <c r="N27" s="164"/>
+      <c r="O27" s="164"/>
+      <c r="P27" s="164"/>
+      <c r="Q27" s="164"/>
+      <c r="R27" s="164"/>
+      <c r="S27" s="164"/>
+      <c r="T27" s="164"/>
+      <c r="U27" s="164"/>
+      <c r="V27" s="164"/>
+      <c r="W27" s="164"/>
+      <c r="X27" s="164"/>
+      <c r="Y27" s="164"/>
+      <c r="Z27" s="164"/>
+      <c r="AA27" s="164"/>
+      <c r="AB27" s="164"/>
+      <c r="AC27" s="164"/>
+      <c r="AD27" s="164"/>
+      <c r="AE27" s="164"/>
+      <c r="AF27" s="164"/>
+      <c r="AG27" s="164"/>
+      <c r="AH27" s="164"/>
+      <c r="AI27" s="164"/>
+      <c r="AJ27" s="164"/>
+      <c r="AK27" s="164"/>
+      <c r="AL27" s="164"/>
       <c r="AM27" s="75"/>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C28" s="164"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="165"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="165"/>
-      <c r="L28" s="165"/>
-      <c r="M28" s="165"/>
-      <c r="N28" s="165"/>
-      <c r="O28" s="165"/>
-      <c r="P28" s="165"/>
-      <c r="Q28" s="165"/>
-      <c r="R28" s="165"/>
-      <c r="S28" s="165"/>
-      <c r="T28" s="165"/>
-      <c r="U28" s="165"/>
-      <c r="V28" s="165"/>
-      <c r="W28" s="165"/>
-      <c r="X28" s="165"/>
-      <c r="Y28" s="165"/>
-      <c r="Z28" s="165"/>
-      <c r="AA28" s="165"/>
-      <c r="AB28" s="165"/>
-      <c r="AC28" s="165"/>
-      <c r="AD28" s="165"/>
-      <c r="AE28" s="165"/>
-      <c r="AF28" s="165"/>
-      <c r="AG28" s="165"/>
-      <c r="AH28" s="165"/>
-      <c r="AI28" s="165"/>
-      <c r="AJ28" s="165"/>
-      <c r="AK28" s="165"/>
-      <c r="AL28" s="165"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="164"/>
+      <c r="L28" s="164"/>
+      <c r="M28" s="164"/>
+      <c r="N28" s="164"/>
+      <c r="O28" s="164"/>
+      <c r="P28" s="164"/>
+      <c r="Q28" s="164"/>
+      <c r="R28" s="164"/>
+      <c r="S28" s="164"/>
+      <c r="T28" s="164"/>
+      <c r="U28" s="164"/>
+      <c r="V28" s="164"/>
+      <c r="W28" s="164"/>
+      <c r="X28" s="164"/>
+      <c r="Y28" s="164"/>
+      <c r="Z28" s="164"/>
+      <c r="AA28" s="164"/>
+      <c r="AB28" s="164"/>
+      <c r="AC28" s="164"/>
+      <c r="AD28" s="164"/>
+      <c r="AE28" s="164"/>
+      <c r="AF28" s="164"/>
+      <c r="AG28" s="164"/>
+      <c r="AH28" s="164"/>
+      <c r="AI28" s="164"/>
+      <c r="AJ28" s="164"/>
+      <c r="AK28" s="164"/>
+      <c r="AL28" s="164"/>
       <c r="AM28" s="75"/>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17665,253 +17661,253 @@
         <v>13</v>
       </c>
       <c r="B29" s="50"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="165"/>
-      <c r="K29" s="165"/>
-      <c r="L29" s="165"/>
-      <c r="M29" s="165"/>
-      <c r="N29" s="165"/>
-      <c r="O29" s="165"/>
-      <c r="P29" s="165"/>
-      <c r="Q29" s="165"/>
-      <c r="R29" s="165"/>
-      <c r="S29" s="165"/>
-      <c r="T29" s="165"/>
-      <c r="U29" s="165"/>
-      <c r="V29" s="165"/>
-      <c r="W29" s="165"/>
-      <c r="X29" s="165"/>
-      <c r="Y29" s="165"/>
-      <c r="Z29" s="165"/>
-      <c r="AA29" s="165"/>
-      <c r="AB29" s="165"/>
-      <c r="AC29" s="165"/>
-      <c r="AD29" s="165"/>
-      <c r="AE29" s="165"/>
-      <c r="AF29" s="165"/>
-      <c r="AG29" s="165"/>
-      <c r="AH29" s="165"/>
-      <c r="AI29" s="165"/>
-      <c r="AJ29" s="165"/>
-      <c r="AK29" s="165"/>
-      <c r="AL29" s="165"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="164"/>
+      <c r="L29" s="164"/>
+      <c r="M29" s="164"/>
+      <c r="N29" s="164"/>
+      <c r="O29" s="164"/>
+      <c r="P29" s="164"/>
+      <c r="Q29" s="164"/>
+      <c r="R29" s="164"/>
+      <c r="S29" s="164"/>
+      <c r="T29" s="164"/>
+      <c r="U29" s="164"/>
+      <c r="V29" s="164"/>
+      <c r="W29" s="164"/>
+      <c r="X29" s="164"/>
+      <c r="Y29" s="164"/>
+      <c r="Z29" s="164"/>
+      <c r="AA29" s="164"/>
+      <c r="AB29" s="164"/>
+      <c r="AC29" s="164"/>
+      <c r="AD29" s="164"/>
+      <c r="AE29" s="164"/>
+      <c r="AF29" s="164"/>
+      <c r="AG29" s="164"/>
+      <c r="AH29" s="164"/>
+      <c r="AI29" s="164"/>
+      <c r="AJ29" s="164"/>
+      <c r="AK29" s="164"/>
+      <c r="AL29" s="164"/>
       <c r="AM29" s="75"/>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="165"/>
-      <c r="I30" s="165"/>
-      <c r="J30" s="165"/>
-      <c r="K30" s="165"/>
-      <c r="L30" s="165"/>
-      <c r="M30" s="165"/>
-      <c r="N30" s="165"/>
-      <c r="O30" s="165"/>
-      <c r="P30" s="165"/>
-      <c r="Q30" s="165"/>
-      <c r="R30" s="165"/>
-      <c r="S30" s="165"/>
-      <c r="T30" s="165"/>
-      <c r="U30" s="165"/>
-      <c r="V30" s="165"/>
-      <c r="W30" s="165"/>
-      <c r="X30" s="165"/>
-      <c r="Y30" s="165"/>
-      <c r="Z30" s="165"/>
-      <c r="AA30" s="165"/>
-      <c r="AB30" s="165"/>
-      <c r="AC30" s="165"/>
-      <c r="AD30" s="165"/>
-      <c r="AE30" s="165"/>
-      <c r="AF30" s="165"/>
-      <c r="AG30" s="165"/>
-      <c r="AH30" s="165"/>
-      <c r="AI30" s="165"/>
-      <c r="AJ30" s="165"/>
-      <c r="AK30" s="165"/>
-      <c r="AL30" s="165"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="164"/>
+      <c r="K30" s="164"/>
+      <c r="L30" s="164"/>
+      <c r="M30" s="164"/>
+      <c r="N30" s="164"/>
+      <c r="O30" s="164"/>
+      <c r="P30" s="164"/>
+      <c r="Q30" s="164"/>
+      <c r="R30" s="164"/>
+      <c r="S30" s="164"/>
+      <c r="T30" s="164"/>
+      <c r="U30" s="164"/>
+      <c r="V30" s="164"/>
+      <c r="W30" s="164"/>
+      <c r="X30" s="164"/>
+      <c r="Y30" s="164"/>
+      <c r="Z30" s="164"/>
+      <c r="AA30" s="164"/>
+      <c r="AB30" s="164"/>
+      <c r="AC30" s="164"/>
+      <c r="AD30" s="164"/>
+      <c r="AE30" s="164"/>
+      <c r="AF30" s="164"/>
+      <c r="AG30" s="164"/>
+      <c r="AH30" s="164"/>
+      <c r="AI30" s="164"/>
+      <c r="AJ30" s="164"/>
+      <c r="AK30" s="164"/>
+      <c r="AL30" s="164"/>
       <c r="AM30" s="75"/>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="165"/>
-      <c r="H31" s="165"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="165"/>
-      <c r="K31" s="165"/>
-      <c r="L31" s="165"/>
-      <c r="M31" s="165"/>
-      <c r="N31" s="165"/>
-      <c r="O31" s="165"/>
-      <c r="P31" s="165"/>
-      <c r="Q31" s="165"/>
-      <c r="R31" s="165"/>
-      <c r="S31" s="165"/>
-      <c r="T31" s="165"/>
-      <c r="U31" s="165"/>
-      <c r="V31" s="165"/>
-      <c r="W31" s="165"/>
-      <c r="X31" s="165"/>
-      <c r="Y31" s="165"/>
-      <c r="Z31" s="16